--- a/schedule/ガントチャートxlsx.xlsx
+++ b/schedule/ガントチャートxlsx.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\test\trunk\TeamB\Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\okashi_222\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="136">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -170,14 +170,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>サーバー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クライアント</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UI</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -274,10 +266,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>よいち</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>皆</t>
     <rPh sb="0" eb="1">
       <t>ミンナ</t>
@@ -514,6 +502,413 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>アイテムを使用音</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定音１</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択音１</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻る音</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻る音1</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スピードアップ音</t>
+    <rPh sb="7" eb="8">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力アップ音</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム取得音1</t>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃ボタンで攻撃した時</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コントローラ追加</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コントローラボタン配置図</t>
+    <rPh sb="9" eb="11">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用用途</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左ステック</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右スティック</t>
+    <rPh sb="0" eb="1">
+      <t>ミギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>R２</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L 1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ視点移動</t>
+    <rPh sb="3" eb="5">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チームB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガントチャート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスター版提出日</t>
+    <rPh sb="4" eb="5">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>テイシュツ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームの流れ</t>
+    <rPh sb="4" eb="5">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の行動</t>
+  </si>
+  <si>
+    <t>キャラクター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネズミ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エフェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボスネズミ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>椅子</t>
+    <rPh sb="0" eb="2">
+      <t>イス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>机</t>
+    <rPh sb="0" eb="1">
+      <t>ツクエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細</t>
+    <rPh sb="0" eb="2">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダッシュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ配置</t>
+    <rPh sb="3" eb="5">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーに視点追尾</t>
+    <rPh sb="6" eb="8">
+      <t>シテン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックとの当たり判定</t>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>泣き声（攻撃）</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひっかく（攻撃）</t>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム獲得</t>
+    <rPh sb="4" eb="6">
+      <t>カクトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>α　　版　　提　　出</t>
+    <rPh sb="3" eb="4">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>テイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>β　　版　　提　　出</t>
+    <rPh sb="3" eb="4">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>テイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー表示</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一枚の板表示</t>
+    <rPh sb="0" eb="2">
+      <t>イチマイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>1日</t>
     <rPh sb="1" eb="2">
       <t>ニチ</t>
@@ -521,350 +916,65 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイテムを使用音</t>
-    <rPh sb="5" eb="7">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>決定音１</t>
+    <t>6日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全画面</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>筒井</t>
     <rPh sb="0" eb="2">
-      <t>ケッテイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>選択音１</t>
+      <t>ツツイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>増澤</t>
     <rPh sb="0" eb="2">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>戻る音</t>
-    <rPh sb="0" eb="1">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>戻る音1</t>
-    <rPh sb="0" eb="1">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スピードアップ音</t>
-    <rPh sb="7" eb="8">
-      <t>オン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃力アップ音</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>リョク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイテム取得音1</t>
-    <rPh sb="4" eb="6">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃ボタンで攻撃した時</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コントローラ追加</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コントローラボタン配置図</t>
-    <rPh sb="9" eb="11">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボタン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>使用用途</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨウト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>左ステック</t>
-    <rPh sb="0" eb="1">
-      <t>ヒダリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>右スティック</t>
-    <rPh sb="0" eb="1">
-      <t>ミギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R１</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R２</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L 1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L 2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>移動</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カメラ視点移動</t>
-    <rPh sb="3" eb="5">
-      <t>シテン</t>
-    </rPh>
+      <t>マスザワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー移動</t>
     <rPh sb="5" eb="7">
       <t>イドウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>チームB</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ガントチャート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マスター版提出日</t>
-    <rPh sb="4" eb="5">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>テイシュツ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲームの流れ</t>
-    <rPh sb="4" eb="5">
-      <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>武器</t>
-    <rPh sb="0" eb="2">
-      <t>ブキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵の行動</t>
-  </si>
-  <si>
-    <t>キャラクター</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ネズミ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エフェクト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>モーション</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>エネミー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボスネズミ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>椅子</t>
-    <rPh sb="0" eb="2">
-      <t>イス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>机</t>
-    <rPh sb="0" eb="1">
-      <t>ツクエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>詳細</t>
-    <rPh sb="0" eb="2">
-      <t>ショウサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ダッシュ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マップ配置</t>
+    <t>ライト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デザイナー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ツール作成</t>
     <rPh sb="3" eb="5">
-      <t>ハイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤーに視点追尾</t>
-    <rPh sb="6" eb="8">
-      <t>シテン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ツイビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロックとの当たり判定</t>
-    <rPh sb="6" eb="7">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>泣き声（攻撃）</t>
-    <rPh sb="0" eb="1">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ゴエ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ひっかく（攻撃）</t>
-    <rPh sb="5" eb="7">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アイテム獲得</t>
-    <rPh sb="4" eb="6">
-      <t>カクトク</t>
-    </rPh>
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>α→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>β→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マスター</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -877,7 +987,7 @@
     <numFmt numFmtId="177" formatCode="aaa"/>
     <numFmt numFmtId="178" formatCode="m/d"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1046,8 +1156,56 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF006100"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color rgb="FF9C6500"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1109,8 +1267,13 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1224,8 +1387,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1265,8 +1437,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1296,12 +1471,6 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1381,6 +1550,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1393,20 +1598,26 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1418,7 +1629,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="14">
     <cellStyle name="40% - アクセント 1" xfId="6" builtinId="31"/>
     <cellStyle name="60% - アクセント 1" xfId="7" builtinId="32"/>
     <cellStyle name="60% - アクセント 2" xfId="3" builtinId="36"/>
@@ -1426,6 +1637,7 @@
     <cellStyle name="60% - アクセント 6" xfId="5" builtinId="52"/>
     <cellStyle name="アクセント 1" xfId="2" builtinId="29"/>
     <cellStyle name="チェック セル" xfId="10" builtinId="23"/>
+    <cellStyle name="どちらでもない" xfId="13" builtinId="28"/>
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="ハイパーリンク" xfId="12" builtinId="8"/>
     <cellStyle name="メモ" xfId="11" builtinId="10"/>
@@ -1462,6 +1674,383 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>14007</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>49026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>7003</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="右矢印 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11605092" y="4405313"/>
+          <a:ext cx="259135" cy="189100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 52778"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>5322</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>26334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>264457</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>215434</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="右矢印 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11330267" y="2582676"/>
+          <a:ext cx="259135" cy="189100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 52778"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>264459</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>257454</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>222438</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="右矢印 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11589404" y="12829055"/>
+          <a:ext cx="259135" cy="189100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 52778"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>14007</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>245128</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>227760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="右矢印 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10008253" y="1159248"/>
+          <a:ext cx="1827960" cy="189100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 52778"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7004</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>49026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="右矢印 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11598089" y="4881563"/>
+          <a:ext cx="259135" cy="189100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 52778"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7005</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>35018</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>224118</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="右矢印 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11696141" y="6058180"/>
+          <a:ext cx="259136" cy="189100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 52778"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1574,7 +2163,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3419,38 +4008,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS62"/>
+  <dimension ref="A1:AS70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="K17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.25" customWidth="1"/>
     <col min="5" max="5" width="22.625" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="16"/>
-    <col min="8" max="9" width="7.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="14"/>
+    <col min="8" max="9" width="7.125" style="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.125" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="5" customWidth="1"/>
-    <col min="12" max="35" width="3.5" customWidth="1"/>
+    <col min="12" max="15" width="3.5" customWidth="1"/>
+    <col min="16" max="16" width="4.375" customWidth="1"/>
+    <col min="17" max="17" width="3.5" customWidth="1"/>
+    <col min="18" max="18" width="3.875" customWidth="1"/>
+    <col min="19" max="35" width="3.5" customWidth="1"/>
     <col min="36" max="36" width="6.75" customWidth="1"/>
     <col min="37" max="45" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="B1" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>97</v>
+      <c r="B1" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="K1" s="5">
         <v>2020</v>
@@ -3464,87 +4057,99 @@
       <c r="N1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:45" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K3" s="32">
+      <c r="P1" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="S1" s="39"/>
+      <c r="T1" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="U1" s="40"/>
+    </row>
+    <row r="3" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K3" s="30">
         <v>44116</v>
       </c>
-      <c r="L3" s="32">
+      <c r="L3" s="30">
         <v>44117</v>
       </c>
-      <c r="M3" s="32">
+      <c r="M3" s="30">
         <v>44118</v>
       </c>
-      <c r="N3" s="32">
+      <c r="N3" s="30">
         <v>44119</v>
       </c>
-      <c r="O3" s="32">
+      <c r="O3" s="30">
         <v>44120</v>
       </c>
-      <c r="P3" s="32">
+      <c r="P3" s="30">
         <v>44121</v>
       </c>
-      <c r="Q3" s="32">
+      <c r="Q3" s="30">
         <v>44122</v>
       </c>
-      <c r="R3" s="32">
+      <c r="R3" s="30">
         <v>44123</v>
       </c>
-      <c r="S3" s="32">
+      <c r="S3" s="30">
         <v>44124</v>
       </c>
-      <c r="T3" s="32">
+      <c r="T3" s="30">
         <v>44125</v>
       </c>
-      <c r="U3" s="32">
+      <c r="U3" s="30">
         <v>44126</v>
       </c>
-      <c r="V3" s="32">
+      <c r="V3" s="30">
         <v>44127</v>
       </c>
-      <c r="W3" s="32">
+      <c r="W3" s="30">
         <v>44128</v>
       </c>
-      <c r="X3" s="32">
+      <c r="X3" s="30">
         <v>44129</v>
       </c>
-      <c r="Y3" s="32">
+      <c r="Y3" s="30">
         <v>44130</v>
       </c>
-      <c r="Z3" s="32">
+      <c r="Z3" s="30">
         <v>44131</v>
       </c>
-      <c r="AA3" s="32">
+      <c r="AA3" s="30">
         <v>44132</v>
       </c>
-      <c r="AB3" s="32">
+      <c r="AB3" s="30">
         <v>44133</v>
       </c>
-      <c r="AC3" s="32">
+      <c r="AC3" s="30">
         <v>44134</v>
       </c>
-      <c r="AD3" s="32">
+      <c r="AD3" s="30">
         <v>44135</v>
       </c>
-      <c r="AE3" s="32">
+      <c r="AE3" s="30">
         <v>44136</v>
       </c>
-      <c r="AF3" s="32">
+      <c r="AF3" s="30">
         <v>44137</v>
       </c>
-      <c r="AG3" s="32">
+      <c r="AG3" s="30">
         <v>44138</v>
       </c>
-      <c r="AH3" s="32">
+      <c r="AH3" s="30">
         <v>44139</v>
       </c>
-      <c r="AI3" s="32">
+      <c r="AI3" s="30">
         <v>44140</v>
       </c>
-      <c r="AJ3" s="32">
+      <c r="AJ3" s="30">
         <v>44141</v>
       </c>
-      <c r="AK3" s="32">
+      <c r="AK3" s="30">
         <v>44142</v>
       </c>
       <c r="AL3" s="1"/>
@@ -3567,7 +4172,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>2</v>
@@ -3575,2339 +4180,2844 @@
       <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="22" t="s">
+      <c r="H4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="31">
         <f>K3</f>
         <v>44116</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="31">
         <f t="shared" ref="L4:AK4" si="0">L3</f>
         <v>44117</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="31">
         <f t="shared" si="0"/>
         <v>44118</v>
       </c>
-      <c r="N4" s="33">
+      <c r="N4" s="31">
         <f t="shared" si="0"/>
         <v>44119</v>
       </c>
-      <c r="O4" s="33">
+      <c r="O4" s="31">
         <f t="shared" si="0"/>
         <v>44120</v>
       </c>
-      <c r="P4" s="33">
+      <c r="P4" s="31">
         <f t="shared" si="0"/>
         <v>44121</v>
       </c>
-      <c r="Q4" s="33">
+      <c r="Q4" s="31">
         <f t="shared" si="0"/>
         <v>44122</v>
       </c>
-      <c r="R4" s="33">
+      <c r="R4" s="31">
         <f t="shared" si="0"/>
         <v>44123</v>
       </c>
-      <c r="S4" s="33">
+      <c r="S4" s="31">
         <f t="shared" si="0"/>
         <v>44124</v>
       </c>
-      <c r="T4" s="33">
+      <c r="T4" s="31">
         <f t="shared" si="0"/>
         <v>44125</v>
       </c>
-      <c r="U4" s="33">
+      <c r="U4" s="31">
         <f t="shared" si="0"/>
         <v>44126</v>
       </c>
-      <c r="V4" s="33">
+      <c r="V4" s="31">
         <f t="shared" si="0"/>
         <v>44127</v>
       </c>
-      <c r="W4" s="33">
+      <c r="W4" s="31">
         <f t="shared" si="0"/>
         <v>44128</v>
       </c>
-      <c r="X4" s="33">
+      <c r="X4" s="31">
         <f t="shared" si="0"/>
         <v>44129</v>
       </c>
-      <c r="Y4" s="33">
+      <c r="Y4" s="31">
         <f t="shared" si="0"/>
         <v>44130</v>
       </c>
-      <c r="Z4" s="33">
+      <c r="Z4" s="31">
         <f t="shared" si="0"/>
         <v>44131</v>
       </c>
-      <c r="AA4" s="33">
+      <c r="AA4" s="31">
         <f t="shared" si="0"/>
         <v>44132</v>
       </c>
-      <c r="AB4" s="33">
+      <c r="AB4" s="31">
         <f t="shared" si="0"/>
         <v>44133</v>
       </c>
-      <c r="AC4" s="33">
+      <c r="AC4" s="31">
         <f t="shared" si="0"/>
         <v>44134</v>
       </c>
-      <c r="AD4" s="33">
+      <c r="AD4" s="31">
         <f t="shared" si="0"/>
         <v>44135</v>
       </c>
-      <c r="AE4" s="33">
+      <c r="AE4" s="31">
         <f t="shared" si="0"/>
         <v>44136</v>
       </c>
-      <c r="AF4" s="33">
+      <c r="AF4" s="31">
         <f t="shared" si="0"/>
         <v>44137</v>
       </c>
-      <c r="AG4" s="33">
+      <c r="AG4" s="31">
         <f t="shared" si="0"/>
         <v>44138</v>
       </c>
-      <c r="AH4" s="33">
+      <c r="AH4" s="31">
         <f t="shared" si="0"/>
         <v>44139</v>
       </c>
-      <c r="AI4" s="33">
+      <c r="AI4" s="31">
         <f t="shared" si="0"/>
         <v>44140</v>
       </c>
-      <c r="AJ4" s="33">
+      <c r="AJ4" s="31">
         <f t="shared" si="0"/>
         <v>44141</v>
       </c>
-      <c r="AK4" s="33">
+      <c r="AK4" s="31">
         <f t="shared" si="0"/>
         <v>44142</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:45" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H5" s="21">
-        <v>44119</v>
-      </c>
-      <c r="I5" s="21">
+      <c r="F5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="19">
+        <v>44118</v>
+      </c>
+      <c r="I5" s="19">
         <v>44124</v>
       </c>
       <c r="J5" s="7">
         <v>1</v>
       </c>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="34"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="34"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="39" t="s">
-        <v>98</v>
-      </c>
-      <c r="AK5" s="34"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="32"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="56" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD5" s="32"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="32"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="32"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK5" s="32"/>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A6" s="46"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>41</v>
+      <c r="F6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="19">
+        <v>44124</v>
       </c>
       <c r="J6" s="7">
         <v>0.05</v>
       </c>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="35"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="35"/>
-      <c r="AD6" s="34"/>
-      <c r="AE6" s="34"/>
-      <c r="AF6" s="34"/>
-      <c r="AG6" s="34"/>
-      <c r="AH6" s="34"/>
-      <c r="AI6" s="34"/>
-      <c r="AJ6" s="40"/>
-      <c r="AK6" s="34"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="33"/>
+      <c r="X6" s="33"/>
+      <c r="Y6" s="33"/>
+      <c r="Z6" s="33"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="32"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="32"/>
+      <c r="AH6" s="32"/>
+      <c r="AI6" s="32"/>
+      <c r="AJ6" s="50"/>
+      <c r="AK6" s="32"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A7" s="46"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>41</v>
+      <c r="F7" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="J7" s="7">
         <v>0</v>
       </c>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="35"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="35"/>
-      <c r="AD7" s="34"/>
-      <c r="AE7" s="34"/>
-      <c r="AF7" s="34"/>
-      <c r="AG7" s="34"/>
-      <c r="AH7" s="34"/>
-      <c r="AI7" s="34"/>
-      <c r="AJ7" s="40"/>
-      <c r="AK7" s="34"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="32"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="32"/>
+      <c r="AH7" s="32"/>
+      <c r="AI7" s="32"/>
+      <c r="AJ7" s="50"/>
+      <c r="AK7" s="32"/>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A8" s="46"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="12" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>41</v>
+      <c r="F8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="19">
+        <v>44119</v>
       </c>
       <c r="J8" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="35"/>
-      <c r="AD8" s="34"/>
-      <c r="AE8" s="34"/>
-      <c r="AF8" s="34"/>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="34"/>
-      <c r="AI8" s="34"/>
-      <c r="AJ8" s="40"/>
-      <c r="AK8" s="34"/>
+        <v>0.1</v>
+      </c>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="33"/>
+      <c r="X8" s="33"/>
+      <c r="Y8" s="33"/>
+      <c r="Z8" s="33"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="33"/>
+      <c r="AC8" s="57"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="32"/>
+      <c r="AJ8" s="50"/>
+      <c r="AK8" s="32"/>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A9" s="46"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="34"/>
-      <c r="AE9" s="34"/>
-      <c r="AF9" s="34"/>
-      <c r="AG9" s="34"/>
-      <c r="AH9" s="34"/>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="40"/>
-      <c r="AK9" s="34"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0</v>
+      </c>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="54"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="57"/>
+      <c r="AD9" s="32"/>
+      <c r="AE9" s="32"/>
+      <c r="AF9" s="32"/>
+      <c r="AG9" s="32"/>
+      <c r="AH9" s="32"/>
+      <c r="AI9" s="32"/>
+      <c r="AJ9" s="50"/>
+      <c r="AK9" s="32"/>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A10" s="46"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="35"/>
-      <c r="AD10" s="34"/>
-      <c r="AE10" s="34"/>
-      <c r="AF10" s="34"/>
-      <c r="AG10" s="34"/>
-      <c r="AH10" s="34"/>
-      <c r="AI10" s="34"/>
-      <c r="AJ10" s="40"/>
-      <c r="AK10" s="34"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0</v>
+      </c>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="32"/>
+      <c r="AE10" s="32"/>
+      <c r="AF10" s="32"/>
+      <c r="AG10" s="32"/>
+      <c r="AH10" s="32"/>
+      <c r="AI10" s="32"/>
+      <c r="AJ10" s="50"/>
+      <c r="AK10" s="32"/>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A11" s="46"/>
-      <c r="B11" s="44" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="45" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>42</v>
+        <v>26</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="19">
+        <v>44123</v>
+      </c>
+      <c r="I11" s="19">
+        <v>44123</v>
       </c>
       <c r="J11" s="7">
         <v>1</v>
       </c>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="34"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="34"/>
-      <c r="AH11" s="34"/>
-      <c r="AI11" s="34"/>
-      <c r="AJ11" s="40"/>
-      <c r="AK11" s="34"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="33"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="33"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="57"/>
+      <c r="AD11" s="32"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="32"/>
+      <c r="AG11" s="32"/>
+      <c r="AH11" s="32"/>
+      <c r="AI11" s="32"/>
+      <c r="AJ11" s="50"/>
+      <c r="AK11" s="32"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A12" s="46"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="42"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="45"/>
       <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="35"/>
-      <c r="AD12" s="34"/>
-      <c r="AE12" s="34"/>
-      <c r="AF12" s="34"/>
-      <c r="AG12" s="34"/>
-      <c r="AH12" s="34"/>
-      <c r="AI12" s="34"/>
-      <c r="AJ12" s="40"/>
-      <c r="AK12" s="34"/>
+        <v>23</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="33"/>
+      <c r="X12" s="33"/>
+      <c r="Y12" s="33"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="33"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="32"/>
+      <c r="AE12" s="32"/>
+      <c r="AF12" s="32"/>
+      <c r="AG12" s="32"/>
+      <c r="AH12" s="32"/>
+      <c r="AI12" s="32"/>
+      <c r="AJ12" s="50"/>
+      <c r="AK12" s="32"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A13" s="46"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="16"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="35"/>
-      <c r="AD13" s="34"/>
-      <c r="AE13" s="34"/>
-      <c r="AF13" s="34"/>
-      <c r="AG13" s="34"/>
-      <c r="AH13" s="34"/>
-      <c r="AI13" s="34"/>
-      <c r="AJ13" s="40"/>
-      <c r="AK13" s="34"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="16"/>
+      <c r="F13" s="14"/>
+      <c r="J13" s="7">
+        <v>0</v>
+      </c>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="54"/>
+      <c r="W13" s="33"/>
+      <c r="X13" s="33"/>
+      <c r="Y13" s="33"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="33"/>
+      <c r="AC13" s="57"/>
+      <c r="AD13" s="32"/>
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="32"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13" s="32"/>
+      <c r="AI13" s="32"/>
+      <c r="AJ13" s="50"/>
+      <c r="AK13" s="32"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A14" s="46"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="35"/>
-      <c r="AD14" s="34"/>
-      <c r="AE14" s="34"/>
-      <c r="AF14" s="34"/>
-      <c r="AG14" s="34"/>
-      <c r="AH14" s="34"/>
-      <c r="AI14" s="34"/>
-      <c r="AJ14" s="40"/>
-      <c r="AK14" s="34"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="J14" s="7">
+        <v>0</v>
+      </c>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="33"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="33"/>
+      <c r="AC14" s="57"/>
+      <c r="AD14" s="32"/>
+      <c r="AE14" s="32"/>
+      <c r="AF14" s="32"/>
+      <c r="AG14" s="32"/>
+      <c r="AH14" s="32"/>
+      <c r="AI14" s="32"/>
+      <c r="AJ14" s="50"/>
+      <c r="AK14" s="32"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A15" s="46"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="42" t="s">
+      <c r="A15" s="44"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="45" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>40</v>
       </c>
       <c r="J15" s="7">
         <v>0</v>
       </c>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="35"/>
-      <c r="AD15" s="34"/>
-      <c r="AE15" s="34"/>
-      <c r="AF15" s="34"/>
-      <c r="AG15" s="34"/>
-      <c r="AH15" s="34"/>
-      <c r="AI15" s="34"/>
-      <c r="AJ15" s="40"/>
-      <c r="AK15" s="34"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="33"/>
+      <c r="X15" s="33"/>
+      <c r="Y15" s="33"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="33"/>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="32"/>
+      <c r="AE15" s="32"/>
+      <c r="AF15" s="32"/>
+      <c r="AG15" s="32"/>
+      <c r="AH15" s="32"/>
+      <c r="AI15" s="32"/>
+      <c r="AJ15" s="50"/>
+      <c r="AK15" s="32"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A16" s="46"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="16"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="35"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="35"/>
-      <c r="AD16" s="34"/>
-      <c r="AE16" s="34"/>
-      <c r="AF16" s="34"/>
-      <c r="AG16" s="34"/>
-      <c r="AH16" s="34"/>
-      <c r="AI16" s="34"/>
-      <c r="AJ16" s="40"/>
-      <c r="AK16" s="34"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="14"/>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="32"/>
+      <c r="AE16" s="32"/>
+      <c r="AF16" s="32"/>
+      <c r="AG16" s="32"/>
+      <c r="AH16" s="32"/>
+      <c r="AI16" s="32"/>
+      <c r="AJ16" s="50"/>
+      <c r="AK16" s="32"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A17" s="46"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="42"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="45"/>
       <c r="D17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="35"/>
-      <c r="AD17" s="34"/>
-      <c r="AE17" s="34"/>
-      <c r="AF17" s="34"/>
-      <c r="AG17" s="34"/>
-      <c r="AH17" s="34"/>
-      <c r="AI17" s="34"/>
-      <c r="AJ17" s="40"/>
-      <c r="AK17" s="34"/>
+        <v>23</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0</v>
+      </c>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="57"/>
+      <c r="AD17" s="32"/>
+      <c r="AE17" s="32"/>
+      <c r="AF17" s="32"/>
+      <c r="AG17" s="32"/>
+      <c r="AH17" s="32"/>
+      <c r="AI17" s="32"/>
+      <c r="AJ17" s="50"/>
+      <c r="AK17" s="32"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A18" s="46"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="42" t="s">
+      <c r="A18" s="44"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="42" t="s">
-        <v>106</v>
+      <c r="D18" s="45" t="s">
+        <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" s="19">
+        <v>44124</v>
       </c>
       <c r="J18" s="7">
         <v>0</v>
       </c>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="35"/>
-      <c r="AD18" s="34"/>
-      <c r="AE18" s="34"/>
-      <c r="AF18" s="34"/>
-      <c r="AG18" s="34"/>
-      <c r="AH18" s="34"/>
-      <c r="AI18" s="34"/>
-      <c r="AJ18" s="40"/>
-      <c r="AK18" s="34"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="32"/>
+      <c r="AE18" s="32"/>
+      <c r="AF18" s="32"/>
+      <c r="AG18" s="32"/>
+      <c r="AH18" s="32"/>
+      <c r="AI18" s="32"/>
+      <c r="AJ18" s="50"/>
+      <c r="AK18" s="32"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A19" s="46"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
       <c r="E19" t="s">
-        <v>120</v>
-      </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="35"/>
-      <c r="AD19" s="34"/>
-      <c r="AE19" s="34"/>
-      <c r="AF19" s="34"/>
-      <c r="AG19" s="34"/>
-      <c r="AH19" s="34"/>
-      <c r="AI19" s="34"/>
-      <c r="AJ19" s="40"/>
-      <c r="AK19" s="34"/>
+        <v>122</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="19">
+        <v>44124</v>
+      </c>
+      <c r="I19" s="19">
+        <v>44124</v>
+      </c>
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="57"/>
+      <c r="AD19" s="32"/>
+      <c r="AE19" s="32"/>
+      <c r="AF19" s="32"/>
+      <c r="AG19" s="32"/>
+      <c r="AH19" s="32"/>
+      <c r="AI19" s="32"/>
+      <c r="AJ19" s="50"/>
+      <c r="AK19" s="32"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A20" s="46"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
       <c r="E20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="J20" s="7">
+        <v>0</v>
+      </c>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="54"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="57"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="32"/>
+      <c r="AG20" s="32"/>
+      <c r="AH20" s="32"/>
+      <c r="AI20" s="32"/>
+      <c r="AJ20" s="50"/>
+      <c r="AK20" s="32"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A21" s="44"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="19">
+        <v>44124</v>
+      </c>
+      <c r="I21" s="19">
+        <v>44124</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1</v>
+      </c>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="54"/>
+      <c r="W21" s="33"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="33"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="57"/>
+      <c r="AD21" s="32"/>
+      <c r="AE21" s="32"/>
+      <c r="AF21" s="32"/>
+      <c r="AG21" s="32"/>
+      <c r="AH21" s="32"/>
+      <c r="AI21" s="32"/>
+      <c r="AJ21" s="50"/>
+      <c r="AK21" s="32"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A22" s="44"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="J22" s="7">
+        <v>0</v>
+      </c>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="54"/>
+      <c r="W22" s="33"/>
+      <c r="X22" s="33"/>
+      <c r="Y22" s="33"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="57"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="32"/>
+      <c r="AF22" s="32"/>
+      <c r="AG22" s="32"/>
+      <c r="AH22" s="32"/>
+      <c r="AI22" s="32"/>
+      <c r="AJ22" s="50"/>
+      <c r="AK22" s="32"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A23" s="44"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="54"/>
+      <c r="W23" s="33"/>
+      <c r="X23" s="33"/>
+      <c r="Y23" s="33"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="33"/>
+      <c r="AC23" s="57"/>
+      <c r="AD23" s="32"/>
+      <c r="AE23" s="32"/>
+      <c r="AF23" s="32"/>
+      <c r="AG23" s="32"/>
+      <c r="AH23" s="32"/>
+      <c r="AI23" s="32"/>
+      <c r="AJ23" s="50"/>
+      <c r="AK23" s="32"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A24" s="44"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="J24" s="7">
+        <v>0</v>
+      </c>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="54"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="57"/>
+      <c r="AD24" s="32"/>
+      <c r="AE24" s="32"/>
+      <c r="AF24" s="32"/>
+      <c r="AG24" s="32"/>
+      <c r="AH24" s="32"/>
+      <c r="AI24" s="32"/>
+      <c r="AJ24" s="50"/>
+      <c r="AK24" s="32"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A25" s="44"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="19">
+        <v>44124</v>
+      </c>
+      <c r="I25" s="19">
+        <v>44124</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0</v>
+      </c>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="54"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="57"/>
+      <c r="AD25" s="32"/>
+      <c r="AE25" s="32"/>
+      <c r="AF25" s="32"/>
+      <c r="AG25" s="32"/>
+      <c r="AH25" s="32"/>
+      <c r="AI25" s="32"/>
+      <c r="AJ25" s="50"/>
+      <c r="AK25" s="32"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A26" s="44"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45"/>
+      <c r="E26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="19">
+        <v>44124</v>
+      </c>
+      <c r="I26" s="19">
+        <v>44124</v>
+      </c>
+      <c r="J26" s="7">
+        <v>1</v>
+      </c>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="54"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="57"/>
+      <c r="AD26" s="32"/>
+      <c r="AE26" s="32"/>
+      <c r="AF26" s="32"/>
+      <c r="AG26" s="32"/>
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="32"/>
+      <c r="AJ26" s="50"/>
+      <c r="AK26" s="32"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A27" s="44"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>112</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0</v>
+      </c>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="54"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="33"/>
+      <c r="AC27" s="57"/>
+      <c r="AD27" s="32"/>
+      <c r="AE27" s="32"/>
+      <c r="AF27" s="32"/>
+      <c r="AG27" s="32"/>
+      <c r="AH27" s="32"/>
+      <c r="AI27" s="32"/>
+      <c r="AJ27" s="50"/>
+      <c r="AK27" s="32"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A28" s="44"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" t="s">
+        <v>106</v>
+      </c>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="J28" s="7">
+        <v>0</v>
+      </c>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="33"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="33"/>
+      <c r="AC28" s="57"/>
+      <c r="AD28" s="32"/>
+      <c r="AE28" s="32"/>
+      <c r="AF28" s="32"/>
+      <c r="AG28" s="32"/>
+      <c r="AH28" s="32"/>
+      <c r="AI28" s="32"/>
+      <c r="AJ28" s="50"/>
+      <c r="AK28" s="32"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A29" s="44"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="19">
+        <v>44124</v>
+      </c>
+      <c r="I29" s="19">
+        <v>44124</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="33"/>
+      <c r="AC29" s="57"/>
+      <c r="AD29" s="32"/>
+      <c r="AE29" s="32"/>
+      <c r="AF29" s="32"/>
+      <c r="AG29" s="32"/>
+      <c r="AH29" s="32"/>
+      <c r="AI29" s="32"/>
+      <c r="AJ29" s="50"/>
+      <c r="AK29" s="32"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A30" s="44"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" t="s">
+        <v>98</v>
+      </c>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="54"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="33"/>
+      <c r="AA30" s="33"/>
+      <c r="AB30" s="33"/>
+      <c r="AC30" s="57"/>
+      <c r="AD30" s="32"/>
+      <c r="AE30" s="32"/>
+      <c r="AF30" s="32"/>
+      <c r="AG30" s="32"/>
+      <c r="AH30" s="32"/>
+      <c r="AI30" s="32"/>
+      <c r="AJ30" s="50"/>
+      <c r="AK30" s="32"/>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A31" s="44"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="35"/>
-      <c r="AD20" s="34"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="34"/>
-      <c r="AG20" s="34"/>
-      <c r="AH20" s="34"/>
-      <c r="AI20" s="34"/>
-      <c r="AJ20" s="40"/>
-      <c r="AK20" s="34"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A21" s="46"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="35"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="34"/>
-      <c r="AG21" s="34"/>
-      <c r="AH21" s="34"/>
-      <c r="AI21" s="34"/>
-      <c r="AJ21" s="40"/>
-      <c r="AK21" s="34"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A22" s="46"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="34"/>
-      <c r="AE22" s="34"/>
-      <c r="AF22" s="34"/>
-      <c r="AG22" s="34"/>
-      <c r="AH22" s="34"/>
-      <c r="AI22" s="34"/>
-      <c r="AJ22" s="40"/>
-      <c r="AK22" s="34"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A23" s="46"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="37" t="s">
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="J31" s="7">
+        <v>0</v>
+      </c>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="33"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="54"/>
+      <c r="W31" s="33"/>
+      <c r="X31" s="33"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="33"/>
+      <c r="AB31" s="33"/>
+      <c r="AC31" s="57"/>
+      <c r="AD31" s="32"/>
+      <c r="AE31" s="32"/>
+      <c r="AF31" s="32"/>
+      <c r="AG31" s="32"/>
+      <c r="AH31" s="32"/>
+      <c r="AI31" s="32"/>
+      <c r="AJ31" s="50"/>
+      <c r="AK31" s="32"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A32" s="44"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45"/>
+      <c r="E32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="J32" s="7">
+        <v>0</v>
+      </c>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="54"/>
+      <c r="W32" s="33"/>
+      <c r="X32" s="33"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="33"/>
+      <c r="AA32" s="33"/>
+      <c r="AB32" s="33"/>
+      <c r="AC32" s="57"/>
+      <c r="AD32" s="32"/>
+      <c r="AE32" s="32"/>
+      <c r="AF32" s="32"/>
+      <c r="AG32" s="32"/>
+      <c r="AH32" s="32"/>
+      <c r="AI32" s="32"/>
+      <c r="AJ32" s="50"/>
+      <c r="AK32" s="32"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A33" s="44"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="45"/>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="7">
+        <v>0</v>
+      </c>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="54"/>
+      <c r="W33" s="33"/>
+      <c r="X33" s="33"/>
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="33"/>
+      <c r="AA33" s="33"/>
+      <c r="AB33" s="33"/>
+      <c r="AC33" s="57"/>
+      <c r="AD33" s="32"/>
+      <c r="AE33" s="32"/>
+      <c r="AF33" s="32"/>
+      <c r="AG33" s="32"/>
+      <c r="AH33" s="32"/>
+      <c r="AI33" s="32"/>
+      <c r="AJ33" s="50"/>
+      <c r="AK33" s="32"/>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A34" s="44"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="45"/>
+      <c r="D34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="J34" s="7">
+        <v>0</v>
+      </c>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="33"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="54"/>
+      <c r="W34" s="33"/>
+      <c r="X34" s="33"/>
+      <c r="Y34" s="33"/>
+      <c r="Z34" s="33"/>
+      <c r="AA34" s="33"/>
+      <c r="AB34" s="33"/>
+      <c r="AC34" s="57"/>
+      <c r="AD34" s="32"/>
+      <c r="AE34" s="32"/>
+      <c r="AF34" s="32"/>
+      <c r="AG34" s="32"/>
+      <c r="AH34" s="32"/>
+      <c r="AI34" s="32"/>
+      <c r="AJ34" s="50"/>
+      <c r="AK34" s="32"/>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A35" s="44"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="45"/>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="7">
+        <v>0</v>
+      </c>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="54"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="33"/>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="33"/>
+      <c r="AA35" s="33"/>
+      <c r="AB35" s="33"/>
+      <c r="AC35" s="57"/>
+      <c r="AD35" s="32"/>
+      <c r="AE35" s="32"/>
+      <c r="AF35" s="32"/>
+      <c r="AG35" s="32"/>
+      <c r="AH35" s="32"/>
+      <c r="AI35" s="32"/>
+      <c r="AJ35" s="50"/>
+      <c r="AK35" s="32"/>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A36" s="44"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E23" t="s">
-        <v>117</v>
-      </c>
-      <c r="J23" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="34"/>
-      <c r="AE23" s="34"/>
-      <c r="AF23" s="34"/>
-      <c r="AG23" s="34"/>
-      <c r="AH23" s="34"/>
-      <c r="AI23" s="34"/>
-      <c r="AJ23" s="40"/>
-      <c r="AK23" s="34"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A24" s="46"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42" t="s">
+      <c r="E36" s="15"/>
+      <c r="F36" s="12"/>
+      <c r="J36" s="7">
+        <v>0</v>
+      </c>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="54"/>
+      <c r="W36" s="33"/>
+      <c r="X36" s="33"/>
+      <c r="Y36" s="33"/>
+      <c r="Z36" s="33"/>
+      <c r="AA36" s="33"/>
+      <c r="AB36" s="33"/>
+      <c r="AC36" s="57"/>
+      <c r="AD36" s="32"/>
+      <c r="AE36" s="32"/>
+      <c r="AF36" s="32"/>
+      <c r="AG36" s="32"/>
+      <c r="AH36" s="32"/>
+      <c r="AI36" s="32"/>
+      <c r="AJ36" s="50"/>
+      <c r="AK36" s="32"/>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A37" s="44"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37" s="16"/>
+      <c r="F37" s="14"/>
+      <c r="J37" s="7">
+        <v>0</v>
+      </c>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
+      <c r="V37" s="54"/>
+      <c r="W37" s="33"/>
+      <c r="X37" s="33"/>
+      <c r="Y37" s="33"/>
+      <c r="Z37" s="33"/>
+      <c r="AA37" s="33"/>
+      <c r="AB37" s="33"/>
+      <c r="AC37" s="57"/>
+      <c r="AD37" s="32"/>
+      <c r="AE37" s="32"/>
+      <c r="AF37" s="32"/>
+      <c r="AG37" s="32"/>
+      <c r="AH37" s="32"/>
+      <c r="AI37" s="32"/>
+      <c r="AJ37" s="50"/>
+      <c r="AK37" s="32"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A38" s="44"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="45"/>
+      <c r="D38" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0</v>
+      </c>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
+      <c r="V38" s="54"/>
+      <c r="W38" s="33"/>
+      <c r="X38" s="33"/>
+      <c r="Y38" s="33"/>
+      <c r="Z38" s="33"/>
+      <c r="AA38" s="33"/>
+      <c r="AB38" s="33"/>
+      <c r="AC38" s="57"/>
+      <c r="AD38" s="32"/>
+      <c r="AE38" s="32"/>
+      <c r="AF38" s="32"/>
+      <c r="AG38" s="32"/>
+      <c r="AH38" s="32"/>
+      <c r="AI38" s="32"/>
+      <c r="AJ38" s="50"/>
+      <c r="AK38" s="32"/>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A39" s="44"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="J39" s="7">
+        <v>0</v>
+      </c>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="33"/>
+      <c r="V39" s="54"/>
+      <c r="W39" s="33"/>
+      <c r="X39" s="33"/>
+      <c r="Y39" s="33"/>
+      <c r="Z39" s="33"/>
+      <c r="AA39" s="33"/>
+      <c r="AB39" s="33"/>
+      <c r="AC39" s="57"/>
+      <c r="AD39" s="32"/>
+      <c r="AE39" s="32"/>
+      <c r="AF39" s="32"/>
+      <c r="AG39" s="32"/>
+      <c r="AH39" s="32"/>
+      <c r="AI39" s="32"/>
+      <c r="AJ39" s="50"/>
+      <c r="AK39" s="32"/>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A40" s="44"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="45"/>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="J40" s="7">
+        <v>0</v>
+      </c>
+      <c r="K40" s="33"/>
+      <c r="L40" s="33"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="33"/>
+      <c r="U40" s="33"/>
+      <c r="V40" s="54"/>
+      <c r="W40" s="33"/>
+      <c r="X40" s="33"/>
+      <c r="Y40" s="33"/>
+      <c r="Z40" s="33"/>
+      <c r="AA40" s="33"/>
+      <c r="AB40" s="33"/>
+      <c r="AC40" s="57"/>
+      <c r="AD40" s="32"/>
+      <c r="AE40" s="32"/>
+      <c r="AF40" s="32"/>
+      <c r="AG40" s="32"/>
+      <c r="AH40" s="32"/>
+      <c r="AI40" s="32"/>
+      <c r="AJ40" s="50"/>
+      <c r="AK40" s="32"/>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A41" s="44"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" s="12"/>
+      <c r="J41" s="7">
+        <v>0</v>
+      </c>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="54"/>
+      <c r="W41" s="33"/>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="33"/>
+      <c r="Z41" s="33"/>
+      <c r="AA41" s="33"/>
+      <c r="AB41" s="33"/>
+      <c r="AC41" s="57"/>
+      <c r="AD41" s="32"/>
+      <c r="AE41" s="32"/>
+      <c r="AF41" s="32"/>
+      <c r="AG41" s="32"/>
+      <c r="AH41" s="32"/>
+      <c r="AI41" s="32"/>
+      <c r="AJ41" s="50"/>
+      <c r="AK41" s="32"/>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A42" s="44"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="45"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="J42" s="7">
+        <v>0</v>
+      </c>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="33"/>
+      <c r="U42" s="33"/>
+      <c r="V42" s="54"/>
+      <c r="W42" s="33"/>
+      <c r="X42" s="33"/>
+      <c r="Y42" s="33"/>
+      <c r="Z42" s="33"/>
+      <c r="AA42" s="33"/>
+      <c r="AB42" s="33"/>
+      <c r="AC42" s="57"/>
+      <c r="AD42" s="32"/>
+      <c r="AE42" s="32"/>
+      <c r="AF42" s="32"/>
+      <c r="AG42" s="32"/>
+      <c r="AH42" s="32"/>
+      <c r="AI42" s="32"/>
+      <c r="AJ42" s="50"/>
+      <c r="AK42" s="32"/>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A43" s="44"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="45"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="J43" s="7">
+        <v>0</v>
+      </c>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="33"/>
+      <c r="V43" s="54"/>
+      <c r="W43" s="33"/>
+      <c r="X43" s="33"/>
+      <c r="Y43" s="33"/>
+      <c r="Z43" s="33"/>
+      <c r="AA43" s="33"/>
+      <c r="AB43" s="33"/>
+      <c r="AC43" s="57"/>
+      <c r="AD43" s="32"/>
+      <c r="AE43" s="32"/>
+      <c r="AF43" s="32"/>
+      <c r="AG43" s="32"/>
+      <c r="AH43" s="32"/>
+      <c r="AI43" s="32"/>
+      <c r="AJ43" s="50"/>
+      <c r="AK43" s="32"/>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A44" s="44"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s">
+        <v>46</v>
+      </c>
+      <c r="J44" s="7">
+        <v>0</v>
+      </c>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="33"/>
+      <c r="U44" s="33"/>
+      <c r="V44" s="54"/>
+      <c r="W44" s="33"/>
+      <c r="X44" s="33"/>
+      <c r="Y44" s="33"/>
+      <c r="Z44" s="33"/>
+      <c r="AA44" s="33"/>
+      <c r="AB44" s="33"/>
+      <c r="AC44" s="57"/>
+      <c r="AD44" s="32"/>
+      <c r="AE44" s="32"/>
+      <c r="AF44" s="32"/>
+      <c r="AG44" s="32"/>
+      <c r="AH44" s="32"/>
+      <c r="AI44" s="32"/>
+      <c r="AJ44" s="50"/>
+      <c r="AK44" s="32"/>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A45" s="44"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="45"/>
+      <c r="D45" t="s">
+        <v>36</v>
+      </c>
+      <c r="J45" s="7">
+        <v>0</v>
+      </c>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="33"/>
+      <c r="S45" s="33"/>
+      <c r="T45" s="33"/>
+      <c r="U45" s="33"/>
+      <c r="V45" s="54"/>
+      <c r="W45" s="33"/>
+      <c r="X45" s="33"/>
+      <c r="Y45" s="33"/>
+      <c r="Z45" s="33"/>
+      <c r="AA45" s="33"/>
+      <c r="AB45" s="33"/>
+      <c r="AC45" s="57"/>
+      <c r="AD45" s="32"/>
+      <c r="AE45" s="32"/>
+      <c r="AF45" s="32"/>
+      <c r="AG45" s="32"/>
+      <c r="AH45" s="32"/>
+      <c r="AI45" s="32"/>
+      <c r="AJ45" s="50"/>
+      <c r="AK45" s="32"/>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A46" s="44"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="45"/>
+      <c r="D46" t="s">
+        <v>37</v>
+      </c>
+      <c r="J46" s="7">
+        <v>0</v>
+      </c>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="33"/>
+      <c r="S46" s="33"/>
+      <c r="T46" s="33"/>
+      <c r="U46" s="33"/>
+      <c r="V46" s="54"/>
+      <c r="W46" s="33"/>
+      <c r="X46" s="33"/>
+      <c r="Y46" s="33"/>
+      <c r="Z46" s="33"/>
+      <c r="AA46" s="33"/>
+      <c r="AB46" s="33"/>
+      <c r="AC46" s="57"/>
+      <c r="AD46" s="32"/>
+      <c r="AE46" s="32"/>
+      <c r="AF46" s="32"/>
+      <c r="AG46" s="32"/>
+      <c r="AH46" s="32"/>
+      <c r="AI46" s="32"/>
+      <c r="AJ46" s="50"/>
+      <c r="AK46" s="32"/>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A47" s="44"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="45"/>
+      <c r="D47" t="s">
+        <v>38</v>
+      </c>
+      <c r="J47" s="7">
+        <v>0</v>
+      </c>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="33"/>
+      <c r="V47" s="54"/>
+      <c r="W47" s="33"/>
+      <c r="X47" s="33"/>
+      <c r="Y47" s="33"/>
+      <c r="Z47" s="33"/>
+      <c r="AA47" s="33"/>
+      <c r="AB47" s="33"/>
+      <c r="AC47" s="57"/>
+      <c r="AD47" s="32"/>
+      <c r="AE47" s="32"/>
+      <c r="AF47" s="32"/>
+      <c r="AG47" s="32"/>
+      <c r="AH47" s="32"/>
+      <c r="AI47" s="32"/>
+      <c r="AJ47" s="50"/>
+      <c r="AK47" s="32"/>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A48" s="44"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="45"/>
+      <c r="D48" t="s">
+        <v>33</v>
+      </c>
+      <c r="J48" s="7">
+        <v>0</v>
+      </c>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
+      <c r="S48" s="33"/>
+      <c r="T48" s="33"/>
+      <c r="U48" s="33"/>
+      <c r="V48" s="54"/>
+      <c r="W48" s="33"/>
+      <c r="X48" s="33"/>
+      <c r="Y48" s="33"/>
+      <c r="Z48" s="33"/>
+      <c r="AA48" s="33"/>
+      <c r="AB48" s="33"/>
+      <c r="AC48" s="57"/>
+      <c r="AD48" s="32"/>
+      <c r="AE48" s="32"/>
+      <c r="AF48" s="32"/>
+      <c r="AG48" s="32"/>
+      <c r="AH48" s="32"/>
+      <c r="AI48" s="32"/>
+      <c r="AJ48" s="50"/>
+      <c r="AK48" s="32"/>
+    </row>
+    <row r="49" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A49" s="44"/>
+      <c r="B49" s="52"/>
+      <c r="J49" s="7">
+        <v>0</v>
+      </c>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="33"/>
+      <c r="V49" s="54"/>
+      <c r="W49" s="33"/>
+      <c r="X49" s="33"/>
+      <c r="Y49" s="33"/>
+      <c r="Z49" s="33"/>
+      <c r="AA49" s="33"/>
+      <c r="AB49" s="33"/>
+      <c r="AC49" s="57"/>
+      <c r="AD49" s="32"/>
+      <c r="AE49" s="32"/>
+      <c r="AF49" s="32"/>
+      <c r="AG49" s="32"/>
+      <c r="AH49" s="32"/>
+      <c r="AI49" s="32"/>
+      <c r="AJ49" s="50"/>
+      <c r="AK49" s="32"/>
+    </row>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A50" s="44"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="J50" s="7">
+        <v>0</v>
+      </c>
+      <c r="K50" s="33"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="33"/>
+      <c r="N50" s="33"/>
+      <c r="O50" s="33"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="33"/>
+      <c r="R50" s="33"/>
+      <c r="S50" s="33"/>
+      <c r="T50" s="33"/>
+      <c r="U50" s="33"/>
+      <c r="V50" s="54"/>
+      <c r="W50" s="33"/>
+      <c r="X50" s="33"/>
+      <c r="Y50" s="33"/>
+      <c r="Z50" s="33"/>
+      <c r="AA50" s="33"/>
+      <c r="AB50" s="33"/>
+      <c r="AC50" s="57"/>
+      <c r="AD50" s="32"/>
+      <c r="AE50" s="32"/>
+      <c r="AF50" s="32"/>
+      <c r="AG50" s="32"/>
+      <c r="AH50" s="32"/>
+      <c r="AI50" s="32"/>
+      <c r="AJ50" s="50"/>
+      <c r="AK50" s="32"/>
+    </row>
+    <row r="51" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A51" s="44"/>
+      <c r="B51" s="52"/>
+      <c r="J51" s="7">
+        <v>0</v>
+      </c>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="33"/>
+      <c r="T51" s="33"/>
+      <c r="U51" s="33"/>
+      <c r="V51" s="54"/>
+      <c r="W51" s="33"/>
+      <c r="X51" s="33"/>
+      <c r="Y51" s="33"/>
+      <c r="Z51" s="33"/>
+      <c r="AA51" s="33"/>
+      <c r="AB51" s="33"/>
+      <c r="AC51" s="57"/>
+      <c r="AD51" s="32"/>
+      <c r="AE51" s="32"/>
+      <c r="AF51" s="32"/>
+      <c r="AG51" s="32"/>
+      <c r="AH51" s="32"/>
+      <c r="AI51" s="32"/>
+      <c r="AJ51" s="50"/>
+      <c r="AK51" s="32"/>
+    </row>
+    <row r="52" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A52" s="44"/>
+      <c r="B52" s="52"/>
+      <c r="J52" s="7">
+        <v>0</v>
+      </c>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="33"/>
+      <c r="V52" s="54"/>
+      <c r="W52" s="33"/>
+      <c r="X52" s="33"/>
+      <c r="Y52" s="33"/>
+      <c r="Z52" s="33"/>
+      <c r="AA52" s="33"/>
+      <c r="AB52" s="33"/>
+      <c r="AC52" s="57"/>
+      <c r="AD52" s="32"/>
+      <c r="AE52" s="32"/>
+      <c r="AF52" s="32"/>
+      <c r="AG52" s="32"/>
+      <c r="AH52" s="32"/>
+      <c r="AI52" s="32"/>
+      <c r="AJ52" s="50"/>
+      <c r="AK52" s="32"/>
+    </row>
+    <row r="53" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="44"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E53" s="22"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="9">
+        <v>0</v>
+      </c>
+      <c r="K53" s="34"/>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="34"/>
+      <c r="O53" s="34"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="34"/>
+      <c r="R53" s="34"/>
+      <c r="S53" s="34"/>
+      <c r="T53" s="34"/>
+      <c r="U53" s="34"/>
+      <c r="V53" s="54"/>
+      <c r="W53" s="34"/>
+      <c r="X53" s="34"/>
+      <c r="Y53" s="34"/>
+      <c r="Z53" s="34"/>
+      <c r="AA53" s="34"/>
+      <c r="AB53" s="34"/>
+      <c r="AC53" s="57"/>
+      <c r="AD53" s="32"/>
+      <c r="AE53" s="32"/>
+      <c r="AF53" s="32"/>
+      <c r="AG53" s="32"/>
+      <c r="AH53" s="32"/>
+      <c r="AI53" s="32"/>
+      <c r="AJ53" s="50"/>
+      <c r="AK53" s="32"/>
+    </row>
+    <row r="54" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A54" s="44"/>
+      <c r="B54" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="H54" s="19">
+        <v>44124</v>
+      </c>
+      <c r="I54" s="19">
+        <v>44124</v>
+      </c>
+      <c r="J54" s="7">
+        <v>1</v>
+      </c>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="33"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="33"/>
+      <c r="U54" s="33"/>
+      <c r="V54" s="54"/>
+      <c r="W54" s="33"/>
+      <c r="X54" s="33"/>
+      <c r="Y54" s="33"/>
+      <c r="Z54" s="33"/>
+      <c r="AA54" s="33"/>
+      <c r="AB54" s="33"/>
+      <c r="AC54" s="57"/>
+      <c r="AD54" s="32"/>
+      <c r="AE54" s="32"/>
+      <c r="AF54" s="32"/>
+      <c r="AG54" s="32"/>
+      <c r="AH54" s="32"/>
+      <c r="AI54" s="32"/>
+      <c r="AJ54" s="50"/>
+      <c r="AK54" s="32"/>
+    </row>
+    <row r="55" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A55" s="44"/>
+      <c r="B55" s="48"/>
+      <c r="C55" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" t="s">
+        <v>110</v>
+      </c>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="J55" s="7">
+        <v>0</v>
+      </c>
+      <c r="K55" s="33"/>
+      <c r="L55" s="33"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="33"/>
+      <c r="O55" s="33"/>
+      <c r="P55" s="33"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="33"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="33"/>
+      <c r="U55" s="33"/>
+      <c r="V55" s="54"/>
+      <c r="W55" s="33"/>
+      <c r="X55" s="33"/>
+      <c r="Y55" s="33"/>
+      <c r="Z55" s="33"/>
+      <c r="AA55" s="33"/>
+      <c r="AB55" s="33"/>
+      <c r="AC55" s="57"/>
+      <c r="AD55" s="32"/>
+      <c r="AE55" s="32"/>
+      <c r="AF55" s="32"/>
+      <c r="AG55" s="32"/>
+      <c r="AH55" s="32"/>
+      <c r="AI55" s="32"/>
+      <c r="AJ55" s="50"/>
+      <c r="AK55" s="32"/>
+    </row>
+    <row r="56" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A56" s="44"/>
+      <c r="B56" s="48"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="33"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="33"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="33"/>
+      <c r="S56" s="33"/>
+      <c r="T56" s="33"/>
+      <c r="U56" s="33"/>
+      <c r="V56" s="54"/>
+      <c r="W56" s="33"/>
+      <c r="X56" s="33"/>
+      <c r="Y56" s="33"/>
+      <c r="Z56" s="33"/>
+      <c r="AA56" s="33"/>
+      <c r="AB56" s="33"/>
+      <c r="AC56" s="57"/>
+      <c r="AD56" s="32"/>
+      <c r="AE56" s="32"/>
+      <c r="AF56" s="32"/>
+      <c r="AG56" s="32"/>
+      <c r="AH56" s="32"/>
+      <c r="AI56" s="32"/>
+      <c r="AJ56" s="50"/>
+      <c r="AK56" s="32"/>
+    </row>
+    <row r="57" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A57" s="44"/>
+      <c r="B57" s="48"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="33"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="33"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="33"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="33"/>
+      <c r="S57" s="33"/>
+      <c r="T57" s="33"/>
+      <c r="U57" s="33"/>
+      <c r="V57" s="54"/>
+      <c r="W57" s="33"/>
+      <c r="X57" s="33"/>
+      <c r="Y57" s="33"/>
+      <c r="Z57" s="33"/>
+      <c r="AA57" s="33"/>
+      <c r="AB57" s="33"/>
+      <c r="AC57" s="57"/>
+      <c r="AD57" s="32"/>
+      <c r="AE57" s="32"/>
+      <c r="AF57" s="32"/>
+      <c r="AG57" s="32"/>
+      <c r="AH57" s="32"/>
+      <c r="AI57" s="32"/>
+      <c r="AJ57" s="50"/>
+      <c r="AK57" s="32"/>
+    </row>
+    <row r="58" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A58" s="44"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="45"/>
+      <c r="D58" t="s">
+        <v>104</v>
+      </c>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="J58" s="7">
+        <v>0</v>
+      </c>
+      <c r="K58" s="33"/>
+      <c r="L58" s="33"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="33"/>
+      <c r="V58" s="54"/>
+      <c r="W58" s="33"/>
+      <c r="X58" s="33"/>
+      <c r="Y58" s="33"/>
+      <c r="Z58" s="33"/>
+      <c r="AA58" s="33"/>
+      <c r="AB58" s="33"/>
+      <c r="AC58" s="57"/>
+      <c r="AD58" s="32"/>
+      <c r="AE58" s="32"/>
+      <c r="AF58" s="32"/>
+      <c r="AG58" s="32"/>
+      <c r="AH58" s="32"/>
+      <c r="AI58" s="32"/>
+      <c r="AJ58" s="50"/>
+      <c r="AK58" s="32"/>
+    </row>
+    <row r="59" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A59" s="44"/>
+      <c r="B59" s="48"/>
+      <c r="C59" s="45"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="36"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="33"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33"/>
+      <c r="S59" s="33"/>
+      <c r="T59" s="33"/>
+      <c r="U59" s="33"/>
+      <c r="V59" s="54"/>
+      <c r="W59" s="33"/>
+      <c r="X59" s="33"/>
+      <c r="Y59" s="33"/>
+      <c r="Z59" s="33"/>
+      <c r="AA59" s="33"/>
+      <c r="AB59" s="33"/>
+      <c r="AC59" s="57"/>
+      <c r="AD59" s="32"/>
+      <c r="AE59" s="32"/>
+      <c r="AF59" s="32"/>
+      <c r="AG59" s="32"/>
+      <c r="AH59" s="32"/>
+      <c r="AI59" s="32"/>
+      <c r="AJ59" s="50"/>
+      <c r="AK59" s="32"/>
+    </row>
+    <row r="60" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="44"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" t="s">
+        <v>100</v>
+      </c>
+      <c r="F60" s="14"/>
+      <c r="J60" s="7">
+        <v>0</v>
+      </c>
+      <c r="K60" s="33"/>
+      <c r="L60" s="33"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="33"/>
+      <c r="O60" s="33"/>
+      <c r="P60" s="33"/>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="33"/>
+      <c r="S60" s="33"/>
+      <c r="T60" s="33"/>
+      <c r="U60" s="33"/>
+      <c r="V60" s="54"/>
+      <c r="W60" s="33"/>
+      <c r="X60" s="33"/>
+      <c r="Y60" s="33"/>
+      <c r="Z60" s="33"/>
+      <c r="AA60" s="33"/>
+      <c r="AB60" s="33"/>
+      <c r="AC60" s="57"/>
+      <c r="AD60" s="32"/>
+      <c r="AE60" s="32"/>
+      <c r="AF60" s="32"/>
+      <c r="AG60" s="32"/>
+      <c r="AH60" s="32"/>
+      <c r="AI60" s="32"/>
+      <c r="AJ60" s="50"/>
+      <c r="AK60" s="32"/>
+    </row>
+    <row r="61" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="44"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="45"/>
+      <c r="D61" t="s">
+        <v>105</v>
+      </c>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="J61" s="7">
+        <v>0</v>
+      </c>
+      <c r="K61" s="33"/>
+      <c r="L61" s="33"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="33"/>
+      <c r="O61" s="33"/>
+      <c r="P61" s="33"/>
+      <c r="Q61" s="33"/>
+      <c r="R61" s="33"/>
+      <c r="S61" s="33"/>
+      <c r="T61" s="33"/>
+      <c r="U61" s="33"/>
+      <c r="V61" s="54"/>
+      <c r="W61" s="33"/>
+      <c r="X61" s="33"/>
+      <c r="Y61" s="33"/>
+      <c r="Z61" s="33"/>
+      <c r="AA61" s="33"/>
+      <c r="AB61" s="33"/>
+      <c r="AC61" s="57"/>
+      <c r="AD61" s="32"/>
+      <c r="AE61" s="32"/>
+      <c r="AF61" s="32"/>
+      <c r="AG61" s="32"/>
+      <c r="AH61" s="32"/>
+      <c r="AI61" s="32"/>
+      <c r="AJ61" s="50"/>
+      <c r="AK61" s="32"/>
+    </row>
+    <row r="62" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A62" s="44"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F62" s="14"/>
+      <c r="J62" s="7">
+        <v>0</v>
+      </c>
+      <c r="K62" s="33"/>
+      <c r="L62" s="33"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="33"/>
+      <c r="O62" s="33"/>
+      <c r="P62" s="33"/>
+      <c r="Q62" s="33"/>
+      <c r="R62" s="33"/>
+      <c r="S62" s="33"/>
+      <c r="T62" s="33"/>
+      <c r="U62" s="33"/>
+      <c r="V62" s="54"/>
+      <c r="W62" s="33"/>
+      <c r="X62" s="33"/>
+      <c r="Y62" s="33"/>
+      <c r="Z62" s="33"/>
+      <c r="AA62" s="33"/>
+      <c r="AB62" s="33"/>
+      <c r="AC62" s="57"/>
+      <c r="AD62" s="32"/>
+      <c r="AE62" s="32"/>
+      <c r="AF62" s="32"/>
+      <c r="AG62" s="32"/>
+      <c r="AH62" s="32"/>
+      <c r="AI62" s="32"/>
+      <c r="AJ62" s="50"/>
+      <c r="AK62" s="32"/>
+    </row>
+    <row r="63" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A63" s="44"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J63" s="7">
+        <v>0</v>
+      </c>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="33"/>
+      <c r="O63" s="33"/>
+      <c r="P63" s="33"/>
+      <c r="Q63" s="33"/>
+      <c r="R63" s="33"/>
+      <c r="S63" s="33"/>
+      <c r="T63" s="33"/>
+      <c r="U63" s="33"/>
+      <c r="V63" s="54"/>
+      <c r="W63" s="33"/>
+      <c r="X63" s="33"/>
+      <c r="Y63" s="33"/>
+      <c r="Z63" s="33"/>
+      <c r="AA63" s="33"/>
+      <c r="AB63" s="33"/>
+      <c r="AC63" s="57"/>
+      <c r="AD63" s="32"/>
+      <c r="AE63" s="32"/>
+      <c r="AF63" s="32"/>
+      <c r="AG63" s="32"/>
+      <c r="AH63" s="32"/>
+      <c r="AI63" s="32"/>
+      <c r="AJ63" s="50"/>
+      <c r="AK63" s="32"/>
+    </row>
+    <row r="64" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A64" s="44"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E24" t="s">
-        <v>116</v>
-      </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="34"/>
-      <c r="AE24" s="34"/>
-      <c r="AF24" s="34"/>
-      <c r="AG24" s="34"/>
-      <c r="AH24" s="34"/>
-      <c r="AI24" s="34"/>
-      <c r="AJ24" s="40"/>
-      <c r="AK24" s="34"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A25" s="46"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="35"/>
-      <c r="AB25" s="35"/>
-      <c r="AC25" s="35"/>
-      <c r="AD25" s="34"/>
-      <c r="AE25" s="34"/>
-      <c r="AF25" s="34"/>
-      <c r="AG25" s="34"/>
-      <c r="AH25" s="34"/>
-      <c r="AI25" s="34"/>
-      <c r="AJ25" s="40"/>
-      <c r="AK25" s="34"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A26" s="46"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" t="s">
-        <v>102</v>
-      </c>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="35"/>
-      <c r="AC26" s="35"/>
-      <c r="AD26" s="34"/>
-      <c r="AE26" s="34"/>
-      <c r="AF26" s="34"/>
-      <c r="AG26" s="34"/>
-      <c r="AH26" s="34"/>
-      <c r="AI26" s="34"/>
-      <c r="AJ26" s="40"/>
-      <c r="AK26" s="34"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A27" s="46"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="35"/>
-      <c r="AB27" s="35"/>
-      <c r="AC27" s="35"/>
-      <c r="AD27" s="34"/>
-      <c r="AE27" s="34"/>
-      <c r="AF27" s="34"/>
-      <c r="AG27" s="34"/>
-      <c r="AH27" s="34"/>
-      <c r="AI27" s="34"/>
-      <c r="AJ27" s="40"/>
-      <c r="AK27" s="34"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A28" s="46"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="42"/>
-      <c r="D28" t="s">
-        <v>26</v>
-      </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="35"/>
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="35"/>
-      <c r="AB28" s="35"/>
-      <c r="AC28" s="35"/>
-      <c r="AD28" s="34"/>
-      <c r="AE28" s="34"/>
-      <c r="AF28" s="34"/>
-      <c r="AG28" s="34"/>
-      <c r="AH28" s="34"/>
-      <c r="AI28" s="34"/>
-      <c r="AJ28" s="40"/>
-      <c r="AK28" s="34"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A29" s="46"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="42"/>
-      <c r="D29" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="35"/>
-      <c r="AA29" s="35"/>
-      <c r="AB29" s="35"/>
-      <c r="AC29" s="35"/>
-      <c r="AD29" s="34"/>
-      <c r="AE29" s="34"/>
-      <c r="AF29" s="34"/>
-      <c r="AG29" s="34"/>
-      <c r="AH29" s="34"/>
-      <c r="AI29" s="34"/>
-      <c r="AJ29" s="40"/>
-      <c r="AK29" s="34"/>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A30" s="46"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="42"/>
-      <c r="D30" t="s">
-        <v>25</v>
-      </c>
-      <c r="J30" s="7"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="35"/>
-      <c r="AA30" s="35"/>
-      <c r="AB30" s="35"/>
-      <c r="AC30" s="35"/>
-      <c r="AD30" s="34"/>
-      <c r="AE30" s="34"/>
-      <c r="AF30" s="34"/>
-      <c r="AG30" s="34"/>
-      <c r="AH30" s="34"/>
-      <c r="AI30" s="34"/>
-      <c r="AJ30" s="40"/>
-      <c r="AK30" s="34"/>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A31" s="46"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="14"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="35"/>
-      <c r="Z31" s="35"/>
-      <c r="AA31" s="35"/>
-      <c r="AB31" s="35"/>
-      <c r="AC31" s="35"/>
-      <c r="AD31" s="34"/>
-      <c r="AE31" s="34"/>
-      <c r="AF31" s="34"/>
-      <c r="AG31" s="34"/>
-      <c r="AH31" s="34"/>
-      <c r="AI31" s="34"/>
-      <c r="AJ31" s="40"/>
-      <c r="AK31" s="34"/>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A32" s="46"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="16"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="35"/>
-      <c r="Z32" s="35"/>
-      <c r="AA32" s="35"/>
-      <c r="AB32" s="35"/>
-      <c r="AC32" s="35"/>
-      <c r="AD32" s="34"/>
-      <c r="AE32" s="34"/>
-      <c r="AF32" s="34"/>
-      <c r="AG32" s="34"/>
-      <c r="AH32" s="34"/>
-      <c r="AI32" s="34"/>
-      <c r="AJ32" s="40"/>
-      <c r="AK32" s="34"/>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A33" s="46"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="42"/>
-      <c r="D33" t="s">
-        <v>28</v>
-      </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="35"/>
-      <c r="Z33" s="35"/>
-      <c r="AA33" s="35"/>
-      <c r="AB33" s="35"/>
-      <c r="AC33" s="35"/>
-      <c r="AD33" s="34"/>
-      <c r="AE33" s="34"/>
-      <c r="AF33" s="34"/>
-      <c r="AG33" s="34"/>
-      <c r="AH33" s="34"/>
-      <c r="AI33" s="34"/>
-      <c r="AJ33" s="40"/>
-      <c r="AK33" s="34"/>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A34" s="46"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" s="14"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="35"/>
-      <c r="Y34" s="35"/>
-      <c r="Z34" s="35"/>
-      <c r="AA34" s="35"/>
-      <c r="AB34" s="35"/>
-      <c r="AC34" s="35"/>
-      <c r="AD34" s="34"/>
-      <c r="AE34" s="34"/>
-      <c r="AF34" s="34"/>
-      <c r="AG34" s="34"/>
-      <c r="AH34" s="34"/>
-      <c r="AI34" s="34"/>
-      <c r="AJ34" s="40"/>
-      <c r="AK34" s="34"/>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A35" s="46"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="42"/>
-      <c r="D35" t="s">
-        <v>28</v>
-      </c>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="35"/>
-      <c r="X35" s="35"/>
-      <c r="Y35" s="35"/>
-      <c r="Z35" s="35"/>
-      <c r="AA35" s="35"/>
-      <c r="AB35" s="35"/>
-      <c r="AC35" s="35"/>
-      <c r="AD35" s="34"/>
-      <c r="AE35" s="34"/>
-      <c r="AF35" s="34"/>
-      <c r="AG35" s="34"/>
-      <c r="AH35" s="34"/>
-      <c r="AI35" s="34"/>
-      <c r="AJ35" s="40"/>
-      <c r="AK35" s="34"/>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A36" s="46"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" t="s">
-        <v>48</v>
-      </c>
-      <c r="F36" s="14"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="35"/>
-      <c r="X36" s="35"/>
-      <c r="Y36" s="35"/>
-      <c r="Z36" s="35"/>
-      <c r="AA36" s="35"/>
-      <c r="AB36" s="35"/>
-      <c r="AC36" s="35"/>
-      <c r="AD36" s="34"/>
-      <c r="AE36" s="34"/>
-      <c r="AF36" s="34"/>
-      <c r="AG36" s="34"/>
-      <c r="AH36" s="34"/>
-      <c r="AI36" s="34"/>
-      <c r="AJ36" s="40"/>
-      <c r="AK36" s="34"/>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A37" s="46"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="42"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="35"/>
-      <c r="Y37" s="35"/>
-      <c r="Z37" s="35"/>
-      <c r="AA37" s="35"/>
-      <c r="AB37" s="35"/>
-      <c r="AC37" s="35"/>
-      <c r="AD37" s="34"/>
-      <c r="AE37" s="34"/>
-      <c r="AF37" s="34"/>
-      <c r="AG37" s="34"/>
-      <c r="AH37" s="34"/>
-      <c r="AI37" s="34"/>
-      <c r="AJ37" s="40"/>
-      <c r="AK37" s="34"/>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A38" s="46"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="42"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35"/>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="35"/>
-      <c r="W38" s="35"/>
-      <c r="X38" s="35"/>
-      <c r="Y38" s="35"/>
-      <c r="Z38" s="35"/>
-      <c r="AA38" s="35"/>
-      <c r="AB38" s="35"/>
-      <c r="AC38" s="35"/>
-      <c r="AD38" s="34"/>
-      <c r="AE38" s="34"/>
-      <c r="AF38" s="34"/>
-      <c r="AG38" s="34"/>
-      <c r="AH38" s="34"/>
-      <c r="AI38" s="34"/>
-      <c r="AJ38" s="40"/>
-      <c r="AK38" s="34"/>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A39" s="46"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" t="s">
-        <v>49</v>
-      </c>
-      <c r="J39" s="7"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="35"/>
-      <c r="X39" s="35"/>
-      <c r="Y39" s="35"/>
-      <c r="Z39" s="35"/>
-      <c r="AA39" s="35"/>
-      <c r="AB39" s="35"/>
-      <c r="AC39" s="35"/>
-      <c r="AD39" s="34"/>
-      <c r="AE39" s="34"/>
-      <c r="AF39" s="34"/>
-      <c r="AG39" s="34"/>
-      <c r="AH39" s="34"/>
-      <c r="AI39" s="34"/>
-      <c r="AJ39" s="40"/>
-      <c r="AK39" s="34"/>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A40" s="46"/>
-      <c r="B40" s="44"/>
-      <c r="C40" s="42"/>
-      <c r="D40" t="s">
-        <v>38</v>
-      </c>
-      <c r="J40" s="7"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="35"/>
-      <c r="S40" s="35"/>
-      <c r="T40" s="35"/>
-      <c r="U40" s="35"/>
-      <c r="V40" s="35"/>
-      <c r="W40" s="35"/>
-      <c r="X40" s="35"/>
-      <c r="Y40" s="35"/>
-      <c r="Z40" s="35"/>
-      <c r="AA40" s="35"/>
-      <c r="AB40" s="35"/>
-      <c r="AC40" s="35"/>
-      <c r="AD40" s="34"/>
-      <c r="AE40" s="34"/>
-      <c r="AF40" s="34"/>
-      <c r="AG40" s="34"/>
-      <c r="AH40" s="34"/>
-      <c r="AI40" s="34"/>
-      <c r="AJ40" s="40"/>
-      <c r="AK40" s="34"/>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A41" s="46"/>
-      <c r="B41" s="44"/>
-      <c r="C41" s="42"/>
-      <c r="D41" t="s">
-        <v>39</v>
-      </c>
-      <c r="J41" s="7"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="35"/>
-      <c r="W41" s="35"/>
-      <c r="X41" s="35"/>
-      <c r="Y41" s="35"/>
-      <c r="Z41" s="35"/>
-      <c r="AA41" s="35"/>
-      <c r="AB41" s="35"/>
-      <c r="AC41" s="35"/>
-      <c r="AD41" s="34"/>
-      <c r="AE41" s="34"/>
-      <c r="AF41" s="34"/>
-      <c r="AG41" s="34"/>
-      <c r="AH41" s="34"/>
-      <c r="AI41" s="34"/>
-      <c r="AJ41" s="40"/>
-      <c r="AK41" s="34"/>
-    </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A42" s="46"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="42"/>
-      <c r="D42" t="s">
-        <v>40</v>
-      </c>
-      <c r="J42" s="7"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="35"/>
-      <c r="W42" s="35"/>
-      <c r="X42" s="35"/>
-      <c r="Y42" s="35"/>
-      <c r="Z42" s="35"/>
-      <c r="AA42" s="35"/>
-      <c r="AB42" s="35"/>
-      <c r="AC42" s="35"/>
-      <c r="AD42" s="34"/>
-      <c r="AE42" s="34"/>
-      <c r="AF42" s="34"/>
-      <c r="AG42" s="34"/>
-      <c r="AH42" s="34"/>
-      <c r="AI42" s="34"/>
-      <c r="AJ42" s="40"/>
-      <c r="AK42" s="34"/>
-    </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A43" s="46"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="42"/>
-      <c r="D43" t="s">
-        <v>35</v>
-      </c>
-      <c r="J43" s="7"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="35"/>
-      <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="35"/>
-      <c r="V43" s="35"/>
-      <c r="W43" s="35"/>
-      <c r="X43" s="35"/>
-      <c r="Y43" s="35"/>
-      <c r="Z43" s="35"/>
-      <c r="AA43" s="35"/>
-      <c r="AB43" s="35"/>
-      <c r="AC43" s="35"/>
-      <c r="AD43" s="34"/>
-      <c r="AE43" s="34"/>
-      <c r="AF43" s="34"/>
-      <c r="AG43" s="34"/>
-      <c r="AH43" s="34"/>
-      <c r="AI43" s="34"/>
-      <c r="AJ43" s="40"/>
-      <c r="AK43" s="34"/>
-    </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A44" s="46"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J44" s="7"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35"/>
-      <c r="S44" s="35"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="35"/>
-      <c r="V44" s="35"/>
-      <c r="W44" s="35"/>
-      <c r="X44" s="35"/>
-      <c r="Y44" s="35"/>
-      <c r="Z44" s="35"/>
-      <c r="AA44" s="35"/>
-      <c r="AB44" s="35"/>
-      <c r="AC44" s="35"/>
-      <c r="AD44" s="34"/>
-      <c r="AE44" s="34"/>
-      <c r="AF44" s="34"/>
-      <c r="AG44" s="34"/>
-      <c r="AH44" s="34"/>
-      <c r="AI44" s="34"/>
-      <c r="AJ44" s="40"/>
-      <c r="AK44" s="34"/>
-    </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A45" s="46"/>
-      <c r="B45" s="44"/>
-      <c r="C45" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J45" s="7"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="35"/>
-      <c r="S45" s="35"/>
-      <c r="T45" s="35"/>
-      <c r="U45" s="35"/>
-      <c r="V45" s="35"/>
-      <c r="W45" s="35"/>
-      <c r="X45" s="35"/>
-      <c r="Y45" s="35"/>
-      <c r="Z45" s="35"/>
-      <c r="AA45" s="35"/>
-      <c r="AB45" s="35"/>
-      <c r="AC45" s="35"/>
-      <c r="AD45" s="34"/>
-      <c r="AE45" s="34"/>
-      <c r="AF45" s="34"/>
-      <c r="AG45" s="34"/>
-      <c r="AH45" s="34"/>
-      <c r="AI45" s="34"/>
-      <c r="AJ45" s="40"/>
-      <c r="AK45" s="34"/>
-    </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A46" s="46"/>
-      <c r="B46" s="44"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="35"/>
-      <c r="O46" s="35"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="35"/>
-      <c r="R46" s="35"/>
-      <c r="S46" s="35"/>
-      <c r="T46" s="35"/>
-      <c r="U46" s="35"/>
-      <c r="V46" s="35"/>
-      <c r="W46" s="35"/>
-      <c r="X46" s="35"/>
-      <c r="Y46" s="35"/>
-      <c r="Z46" s="35"/>
-      <c r="AA46" s="35"/>
-      <c r="AB46" s="35"/>
-      <c r="AC46" s="35"/>
-      <c r="AD46" s="34"/>
-      <c r="AE46" s="34"/>
-      <c r="AF46" s="34"/>
-      <c r="AG46" s="34"/>
-      <c r="AH46" s="34"/>
-      <c r="AI46" s="34"/>
-      <c r="AJ46" s="40"/>
-      <c r="AK46" s="34"/>
-    </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A47" s="46"/>
-      <c r="B47" s="44"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35"/>
-      <c r="O47" s="35"/>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="35"/>
-      <c r="S47" s="35"/>
-      <c r="T47" s="35"/>
-      <c r="U47" s="35"/>
-      <c r="V47" s="35"/>
-      <c r="W47" s="35"/>
-      <c r="X47" s="35"/>
-      <c r="Y47" s="35"/>
-      <c r="Z47" s="35"/>
-      <c r="AA47" s="35"/>
-      <c r="AB47" s="35"/>
-      <c r="AC47" s="35"/>
-      <c r="AD47" s="34"/>
-      <c r="AE47" s="34"/>
-      <c r="AF47" s="34"/>
-      <c r="AG47" s="34"/>
-      <c r="AH47" s="34"/>
-      <c r="AI47" s="34"/>
-      <c r="AJ47" s="40"/>
-      <c r="AK47" s="34"/>
-    </row>
-    <row r="48" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="46"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="E48" s="24"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="36"/>
-      <c r="N48" s="36"/>
-      <c r="O48" s="36"/>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="36"/>
-      <c r="R48" s="36"/>
-      <c r="S48" s="36"/>
-      <c r="T48" s="36"/>
-      <c r="U48" s="36"/>
-      <c r="V48" s="36"/>
-      <c r="W48" s="36"/>
-      <c r="X48" s="36"/>
-      <c r="Y48" s="36"/>
-      <c r="Z48" s="36"/>
-      <c r="AA48" s="36"/>
-      <c r="AB48" s="36"/>
-      <c r="AC48" s="36"/>
-      <c r="AD48" s="34"/>
-      <c r="AE48" s="34"/>
-      <c r="AF48" s="34"/>
-      <c r="AG48" s="34"/>
-      <c r="AH48" s="34"/>
-      <c r="AI48" s="34"/>
-      <c r="AJ48" s="40"/>
-      <c r="AK48" s="34"/>
-    </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A49" s="46"/>
-      <c r="B49" s="45"/>
-      <c r="C49" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="J64" s="7">
+        <v>0</v>
+      </c>
+      <c r="K64" s="33"/>
+      <c r="L64" s="33"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="33"/>
+      <c r="O64" s="33"/>
+      <c r="P64" s="33"/>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="33"/>
+      <c r="S64" s="33"/>
+      <c r="T64" s="33"/>
+      <c r="U64" s="33"/>
+      <c r="V64" s="54"/>
+      <c r="W64" s="33"/>
+      <c r="X64" s="33"/>
+      <c r="Y64" s="33"/>
+      <c r="Z64" s="33"/>
+      <c r="AA64" s="33"/>
+      <c r="AB64" s="33"/>
+      <c r="AC64" s="57"/>
+      <c r="AD64" s="32"/>
+      <c r="AE64" s="32"/>
+      <c r="AF64" s="32"/>
+      <c r="AG64" s="32"/>
+      <c r="AH64" s="32"/>
+      <c r="AI64" s="32"/>
+      <c r="AJ64" s="50"/>
+      <c r="AK64" s="32"/>
+    </row>
+    <row r="65" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="44"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D65" t="s">
+        <v>107</v>
+      </c>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="J65" s="7">
+        <v>0</v>
+      </c>
+      <c r="K65" s="33"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="33"/>
+      <c r="O65" s="33"/>
+      <c r="P65" s="33"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="33"/>
+      <c r="S65" s="33"/>
+      <c r="T65" s="33"/>
+      <c r="U65" s="33"/>
+      <c r="V65" s="54"/>
+      <c r="W65" s="33"/>
+      <c r="X65" s="33"/>
+      <c r="Y65" s="33"/>
+      <c r="Z65" s="33"/>
+      <c r="AA65" s="33"/>
+      <c r="AB65" s="33"/>
+      <c r="AC65" s="57"/>
+      <c r="AD65" s="32"/>
+      <c r="AE65" s="32"/>
+      <c r="AF65" s="32"/>
+      <c r="AG65" s="32"/>
+      <c r="AH65" s="32"/>
+      <c r="AI65" s="32"/>
+      <c r="AJ65" s="50"/>
+      <c r="AK65" s="32"/>
+    </row>
+    <row r="66" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="44"/>
+      <c r="B66" s="48"/>
+      <c r="C66" s="45"/>
+      <c r="D66" t="s">
+        <v>108</v>
+      </c>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="J66" s="7">
+        <v>0</v>
+      </c>
+      <c r="K66" s="33"/>
+      <c r="L66" s="33"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="33"/>
+      <c r="O66" s="33"/>
+      <c r="P66" s="33"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="33"/>
+      <c r="S66" s="33"/>
+      <c r="T66" s="33"/>
+      <c r="U66" s="33"/>
+      <c r="V66" s="54"/>
+      <c r="W66" s="33"/>
+      <c r="X66" s="33"/>
+      <c r="Y66" s="33"/>
+      <c r="Z66" s="33"/>
+      <c r="AA66" s="33"/>
+      <c r="AB66" s="33"/>
+      <c r="AC66" s="57"/>
+      <c r="AD66" s="32"/>
+      <c r="AE66" s="32"/>
+      <c r="AF66" s="32"/>
+      <c r="AG66" s="32"/>
+      <c r="AH66" s="32"/>
+      <c r="AI66" s="32"/>
+      <c r="AJ66" s="50"/>
+      <c r="AK66" s="32"/>
+    </row>
+    <row r="67" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A67" s="44"/>
+      <c r="B67" s="48"/>
+      <c r="C67" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="J49" s="7"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="35"/>
-      <c r="V49" s="35"/>
-      <c r="W49" s="35"/>
-      <c r="X49" s="35"/>
-      <c r="Y49" s="35"/>
-      <c r="Z49" s="35"/>
-      <c r="AA49" s="35"/>
-      <c r="AB49" s="35"/>
-      <c r="AC49" s="35"/>
-      <c r="AD49" s="34"/>
-      <c r="AE49" s="34"/>
-      <c r="AF49" s="34"/>
-      <c r="AG49" s="34"/>
-      <c r="AH49" s="34"/>
-      <c r="AI49" s="34"/>
-      <c r="AJ49" s="40"/>
-      <c r="AK49" s="34"/>
-    </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A50" s="46"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="42" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" t="s">
-        <v>106</v>
-      </c>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="35"/>
-      <c r="S50" s="35"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="35"/>
-      <c r="V50" s="35"/>
-      <c r="W50" s="35"/>
-      <c r="X50" s="35"/>
-      <c r="Y50" s="35"/>
-      <c r="Z50" s="35"/>
-      <c r="AA50" s="35"/>
-      <c r="AB50" s="35"/>
-      <c r="AC50" s="35"/>
-      <c r="AD50" s="34"/>
-      <c r="AE50" s="34"/>
-      <c r="AF50" s="34"/>
-      <c r="AG50" s="34"/>
-      <c r="AH50" s="34"/>
-      <c r="AI50" s="34"/>
-      <c r="AJ50" s="40"/>
-      <c r="AK50" s="34"/>
-    </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A51" s="46"/>
-      <c r="B51" s="45"/>
-      <c r="C51" s="42"/>
-      <c r="D51" t="s">
-        <v>108</v>
-      </c>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
-      <c r="S51" s="35"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="35"/>
-      <c r="V51" s="35"/>
-      <c r="W51" s="35"/>
-      <c r="X51" s="35"/>
-      <c r="Y51" s="35"/>
-      <c r="Z51" s="35"/>
-      <c r="AA51" s="35"/>
-      <c r="AB51" s="35"/>
-      <c r="AC51" s="35"/>
-      <c r="AD51" s="34"/>
-      <c r="AE51" s="34"/>
-      <c r="AF51" s="34"/>
-      <c r="AG51" s="34"/>
-      <c r="AH51" s="34"/>
-      <c r="AI51" s="34"/>
-      <c r="AJ51" s="40"/>
-      <c r="AK51" s="34"/>
-    </row>
-    <row r="52" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="46"/>
-      <c r="B52" s="45"/>
-      <c r="C52" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="D52" t="s">
-        <v>104</v>
-      </c>
-      <c r="F52" s="16"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
-      <c r="P52" s="35"/>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35"/>
-      <c r="S52" s="35"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="35"/>
-      <c r="V52" s="35"/>
-      <c r="W52" s="35"/>
-      <c r="X52" s="35"/>
-      <c r="Y52" s="35"/>
-      <c r="Z52" s="35"/>
-      <c r="AA52" s="35"/>
-      <c r="AB52" s="35"/>
-      <c r="AC52" s="35"/>
-      <c r="AD52" s="34"/>
-      <c r="AE52" s="34"/>
-      <c r="AF52" s="34"/>
-      <c r="AG52" s="34"/>
-      <c r="AH52" s="34"/>
-      <c r="AI52" s="34"/>
-      <c r="AJ52" s="40"/>
-      <c r="AK52" s="34"/>
-    </row>
-    <row r="53" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="46"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="42"/>
-      <c r="D53" t="s">
-        <v>109</v>
-      </c>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
-      <c r="P53" s="35"/>
-      <c r="Q53" s="35"/>
-      <c r="R53" s="35"/>
-      <c r="S53" s="35"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="35"/>
-      <c r="V53" s="35"/>
-      <c r="W53" s="35"/>
-      <c r="X53" s="35"/>
-      <c r="Y53" s="35"/>
-      <c r="Z53" s="35"/>
-      <c r="AA53" s="35"/>
-      <c r="AB53" s="35"/>
-      <c r="AC53" s="35"/>
-      <c r="AD53" s="34"/>
-      <c r="AE53" s="34"/>
-      <c r="AF53" s="34"/>
-      <c r="AG53" s="34"/>
-      <c r="AH53" s="34"/>
-      <c r="AI53" s="34"/>
-      <c r="AJ53" s="40"/>
-      <c r="AK53" s="34"/>
-    </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A54" s="46"/>
-      <c r="B54" s="45"/>
-      <c r="C54" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F54" s="16"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
-      <c r="P54" s="35"/>
-      <c r="Q54" s="35"/>
-      <c r="R54" s="35"/>
-      <c r="S54" s="35"/>
-      <c r="T54" s="35"/>
-      <c r="U54" s="35"/>
-      <c r="V54" s="35"/>
-      <c r="W54" s="35"/>
-      <c r="X54" s="35"/>
-      <c r="Y54" s="35"/>
-      <c r="Z54" s="35"/>
-      <c r="AA54" s="35"/>
-      <c r="AB54" s="35"/>
-      <c r="AC54" s="35"/>
-      <c r="AD54" s="34"/>
-      <c r="AE54" s="34"/>
-      <c r="AF54" s="34"/>
-      <c r="AG54" s="34"/>
-      <c r="AH54" s="34"/>
-      <c r="AI54" s="34"/>
-      <c r="AJ54" s="40"/>
-      <c r="AK54" s="34"/>
-    </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A55" s="46"/>
-      <c r="B55" s="45"/>
-      <c r="C55" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J55" s="7"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
-      <c r="P55" s="35"/>
-      <c r="Q55" s="35"/>
-      <c r="R55" s="35"/>
-      <c r="S55" s="35"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="35"/>
-      <c r="V55" s="35"/>
-      <c r="W55" s="35"/>
-      <c r="X55" s="35"/>
-      <c r="Y55" s="35"/>
-      <c r="Z55" s="35"/>
-      <c r="AA55" s="35"/>
-      <c r="AB55" s="35"/>
-      <c r="AC55" s="35"/>
-      <c r="AD55" s="34"/>
-      <c r="AE55" s="34"/>
-      <c r="AF55" s="34"/>
-      <c r="AG55" s="34"/>
-      <c r="AH55" s="34"/>
-      <c r="AI55" s="34"/>
-      <c r="AJ55" s="40"/>
-      <c r="AK55" s="34"/>
-    </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A56" s="46"/>
-      <c r="B56" s="45"/>
-      <c r="C56" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J56" s="7"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
-      <c r="P56" s="35"/>
-      <c r="Q56" s="35"/>
-      <c r="R56" s="35"/>
-      <c r="S56" s="35"/>
-      <c r="T56" s="35"/>
-      <c r="U56" s="35"/>
-      <c r="V56" s="35"/>
-      <c r="W56" s="35"/>
-      <c r="X56" s="35"/>
-      <c r="Y56" s="35"/>
-      <c r="Z56" s="35"/>
-      <c r="AA56" s="35"/>
-      <c r="AB56" s="35"/>
-      <c r="AC56" s="35"/>
-      <c r="AD56" s="34"/>
-      <c r="AE56" s="34"/>
-      <c r="AF56" s="34"/>
-      <c r="AG56" s="34"/>
-      <c r="AH56" s="34"/>
-      <c r="AI56" s="34"/>
-      <c r="AJ56" s="40"/>
-      <c r="AK56" s="34"/>
-    </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A57" s="46"/>
-      <c r="B57" s="38"/>
-      <c r="C57" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="D57" t="s">
-        <v>111</v>
-      </c>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
-      <c r="P57" s="35"/>
-      <c r="Q57" s="35"/>
-      <c r="R57" s="35"/>
-      <c r="S57" s="35"/>
-      <c r="T57" s="35"/>
-      <c r="U57" s="35"/>
-      <c r="V57" s="35"/>
-      <c r="W57" s="35"/>
-      <c r="X57" s="35"/>
-      <c r="Y57" s="35"/>
-      <c r="Z57" s="35"/>
-      <c r="AA57" s="35"/>
-      <c r="AB57" s="35"/>
-      <c r="AC57" s="35"/>
-      <c r="AD57" s="34"/>
-      <c r="AE57" s="34"/>
-      <c r="AF57" s="34"/>
-      <c r="AG57" s="34"/>
-      <c r="AH57" s="34"/>
-      <c r="AI57" s="34"/>
-      <c r="AJ57" s="40"/>
-      <c r="AK57" s="34"/>
-    </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A58" s="46"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="42"/>
-      <c r="D58" t="s">
-        <v>112</v>
-      </c>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
-      <c r="P58" s="35"/>
-      <c r="Q58" s="35"/>
-      <c r="R58" s="35"/>
-      <c r="S58" s="35"/>
-      <c r="T58" s="35"/>
-      <c r="U58" s="35"/>
-      <c r="V58" s="35"/>
-      <c r="W58" s="35"/>
-      <c r="X58" s="35"/>
-      <c r="Y58" s="35"/>
-      <c r="Z58" s="35"/>
-      <c r="AA58" s="35"/>
-      <c r="AB58" s="35"/>
-      <c r="AC58" s="35"/>
-      <c r="AD58" s="34"/>
-      <c r="AE58" s="34"/>
-      <c r="AF58" s="34"/>
-      <c r="AG58" s="34"/>
-      <c r="AH58" s="34"/>
-      <c r="AI58" s="34"/>
-      <c r="AJ58" s="40"/>
-      <c r="AK58" s="34"/>
-    </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A59" s="46"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="42" t="s">
+      <c r="J67" s="7">
+        <v>0</v>
+      </c>
+      <c r="K67" s="33"/>
+      <c r="L67" s="33"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="33"/>
+      <c r="O67" s="33"/>
+      <c r="P67" s="33"/>
+      <c r="Q67" s="33"/>
+      <c r="R67" s="33"/>
+      <c r="S67" s="33"/>
+      <c r="T67" s="33"/>
+      <c r="U67" s="33"/>
+      <c r="V67" s="54"/>
+      <c r="W67" s="33"/>
+      <c r="X67" s="33"/>
+      <c r="Y67" s="33"/>
+      <c r="Z67" s="33"/>
+      <c r="AA67" s="33"/>
+      <c r="AB67" s="33"/>
+      <c r="AC67" s="57"/>
+      <c r="AD67" s="32"/>
+      <c r="AE67" s="32"/>
+      <c r="AF67" s="32"/>
+      <c r="AG67" s="32"/>
+      <c r="AH67" s="32"/>
+      <c r="AI67" s="32"/>
+      <c r="AJ67" s="50"/>
+      <c r="AK67" s="32"/>
+    </row>
+    <row r="68" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A68" s="44"/>
+      <c r="B68" s="48"/>
+      <c r="C68" s="45"/>
+      <c r="D68" t="s">
         <v>32</v>
       </c>
-      <c r="D59" t="s">
+      <c r="J68" s="7">
+        <v>0</v>
+      </c>
+      <c r="K68" s="33"/>
+      <c r="L68" s="33"/>
+      <c r="M68" s="33"/>
+      <c r="N68" s="33"/>
+      <c r="O68" s="33"/>
+      <c r="P68" s="33"/>
+      <c r="Q68" s="33"/>
+      <c r="R68" s="33"/>
+      <c r="S68" s="33"/>
+      <c r="T68" s="33"/>
+      <c r="U68" s="33"/>
+      <c r="V68" s="54"/>
+      <c r="W68" s="33"/>
+      <c r="X68" s="33"/>
+      <c r="Y68" s="33"/>
+      <c r="Z68" s="33"/>
+      <c r="AA68" s="33"/>
+      <c r="AB68" s="33"/>
+      <c r="AC68" s="57"/>
+      <c r="AD68" s="32"/>
+      <c r="AE68" s="32"/>
+      <c r="AF68" s="32"/>
+      <c r="AG68" s="32"/>
+      <c r="AH68" s="32"/>
+      <c r="AI68" s="32"/>
+      <c r="AJ68" s="50"/>
+      <c r="AK68" s="32"/>
+    </row>
+    <row r="69" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A69" s="44"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="45"/>
+      <c r="D69" t="s">
         <v>33</v>
       </c>
-      <c r="J59" s="7"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35"/>
-      <c r="S59" s="35"/>
-      <c r="T59" s="35"/>
-      <c r="U59" s="35"/>
-      <c r="V59" s="35"/>
-      <c r="W59" s="35"/>
-      <c r="X59" s="35"/>
-      <c r="Y59" s="35"/>
-      <c r="Z59" s="35"/>
-      <c r="AA59" s="35"/>
-      <c r="AB59" s="35"/>
-      <c r="AC59" s="35"/>
-      <c r="AD59" s="34"/>
-      <c r="AE59" s="34"/>
-      <c r="AF59" s="34"/>
-      <c r="AG59" s="34"/>
-      <c r="AH59" s="34"/>
-      <c r="AI59" s="34"/>
-      <c r="AJ59" s="40"/>
-      <c r="AK59" s="34"/>
-    </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A60" s="46"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="42"/>
-      <c r="D60" t="s">
-        <v>34</v>
-      </c>
-      <c r="J60" s="7"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="35"/>
-      <c r="O60" s="35"/>
-      <c r="P60" s="35"/>
-      <c r="Q60" s="35"/>
-      <c r="R60" s="35"/>
-      <c r="S60" s="35"/>
-      <c r="T60" s="35"/>
-      <c r="U60" s="35"/>
-      <c r="V60" s="35"/>
-      <c r="W60" s="35"/>
-      <c r="X60" s="35"/>
-      <c r="Y60" s="35"/>
-      <c r="Z60" s="35"/>
-      <c r="AA60" s="35"/>
-      <c r="AB60" s="35"/>
-      <c r="AC60" s="35"/>
-      <c r="AD60" s="34"/>
-      <c r="AE60" s="34"/>
-      <c r="AF60" s="34"/>
-      <c r="AG60" s="34"/>
-      <c r="AH60" s="34"/>
-      <c r="AI60" s="34"/>
-      <c r="AJ60" s="40"/>
-      <c r="AK60" s="34"/>
-    </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A61" s="46"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="42"/>
-      <c r="D61" t="s">
-        <v>35</v>
-      </c>
-      <c r="J61" s="7"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
-      <c r="R61" s="35"/>
-      <c r="S61" s="35"/>
-      <c r="T61" s="35"/>
-      <c r="U61" s="35"/>
-      <c r="V61" s="35"/>
-      <c r="W61" s="35"/>
-      <c r="X61" s="35"/>
-      <c r="Y61" s="35"/>
-      <c r="Z61" s="35"/>
-      <c r="AA61" s="35"/>
-      <c r="AB61" s="35"/>
-      <c r="AC61" s="35"/>
-      <c r="AD61" s="34"/>
-      <c r="AE61" s="34"/>
-      <c r="AF61" s="34"/>
-      <c r="AG61" s="34"/>
-      <c r="AH61" s="34"/>
-      <c r="AI61" s="34"/>
-      <c r="AJ61" s="41"/>
-      <c r="AK61" s="34"/>
-    </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A62" s="46"/>
-      <c r="B62" s="13" t="s">
+      <c r="J69" s="7">
+        <v>0</v>
+      </c>
+      <c r="K69" s="33"/>
+      <c r="L69" s="33"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="33"/>
+      <c r="O69" s="33"/>
+      <c r="P69" s="33"/>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="33"/>
+      <c r="S69" s="33"/>
+      <c r="T69" s="33"/>
+      <c r="U69" s="33"/>
+      <c r="V69" s="55"/>
+      <c r="W69" s="33"/>
+      <c r="X69" s="33"/>
+      <c r="Y69" s="33"/>
+      <c r="Z69" s="33"/>
+      <c r="AA69" s="33"/>
+      <c r="AB69" s="33"/>
+      <c r="AC69" s="58"/>
+      <c r="AD69" s="32"/>
+      <c r="AE69" s="32"/>
+      <c r="AF69" s="32"/>
+      <c r="AG69" s="32"/>
+      <c r="AH69" s="32"/>
+      <c r="AI69" s="32"/>
+      <c r="AJ69" s="51"/>
+      <c r="AK69" s="32"/>
+    </row>
+    <row r="70" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A70" s="44"/>
+      <c r="B70" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C70" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F62" s="12" t="s">
-        <v>44</v>
+      <c r="F70" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J70" s="6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A5:A62"/>
+  <mergeCells count="22">
+    <mergeCell ref="AJ5:AJ69"/>
+    <mergeCell ref="C18:C38"/>
+    <mergeCell ref="B11:B53"/>
+    <mergeCell ref="D18:D24"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="V5:V69"/>
+    <mergeCell ref="AC5:AC69"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A5:A70"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C39:C43"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="AJ5:AJ61"/>
-    <mergeCell ref="C18:C33"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B11:B48"/>
-    <mergeCell ref="B49:B56"/>
-    <mergeCell ref="D18:D22"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B54:B69"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="K3:AK5 K6:AI61 AK6:AK61">
+  <conditionalFormatting sqref="K3:AK5 K6:U69 AK6:AK69 W6:AB69 AD6:AI69">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>WEEKDAY(K$3)=7</formula>
     </cfRule>
@@ -5933,12 +7043,13 @@
     <hyperlink ref="D13" location="SE!A1" display="SE"/>
     <hyperlink ref="D16" location="SE!A1" display="SE"/>
     <hyperlink ref="D14" location="BGM!A1" display="BGM"/>
-    <hyperlink ref="D31" location="BGM!A1" display="BGM"/>
-    <hyperlink ref="D32" location="SE!A1" display="SE"/>
-    <hyperlink ref="D48" location="コントローラーボタン配置図!A1" display="コントローラボタン配置図"/>
+    <hyperlink ref="D36" location="BGM!A1" display="BGM"/>
+    <hyperlink ref="D37" location="SE!A1" display="SE"/>
+    <hyperlink ref="D53" location="コントローラーボタン配置図!A1" display="コントローラボタン配置図"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -5965,274 +7076,276 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="11" max="11" width="32.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.375" style="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="53.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
     </row>
     <row r="4" spans="2:14" ht="45.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="K4" s="26" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="K4" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="K5" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="K6" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="K7" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="26" t="s">
+      <c r="L7" s="26"/>
+    </row>
+    <row r="8" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="K8" s="25" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="K5" s="27" t="s">
+      <c r="L8" s="26"/>
+    </row>
+    <row r="9" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="K9" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="L5" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="K6" s="27" t="s">
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="K10" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="L6" s="28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="K7" s="27" t="s">
+      <c r="L10" s="26"/>
+    </row>
+    <row r="11" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="K11" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="L7" s="28"/>
-    </row>
-    <row r="8" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="K8" s="27" t="s">
+      <c r="L11" s="26"/>
+      <c r="N11" s="23"/>
+    </row>
+    <row r="12" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="K12" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="L8" s="28"/>
-    </row>
-    <row r="9" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="K9" s="27" t="s">
+      <c r="L12" s="26"/>
+    </row>
+    <row r="13" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="45"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="K13" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="L9" s="28"/>
-    </row>
-    <row r="10" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="K10" s="27" t="s">
+      <c r="L13" s="26"/>
+    </row>
+    <row r="14" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="K14" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="L10" s="28"/>
-    </row>
-    <row r="11" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="K11" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="L11" s="28"/>
-      <c r="N11" s="25"/>
-    </row>
-    <row r="12" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="K12" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="L12" s="28"/>
-    </row>
-    <row r="13" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="K13" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13" s="28"/>
-    </row>
-    <row r="14" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="K14" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="28"/>
+      <c r="L14" s="26"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="45"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6263,199 +7376,201 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7.25" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="20" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="18" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="A1" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="A3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="16"/>
-      <c r="B4" s="29" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B5" s="30" t="s">
-        <v>51</v>
+      <c r="B5" s="28" t="s">
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B6" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="30" t="s">
-        <v>74</v>
+      <c r="B7" s="28" t="s">
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B8" s="30" t="s">
-        <v>53</v>
+      <c r="B8" s="28" t="s">
+        <v>50</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B9" s="30" t="s">
-        <v>54</v>
+      <c r="B9" s="28" t="s">
+        <v>51</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B10" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="48"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="30" t="s">
-        <v>55</v>
+      <c r="B12" s="28" t="s">
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="30" t="s">
-        <v>56</v>
+      <c r="B13" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="30" t="s">
-        <v>67</v>
+      <c r="B14" s="28" t="s">
+        <v>64</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="30"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B16" s="30"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="30"/>
+      <c r="B17" s="28"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="30" t="s">
-        <v>59</v>
+      <c r="B18" s="28" t="s">
+        <v>56</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -6482,12 +7597,12 @@
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="A1" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/schedule/ガントチャートxlsx.xlsx
+++ b/schedule/ガントチャートxlsx.xlsx
@@ -2006,6 +2006,68 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11696141" y="6058180"/>
+          <a:ext cx="259136" cy="189100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 52778"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>292475</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>40340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>257457</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>229440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="右矢印 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11687457" y="5825377"/>
           <a:ext cx="259136" cy="189100"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -4011,10 +4073,10 @@
   <dimension ref="A1:AS70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I26" sqref="I26"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5190,7 +5252,7 @@
         <v>44124</v>
       </c>
       <c r="J25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="33"/>
       <c r="L25" s="33"/>

--- a/schedule/ガントチャートxlsx.xlsx
+++ b/schedule/ガントチャートxlsx.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="140">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -975,6 +975,34 @@
   </si>
   <si>
     <t>マスター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>床</t>
+    <rPh sb="0" eb="1">
+      <t>ユカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡</t>
+    <rPh sb="0" eb="1">
+      <t>オカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1441,7 +1469,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1574,19 +1602,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1597,6 +1613,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1618,6 +1637,18 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1801,8 +1832,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>264459</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>14007</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
@@ -1819,8 +1850,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11589404" y="12829055"/>
-          <a:ext cx="259135" cy="189100"/>
+          <a:off x="11703143" y="12724000"/>
+          <a:ext cx="243447" cy="189100"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2069,6 +2100,130 @@
         <a:xfrm>
           <a:off x="11687457" y="5825377"/>
           <a:ext cx="259136" cy="189100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 52778"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>12326</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>24654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>255773</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>213754</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="右矢印 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11701462" y="15110573"/>
+          <a:ext cx="243447" cy="189100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 52778"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>10646</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>29977</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>254093</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>219077</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="右矢印 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11699782" y="15354021"/>
+          <a:ext cx="243447" cy="189100"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -4070,13 +4225,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS70"/>
+  <dimension ref="A1:AS71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="K50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4361,10 +4516,10 @@
       </c>
     </row>
     <row r="5" spans="1:45" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="57" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -4396,7 +4551,7 @@
       <c r="S5" s="32"/>
       <c r="T5" s="32"/>
       <c r="U5" s="32"/>
-      <c r="V5" s="53" t="s">
+      <c r="V5" s="50" t="s">
         <v>118</v>
       </c>
       <c r="W5" s="32"/>
@@ -4405,7 +4560,7 @@
       <c r="Z5" s="32"/>
       <c r="AA5" s="32"/>
       <c r="AB5" s="32"/>
-      <c r="AC5" s="56" t="s">
+      <c r="AC5" s="53" t="s">
         <v>119</v>
       </c>
       <c r="AD5" s="32"/>
@@ -4414,14 +4569,14 @@
       <c r="AG5" s="32"/>
       <c r="AH5" s="32"/>
       <c r="AI5" s="32"/>
-      <c r="AJ5" s="49" t="s">
+      <c r="AJ5" s="45" t="s">
         <v>94</v>
       </c>
       <c r="AK5" s="32"/>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A6" s="44"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
@@ -4445,26 +4600,26 @@
       <c r="S6" s="33"/>
       <c r="T6" s="33"/>
       <c r="U6" s="33"/>
-      <c r="V6" s="54"/>
+      <c r="V6" s="51"/>
       <c r="W6" s="33"/>
       <c r="X6" s="33"/>
       <c r="Y6" s="33"/>
       <c r="Z6" s="33"/>
       <c r="AA6" s="33"/>
       <c r="AB6" s="33"/>
-      <c r="AC6" s="57"/>
+      <c r="AC6" s="54"/>
       <c r="AD6" s="32"/>
       <c r="AE6" s="32"/>
       <c r="AF6" s="32"/>
       <c r="AG6" s="32"/>
       <c r="AH6" s="32"/>
       <c r="AI6" s="32"/>
-      <c r="AJ6" s="50"/>
+      <c r="AJ6" s="46"/>
       <c r="AK6" s="32"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A7" s="44"/>
-      <c r="B7" s="47"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
@@ -4485,26 +4640,26 @@
       <c r="S7" s="33"/>
       <c r="T7" s="33"/>
       <c r="U7" s="33"/>
-      <c r="V7" s="54"/>
+      <c r="V7" s="51"/>
       <c r="W7" s="33"/>
       <c r="X7" s="33"/>
       <c r="Y7" s="33"/>
       <c r="Z7" s="33"/>
       <c r="AA7" s="33"/>
       <c r="AB7" s="33"/>
-      <c r="AC7" s="57"/>
+      <c r="AC7" s="54"/>
       <c r="AD7" s="32"/>
       <c r="AE7" s="32"/>
       <c r="AF7" s="32"/>
       <c r="AG7" s="32"/>
       <c r="AH7" s="32"/>
       <c r="AI7" s="32"/>
-      <c r="AJ7" s="50"/>
+      <c r="AJ7" s="46"/>
       <c r="AK7" s="32"/>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A8" s="44"/>
-      <c r="B8" s="47"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
@@ -4528,26 +4683,26 @@
       <c r="S8" s="33"/>
       <c r="T8" s="33"/>
       <c r="U8" s="33"/>
-      <c r="V8" s="54"/>
+      <c r="V8" s="51"/>
       <c r="W8" s="33"/>
       <c r="X8" s="33"/>
       <c r="Y8" s="33"/>
       <c r="Z8" s="33"/>
       <c r="AA8" s="33"/>
       <c r="AB8" s="33"/>
-      <c r="AC8" s="57"/>
+      <c r="AC8" s="54"/>
       <c r="AD8" s="32"/>
       <c r="AE8" s="32"/>
       <c r="AF8" s="32"/>
       <c r="AG8" s="32"/>
       <c r="AH8" s="32"/>
       <c r="AI8" s="32"/>
-      <c r="AJ8" s="50"/>
+      <c r="AJ8" s="46"/>
       <c r="AK8" s="32"/>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A9" s="44"/>
-      <c r="B9" s="47"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="10" t="s">
         <v>34</v>
       </c>
@@ -4568,26 +4723,26 @@
       <c r="S9" s="33"/>
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
-      <c r="V9" s="54"/>
+      <c r="V9" s="51"/>
       <c r="W9" s="33"/>
       <c r="X9" s="33"/>
       <c r="Y9" s="33"/>
       <c r="Z9" s="33"/>
       <c r="AA9" s="33"/>
       <c r="AB9" s="33"/>
-      <c r="AC9" s="57"/>
+      <c r="AC9" s="54"/>
       <c r="AD9" s="32"/>
       <c r="AE9" s="32"/>
       <c r="AF9" s="32"/>
       <c r="AG9" s="32"/>
       <c r="AH9" s="32"/>
       <c r="AI9" s="32"/>
-      <c r="AJ9" s="50"/>
+      <c r="AJ9" s="46"/>
       <c r="AK9" s="32"/>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A10" s="44"/>
-      <c r="B10" s="47"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="10" t="s">
         <v>35</v>
       </c>
@@ -4608,29 +4763,29 @@
       <c r="S10" s="33"/>
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
-      <c r="V10" s="54"/>
+      <c r="V10" s="51"/>
       <c r="W10" s="33"/>
       <c r="X10" s="33"/>
       <c r="Y10" s="33"/>
       <c r="Z10" s="33"/>
       <c r="AA10" s="33"/>
       <c r="AB10" s="33"/>
-      <c r="AC10" s="57"/>
+      <c r="AC10" s="54"/>
       <c r="AD10" s="32"/>
       <c r="AE10" s="32"/>
       <c r="AF10" s="32"/>
       <c r="AG10" s="32"/>
       <c r="AH10" s="32"/>
       <c r="AI10" s="32"/>
-      <c r="AJ10" s="50"/>
+      <c r="AJ10" s="46"/>
       <c r="AK10" s="32"/>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A11" s="44"/>
-      <c r="B11" s="52" t="s">
+      <c r="A11" s="56"/>
+      <c r="B11" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="48" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="s">
@@ -4662,27 +4817,27 @@
       <c r="S11" s="33"/>
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="54"/>
+      <c r="V11" s="51"/>
       <c r="W11" s="33"/>
       <c r="X11" s="33"/>
       <c r="Y11" s="33"/>
       <c r="Z11" s="33"/>
       <c r="AA11" s="33"/>
       <c r="AB11" s="33"/>
-      <c r="AC11" s="57"/>
+      <c r="AC11" s="54"/>
       <c r="AD11" s="32"/>
       <c r="AE11" s="32"/>
       <c r="AF11" s="32"/>
       <c r="AG11" s="32"/>
       <c r="AH11" s="32"/>
       <c r="AI11" s="32"/>
-      <c r="AJ11" s="50"/>
+      <c r="AJ11" s="46"/>
       <c r="AK11" s="32"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A12" s="44"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="45"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="48"/>
       <c r="D12" t="s">
         <v>23</v>
       </c>
@@ -4700,27 +4855,27 @@
       <c r="S12" s="33"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
-      <c r="V12" s="54"/>
+      <c r="V12" s="51"/>
       <c r="W12" s="33"/>
       <c r="X12" s="33"/>
       <c r="Y12" s="33"/>
       <c r="Z12" s="33"/>
       <c r="AA12" s="33"/>
       <c r="AB12" s="33"/>
-      <c r="AC12" s="57"/>
+      <c r="AC12" s="54"/>
       <c r="AD12" s="32"/>
       <c r="AE12" s="32"/>
       <c r="AF12" s="32"/>
       <c r="AG12" s="32"/>
       <c r="AH12" s="32"/>
       <c r="AI12" s="32"/>
-      <c r="AJ12" s="50"/>
+      <c r="AJ12" s="46"/>
       <c r="AK12" s="32"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A13" s="44"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="45"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="48"/>
       <c r="D13" s="16" t="s">
         <v>45</v>
       </c>
@@ -4740,27 +4895,27 @@
       <c r="S13" s="33"/>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
-      <c r="V13" s="54"/>
+      <c r="V13" s="51"/>
       <c r="W13" s="33"/>
       <c r="X13" s="33"/>
       <c r="Y13" s="33"/>
       <c r="Z13" s="33"/>
       <c r="AA13" s="33"/>
       <c r="AB13" s="33"/>
-      <c r="AC13" s="57"/>
+      <c r="AC13" s="54"/>
       <c r="AD13" s="32"/>
       <c r="AE13" s="32"/>
       <c r="AF13" s="32"/>
       <c r="AG13" s="32"/>
       <c r="AH13" s="32"/>
       <c r="AI13" s="32"/>
-      <c r="AJ13" s="50"/>
+      <c r="AJ13" s="46"/>
       <c r="AK13" s="32"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A14" s="44"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="45"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="48"/>
       <c r="D14" s="15" t="s">
         <v>27</v>
       </c>
@@ -4779,27 +4934,27 @@
       <c r="S14" s="33"/>
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
-      <c r="V14" s="54"/>
+      <c r="V14" s="51"/>
       <c r="W14" s="33"/>
       <c r="X14" s="33"/>
       <c r="Y14" s="33"/>
       <c r="Z14" s="33"/>
       <c r="AA14" s="33"/>
       <c r="AB14" s="33"/>
-      <c r="AC14" s="57"/>
+      <c r="AC14" s="54"/>
       <c r="AD14" s="32"/>
       <c r="AE14" s="32"/>
       <c r="AF14" s="32"/>
       <c r="AG14" s="32"/>
       <c r="AH14" s="32"/>
       <c r="AI14" s="32"/>
-      <c r="AJ14" s="50"/>
+      <c r="AJ14" s="46"/>
       <c r="AK14" s="32"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A15" s="44"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="45" t="s">
+      <c r="A15" s="56"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="48" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
@@ -4822,27 +4977,27 @@
       <c r="S15" s="33"/>
       <c r="T15" s="33"/>
       <c r="U15" s="33"/>
-      <c r="V15" s="54"/>
+      <c r="V15" s="51"/>
       <c r="W15" s="33"/>
       <c r="X15" s="33"/>
       <c r="Y15" s="33"/>
       <c r="Z15" s="33"/>
       <c r="AA15" s="33"/>
       <c r="AB15" s="33"/>
-      <c r="AC15" s="57"/>
+      <c r="AC15" s="54"/>
       <c r="AD15" s="32"/>
       <c r="AE15" s="32"/>
       <c r="AF15" s="32"/>
       <c r="AG15" s="32"/>
       <c r="AH15" s="32"/>
       <c r="AI15" s="32"/>
-      <c r="AJ15" s="50"/>
+      <c r="AJ15" s="46"/>
       <c r="AK15" s="32"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A16" s="44"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="45"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="17" t="s">
         <v>45</v>
       </c>
@@ -4862,27 +5017,27 @@
       <c r="S16" s="33"/>
       <c r="T16" s="33"/>
       <c r="U16" s="33"/>
-      <c r="V16" s="54"/>
+      <c r="V16" s="51"/>
       <c r="W16" s="33"/>
       <c r="X16" s="33"/>
       <c r="Y16" s="33"/>
       <c r="Z16" s="33"/>
       <c r="AA16" s="33"/>
       <c r="AB16" s="33"/>
-      <c r="AC16" s="57"/>
+      <c r="AC16" s="54"/>
       <c r="AD16" s="32"/>
       <c r="AE16" s="32"/>
       <c r="AF16" s="32"/>
       <c r="AG16" s="32"/>
       <c r="AH16" s="32"/>
       <c r="AI16" s="32"/>
-      <c r="AJ16" s="50"/>
+      <c r="AJ16" s="46"/>
       <c r="AK16" s="32"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A17" s="44"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="45"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="48"/>
       <c r="D17" t="s">
         <v>23</v>
       </c>
@@ -4900,30 +5055,30 @@
       <c r="S17" s="33"/>
       <c r="T17" s="33"/>
       <c r="U17" s="33"/>
-      <c r="V17" s="54"/>
+      <c r="V17" s="51"/>
       <c r="W17" s="33"/>
       <c r="X17" s="33"/>
       <c r="Y17" s="33"/>
       <c r="Z17" s="33"/>
       <c r="AA17" s="33"/>
       <c r="AB17" s="33"/>
-      <c r="AC17" s="57"/>
+      <c r="AC17" s="54"/>
       <c r="AD17" s="32"/>
       <c r="AE17" s="32"/>
       <c r="AF17" s="32"/>
       <c r="AG17" s="32"/>
       <c r="AH17" s="32"/>
       <c r="AI17" s="32"/>
-      <c r="AJ17" s="50"/>
+      <c r="AJ17" s="46"/>
       <c r="AK17" s="32"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A18" s="44"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="45" t="s">
+      <c r="A18" s="56"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="45" t="s">
+      <c r="D18" s="48" t="s">
         <v>102</v>
       </c>
       <c r="E18" t="s">
@@ -4949,28 +5104,28 @@
       <c r="S18" s="33"/>
       <c r="T18" s="33"/>
       <c r="U18" s="33"/>
-      <c r="V18" s="54"/>
+      <c r="V18" s="51"/>
       <c r="W18" s="33"/>
       <c r="X18" s="33"/>
       <c r="Y18" s="33"/>
       <c r="Z18" s="33"/>
       <c r="AA18" s="33"/>
       <c r="AB18" s="33"/>
-      <c r="AC18" s="57"/>
+      <c r="AC18" s="54"/>
       <c r="AD18" s="32"/>
       <c r="AE18" s="32"/>
       <c r="AF18" s="32"/>
       <c r="AG18" s="32"/>
       <c r="AH18" s="32"/>
       <c r="AI18" s="32"/>
-      <c r="AJ18" s="50"/>
+      <c r="AJ18" s="46"/>
       <c r="AK18" s="32"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A19" s="44"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
       <c r="E19" t="s">
         <v>122</v>
       </c>
@@ -5000,28 +5155,28 @@
       <c r="S19" s="33"/>
       <c r="T19" s="33"/>
       <c r="U19" s="33"/>
-      <c r="V19" s="54"/>
+      <c r="V19" s="51"/>
       <c r="W19" s="33"/>
       <c r="X19" s="33"/>
       <c r="Y19" s="33"/>
       <c r="Z19" s="33"/>
       <c r="AA19" s="33"/>
       <c r="AB19" s="33"/>
-      <c r="AC19" s="57"/>
+      <c r="AC19" s="54"/>
       <c r="AD19" s="32"/>
       <c r="AE19" s="32"/>
       <c r="AF19" s="32"/>
       <c r="AG19" s="32"/>
       <c r="AH19" s="32"/>
       <c r="AI19" s="32"/>
-      <c r="AJ19" s="50"/>
+      <c r="AJ19" s="46"/>
       <c r="AK19" s="32"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A20" s="44"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
       <c r="E20" t="s">
         <v>116</v>
       </c>
@@ -5041,28 +5196,28 @@
       <c r="S20" s="33"/>
       <c r="T20" s="33"/>
       <c r="U20" s="33"/>
-      <c r="V20" s="54"/>
+      <c r="V20" s="51"/>
       <c r="W20" s="33"/>
       <c r="X20" s="33"/>
       <c r="Y20" s="33"/>
       <c r="Z20" s="33"/>
       <c r="AA20" s="33"/>
       <c r="AB20" s="33"/>
-      <c r="AC20" s="57"/>
+      <c r="AC20" s="54"/>
       <c r="AD20" s="32"/>
       <c r="AE20" s="32"/>
       <c r="AF20" s="32"/>
       <c r="AG20" s="32"/>
       <c r="AH20" s="32"/>
       <c r="AI20" s="32"/>
-      <c r="AJ20" s="50"/>
+      <c r="AJ20" s="46"/>
       <c r="AK20" s="32"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A21" s="44"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
       <c r="E21" t="s">
         <v>129</v>
       </c>
@@ -5092,28 +5247,28 @@
       <c r="S21" s="33"/>
       <c r="T21" s="33"/>
       <c r="U21" s="33"/>
-      <c r="V21" s="54"/>
+      <c r="V21" s="51"/>
       <c r="W21" s="33"/>
       <c r="X21" s="33"/>
       <c r="Y21" s="33"/>
       <c r="Z21" s="33"/>
       <c r="AA21" s="33"/>
       <c r="AB21" s="33"/>
-      <c r="AC21" s="57"/>
+      <c r="AC21" s="54"/>
       <c r="AD21" s="32"/>
       <c r="AE21" s="32"/>
       <c r="AF21" s="32"/>
       <c r="AG21" s="32"/>
       <c r="AH21" s="32"/>
       <c r="AI21" s="32"/>
-      <c r="AJ21" s="50"/>
+      <c r="AJ21" s="46"/>
       <c r="AK21" s="32"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A22" s="44"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
       <c r="E22" t="s">
         <v>117</v>
       </c>
@@ -5133,28 +5288,28 @@
       <c r="S22" s="33"/>
       <c r="T22" s="33"/>
       <c r="U22" s="33"/>
-      <c r="V22" s="54"/>
+      <c r="V22" s="51"/>
       <c r="W22" s="33"/>
       <c r="X22" s="33"/>
       <c r="Y22" s="33"/>
       <c r="Z22" s="33"/>
       <c r="AA22" s="33"/>
       <c r="AB22" s="33"/>
-      <c r="AC22" s="57"/>
+      <c r="AC22" s="54"/>
       <c r="AD22" s="32"/>
       <c r="AE22" s="32"/>
       <c r="AF22" s="32"/>
       <c r="AG22" s="32"/>
       <c r="AH22" s="32"/>
       <c r="AI22" s="32"/>
-      <c r="AJ22" s="50"/>
+      <c r="AJ22" s="46"/>
       <c r="AK22" s="32"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A23" s="44"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
       <c r="E23" t="s">
         <v>114</v>
       </c>
@@ -5174,28 +5329,28 @@
       <c r="S23" s="33"/>
       <c r="T23" s="33"/>
       <c r="U23" s="33"/>
-      <c r="V23" s="54"/>
+      <c r="V23" s="51"/>
       <c r="W23" s="33"/>
       <c r="X23" s="33"/>
       <c r="Y23" s="33"/>
       <c r="Z23" s="33"/>
       <c r="AA23" s="33"/>
       <c r="AB23" s="33"/>
-      <c r="AC23" s="57"/>
+      <c r="AC23" s="54"/>
       <c r="AD23" s="32"/>
       <c r="AE23" s="32"/>
       <c r="AF23" s="32"/>
       <c r="AG23" s="32"/>
       <c r="AH23" s="32"/>
       <c r="AI23" s="32"/>
-      <c r="AJ23" s="50"/>
+      <c r="AJ23" s="46"/>
       <c r="AK23" s="32"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A24" s="44"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
       <c r="E24" t="s">
         <v>110</v>
       </c>
@@ -5215,28 +5370,28 @@
       <c r="S24" s="33"/>
       <c r="T24" s="33"/>
       <c r="U24" s="33"/>
-      <c r="V24" s="54"/>
+      <c r="V24" s="51"/>
       <c r="W24" s="33"/>
       <c r="X24" s="33"/>
       <c r="Y24" s="33"/>
       <c r="Z24" s="33"/>
       <c r="AA24" s="33"/>
       <c r="AB24" s="33"/>
-      <c r="AC24" s="57"/>
+      <c r="AC24" s="54"/>
       <c r="AD24" s="32"/>
       <c r="AE24" s="32"/>
       <c r="AF24" s="32"/>
       <c r="AG24" s="32"/>
       <c r="AH24" s="32"/>
       <c r="AI24" s="32"/>
-      <c r="AJ24" s="50"/>
+      <c r="AJ24" s="46"/>
       <c r="AK24" s="32"/>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A25" s="44"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45" t="s">
+      <c r="A25" s="56"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48" t="s">
         <v>25</v>
       </c>
       <c r="E25" t="s">
@@ -5265,28 +5420,28 @@
       <c r="S25" s="33"/>
       <c r="T25" s="33"/>
       <c r="U25" s="33"/>
-      <c r="V25" s="54"/>
+      <c r="V25" s="51"/>
       <c r="W25" s="33"/>
       <c r="X25" s="33"/>
       <c r="Y25" s="33"/>
       <c r="Z25" s="33"/>
       <c r="AA25" s="33"/>
       <c r="AB25" s="33"/>
-      <c r="AC25" s="57"/>
+      <c r="AC25" s="54"/>
       <c r="AD25" s="32"/>
       <c r="AE25" s="32"/>
       <c r="AF25" s="32"/>
       <c r="AG25" s="32"/>
       <c r="AH25" s="32"/>
       <c r="AI25" s="32"/>
-      <c r="AJ25" s="50"/>
+      <c r="AJ25" s="46"/>
       <c r="AK25" s="32"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A26" s="44"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
       <c r="E26" t="s">
         <v>130</v>
       </c>
@@ -5314,28 +5469,28 @@
       <c r="S26" s="33"/>
       <c r="T26" s="33"/>
       <c r="U26" s="33"/>
-      <c r="V26" s="54"/>
+      <c r="V26" s="51"/>
       <c r="W26" s="33"/>
       <c r="X26" s="33"/>
       <c r="Y26" s="33"/>
       <c r="Z26" s="33"/>
       <c r="AA26" s="33"/>
       <c r="AB26" s="33"/>
-      <c r="AC26" s="57"/>
+      <c r="AC26" s="54"/>
       <c r="AD26" s="32"/>
       <c r="AE26" s="32"/>
       <c r="AF26" s="32"/>
       <c r="AG26" s="32"/>
       <c r="AH26" s="32"/>
       <c r="AI26" s="32"/>
-      <c r="AJ26" s="50"/>
+      <c r="AJ26" s="46"/>
       <c r="AK26" s="32"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A27" s="44"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45" t="s">
+      <c r="A27" s="56"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48" t="s">
         <v>13</v>
       </c>
       <c r="E27" t="s">
@@ -5355,28 +5510,28 @@
       <c r="S27" s="33"/>
       <c r="T27" s="33"/>
       <c r="U27" s="33"/>
-      <c r="V27" s="54"/>
+      <c r="V27" s="51"/>
       <c r="W27" s="33"/>
       <c r="X27" s="33"/>
       <c r="Y27" s="33"/>
       <c r="Z27" s="33"/>
       <c r="AA27" s="33"/>
       <c r="AB27" s="33"/>
-      <c r="AC27" s="57"/>
+      <c r="AC27" s="54"/>
       <c r="AD27" s="32"/>
       <c r="AE27" s="32"/>
       <c r="AF27" s="32"/>
       <c r="AG27" s="32"/>
       <c r="AH27" s="32"/>
       <c r="AI27" s="32"/>
-      <c r="AJ27" s="50"/>
+      <c r="AJ27" s="46"/>
       <c r="AK27" s="32"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A28" s="44"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
       <c r="E28" t="s">
         <v>106</v>
       </c>
@@ -5396,28 +5551,28 @@
       <c r="S28" s="33"/>
       <c r="T28" s="33"/>
       <c r="U28" s="33"/>
-      <c r="V28" s="54"/>
+      <c r="V28" s="51"/>
       <c r="W28" s="33"/>
       <c r="X28" s="33"/>
       <c r="Y28" s="33"/>
       <c r="Z28" s="33"/>
       <c r="AA28" s="33"/>
       <c r="AB28" s="33"/>
-      <c r="AC28" s="57"/>
+      <c r="AC28" s="54"/>
       <c r="AD28" s="32"/>
       <c r="AE28" s="32"/>
       <c r="AF28" s="32"/>
       <c r="AG28" s="32"/>
       <c r="AH28" s="32"/>
       <c r="AI28" s="32"/>
-      <c r="AJ28" s="50"/>
+      <c r="AJ28" s="46"/>
       <c r="AK28" s="32"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A29" s="44"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="49"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
       <c r="E29" t="s">
         <v>123</v>
       </c>
@@ -5434,7 +5589,7 @@
         <v>44124</v>
       </c>
       <c r="J29" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="33"/>
       <c r="L29" s="33"/>
@@ -5447,28 +5602,28 @@
       <c r="S29" s="33"/>
       <c r="T29" s="33"/>
       <c r="U29" s="33"/>
-      <c r="V29" s="54"/>
+      <c r="V29" s="51"/>
       <c r="W29" s="33"/>
       <c r="X29" s="33"/>
       <c r="Y29" s="33"/>
       <c r="Z29" s="33"/>
       <c r="AA29" s="33"/>
       <c r="AB29" s="33"/>
-      <c r="AC29" s="57"/>
+      <c r="AC29" s="54"/>
       <c r="AD29" s="32"/>
       <c r="AE29" s="32"/>
       <c r="AF29" s="32"/>
       <c r="AG29" s="32"/>
       <c r="AH29" s="32"/>
       <c r="AI29" s="32"/>
-      <c r="AJ29" s="50"/>
+      <c r="AJ29" s="46"/>
       <c r="AK29" s="32"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A30" s="44"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45" t="s">
+      <c r="A30" s="56"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48" t="s">
         <v>97</v>
       </c>
       <c r="E30" t="s">
@@ -5490,28 +5645,28 @@
       <c r="S30" s="33"/>
       <c r="T30" s="33"/>
       <c r="U30" s="33"/>
-      <c r="V30" s="54"/>
+      <c r="V30" s="51"/>
       <c r="W30" s="33"/>
       <c r="X30" s="33"/>
       <c r="Y30" s="33"/>
       <c r="Z30" s="33"/>
       <c r="AA30" s="33"/>
       <c r="AB30" s="33"/>
-      <c r="AC30" s="57"/>
+      <c r="AC30" s="54"/>
       <c r="AD30" s="32"/>
       <c r="AE30" s="32"/>
       <c r="AF30" s="32"/>
       <c r="AG30" s="32"/>
       <c r="AH30" s="32"/>
       <c r="AI30" s="32"/>
-      <c r="AJ30" s="50"/>
+      <c r="AJ30" s="46"/>
       <c r="AK30" s="32"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A31" s="44"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
       <c r="E31" t="s">
         <v>121</v>
       </c>
@@ -5531,28 +5686,28 @@
       <c r="S31" s="33"/>
       <c r="T31" s="33"/>
       <c r="U31" s="33"/>
-      <c r="V31" s="54"/>
+      <c r="V31" s="51"/>
       <c r="W31" s="33"/>
       <c r="X31" s="33"/>
       <c r="Y31" s="33"/>
       <c r="Z31" s="33"/>
       <c r="AA31" s="33"/>
       <c r="AB31" s="33"/>
-      <c r="AC31" s="57"/>
+      <c r="AC31" s="54"/>
       <c r="AD31" s="32"/>
       <c r="AE31" s="32"/>
       <c r="AF31" s="32"/>
       <c r="AG31" s="32"/>
       <c r="AH31" s="32"/>
       <c r="AI31" s="32"/>
-      <c r="AJ31" s="50"/>
+      <c r="AJ31" s="46"/>
       <c r="AK31" s="32"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A32" s="44"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
       <c r="E32" t="s">
         <v>111</v>
       </c>
@@ -5572,27 +5727,27 @@
       <c r="S32" s="33"/>
       <c r="T32" s="33"/>
       <c r="U32" s="33"/>
-      <c r="V32" s="54"/>
+      <c r="V32" s="51"/>
       <c r="W32" s="33"/>
       <c r="X32" s="33"/>
       <c r="Y32" s="33"/>
       <c r="Z32" s="33"/>
       <c r="AA32" s="33"/>
       <c r="AB32" s="33"/>
-      <c r="AC32" s="57"/>
+      <c r="AC32" s="54"/>
       <c r="AD32" s="32"/>
       <c r="AE32" s="32"/>
       <c r="AF32" s="32"/>
       <c r="AG32" s="32"/>
       <c r="AH32" s="32"/>
       <c r="AI32" s="32"/>
-      <c r="AJ32" s="50"/>
+      <c r="AJ32" s="46"/>
       <c r="AK32" s="32"/>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A33" s="44"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="45"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="48"/>
       <c r="D33" t="s">
         <v>24</v>
       </c>
@@ -5610,27 +5765,27 @@
       <c r="S33" s="33"/>
       <c r="T33" s="33"/>
       <c r="U33" s="33"/>
-      <c r="V33" s="54"/>
+      <c r="V33" s="51"/>
       <c r="W33" s="33"/>
       <c r="X33" s="33"/>
       <c r="Y33" s="33"/>
       <c r="Z33" s="33"/>
       <c r="AA33" s="33"/>
       <c r="AB33" s="33"/>
-      <c r="AC33" s="57"/>
+      <c r="AC33" s="54"/>
       <c r="AD33" s="32"/>
       <c r="AE33" s="32"/>
       <c r="AF33" s="32"/>
       <c r="AG33" s="32"/>
       <c r="AH33" s="32"/>
       <c r="AI33" s="32"/>
-      <c r="AJ33" s="50"/>
+      <c r="AJ33" s="46"/>
       <c r="AK33" s="32"/>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A34" s="44"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="45"/>
+      <c r="A34" s="56"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="48"/>
       <c r="D34" t="s">
         <v>101</v>
       </c>
@@ -5650,27 +5805,27 @@
       <c r="S34" s="33"/>
       <c r="T34" s="33"/>
       <c r="U34" s="33"/>
-      <c r="V34" s="54"/>
+      <c r="V34" s="51"/>
       <c r="W34" s="33"/>
       <c r="X34" s="33"/>
       <c r="Y34" s="33"/>
       <c r="Z34" s="33"/>
       <c r="AA34" s="33"/>
       <c r="AB34" s="33"/>
-      <c r="AC34" s="57"/>
+      <c r="AC34" s="54"/>
       <c r="AD34" s="32"/>
       <c r="AE34" s="32"/>
       <c r="AF34" s="32"/>
       <c r="AG34" s="32"/>
       <c r="AH34" s="32"/>
       <c r="AI34" s="32"/>
-      <c r="AJ34" s="50"/>
+      <c r="AJ34" s="46"/>
       <c r="AK34" s="32"/>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A35" s="44"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="45"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="48"/>
       <c r="D35" t="s">
         <v>23</v>
       </c>
@@ -5688,27 +5843,27 @@
       <c r="S35" s="33"/>
       <c r="T35" s="33"/>
       <c r="U35" s="33"/>
-      <c r="V35" s="54"/>
+      <c r="V35" s="51"/>
       <c r="W35" s="33"/>
       <c r="X35" s="33"/>
       <c r="Y35" s="33"/>
       <c r="Z35" s="33"/>
       <c r="AA35" s="33"/>
       <c r="AB35" s="33"/>
-      <c r="AC35" s="57"/>
+      <c r="AC35" s="54"/>
       <c r="AD35" s="32"/>
       <c r="AE35" s="32"/>
       <c r="AF35" s="32"/>
       <c r="AG35" s="32"/>
       <c r="AH35" s="32"/>
       <c r="AI35" s="32"/>
-      <c r="AJ35" s="50"/>
+      <c r="AJ35" s="46"/>
       <c r="AK35" s="32"/>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A36" s="44"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="45"/>
+      <c r="A36" s="56"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="48"/>
       <c r="D36" s="15" t="s">
         <v>27</v>
       </c>
@@ -5728,27 +5883,27 @@
       <c r="S36" s="33"/>
       <c r="T36" s="33"/>
       <c r="U36" s="33"/>
-      <c r="V36" s="54"/>
+      <c r="V36" s="51"/>
       <c r="W36" s="33"/>
       <c r="X36" s="33"/>
       <c r="Y36" s="33"/>
       <c r="Z36" s="33"/>
       <c r="AA36" s="33"/>
       <c r="AB36" s="33"/>
-      <c r="AC36" s="57"/>
+      <c r="AC36" s="54"/>
       <c r="AD36" s="32"/>
       <c r="AE36" s="32"/>
       <c r="AF36" s="32"/>
       <c r="AG36" s="32"/>
       <c r="AH36" s="32"/>
       <c r="AI36" s="32"/>
-      <c r="AJ36" s="50"/>
+      <c r="AJ36" s="46"/>
       <c r="AK36" s="32"/>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A37" s="44"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="45"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="48"/>
       <c r="D37" s="16" t="s">
         <v>45</v>
       </c>
@@ -5768,27 +5923,27 @@
       <c r="S37" s="33"/>
       <c r="T37" s="33"/>
       <c r="U37" s="33"/>
-      <c r="V37" s="54"/>
+      <c r="V37" s="51"/>
       <c r="W37" s="33"/>
       <c r="X37" s="33"/>
       <c r="Y37" s="33"/>
       <c r="Z37" s="33"/>
       <c r="AA37" s="33"/>
       <c r="AB37" s="33"/>
-      <c r="AC37" s="57"/>
+      <c r="AC37" s="54"/>
       <c r="AD37" s="32"/>
       <c r="AE37" s="32"/>
       <c r="AF37" s="32"/>
       <c r="AG37" s="32"/>
       <c r="AH37" s="32"/>
       <c r="AI37" s="32"/>
-      <c r="AJ37" s="50"/>
+      <c r="AJ37" s="46"/>
       <c r="AK37" s="32"/>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A38" s="44"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="45"/>
+      <c r="A38" s="56"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="48"/>
       <c r="D38" t="s">
         <v>26</v>
       </c>
@@ -5806,27 +5961,27 @@
       <c r="S38" s="33"/>
       <c r="T38" s="33"/>
       <c r="U38" s="33"/>
-      <c r="V38" s="54"/>
+      <c r="V38" s="51"/>
       <c r="W38" s="33"/>
       <c r="X38" s="33"/>
       <c r="Y38" s="33"/>
       <c r="Z38" s="33"/>
       <c r="AA38" s="33"/>
       <c r="AB38" s="33"/>
-      <c r="AC38" s="57"/>
+      <c r="AC38" s="54"/>
       <c r="AD38" s="32"/>
       <c r="AE38" s="32"/>
       <c r="AF38" s="32"/>
       <c r="AG38" s="32"/>
       <c r="AH38" s="32"/>
       <c r="AI38" s="32"/>
-      <c r="AJ38" s="50"/>
+      <c r="AJ38" s="46"/>
       <c r="AK38" s="32"/>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A39" s="44"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="45" t="s">
+      <c r="A39" s="56"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="48" t="s">
         <v>42</v>
       </c>
       <c r="D39" t="s">
@@ -5847,27 +6002,27 @@
       <c r="S39" s="33"/>
       <c r="T39" s="33"/>
       <c r="U39" s="33"/>
-      <c r="V39" s="54"/>
+      <c r="V39" s="51"/>
       <c r="W39" s="33"/>
       <c r="X39" s="33"/>
       <c r="Y39" s="33"/>
       <c r="Z39" s="33"/>
       <c r="AA39" s="33"/>
       <c r="AB39" s="33"/>
-      <c r="AC39" s="57"/>
+      <c r="AC39" s="54"/>
       <c r="AD39" s="32"/>
       <c r="AE39" s="32"/>
       <c r="AF39" s="32"/>
       <c r="AG39" s="32"/>
       <c r="AH39" s="32"/>
       <c r="AI39" s="32"/>
-      <c r="AJ39" s="50"/>
+      <c r="AJ39" s="46"/>
       <c r="AK39" s="32"/>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A40" s="44"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="45"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="48"/>
       <c r="D40" t="s">
         <v>26</v>
       </c>
@@ -5887,27 +6042,27 @@
       <c r="S40" s="33"/>
       <c r="T40" s="33"/>
       <c r="U40" s="33"/>
-      <c r="V40" s="54"/>
+      <c r="V40" s="51"/>
       <c r="W40" s="33"/>
       <c r="X40" s="33"/>
       <c r="Y40" s="33"/>
       <c r="Z40" s="33"/>
       <c r="AA40" s="33"/>
       <c r="AB40" s="33"/>
-      <c r="AC40" s="57"/>
+      <c r="AC40" s="54"/>
       <c r="AD40" s="32"/>
       <c r="AE40" s="32"/>
       <c r="AF40" s="32"/>
       <c r="AG40" s="32"/>
       <c r="AH40" s="32"/>
       <c r="AI40" s="32"/>
-      <c r="AJ40" s="50"/>
+      <c r="AJ40" s="46"/>
       <c r="AK40" s="32"/>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A41" s="44"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="45" t="s">
+      <c r="A41" s="56"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="48" t="s">
         <v>43</v>
       </c>
       <c r="D41" t="s">
@@ -5928,27 +6083,27 @@
       <c r="S41" s="33"/>
       <c r="T41" s="33"/>
       <c r="U41" s="33"/>
-      <c r="V41" s="54"/>
+      <c r="V41" s="51"/>
       <c r="W41" s="33"/>
       <c r="X41" s="33"/>
       <c r="Y41" s="33"/>
       <c r="Z41" s="33"/>
       <c r="AA41" s="33"/>
       <c r="AB41" s="33"/>
-      <c r="AC41" s="57"/>
+      <c r="AC41" s="54"/>
       <c r="AD41" s="32"/>
       <c r="AE41" s="32"/>
       <c r="AF41" s="32"/>
       <c r="AG41" s="32"/>
       <c r="AH41" s="32"/>
       <c r="AI41" s="32"/>
-      <c r="AJ41" s="50"/>
+      <c r="AJ41" s="46"/>
       <c r="AK41" s="32"/>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A42" s="44"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="45"/>
+      <c r="A42" s="56"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="48"/>
       <c r="F42" s="35"/>
       <c r="G42" s="35"/>
       <c r="J42" s="7">
@@ -5965,27 +6120,27 @@
       <c r="S42" s="33"/>
       <c r="T42" s="33"/>
       <c r="U42" s="33"/>
-      <c r="V42" s="54"/>
+      <c r="V42" s="51"/>
       <c r="W42" s="33"/>
       <c r="X42" s="33"/>
       <c r="Y42" s="33"/>
       <c r="Z42" s="33"/>
       <c r="AA42" s="33"/>
       <c r="AB42" s="33"/>
-      <c r="AC42" s="57"/>
+      <c r="AC42" s="54"/>
       <c r="AD42" s="32"/>
       <c r="AE42" s="32"/>
       <c r="AF42" s="32"/>
       <c r="AG42" s="32"/>
       <c r="AH42" s="32"/>
       <c r="AI42" s="32"/>
-      <c r="AJ42" s="50"/>
+      <c r="AJ42" s="46"/>
       <c r="AK42" s="32"/>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A43" s="44"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="45"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="48"/>
       <c r="F43" s="35"/>
       <c r="G43" s="35"/>
       <c r="J43" s="7">
@@ -6002,27 +6157,27 @@
       <c r="S43" s="33"/>
       <c r="T43" s="33"/>
       <c r="U43" s="33"/>
-      <c r="V43" s="54"/>
+      <c r="V43" s="51"/>
       <c r="W43" s="33"/>
       <c r="X43" s="33"/>
       <c r="Y43" s="33"/>
       <c r="Z43" s="33"/>
       <c r="AA43" s="33"/>
       <c r="AB43" s="33"/>
-      <c r="AC43" s="57"/>
+      <c r="AC43" s="54"/>
       <c r="AD43" s="32"/>
       <c r="AE43" s="32"/>
       <c r="AF43" s="32"/>
       <c r="AG43" s="32"/>
       <c r="AH43" s="32"/>
       <c r="AI43" s="32"/>
-      <c r="AJ43" s="50"/>
+      <c r="AJ43" s="46"/>
       <c r="AK43" s="32"/>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A44" s="44"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="45" t="s">
+      <c r="A44" s="56"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="48" t="s">
         <v>17</v>
       </c>
       <c r="D44" t="s">
@@ -6042,27 +6197,27 @@
       <c r="S44" s="33"/>
       <c r="T44" s="33"/>
       <c r="U44" s="33"/>
-      <c r="V44" s="54"/>
+      <c r="V44" s="51"/>
       <c r="W44" s="33"/>
       <c r="X44" s="33"/>
       <c r="Y44" s="33"/>
       <c r="Z44" s="33"/>
       <c r="AA44" s="33"/>
       <c r="AB44" s="33"/>
-      <c r="AC44" s="57"/>
+      <c r="AC44" s="54"/>
       <c r="AD44" s="32"/>
       <c r="AE44" s="32"/>
       <c r="AF44" s="32"/>
       <c r="AG44" s="32"/>
       <c r="AH44" s="32"/>
       <c r="AI44" s="32"/>
-      <c r="AJ44" s="50"/>
+      <c r="AJ44" s="46"/>
       <c r="AK44" s="32"/>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A45" s="44"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="45"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="48"/>
       <c r="D45" t="s">
         <v>36</v>
       </c>
@@ -6080,27 +6235,27 @@
       <c r="S45" s="33"/>
       <c r="T45" s="33"/>
       <c r="U45" s="33"/>
-      <c r="V45" s="54"/>
+      <c r="V45" s="51"/>
       <c r="W45" s="33"/>
       <c r="X45" s="33"/>
       <c r="Y45" s="33"/>
       <c r="Z45" s="33"/>
       <c r="AA45" s="33"/>
       <c r="AB45" s="33"/>
-      <c r="AC45" s="57"/>
+      <c r="AC45" s="54"/>
       <c r="AD45" s="32"/>
       <c r="AE45" s="32"/>
       <c r="AF45" s="32"/>
       <c r="AG45" s="32"/>
       <c r="AH45" s="32"/>
       <c r="AI45" s="32"/>
-      <c r="AJ45" s="50"/>
+      <c r="AJ45" s="46"/>
       <c r="AK45" s="32"/>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A46" s="44"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="45"/>
+      <c r="A46" s="56"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="48"/>
       <c r="D46" t="s">
         <v>37</v>
       </c>
@@ -6118,27 +6273,27 @@
       <c r="S46" s="33"/>
       <c r="T46" s="33"/>
       <c r="U46" s="33"/>
-      <c r="V46" s="54"/>
+      <c r="V46" s="51"/>
       <c r="W46" s="33"/>
       <c r="X46" s="33"/>
       <c r="Y46" s="33"/>
       <c r="Z46" s="33"/>
       <c r="AA46" s="33"/>
       <c r="AB46" s="33"/>
-      <c r="AC46" s="57"/>
+      <c r="AC46" s="54"/>
       <c r="AD46" s="32"/>
       <c r="AE46" s="32"/>
       <c r="AF46" s="32"/>
       <c r="AG46" s="32"/>
       <c r="AH46" s="32"/>
       <c r="AI46" s="32"/>
-      <c r="AJ46" s="50"/>
+      <c r="AJ46" s="46"/>
       <c r="AK46" s="32"/>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A47" s="44"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="45"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="48"/>
       <c r="D47" t="s">
         <v>38</v>
       </c>
@@ -6156,27 +6311,27 @@
       <c r="S47" s="33"/>
       <c r="T47" s="33"/>
       <c r="U47" s="33"/>
-      <c r="V47" s="54"/>
+      <c r="V47" s="51"/>
       <c r="W47" s="33"/>
       <c r="X47" s="33"/>
       <c r="Y47" s="33"/>
       <c r="Z47" s="33"/>
       <c r="AA47" s="33"/>
       <c r="AB47" s="33"/>
-      <c r="AC47" s="57"/>
+      <c r="AC47" s="54"/>
       <c r="AD47" s="32"/>
       <c r="AE47" s="32"/>
       <c r="AF47" s="32"/>
       <c r="AG47" s="32"/>
       <c r="AH47" s="32"/>
       <c r="AI47" s="32"/>
-      <c r="AJ47" s="50"/>
+      <c r="AJ47" s="46"/>
       <c r="AK47" s="32"/>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A48" s="44"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="45"/>
+      <c r="A48" s="56"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="48"/>
       <c r="D48" t="s">
         <v>33</v>
       </c>
@@ -6194,26 +6349,26 @@
       <c r="S48" s="33"/>
       <c r="T48" s="33"/>
       <c r="U48" s="33"/>
-      <c r="V48" s="54"/>
+      <c r="V48" s="51"/>
       <c r="W48" s="33"/>
       <c r="X48" s="33"/>
       <c r="Y48" s="33"/>
       <c r="Z48" s="33"/>
       <c r="AA48" s="33"/>
       <c r="AB48" s="33"/>
-      <c r="AC48" s="57"/>
+      <c r="AC48" s="54"/>
       <c r="AD48" s="32"/>
       <c r="AE48" s="32"/>
       <c r="AF48" s="32"/>
       <c r="AG48" s="32"/>
       <c r="AH48" s="32"/>
       <c r="AI48" s="32"/>
-      <c r="AJ48" s="50"/>
+      <c r="AJ48" s="46"/>
       <c r="AK48" s="32"/>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A49" s="44"/>
-      <c r="B49" s="52"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="49"/>
       <c r="J49" s="7">
         <v>0</v>
       </c>
@@ -6228,26 +6383,26 @@
       <c r="S49" s="33"/>
       <c r="T49" s="33"/>
       <c r="U49" s="33"/>
-      <c r="V49" s="54"/>
+      <c r="V49" s="51"/>
       <c r="W49" s="33"/>
       <c r="X49" s="33"/>
       <c r="Y49" s="33"/>
       <c r="Z49" s="33"/>
       <c r="AA49" s="33"/>
       <c r="AB49" s="33"/>
-      <c r="AC49" s="57"/>
+      <c r="AC49" s="54"/>
       <c r="AD49" s="32"/>
       <c r="AE49" s="32"/>
       <c r="AF49" s="32"/>
       <c r="AG49" s="32"/>
       <c r="AH49" s="32"/>
       <c r="AI49" s="32"/>
-      <c r="AJ49" s="50"/>
+      <c r="AJ49" s="46"/>
       <c r="AK49" s="32"/>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A50" s="44"/>
-      <c r="B50" s="52"/>
+      <c r="A50" s="56"/>
+      <c r="B50" s="49"/>
       <c r="C50" s="10" t="s">
         <v>132</v>
       </c>
@@ -6265,26 +6420,26 @@
       <c r="S50" s="33"/>
       <c r="T50" s="33"/>
       <c r="U50" s="33"/>
-      <c r="V50" s="54"/>
+      <c r="V50" s="51"/>
       <c r="W50" s="33"/>
       <c r="X50" s="33"/>
       <c r="Y50" s="33"/>
       <c r="Z50" s="33"/>
       <c r="AA50" s="33"/>
       <c r="AB50" s="33"/>
-      <c r="AC50" s="57"/>
+      <c r="AC50" s="54"/>
       <c r="AD50" s="32"/>
       <c r="AE50" s="32"/>
       <c r="AF50" s="32"/>
       <c r="AG50" s="32"/>
       <c r="AH50" s="32"/>
       <c r="AI50" s="32"/>
-      <c r="AJ50" s="50"/>
+      <c r="AJ50" s="46"/>
       <c r="AK50" s="32"/>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A51" s="44"/>
-      <c r="B51" s="52"/>
+      <c r="A51" s="56"/>
+      <c r="B51" s="49"/>
       <c r="J51" s="7">
         <v>0</v>
       </c>
@@ -6299,26 +6454,26 @@
       <c r="S51" s="33"/>
       <c r="T51" s="33"/>
       <c r="U51" s="33"/>
-      <c r="V51" s="54"/>
+      <c r="V51" s="51"/>
       <c r="W51" s="33"/>
       <c r="X51" s="33"/>
       <c r="Y51" s="33"/>
       <c r="Z51" s="33"/>
       <c r="AA51" s="33"/>
       <c r="AB51" s="33"/>
-      <c r="AC51" s="57"/>
+      <c r="AC51" s="54"/>
       <c r="AD51" s="32"/>
       <c r="AE51" s="32"/>
       <c r="AF51" s="32"/>
       <c r="AG51" s="32"/>
       <c r="AH51" s="32"/>
       <c r="AI51" s="32"/>
-      <c r="AJ51" s="50"/>
+      <c r="AJ51" s="46"/>
       <c r="AK51" s="32"/>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A52" s="44"/>
-      <c r="B52" s="52"/>
+      <c r="A52" s="56"/>
+      <c r="B52" s="49"/>
       <c r="J52" s="7">
         <v>0</v>
       </c>
@@ -6333,26 +6488,26 @@
       <c r="S52" s="33"/>
       <c r="T52" s="33"/>
       <c r="U52" s="33"/>
-      <c r="V52" s="54"/>
+      <c r="V52" s="51"/>
       <c r="W52" s="33"/>
       <c r="X52" s="33"/>
       <c r="Y52" s="33"/>
       <c r="Z52" s="33"/>
       <c r="AA52" s="33"/>
       <c r="AB52" s="33"/>
-      <c r="AC52" s="57"/>
+      <c r="AC52" s="54"/>
       <c r="AD52" s="32"/>
       <c r="AE52" s="32"/>
       <c r="AF52" s="32"/>
       <c r="AG52" s="32"/>
       <c r="AH52" s="32"/>
       <c r="AI52" s="32"/>
-      <c r="AJ52" s="50"/>
+      <c r="AJ52" s="46"/>
       <c r="AK52" s="32"/>
     </row>
     <row r="53" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="44"/>
-      <c r="B53" s="52"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="49"/>
       <c r="C53" s="13" t="s">
         <v>76</v>
       </c>
@@ -6378,26 +6533,26 @@
       <c r="S53" s="34"/>
       <c r="T53" s="34"/>
       <c r="U53" s="34"/>
-      <c r="V53" s="54"/>
+      <c r="V53" s="51"/>
       <c r="W53" s="34"/>
       <c r="X53" s="34"/>
       <c r="Y53" s="34"/>
       <c r="Z53" s="34"/>
       <c r="AA53" s="34"/>
       <c r="AB53" s="34"/>
-      <c r="AC53" s="57"/>
+      <c r="AC53" s="54"/>
       <c r="AD53" s="32"/>
       <c r="AE53" s="32"/>
       <c r="AF53" s="32"/>
       <c r="AG53" s="32"/>
       <c r="AH53" s="32"/>
       <c r="AI53" s="32"/>
-      <c r="AJ53" s="50"/>
+      <c r="AJ53" s="46"/>
       <c r="AK53" s="32"/>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A54" s="44"/>
-      <c r="B54" s="48" t="s">
+      <c r="A54" s="56"/>
+      <c r="B54" s="59" t="s">
         <v>131</v>
       </c>
       <c r="C54" s="35" t="s">
@@ -6432,30 +6587,30 @@
       <c r="S54" s="33"/>
       <c r="T54" s="33"/>
       <c r="U54" s="33"/>
-      <c r="V54" s="54"/>
+      <c r="V54" s="51"/>
       <c r="W54" s="33"/>
       <c r="X54" s="33"/>
       <c r="Y54" s="33"/>
       <c r="Z54" s="33"/>
       <c r="AA54" s="33"/>
       <c r="AB54" s="33"/>
-      <c r="AC54" s="57"/>
+      <c r="AC54" s="54"/>
       <c r="AD54" s="32"/>
       <c r="AE54" s="32"/>
       <c r="AF54" s="32"/>
       <c r="AG54" s="32"/>
       <c r="AH54" s="32"/>
       <c r="AI54" s="32"/>
-      <c r="AJ54" s="50"/>
+      <c r="AJ54" s="46"/>
       <c r="AK54" s="32"/>
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A55" s="44"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="45" t="s">
+      <c r="A55" s="56"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="D55" s="45" t="s">
+      <c r="D55" s="48" t="s">
         <v>102</v>
       </c>
       <c r="E55" t="s">
@@ -6477,28 +6632,28 @@
       <c r="S55" s="33"/>
       <c r="T55" s="33"/>
       <c r="U55" s="33"/>
-      <c r="V55" s="54"/>
+      <c r="V55" s="51"/>
       <c r="W55" s="33"/>
       <c r="X55" s="33"/>
       <c r="Y55" s="33"/>
       <c r="Z55" s="33"/>
       <c r="AA55" s="33"/>
       <c r="AB55" s="33"/>
-      <c r="AC55" s="57"/>
+      <c r="AC55" s="54"/>
       <c r="AD55" s="32"/>
       <c r="AE55" s="32"/>
       <c r="AF55" s="32"/>
       <c r="AG55" s="32"/>
       <c r="AH55" s="32"/>
       <c r="AI55" s="32"/>
-      <c r="AJ55" s="50"/>
+      <c r="AJ55" s="46"/>
       <c r="AK55" s="32"/>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A56" s="44"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="45"/>
-      <c r="D56" s="45"/>
+      <c r="A56" s="56"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="48"/>
       <c r="E56" t="s">
         <v>115</v>
       </c>
@@ -6516,28 +6671,28 @@
       <c r="S56" s="33"/>
       <c r="T56" s="33"/>
       <c r="U56" s="33"/>
-      <c r="V56" s="54"/>
+      <c r="V56" s="51"/>
       <c r="W56" s="33"/>
       <c r="X56" s="33"/>
       <c r="Y56" s="33"/>
       <c r="Z56" s="33"/>
       <c r="AA56" s="33"/>
       <c r="AB56" s="33"/>
-      <c r="AC56" s="57"/>
+      <c r="AC56" s="54"/>
       <c r="AD56" s="32"/>
       <c r="AE56" s="32"/>
       <c r="AF56" s="32"/>
       <c r="AG56" s="32"/>
       <c r="AH56" s="32"/>
       <c r="AI56" s="32"/>
-      <c r="AJ56" s="50"/>
+      <c r="AJ56" s="46"/>
       <c r="AK56" s="32"/>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A57" s="44"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="45"/>
-      <c r="D57" s="45"/>
+      <c r="A57" s="56"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="48"/>
       <c r="E57" t="s">
         <v>116</v>
       </c>
@@ -6555,27 +6710,27 @@
       <c r="S57" s="33"/>
       <c r="T57" s="33"/>
       <c r="U57" s="33"/>
-      <c r="V57" s="54"/>
+      <c r="V57" s="51"/>
       <c r="W57" s="33"/>
       <c r="X57" s="33"/>
       <c r="Y57" s="33"/>
       <c r="Z57" s="33"/>
       <c r="AA57" s="33"/>
       <c r="AB57" s="33"/>
-      <c r="AC57" s="57"/>
+      <c r="AC57" s="54"/>
       <c r="AD57" s="32"/>
       <c r="AE57" s="32"/>
       <c r="AF57" s="32"/>
       <c r="AG57" s="32"/>
       <c r="AH57" s="32"/>
       <c r="AI57" s="32"/>
-      <c r="AJ57" s="50"/>
+      <c r="AJ57" s="46"/>
       <c r="AK57" s="32"/>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A58" s="44"/>
-      <c r="B58" s="48"/>
-      <c r="C58" s="45"/>
+      <c r="A58" s="56"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="48"/>
       <c r="D58" t="s">
         <v>104</v>
       </c>
@@ -6595,27 +6750,27 @@
       <c r="S58" s="33"/>
       <c r="T58" s="33"/>
       <c r="U58" s="33"/>
-      <c r="V58" s="54"/>
+      <c r="V58" s="51"/>
       <c r="W58" s="33"/>
       <c r="X58" s="33"/>
       <c r="Y58" s="33"/>
       <c r="Z58" s="33"/>
       <c r="AA58" s="33"/>
       <c r="AB58" s="33"/>
-      <c r="AC58" s="57"/>
+      <c r="AC58" s="54"/>
       <c r="AD58" s="32"/>
       <c r="AE58" s="32"/>
       <c r="AF58" s="32"/>
       <c r="AG58" s="32"/>
       <c r="AH58" s="32"/>
       <c r="AI58" s="32"/>
-      <c r="AJ58" s="50"/>
+      <c r="AJ58" s="46"/>
       <c r="AK58" s="32"/>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A59" s="44"/>
-      <c r="B59" s="48"/>
-      <c r="C59" s="45"/>
+      <c r="A59" s="56"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="48"/>
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
       <c r="J59" s="7"/>
@@ -6630,27 +6785,27 @@
       <c r="S59" s="33"/>
       <c r="T59" s="33"/>
       <c r="U59" s="33"/>
-      <c r="V59" s="54"/>
+      <c r="V59" s="51"/>
       <c r="W59" s="33"/>
       <c r="X59" s="33"/>
       <c r="Y59" s="33"/>
       <c r="Z59" s="33"/>
       <c r="AA59" s="33"/>
       <c r="AB59" s="33"/>
-      <c r="AC59" s="57"/>
+      <c r="AC59" s="54"/>
       <c r="AD59" s="32"/>
       <c r="AE59" s="32"/>
       <c r="AF59" s="32"/>
       <c r="AG59" s="32"/>
       <c r="AH59" s="32"/>
       <c r="AI59" s="32"/>
-      <c r="AJ59" s="50"/>
+      <c r="AJ59" s="46"/>
       <c r="AK59" s="32"/>
     </row>
     <row r="60" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="44"/>
-      <c r="B60" s="48"/>
-      <c r="C60" s="45" t="s">
+      <c r="A60" s="56"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="48" t="s">
         <v>44</v>
       </c>
       <c r="D60" t="s">
@@ -6671,27 +6826,27 @@
       <c r="S60" s="33"/>
       <c r="T60" s="33"/>
       <c r="U60" s="33"/>
-      <c r="V60" s="54"/>
+      <c r="V60" s="51"/>
       <c r="W60" s="33"/>
       <c r="X60" s="33"/>
       <c r="Y60" s="33"/>
       <c r="Z60" s="33"/>
       <c r="AA60" s="33"/>
       <c r="AB60" s="33"/>
-      <c r="AC60" s="57"/>
+      <c r="AC60" s="54"/>
       <c r="AD60" s="32"/>
       <c r="AE60" s="32"/>
       <c r="AF60" s="32"/>
       <c r="AG60" s="32"/>
       <c r="AH60" s="32"/>
       <c r="AI60" s="32"/>
-      <c r="AJ60" s="50"/>
+      <c r="AJ60" s="46"/>
       <c r="AK60" s="32"/>
     </row>
     <row r="61" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="44"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="45"/>
+      <c r="A61" s="56"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="48"/>
       <c r="D61" t="s">
         <v>105</v>
       </c>
@@ -6711,26 +6866,26 @@
       <c r="S61" s="33"/>
       <c r="T61" s="33"/>
       <c r="U61" s="33"/>
-      <c r="V61" s="54"/>
+      <c r="V61" s="51"/>
       <c r="W61" s="33"/>
       <c r="X61" s="33"/>
       <c r="Y61" s="33"/>
       <c r="Z61" s="33"/>
       <c r="AA61" s="33"/>
       <c r="AB61" s="33"/>
-      <c r="AC61" s="57"/>
+      <c r="AC61" s="54"/>
       <c r="AD61" s="32"/>
       <c r="AE61" s="32"/>
       <c r="AF61" s="32"/>
       <c r="AG61" s="32"/>
       <c r="AH61" s="32"/>
       <c r="AI61" s="32"/>
-      <c r="AJ61" s="50"/>
+      <c r="AJ61" s="46"/>
       <c r="AK61" s="32"/>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A62" s="44"/>
-      <c r="B62" s="48"/>
+      <c r="A62" s="56"/>
+      <c r="B62" s="59"/>
       <c r="C62" s="14" t="s">
         <v>96</v>
       </c>
@@ -6749,26 +6904,26 @@
       <c r="S62" s="33"/>
       <c r="T62" s="33"/>
       <c r="U62" s="33"/>
-      <c r="V62" s="54"/>
+      <c r="V62" s="51"/>
       <c r="W62" s="33"/>
       <c r="X62" s="33"/>
       <c r="Y62" s="33"/>
       <c r="Z62" s="33"/>
       <c r="AA62" s="33"/>
       <c r="AB62" s="33"/>
-      <c r="AC62" s="57"/>
+      <c r="AC62" s="54"/>
       <c r="AD62" s="32"/>
       <c r="AE62" s="32"/>
       <c r="AF62" s="32"/>
       <c r="AG62" s="32"/>
       <c r="AH62" s="32"/>
       <c r="AI62" s="32"/>
-      <c r="AJ62" s="50"/>
+      <c r="AJ62" s="46"/>
       <c r="AK62" s="32"/>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A63" s="44"/>
-      <c r="B63" s="48"/>
+      <c r="A63" s="56"/>
+      <c r="B63" s="59"/>
       <c r="C63" s="10" t="s">
         <v>24</v>
       </c>
@@ -6786,31 +6941,46 @@
       <c r="S63" s="33"/>
       <c r="T63" s="33"/>
       <c r="U63" s="33"/>
-      <c r="V63" s="54"/>
+      <c r="V63" s="51"/>
       <c r="W63" s="33"/>
       <c r="X63" s="33"/>
       <c r="Y63" s="33"/>
       <c r="Z63" s="33"/>
       <c r="AA63" s="33"/>
       <c r="AB63" s="33"/>
-      <c r="AC63" s="57"/>
+      <c r="AC63" s="54"/>
       <c r="AD63" s="32"/>
       <c r="AE63" s="32"/>
       <c r="AF63" s="32"/>
       <c r="AG63" s="32"/>
       <c r="AH63" s="32"/>
       <c r="AI63" s="32"/>
-      <c r="AJ63" s="50"/>
+      <c r="AJ63" s="46"/>
       <c r="AK63" s="32"/>
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A64" s="44"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="10" t="s">
+      <c r="A64" s="56"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="48" t="s">
         <v>13</v>
       </c>
+      <c r="D64" t="s">
+        <v>136</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="H64" s="19">
+        <v>44124</v>
+      </c>
+      <c r="I64" s="19">
+        <v>44124</v>
+      </c>
       <c r="J64" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="33"/>
       <c r="L64" s="33"/>
@@ -6823,36 +6993,44 @@
       <c r="S64" s="33"/>
       <c r="T64" s="33"/>
       <c r="U64" s="33"/>
-      <c r="V64" s="54"/>
+      <c r="V64" s="51"/>
       <c r="W64" s="33"/>
       <c r="X64" s="33"/>
       <c r="Y64" s="33"/>
       <c r="Z64" s="33"/>
       <c r="AA64" s="33"/>
       <c r="AB64" s="33"/>
-      <c r="AC64" s="57"/>
+      <c r="AC64" s="54"/>
       <c r="AD64" s="32"/>
       <c r="AE64" s="32"/>
       <c r="AF64" s="32"/>
       <c r="AG64" s="32"/>
       <c r="AH64" s="32"/>
       <c r="AI64" s="32"/>
-      <c r="AJ64" s="50"/>
+      <c r="AJ64" s="46"/>
       <c r="AK64" s="32"/>
     </row>
-    <row r="65" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="44"/>
-      <c r="B65" s="48"/>
-      <c r="C65" s="45" t="s">
-        <v>106</v>
-      </c>
+    <row r="65" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A65" s="56"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="48"/>
       <c r="D65" t="s">
-        <v>107</v>
-      </c>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
+        <v>137</v>
+      </c>
+      <c r="F65" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="G65" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="H65" s="19">
+        <v>44124</v>
+      </c>
+      <c r="I65" s="19">
+        <v>44124</v>
+      </c>
       <c r="J65" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="33"/>
       <c r="L65" s="33"/>
@@ -6865,29 +7043,31 @@
       <c r="S65" s="33"/>
       <c r="T65" s="33"/>
       <c r="U65" s="33"/>
-      <c r="V65" s="54"/>
+      <c r="V65" s="51"/>
       <c r="W65" s="33"/>
       <c r="X65" s="33"/>
       <c r="Y65" s="33"/>
       <c r="Z65" s="33"/>
       <c r="AA65" s="33"/>
       <c r="AB65" s="33"/>
-      <c r="AC65" s="57"/>
+      <c r="AC65" s="54"/>
       <c r="AD65" s="32"/>
       <c r="AE65" s="32"/>
       <c r="AF65" s="32"/>
       <c r="AG65" s="32"/>
       <c r="AH65" s="32"/>
       <c r="AI65" s="32"/>
-      <c r="AJ65" s="50"/>
+      <c r="AJ65" s="46"/>
       <c r="AK65" s="32"/>
     </row>
     <row r="66" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="44"/>
-      <c r="B66" s="48"/>
-      <c r="C66" s="45"/>
+      <c r="A66" s="56"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="48" t="s">
+        <v>106</v>
+      </c>
       <c r="D66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F66" s="35"/>
       <c r="G66" s="35"/>
@@ -6905,32 +7085,32 @@
       <c r="S66" s="33"/>
       <c r="T66" s="33"/>
       <c r="U66" s="33"/>
-      <c r="V66" s="54"/>
+      <c r="V66" s="51"/>
       <c r="W66" s="33"/>
       <c r="X66" s="33"/>
       <c r="Y66" s="33"/>
       <c r="Z66" s="33"/>
       <c r="AA66" s="33"/>
       <c r="AB66" s="33"/>
-      <c r="AC66" s="57"/>
+      <c r="AC66" s="54"/>
       <c r="AD66" s="32"/>
       <c r="AE66" s="32"/>
       <c r="AF66" s="32"/>
       <c r="AG66" s="32"/>
       <c r="AH66" s="32"/>
       <c r="AI66" s="32"/>
-      <c r="AJ66" s="50"/>
+      <c r="AJ66" s="46"/>
       <c r="AK66" s="32"/>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A67" s="44"/>
-      <c r="B67" s="48"/>
-      <c r="C67" s="45" t="s">
-        <v>30</v>
-      </c>
+    <row r="67" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="56"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="48"/>
       <c r="D67" t="s">
-        <v>31</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
       <c r="J67" s="7">
         <v>0</v>
       </c>
@@ -6945,29 +7125,31 @@
       <c r="S67" s="33"/>
       <c r="T67" s="33"/>
       <c r="U67" s="33"/>
-      <c r="V67" s="54"/>
+      <c r="V67" s="51"/>
       <c r="W67" s="33"/>
       <c r="X67" s="33"/>
       <c r="Y67" s="33"/>
       <c r="Z67" s="33"/>
       <c r="AA67" s="33"/>
       <c r="AB67" s="33"/>
-      <c r="AC67" s="57"/>
+      <c r="AC67" s="54"/>
       <c r="AD67" s="32"/>
       <c r="AE67" s="32"/>
       <c r="AF67" s="32"/>
       <c r="AG67" s="32"/>
       <c r="AH67" s="32"/>
       <c r="AI67" s="32"/>
-      <c r="AJ67" s="50"/>
+      <c r="AJ67" s="46"/>
       <c r="AK67" s="32"/>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A68" s="44"/>
-      <c r="B68" s="48"/>
-      <c r="C68" s="45"/>
+      <c r="A68" s="56"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="48" t="s">
+        <v>30</v>
+      </c>
       <c r="D68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J68" s="7">
         <v>0</v>
@@ -6983,29 +7165,29 @@
       <c r="S68" s="33"/>
       <c r="T68" s="33"/>
       <c r="U68" s="33"/>
-      <c r="V68" s="54"/>
+      <c r="V68" s="51"/>
       <c r="W68" s="33"/>
       <c r="X68" s="33"/>
       <c r="Y68" s="33"/>
       <c r="Z68" s="33"/>
       <c r="AA68" s="33"/>
       <c r="AB68" s="33"/>
-      <c r="AC68" s="57"/>
+      <c r="AC68" s="54"/>
       <c r="AD68" s="32"/>
       <c r="AE68" s="32"/>
       <c r="AF68" s="32"/>
       <c r="AG68" s="32"/>
       <c r="AH68" s="32"/>
       <c r="AI68" s="32"/>
-      <c r="AJ68" s="50"/>
+      <c r="AJ68" s="46"/>
       <c r="AK68" s="32"/>
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A69" s="44"/>
-      <c r="B69" s="48"/>
-      <c r="C69" s="45"/>
+      <c r="A69" s="56"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="48"/>
       <c r="D69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J69" s="7">
         <v>0</v>
@@ -7021,65 +7203,104 @@
       <c r="S69" s="33"/>
       <c r="T69" s="33"/>
       <c r="U69" s="33"/>
-      <c r="V69" s="55"/>
+      <c r="V69" s="51"/>
       <c r="W69" s="33"/>
       <c r="X69" s="33"/>
       <c r="Y69" s="33"/>
       <c r="Z69" s="33"/>
       <c r="AA69" s="33"/>
       <c r="AB69" s="33"/>
-      <c r="AC69" s="58"/>
+      <c r="AC69" s="54"/>
       <c r="AD69" s="32"/>
       <c r="AE69" s="32"/>
       <c r="AF69" s="32"/>
       <c r="AG69" s="32"/>
       <c r="AH69" s="32"/>
       <c r="AI69" s="32"/>
-      <c r="AJ69" s="51"/>
+      <c r="AJ69" s="46"/>
       <c r="AK69" s="32"/>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A70" s="44"/>
-      <c r="B70" s="11" t="s">
+      <c r="A70" s="56"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="48"/>
+      <c r="D70" t="s">
+        <v>33</v>
+      </c>
+      <c r="J70" s="7">
+        <v>0</v>
+      </c>
+      <c r="K70" s="33"/>
+      <c r="L70" s="33"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="33"/>
+      <c r="O70" s="33"/>
+      <c r="P70" s="33"/>
+      <c r="Q70" s="33"/>
+      <c r="R70" s="33"/>
+      <c r="S70" s="33"/>
+      <c r="T70" s="33"/>
+      <c r="U70" s="33"/>
+      <c r="V70" s="52"/>
+      <c r="W70" s="33"/>
+      <c r="X70" s="33"/>
+      <c r="Y70" s="33"/>
+      <c r="Z70" s="33"/>
+      <c r="AA70" s="33"/>
+      <c r="AB70" s="33"/>
+      <c r="AC70" s="55"/>
+      <c r="AD70" s="32"/>
+      <c r="AE70" s="32"/>
+      <c r="AF70" s="32"/>
+      <c r="AG70" s="32"/>
+      <c r="AH70" s="32"/>
+      <c r="AI70" s="32"/>
+      <c r="AJ70" s="47"/>
+      <c r="AK70" s="32"/>
+    </row>
+    <row r="71" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A71" s="56"/>
+      <c r="B71" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F70" s="10" t="s">
+      <c r="F71" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J70" s="6">
+      <c r="J71" s="6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="AJ5:AJ69"/>
+  <mergeCells count="23">
+    <mergeCell ref="A5:A71"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C68:C70"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B54:B70"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="AJ5:AJ70"/>
     <mergeCell ref="C18:C38"/>
     <mergeCell ref="B11:B53"/>
     <mergeCell ref="D18:D24"/>
     <mergeCell ref="D27:D29"/>
     <mergeCell ref="D30:D32"/>
-    <mergeCell ref="V5:V69"/>
-    <mergeCell ref="AC5:AC69"/>
+    <mergeCell ref="V5:V70"/>
+    <mergeCell ref="AC5:AC70"/>
     <mergeCell ref="D55:D57"/>
     <mergeCell ref="C55:C59"/>
     <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A5:A70"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B54:B69"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="K3:AK5 K6:U69 AK6:AK69 W6:AB69 AD6:AI69">
+  <conditionalFormatting sqref="K3:AK5 K6:U70 AK6:AK70 W6:AB70 AD6:AI70">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>WEEKDAY(K$3)=7</formula>
     </cfRule>
@@ -7149,24 +7370,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" spans="2:14" ht="45.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
       <c r="K4" s="24" t="s">
         <v>78</v>
       </c>
@@ -7175,14 +7396,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
       <c r="K5" s="25" t="s">
         <v>80</v>
       </c>
@@ -7191,14 +7412,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
       <c r="K6" s="25" t="s">
         <v>81</v>
       </c>
@@ -7207,70 +7428,70 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
       <c r="K7" s="25" t="s">
         <v>82</v>
       </c>
       <c r="L7" s="26"/>
     </row>
     <row r="8" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
       <c r="K8" s="25" t="s">
         <v>83</v>
       </c>
       <c r="L8" s="26"/>
     </row>
     <row r="9" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
       <c r="K9" s="25" t="s">
         <v>84</v>
       </c>
       <c r="L9" s="26"/>
     </row>
     <row r="10" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
       <c r="K10" s="25" t="s">
         <v>85</v>
       </c>
       <c r="L10" s="26"/>
     </row>
     <row r="11" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
       <c r="K11" s="25" t="s">
         <v>86</v>
       </c>
@@ -7278,136 +7499,136 @@
       <c r="N11" s="23"/>
     </row>
     <row r="12" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
       <c r="K12" s="25" t="s">
         <v>87</v>
       </c>
       <c r="L12" s="26"/>
     </row>
     <row r="13" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
       <c r="K13" s="25" t="s">
         <v>88</v>
       </c>
       <c r="L13" s="26"/>
     </row>
     <row r="14" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
       <c r="K14" s="25" t="s">
         <v>89</v>
       </c>
       <c r="L14" s="26"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="45"/>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="45"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7451,22 +7672,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="14"/>
@@ -7553,7 +7774,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="61" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -7567,7 +7788,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="60"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="2" t="s">
         <v>73</v>
       </c>
@@ -7659,12 +7880,12 @@
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/schedule/ガントチャートxlsx.xlsx
+++ b/schedule/ガントチャートxlsx.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="141">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -1003,6 +1003,10 @@
     <rPh sb="1" eb="2">
       <t>ニチ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネコモデル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2224,6 +2228,68 @@
         <a:xfrm>
           <a:off x="11699782" y="15354021"/>
           <a:ext cx="243447" cy="189100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 52778"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>5324</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>264460</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>222437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="右矢印 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11694460" y="6770874"/>
+          <a:ext cx="259136" cy="189100"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -4231,7 +4297,7 @@
       <pane xSplit="10" ySplit="4" topLeftCell="K50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J66" sqref="J66"/>
+      <selection pane="bottomRight" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6560,6 +6626,9 @@
       </c>
       <c r="D54" t="s">
         <v>29</v>
+      </c>
+      <c r="E54" t="s">
+        <v>140</v>
       </c>
       <c r="F54" s="10" t="s">
         <v>40</v>

--- a/schedule/ガントチャートxlsx.xlsx
+++ b/schedule/ガントチャートxlsx.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="150">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -916,13 +916,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>6日</t>
-    <rPh sb="1" eb="2">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全画面</t>
     <rPh sb="0" eb="3">
       <t>ゼンガメン</t>
@@ -1007,6 +1000,70 @@
   </si>
   <si>
     <t>ネコモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラッシュアップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡</t>
+    <rPh sb="0" eb="1">
+      <t>オカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>筒井</t>
+    <rPh sb="0" eb="2">
+      <t>ツツイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2日</t>
+    <rPh sb="1" eb="2">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工藤</t>
+    <rPh sb="0" eb="2">
+      <t>クドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テクスチャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>増澤</t>
+    <rPh sb="0" eb="2">
+      <t>マスザワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1473,7 +1530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1609,6 +1666,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1617,9 +1692,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1641,18 +1713,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1838,13 +1898,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>14007</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>257454</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>222438</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1962,13 +2022,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>7004</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>49026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2024,13 +2084,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>7005</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>35018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>224118</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2086,13 +2146,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>292475</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>40340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>257457</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>229440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2148,13 +2208,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>12326</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>24654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>255773</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>213754</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2210,13 +2270,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>10646</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>29977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>254093</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>219077</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2272,13 +2332,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>5324</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>264460</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>222437</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4291,13 +4351,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS71"/>
+  <dimension ref="A1:AS74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="K32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E59" sqref="E59"/>
+      <selection pane="bottomRight" activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4341,15 +4401,15 @@
         <v>15</v>
       </c>
       <c r="P1" s="41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Q1" s="38"/>
       <c r="R1" s="42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="S1" s="39"/>
       <c r="T1" s="43" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="U1" s="40"/>
     </row>
@@ -4582,10 +4642,10 @@
       </c>
     </row>
     <row r="5" spans="1:45" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -4595,13 +4655,13 @@
         <v>39</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="H5" s="19">
         <v>44118</v>
       </c>
       <c r="I5" s="19">
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="J5" s="7">
         <v>1</v>
@@ -4617,7 +4677,7 @@
       <c r="S5" s="32"/>
       <c r="T5" s="32"/>
       <c r="U5" s="32"/>
-      <c r="V5" s="50" t="s">
+      <c r="V5" s="55" t="s">
         <v>118</v>
       </c>
       <c r="W5" s="32"/>
@@ -4626,7 +4686,7 @@
       <c r="Z5" s="32"/>
       <c r="AA5" s="32"/>
       <c r="AB5" s="32"/>
-      <c r="AC5" s="53" t="s">
+      <c r="AC5" s="58" t="s">
         <v>119</v>
       </c>
       <c r="AD5" s="32"/>
@@ -4635,14 +4695,14 @@
       <c r="AG5" s="32"/>
       <c r="AH5" s="32"/>
       <c r="AI5" s="32"/>
-      <c r="AJ5" s="45" t="s">
+      <c r="AJ5" s="51" t="s">
         <v>94</v>
       </c>
       <c r="AK5" s="32"/>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A6" s="56"/>
-      <c r="B6" s="58"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
@@ -4666,26 +4726,26 @@
       <c r="S6" s="33"/>
       <c r="T6" s="33"/>
       <c r="U6" s="33"/>
-      <c r="V6" s="51"/>
+      <c r="V6" s="56"/>
       <c r="W6" s="33"/>
       <c r="X6" s="33"/>
       <c r="Y6" s="33"/>
       <c r="Z6" s="33"/>
       <c r="AA6" s="33"/>
       <c r="AB6" s="33"/>
-      <c r="AC6" s="54"/>
+      <c r="AC6" s="59"/>
       <c r="AD6" s="32"/>
       <c r="AE6" s="32"/>
       <c r="AF6" s="32"/>
       <c r="AG6" s="32"/>
       <c r="AH6" s="32"/>
       <c r="AI6" s="32"/>
-      <c r="AJ6" s="46"/>
+      <c r="AJ6" s="52"/>
       <c r="AK6" s="32"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A7" s="56"/>
-      <c r="B7" s="58"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
@@ -4706,26 +4766,26 @@
       <c r="S7" s="33"/>
       <c r="T7" s="33"/>
       <c r="U7" s="33"/>
-      <c r="V7" s="51"/>
+      <c r="V7" s="56"/>
       <c r="W7" s="33"/>
       <c r="X7" s="33"/>
       <c r="Y7" s="33"/>
       <c r="Z7" s="33"/>
       <c r="AA7" s="33"/>
       <c r="AB7" s="33"/>
-      <c r="AC7" s="54"/>
+      <c r="AC7" s="59"/>
       <c r="AD7" s="32"/>
       <c r="AE7" s="32"/>
       <c r="AF7" s="32"/>
       <c r="AG7" s="32"/>
       <c r="AH7" s="32"/>
       <c r="AI7" s="32"/>
-      <c r="AJ7" s="46"/>
+      <c r="AJ7" s="52"/>
       <c r="AK7" s="32"/>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A8" s="56"/>
-      <c r="B8" s="58"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
@@ -4749,26 +4809,26 @@
       <c r="S8" s="33"/>
       <c r="T8" s="33"/>
       <c r="U8" s="33"/>
-      <c r="V8" s="51"/>
+      <c r="V8" s="56"/>
       <c r="W8" s="33"/>
       <c r="X8" s="33"/>
       <c r="Y8" s="33"/>
       <c r="Z8" s="33"/>
       <c r="AA8" s="33"/>
       <c r="AB8" s="33"/>
-      <c r="AC8" s="54"/>
+      <c r="AC8" s="59"/>
       <c r="AD8" s="32"/>
       <c r="AE8" s="32"/>
       <c r="AF8" s="32"/>
       <c r="AG8" s="32"/>
       <c r="AH8" s="32"/>
       <c r="AI8" s="32"/>
-      <c r="AJ8" s="46"/>
+      <c r="AJ8" s="52"/>
       <c r="AK8" s="32"/>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A9" s="56"/>
-      <c r="B9" s="58"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="10" t="s">
         <v>34</v>
       </c>
@@ -4789,26 +4849,26 @@
       <c r="S9" s="33"/>
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
-      <c r="V9" s="51"/>
+      <c r="V9" s="56"/>
       <c r="W9" s="33"/>
       <c r="X9" s="33"/>
       <c r="Y9" s="33"/>
       <c r="Z9" s="33"/>
       <c r="AA9" s="33"/>
       <c r="AB9" s="33"/>
-      <c r="AC9" s="54"/>
+      <c r="AC9" s="59"/>
       <c r="AD9" s="32"/>
       <c r="AE9" s="32"/>
       <c r="AF9" s="32"/>
       <c r="AG9" s="32"/>
       <c r="AH9" s="32"/>
       <c r="AI9" s="32"/>
-      <c r="AJ9" s="46"/>
+      <c r="AJ9" s="52"/>
       <c r="AK9" s="32"/>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A10" s="56"/>
-      <c r="B10" s="58"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="10" t="s">
         <v>35</v>
       </c>
@@ -4829,29 +4889,29 @@
       <c r="S10" s="33"/>
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
-      <c r="V10" s="51"/>
+      <c r="V10" s="56"/>
       <c r="W10" s="33"/>
       <c r="X10" s="33"/>
       <c r="Y10" s="33"/>
       <c r="Z10" s="33"/>
       <c r="AA10" s="33"/>
       <c r="AB10" s="33"/>
-      <c r="AC10" s="54"/>
+      <c r="AC10" s="59"/>
       <c r="AD10" s="32"/>
       <c r="AE10" s="32"/>
       <c r="AF10" s="32"/>
       <c r="AG10" s="32"/>
       <c r="AH10" s="32"/>
       <c r="AI10" s="32"/>
-      <c r="AJ10" s="46"/>
+      <c r="AJ10" s="52"/>
       <c r="AK10" s="32"/>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A11" s="56"/>
-      <c r="B11" s="49" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="47" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="s">
@@ -4883,27 +4943,27 @@
       <c r="S11" s="33"/>
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="51"/>
+      <c r="V11" s="56"/>
       <c r="W11" s="33"/>
       <c r="X11" s="33"/>
       <c r="Y11" s="33"/>
       <c r="Z11" s="33"/>
       <c r="AA11" s="33"/>
       <c r="AB11" s="33"/>
-      <c r="AC11" s="54"/>
+      <c r="AC11" s="59"/>
       <c r="AD11" s="32"/>
       <c r="AE11" s="32"/>
       <c r="AF11" s="32"/>
       <c r="AG11" s="32"/>
       <c r="AH11" s="32"/>
       <c r="AI11" s="32"/>
-      <c r="AJ11" s="46"/>
+      <c r="AJ11" s="52"/>
       <c r="AK11" s="32"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A12" s="56"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="48"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="47"/>
       <c r="D12" t="s">
         <v>23</v>
       </c>
@@ -4921,27 +4981,27 @@
       <c r="S12" s="33"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
-      <c r="V12" s="51"/>
+      <c r="V12" s="56"/>
       <c r="W12" s="33"/>
       <c r="X12" s="33"/>
       <c r="Y12" s="33"/>
       <c r="Z12" s="33"/>
       <c r="AA12" s="33"/>
       <c r="AB12" s="33"/>
-      <c r="AC12" s="54"/>
+      <c r="AC12" s="59"/>
       <c r="AD12" s="32"/>
       <c r="AE12" s="32"/>
       <c r="AF12" s="32"/>
       <c r="AG12" s="32"/>
       <c r="AH12" s="32"/>
       <c r="AI12" s="32"/>
-      <c r="AJ12" s="46"/>
+      <c r="AJ12" s="52"/>
       <c r="AK12" s="32"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A13" s="56"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="48"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="16" t="s">
         <v>45</v>
       </c>
@@ -4961,27 +5021,27 @@
       <c r="S13" s="33"/>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
-      <c r="V13" s="51"/>
+      <c r="V13" s="56"/>
       <c r="W13" s="33"/>
       <c r="X13" s="33"/>
       <c r="Y13" s="33"/>
       <c r="Z13" s="33"/>
       <c r="AA13" s="33"/>
       <c r="AB13" s="33"/>
-      <c r="AC13" s="54"/>
+      <c r="AC13" s="59"/>
       <c r="AD13" s="32"/>
       <c r="AE13" s="32"/>
       <c r="AF13" s="32"/>
       <c r="AG13" s="32"/>
       <c r="AH13" s="32"/>
       <c r="AI13" s="32"/>
-      <c r="AJ13" s="46"/>
+      <c r="AJ13" s="52"/>
       <c r="AK13" s="32"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A14" s="56"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="48"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="15" t="s">
         <v>27</v>
       </c>
@@ -5000,27 +5060,27 @@
       <c r="S14" s="33"/>
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
-      <c r="V14" s="51"/>
+      <c r="V14" s="56"/>
       <c r="W14" s="33"/>
       <c r="X14" s="33"/>
       <c r="Y14" s="33"/>
       <c r="Z14" s="33"/>
       <c r="AA14" s="33"/>
       <c r="AB14" s="33"/>
-      <c r="AC14" s="54"/>
+      <c r="AC14" s="59"/>
       <c r="AD14" s="32"/>
       <c r="AE14" s="32"/>
       <c r="AF14" s="32"/>
       <c r="AG14" s="32"/>
       <c r="AH14" s="32"/>
       <c r="AI14" s="32"/>
-      <c r="AJ14" s="46"/>
+      <c r="AJ14" s="52"/>
       <c r="AK14" s="32"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A15" s="56"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="48" t="s">
+      <c r="A15" s="46"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="47" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
@@ -5043,27 +5103,27 @@
       <c r="S15" s="33"/>
       <c r="T15" s="33"/>
       <c r="U15" s="33"/>
-      <c r="V15" s="51"/>
+      <c r="V15" s="56"/>
       <c r="W15" s="33"/>
       <c r="X15" s="33"/>
       <c r="Y15" s="33"/>
       <c r="Z15" s="33"/>
       <c r="AA15" s="33"/>
       <c r="AB15" s="33"/>
-      <c r="AC15" s="54"/>
+      <c r="AC15" s="59"/>
       <c r="AD15" s="32"/>
       <c r="AE15" s="32"/>
       <c r="AF15" s="32"/>
       <c r="AG15" s="32"/>
       <c r="AH15" s="32"/>
       <c r="AI15" s="32"/>
-      <c r="AJ15" s="46"/>
+      <c r="AJ15" s="52"/>
       <c r="AK15" s="32"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A16" s="56"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="48"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="17" t="s">
         <v>45</v>
       </c>
@@ -5083,27 +5143,27 @@
       <c r="S16" s="33"/>
       <c r="T16" s="33"/>
       <c r="U16" s="33"/>
-      <c r="V16" s="51"/>
+      <c r="V16" s="56"/>
       <c r="W16" s="33"/>
       <c r="X16" s="33"/>
       <c r="Y16" s="33"/>
       <c r="Z16" s="33"/>
       <c r="AA16" s="33"/>
       <c r="AB16" s="33"/>
-      <c r="AC16" s="54"/>
+      <c r="AC16" s="59"/>
       <c r="AD16" s="32"/>
       <c r="AE16" s="32"/>
       <c r="AF16" s="32"/>
       <c r="AG16" s="32"/>
       <c r="AH16" s="32"/>
       <c r="AI16" s="32"/>
-      <c r="AJ16" s="46"/>
+      <c r="AJ16" s="52"/>
       <c r="AK16" s="32"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A17" s="56"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="48"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="47"/>
       <c r="D17" t="s">
         <v>23</v>
       </c>
@@ -5121,30 +5181,30 @@
       <c r="S17" s="33"/>
       <c r="T17" s="33"/>
       <c r="U17" s="33"/>
-      <c r="V17" s="51"/>
+      <c r="V17" s="56"/>
       <c r="W17" s="33"/>
       <c r="X17" s="33"/>
       <c r="Y17" s="33"/>
       <c r="Z17" s="33"/>
       <c r="AA17" s="33"/>
       <c r="AB17" s="33"/>
-      <c r="AC17" s="54"/>
+      <c r="AC17" s="59"/>
       <c r="AD17" s="32"/>
       <c r="AE17" s="32"/>
       <c r="AF17" s="32"/>
       <c r="AG17" s="32"/>
       <c r="AH17" s="32"/>
       <c r="AI17" s="32"/>
-      <c r="AJ17" s="46"/>
+      <c r="AJ17" s="52"/>
       <c r="AK17" s="32"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A18" s="56"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="48" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="47" t="s">
         <v>102</v>
       </c>
       <c r="E18" t="s">
@@ -5170,33 +5230,33 @@
       <c r="S18" s="33"/>
       <c r="T18" s="33"/>
       <c r="U18" s="33"/>
-      <c r="V18" s="51"/>
+      <c r="V18" s="56"/>
       <c r="W18" s="33"/>
       <c r="X18" s="33"/>
       <c r="Y18" s="33"/>
       <c r="Z18" s="33"/>
       <c r="AA18" s="33"/>
       <c r="AB18" s="33"/>
-      <c r="AC18" s="54"/>
+      <c r="AC18" s="59"/>
       <c r="AD18" s="32"/>
       <c r="AE18" s="32"/>
       <c r="AF18" s="32"/>
       <c r="AG18" s="32"/>
       <c r="AH18" s="32"/>
       <c r="AI18" s="32"/>
-      <c r="AJ18" s="46"/>
+      <c r="AJ18" s="52"/>
       <c r="AK18" s="32"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A19" s="56"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
       <c r="E19" t="s">
         <v>122</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G19" s="36" t="s">
         <v>124</v>
@@ -5221,28 +5281,28 @@
       <c r="S19" s="33"/>
       <c r="T19" s="33"/>
       <c r="U19" s="33"/>
-      <c r="V19" s="51"/>
+      <c r="V19" s="56"/>
       <c r="W19" s="33"/>
       <c r="X19" s="33"/>
       <c r="Y19" s="33"/>
       <c r="Z19" s="33"/>
       <c r="AA19" s="33"/>
       <c r="AB19" s="33"/>
-      <c r="AC19" s="54"/>
+      <c r="AC19" s="59"/>
       <c r="AD19" s="32"/>
       <c r="AE19" s="32"/>
       <c r="AF19" s="32"/>
       <c r="AG19" s="32"/>
       <c r="AH19" s="32"/>
       <c r="AI19" s="32"/>
-      <c r="AJ19" s="46"/>
+      <c r="AJ19" s="52"/>
       <c r="AK19" s="32"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A20" s="56"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
       <c r="E20" t="s">
         <v>116</v>
       </c>
@@ -5262,45 +5322,45 @@
       <c r="S20" s="33"/>
       <c r="T20" s="33"/>
       <c r="U20" s="33"/>
-      <c r="V20" s="51"/>
+      <c r="V20" s="56"/>
       <c r="W20" s="33"/>
       <c r="X20" s="33"/>
       <c r="Y20" s="33"/>
       <c r="Z20" s="33"/>
       <c r="AA20" s="33"/>
       <c r="AB20" s="33"/>
-      <c r="AC20" s="54"/>
+      <c r="AC20" s="59"/>
       <c r="AD20" s="32"/>
       <c r="AE20" s="32"/>
       <c r="AF20" s="32"/>
       <c r="AG20" s="32"/>
       <c r="AH20" s="32"/>
       <c r="AI20" s="32"/>
-      <c r="AJ20" s="46"/>
+      <c r="AJ20" s="52"/>
       <c r="AK20" s="32"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A21" s="56"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
       <c r="E21" t="s">
-        <v>129</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>124</v>
+        <v>146</v>
+      </c>
+      <c r="F21" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>148</v>
       </c>
       <c r="H21" s="19">
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="I21" s="19">
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="J21" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="33"/>
       <c r="L21" s="33"/>
@@ -5313,33 +5373,30 @@
       <c r="S21" s="33"/>
       <c r="T21" s="33"/>
       <c r="U21" s="33"/>
-      <c r="V21" s="51"/>
+      <c r="V21" s="56"/>
       <c r="W21" s="33"/>
       <c r="X21" s="33"/>
       <c r="Y21" s="33"/>
       <c r="Z21" s="33"/>
       <c r="AA21" s="33"/>
       <c r="AB21" s="33"/>
-      <c r="AC21" s="54"/>
+      <c r="AC21" s="59"/>
       <c r="AD21" s="32"/>
       <c r="AE21" s="32"/>
       <c r="AF21" s="32"/>
       <c r="AG21" s="32"/>
       <c r="AH21" s="32"/>
       <c r="AI21" s="32"/>
-      <c r="AJ21" s="46"/>
+      <c r="AJ21" s="52"/>
       <c r="AK21" s="32"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A22" s="56"/>
-      <c r="B22" s="49"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
       <c r="J22" s="7">
         <v>0</v>
       </c>
@@ -5347,42 +5404,52 @@
       <c r="L22" s="33"/>
       <c r="M22" s="33"/>
       <c r="N22" s="33"/>
-      <c r="O22" s="37"/>
+      <c r="O22" s="33"/>
       <c r="P22" s="33"/>
       <c r="Q22" s="33"/>
       <c r="R22" s="33"/>
       <c r="S22" s="33"/>
       <c r="T22" s="33"/>
       <c r="U22" s="33"/>
-      <c r="V22" s="51"/>
+      <c r="V22" s="56"/>
       <c r="W22" s="33"/>
       <c r="X22" s="33"/>
       <c r="Y22" s="33"/>
       <c r="Z22" s="33"/>
       <c r="AA22" s="33"/>
       <c r="AB22" s="33"/>
-      <c r="AC22" s="54"/>
+      <c r="AC22" s="59"/>
       <c r="AD22" s="32"/>
       <c r="AE22" s="32"/>
       <c r="AF22" s="32"/>
       <c r="AG22" s="32"/>
       <c r="AH22" s="32"/>
       <c r="AI22" s="32"/>
-      <c r="AJ22" s="46"/>
+      <c r="AJ22" s="52"/>
       <c r="AK22" s="32"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A23" s="56"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
       <c r="E23" t="s">
-        <v>114</v>
-      </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
+        <v>128</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="19">
+        <v>44124</v>
+      </c>
+      <c r="I23" s="19">
+        <v>44124</v>
+      </c>
       <c r="J23" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="33"/>
       <c r="L23" s="33"/>
@@ -5395,30 +5462,30 @@
       <c r="S23" s="33"/>
       <c r="T23" s="33"/>
       <c r="U23" s="33"/>
-      <c r="V23" s="51"/>
+      <c r="V23" s="56"/>
       <c r="W23" s="33"/>
       <c r="X23" s="33"/>
       <c r="Y23" s="33"/>
       <c r="Z23" s="33"/>
       <c r="AA23" s="33"/>
       <c r="AB23" s="33"/>
-      <c r="AC23" s="54"/>
+      <c r="AC23" s="59"/>
       <c r="AD23" s="32"/>
       <c r="AE23" s="32"/>
       <c r="AF23" s="32"/>
       <c r="AG23" s="32"/>
       <c r="AH23" s="32"/>
       <c r="AI23" s="32"/>
-      <c r="AJ23" s="46"/>
+      <c r="AJ23" s="52"/>
       <c r="AK23" s="32"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A24" s="56"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
@@ -5429,51 +5496,52 @@
       <c r="L24" s="33"/>
       <c r="M24" s="33"/>
       <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
+      <c r="O24" s="37"/>
       <c r="P24" s="33"/>
       <c r="Q24" s="33"/>
       <c r="R24" s="33"/>
       <c r="S24" s="33"/>
       <c r="T24" s="33"/>
       <c r="U24" s="33"/>
-      <c r="V24" s="51"/>
+      <c r="V24" s="56"/>
       <c r="W24" s="33"/>
       <c r="X24" s="33"/>
       <c r="Y24" s="33"/>
       <c r="Z24" s="33"/>
       <c r="AA24" s="33"/>
       <c r="AB24" s="33"/>
-      <c r="AC24" s="54"/>
+      <c r="AC24" s="59"/>
       <c r="AD24" s="32"/>
       <c r="AE24" s="32"/>
       <c r="AF24" s="32"/>
       <c r="AG24" s="32"/>
       <c r="AH24" s="32"/>
       <c r="AI24" s="32"/>
-      <c r="AJ24" s="46"/>
+      <c r="AJ24" s="52"/>
       <c r="AK24" s="32"/>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A25" s="56"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48" t="s">
-        <v>25</v>
-      </c>
+      <c r="A25" s="46"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
       <c r="E25" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>124</v>
+        <v>114</v>
+      </c>
+      <c r="F25" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="35" t="s">
+        <v>144</v>
       </c>
       <c r="H25" s="19">
         <v>44124</v>
       </c>
       <c r="I25" s="19">
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="J25" s="7">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="K25" s="33"/>
       <c r="L25" s="33"/>
@@ -5486,43 +5554,35 @@
       <c r="S25" s="33"/>
       <c r="T25" s="33"/>
       <c r="U25" s="33"/>
-      <c r="V25" s="51"/>
+      <c r="V25" s="56"/>
       <c r="W25" s="33"/>
       <c r="X25" s="33"/>
       <c r="Y25" s="33"/>
       <c r="Z25" s="33"/>
       <c r="AA25" s="33"/>
       <c r="AB25" s="33"/>
-      <c r="AC25" s="54"/>
+      <c r="AC25" s="59"/>
       <c r="AD25" s="32"/>
       <c r="AE25" s="32"/>
       <c r="AF25" s="32"/>
       <c r="AG25" s="32"/>
       <c r="AH25" s="32"/>
       <c r="AI25" s="32"/>
-      <c r="AJ25" s="46"/>
+      <c r="AJ25" s="52"/>
       <c r="AK25" s="32"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A26" s="56"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
       <c r="E26" t="s">
-        <v>130</v>
-      </c>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="H26" s="19">
-        <v>44124</v>
-      </c>
-      <c r="I26" s="19">
-        <v>44124</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
       <c r="J26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="33"/>
       <c r="L26" s="33"/>
@@ -5535,35 +5595,44 @@
       <c r="S26" s="33"/>
       <c r="T26" s="33"/>
       <c r="U26" s="33"/>
-      <c r="V26" s="51"/>
+      <c r="V26" s="56"/>
       <c r="W26" s="33"/>
       <c r="X26" s="33"/>
       <c r="Y26" s="33"/>
       <c r="Z26" s="33"/>
       <c r="AA26" s="33"/>
       <c r="AB26" s="33"/>
-      <c r="AC26" s="54"/>
+      <c r="AC26" s="59"/>
       <c r="AD26" s="32"/>
       <c r="AE26" s="32"/>
       <c r="AF26" s="32"/>
       <c r="AG26" s="32"/>
       <c r="AH26" s="32"/>
       <c r="AI26" s="32"/>
-      <c r="AJ26" s="46"/>
+      <c r="AJ26" s="52"/>
       <c r="AK26" s="32"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A27" s="56"/>
-      <c r="B27" s="49"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48" t="s">
-        <v>13</v>
+      <c r="A27" s="46"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47" t="s">
+        <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="H27" s="19">
+        <v>44124</v>
+      </c>
+      <c r="I27" s="19">
+        <v>44124</v>
       </c>
       <c r="J27" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="33"/>
       <c r="L27" s="33"/>
@@ -5576,35 +5645,43 @@
       <c r="S27" s="33"/>
       <c r="T27" s="33"/>
       <c r="U27" s="33"/>
-      <c r="V27" s="51"/>
+      <c r="V27" s="56"/>
       <c r="W27" s="33"/>
       <c r="X27" s="33"/>
       <c r="Y27" s="33"/>
       <c r="Z27" s="33"/>
       <c r="AA27" s="33"/>
       <c r="AB27" s="33"/>
-      <c r="AC27" s="54"/>
+      <c r="AC27" s="59"/>
       <c r="AD27" s="32"/>
       <c r="AE27" s="32"/>
       <c r="AF27" s="32"/>
       <c r="AG27" s="32"/>
       <c r="AH27" s="32"/>
       <c r="AI27" s="32"/>
-      <c r="AJ27" s="46"/>
+      <c r="AJ27" s="52"/>
       <c r="AK27" s="32"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A28" s="56"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="F28" s="36"/>
-      <c r="G28" s="36"/>
+      <c r="G28" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="H28" s="19">
+        <v>44124</v>
+      </c>
+      <c r="I28" s="19">
+        <v>44124</v>
+      </c>
       <c r="J28" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="33"/>
       <c r="L28" s="33"/>
@@ -5617,45 +5694,35 @@
       <c r="S28" s="33"/>
       <c r="T28" s="33"/>
       <c r="U28" s="33"/>
-      <c r="V28" s="51"/>
+      <c r="V28" s="56"/>
       <c r="W28" s="33"/>
       <c r="X28" s="33"/>
       <c r="Y28" s="33"/>
       <c r="Z28" s="33"/>
       <c r="AA28" s="33"/>
       <c r="AB28" s="33"/>
-      <c r="AC28" s="54"/>
+      <c r="AC28" s="59"/>
       <c r="AD28" s="32"/>
       <c r="AE28" s="32"/>
       <c r="AF28" s="32"/>
       <c r="AG28" s="32"/>
       <c r="AH28" s="32"/>
       <c r="AI28" s="32"/>
-      <c r="AJ28" s="46"/>
+      <c r="AJ28" s="52"/>
       <c r="AK28" s="32"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A29" s="56"/>
-      <c r="B29" s="49"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47" t="s">
+        <v>13</v>
+      </c>
       <c r="E29" t="s">
-        <v>123</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="H29" s="19">
-        <v>44124</v>
-      </c>
-      <c r="I29" s="19">
-        <v>44124</v>
+        <v>112</v>
       </c>
       <c r="J29" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="33"/>
       <c r="L29" s="33"/>
@@ -5668,35 +5735,33 @@
       <c r="S29" s="33"/>
       <c r="T29" s="33"/>
       <c r="U29" s="33"/>
-      <c r="V29" s="51"/>
+      <c r="V29" s="56"/>
       <c r="W29" s="33"/>
       <c r="X29" s="33"/>
       <c r="Y29" s="33"/>
       <c r="Z29" s="33"/>
       <c r="AA29" s="33"/>
       <c r="AB29" s="33"/>
-      <c r="AC29" s="54"/>
+      <c r="AC29" s="59"/>
       <c r="AD29" s="32"/>
       <c r="AE29" s="32"/>
       <c r="AF29" s="32"/>
       <c r="AG29" s="32"/>
       <c r="AH29" s="32"/>
       <c r="AI29" s="32"/>
-      <c r="AJ29" s="46"/>
+      <c r="AJ29" s="52"/>
       <c r="AK29" s="32"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A30" s="56"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48" t="s">
-        <v>97</v>
-      </c>
+      <c r="A30" s="46"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
       <c r="E30" t="s">
-        <v>98</v>
-      </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
+        <v>106</v>
+      </c>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
       <c r="J30" s="7">
         <v>0</v>
       </c>
@@ -5711,35 +5776,45 @@
       <c r="S30" s="33"/>
       <c r="T30" s="33"/>
       <c r="U30" s="33"/>
-      <c r="V30" s="51"/>
+      <c r="V30" s="56"/>
       <c r="W30" s="33"/>
       <c r="X30" s="33"/>
       <c r="Y30" s="33"/>
       <c r="Z30" s="33"/>
       <c r="AA30" s="33"/>
       <c r="AB30" s="33"/>
-      <c r="AC30" s="54"/>
+      <c r="AC30" s="59"/>
       <c r="AD30" s="32"/>
       <c r="AE30" s="32"/>
       <c r="AF30" s="32"/>
       <c r="AG30" s="32"/>
       <c r="AH30" s="32"/>
       <c r="AI30" s="32"/>
-      <c r="AJ30" s="46"/>
+      <c r="AJ30" s="52"/>
       <c r="AK30" s="32"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A31" s="56"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
       <c r="E31" t="s">
-        <v>121</v>
-      </c>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
+        <v>123</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="H31" s="19">
+        <v>44124</v>
+      </c>
+      <c r="I31" s="19">
+        <v>44124</v>
+      </c>
       <c r="J31" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="33"/>
       <c r="L31" s="33"/>
@@ -5752,30 +5827,32 @@
       <c r="S31" s="33"/>
       <c r="T31" s="33"/>
       <c r="U31" s="33"/>
-      <c r="V31" s="51"/>
+      <c r="V31" s="56"/>
       <c r="W31" s="33"/>
       <c r="X31" s="33"/>
       <c r="Y31" s="33"/>
       <c r="Z31" s="33"/>
       <c r="AA31" s="33"/>
       <c r="AB31" s="33"/>
-      <c r="AC31" s="54"/>
+      <c r="AC31" s="59"/>
       <c r="AD31" s="32"/>
       <c r="AE31" s="32"/>
       <c r="AF31" s="32"/>
       <c r="AG31" s="32"/>
       <c r="AH31" s="32"/>
       <c r="AI31" s="32"/>
-      <c r="AJ31" s="46"/>
+      <c r="AJ31" s="52"/>
       <c r="AK31" s="32"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A32" s="56"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47" t="s">
+        <v>97</v>
+      </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
@@ -5793,30 +5870,33 @@
       <c r="S32" s="33"/>
       <c r="T32" s="33"/>
       <c r="U32" s="33"/>
-      <c r="V32" s="51"/>
+      <c r="V32" s="56"/>
       <c r="W32" s="33"/>
       <c r="X32" s="33"/>
       <c r="Y32" s="33"/>
       <c r="Z32" s="33"/>
       <c r="AA32" s="33"/>
       <c r="AB32" s="33"/>
-      <c r="AC32" s="54"/>
+      <c r="AC32" s="59"/>
       <c r="AD32" s="32"/>
       <c r="AE32" s="32"/>
       <c r="AF32" s="32"/>
       <c r="AG32" s="32"/>
       <c r="AH32" s="32"/>
       <c r="AI32" s="32"/>
-      <c r="AJ32" s="46"/>
+      <c r="AJ32" s="52"/>
       <c r="AK32" s="32"/>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A33" s="56"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="48"/>
-      <c r="D33" t="s">
-        <v>24</v>
-      </c>
+      <c r="A33" s="46"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
       <c r="J33" s="7">
         <v>0</v>
       </c>
@@ -5831,29 +5911,30 @@
       <c r="S33" s="33"/>
       <c r="T33" s="33"/>
       <c r="U33" s="33"/>
-      <c r="V33" s="51"/>
+      <c r="V33" s="56"/>
       <c r="W33" s="33"/>
       <c r="X33" s="33"/>
       <c r="Y33" s="33"/>
       <c r="Z33" s="33"/>
       <c r="AA33" s="33"/>
       <c r="AB33" s="33"/>
-      <c r="AC33" s="54"/>
+      <c r="AC33" s="59"/>
       <c r="AD33" s="32"/>
       <c r="AE33" s="32"/>
       <c r="AF33" s="32"/>
       <c r="AG33" s="32"/>
       <c r="AH33" s="32"/>
       <c r="AI33" s="32"/>
-      <c r="AJ33" s="46"/>
+      <c r="AJ33" s="52"/>
       <c r="AK33" s="32"/>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A34" s="56"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="48"/>
-      <c r="D34" t="s">
-        <v>101</v>
+      <c r="A34" s="46"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" t="s">
+        <v>111</v>
       </c>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
@@ -5871,29 +5952,29 @@
       <c r="S34" s="33"/>
       <c r="T34" s="33"/>
       <c r="U34" s="33"/>
-      <c r="V34" s="51"/>
+      <c r="V34" s="56"/>
       <c r="W34" s="33"/>
       <c r="X34" s="33"/>
       <c r="Y34" s="33"/>
       <c r="Z34" s="33"/>
       <c r="AA34" s="33"/>
       <c r="AB34" s="33"/>
-      <c r="AC34" s="54"/>
+      <c r="AC34" s="59"/>
       <c r="AD34" s="32"/>
       <c r="AE34" s="32"/>
       <c r="AF34" s="32"/>
       <c r="AG34" s="32"/>
       <c r="AH34" s="32"/>
       <c r="AI34" s="32"/>
-      <c r="AJ34" s="46"/>
+      <c r="AJ34" s="52"/>
       <c r="AK34" s="32"/>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A35" s="56"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="48"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="47"/>
       <c r="D35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J35" s="7">
         <v>0</v>
@@ -5909,32 +5990,32 @@
       <c r="S35" s="33"/>
       <c r="T35" s="33"/>
       <c r="U35" s="33"/>
-      <c r="V35" s="51"/>
+      <c r="V35" s="56"/>
       <c r="W35" s="33"/>
       <c r="X35" s="33"/>
       <c r="Y35" s="33"/>
       <c r="Z35" s="33"/>
       <c r="AA35" s="33"/>
       <c r="AB35" s="33"/>
-      <c r="AC35" s="54"/>
+      <c r="AC35" s="59"/>
       <c r="AD35" s="32"/>
       <c r="AE35" s="32"/>
       <c r="AF35" s="32"/>
       <c r="AG35" s="32"/>
       <c r="AH35" s="32"/>
       <c r="AI35" s="32"/>
-      <c r="AJ35" s="46"/>
+      <c r="AJ35" s="52"/>
       <c r="AK35" s="32"/>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A36" s="56"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="12"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="47"/>
+      <c r="D36" t="s">
+        <v>101</v>
+      </c>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
       <c r="J36" s="7">
         <v>0</v>
       </c>
@@ -5949,32 +6030,30 @@
       <c r="S36" s="33"/>
       <c r="T36" s="33"/>
       <c r="U36" s="33"/>
-      <c r="V36" s="51"/>
+      <c r="V36" s="56"/>
       <c r="W36" s="33"/>
       <c r="X36" s="33"/>
       <c r="Y36" s="33"/>
       <c r="Z36" s="33"/>
       <c r="AA36" s="33"/>
       <c r="AB36" s="33"/>
-      <c r="AC36" s="54"/>
+      <c r="AC36" s="59"/>
       <c r="AD36" s="32"/>
       <c r="AE36" s="32"/>
       <c r="AF36" s="32"/>
       <c r="AG36" s="32"/>
       <c r="AH36" s="32"/>
       <c r="AI36" s="32"/>
-      <c r="AJ36" s="46"/>
+      <c r="AJ36" s="52"/>
       <c r="AK36" s="32"/>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A37" s="56"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="14"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="47"/>
+      <c r="D37" t="s">
+        <v>23</v>
+      </c>
       <c r="J37" s="7">
         <v>0</v>
       </c>
@@ -5989,30 +6068,32 @@
       <c r="S37" s="33"/>
       <c r="T37" s="33"/>
       <c r="U37" s="33"/>
-      <c r="V37" s="51"/>
+      <c r="V37" s="56"/>
       <c r="W37" s="33"/>
       <c r="X37" s="33"/>
       <c r="Y37" s="33"/>
       <c r="Z37" s="33"/>
       <c r="AA37" s="33"/>
       <c r="AB37" s="33"/>
-      <c r="AC37" s="54"/>
+      <c r="AC37" s="59"/>
       <c r="AD37" s="32"/>
       <c r="AE37" s="32"/>
       <c r="AF37" s="32"/>
       <c r="AG37" s="32"/>
       <c r="AH37" s="32"/>
       <c r="AI37" s="32"/>
-      <c r="AJ37" s="46"/>
+      <c r="AJ37" s="52"/>
       <c r="AK37" s="32"/>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A38" s="56"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="48"/>
-      <c r="D38" t="s">
-        <v>26</v>
-      </c>
+      <c r="A38" s="46"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="15"/>
+      <c r="F38" s="12"/>
       <c r="J38" s="7">
         <v>0</v>
       </c>
@@ -6027,33 +6108,32 @@
       <c r="S38" s="33"/>
       <c r="T38" s="33"/>
       <c r="U38" s="33"/>
-      <c r="V38" s="51"/>
+      <c r="V38" s="56"/>
       <c r="W38" s="33"/>
       <c r="X38" s="33"/>
       <c r="Y38" s="33"/>
       <c r="Z38" s="33"/>
       <c r="AA38" s="33"/>
       <c r="AB38" s="33"/>
-      <c r="AC38" s="54"/>
+      <c r="AC38" s="59"/>
       <c r="AD38" s="32"/>
       <c r="AE38" s="32"/>
       <c r="AF38" s="32"/>
       <c r="AG38" s="32"/>
       <c r="AH38" s="32"/>
       <c r="AI38" s="32"/>
-      <c r="AJ38" s="46"/>
+      <c r="AJ38" s="52"/>
       <c r="AK38" s="32"/>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A39" s="56"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="A39" s="46"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="F39" s="12"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="14"/>
       <c r="J39" s="7">
         <v>0</v>
       </c>
@@ -6068,32 +6148,30 @@
       <c r="S39" s="33"/>
       <c r="T39" s="33"/>
       <c r="U39" s="33"/>
-      <c r="V39" s="51"/>
+      <c r="V39" s="56"/>
       <c r="W39" s="33"/>
       <c r="X39" s="33"/>
       <c r="Y39" s="33"/>
       <c r="Z39" s="33"/>
       <c r="AA39" s="33"/>
       <c r="AB39" s="33"/>
-      <c r="AC39" s="54"/>
+      <c r="AC39" s="59"/>
       <c r="AD39" s="32"/>
       <c r="AE39" s="32"/>
       <c r="AF39" s="32"/>
       <c r="AG39" s="32"/>
       <c r="AH39" s="32"/>
       <c r="AI39" s="32"/>
-      <c r="AJ39" s="46"/>
+      <c r="AJ39" s="52"/>
       <c r="AK39" s="32"/>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A40" s="56"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="48"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="47"/>
       <c r="D40" t="s">
         <v>26</v>
       </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
       <c r="J40" s="7">
         <v>0</v>
       </c>
@@ -6108,30 +6186,30 @@
       <c r="S40" s="33"/>
       <c r="T40" s="33"/>
       <c r="U40" s="33"/>
-      <c r="V40" s="51"/>
+      <c r="V40" s="56"/>
       <c r="W40" s="33"/>
       <c r="X40" s="33"/>
       <c r="Y40" s="33"/>
       <c r="Z40" s="33"/>
       <c r="AA40" s="33"/>
       <c r="AB40" s="33"/>
-      <c r="AC40" s="54"/>
+      <c r="AC40" s="59"/>
       <c r="AD40" s="32"/>
       <c r="AE40" s="32"/>
       <c r="AF40" s="32"/>
       <c r="AG40" s="32"/>
       <c r="AH40" s="32"/>
       <c r="AI40" s="32"/>
-      <c r="AJ40" s="46"/>
+      <c r="AJ40" s="52"/>
       <c r="AK40" s="32"/>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A41" s="56"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="A41" s="46"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="17" t="s">
         <v>45</v>
       </c>
       <c r="F41" s="12"/>
@@ -6149,27 +6227,30 @@
       <c r="S41" s="33"/>
       <c r="T41" s="33"/>
       <c r="U41" s="33"/>
-      <c r="V41" s="51"/>
+      <c r="V41" s="56"/>
       <c r="W41" s="33"/>
       <c r="X41" s="33"/>
       <c r="Y41" s="33"/>
       <c r="Z41" s="33"/>
       <c r="AA41" s="33"/>
       <c r="AB41" s="33"/>
-      <c r="AC41" s="54"/>
+      <c r="AC41" s="59"/>
       <c r="AD41" s="32"/>
       <c r="AE41" s="32"/>
       <c r="AF41" s="32"/>
       <c r="AG41" s="32"/>
       <c r="AH41" s="32"/>
       <c r="AI41" s="32"/>
-      <c r="AJ41" s="46"/>
+      <c r="AJ41" s="52"/>
       <c r="AK41" s="32"/>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A42" s="56"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="48"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="47"/>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
       <c r="F42" s="35"/>
       <c r="G42" s="35"/>
       <c r="J42" s="7">
@@ -6186,29 +6267,33 @@
       <c r="S42" s="33"/>
       <c r="T42" s="33"/>
       <c r="U42" s="33"/>
-      <c r="V42" s="51"/>
+      <c r="V42" s="56"/>
       <c r="W42" s="33"/>
       <c r="X42" s="33"/>
       <c r="Y42" s="33"/>
       <c r="Z42" s="33"/>
       <c r="AA42" s="33"/>
       <c r="AB42" s="33"/>
-      <c r="AC42" s="54"/>
+      <c r="AC42" s="59"/>
       <c r="AD42" s="32"/>
       <c r="AE42" s="32"/>
       <c r="AF42" s="32"/>
       <c r="AG42" s="32"/>
       <c r="AH42" s="32"/>
       <c r="AI42" s="32"/>
-      <c r="AJ42" s="46"/>
+      <c r="AJ42" s="52"/>
       <c r="AK42" s="32"/>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A43" s="56"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="48"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" s="12"/>
       <c r="J43" s="7">
         <v>0</v>
       </c>
@@ -6223,32 +6308,29 @@
       <c r="S43" s="33"/>
       <c r="T43" s="33"/>
       <c r="U43" s="33"/>
-      <c r="V43" s="51"/>
+      <c r="V43" s="56"/>
       <c r="W43" s="33"/>
       <c r="X43" s="33"/>
       <c r="Y43" s="33"/>
       <c r="Z43" s="33"/>
       <c r="AA43" s="33"/>
       <c r="AB43" s="33"/>
-      <c r="AC43" s="54"/>
+      <c r="AC43" s="59"/>
       <c r="AD43" s="32"/>
       <c r="AE43" s="32"/>
       <c r="AF43" s="32"/>
       <c r="AG43" s="32"/>
       <c r="AH43" s="32"/>
       <c r="AI43" s="32"/>
-      <c r="AJ43" s="46"/>
+      <c r="AJ43" s="52"/>
       <c r="AK43" s="32"/>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A44" s="56"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="D44" t="s">
-        <v>46</v>
-      </c>
+      <c r="A44" s="46"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="47"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
       <c r="J44" s="7">
         <v>0</v>
       </c>
@@ -6263,30 +6345,29 @@
       <c r="S44" s="33"/>
       <c r="T44" s="33"/>
       <c r="U44" s="33"/>
-      <c r="V44" s="51"/>
+      <c r="V44" s="56"/>
       <c r="W44" s="33"/>
       <c r="X44" s="33"/>
       <c r="Y44" s="33"/>
       <c r="Z44" s="33"/>
       <c r="AA44" s="33"/>
       <c r="AB44" s="33"/>
-      <c r="AC44" s="54"/>
+      <c r="AC44" s="59"/>
       <c r="AD44" s="32"/>
       <c r="AE44" s="32"/>
       <c r="AF44" s="32"/>
       <c r="AG44" s="32"/>
       <c r="AH44" s="32"/>
       <c r="AI44" s="32"/>
-      <c r="AJ44" s="46"/>
+      <c r="AJ44" s="52"/>
       <c r="AK44" s="32"/>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A45" s="56"/>
-      <c r="B45" s="49"/>
-      <c r="C45" s="48"/>
-      <c r="D45" t="s">
-        <v>36</v>
-      </c>
+      <c r="A45" s="46"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="47"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
       <c r="J45" s="7">
         <v>0</v>
       </c>
@@ -6301,29 +6382,31 @@
       <c r="S45" s="33"/>
       <c r="T45" s="33"/>
       <c r="U45" s="33"/>
-      <c r="V45" s="51"/>
+      <c r="V45" s="56"/>
       <c r="W45" s="33"/>
       <c r="X45" s="33"/>
       <c r="Y45" s="33"/>
       <c r="Z45" s="33"/>
       <c r="AA45" s="33"/>
       <c r="AB45" s="33"/>
-      <c r="AC45" s="54"/>
+      <c r="AC45" s="59"/>
       <c r="AD45" s="32"/>
       <c r="AE45" s="32"/>
       <c r="AF45" s="32"/>
       <c r="AG45" s="32"/>
       <c r="AH45" s="32"/>
       <c r="AI45" s="32"/>
-      <c r="AJ45" s="46"/>
+      <c r="AJ45" s="52"/>
       <c r="AK45" s="32"/>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A46" s="56"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="48"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="47" t="s">
+        <v>17</v>
+      </c>
       <c r="D46" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J46" s="7">
         <v>0</v>
@@ -6339,29 +6422,29 @@
       <c r="S46" s="33"/>
       <c r="T46" s="33"/>
       <c r="U46" s="33"/>
-      <c r="V46" s="51"/>
+      <c r="V46" s="56"/>
       <c r="W46" s="33"/>
       <c r="X46" s="33"/>
       <c r="Y46" s="33"/>
       <c r="Z46" s="33"/>
       <c r="AA46" s="33"/>
       <c r="AB46" s="33"/>
-      <c r="AC46" s="54"/>
+      <c r="AC46" s="59"/>
       <c r="AD46" s="32"/>
       <c r="AE46" s="32"/>
       <c r="AF46" s="32"/>
       <c r="AG46" s="32"/>
       <c r="AH46" s="32"/>
       <c r="AI46" s="32"/>
-      <c r="AJ46" s="46"/>
+      <c r="AJ46" s="52"/>
       <c r="AK46" s="32"/>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A47" s="56"/>
-      <c r="B47" s="49"/>
-      <c r="C47" s="48"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="47"/>
       <c r="D47" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J47" s="7">
         <v>0</v>
@@ -6377,29 +6460,29 @@
       <c r="S47" s="33"/>
       <c r="T47" s="33"/>
       <c r="U47" s="33"/>
-      <c r="V47" s="51"/>
+      <c r="V47" s="56"/>
       <c r="W47" s="33"/>
       <c r="X47" s="33"/>
       <c r="Y47" s="33"/>
       <c r="Z47" s="33"/>
       <c r="AA47" s="33"/>
       <c r="AB47" s="33"/>
-      <c r="AC47" s="54"/>
+      <c r="AC47" s="59"/>
       <c r="AD47" s="32"/>
       <c r="AE47" s="32"/>
       <c r="AF47" s="32"/>
       <c r="AG47" s="32"/>
       <c r="AH47" s="32"/>
       <c r="AI47" s="32"/>
-      <c r="AJ47" s="46"/>
+      <c r="AJ47" s="52"/>
       <c r="AK47" s="32"/>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A48" s="56"/>
-      <c r="B48" s="49"/>
-      <c r="C48" s="48"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="47"/>
       <c r="D48" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="J48" s="7">
         <v>0</v>
@@ -6415,26 +6498,30 @@
       <c r="S48" s="33"/>
       <c r="T48" s="33"/>
       <c r="U48" s="33"/>
-      <c r="V48" s="51"/>
+      <c r="V48" s="56"/>
       <c r="W48" s="33"/>
       <c r="X48" s="33"/>
       <c r="Y48" s="33"/>
       <c r="Z48" s="33"/>
       <c r="AA48" s="33"/>
       <c r="AB48" s="33"/>
-      <c r="AC48" s="54"/>
+      <c r="AC48" s="59"/>
       <c r="AD48" s="32"/>
       <c r="AE48" s="32"/>
       <c r="AF48" s="32"/>
       <c r="AG48" s="32"/>
       <c r="AH48" s="32"/>
       <c r="AI48" s="32"/>
-      <c r="AJ48" s="46"/>
+      <c r="AJ48" s="52"/>
       <c r="AK48" s="32"/>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A49" s="56"/>
-      <c r="B49" s="49"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="47"/>
+      <c r="D49" t="s">
+        <v>38</v>
+      </c>
       <c r="J49" s="7">
         <v>0</v>
       </c>
@@ -6449,28 +6536,29 @@
       <c r="S49" s="33"/>
       <c r="T49" s="33"/>
       <c r="U49" s="33"/>
-      <c r="V49" s="51"/>
+      <c r="V49" s="56"/>
       <c r="W49" s="33"/>
       <c r="X49" s="33"/>
       <c r="Y49" s="33"/>
       <c r="Z49" s="33"/>
       <c r="AA49" s="33"/>
       <c r="AB49" s="33"/>
-      <c r="AC49" s="54"/>
+      <c r="AC49" s="59"/>
       <c r="AD49" s="32"/>
       <c r="AE49" s="32"/>
       <c r="AF49" s="32"/>
       <c r="AG49" s="32"/>
       <c r="AH49" s="32"/>
       <c r="AI49" s="32"/>
-      <c r="AJ49" s="46"/>
+      <c r="AJ49" s="52"/>
       <c r="AK49" s="32"/>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A50" s="56"/>
-      <c r="B50" s="49"/>
-      <c r="C50" s="10" t="s">
-        <v>132</v>
+      <c r="A50" s="46"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="47"/>
+      <c r="D50" t="s">
+        <v>33</v>
       </c>
       <c r="J50" s="7">
         <v>0</v>
@@ -6486,26 +6574,26 @@
       <c r="S50" s="33"/>
       <c r="T50" s="33"/>
       <c r="U50" s="33"/>
-      <c r="V50" s="51"/>
+      <c r="V50" s="56"/>
       <c r="W50" s="33"/>
       <c r="X50" s="33"/>
       <c r="Y50" s="33"/>
       <c r="Z50" s="33"/>
       <c r="AA50" s="33"/>
       <c r="AB50" s="33"/>
-      <c r="AC50" s="54"/>
+      <c r="AC50" s="59"/>
       <c r="AD50" s="32"/>
       <c r="AE50" s="32"/>
       <c r="AF50" s="32"/>
       <c r="AG50" s="32"/>
       <c r="AH50" s="32"/>
       <c r="AI50" s="32"/>
-      <c r="AJ50" s="46"/>
+      <c r="AJ50" s="52"/>
       <c r="AK50" s="32"/>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A51" s="56"/>
-      <c r="B51" s="49"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="54"/>
       <c r="J51" s="7">
         <v>0</v>
       </c>
@@ -6520,26 +6608,32 @@
       <c r="S51" s="33"/>
       <c r="T51" s="33"/>
       <c r="U51" s="33"/>
-      <c r="V51" s="51"/>
+      <c r="V51" s="56"/>
       <c r="W51" s="33"/>
       <c r="X51" s="33"/>
       <c r="Y51" s="33"/>
       <c r="Z51" s="33"/>
       <c r="AA51" s="33"/>
       <c r="AB51" s="33"/>
-      <c r="AC51" s="54"/>
+      <c r="AC51" s="59"/>
       <c r="AD51" s="32"/>
       <c r="AE51" s="32"/>
       <c r="AF51" s="32"/>
       <c r="AG51" s="32"/>
       <c r="AH51" s="32"/>
       <c r="AI51" s="32"/>
-      <c r="AJ51" s="46"/>
+      <c r="AJ51" s="52"/>
       <c r="AK51" s="32"/>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A52" s="56"/>
-      <c r="B52" s="49"/>
+      <c r="A52" s="46"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>145</v>
+      </c>
       <c r="J52" s="7">
         <v>0</v>
       </c>
@@ -6554,96 +6648,62 @@
       <c r="S52" s="33"/>
       <c r="T52" s="33"/>
       <c r="U52" s="33"/>
-      <c r="V52" s="51"/>
+      <c r="V52" s="56"/>
       <c r="W52" s="33"/>
       <c r="X52" s="33"/>
       <c r="Y52" s="33"/>
       <c r="Z52" s="33"/>
       <c r="AA52" s="33"/>
       <c r="AB52" s="33"/>
-      <c r="AC52" s="54"/>
+      <c r="AC52" s="59"/>
       <c r="AD52" s="32"/>
       <c r="AE52" s="32"/>
       <c r="AF52" s="32"/>
       <c r="AG52" s="32"/>
       <c r="AH52" s="32"/>
       <c r="AI52" s="32"/>
-      <c r="AJ52" s="46"/>
+      <c r="AJ52" s="52"/>
       <c r="AK52" s="32"/>
     </row>
-    <row r="53" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="56"/>
-      <c r="B53" s="49"/>
-      <c r="C53" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E53" s="22"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="21"/>
-      <c r="J53" s="9">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A53" s="46"/>
+      <c r="B53" s="54"/>
+      <c r="J53" s="7">
         <v>0</v>
       </c>
-      <c r="K53" s="34"/>
-      <c r="L53" s="34"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="34"/>
-      <c r="O53" s="34"/>
-      <c r="P53" s="34"/>
-      <c r="Q53" s="34"/>
-      <c r="R53" s="34"/>
-      <c r="S53" s="34"/>
-      <c r="T53" s="34"/>
-      <c r="U53" s="34"/>
-      <c r="V53" s="51"/>
-      <c r="W53" s="34"/>
-      <c r="X53" s="34"/>
-      <c r="Y53" s="34"/>
-      <c r="Z53" s="34"/>
-      <c r="AA53" s="34"/>
-      <c r="AB53" s="34"/>
-      <c r="AC53" s="54"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="33"/>
+      <c r="P53" s="33"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="33"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="33"/>
+      <c r="U53" s="33"/>
+      <c r="V53" s="56"/>
+      <c r="W53" s="33"/>
+      <c r="X53" s="33"/>
+      <c r="Y53" s="33"/>
+      <c r="Z53" s="33"/>
+      <c r="AA53" s="33"/>
+      <c r="AB53" s="33"/>
+      <c r="AC53" s="59"/>
       <c r="AD53" s="32"/>
       <c r="AE53" s="32"/>
       <c r="AF53" s="32"/>
       <c r="AG53" s="32"/>
       <c r="AH53" s="32"/>
       <c r="AI53" s="32"/>
-      <c r="AJ53" s="46"/>
+      <c r="AJ53" s="52"/>
       <c r="AK53" s="32"/>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A54" s="56"/>
-      <c r="B54" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="D54" t="s">
-        <v>29</v>
-      </c>
-      <c r="E54" t="s">
-        <v>140</v>
-      </c>
-      <c r="F54" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G54" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="H54" s="19">
-        <v>44124</v>
-      </c>
-      <c r="I54" s="19">
-        <v>44124</v>
-      </c>
+      <c r="A54" s="46"/>
+      <c r="B54" s="54"/>
       <c r="J54" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" s="33"/>
       <c r="L54" s="33"/>
@@ -6656,79 +6716,97 @@
       <c r="S54" s="33"/>
       <c r="T54" s="33"/>
       <c r="U54" s="33"/>
-      <c r="V54" s="51"/>
+      <c r="V54" s="56"/>
       <c r="W54" s="33"/>
       <c r="X54" s="33"/>
       <c r="Y54" s="33"/>
       <c r="Z54" s="33"/>
       <c r="AA54" s="33"/>
       <c r="AB54" s="33"/>
-      <c r="AC54" s="54"/>
+      <c r="AC54" s="59"/>
       <c r="AD54" s="32"/>
       <c r="AE54" s="32"/>
       <c r="AF54" s="32"/>
       <c r="AG54" s="32"/>
       <c r="AH54" s="32"/>
       <c r="AI54" s="32"/>
-      <c r="AJ54" s="46"/>
+      <c r="AJ54" s="52"/>
       <c r="AK54" s="32"/>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A55" s="56"/>
-      <c r="B55" s="59"/>
-      <c r="C55" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="D55" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="E55" t="s">
-        <v>110</v>
-      </c>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="J55" s="7">
+    <row r="55" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="46"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" s="22"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="9">
         <v>0</v>
       </c>
-      <c r="K55" s="33"/>
-      <c r="L55" s="33"/>
-      <c r="M55" s="33"/>
-      <c r="N55" s="33"/>
-      <c r="O55" s="33"/>
-      <c r="P55" s="33"/>
-      <c r="Q55" s="33"/>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="33"/>
-      <c r="U55" s="33"/>
-      <c r="V55" s="51"/>
-      <c r="W55" s="33"/>
-      <c r="X55" s="33"/>
-      <c r="Y55" s="33"/>
-      <c r="Z55" s="33"/>
-      <c r="AA55" s="33"/>
-      <c r="AB55" s="33"/>
-      <c r="AC55" s="54"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34"/>
+      <c r="S55" s="34"/>
+      <c r="T55" s="34"/>
+      <c r="U55" s="34"/>
+      <c r="V55" s="56"/>
+      <c r="W55" s="34"/>
+      <c r="X55" s="34"/>
+      <c r="Y55" s="34"/>
+      <c r="Z55" s="34"/>
+      <c r="AA55" s="34"/>
+      <c r="AB55" s="34"/>
+      <c r="AC55" s="59"/>
       <c r="AD55" s="32"/>
       <c r="AE55" s="32"/>
       <c r="AF55" s="32"/>
       <c r="AG55" s="32"/>
       <c r="AH55" s="32"/>
       <c r="AI55" s="32"/>
-      <c r="AJ55" s="46"/>
+      <c r="AJ55" s="52"/>
       <c r="AK55" s="32"/>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A56" s="56"/>
-      <c r="B56" s="59"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="48"/>
+      <c r="A56" s="46"/>
+      <c r="B56" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="47" t="s">
+        <v>29</v>
+      </c>
       <c r="E56" t="s">
-        <v>115</v>
-      </c>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="J56" s="7"/>
+        <v>139</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="H56" s="19">
+        <v>44124</v>
+      </c>
+      <c r="I56" s="19">
+        <v>44124</v>
+      </c>
+      <c r="J56" s="7">
+        <v>1</v>
+      </c>
       <c r="K56" s="33"/>
       <c r="L56" s="33"/>
       <c r="M56" s="33"/>
@@ -6740,34 +6818,46 @@
       <c r="S56" s="33"/>
       <c r="T56" s="33"/>
       <c r="U56" s="33"/>
-      <c r="V56" s="51"/>
+      <c r="V56" s="56"/>
       <c r="W56" s="33"/>
       <c r="X56" s="33"/>
       <c r="Y56" s="33"/>
       <c r="Z56" s="33"/>
       <c r="AA56" s="33"/>
       <c r="AB56" s="33"/>
-      <c r="AC56" s="54"/>
+      <c r="AC56" s="59"/>
       <c r="AD56" s="32"/>
       <c r="AE56" s="32"/>
       <c r="AF56" s="32"/>
       <c r="AG56" s="32"/>
       <c r="AH56" s="32"/>
       <c r="AI56" s="32"/>
-      <c r="AJ56" s="46"/>
+      <c r="AJ56" s="52"/>
       <c r="AK56" s="32"/>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A57" s="56"/>
-      <c r="B57" s="59"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
       <c r="E57" t="s">
-        <v>116</v>
-      </c>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="J57" s="7"/>
+        <v>140</v>
+      </c>
+      <c r="F57" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="G57" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="H57" s="19">
+        <v>44124</v>
+      </c>
+      <c r="I57" s="19">
+        <v>44125</v>
+      </c>
+      <c r="J57" s="7">
+        <v>0.25</v>
+      </c>
       <c r="K57" s="33"/>
       <c r="L57" s="33"/>
       <c r="M57" s="33"/>
@@ -6779,29 +6869,34 @@
       <c r="S57" s="33"/>
       <c r="T57" s="33"/>
       <c r="U57" s="33"/>
-      <c r="V57" s="51"/>
+      <c r="V57" s="56"/>
       <c r="W57" s="33"/>
       <c r="X57" s="33"/>
       <c r="Y57" s="33"/>
       <c r="Z57" s="33"/>
       <c r="AA57" s="33"/>
       <c r="AB57" s="33"/>
-      <c r="AC57" s="54"/>
+      <c r="AC57" s="59"/>
       <c r="AD57" s="32"/>
       <c r="AE57" s="32"/>
       <c r="AF57" s="32"/>
       <c r="AG57" s="32"/>
       <c r="AH57" s="32"/>
       <c r="AI57" s="32"/>
-      <c r="AJ57" s="46"/>
+      <c r="AJ57" s="52"/>
       <c r="AK57" s="32"/>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A58" s="56"/>
-      <c r="B58" s="59"/>
-      <c r="C58" s="48"/>
-      <c r="D58" t="s">
-        <v>104</v>
+      <c r="A58" s="46"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58" t="s">
+        <v>110</v>
       </c>
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
@@ -6819,30 +6914,36 @@
       <c r="S58" s="33"/>
       <c r="T58" s="33"/>
       <c r="U58" s="33"/>
-      <c r="V58" s="51"/>
+      <c r="V58" s="56"/>
       <c r="W58" s="33"/>
       <c r="X58" s="33"/>
       <c r="Y58" s="33"/>
       <c r="Z58" s="33"/>
       <c r="AA58" s="33"/>
       <c r="AB58" s="33"/>
-      <c r="AC58" s="54"/>
+      <c r="AC58" s="59"/>
       <c r="AD58" s="32"/>
       <c r="AE58" s="32"/>
       <c r="AF58" s="32"/>
       <c r="AG58" s="32"/>
       <c r="AH58" s="32"/>
       <c r="AI58" s="32"/>
-      <c r="AJ58" s="46"/>
+      <c r="AJ58" s="52"/>
       <c r="AK58" s="32"/>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A59" s="56"/>
-      <c r="B59" s="59"/>
-      <c r="C59" s="48"/>
+      <c r="A59" s="46"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" t="s">
+        <v>115</v>
+      </c>
       <c r="F59" s="36"/>
       <c r="G59" s="36"/>
-      <c r="J59" s="7"/>
+      <c r="J59" s="7">
+        <v>0</v>
+      </c>
       <c r="K59" s="33"/>
       <c r="L59" s="33"/>
       <c r="M59" s="33"/>
@@ -6854,33 +6955,33 @@
       <c r="S59" s="33"/>
       <c r="T59" s="33"/>
       <c r="U59" s="33"/>
-      <c r="V59" s="51"/>
+      <c r="V59" s="56"/>
       <c r="W59" s="33"/>
       <c r="X59" s="33"/>
       <c r="Y59" s="33"/>
       <c r="Z59" s="33"/>
       <c r="AA59" s="33"/>
       <c r="AB59" s="33"/>
-      <c r="AC59" s="54"/>
+      <c r="AC59" s="59"/>
       <c r="AD59" s="32"/>
       <c r="AE59" s="32"/>
       <c r="AF59" s="32"/>
       <c r="AG59" s="32"/>
       <c r="AH59" s="32"/>
       <c r="AI59" s="32"/>
-      <c r="AJ59" s="46"/>
+      <c r="AJ59" s="52"/>
       <c r="AK59" s="32"/>
     </row>
-    <row r="60" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="56"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="D60" t="s">
-        <v>100</v>
-      </c>
-      <c r="F60" s="14"/>
+    <row r="60" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A60" s="46"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
+      <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
       <c r="J60" s="7">
         <v>0</v>
       </c>
@@ -6895,29 +6996,29 @@
       <c r="S60" s="33"/>
       <c r="T60" s="33"/>
       <c r="U60" s="33"/>
-      <c r="V60" s="51"/>
+      <c r="V60" s="56"/>
       <c r="W60" s="33"/>
       <c r="X60" s="33"/>
       <c r="Y60" s="33"/>
       <c r="Z60" s="33"/>
       <c r="AA60" s="33"/>
       <c r="AB60" s="33"/>
-      <c r="AC60" s="54"/>
+      <c r="AC60" s="59"/>
       <c r="AD60" s="32"/>
       <c r="AE60" s="32"/>
       <c r="AF60" s="32"/>
       <c r="AG60" s="32"/>
       <c r="AH60" s="32"/>
       <c r="AI60" s="32"/>
-      <c r="AJ60" s="46"/>
+      <c r="AJ60" s="52"/>
       <c r="AK60" s="32"/>
     </row>
-    <row r="61" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="56"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="48"/>
+    <row r="61" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A61" s="46"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="47"/>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F61" s="35"/>
       <c r="G61" s="35"/>
@@ -6935,30 +7036,29 @@
       <c r="S61" s="33"/>
       <c r="T61" s="33"/>
       <c r="U61" s="33"/>
-      <c r="V61" s="51"/>
+      <c r="V61" s="56"/>
       <c r="W61" s="33"/>
       <c r="X61" s="33"/>
       <c r="Y61" s="33"/>
       <c r="Z61" s="33"/>
       <c r="AA61" s="33"/>
       <c r="AB61" s="33"/>
-      <c r="AC61" s="54"/>
+      <c r="AC61" s="59"/>
       <c r="AD61" s="32"/>
       <c r="AE61" s="32"/>
       <c r="AF61" s="32"/>
       <c r="AG61" s="32"/>
       <c r="AH61" s="32"/>
       <c r="AI61" s="32"/>
-      <c r="AJ61" s="46"/>
+      <c r="AJ61" s="52"/>
       <c r="AK61" s="32"/>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A62" s="56"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F62" s="14"/>
+      <c r="A62" s="46"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="47"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
       <c r="J62" s="7">
         <v>0</v>
       </c>
@@ -6973,29 +7073,33 @@
       <c r="S62" s="33"/>
       <c r="T62" s="33"/>
       <c r="U62" s="33"/>
-      <c r="V62" s="51"/>
+      <c r="V62" s="56"/>
       <c r="W62" s="33"/>
       <c r="X62" s="33"/>
       <c r="Y62" s="33"/>
       <c r="Z62" s="33"/>
       <c r="AA62" s="33"/>
       <c r="AB62" s="33"/>
-      <c r="AC62" s="54"/>
+      <c r="AC62" s="59"/>
       <c r="AD62" s="32"/>
       <c r="AE62" s="32"/>
       <c r="AF62" s="32"/>
       <c r="AG62" s="32"/>
       <c r="AH62" s="32"/>
       <c r="AI62" s="32"/>
-      <c r="AJ62" s="46"/>
+      <c r="AJ62" s="52"/>
       <c r="AK62" s="32"/>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A63" s="56"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="10" t="s">
-        <v>24</v>
-      </c>
+    <row r="63" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="46"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" t="s">
+        <v>100</v>
+      </c>
+      <c r="F63" s="14"/>
       <c r="J63" s="7">
         <v>0</v>
       </c>
@@ -7010,46 +7114,34 @@
       <c r="S63" s="33"/>
       <c r="T63" s="33"/>
       <c r="U63" s="33"/>
-      <c r="V63" s="51"/>
+      <c r="V63" s="56"/>
       <c r="W63" s="33"/>
       <c r="X63" s="33"/>
       <c r="Y63" s="33"/>
       <c r="Z63" s="33"/>
       <c r="AA63" s="33"/>
       <c r="AB63" s="33"/>
-      <c r="AC63" s="54"/>
+      <c r="AC63" s="59"/>
       <c r="AD63" s="32"/>
       <c r="AE63" s="32"/>
       <c r="AF63" s="32"/>
       <c r="AG63" s="32"/>
       <c r="AH63" s="32"/>
       <c r="AI63" s="32"/>
-      <c r="AJ63" s="46"/>
+      <c r="AJ63" s="52"/>
       <c r="AK63" s="32"/>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A64" s="56"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="48" t="s">
-        <v>13</v>
-      </c>
+    <row r="64" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="46"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="47"/>
       <c r="D64" t="s">
-        <v>136</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="G64" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="H64" s="19">
-        <v>44124</v>
-      </c>
-      <c r="I64" s="19">
-        <v>44124</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
       <c r="J64" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="33"/>
       <c r="L64" s="33"/>
@@ -7062,44 +7154,32 @@
       <c r="S64" s="33"/>
       <c r="T64" s="33"/>
       <c r="U64" s="33"/>
-      <c r="V64" s="51"/>
+      <c r="V64" s="56"/>
       <c r="W64" s="33"/>
       <c r="X64" s="33"/>
       <c r="Y64" s="33"/>
       <c r="Z64" s="33"/>
       <c r="AA64" s="33"/>
       <c r="AB64" s="33"/>
-      <c r="AC64" s="54"/>
+      <c r="AC64" s="59"/>
       <c r="AD64" s="32"/>
       <c r="AE64" s="32"/>
       <c r="AF64" s="32"/>
       <c r="AG64" s="32"/>
       <c r="AH64" s="32"/>
       <c r="AI64" s="32"/>
-      <c r="AJ64" s="46"/>
+      <c r="AJ64" s="52"/>
       <c r="AK64" s="32"/>
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A65" s="56"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="48"/>
-      <c r="D65" t="s">
-        <v>137</v>
-      </c>
-      <c r="F65" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="G65" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="H65" s="19">
-        <v>44124</v>
-      </c>
-      <c r="I65" s="19">
-        <v>44124</v>
-      </c>
+      <c r="A65" s="46"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F65" s="14"/>
       <c r="J65" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="33"/>
       <c r="L65" s="33"/>
@@ -7112,34 +7192,29 @@
       <c r="S65" s="33"/>
       <c r="T65" s="33"/>
       <c r="U65" s="33"/>
-      <c r="V65" s="51"/>
+      <c r="V65" s="56"/>
       <c r="W65" s="33"/>
       <c r="X65" s="33"/>
       <c r="Y65" s="33"/>
       <c r="Z65" s="33"/>
       <c r="AA65" s="33"/>
       <c r="AB65" s="33"/>
-      <c r="AC65" s="54"/>
+      <c r="AC65" s="59"/>
       <c r="AD65" s="32"/>
       <c r="AE65" s="32"/>
       <c r="AF65" s="32"/>
       <c r="AG65" s="32"/>
       <c r="AH65" s="32"/>
       <c r="AI65" s="32"/>
-      <c r="AJ65" s="46"/>
+      <c r="AJ65" s="52"/>
       <c r="AK65" s="32"/>
     </row>
-    <row r="66" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="56"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="D66" t="s">
-        <v>107</v>
-      </c>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
+    <row r="66" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A66" s="46"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="J66" s="7">
         <v>0</v>
       </c>
@@ -7154,34 +7229,46 @@
       <c r="S66" s="33"/>
       <c r="T66" s="33"/>
       <c r="U66" s="33"/>
-      <c r="V66" s="51"/>
+      <c r="V66" s="56"/>
       <c r="W66" s="33"/>
       <c r="X66" s="33"/>
       <c r="Y66" s="33"/>
       <c r="Z66" s="33"/>
       <c r="AA66" s="33"/>
       <c r="AB66" s="33"/>
-      <c r="AC66" s="54"/>
+      <c r="AC66" s="59"/>
       <c r="AD66" s="32"/>
       <c r="AE66" s="32"/>
       <c r="AF66" s="32"/>
       <c r="AG66" s="32"/>
       <c r="AH66" s="32"/>
       <c r="AI66" s="32"/>
-      <c r="AJ66" s="46"/>
+      <c r="AJ66" s="52"/>
       <c r="AK66" s="32"/>
     </row>
-    <row r="67" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="56"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="48"/>
+    <row r="67" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A67" s="46"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="47" t="s">
+        <v>13</v>
+      </c>
       <c r="D67" t="s">
-        <v>108</v>
-      </c>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
+        <v>135</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H67" s="19">
+        <v>44124</v>
+      </c>
+      <c r="I67" s="19">
+        <v>44124</v>
+      </c>
       <c r="J67" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="33"/>
       <c r="L67" s="33"/>
@@ -7194,34 +7281,44 @@
       <c r="S67" s="33"/>
       <c r="T67" s="33"/>
       <c r="U67" s="33"/>
-      <c r="V67" s="51"/>
+      <c r="V67" s="56"/>
       <c r="W67" s="33"/>
       <c r="X67" s="33"/>
       <c r="Y67" s="33"/>
       <c r="Z67" s="33"/>
       <c r="AA67" s="33"/>
       <c r="AB67" s="33"/>
-      <c r="AC67" s="54"/>
+      <c r="AC67" s="59"/>
       <c r="AD67" s="32"/>
       <c r="AE67" s="32"/>
       <c r="AF67" s="32"/>
       <c r="AG67" s="32"/>
       <c r="AH67" s="32"/>
       <c r="AI67" s="32"/>
-      <c r="AJ67" s="46"/>
+      <c r="AJ67" s="52"/>
       <c r="AK67" s="32"/>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A68" s="56"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="48" t="s">
-        <v>30</v>
-      </c>
+      <c r="A68" s="46"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="47"/>
       <c r="D68" t="s">
-        <v>31</v>
+        <v>136</v>
+      </c>
+      <c r="F68" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="G68" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="H68" s="19">
+        <v>44124</v>
+      </c>
+      <c r="I68" s="19">
+        <v>44124</v>
       </c>
       <c r="J68" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="33"/>
       <c r="L68" s="33"/>
@@ -7234,30 +7331,34 @@
       <c r="S68" s="33"/>
       <c r="T68" s="33"/>
       <c r="U68" s="33"/>
-      <c r="V68" s="51"/>
+      <c r="V68" s="56"/>
       <c r="W68" s="33"/>
       <c r="X68" s="33"/>
       <c r="Y68" s="33"/>
       <c r="Z68" s="33"/>
       <c r="AA68" s="33"/>
       <c r="AB68" s="33"/>
-      <c r="AC68" s="54"/>
+      <c r="AC68" s="59"/>
       <c r="AD68" s="32"/>
       <c r="AE68" s="32"/>
       <c r="AF68" s="32"/>
       <c r="AG68" s="32"/>
       <c r="AH68" s="32"/>
       <c r="AI68" s="32"/>
-      <c r="AJ68" s="46"/>
+      <c r="AJ68" s="52"/>
       <c r="AK68" s="32"/>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A69" s="56"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="48"/>
+    <row r="69" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="46"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="47" t="s">
+        <v>106</v>
+      </c>
       <c r="D69" t="s">
-        <v>32</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
       <c r="J69" s="7">
         <v>0</v>
       </c>
@@ -7272,30 +7373,32 @@
       <c r="S69" s="33"/>
       <c r="T69" s="33"/>
       <c r="U69" s="33"/>
-      <c r="V69" s="51"/>
+      <c r="V69" s="56"/>
       <c r="W69" s="33"/>
       <c r="X69" s="33"/>
       <c r="Y69" s="33"/>
       <c r="Z69" s="33"/>
       <c r="AA69" s="33"/>
       <c r="AB69" s="33"/>
-      <c r="AC69" s="54"/>
+      <c r="AC69" s="59"/>
       <c r="AD69" s="32"/>
       <c r="AE69" s="32"/>
       <c r="AF69" s="32"/>
       <c r="AG69" s="32"/>
       <c r="AH69" s="32"/>
       <c r="AI69" s="32"/>
-      <c r="AJ69" s="46"/>
+      <c r="AJ69" s="52"/>
       <c r="AK69" s="32"/>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A70" s="56"/>
-      <c r="B70" s="59"/>
-      <c r="C70" s="48"/>
+    <row r="70" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="46"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="47"/>
       <c r="D70" t="s">
-        <v>33</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
       <c r="J70" s="7">
         <v>0</v>
       </c>
@@ -7310,66 +7413,184 @@
       <c r="S70" s="33"/>
       <c r="T70" s="33"/>
       <c r="U70" s="33"/>
-      <c r="V70" s="52"/>
+      <c r="V70" s="56"/>
       <c r="W70" s="33"/>
       <c r="X70" s="33"/>
       <c r="Y70" s="33"/>
       <c r="Z70" s="33"/>
       <c r="AA70" s="33"/>
       <c r="AB70" s="33"/>
-      <c r="AC70" s="55"/>
+      <c r="AC70" s="59"/>
       <c r="AD70" s="32"/>
       <c r="AE70" s="32"/>
       <c r="AF70" s="32"/>
       <c r="AG70" s="32"/>
       <c r="AH70" s="32"/>
       <c r="AI70" s="32"/>
-      <c r="AJ70" s="47"/>
+      <c r="AJ70" s="52"/>
       <c r="AK70" s="32"/>
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A71" s="56"/>
-      <c r="B71" s="11" t="s">
+      <c r="A71" s="46"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71" t="s">
+        <v>31</v>
+      </c>
+      <c r="J71" s="7">
+        <v>0</v>
+      </c>
+      <c r="K71" s="33"/>
+      <c r="L71" s="33"/>
+      <c r="M71" s="33"/>
+      <c r="N71" s="33"/>
+      <c r="O71" s="33"/>
+      <c r="P71" s="33"/>
+      <c r="Q71" s="33"/>
+      <c r="R71" s="33"/>
+      <c r="S71" s="33"/>
+      <c r="T71" s="33"/>
+      <c r="U71" s="33"/>
+      <c r="V71" s="56"/>
+      <c r="W71" s="33"/>
+      <c r="X71" s="33"/>
+      <c r="Y71" s="33"/>
+      <c r="Z71" s="33"/>
+      <c r="AA71" s="33"/>
+      <c r="AB71" s="33"/>
+      <c r="AC71" s="59"/>
+      <c r="AD71" s="32"/>
+      <c r="AE71" s="32"/>
+      <c r="AF71" s="32"/>
+      <c r="AG71" s="32"/>
+      <c r="AH71" s="32"/>
+      <c r="AI71" s="32"/>
+      <c r="AJ71" s="52"/>
+      <c r="AK71" s="32"/>
+    </row>
+    <row r="72" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A72" s="46"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="47"/>
+      <c r="D72" t="s">
+        <v>32</v>
+      </c>
+      <c r="J72" s="7">
+        <v>0</v>
+      </c>
+      <c r="K72" s="33"/>
+      <c r="L72" s="33"/>
+      <c r="M72" s="33"/>
+      <c r="N72" s="33"/>
+      <c r="O72" s="33"/>
+      <c r="P72" s="33"/>
+      <c r="Q72" s="33"/>
+      <c r="R72" s="33"/>
+      <c r="S72" s="33"/>
+      <c r="T72" s="33"/>
+      <c r="U72" s="33"/>
+      <c r="V72" s="56"/>
+      <c r="W72" s="33"/>
+      <c r="X72" s="33"/>
+      <c r="Y72" s="33"/>
+      <c r="Z72" s="33"/>
+      <c r="AA72" s="33"/>
+      <c r="AB72" s="33"/>
+      <c r="AC72" s="59"/>
+      <c r="AD72" s="32"/>
+      <c r="AE72" s="32"/>
+      <c r="AF72" s="32"/>
+      <c r="AG72" s="32"/>
+      <c r="AH72" s="32"/>
+      <c r="AI72" s="32"/>
+      <c r="AJ72" s="52"/>
+      <c r="AK72" s="32"/>
+    </row>
+    <row r="73" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A73" s="46"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="47"/>
+      <c r="D73" t="s">
+        <v>33</v>
+      </c>
+      <c r="J73" s="7">
+        <v>0</v>
+      </c>
+      <c r="K73" s="33"/>
+      <c r="L73" s="33"/>
+      <c r="M73" s="33"/>
+      <c r="N73" s="33"/>
+      <c r="O73" s="33"/>
+      <c r="P73" s="33"/>
+      <c r="Q73" s="33"/>
+      <c r="R73" s="33"/>
+      <c r="S73" s="33"/>
+      <c r="T73" s="33"/>
+      <c r="U73" s="33"/>
+      <c r="V73" s="57"/>
+      <c r="W73" s="33"/>
+      <c r="X73" s="33"/>
+      <c r="Y73" s="33"/>
+      <c r="Z73" s="33"/>
+      <c r="AA73" s="33"/>
+      <c r="AB73" s="33"/>
+      <c r="AC73" s="60"/>
+      <c r="AD73" s="32"/>
+      <c r="AE73" s="32"/>
+      <c r="AF73" s="32"/>
+      <c r="AG73" s="32"/>
+      <c r="AH73" s="32"/>
+      <c r="AI73" s="32"/>
+      <c r="AJ73" s="53"/>
+      <c r="AK73" s="32"/>
+    </row>
+    <row r="74" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A74" s="46"/>
+      <c r="B74" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F71" s="10" t="s">
+      <c r="F74" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J71" s="6">
+      <c r="J74" s="6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A5:A71"/>
+  <mergeCells count="25">
+    <mergeCell ref="AJ5:AJ73"/>
+    <mergeCell ref="C18:C40"/>
+    <mergeCell ref="B11:B55"/>
+    <mergeCell ref="D18:D26"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="D32:D34"/>
+    <mergeCell ref="V5:V73"/>
+    <mergeCell ref="AC5:AC73"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="A5:A74"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C43"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C69:C70"/>
     <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B54:B70"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="AJ5:AJ70"/>
-    <mergeCell ref="C18:C38"/>
-    <mergeCell ref="B11:B53"/>
-    <mergeCell ref="D18:D24"/>
-    <mergeCell ref="D27:D29"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="V5:V70"/>
-    <mergeCell ref="AC5:AC70"/>
-    <mergeCell ref="D55:D57"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="B56:B73"/>
+    <mergeCell ref="C67:C68"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="K3:AK5 K6:U70 AK6:AK70 W6:AB70 AD6:AI70">
+  <conditionalFormatting sqref="K3:AK5 K6:U73 AK6:AK73 W6:AB73 AD6:AI73">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>WEEKDAY(K$3)=7</formula>
     </cfRule>
@@ -7395,9 +7616,11 @@
     <hyperlink ref="D13" location="SE!A1" display="SE"/>
     <hyperlink ref="D16" location="SE!A1" display="SE"/>
     <hyperlink ref="D14" location="BGM!A1" display="BGM"/>
-    <hyperlink ref="D36" location="BGM!A1" display="BGM"/>
-    <hyperlink ref="D37" location="SE!A1" display="SE"/>
-    <hyperlink ref="D53" location="コントローラーボタン配置図!A1" display="コントローラボタン配置図"/>
+    <hyperlink ref="D38" location="BGM!A1" display="BGM"/>
+    <hyperlink ref="D39" location="SE!A1" display="SE"/>
+    <hyperlink ref="D55" location="コントローラーボタン配置図!A1" display="コントローラボタン配置図"/>
+    <hyperlink ref="D41" location="SE!A1" display="SE"/>
+    <hyperlink ref="D43" location="SE!A1" display="SE"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -7439,24 +7662,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
     </row>
     <row r="4" spans="2:14" ht="45.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
       <c r="K4" s="24" t="s">
         <v>78</v>
       </c>
@@ -7465,14 +7688,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
       <c r="K5" s="25" t="s">
         <v>80</v>
       </c>
@@ -7481,14 +7704,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
       <c r="K6" s="25" t="s">
         <v>81</v>
       </c>
@@ -7497,70 +7720,70 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
       <c r="K7" s="25" t="s">
         <v>82</v>
       </c>
       <c r="L7" s="26"/>
     </row>
     <row r="8" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
       <c r="K8" s="25" t="s">
         <v>83</v>
       </c>
       <c r="L8" s="26"/>
     </row>
     <row r="9" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
       <c r="K9" s="25" t="s">
         <v>84</v>
       </c>
       <c r="L9" s="26"/>
     </row>
     <row r="10" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
       <c r="K10" s="25" t="s">
         <v>85</v>
       </c>
       <c r="L10" s="26"/>
     </row>
     <row r="11" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
       <c r="K11" s="25" t="s">
         <v>86</v>
       </c>
@@ -7568,136 +7791,136 @@
       <c r="N11" s="23"/>
     </row>
     <row r="12" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
       <c r="K12" s="25" t="s">
         <v>87</v>
       </c>
       <c r="L12" s="26"/>
     </row>
     <row r="13" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
       <c r="K13" s="25" t="s">
         <v>88</v>
       </c>
       <c r="L13" s="26"/>
     </row>
     <row r="14" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
       <c r="K14" s="25" t="s">
         <v>89</v>
       </c>
       <c r="L14" s="26"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7728,7 +7951,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -7741,22 +7964,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="14"/>
@@ -7814,7 +8037,7 @@
         <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -7843,7 +8066,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="62" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -7857,7 +8080,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="61"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="2" t="s">
         <v>73</v>
       </c>
@@ -7949,12 +8172,12 @@
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/schedule/ガントチャートxlsx.xlsx
+++ b/schedule/ガントチャートxlsx.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\okashi_222\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81909\Desktop\okashi_222\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14928" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="151">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -1064,6 +1064,10 @@
     <rPh sb="1" eb="2">
       <t>ニチ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1669,21 +1673,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1692,6 +1681,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1713,6 +1705,18 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4354,34 +4358,34 @@
   <dimension ref="A1:AS74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="K14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="T4" sqref="T4"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.19921875" customWidth="1"/>
+    <col min="5" max="5" width="22.59765625" customWidth="1"/>
+    <col min="6" max="6" width="7.09765625" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="9" width="7.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.09765625" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.09765625" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="5" customWidth="1"/>
     <col min="12" max="15" width="3.5" customWidth="1"/>
-    <col min="16" max="16" width="4.375" customWidth="1"/>
+    <col min="16" max="16" width="4.3984375" customWidth="1"/>
     <col min="17" max="17" width="3.5" customWidth="1"/>
-    <col min="18" max="18" width="3.875" customWidth="1"/>
+    <col min="18" max="18" width="3.8984375" customWidth="1"/>
     <col min="19" max="35" width="3.5" customWidth="1"/>
-    <col min="36" max="36" width="6.75" customWidth="1"/>
+    <col min="36" max="36" width="6.69921875" customWidth="1"/>
     <col min="37" max="45" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:45" ht="26.4" x14ac:dyDescent="0.45">
       <c r="B1" s="29" t="s">
         <v>92</v>
       </c>
@@ -4413,7 +4417,7 @@
       </c>
       <c r="U1" s="40"/>
     </row>
-    <row r="3" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K3" s="30">
         <v>44116</v>
       </c>
@@ -4504,7 +4508,7 @@
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
     </row>
-    <row r="4" spans="1:45" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:45" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4641,11 +4645,11 @@
         <v>44142</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:45" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="58" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -4677,7 +4681,7 @@
       <c r="S5" s="32"/>
       <c r="T5" s="32"/>
       <c r="U5" s="32"/>
-      <c r="V5" s="55" t="s">
+      <c r="V5" s="51" t="s">
         <v>118</v>
       </c>
       <c r="W5" s="32"/>
@@ -4686,7 +4690,7 @@
       <c r="Z5" s="32"/>
       <c r="AA5" s="32"/>
       <c r="AB5" s="32"/>
-      <c r="AC5" s="58" t="s">
+      <c r="AC5" s="54" t="s">
         <v>119</v>
       </c>
       <c r="AD5" s="32"/>
@@ -4695,14 +4699,14 @@
       <c r="AG5" s="32"/>
       <c r="AH5" s="32"/>
       <c r="AI5" s="32"/>
-      <c r="AJ5" s="51" t="s">
+      <c r="AJ5" s="46" t="s">
         <v>94</v>
       </c>
       <c r="AK5" s="32"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A6" s="46"/>
-      <c r="B6" s="49"/>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="A6" s="57"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
@@ -4726,26 +4730,26 @@
       <c r="S6" s="33"/>
       <c r="T6" s="33"/>
       <c r="U6" s="33"/>
-      <c r="V6" s="56"/>
+      <c r="V6" s="52"/>
       <c r="W6" s="33"/>
       <c r="X6" s="33"/>
       <c r="Y6" s="33"/>
       <c r="Z6" s="33"/>
       <c r="AA6" s="33"/>
       <c r="AB6" s="33"/>
-      <c r="AC6" s="59"/>
+      <c r="AC6" s="55"/>
       <c r="AD6" s="32"/>
       <c r="AE6" s="32"/>
       <c r="AF6" s="32"/>
       <c r="AG6" s="32"/>
       <c r="AH6" s="32"/>
       <c r="AI6" s="32"/>
-      <c r="AJ6" s="52"/>
+      <c r="AJ6" s="47"/>
       <c r="AK6" s="32"/>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A7" s="46"/>
-      <c r="B7" s="49"/>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="A7" s="57"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
@@ -4766,26 +4770,26 @@
       <c r="S7" s="33"/>
       <c r="T7" s="33"/>
       <c r="U7" s="33"/>
-      <c r="V7" s="56"/>
+      <c r="V7" s="52"/>
       <c r="W7" s="33"/>
       <c r="X7" s="33"/>
       <c r="Y7" s="33"/>
       <c r="Z7" s="33"/>
       <c r="AA7" s="33"/>
       <c r="AB7" s="33"/>
-      <c r="AC7" s="59"/>
+      <c r="AC7" s="55"/>
       <c r="AD7" s="32"/>
       <c r="AE7" s="32"/>
       <c r="AF7" s="32"/>
       <c r="AG7" s="32"/>
       <c r="AH7" s="32"/>
       <c r="AI7" s="32"/>
-      <c r="AJ7" s="52"/>
+      <c r="AJ7" s="47"/>
       <c r="AK7" s="32"/>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A8" s="46"/>
-      <c r="B8" s="49"/>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="A8" s="57"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
@@ -4809,26 +4813,26 @@
       <c r="S8" s="33"/>
       <c r="T8" s="33"/>
       <c r="U8" s="33"/>
-      <c r="V8" s="56"/>
+      <c r="V8" s="52"/>
       <c r="W8" s="33"/>
       <c r="X8" s="33"/>
       <c r="Y8" s="33"/>
       <c r="Z8" s="33"/>
       <c r="AA8" s="33"/>
       <c r="AB8" s="33"/>
-      <c r="AC8" s="59"/>
+      <c r="AC8" s="55"/>
       <c r="AD8" s="32"/>
       <c r="AE8" s="32"/>
       <c r="AF8" s="32"/>
       <c r="AG8" s="32"/>
       <c r="AH8" s="32"/>
       <c r="AI8" s="32"/>
-      <c r="AJ8" s="52"/>
+      <c r="AJ8" s="47"/>
       <c r="AK8" s="32"/>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A9" s="46"/>
-      <c r="B9" s="49"/>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="A9" s="57"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="10" t="s">
         <v>34</v>
       </c>
@@ -4849,26 +4853,26 @@
       <c r="S9" s="33"/>
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
-      <c r="V9" s="56"/>
+      <c r="V9" s="52"/>
       <c r="W9" s="33"/>
       <c r="X9" s="33"/>
       <c r="Y9" s="33"/>
       <c r="Z9" s="33"/>
       <c r="AA9" s="33"/>
       <c r="AB9" s="33"/>
-      <c r="AC9" s="59"/>
+      <c r="AC9" s="55"/>
       <c r="AD9" s="32"/>
       <c r="AE9" s="32"/>
       <c r="AF9" s="32"/>
       <c r="AG9" s="32"/>
       <c r="AH9" s="32"/>
       <c r="AI9" s="32"/>
-      <c r="AJ9" s="52"/>
+      <c r="AJ9" s="47"/>
       <c r="AK9" s="32"/>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A10" s="46"/>
-      <c r="B10" s="49"/>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="A10" s="57"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="10" t="s">
         <v>35</v>
       </c>
@@ -4889,29 +4893,29 @@
       <c r="S10" s="33"/>
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
-      <c r="V10" s="56"/>
+      <c r="V10" s="52"/>
       <c r="W10" s="33"/>
       <c r="X10" s="33"/>
       <c r="Y10" s="33"/>
       <c r="Z10" s="33"/>
       <c r="AA10" s="33"/>
       <c r="AB10" s="33"/>
-      <c r="AC10" s="59"/>
+      <c r="AC10" s="55"/>
       <c r="AD10" s="32"/>
       <c r="AE10" s="32"/>
       <c r="AF10" s="32"/>
       <c r="AG10" s="32"/>
       <c r="AH10" s="32"/>
       <c r="AI10" s="32"/>
-      <c r="AJ10" s="52"/>
+      <c r="AJ10" s="47"/>
       <c r="AK10" s="32"/>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A11" s="46"/>
-      <c r="B11" s="54" t="s">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="A11" s="57"/>
+      <c r="B11" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="49" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="s">
@@ -4943,27 +4947,27 @@
       <c r="S11" s="33"/>
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="56"/>
+      <c r="V11" s="52"/>
       <c r="W11" s="33"/>
       <c r="X11" s="33"/>
       <c r="Y11" s="33"/>
       <c r="Z11" s="33"/>
       <c r="AA11" s="33"/>
       <c r="AB11" s="33"/>
-      <c r="AC11" s="59"/>
+      <c r="AC11" s="55"/>
       <c r="AD11" s="32"/>
       <c r="AE11" s="32"/>
       <c r="AF11" s="32"/>
       <c r="AG11" s="32"/>
       <c r="AH11" s="32"/>
       <c r="AI11" s="32"/>
-      <c r="AJ11" s="52"/>
+      <c r="AJ11" s="47"/>
       <c r="AK11" s="32"/>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A12" s="46"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="47"/>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="A12" s="57"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="49"/>
       <c r="D12" t="s">
         <v>23</v>
       </c>
@@ -4981,27 +4985,27 @@
       <c r="S12" s="33"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
-      <c r="V12" s="56"/>
+      <c r="V12" s="52"/>
       <c r="W12" s="33"/>
       <c r="X12" s="33"/>
       <c r="Y12" s="33"/>
       <c r="Z12" s="33"/>
       <c r="AA12" s="33"/>
       <c r="AB12" s="33"/>
-      <c r="AC12" s="59"/>
+      <c r="AC12" s="55"/>
       <c r="AD12" s="32"/>
       <c r="AE12" s="32"/>
       <c r="AF12" s="32"/>
       <c r="AG12" s="32"/>
       <c r="AH12" s="32"/>
       <c r="AI12" s="32"/>
-      <c r="AJ12" s="52"/>
+      <c r="AJ12" s="47"/>
       <c r="AK12" s="32"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A13" s="46"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="47"/>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="A13" s="57"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="16" t="s">
         <v>45</v>
       </c>
@@ -5021,27 +5025,27 @@
       <c r="S13" s="33"/>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
-      <c r="V13" s="56"/>
+      <c r="V13" s="52"/>
       <c r="W13" s="33"/>
       <c r="X13" s="33"/>
       <c r="Y13" s="33"/>
       <c r="Z13" s="33"/>
       <c r="AA13" s="33"/>
       <c r="AB13" s="33"/>
-      <c r="AC13" s="59"/>
+      <c r="AC13" s="55"/>
       <c r="AD13" s="32"/>
       <c r="AE13" s="32"/>
       <c r="AF13" s="32"/>
       <c r="AG13" s="32"/>
       <c r="AH13" s="32"/>
       <c r="AI13" s="32"/>
-      <c r="AJ13" s="52"/>
+      <c r="AJ13" s="47"/>
       <c r="AK13" s="32"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A14" s="46"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="47"/>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="A14" s="57"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="15" t="s">
         <v>27</v>
       </c>
@@ -5060,31 +5064,34 @@
       <c r="S14" s="33"/>
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
-      <c r="V14" s="56"/>
+      <c r="V14" s="52"/>
       <c r="W14" s="33"/>
       <c r="X14" s="33"/>
       <c r="Y14" s="33"/>
       <c r="Z14" s="33"/>
       <c r="AA14" s="33"/>
       <c r="AB14" s="33"/>
-      <c r="AC14" s="59"/>
+      <c r="AC14" s="55"/>
       <c r="AD14" s="32"/>
       <c r="AE14" s="32"/>
       <c r="AF14" s="32"/>
       <c r="AG14" s="32"/>
       <c r="AH14" s="32"/>
       <c r="AI14" s="32"/>
-      <c r="AJ14" s="52"/>
+      <c r="AJ14" s="47"/>
       <c r="AK14" s="32"/>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A15" s="46"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="47" t="s">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="A15" s="57"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="49" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
         <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>150</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>40</v>
@@ -5103,27 +5110,27 @@
       <c r="S15" s="33"/>
       <c r="T15" s="33"/>
       <c r="U15" s="33"/>
-      <c r="V15" s="56"/>
+      <c r="V15" s="52"/>
       <c r="W15" s="33"/>
       <c r="X15" s="33"/>
       <c r="Y15" s="33"/>
       <c r="Z15" s="33"/>
       <c r="AA15" s="33"/>
       <c r="AB15" s="33"/>
-      <c r="AC15" s="59"/>
+      <c r="AC15" s="55"/>
       <c r="AD15" s="32"/>
       <c r="AE15" s="32"/>
       <c r="AF15" s="32"/>
       <c r="AG15" s="32"/>
       <c r="AH15" s="32"/>
       <c r="AI15" s="32"/>
-      <c r="AJ15" s="52"/>
+      <c r="AJ15" s="47"/>
       <c r="AK15" s="32"/>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A16" s="46"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="47"/>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="A16" s="57"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="17" t="s">
         <v>45</v>
       </c>
@@ -5143,27 +5150,27 @@
       <c r="S16" s="33"/>
       <c r="T16" s="33"/>
       <c r="U16" s="33"/>
-      <c r="V16" s="56"/>
+      <c r="V16" s="52"/>
       <c r="W16" s="33"/>
       <c r="X16" s="33"/>
       <c r="Y16" s="33"/>
       <c r="Z16" s="33"/>
       <c r="AA16" s="33"/>
       <c r="AB16" s="33"/>
-      <c r="AC16" s="59"/>
+      <c r="AC16" s="55"/>
       <c r="AD16" s="32"/>
       <c r="AE16" s="32"/>
       <c r="AF16" s="32"/>
       <c r="AG16" s="32"/>
       <c r="AH16" s="32"/>
       <c r="AI16" s="32"/>
-      <c r="AJ16" s="52"/>
+      <c r="AJ16" s="47"/>
       <c r="AK16" s="32"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A17" s="46"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="47"/>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A17" s="57"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="49"/>
       <c r="D17" t="s">
         <v>23</v>
       </c>
@@ -5181,30 +5188,30 @@
       <c r="S17" s="33"/>
       <c r="T17" s="33"/>
       <c r="U17" s="33"/>
-      <c r="V17" s="56"/>
+      <c r="V17" s="52"/>
       <c r="W17" s="33"/>
       <c r="X17" s="33"/>
       <c r="Y17" s="33"/>
       <c r="Z17" s="33"/>
       <c r="AA17" s="33"/>
       <c r="AB17" s="33"/>
-      <c r="AC17" s="59"/>
+      <c r="AC17" s="55"/>
       <c r="AD17" s="32"/>
       <c r="AE17" s="32"/>
       <c r="AF17" s="32"/>
       <c r="AG17" s="32"/>
       <c r="AH17" s="32"/>
       <c r="AI17" s="32"/>
-      <c r="AJ17" s="52"/>
+      <c r="AJ17" s="47"/>
       <c r="AK17" s="32"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A18" s="46"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="47" t="s">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A18" s="57"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="49" t="s">
         <v>102</v>
       </c>
       <c r="E18" t="s">
@@ -5230,28 +5237,28 @@
       <c r="S18" s="33"/>
       <c r="T18" s="33"/>
       <c r="U18" s="33"/>
-      <c r="V18" s="56"/>
+      <c r="V18" s="52"/>
       <c r="W18" s="33"/>
       <c r="X18" s="33"/>
       <c r="Y18" s="33"/>
       <c r="Z18" s="33"/>
       <c r="AA18" s="33"/>
       <c r="AB18" s="33"/>
-      <c r="AC18" s="59"/>
+      <c r="AC18" s="55"/>
       <c r="AD18" s="32"/>
       <c r="AE18" s="32"/>
       <c r="AF18" s="32"/>
       <c r="AG18" s="32"/>
       <c r="AH18" s="32"/>
       <c r="AI18" s="32"/>
-      <c r="AJ18" s="52"/>
+      <c r="AJ18" s="47"/>
       <c r="AK18" s="32"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A19" s="46"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A19" s="57"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
       <c r="E19" t="s">
         <v>122</v>
       </c>
@@ -5281,28 +5288,28 @@
       <c r="S19" s="33"/>
       <c r="T19" s="33"/>
       <c r="U19" s="33"/>
-      <c r="V19" s="56"/>
+      <c r="V19" s="52"/>
       <c r="W19" s="33"/>
       <c r="X19" s="33"/>
       <c r="Y19" s="33"/>
       <c r="Z19" s="33"/>
       <c r="AA19" s="33"/>
       <c r="AB19" s="33"/>
-      <c r="AC19" s="59"/>
+      <c r="AC19" s="55"/>
       <c r="AD19" s="32"/>
       <c r="AE19" s="32"/>
       <c r="AF19" s="32"/>
       <c r="AG19" s="32"/>
       <c r="AH19" s="32"/>
       <c r="AI19" s="32"/>
-      <c r="AJ19" s="52"/>
+      <c r="AJ19" s="47"/>
       <c r="AK19" s="32"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A20" s="46"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A20" s="57"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
       <c r="E20" t="s">
         <v>116</v>
       </c>
@@ -5322,28 +5329,28 @@
       <c r="S20" s="33"/>
       <c r="T20" s="33"/>
       <c r="U20" s="33"/>
-      <c r="V20" s="56"/>
+      <c r="V20" s="52"/>
       <c r="W20" s="33"/>
       <c r="X20" s="33"/>
       <c r="Y20" s="33"/>
       <c r="Z20" s="33"/>
       <c r="AA20" s="33"/>
       <c r="AB20" s="33"/>
-      <c r="AC20" s="59"/>
+      <c r="AC20" s="55"/>
       <c r="AD20" s="32"/>
       <c r="AE20" s="32"/>
       <c r="AF20" s="32"/>
       <c r="AG20" s="32"/>
       <c r="AH20" s="32"/>
       <c r="AI20" s="32"/>
-      <c r="AJ20" s="52"/>
+      <c r="AJ20" s="47"/>
       <c r="AK20" s="32"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A21" s="46"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A21" s="57"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
       <c r="E21" t="s">
         <v>146</v>
       </c>
@@ -5373,28 +5380,28 @@
       <c r="S21" s="33"/>
       <c r="T21" s="33"/>
       <c r="U21" s="33"/>
-      <c r="V21" s="56"/>
+      <c r="V21" s="52"/>
       <c r="W21" s="33"/>
       <c r="X21" s="33"/>
       <c r="Y21" s="33"/>
       <c r="Z21" s="33"/>
       <c r="AA21" s="33"/>
       <c r="AB21" s="33"/>
-      <c r="AC21" s="59"/>
+      <c r="AC21" s="55"/>
       <c r="AD21" s="32"/>
       <c r="AE21" s="32"/>
       <c r="AF21" s="32"/>
       <c r="AG21" s="32"/>
       <c r="AH21" s="32"/>
       <c r="AI21" s="32"/>
-      <c r="AJ21" s="52"/>
+      <c r="AJ21" s="47"/>
       <c r="AK21" s="32"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A22" s="46"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A22" s="57"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
       <c r="F22" s="45"/>
       <c r="G22" s="45"/>
       <c r="J22" s="7">
@@ -5411,28 +5418,28 @@
       <c r="S22" s="33"/>
       <c r="T22" s="33"/>
       <c r="U22" s="33"/>
-      <c r="V22" s="56"/>
+      <c r="V22" s="52"/>
       <c r="W22" s="33"/>
       <c r="X22" s="33"/>
       <c r="Y22" s="33"/>
       <c r="Z22" s="33"/>
       <c r="AA22" s="33"/>
       <c r="AB22" s="33"/>
-      <c r="AC22" s="59"/>
+      <c r="AC22" s="55"/>
       <c r="AD22" s="32"/>
       <c r="AE22" s="32"/>
       <c r="AF22" s="32"/>
       <c r="AG22" s="32"/>
       <c r="AH22" s="32"/>
       <c r="AI22" s="32"/>
-      <c r="AJ22" s="52"/>
+      <c r="AJ22" s="47"/>
       <c r="AK22" s="32"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A23" s="46"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A23" s="57"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
       <c r="E23" t="s">
         <v>128</v>
       </c>
@@ -5462,28 +5469,28 @@
       <c r="S23" s="33"/>
       <c r="T23" s="33"/>
       <c r="U23" s="33"/>
-      <c r="V23" s="56"/>
+      <c r="V23" s="52"/>
       <c r="W23" s="33"/>
       <c r="X23" s="33"/>
       <c r="Y23" s="33"/>
       <c r="Z23" s="33"/>
       <c r="AA23" s="33"/>
       <c r="AB23" s="33"/>
-      <c r="AC23" s="59"/>
+      <c r="AC23" s="55"/>
       <c r="AD23" s="32"/>
       <c r="AE23" s="32"/>
       <c r="AF23" s="32"/>
       <c r="AG23" s="32"/>
       <c r="AH23" s="32"/>
       <c r="AI23" s="32"/>
-      <c r="AJ23" s="52"/>
+      <c r="AJ23" s="47"/>
       <c r="AK23" s="32"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A24" s="46"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A24" s="57"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
       <c r="E24" t="s">
         <v>117</v>
       </c>
@@ -5503,28 +5510,28 @@
       <c r="S24" s="33"/>
       <c r="T24" s="33"/>
       <c r="U24" s="33"/>
-      <c r="V24" s="56"/>
+      <c r="V24" s="52"/>
       <c r="W24" s="33"/>
       <c r="X24" s="33"/>
       <c r="Y24" s="33"/>
       <c r="Z24" s="33"/>
       <c r="AA24" s="33"/>
       <c r="AB24" s="33"/>
-      <c r="AC24" s="59"/>
+      <c r="AC24" s="55"/>
       <c r="AD24" s="32"/>
       <c r="AE24" s="32"/>
       <c r="AF24" s="32"/>
       <c r="AG24" s="32"/>
       <c r="AH24" s="32"/>
       <c r="AI24" s="32"/>
-      <c r="AJ24" s="52"/>
+      <c r="AJ24" s="47"/>
       <c r="AK24" s="32"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A25" s="46"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A25" s="57"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
       <c r="E25" t="s">
         <v>114</v>
       </c>
@@ -5554,28 +5561,28 @@
       <c r="S25" s="33"/>
       <c r="T25" s="33"/>
       <c r="U25" s="33"/>
-      <c r="V25" s="56"/>
+      <c r="V25" s="52"/>
       <c r="W25" s="33"/>
       <c r="X25" s="33"/>
       <c r="Y25" s="33"/>
       <c r="Z25" s="33"/>
       <c r="AA25" s="33"/>
       <c r="AB25" s="33"/>
-      <c r="AC25" s="59"/>
+      <c r="AC25" s="55"/>
       <c r="AD25" s="32"/>
       <c r="AE25" s="32"/>
       <c r="AF25" s="32"/>
       <c r="AG25" s="32"/>
       <c r="AH25" s="32"/>
       <c r="AI25" s="32"/>
-      <c r="AJ25" s="52"/>
+      <c r="AJ25" s="47"/>
       <c r="AK25" s="32"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A26" s="46"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A26" s="57"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
       <c r="E26" t="s">
         <v>110</v>
       </c>
@@ -5595,28 +5602,28 @@
       <c r="S26" s="33"/>
       <c r="T26" s="33"/>
       <c r="U26" s="33"/>
-      <c r="V26" s="56"/>
+      <c r="V26" s="52"/>
       <c r="W26" s="33"/>
       <c r="X26" s="33"/>
       <c r="Y26" s="33"/>
       <c r="Z26" s="33"/>
       <c r="AA26" s="33"/>
       <c r="AB26" s="33"/>
-      <c r="AC26" s="59"/>
+      <c r="AC26" s="55"/>
       <c r="AD26" s="32"/>
       <c r="AE26" s="32"/>
       <c r="AF26" s="32"/>
       <c r="AG26" s="32"/>
       <c r="AH26" s="32"/>
       <c r="AI26" s="32"/>
-      <c r="AJ26" s="52"/>
+      <c r="AJ26" s="47"/>
       <c r="AK26" s="32"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A27" s="46"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47" t="s">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A27" s="57"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49" t="s">
         <v>25</v>
       </c>
       <c r="E27" t="s">
@@ -5645,28 +5652,28 @@
       <c r="S27" s="33"/>
       <c r="T27" s="33"/>
       <c r="U27" s="33"/>
-      <c r="V27" s="56"/>
+      <c r="V27" s="52"/>
       <c r="W27" s="33"/>
       <c r="X27" s="33"/>
       <c r="Y27" s="33"/>
       <c r="Z27" s="33"/>
       <c r="AA27" s="33"/>
       <c r="AB27" s="33"/>
-      <c r="AC27" s="59"/>
+      <c r="AC27" s="55"/>
       <c r="AD27" s="32"/>
       <c r="AE27" s="32"/>
       <c r="AF27" s="32"/>
       <c r="AG27" s="32"/>
       <c r="AH27" s="32"/>
       <c r="AI27" s="32"/>
-      <c r="AJ27" s="52"/>
+      <c r="AJ27" s="47"/>
       <c r="AK27" s="32"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A28" s="46"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A28" s="57"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
       <c r="E28" t="s">
         <v>129</v>
       </c>
@@ -5694,28 +5701,28 @@
       <c r="S28" s="33"/>
       <c r="T28" s="33"/>
       <c r="U28" s="33"/>
-      <c r="V28" s="56"/>
+      <c r="V28" s="52"/>
       <c r="W28" s="33"/>
       <c r="X28" s="33"/>
       <c r="Y28" s="33"/>
       <c r="Z28" s="33"/>
       <c r="AA28" s="33"/>
       <c r="AB28" s="33"/>
-      <c r="AC28" s="59"/>
+      <c r="AC28" s="55"/>
       <c r="AD28" s="32"/>
       <c r="AE28" s="32"/>
       <c r="AF28" s="32"/>
       <c r="AG28" s="32"/>
       <c r="AH28" s="32"/>
       <c r="AI28" s="32"/>
-      <c r="AJ28" s="52"/>
+      <c r="AJ28" s="47"/>
       <c r="AK28" s="32"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A29" s="46"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47" t="s">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A29" s="57"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49" t="s">
         <v>13</v>
       </c>
       <c r="E29" t="s">
@@ -5735,28 +5742,28 @@
       <c r="S29" s="33"/>
       <c r="T29" s="33"/>
       <c r="U29" s="33"/>
-      <c r="V29" s="56"/>
+      <c r="V29" s="52"/>
       <c r="W29" s="33"/>
       <c r="X29" s="33"/>
       <c r="Y29" s="33"/>
       <c r="Z29" s="33"/>
       <c r="AA29" s="33"/>
       <c r="AB29" s="33"/>
-      <c r="AC29" s="59"/>
+      <c r="AC29" s="55"/>
       <c r="AD29" s="32"/>
       <c r="AE29" s="32"/>
       <c r="AF29" s="32"/>
       <c r="AG29" s="32"/>
       <c r="AH29" s="32"/>
       <c r="AI29" s="32"/>
-      <c r="AJ29" s="52"/>
+      <c r="AJ29" s="47"/>
       <c r="AK29" s="32"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A30" s="46"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A30" s="57"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
       <c r="E30" t="s">
         <v>106</v>
       </c>
@@ -5776,28 +5783,28 @@
       <c r="S30" s="33"/>
       <c r="T30" s="33"/>
       <c r="U30" s="33"/>
-      <c r="V30" s="56"/>
+      <c r="V30" s="52"/>
       <c r="W30" s="33"/>
       <c r="X30" s="33"/>
       <c r="Y30" s="33"/>
       <c r="Z30" s="33"/>
       <c r="AA30" s="33"/>
       <c r="AB30" s="33"/>
-      <c r="AC30" s="59"/>
+      <c r="AC30" s="55"/>
       <c r="AD30" s="32"/>
       <c r="AE30" s="32"/>
       <c r="AF30" s="32"/>
       <c r="AG30" s="32"/>
       <c r="AH30" s="32"/>
       <c r="AI30" s="32"/>
-      <c r="AJ30" s="52"/>
+      <c r="AJ30" s="47"/>
       <c r="AK30" s="32"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A31" s="46"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A31" s="57"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
       <c r="E31" t="s">
         <v>123</v>
       </c>
@@ -5827,28 +5834,28 @@
       <c r="S31" s="33"/>
       <c r="T31" s="33"/>
       <c r="U31" s="33"/>
-      <c r="V31" s="56"/>
+      <c r="V31" s="52"/>
       <c r="W31" s="33"/>
       <c r="X31" s="33"/>
       <c r="Y31" s="33"/>
       <c r="Z31" s="33"/>
       <c r="AA31" s="33"/>
       <c r="AB31" s="33"/>
-      <c r="AC31" s="59"/>
+      <c r="AC31" s="55"/>
       <c r="AD31" s="32"/>
       <c r="AE31" s="32"/>
       <c r="AF31" s="32"/>
       <c r="AG31" s="32"/>
       <c r="AH31" s="32"/>
       <c r="AI31" s="32"/>
-      <c r="AJ31" s="52"/>
+      <c r="AJ31" s="47"/>
       <c r="AK31" s="32"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A32" s="46"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47" t="s">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A32" s="57"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49" t="s">
         <v>97</v>
       </c>
       <c r="E32" t="s">
@@ -5870,28 +5877,28 @@
       <c r="S32" s="33"/>
       <c r="T32" s="33"/>
       <c r="U32" s="33"/>
-      <c r="V32" s="56"/>
+      <c r="V32" s="52"/>
       <c r="W32" s="33"/>
       <c r="X32" s="33"/>
       <c r="Y32" s="33"/>
       <c r="Z32" s="33"/>
       <c r="AA32" s="33"/>
       <c r="AB32" s="33"/>
-      <c r="AC32" s="59"/>
+      <c r="AC32" s="55"/>
       <c r="AD32" s="32"/>
       <c r="AE32" s="32"/>
       <c r="AF32" s="32"/>
       <c r="AG32" s="32"/>
       <c r="AH32" s="32"/>
       <c r="AI32" s="32"/>
-      <c r="AJ32" s="52"/>
+      <c r="AJ32" s="47"/>
       <c r="AK32" s="32"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A33" s="46"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A33" s="57"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
       <c r="E33" t="s">
         <v>121</v>
       </c>
@@ -5911,28 +5918,28 @@
       <c r="S33" s="33"/>
       <c r="T33" s="33"/>
       <c r="U33" s="33"/>
-      <c r="V33" s="56"/>
+      <c r="V33" s="52"/>
       <c r="W33" s="33"/>
       <c r="X33" s="33"/>
       <c r="Y33" s="33"/>
       <c r="Z33" s="33"/>
       <c r="AA33" s="33"/>
       <c r="AB33" s="33"/>
-      <c r="AC33" s="59"/>
+      <c r="AC33" s="55"/>
       <c r="AD33" s="32"/>
       <c r="AE33" s="32"/>
       <c r="AF33" s="32"/>
       <c r="AG33" s="32"/>
       <c r="AH33" s="32"/>
       <c r="AI33" s="32"/>
-      <c r="AJ33" s="52"/>
+      <c r="AJ33" s="47"/>
       <c r="AK33" s="32"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A34" s="46"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A34" s="57"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
       <c r="E34" t="s">
         <v>111</v>
       </c>
@@ -5952,27 +5959,27 @@
       <c r="S34" s="33"/>
       <c r="T34" s="33"/>
       <c r="U34" s="33"/>
-      <c r="V34" s="56"/>
+      <c r="V34" s="52"/>
       <c r="W34" s="33"/>
       <c r="X34" s="33"/>
       <c r="Y34" s="33"/>
       <c r="Z34" s="33"/>
       <c r="AA34" s="33"/>
       <c r="AB34" s="33"/>
-      <c r="AC34" s="59"/>
+      <c r="AC34" s="55"/>
       <c r="AD34" s="32"/>
       <c r="AE34" s="32"/>
       <c r="AF34" s="32"/>
       <c r="AG34" s="32"/>
       <c r="AH34" s="32"/>
       <c r="AI34" s="32"/>
-      <c r="AJ34" s="52"/>
+      <c r="AJ34" s="47"/>
       <c r="AK34" s="32"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A35" s="46"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="47"/>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A35" s="57"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="49"/>
       <c r="D35" t="s">
         <v>24</v>
       </c>
@@ -5990,27 +5997,27 @@
       <c r="S35" s="33"/>
       <c r="T35" s="33"/>
       <c r="U35" s="33"/>
-      <c r="V35" s="56"/>
+      <c r="V35" s="52"/>
       <c r="W35" s="33"/>
       <c r="X35" s="33"/>
       <c r="Y35" s="33"/>
       <c r="Z35" s="33"/>
       <c r="AA35" s="33"/>
       <c r="AB35" s="33"/>
-      <c r="AC35" s="59"/>
+      <c r="AC35" s="55"/>
       <c r="AD35" s="32"/>
       <c r="AE35" s="32"/>
       <c r="AF35" s="32"/>
       <c r="AG35" s="32"/>
       <c r="AH35" s="32"/>
       <c r="AI35" s="32"/>
-      <c r="AJ35" s="52"/>
+      <c r="AJ35" s="47"/>
       <c r="AK35" s="32"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A36" s="46"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="47"/>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A36" s="57"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="49"/>
       <c r="D36" t="s">
         <v>101</v>
       </c>
@@ -6030,27 +6037,27 @@
       <c r="S36" s="33"/>
       <c r="T36" s="33"/>
       <c r="U36" s="33"/>
-      <c r="V36" s="56"/>
+      <c r="V36" s="52"/>
       <c r="W36" s="33"/>
       <c r="X36" s="33"/>
       <c r="Y36" s="33"/>
       <c r="Z36" s="33"/>
       <c r="AA36" s="33"/>
       <c r="AB36" s="33"/>
-      <c r="AC36" s="59"/>
+      <c r="AC36" s="55"/>
       <c r="AD36" s="32"/>
       <c r="AE36" s="32"/>
       <c r="AF36" s="32"/>
       <c r="AG36" s="32"/>
       <c r="AH36" s="32"/>
       <c r="AI36" s="32"/>
-      <c r="AJ36" s="52"/>
+      <c r="AJ36" s="47"/>
       <c r="AK36" s="32"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A37" s="46"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="47"/>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A37" s="57"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="49"/>
       <c r="D37" t="s">
         <v>23</v>
       </c>
@@ -6068,27 +6075,27 @@
       <c r="S37" s="33"/>
       <c r="T37" s="33"/>
       <c r="U37" s="33"/>
-      <c r="V37" s="56"/>
+      <c r="V37" s="52"/>
       <c r="W37" s="33"/>
       <c r="X37" s="33"/>
       <c r="Y37" s="33"/>
       <c r="Z37" s="33"/>
       <c r="AA37" s="33"/>
       <c r="AB37" s="33"/>
-      <c r="AC37" s="59"/>
+      <c r="AC37" s="55"/>
       <c r="AD37" s="32"/>
       <c r="AE37" s="32"/>
       <c r="AF37" s="32"/>
       <c r="AG37" s="32"/>
       <c r="AH37" s="32"/>
       <c r="AI37" s="32"/>
-      <c r="AJ37" s="52"/>
+      <c r="AJ37" s="47"/>
       <c r="AK37" s="32"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A38" s="46"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="47"/>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A38" s="57"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="15" t="s">
         <v>27</v>
       </c>
@@ -6108,27 +6115,27 @@
       <c r="S38" s="33"/>
       <c r="T38" s="33"/>
       <c r="U38" s="33"/>
-      <c r="V38" s="56"/>
+      <c r="V38" s="52"/>
       <c r="W38" s="33"/>
       <c r="X38" s="33"/>
       <c r="Y38" s="33"/>
       <c r="Z38" s="33"/>
       <c r="AA38" s="33"/>
       <c r="AB38" s="33"/>
-      <c r="AC38" s="59"/>
+      <c r="AC38" s="55"/>
       <c r="AD38" s="32"/>
       <c r="AE38" s="32"/>
       <c r="AF38" s="32"/>
       <c r="AG38" s="32"/>
       <c r="AH38" s="32"/>
       <c r="AI38" s="32"/>
-      <c r="AJ38" s="52"/>
+      <c r="AJ38" s="47"/>
       <c r="AK38" s="32"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A39" s="46"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="47"/>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A39" s="57"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="16" t="s">
         <v>45</v>
       </c>
@@ -6148,27 +6155,27 @@
       <c r="S39" s="33"/>
       <c r="T39" s="33"/>
       <c r="U39" s="33"/>
-      <c r="V39" s="56"/>
+      <c r="V39" s="52"/>
       <c r="W39" s="33"/>
       <c r="X39" s="33"/>
       <c r="Y39" s="33"/>
       <c r="Z39" s="33"/>
       <c r="AA39" s="33"/>
       <c r="AB39" s="33"/>
-      <c r="AC39" s="59"/>
+      <c r="AC39" s="55"/>
       <c r="AD39" s="32"/>
       <c r="AE39" s="32"/>
       <c r="AF39" s="32"/>
       <c r="AG39" s="32"/>
       <c r="AH39" s="32"/>
       <c r="AI39" s="32"/>
-      <c r="AJ39" s="52"/>
+      <c r="AJ39" s="47"/>
       <c r="AK39" s="32"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A40" s="46"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="47"/>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A40" s="57"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="49"/>
       <c r="D40" t="s">
         <v>26</v>
       </c>
@@ -6186,27 +6193,27 @@
       <c r="S40" s="33"/>
       <c r="T40" s="33"/>
       <c r="U40" s="33"/>
-      <c r="V40" s="56"/>
+      <c r="V40" s="52"/>
       <c r="W40" s="33"/>
       <c r="X40" s="33"/>
       <c r="Y40" s="33"/>
       <c r="Z40" s="33"/>
       <c r="AA40" s="33"/>
       <c r="AB40" s="33"/>
-      <c r="AC40" s="59"/>
+      <c r="AC40" s="55"/>
       <c r="AD40" s="32"/>
       <c r="AE40" s="32"/>
       <c r="AF40" s="32"/>
       <c r="AG40" s="32"/>
       <c r="AH40" s="32"/>
       <c r="AI40" s="32"/>
-      <c r="AJ40" s="52"/>
+      <c r="AJ40" s="47"/>
       <c r="AK40" s="32"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A41" s="46"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="47" t="s">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A41" s="57"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="49" t="s">
         <v>42</v>
       </c>
       <c r="D41" s="17" t="s">
@@ -6227,27 +6234,27 @@
       <c r="S41" s="33"/>
       <c r="T41" s="33"/>
       <c r="U41" s="33"/>
-      <c r="V41" s="56"/>
+      <c r="V41" s="52"/>
       <c r="W41" s="33"/>
       <c r="X41" s="33"/>
       <c r="Y41" s="33"/>
       <c r="Z41" s="33"/>
       <c r="AA41" s="33"/>
       <c r="AB41" s="33"/>
-      <c r="AC41" s="59"/>
+      <c r="AC41" s="55"/>
       <c r="AD41" s="32"/>
       <c r="AE41" s="32"/>
       <c r="AF41" s="32"/>
       <c r="AG41" s="32"/>
       <c r="AH41" s="32"/>
       <c r="AI41" s="32"/>
-      <c r="AJ41" s="52"/>
+      <c r="AJ41" s="47"/>
       <c r="AK41" s="32"/>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A42" s="46"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="47"/>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A42" s="57"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="49"/>
       <c r="D42" t="s">
         <v>26</v>
       </c>
@@ -6267,27 +6274,27 @@
       <c r="S42" s="33"/>
       <c r="T42" s="33"/>
       <c r="U42" s="33"/>
-      <c r="V42" s="56"/>
+      <c r="V42" s="52"/>
       <c r="W42" s="33"/>
       <c r="X42" s="33"/>
       <c r="Y42" s="33"/>
       <c r="Z42" s="33"/>
       <c r="AA42" s="33"/>
       <c r="AB42" s="33"/>
-      <c r="AC42" s="59"/>
+      <c r="AC42" s="55"/>
       <c r="AD42" s="32"/>
       <c r="AE42" s="32"/>
       <c r="AF42" s="32"/>
       <c r="AG42" s="32"/>
       <c r="AH42" s="32"/>
       <c r="AI42" s="32"/>
-      <c r="AJ42" s="52"/>
+      <c r="AJ42" s="47"/>
       <c r="AK42" s="32"/>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A43" s="46"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="47" t="s">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A43" s="57"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="49" t="s">
         <v>43</v>
       </c>
       <c r="D43" s="16" t="s">
@@ -6308,27 +6315,27 @@
       <c r="S43" s="33"/>
       <c r="T43" s="33"/>
       <c r="U43" s="33"/>
-      <c r="V43" s="56"/>
+      <c r="V43" s="52"/>
       <c r="W43" s="33"/>
       <c r="X43" s="33"/>
       <c r="Y43" s="33"/>
       <c r="Z43" s="33"/>
       <c r="AA43" s="33"/>
       <c r="AB43" s="33"/>
-      <c r="AC43" s="59"/>
+      <c r="AC43" s="55"/>
       <c r="AD43" s="32"/>
       <c r="AE43" s="32"/>
       <c r="AF43" s="32"/>
       <c r="AG43" s="32"/>
       <c r="AH43" s="32"/>
       <c r="AI43" s="32"/>
-      <c r="AJ43" s="52"/>
+      <c r="AJ43" s="47"/>
       <c r="AK43" s="32"/>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A44" s="46"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="47"/>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A44" s="57"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="49"/>
       <c r="F44" s="35"/>
       <c r="G44" s="35"/>
       <c r="J44" s="7">
@@ -6345,27 +6352,27 @@
       <c r="S44" s="33"/>
       <c r="T44" s="33"/>
       <c r="U44" s="33"/>
-      <c r="V44" s="56"/>
+      <c r="V44" s="52"/>
       <c r="W44" s="33"/>
       <c r="X44" s="33"/>
       <c r="Y44" s="33"/>
       <c r="Z44" s="33"/>
       <c r="AA44" s="33"/>
       <c r="AB44" s="33"/>
-      <c r="AC44" s="59"/>
+      <c r="AC44" s="55"/>
       <c r="AD44" s="32"/>
       <c r="AE44" s="32"/>
       <c r="AF44" s="32"/>
       <c r="AG44" s="32"/>
       <c r="AH44" s="32"/>
       <c r="AI44" s="32"/>
-      <c r="AJ44" s="52"/>
+      <c r="AJ44" s="47"/>
       <c r="AK44" s="32"/>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A45" s="46"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="47"/>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A45" s="57"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="49"/>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
       <c r="J45" s="7">
@@ -6382,27 +6389,27 @@
       <c r="S45" s="33"/>
       <c r="T45" s="33"/>
       <c r="U45" s="33"/>
-      <c r="V45" s="56"/>
+      <c r="V45" s="52"/>
       <c r="W45" s="33"/>
       <c r="X45" s="33"/>
       <c r="Y45" s="33"/>
       <c r="Z45" s="33"/>
       <c r="AA45" s="33"/>
       <c r="AB45" s="33"/>
-      <c r="AC45" s="59"/>
+      <c r="AC45" s="55"/>
       <c r="AD45" s="32"/>
       <c r="AE45" s="32"/>
       <c r="AF45" s="32"/>
       <c r="AG45" s="32"/>
       <c r="AH45" s="32"/>
       <c r="AI45" s="32"/>
-      <c r="AJ45" s="52"/>
+      <c r="AJ45" s="47"/>
       <c r="AK45" s="32"/>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A46" s="46"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="47" t="s">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A46" s="57"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="49" t="s">
         <v>17</v>
       </c>
       <c r="D46" t="s">
@@ -6422,27 +6429,27 @@
       <c r="S46" s="33"/>
       <c r="T46" s="33"/>
       <c r="U46" s="33"/>
-      <c r="V46" s="56"/>
+      <c r="V46" s="52"/>
       <c r="W46" s="33"/>
       <c r="X46" s="33"/>
       <c r="Y46" s="33"/>
       <c r="Z46" s="33"/>
       <c r="AA46" s="33"/>
       <c r="AB46" s="33"/>
-      <c r="AC46" s="59"/>
+      <c r="AC46" s="55"/>
       <c r="AD46" s="32"/>
       <c r="AE46" s="32"/>
       <c r="AF46" s="32"/>
       <c r="AG46" s="32"/>
       <c r="AH46" s="32"/>
       <c r="AI46" s="32"/>
-      <c r="AJ46" s="52"/>
+      <c r="AJ46" s="47"/>
       <c r="AK46" s="32"/>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A47" s="46"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="47"/>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A47" s="57"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="49"/>
       <c r="D47" t="s">
         <v>36</v>
       </c>
@@ -6460,27 +6467,27 @@
       <c r="S47" s="33"/>
       <c r="T47" s="33"/>
       <c r="U47" s="33"/>
-      <c r="V47" s="56"/>
+      <c r="V47" s="52"/>
       <c r="W47" s="33"/>
       <c r="X47" s="33"/>
       <c r="Y47" s="33"/>
       <c r="Z47" s="33"/>
       <c r="AA47" s="33"/>
       <c r="AB47" s="33"/>
-      <c r="AC47" s="59"/>
+      <c r="AC47" s="55"/>
       <c r="AD47" s="32"/>
       <c r="AE47" s="32"/>
       <c r="AF47" s="32"/>
       <c r="AG47" s="32"/>
       <c r="AH47" s="32"/>
       <c r="AI47" s="32"/>
-      <c r="AJ47" s="52"/>
+      <c r="AJ47" s="47"/>
       <c r="AK47" s="32"/>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A48" s="46"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="47"/>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A48" s="57"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="49"/>
       <c r="D48" t="s">
         <v>37</v>
       </c>
@@ -6498,27 +6505,27 @@
       <c r="S48" s="33"/>
       <c r="T48" s="33"/>
       <c r="U48" s="33"/>
-      <c r="V48" s="56"/>
+      <c r="V48" s="52"/>
       <c r="W48" s="33"/>
       <c r="X48" s="33"/>
       <c r="Y48" s="33"/>
       <c r="Z48" s="33"/>
       <c r="AA48" s="33"/>
       <c r="AB48" s="33"/>
-      <c r="AC48" s="59"/>
+      <c r="AC48" s="55"/>
       <c r="AD48" s="32"/>
       <c r="AE48" s="32"/>
       <c r="AF48" s="32"/>
       <c r="AG48" s="32"/>
       <c r="AH48" s="32"/>
       <c r="AI48" s="32"/>
-      <c r="AJ48" s="52"/>
+      <c r="AJ48" s="47"/>
       <c r="AK48" s="32"/>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A49" s="46"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="47"/>
+    <row r="49" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A49" s="57"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="49"/>
       <c r="D49" t="s">
         <v>38</v>
       </c>
@@ -6536,27 +6543,27 @@
       <c r="S49" s="33"/>
       <c r="T49" s="33"/>
       <c r="U49" s="33"/>
-      <c r="V49" s="56"/>
+      <c r="V49" s="52"/>
       <c r="W49" s="33"/>
       <c r="X49" s="33"/>
       <c r="Y49" s="33"/>
       <c r="Z49" s="33"/>
       <c r="AA49" s="33"/>
       <c r="AB49" s="33"/>
-      <c r="AC49" s="59"/>
+      <c r="AC49" s="55"/>
       <c r="AD49" s="32"/>
       <c r="AE49" s="32"/>
       <c r="AF49" s="32"/>
       <c r="AG49" s="32"/>
       <c r="AH49" s="32"/>
       <c r="AI49" s="32"/>
-      <c r="AJ49" s="52"/>
+      <c r="AJ49" s="47"/>
       <c r="AK49" s="32"/>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A50" s="46"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="47"/>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A50" s="57"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="49"/>
       <c r="D50" t="s">
         <v>33</v>
       </c>
@@ -6574,26 +6581,26 @@
       <c r="S50" s="33"/>
       <c r="T50" s="33"/>
       <c r="U50" s="33"/>
-      <c r="V50" s="56"/>
+      <c r="V50" s="52"/>
       <c r="W50" s="33"/>
       <c r="X50" s="33"/>
       <c r="Y50" s="33"/>
       <c r="Z50" s="33"/>
       <c r="AA50" s="33"/>
       <c r="AB50" s="33"/>
-      <c r="AC50" s="59"/>
+      <c r="AC50" s="55"/>
       <c r="AD50" s="32"/>
       <c r="AE50" s="32"/>
       <c r="AF50" s="32"/>
       <c r="AG50" s="32"/>
       <c r="AH50" s="32"/>
       <c r="AI50" s="32"/>
-      <c r="AJ50" s="52"/>
+      <c r="AJ50" s="47"/>
       <c r="AK50" s="32"/>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A51" s="46"/>
-      <c r="B51" s="54"/>
+    <row r="51" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A51" s="57"/>
+      <c r="B51" s="50"/>
       <c r="J51" s="7">
         <v>0</v>
       </c>
@@ -6608,26 +6615,26 @@
       <c r="S51" s="33"/>
       <c r="T51" s="33"/>
       <c r="U51" s="33"/>
-      <c r="V51" s="56"/>
+      <c r="V51" s="52"/>
       <c r="W51" s="33"/>
       <c r="X51" s="33"/>
       <c r="Y51" s="33"/>
       <c r="Z51" s="33"/>
       <c r="AA51" s="33"/>
       <c r="AB51" s="33"/>
-      <c r="AC51" s="59"/>
+      <c r="AC51" s="55"/>
       <c r="AD51" s="32"/>
       <c r="AE51" s="32"/>
       <c r="AF51" s="32"/>
       <c r="AG51" s="32"/>
       <c r="AH51" s="32"/>
       <c r="AI51" s="32"/>
-      <c r="AJ51" s="52"/>
+      <c r="AJ51" s="47"/>
       <c r="AK51" s="32"/>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A52" s="46"/>
-      <c r="B52" s="54"/>
+    <row r="52" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A52" s="57"/>
+      <c r="B52" s="50"/>
       <c r="C52" s="10" t="s">
         <v>131</v>
       </c>
@@ -6648,26 +6655,26 @@
       <c r="S52" s="33"/>
       <c r="T52" s="33"/>
       <c r="U52" s="33"/>
-      <c r="V52" s="56"/>
+      <c r="V52" s="52"/>
       <c r="W52" s="33"/>
       <c r="X52" s="33"/>
       <c r="Y52" s="33"/>
       <c r="Z52" s="33"/>
       <c r="AA52" s="33"/>
       <c r="AB52" s="33"/>
-      <c r="AC52" s="59"/>
+      <c r="AC52" s="55"/>
       <c r="AD52" s="32"/>
       <c r="AE52" s="32"/>
       <c r="AF52" s="32"/>
       <c r="AG52" s="32"/>
       <c r="AH52" s="32"/>
       <c r="AI52" s="32"/>
-      <c r="AJ52" s="52"/>
+      <c r="AJ52" s="47"/>
       <c r="AK52" s="32"/>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A53" s="46"/>
-      <c r="B53" s="54"/>
+    <row r="53" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A53" s="57"/>
+      <c r="B53" s="50"/>
       <c r="J53" s="7">
         <v>0</v>
       </c>
@@ -6682,26 +6689,26 @@
       <c r="S53" s="33"/>
       <c r="T53" s="33"/>
       <c r="U53" s="33"/>
-      <c r="V53" s="56"/>
+      <c r="V53" s="52"/>
       <c r="W53" s="33"/>
       <c r="X53" s="33"/>
       <c r="Y53" s="33"/>
       <c r="Z53" s="33"/>
       <c r="AA53" s="33"/>
       <c r="AB53" s="33"/>
-      <c r="AC53" s="59"/>
+      <c r="AC53" s="55"/>
       <c r="AD53" s="32"/>
       <c r="AE53" s="32"/>
       <c r="AF53" s="32"/>
       <c r="AG53" s="32"/>
       <c r="AH53" s="32"/>
       <c r="AI53" s="32"/>
-      <c r="AJ53" s="52"/>
+      <c r="AJ53" s="47"/>
       <c r="AK53" s="32"/>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A54" s="46"/>
-      <c r="B54" s="54"/>
+    <row r="54" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A54" s="57"/>
+      <c r="B54" s="50"/>
       <c r="J54" s="7">
         <v>0</v>
       </c>
@@ -6716,26 +6723,26 @@
       <c r="S54" s="33"/>
       <c r="T54" s="33"/>
       <c r="U54" s="33"/>
-      <c r="V54" s="56"/>
+      <c r="V54" s="52"/>
       <c r="W54" s="33"/>
       <c r="X54" s="33"/>
       <c r="Y54" s="33"/>
       <c r="Z54" s="33"/>
       <c r="AA54" s="33"/>
       <c r="AB54" s="33"/>
-      <c r="AC54" s="59"/>
+      <c r="AC54" s="55"/>
       <c r="AD54" s="32"/>
       <c r="AE54" s="32"/>
       <c r="AF54" s="32"/>
       <c r="AG54" s="32"/>
       <c r="AH54" s="32"/>
       <c r="AI54" s="32"/>
-      <c r="AJ54" s="52"/>
+      <c r="AJ54" s="47"/>
       <c r="AK54" s="32"/>
     </row>
-    <row r="55" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="46"/>
-      <c r="B55" s="54"/>
+    <row r="55" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="57"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="13" t="s">
         <v>76</v>
       </c>
@@ -6761,32 +6768,32 @@
       <c r="S55" s="34"/>
       <c r="T55" s="34"/>
       <c r="U55" s="34"/>
-      <c r="V55" s="56"/>
+      <c r="V55" s="52"/>
       <c r="W55" s="34"/>
       <c r="X55" s="34"/>
       <c r="Y55" s="34"/>
       <c r="Z55" s="34"/>
       <c r="AA55" s="34"/>
       <c r="AB55" s="34"/>
-      <c r="AC55" s="59"/>
+      <c r="AC55" s="55"/>
       <c r="AD55" s="32"/>
       <c r="AE55" s="32"/>
       <c r="AF55" s="32"/>
       <c r="AG55" s="32"/>
       <c r="AH55" s="32"/>
       <c r="AI55" s="32"/>
-      <c r="AJ55" s="52"/>
+      <c r="AJ55" s="47"/>
       <c r="AK55" s="32"/>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A56" s="46"/>
-      <c r="B56" s="50" t="s">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A56" s="57"/>
+      <c r="B56" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="C56" s="47" t="s">
+      <c r="C56" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D56" s="47" t="s">
+      <c r="D56" s="49" t="s">
         <v>29</v>
       </c>
       <c r="E56" t="s">
@@ -6818,28 +6825,28 @@
       <c r="S56" s="33"/>
       <c r="T56" s="33"/>
       <c r="U56" s="33"/>
-      <c r="V56" s="56"/>
+      <c r="V56" s="52"/>
       <c r="W56" s="33"/>
       <c r="X56" s="33"/>
       <c r="Y56" s="33"/>
       <c r="Z56" s="33"/>
       <c r="AA56" s="33"/>
       <c r="AB56" s="33"/>
-      <c r="AC56" s="59"/>
+      <c r="AC56" s="55"/>
       <c r="AD56" s="32"/>
       <c r="AE56" s="32"/>
       <c r="AF56" s="32"/>
       <c r="AG56" s="32"/>
       <c r="AH56" s="32"/>
       <c r="AI56" s="32"/>
-      <c r="AJ56" s="52"/>
+      <c r="AJ56" s="47"/>
       <c r="AK56" s="32"/>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A57" s="46"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
+    <row r="57" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A57" s="57"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
       <c r="E57" t="s">
         <v>140</v>
       </c>
@@ -6869,30 +6876,30 @@
       <c r="S57" s="33"/>
       <c r="T57" s="33"/>
       <c r="U57" s="33"/>
-      <c r="V57" s="56"/>
+      <c r="V57" s="52"/>
       <c r="W57" s="33"/>
       <c r="X57" s="33"/>
       <c r="Y57" s="33"/>
       <c r="Z57" s="33"/>
       <c r="AA57" s="33"/>
       <c r="AB57" s="33"/>
-      <c r="AC57" s="59"/>
+      <c r="AC57" s="55"/>
       <c r="AD57" s="32"/>
       <c r="AE57" s="32"/>
       <c r="AF57" s="32"/>
       <c r="AG57" s="32"/>
       <c r="AH57" s="32"/>
       <c r="AI57" s="32"/>
-      <c r="AJ57" s="52"/>
+      <c r="AJ57" s="47"/>
       <c r="AK57" s="32"/>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A58" s="46"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="47" t="s">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A58" s="57"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="47" t="s">
+      <c r="D58" s="49" t="s">
         <v>102</v>
       </c>
       <c r="E58" t="s">
@@ -6914,28 +6921,28 @@
       <c r="S58" s="33"/>
       <c r="T58" s="33"/>
       <c r="U58" s="33"/>
-      <c r="V58" s="56"/>
+      <c r="V58" s="52"/>
       <c r="W58" s="33"/>
       <c r="X58" s="33"/>
       <c r="Y58" s="33"/>
       <c r="Z58" s="33"/>
       <c r="AA58" s="33"/>
       <c r="AB58" s="33"/>
-      <c r="AC58" s="59"/>
+      <c r="AC58" s="55"/>
       <c r="AD58" s="32"/>
       <c r="AE58" s="32"/>
       <c r="AF58" s="32"/>
       <c r="AG58" s="32"/>
       <c r="AH58" s="32"/>
       <c r="AI58" s="32"/>
-      <c r="AJ58" s="52"/>
+      <c r="AJ58" s="47"/>
       <c r="AK58" s="32"/>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A59" s="46"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
+    <row r="59" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A59" s="57"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
       <c r="E59" t="s">
         <v>115</v>
       </c>
@@ -6955,28 +6962,28 @@
       <c r="S59" s="33"/>
       <c r="T59" s="33"/>
       <c r="U59" s="33"/>
-      <c r="V59" s="56"/>
+      <c r="V59" s="52"/>
       <c r="W59" s="33"/>
       <c r="X59" s="33"/>
       <c r="Y59" s="33"/>
       <c r="Z59" s="33"/>
       <c r="AA59" s="33"/>
       <c r="AB59" s="33"/>
-      <c r="AC59" s="59"/>
+      <c r="AC59" s="55"/>
       <c r="AD59" s="32"/>
       <c r="AE59" s="32"/>
       <c r="AF59" s="32"/>
       <c r="AG59" s="32"/>
       <c r="AH59" s="32"/>
       <c r="AI59" s="32"/>
-      <c r="AJ59" s="52"/>
+      <c r="AJ59" s="47"/>
       <c r="AK59" s="32"/>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A60" s="46"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
+    <row r="60" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A60" s="57"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
       <c r="E60" t="s">
         <v>116</v>
       </c>
@@ -6996,27 +7003,27 @@
       <c r="S60" s="33"/>
       <c r="T60" s="33"/>
       <c r="U60" s="33"/>
-      <c r="V60" s="56"/>
+      <c r="V60" s="52"/>
       <c r="W60" s="33"/>
       <c r="X60" s="33"/>
       <c r="Y60" s="33"/>
       <c r="Z60" s="33"/>
       <c r="AA60" s="33"/>
       <c r="AB60" s="33"/>
-      <c r="AC60" s="59"/>
+      <c r="AC60" s="55"/>
       <c r="AD60" s="32"/>
       <c r="AE60" s="32"/>
       <c r="AF60" s="32"/>
       <c r="AG60" s="32"/>
       <c r="AH60" s="32"/>
       <c r="AI60" s="32"/>
-      <c r="AJ60" s="52"/>
+      <c r="AJ60" s="47"/>
       <c r="AK60" s="32"/>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A61" s="46"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="47"/>
+    <row r="61" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A61" s="57"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="49"/>
       <c r="D61" t="s">
         <v>104</v>
       </c>
@@ -7036,27 +7043,27 @@
       <c r="S61" s="33"/>
       <c r="T61" s="33"/>
       <c r="U61" s="33"/>
-      <c r="V61" s="56"/>
+      <c r="V61" s="52"/>
       <c r="W61" s="33"/>
       <c r="X61" s="33"/>
       <c r="Y61" s="33"/>
       <c r="Z61" s="33"/>
       <c r="AA61" s="33"/>
       <c r="AB61" s="33"/>
-      <c r="AC61" s="59"/>
+      <c r="AC61" s="55"/>
       <c r="AD61" s="32"/>
       <c r="AE61" s="32"/>
       <c r="AF61" s="32"/>
       <c r="AG61" s="32"/>
       <c r="AH61" s="32"/>
       <c r="AI61" s="32"/>
-      <c r="AJ61" s="52"/>
+      <c r="AJ61" s="47"/>
       <c r="AK61" s="32"/>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A62" s="46"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="47"/>
+    <row r="62" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A62" s="57"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="49"/>
       <c r="F62" s="36"/>
       <c r="G62" s="36"/>
       <c r="J62" s="7">
@@ -7073,27 +7080,27 @@
       <c r="S62" s="33"/>
       <c r="T62" s="33"/>
       <c r="U62" s="33"/>
-      <c r="V62" s="56"/>
+      <c r="V62" s="52"/>
       <c r="W62" s="33"/>
       <c r="X62" s="33"/>
       <c r="Y62" s="33"/>
       <c r="Z62" s="33"/>
       <c r="AA62" s="33"/>
       <c r="AB62" s="33"/>
-      <c r="AC62" s="59"/>
+      <c r="AC62" s="55"/>
       <c r="AD62" s="32"/>
       <c r="AE62" s="32"/>
       <c r="AF62" s="32"/>
       <c r="AG62" s="32"/>
       <c r="AH62" s="32"/>
       <c r="AI62" s="32"/>
-      <c r="AJ62" s="52"/>
+      <c r="AJ62" s="47"/>
       <c r="AK62" s="32"/>
     </row>
-    <row r="63" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="46"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="47" t="s">
+    <row r="63" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A63" s="57"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="49" t="s">
         <v>44</v>
       </c>
       <c r="D63" t="s">
@@ -7114,27 +7121,27 @@
       <c r="S63" s="33"/>
       <c r="T63" s="33"/>
       <c r="U63" s="33"/>
-      <c r="V63" s="56"/>
+      <c r="V63" s="52"/>
       <c r="W63" s="33"/>
       <c r="X63" s="33"/>
       <c r="Y63" s="33"/>
       <c r="Z63" s="33"/>
       <c r="AA63" s="33"/>
       <c r="AB63" s="33"/>
-      <c r="AC63" s="59"/>
+      <c r="AC63" s="55"/>
       <c r="AD63" s="32"/>
       <c r="AE63" s="32"/>
       <c r="AF63" s="32"/>
       <c r="AG63" s="32"/>
       <c r="AH63" s="32"/>
       <c r="AI63" s="32"/>
-      <c r="AJ63" s="52"/>
+      <c r="AJ63" s="47"/>
       <c r="AK63" s="32"/>
     </row>
-    <row r="64" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="46"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="47"/>
+    <row r="64" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A64" s="57"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="49"/>
       <c r="D64" t="s">
         <v>105</v>
       </c>
@@ -7154,26 +7161,26 @@
       <c r="S64" s="33"/>
       <c r="T64" s="33"/>
       <c r="U64" s="33"/>
-      <c r="V64" s="56"/>
+      <c r="V64" s="52"/>
       <c r="W64" s="33"/>
       <c r="X64" s="33"/>
       <c r="Y64" s="33"/>
       <c r="Z64" s="33"/>
       <c r="AA64" s="33"/>
       <c r="AB64" s="33"/>
-      <c r="AC64" s="59"/>
+      <c r="AC64" s="55"/>
       <c r="AD64" s="32"/>
       <c r="AE64" s="32"/>
       <c r="AF64" s="32"/>
       <c r="AG64" s="32"/>
       <c r="AH64" s="32"/>
       <c r="AI64" s="32"/>
-      <c r="AJ64" s="52"/>
+      <c r="AJ64" s="47"/>
       <c r="AK64" s="32"/>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A65" s="46"/>
-      <c r="B65" s="50"/>
+    <row r="65" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A65" s="57"/>
+      <c r="B65" s="60"/>
       <c r="C65" s="14" t="s">
         <v>96</v>
       </c>
@@ -7192,26 +7199,26 @@
       <c r="S65" s="33"/>
       <c r="T65" s="33"/>
       <c r="U65" s="33"/>
-      <c r="V65" s="56"/>
+      <c r="V65" s="52"/>
       <c r="W65" s="33"/>
       <c r="X65" s="33"/>
       <c r="Y65" s="33"/>
       <c r="Z65" s="33"/>
       <c r="AA65" s="33"/>
       <c r="AB65" s="33"/>
-      <c r="AC65" s="59"/>
+      <c r="AC65" s="55"/>
       <c r="AD65" s="32"/>
       <c r="AE65" s="32"/>
       <c r="AF65" s="32"/>
       <c r="AG65" s="32"/>
       <c r="AH65" s="32"/>
       <c r="AI65" s="32"/>
-      <c r="AJ65" s="52"/>
+      <c r="AJ65" s="47"/>
       <c r="AK65" s="32"/>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A66" s="46"/>
-      <c r="B66" s="50"/>
+    <row r="66" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A66" s="57"/>
+      <c r="B66" s="60"/>
       <c r="C66" s="10" t="s">
         <v>24</v>
       </c>
@@ -7229,27 +7236,27 @@
       <c r="S66" s="33"/>
       <c r="T66" s="33"/>
       <c r="U66" s="33"/>
-      <c r="V66" s="56"/>
+      <c r="V66" s="52"/>
       <c r="W66" s="33"/>
       <c r="X66" s="33"/>
       <c r="Y66" s="33"/>
       <c r="Z66" s="33"/>
       <c r="AA66" s="33"/>
       <c r="AB66" s="33"/>
-      <c r="AC66" s="59"/>
+      <c r="AC66" s="55"/>
       <c r="AD66" s="32"/>
       <c r="AE66" s="32"/>
       <c r="AF66" s="32"/>
       <c r="AG66" s="32"/>
       <c r="AH66" s="32"/>
       <c r="AI66" s="32"/>
-      <c r="AJ66" s="52"/>
+      <c r="AJ66" s="47"/>
       <c r="AK66" s="32"/>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A67" s="46"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="47" t="s">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A67" s="57"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="49" t="s">
         <v>13</v>
       </c>
       <c r="D67" t="s">
@@ -7281,27 +7288,27 @@
       <c r="S67" s="33"/>
       <c r="T67" s="33"/>
       <c r="U67" s="33"/>
-      <c r="V67" s="56"/>
+      <c r="V67" s="52"/>
       <c r="W67" s="33"/>
       <c r="X67" s="33"/>
       <c r="Y67" s="33"/>
       <c r="Z67" s="33"/>
       <c r="AA67" s="33"/>
       <c r="AB67" s="33"/>
-      <c r="AC67" s="59"/>
+      <c r="AC67" s="55"/>
       <c r="AD67" s="32"/>
       <c r="AE67" s="32"/>
       <c r="AF67" s="32"/>
       <c r="AG67" s="32"/>
       <c r="AH67" s="32"/>
       <c r="AI67" s="32"/>
-      <c r="AJ67" s="52"/>
+      <c r="AJ67" s="47"/>
       <c r="AK67" s="32"/>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A68" s="46"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="47"/>
+    <row r="68" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A68" s="57"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="49"/>
       <c r="D68" t="s">
         <v>136</v>
       </c>
@@ -7331,27 +7338,27 @@
       <c r="S68" s="33"/>
       <c r="T68" s="33"/>
       <c r="U68" s="33"/>
-      <c r="V68" s="56"/>
+      <c r="V68" s="52"/>
       <c r="W68" s="33"/>
       <c r="X68" s="33"/>
       <c r="Y68" s="33"/>
       <c r="Z68" s="33"/>
       <c r="AA68" s="33"/>
       <c r="AB68" s="33"/>
-      <c r="AC68" s="59"/>
+      <c r="AC68" s="55"/>
       <c r="AD68" s="32"/>
       <c r="AE68" s="32"/>
       <c r="AF68" s="32"/>
       <c r="AG68" s="32"/>
       <c r="AH68" s="32"/>
       <c r="AI68" s="32"/>
-      <c r="AJ68" s="52"/>
+      <c r="AJ68" s="47"/>
       <c r="AK68" s="32"/>
     </row>
-    <row r="69" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="46"/>
-      <c r="B69" s="50"/>
-      <c r="C69" s="47" t="s">
+    <row r="69" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A69" s="57"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="49" t="s">
         <v>106</v>
       </c>
       <c r="D69" t="s">
@@ -7373,27 +7380,27 @@
       <c r="S69" s="33"/>
       <c r="T69" s="33"/>
       <c r="U69" s="33"/>
-      <c r="V69" s="56"/>
+      <c r="V69" s="52"/>
       <c r="W69" s="33"/>
       <c r="X69" s="33"/>
       <c r="Y69" s="33"/>
       <c r="Z69" s="33"/>
       <c r="AA69" s="33"/>
       <c r="AB69" s="33"/>
-      <c r="AC69" s="59"/>
+      <c r="AC69" s="55"/>
       <c r="AD69" s="32"/>
       <c r="AE69" s="32"/>
       <c r="AF69" s="32"/>
       <c r="AG69" s="32"/>
       <c r="AH69" s="32"/>
       <c r="AI69" s="32"/>
-      <c r="AJ69" s="52"/>
+      <c r="AJ69" s="47"/>
       <c r="AK69" s="32"/>
     </row>
-    <row r="70" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="46"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="47"/>
+    <row r="70" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A70" s="57"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="49"/>
       <c r="D70" t="s">
         <v>108</v>
       </c>
@@ -7413,27 +7420,27 @@
       <c r="S70" s="33"/>
       <c r="T70" s="33"/>
       <c r="U70" s="33"/>
-      <c r="V70" s="56"/>
+      <c r="V70" s="52"/>
       <c r="W70" s="33"/>
       <c r="X70" s="33"/>
       <c r="Y70" s="33"/>
       <c r="Z70" s="33"/>
       <c r="AA70" s="33"/>
       <c r="AB70" s="33"/>
-      <c r="AC70" s="59"/>
+      <c r="AC70" s="55"/>
       <c r="AD70" s="32"/>
       <c r="AE70" s="32"/>
       <c r="AF70" s="32"/>
       <c r="AG70" s="32"/>
       <c r="AH70" s="32"/>
       <c r="AI70" s="32"/>
-      <c r="AJ70" s="52"/>
+      <c r="AJ70" s="47"/>
       <c r="AK70" s="32"/>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A71" s="46"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="47" t="s">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A71" s="57"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="49" t="s">
         <v>30</v>
       </c>
       <c r="D71" t="s">
@@ -7453,27 +7460,27 @@
       <c r="S71" s="33"/>
       <c r="T71" s="33"/>
       <c r="U71" s="33"/>
-      <c r="V71" s="56"/>
+      <c r="V71" s="52"/>
       <c r="W71" s="33"/>
       <c r="X71" s="33"/>
       <c r="Y71" s="33"/>
       <c r="Z71" s="33"/>
       <c r="AA71" s="33"/>
       <c r="AB71" s="33"/>
-      <c r="AC71" s="59"/>
+      <c r="AC71" s="55"/>
       <c r="AD71" s="32"/>
       <c r="AE71" s="32"/>
       <c r="AF71" s="32"/>
       <c r="AG71" s="32"/>
       <c r="AH71" s="32"/>
       <c r="AI71" s="32"/>
-      <c r="AJ71" s="52"/>
+      <c r="AJ71" s="47"/>
       <c r="AK71" s="32"/>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A72" s="46"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="47"/>
+    <row r="72" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A72" s="57"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="49"/>
       <c r="D72" t="s">
         <v>32</v>
       </c>
@@ -7491,27 +7498,27 @@
       <c r="S72" s="33"/>
       <c r="T72" s="33"/>
       <c r="U72" s="33"/>
-      <c r="V72" s="56"/>
+      <c r="V72" s="52"/>
       <c r="W72" s="33"/>
       <c r="X72" s="33"/>
       <c r="Y72" s="33"/>
       <c r="Z72" s="33"/>
       <c r="AA72" s="33"/>
       <c r="AB72" s="33"/>
-      <c r="AC72" s="59"/>
+      <c r="AC72" s="55"/>
       <c r="AD72" s="32"/>
       <c r="AE72" s="32"/>
       <c r="AF72" s="32"/>
       <c r="AG72" s="32"/>
       <c r="AH72" s="32"/>
       <c r="AI72" s="32"/>
-      <c r="AJ72" s="52"/>
+      <c r="AJ72" s="47"/>
       <c r="AK72" s="32"/>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A73" s="46"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="47"/>
+    <row r="73" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A73" s="57"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="49"/>
       <c r="D73" t="s">
         <v>33</v>
       </c>
@@ -7529,25 +7536,25 @@
       <c r="S73" s="33"/>
       <c r="T73" s="33"/>
       <c r="U73" s="33"/>
-      <c r="V73" s="57"/>
+      <c r="V73" s="53"/>
       <c r="W73" s="33"/>
       <c r="X73" s="33"/>
       <c r="Y73" s="33"/>
       <c r="Z73" s="33"/>
       <c r="AA73" s="33"/>
       <c r="AB73" s="33"/>
-      <c r="AC73" s="60"/>
+      <c r="AC73" s="56"/>
       <c r="AD73" s="32"/>
       <c r="AE73" s="32"/>
       <c r="AF73" s="32"/>
       <c r="AG73" s="32"/>
       <c r="AH73" s="32"/>
       <c r="AI73" s="32"/>
-      <c r="AJ73" s="53"/>
+      <c r="AJ73" s="48"/>
       <c r="AK73" s="32"/>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A74" s="46"/>
+    <row r="74" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A74" s="57"/>
       <c r="B74" s="11" t="s">
         <v>21</v>
       </c>
@@ -7563,6 +7570,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A5:A74"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B56:B73"/>
+    <mergeCell ref="C67:C68"/>
     <mergeCell ref="AJ5:AJ73"/>
     <mergeCell ref="C18:C40"/>
     <mergeCell ref="B11:B55"/>
@@ -7576,18 +7595,6 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="D56:D57"/>
-    <mergeCell ref="A5:A74"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B56:B73"/>
-    <mergeCell ref="C67:C68"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K3:AK5 K6:U73 AK6:AK73 W6:AB73 AD6:AI73">
@@ -7655,31 +7662,31 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="11" max="11" width="32.375" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="53.375" customWidth="1"/>
+    <col min="11" max="11" width="32.3984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="53.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-    </row>
-    <row r="4" spans="2:14" ht="45.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+    </row>
+    <row r="4" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
       <c r="K4" s="24" t="s">
         <v>78</v>
       </c>
@@ -7687,15 +7694,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
+    <row r="5" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
       <c r="K5" s="25" t="s">
         <v>80</v>
       </c>
@@ -7703,15 +7710,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+    <row r="6" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
       <c r="K6" s="25" t="s">
         <v>81</v>
       </c>
@@ -7719,208 +7726,208 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
+    <row r="7" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
       <c r="K7" s="25" t="s">
         <v>82</v>
       </c>
       <c r="L7" s="26"/>
     </row>
-    <row r="8" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
+    <row r="8" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
       <c r="K8" s="25" t="s">
         <v>83</v>
       </c>
       <c r="L8" s="26"/>
     </row>
-    <row r="9" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+    <row r="9" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
       <c r="K9" s="25" t="s">
         <v>84</v>
       </c>
       <c r="L9" s="26"/>
     </row>
-    <row r="10" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+    <row r="10" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
       <c r="K10" s="25" t="s">
         <v>85</v>
       </c>
       <c r="L10" s="26"/>
     </row>
-    <row r="11" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
+    <row r="11" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
       <c r="K11" s="25" t="s">
         <v>86</v>
       </c>
       <c r="L11" s="26"/>
       <c r="N11" s="23"/>
     </row>
-    <row r="12" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
+    <row r="12" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
       <c r="K12" s="25" t="s">
         <v>87</v>
       </c>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+    <row r="13" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
       <c r="K13" s="25" t="s">
         <v>88</v>
       </c>
       <c r="L13" s="26"/>
     </row>
-    <row r="14" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
+    <row r="14" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
       <c r="K14" s="25" t="s">
         <v>89</v>
       </c>
       <c r="L14" s="26"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7939,7 +7946,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7954,40 +7961,40 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.25" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="18" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" style="18" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="14"/>
       <c r="B4" s="27" t="s">
         <v>54</v>
@@ -8003,7 +8010,7 @@
       </c>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="28" t="s">
         <v>48</v>
       </c>
@@ -8015,7 +8022,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="28" t="s">
         <v>49</v>
       </c>
@@ -8029,7 +8036,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="28" t="s">
         <v>70</v>
       </c>
@@ -8041,7 +8048,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="28" t="s">
         <v>50</v>
       </c>
@@ -8053,7 +8060,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="28" t="s">
         <v>51</v>
       </c>
@@ -8065,7 +8072,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="62" t="s">
         <v>67</v>
       </c>
@@ -8079,7 +8086,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" s="62"/>
       <c r="C11" s="2" t="s">
         <v>73</v>
@@ -8087,7 +8094,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" s="28" t="s">
         <v>52</v>
       </c>
@@ -8101,7 +8108,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" s="28" t="s">
         <v>53</v>
       </c>
@@ -8113,7 +8120,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" s="28" t="s">
         <v>64</v>
       </c>
@@ -8125,25 +8132,25 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" s="28"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B16" s="28"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="28"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="28" t="s">
         <v>56</v>
       </c>
@@ -8169,15 +8176,15 @@
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="4.8984375" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/schedule/ガントチャートxlsx.xlsx
+++ b/schedule/ガントチャートxlsx.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81909\Desktop\okashi_222\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\okashi_222\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14928" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="150">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -1064,10 +1064,6 @@
     <rPh sb="1" eb="2">
       <t>ニチ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>a</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1673,6 +1669,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1681,9 +1692,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1705,18 +1713,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4358,34 +4354,34 @@
   <dimension ref="A1:AS74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.19921875" customWidth="1"/>
-    <col min="5" max="5" width="22.59765625" customWidth="1"/>
-    <col min="6" max="6" width="7.09765625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.25" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="9" width="7.09765625" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="5" customWidth="1"/>
     <col min="12" max="15" width="3.5" customWidth="1"/>
-    <col min="16" max="16" width="4.3984375" customWidth="1"/>
+    <col min="16" max="16" width="4.375" customWidth="1"/>
     <col min="17" max="17" width="3.5" customWidth="1"/>
-    <col min="18" max="18" width="3.8984375" customWidth="1"/>
+    <col min="18" max="18" width="3.875" customWidth="1"/>
     <col min="19" max="35" width="3.5" customWidth="1"/>
-    <col min="36" max="36" width="6.69921875" customWidth="1"/>
+    <col min="36" max="36" width="6.75" customWidth="1"/>
     <col min="37" max="45" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:45" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B1" s="29" t="s">
         <v>92</v>
       </c>
@@ -4417,7 +4413,7 @@
       </c>
       <c r="U1" s="40"/>
     </row>
-    <row r="3" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K3" s="30">
         <v>44116</v>
       </c>
@@ -4508,7 +4504,7 @@
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
     </row>
-    <row r="4" spans="1:45" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:45" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -4645,11 +4641,11 @@
         <v>44142</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="57" t="s">
+    <row r="5" spans="1:45" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -4681,7 +4677,7 @@
       <c r="S5" s="32"/>
       <c r="T5" s="32"/>
       <c r="U5" s="32"/>
-      <c r="V5" s="51" t="s">
+      <c r="V5" s="55" t="s">
         <v>118</v>
       </c>
       <c r="W5" s="32"/>
@@ -4690,7 +4686,7 @@
       <c r="Z5" s="32"/>
       <c r="AA5" s="32"/>
       <c r="AB5" s="32"/>
-      <c r="AC5" s="54" t="s">
+      <c r="AC5" s="58" t="s">
         <v>119</v>
       </c>
       <c r="AD5" s="32"/>
@@ -4699,14 +4695,14 @@
       <c r="AG5" s="32"/>
       <c r="AH5" s="32"/>
       <c r="AI5" s="32"/>
-      <c r="AJ5" s="46" t="s">
+      <c r="AJ5" s="51" t="s">
         <v>94</v>
       </c>
       <c r="AK5" s="32"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A6" s="57"/>
-      <c r="B6" s="59"/>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A6" s="46"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
@@ -4730,26 +4726,26 @@
       <c r="S6" s="33"/>
       <c r="T6" s="33"/>
       <c r="U6" s="33"/>
-      <c r="V6" s="52"/>
+      <c r="V6" s="56"/>
       <c r="W6" s="33"/>
       <c r="X6" s="33"/>
       <c r="Y6" s="33"/>
       <c r="Z6" s="33"/>
       <c r="AA6" s="33"/>
       <c r="AB6" s="33"/>
-      <c r="AC6" s="55"/>
+      <c r="AC6" s="59"/>
       <c r="AD6" s="32"/>
       <c r="AE6" s="32"/>
       <c r="AF6" s="32"/>
       <c r="AG6" s="32"/>
       <c r="AH6" s="32"/>
       <c r="AI6" s="32"/>
-      <c r="AJ6" s="47"/>
+      <c r="AJ6" s="52"/>
       <c r="AK6" s="32"/>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A7" s="57"/>
-      <c r="B7" s="59"/>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A7" s="46"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
@@ -4770,26 +4766,26 @@
       <c r="S7" s="33"/>
       <c r="T7" s="33"/>
       <c r="U7" s="33"/>
-      <c r="V7" s="52"/>
+      <c r="V7" s="56"/>
       <c r="W7" s="33"/>
       <c r="X7" s="33"/>
       <c r="Y7" s="33"/>
       <c r="Z7" s="33"/>
       <c r="AA7" s="33"/>
       <c r="AB7" s="33"/>
-      <c r="AC7" s="55"/>
+      <c r="AC7" s="59"/>
       <c r="AD7" s="32"/>
       <c r="AE7" s="32"/>
       <c r="AF7" s="32"/>
       <c r="AG7" s="32"/>
       <c r="AH7" s="32"/>
       <c r="AI7" s="32"/>
-      <c r="AJ7" s="47"/>
+      <c r="AJ7" s="52"/>
       <c r="AK7" s="32"/>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A8" s="57"/>
-      <c r="B8" s="59"/>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A8" s="46"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
@@ -4813,26 +4809,26 @@
       <c r="S8" s="33"/>
       <c r="T8" s="33"/>
       <c r="U8" s="33"/>
-      <c r="V8" s="52"/>
+      <c r="V8" s="56"/>
       <c r="W8" s="33"/>
       <c r="X8" s="33"/>
       <c r="Y8" s="33"/>
       <c r="Z8" s="33"/>
       <c r="AA8" s="33"/>
       <c r="AB8" s="33"/>
-      <c r="AC8" s="55"/>
+      <c r="AC8" s="59"/>
       <c r="AD8" s="32"/>
       <c r="AE8" s="32"/>
       <c r="AF8" s="32"/>
       <c r="AG8" s="32"/>
       <c r="AH8" s="32"/>
       <c r="AI8" s="32"/>
-      <c r="AJ8" s="47"/>
+      <c r="AJ8" s="52"/>
       <c r="AK8" s="32"/>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A9" s="57"/>
-      <c r="B9" s="59"/>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A9" s="46"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="10" t="s">
         <v>34</v>
       </c>
@@ -4853,26 +4849,26 @@
       <c r="S9" s="33"/>
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
-      <c r="V9" s="52"/>
+      <c r="V9" s="56"/>
       <c r="W9" s="33"/>
       <c r="X9" s="33"/>
       <c r="Y9" s="33"/>
       <c r="Z9" s="33"/>
       <c r="AA9" s="33"/>
       <c r="AB9" s="33"/>
-      <c r="AC9" s="55"/>
+      <c r="AC9" s="59"/>
       <c r="AD9" s="32"/>
       <c r="AE9" s="32"/>
       <c r="AF9" s="32"/>
       <c r="AG9" s="32"/>
       <c r="AH9" s="32"/>
       <c r="AI9" s="32"/>
-      <c r="AJ9" s="47"/>
+      <c r="AJ9" s="52"/>
       <c r="AK9" s="32"/>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A10" s="57"/>
-      <c r="B10" s="59"/>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A10" s="46"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="10" t="s">
         <v>35</v>
       </c>
@@ -4893,29 +4889,29 @@
       <c r="S10" s="33"/>
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
-      <c r="V10" s="52"/>
+      <c r="V10" s="56"/>
       <c r="W10" s="33"/>
       <c r="X10" s="33"/>
       <c r="Y10" s="33"/>
       <c r="Z10" s="33"/>
       <c r="AA10" s="33"/>
       <c r="AB10" s="33"/>
-      <c r="AC10" s="55"/>
+      <c r="AC10" s="59"/>
       <c r="AD10" s="32"/>
       <c r="AE10" s="32"/>
       <c r="AF10" s="32"/>
       <c r="AG10" s="32"/>
       <c r="AH10" s="32"/>
       <c r="AI10" s="32"/>
-      <c r="AJ10" s="47"/>
+      <c r="AJ10" s="52"/>
       <c r="AK10" s="32"/>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A11" s="57"/>
-      <c r="B11" s="50" t="s">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A11" s="46"/>
+      <c r="B11" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="47" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="s">
@@ -4947,27 +4943,27 @@
       <c r="S11" s="33"/>
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="52"/>
+      <c r="V11" s="56"/>
       <c r="W11" s="33"/>
       <c r="X11" s="33"/>
       <c r="Y11" s="33"/>
       <c r="Z11" s="33"/>
       <c r="AA11" s="33"/>
       <c r="AB11" s="33"/>
-      <c r="AC11" s="55"/>
+      <c r="AC11" s="59"/>
       <c r="AD11" s="32"/>
       <c r="AE11" s="32"/>
       <c r="AF11" s="32"/>
       <c r="AG11" s="32"/>
       <c r="AH11" s="32"/>
       <c r="AI11" s="32"/>
-      <c r="AJ11" s="47"/>
+      <c r="AJ11" s="52"/>
       <c r="AK11" s="32"/>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A12" s="57"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="49"/>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A12" s="46"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="47"/>
       <c r="D12" t="s">
         <v>23</v>
       </c>
@@ -4985,27 +4981,27 @@
       <c r="S12" s="33"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
-      <c r="V12" s="52"/>
+      <c r="V12" s="56"/>
       <c r="W12" s="33"/>
       <c r="X12" s="33"/>
       <c r="Y12" s="33"/>
       <c r="Z12" s="33"/>
       <c r="AA12" s="33"/>
       <c r="AB12" s="33"/>
-      <c r="AC12" s="55"/>
+      <c r="AC12" s="59"/>
       <c r="AD12" s="32"/>
       <c r="AE12" s="32"/>
       <c r="AF12" s="32"/>
       <c r="AG12" s="32"/>
       <c r="AH12" s="32"/>
       <c r="AI12" s="32"/>
-      <c r="AJ12" s="47"/>
+      <c r="AJ12" s="52"/>
       <c r="AK12" s="32"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A13" s="57"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="49"/>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A13" s="46"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="16" t="s">
         <v>45</v>
       </c>
@@ -5025,27 +5021,27 @@
       <c r="S13" s="33"/>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
-      <c r="V13" s="52"/>
+      <c r="V13" s="56"/>
       <c r="W13" s="33"/>
       <c r="X13" s="33"/>
       <c r="Y13" s="33"/>
       <c r="Z13" s="33"/>
       <c r="AA13" s="33"/>
       <c r="AB13" s="33"/>
-      <c r="AC13" s="55"/>
+      <c r="AC13" s="59"/>
       <c r="AD13" s="32"/>
       <c r="AE13" s="32"/>
       <c r="AF13" s="32"/>
       <c r="AG13" s="32"/>
       <c r="AH13" s="32"/>
       <c r="AI13" s="32"/>
-      <c r="AJ13" s="47"/>
+      <c r="AJ13" s="52"/>
       <c r="AK13" s="32"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A14" s="57"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="49"/>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A14" s="46"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="15" t="s">
         <v>27</v>
       </c>
@@ -5064,34 +5060,31 @@
       <c r="S14" s="33"/>
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
-      <c r="V14" s="52"/>
+      <c r="V14" s="56"/>
       <c r="W14" s="33"/>
       <c r="X14" s="33"/>
       <c r="Y14" s="33"/>
       <c r="Z14" s="33"/>
       <c r="AA14" s="33"/>
       <c r="AB14" s="33"/>
-      <c r="AC14" s="55"/>
+      <c r="AC14" s="59"/>
       <c r="AD14" s="32"/>
       <c r="AE14" s="32"/>
       <c r="AF14" s="32"/>
       <c r="AG14" s="32"/>
       <c r="AH14" s="32"/>
       <c r="AI14" s="32"/>
-      <c r="AJ14" s="47"/>
+      <c r="AJ14" s="52"/>
       <c r="AK14" s="32"/>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A15" s="57"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="49" t="s">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A15" s="46"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="47" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
         <v>28</v>
-      </c>
-      <c r="E15" t="s">
-        <v>150</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>40</v>
@@ -5110,27 +5103,27 @@
       <c r="S15" s="33"/>
       <c r="T15" s="33"/>
       <c r="U15" s="33"/>
-      <c r="V15" s="52"/>
+      <c r="V15" s="56"/>
       <c r="W15" s="33"/>
       <c r="X15" s="33"/>
       <c r="Y15" s="33"/>
       <c r="Z15" s="33"/>
       <c r="AA15" s="33"/>
       <c r="AB15" s="33"/>
-      <c r="AC15" s="55"/>
+      <c r="AC15" s="59"/>
       <c r="AD15" s="32"/>
       <c r="AE15" s="32"/>
       <c r="AF15" s="32"/>
       <c r="AG15" s="32"/>
       <c r="AH15" s="32"/>
       <c r="AI15" s="32"/>
-      <c r="AJ15" s="47"/>
+      <c r="AJ15" s="52"/>
       <c r="AK15" s="32"/>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A16" s="57"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="49"/>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A16" s="46"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="17" t="s">
         <v>45</v>
       </c>
@@ -5150,27 +5143,27 @@
       <c r="S16" s="33"/>
       <c r="T16" s="33"/>
       <c r="U16" s="33"/>
-      <c r="V16" s="52"/>
+      <c r="V16" s="56"/>
       <c r="W16" s="33"/>
       <c r="X16" s="33"/>
       <c r="Y16" s="33"/>
       <c r="Z16" s="33"/>
       <c r="AA16" s="33"/>
       <c r="AB16" s="33"/>
-      <c r="AC16" s="55"/>
+      <c r="AC16" s="59"/>
       <c r="AD16" s="32"/>
       <c r="AE16" s="32"/>
       <c r="AF16" s="32"/>
       <c r="AG16" s="32"/>
       <c r="AH16" s="32"/>
       <c r="AI16" s="32"/>
-      <c r="AJ16" s="47"/>
+      <c r="AJ16" s="52"/>
       <c r="AK16" s="32"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A17" s="57"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="49"/>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A17" s="46"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="47"/>
       <c r="D17" t="s">
         <v>23</v>
       </c>
@@ -5188,30 +5181,30 @@
       <c r="S17" s="33"/>
       <c r="T17" s="33"/>
       <c r="U17" s="33"/>
-      <c r="V17" s="52"/>
+      <c r="V17" s="56"/>
       <c r="W17" s="33"/>
       <c r="X17" s="33"/>
       <c r="Y17" s="33"/>
       <c r="Z17" s="33"/>
       <c r="AA17" s="33"/>
       <c r="AB17" s="33"/>
-      <c r="AC17" s="55"/>
+      <c r="AC17" s="59"/>
       <c r="AD17" s="32"/>
       <c r="AE17" s="32"/>
       <c r="AF17" s="32"/>
       <c r="AG17" s="32"/>
       <c r="AH17" s="32"/>
       <c r="AI17" s="32"/>
-      <c r="AJ17" s="47"/>
+      <c r="AJ17" s="52"/>
       <c r="AK17" s="32"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A18" s="57"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="49" t="s">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A18" s="46"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="47" t="s">
         <v>102</v>
       </c>
       <c r="E18" t="s">
@@ -5237,28 +5230,28 @@
       <c r="S18" s="33"/>
       <c r="T18" s="33"/>
       <c r="U18" s="33"/>
-      <c r="V18" s="52"/>
+      <c r="V18" s="56"/>
       <c r="W18" s="33"/>
       <c r="X18" s="33"/>
       <c r="Y18" s="33"/>
       <c r="Z18" s="33"/>
       <c r="AA18" s="33"/>
       <c r="AB18" s="33"/>
-      <c r="AC18" s="55"/>
+      <c r="AC18" s="59"/>
       <c r="AD18" s="32"/>
       <c r="AE18" s="32"/>
       <c r="AF18" s="32"/>
       <c r="AG18" s="32"/>
       <c r="AH18" s="32"/>
       <c r="AI18" s="32"/>
-      <c r="AJ18" s="47"/>
+      <c r="AJ18" s="52"/>
       <c r="AK18" s="32"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A19" s="57"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A19" s="46"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
       <c r="E19" t="s">
         <v>122</v>
       </c>
@@ -5288,28 +5281,28 @@
       <c r="S19" s="33"/>
       <c r="T19" s="33"/>
       <c r="U19" s="33"/>
-      <c r="V19" s="52"/>
+      <c r="V19" s="56"/>
       <c r="W19" s="33"/>
       <c r="X19" s="33"/>
       <c r="Y19" s="33"/>
       <c r="Z19" s="33"/>
       <c r="AA19" s="33"/>
       <c r="AB19" s="33"/>
-      <c r="AC19" s="55"/>
+      <c r="AC19" s="59"/>
       <c r="AD19" s="32"/>
       <c r="AE19" s="32"/>
       <c r="AF19" s="32"/>
       <c r="AG19" s="32"/>
       <c r="AH19" s="32"/>
       <c r="AI19" s="32"/>
-      <c r="AJ19" s="47"/>
+      <c r="AJ19" s="52"/>
       <c r="AK19" s="32"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A20" s="57"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A20" s="46"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
       <c r="E20" t="s">
         <v>116</v>
       </c>
@@ -5329,28 +5322,28 @@
       <c r="S20" s="33"/>
       <c r="T20" s="33"/>
       <c r="U20" s="33"/>
-      <c r="V20" s="52"/>
+      <c r="V20" s="56"/>
       <c r="W20" s="33"/>
       <c r="X20" s="33"/>
       <c r="Y20" s="33"/>
       <c r="Z20" s="33"/>
       <c r="AA20" s="33"/>
       <c r="AB20" s="33"/>
-      <c r="AC20" s="55"/>
+      <c r="AC20" s="59"/>
       <c r="AD20" s="32"/>
       <c r="AE20" s="32"/>
       <c r="AF20" s="32"/>
       <c r="AG20" s="32"/>
       <c r="AH20" s="32"/>
       <c r="AI20" s="32"/>
-      <c r="AJ20" s="47"/>
+      <c r="AJ20" s="52"/>
       <c r="AK20" s="32"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A21" s="57"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A21" s="46"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
       <c r="E21" t="s">
         <v>146</v>
       </c>
@@ -5380,28 +5373,28 @@
       <c r="S21" s="33"/>
       <c r="T21" s="33"/>
       <c r="U21" s="33"/>
-      <c r="V21" s="52"/>
+      <c r="V21" s="56"/>
       <c r="W21" s="33"/>
       <c r="X21" s="33"/>
       <c r="Y21" s="33"/>
       <c r="Z21" s="33"/>
       <c r="AA21" s="33"/>
       <c r="AB21" s="33"/>
-      <c r="AC21" s="55"/>
+      <c r="AC21" s="59"/>
       <c r="AD21" s="32"/>
       <c r="AE21" s="32"/>
       <c r="AF21" s="32"/>
       <c r="AG21" s="32"/>
       <c r="AH21" s="32"/>
       <c r="AI21" s="32"/>
-      <c r="AJ21" s="47"/>
+      <c r="AJ21" s="52"/>
       <c r="AK21" s="32"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A22" s="57"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A22" s="46"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
       <c r="F22" s="45"/>
       <c r="G22" s="45"/>
       <c r="J22" s="7">
@@ -5418,28 +5411,28 @@
       <c r="S22" s="33"/>
       <c r="T22" s="33"/>
       <c r="U22" s="33"/>
-      <c r="V22" s="52"/>
+      <c r="V22" s="56"/>
       <c r="W22" s="33"/>
       <c r="X22" s="33"/>
       <c r="Y22" s="33"/>
       <c r="Z22" s="33"/>
       <c r="AA22" s="33"/>
       <c r="AB22" s="33"/>
-      <c r="AC22" s="55"/>
+      <c r="AC22" s="59"/>
       <c r="AD22" s="32"/>
       <c r="AE22" s="32"/>
       <c r="AF22" s="32"/>
       <c r="AG22" s="32"/>
       <c r="AH22" s="32"/>
       <c r="AI22" s="32"/>
-      <c r="AJ22" s="47"/>
+      <c r="AJ22" s="52"/>
       <c r="AK22" s="32"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A23" s="57"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A23" s="46"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
       <c r="E23" t="s">
         <v>128</v>
       </c>
@@ -5469,28 +5462,28 @@
       <c r="S23" s="33"/>
       <c r="T23" s="33"/>
       <c r="U23" s="33"/>
-      <c r="V23" s="52"/>
+      <c r="V23" s="56"/>
       <c r="W23" s="33"/>
       <c r="X23" s="33"/>
       <c r="Y23" s="33"/>
       <c r="Z23" s="33"/>
       <c r="AA23" s="33"/>
       <c r="AB23" s="33"/>
-      <c r="AC23" s="55"/>
+      <c r="AC23" s="59"/>
       <c r="AD23" s="32"/>
       <c r="AE23" s="32"/>
       <c r="AF23" s="32"/>
       <c r="AG23" s="32"/>
       <c r="AH23" s="32"/>
       <c r="AI23" s="32"/>
-      <c r="AJ23" s="47"/>
+      <c r="AJ23" s="52"/>
       <c r="AK23" s="32"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A24" s="57"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A24" s="46"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
       <c r="E24" t="s">
         <v>117</v>
       </c>
@@ -5510,28 +5503,28 @@
       <c r="S24" s="33"/>
       <c r="T24" s="33"/>
       <c r="U24" s="33"/>
-      <c r="V24" s="52"/>
+      <c r="V24" s="56"/>
       <c r="W24" s="33"/>
       <c r="X24" s="33"/>
       <c r="Y24" s="33"/>
       <c r="Z24" s="33"/>
       <c r="AA24" s="33"/>
       <c r="AB24" s="33"/>
-      <c r="AC24" s="55"/>
+      <c r="AC24" s="59"/>
       <c r="AD24" s="32"/>
       <c r="AE24" s="32"/>
       <c r="AF24" s="32"/>
       <c r="AG24" s="32"/>
       <c r="AH24" s="32"/>
       <c r="AI24" s="32"/>
-      <c r="AJ24" s="47"/>
+      <c r="AJ24" s="52"/>
       <c r="AK24" s="32"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A25" s="57"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A25" s="46"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
       <c r="E25" t="s">
         <v>114</v>
       </c>
@@ -5561,28 +5554,28 @@
       <c r="S25" s="33"/>
       <c r="T25" s="33"/>
       <c r="U25" s="33"/>
-      <c r="V25" s="52"/>
+      <c r="V25" s="56"/>
       <c r="W25" s="33"/>
       <c r="X25" s="33"/>
       <c r="Y25" s="33"/>
       <c r="Z25" s="33"/>
       <c r="AA25" s="33"/>
       <c r="AB25" s="33"/>
-      <c r="AC25" s="55"/>
+      <c r="AC25" s="59"/>
       <c r="AD25" s="32"/>
       <c r="AE25" s="32"/>
       <c r="AF25" s="32"/>
       <c r="AG25" s="32"/>
       <c r="AH25" s="32"/>
       <c r="AI25" s="32"/>
-      <c r="AJ25" s="47"/>
+      <c r="AJ25" s="52"/>
       <c r="AK25" s="32"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A26" s="57"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A26" s="46"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
       <c r="E26" t="s">
         <v>110</v>
       </c>
@@ -5602,28 +5595,28 @@
       <c r="S26" s="33"/>
       <c r="T26" s="33"/>
       <c r="U26" s="33"/>
-      <c r="V26" s="52"/>
+      <c r="V26" s="56"/>
       <c r="W26" s="33"/>
       <c r="X26" s="33"/>
       <c r="Y26" s="33"/>
       <c r="Z26" s="33"/>
       <c r="AA26" s="33"/>
       <c r="AB26" s="33"/>
-      <c r="AC26" s="55"/>
+      <c r="AC26" s="59"/>
       <c r="AD26" s="32"/>
       <c r="AE26" s="32"/>
       <c r="AF26" s="32"/>
       <c r="AG26" s="32"/>
       <c r="AH26" s="32"/>
       <c r="AI26" s="32"/>
-      <c r="AJ26" s="47"/>
+      <c r="AJ26" s="52"/>
       <c r="AK26" s="32"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A27" s="57"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49" t="s">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A27" s="46"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47" t="s">
         <v>25</v>
       </c>
       <c r="E27" t="s">
@@ -5652,28 +5645,28 @@
       <c r="S27" s="33"/>
       <c r="T27" s="33"/>
       <c r="U27" s="33"/>
-      <c r="V27" s="52"/>
+      <c r="V27" s="56"/>
       <c r="W27" s="33"/>
       <c r="X27" s="33"/>
       <c r="Y27" s="33"/>
       <c r="Z27" s="33"/>
       <c r="AA27" s="33"/>
       <c r="AB27" s="33"/>
-      <c r="AC27" s="55"/>
+      <c r="AC27" s="59"/>
       <c r="AD27" s="32"/>
       <c r="AE27" s="32"/>
       <c r="AF27" s="32"/>
       <c r="AG27" s="32"/>
       <c r="AH27" s="32"/>
       <c r="AI27" s="32"/>
-      <c r="AJ27" s="47"/>
+      <c r="AJ27" s="52"/>
       <c r="AK27" s="32"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A28" s="57"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A28" s="46"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
       <c r="E28" t="s">
         <v>129</v>
       </c>
@@ -5701,28 +5694,28 @@
       <c r="S28" s="33"/>
       <c r="T28" s="33"/>
       <c r="U28" s="33"/>
-      <c r="V28" s="52"/>
+      <c r="V28" s="56"/>
       <c r="W28" s="33"/>
       <c r="X28" s="33"/>
       <c r="Y28" s="33"/>
       <c r="Z28" s="33"/>
       <c r="AA28" s="33"/>
       <c r="AB28" s="33"/>
-      <c r="AC28" s="55"/>
+      <c r="AC28" s="59"/>
       <c r="AD28" s="32"/>
       <c r="AE28" s="32"/>
       <c r="AF28" s="32"/>
       <c r="AG28" s="32"/>
       <c r="AH28" s="32"/>
       <c r="AI28" s="32"/>
-      <c r="AJ28" s="47"/>
+      <c r="AJ28" s="52"/>
       <c r="AK28" s="32"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A29" s="57"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49" t="s">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A29" s="46"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47" t="s">
         <v>13</v>
       </c>
       <c r="E29" t="s">
@@ -5742,28 +5735,28 @@
       <c r="S29" s="33"/>
       <c r="T29" s="33"/>
       <c r="U29" s="33"/>
-      <c r="V29" s="52"/>
+      <c r="V29" s="56"/>
       <c r="W29" s="33"/>
       <c r="X29" s="33"/>
       <c r="Y29" s="33"/>
       <c r="Z29" s="33"/>
       <c r="AA29" s="33"/>
       <c r="AB29" s="33"/>
-      <c r="AC29" s="55"/>
+      <c r="AC29" s="59"/>
       <c r="AD29" s="32"/>
       <c r="AE29" s="32"/>
       <c r="AF29" s="32"/>
       <c r="AG29" s="32"/>
       <c r="AH29" s="32"/>
       <c r="AI29" s="32"/>
-      <c r="AJ29" s="47"/>
+      <c r="AJ29" s="52"/>
       <c r="AK29" s="32"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A30" s="57"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A30" s="46"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
       <c r="E30" t="s">
         <v>106</v>
       </c>
@@ -5783,28 +5776,28 @@
       <c r="S30" s="33"/>
       <c r="T30" s="33"/>
       <c r="U30" s="33"/>
-      <c r="V30" s="52"/>
+      <c r="V30" s="56"/>
       <c r="W30" s="33"/>
       <c r="X30" s="33"/>
       <c r="Y30" s="33"/>
       <c r="Z30" s="33"/>
       <c r="AA30" s="33"/>
       <c r="AB30" s="33"/>
-      <c r="AC30" s="55"/>
+      <c r="AC30" s="59"/>
       <c r="AD30" s="32"/>
       <c r="AE30" s="32"/>
       <c r="AF30" s="32"/>
       <c r="AG30" s="32"/>
       <c r="AH30" s="32"/>
       <c r="AI30" s="32"/>
-      <c r="AJ30" s="47"/>
+      <c r="AJ30" s="52"/>
       <c r="AK30" s="32"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A31" s="57"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A31" s="46"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
       <c r="E31" t="s">
         <v>123</v>
       </c>
@@ -5834,28 +5827,28 @@
       <c r="S31" s="33"/>
       <c r="T31" s="33"/>
       <c r="U31" s="33"/>
-      <c r="V31" s="52"/>
+      <c r="V31" s="56"/>
       <c r="W31" s="33"/>
       <c r="X31" s="33"/>
       <c r="Y31" s="33"/>
       <c r="Z31" s="33"/>
       <c r="AA31" s="33"/>
       <c r="AB31" s="33"/>
-      <c r="AC31" s="55"/>
+      <c r="AC31" s="59"/>
       <c r="AD31" s="32"/>
       <c r="AE31" s="32"/>
       <c r="AF31" s="32"/>
       <c r="AG31" s="32"/>
       <c r="AH31" s="32"/>
       <c r="AI31" s="32"/>
-      <c r="AJ31" s="47"/>
+      <c r="AJ31" s="52"/>
       <c r="AK31" s="32"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A32" s="57"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49" t="s">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A32" s="46"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47" t="s">
         <v>97</v>
       </c>
       <c r="E32" t="s">
@@ -5877,28 +5870,28 @@
       <c r="S32" s="33"/>
       <c r="T32" s="33"/>
       <c r="U32" s="33"/>
-      <c r="V32" s="52"/>
+      <c r="V32" s="56"/>
       <c r="W32" s="33"/>
       <c r="X32" s="33"/>
       <c r="Y32" s="33"/>
       <c r="Z32" s="33"/>
       <c r="AA32" s="33"/>
       <c r="AB32" s="33"/>
-      <c r="AC32" s="55"/>
+      <c r="AC32" s="59"/>
       <c r="AD32" s="32"/>
       <c r="AE32" s="32"/>
       <c r="AF32" s="32"/>
       <c r="AG32" s="32"/>
       <c r="AH32" s="32"/>
       <c r="AI32" s="32"/>
-      <c r="AJ32" s="47"/>
+      <c r="AJ32" s="52"/>
       <c r="AK32" s="32"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A33" s="57"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A33" s="46"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
       <c r="E33" t="s">
         <v>121</v>
       </c>
@@ -5918,28 +5911,28 @@
       <c r="S33" s="33"/>
       <c r="T33" s="33"/>
       <c r="U33" s="33"/>
-      <c r="V33" s="52"/>
+      <c r="V33" s="56"/>
       <c r="W33" s="33"/>
       <c r="X33" s="33"/>
       <c r="Y33" s="33"/>
       <c r="Z33" s="33"/>
       <c r="AA33" s="33"/>
       <c r="AB33" s="33"/>
-      <c r="AC33" s="55"/>
+      <c r="AC33" s="59"/>
       <c r="AD33" s="32"/>
       <c r="AE33" s="32"/>
       <c r="AF33" s="32"/>
       <c r="AG33" s="32"/>
       <c r="AH33" s="32"/>
       <c r="AI33" s="32"/>
-      <c r="AJ33" s="47"/>
+      <c r="AJ33" s="52"/>
       <c r="AK33" s="32"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A34" s="57"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A34" s="46"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
       <c r="E34" t="s">
         <v>111</v>
       </c>
@@ -5959,27 +5952,27 @@
       <c r="S34" s="33"/>
       <c r="T34" s="33"/>
       <c r="U34" s="33"/>
-      <c r="V34" s="52"/>
+      <c r="V34" s="56"/>
       <c r="W34" s="33"/>
       <c r="X34" s="33"/>
       <c r="Y34" s="33"/>
       <c r="Z34" s="33"/>
       <c r="AA34" s="33"/>
       <c r="AB34" s="33"/>
-      <c r="AC34" s="55"/>
+      <c r="AC34" s="59"/>
       <c r="AD34" s="32"/>
       <c r="AE34" s="32"/>
       <c r="AF34" s="32"/>
       <c r="AG34" s="32"/>
       <c r="AH34" s="32"/>
       <c r="AI34" s="32"/>
-      <c r="AJ34" s="47"/>
+      <c r="AJ34" s="52"/>
       <c r="AK34" s="32"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A35" s="57"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="49"/>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A35" s="46"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="47"/>
       <c r="D35" t="s">
         <v>24</v>
       </c>
@@ -5997,27 +5990,27 @@
       <c r="S35" s="33"/>
       <c r="T35" s="33"/>
       <c r="U35" s="33"/>
-      <c r="V35" s="52"/>
+      <c r="V35" s="56"/>
       <c r="W35" s="33"/>
       <c r="X35" s="33"/>
       <c r="Y35" s="33"/>
       <c r="Z35" s="33"/>
       <c r="AA35" s="33"/>
       <c r="AB35" s="33"/>
-      <c r="AC35" s="55"/>
+      <c r="AC35" s="59"/>
       <c r="AD35" s="32"/>
       <c r="AE35" s="32"/>
       <c r="AF35" s="32"/>
       <c r="AG35" s="32"/>
       <c r="AH35" s="32"/>
       <c r="AI35" s="32"/>
-      <c r="AJ35" s="47"/>
+      <c r="AJ35" s="52"/>
       <c r="AK35" s="32"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A36" s="57"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="49"/>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A36" s="46"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="47"/>
       <c r="D36" t="s">
         <v>101</v>
       </c>
@@ -6037,27 +6030,27 @@
       <c r="S36" s="33"/>
       <c r="T36" s="33"/>
       <c r="U36" s="33"/>
-      <c r="V36" s="52"/>
+      <c r="V36" s="56"/>
       <c r="W36" s="33"/>
       <c r="X36" s="33"/>
       <c r="Y36" s="33"/>
       <c r="Z36" s="33"/>
       <c r="AA36" s="33"/>
       <c r="AB36" s="33"/>
-      <c r="AC36" s="55"/>
+      <c r="AC36" s="59"/>
       <c r="AD36" s="32"/>
       <c r="AE36" s="32"/>
       <c r="AF36" s="32"/>
       <c r="AG36" s="32"/>
       <c r="AH36" s="32"/>
       <c r="AI36" s="32"/>
-      <c r="AJ36" s="47"/>
+      <c r="AJ36" s="52"/>
       <c r="AK36" s="32"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A37" s="57"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="49"/>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A37" s="46"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="47"/>
       <c r="D37" t="s">
         <v>23</v>
       </c>
@@ -6075,27 +6068,27 @@
       <c r="S37" s="33"/>
       <c r="T37" s="33"/>
       <c r="U37" s="33"/>
-      <c r="V37" s="52"/>
+      <c r="V37" s="56"/>
       <c r="W37" s="33"/>
       <c r="X37" s="33"/>
       <c r="Y37" s="33"/>
       <c r="Z37" s="33"/>
       <c r="AA37" s="33"/>
       <c r="AB37" s="33"/>
-      <c r="AC37" s="55"/>
+      <c r="AC37" s="59"/>
       <c r="AD37" s="32"/>
       <c r="AE37" s="32"/>
       <c r="AF37" s="32"/>
       <c r="AG37" s="32"/>
       <c r="AH37" s="32"/>
       <c r="AI37" s="32"/>
-      <c r="AJ37" s="47"/>
+      <c r="AJ37" s="52"/>
       <c r="AK37" s="32"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A38" s="57"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="49"/>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A38" s="46"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="15" t="s">
         <v>27</v>
       </c>
@@ -6115,27 +6108,27 @@
       <c r="S38" s="33"/>
       <c r="T38" s="33"/>
       <c r="U38" s="33"/>
-      <c r="V38" s="52"/>
+      <c r="V38" s="56"/>
       <c r="W38" s="33"/>
       <c r="X38" s="33"/>
       <c r="Y38" s="33"/>
       <c r="Z38" s="33"/>
       <c r="AA38" s="33"/>
       <c r="AB38" s="33"/>
-      <c r="AC38" s="55"/>
+      <c r="AC38" s="59"/>
       <c r="AD38" s="32"/>
       <c r="AE38" s="32"/>
       <c r="AF38" s="32"/>
       <c r="AG38" s="32"/>
       <c r="AH38" s="32"/>
       <c r="AI38" s="32"/>
-      <c r="AJ38" s="47"/>
+      <c r="AJ38" s="52"/>
       <c r="AK38" s="32"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A39" s="57"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="49"/>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A39" s="46"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="16" t="s">
         <v>45</v>
       </c>
@@ -6155,27 +6148,27 @@
       <c r="S39" s="33"/>
       <c r="T39" s="33"/>
       <c r="U39" s="33"/>
-      <c r="V39" s="52"/>
+      <c r="V39" s="56"/>
       <c r="W39" s="33"/>
       <c r="X39" s="33"/>
       <c r="Y39" s="33"/>
       <c r="Z39" s="33"/>
       <c r="AA39" s="33"/>
       <c r="AB39" s="33"/>
-      <c r="AC39" s="55"/>
+      <c r="AC39" s="59"/>
       <c r="AD39" s="32"/>
       <c r="AE39" s="32"/>
       <c r="AF39" s="32"/>
       <c r="AG39" s="32"/>
       <c r="AH39" s="32"/>
       <c r="AI39" s="32"/>
-      <c r="AJ39" s="47"/>
+      <c r="AJ39" s="52"/>
       <c r="AK39" s="32"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A40" s="57"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="49"/>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A40" s="46"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="47"/>
       <c r="D40" t="s">
         <v>26</v>
       </c>
@@ -6193,27 +6186,27 @@
       <c r="S40" s="33"/>
       <c r="T40" s="33"/>
       <c r="U40" s="33"/>
-      <c r="V40" s="52"/>
+      <c r="V40" s="56"/>
       <c r="W40" s="33"/>
       <c r="X40" s="33"/>
       <c r="Y40" s="33"/>
       <c r="Z40" s="33"/>
       <c r="AA40" s="33"/>
       <c r="AB40" s="33"/>
-      <c r="AC40" s="55"/>
+      <c r="AC40" s="59"/>
       <c r="AD40" s="32"/>
       <c r="AE40" s="32"/>
       <c r="AF40" s="32"/>
       <c r="AG40" s="32"/>
       <c r="AH40" s="32"/>
       <c r="AI40" s="32"/>
-      <c r="AJ40" s="47"/>
+      <c r="AJ40" s="52"/>
       <c r="AK40" s="32"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A41" s="57"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="49" t="s">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A41" s="46"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="47" t="s">
         <v>42</v>
       </c>
       <c r="D41" s="17" t="s">
@@ -6234,27 +6227,27 @@
       <c r="S41" s="33"/>
       <c r="T41" s="33"/>
       <c r="U41" s="33"/>
-      <c r="V41" s="52"/>
+      <c r="V41" s="56"/>
       <c r="W41" s="33"/>
       <c r="X41" s="33"/>
       <c r="Y41" s="33"/>
       <c r="Z41" s="33"/>
       <c r="AA41" s="33"/>
       <c r="AB41" s="33"/>
-      <c r="AC41" s="55"/>
+      <c r="AC41" s="59"/>
       <c r="AD41" s="32"/>
       <c r="AE41" s="32"/>
       <c r="AF41" s="32"/>
       <c r="AG41" s="32"/>
       <c r="AH41" s="32"/>
       <c r="AI41" s="32"/>
-      <c r="AJ41" s="47"/>
+      <c r="AJ41" s="52"/>
       <c r="AK41" s="32"/>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A42" s="57"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="49"/>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A42" s="46"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="47"/>
       <c r="D42" t="s">
         <v>26</v>
       </c>
@@ -6274,27 +6267,27 @@
       <c r="S42" s="33"/>
       <c r="T42" s="33"/>
       <c r="U42" s="33"/>
-      <c r="V42" s="52"/>
+      <c r="V42" s="56"/>
       <c r="W42" s="33"/>
       <c r="X42" s="33"/>
       <c r="Y42" s="33"/>
       <c r="Z42" s="33"/>
       <c r="AA42" s="33"/>
       <c r="AB42" s="33"/>
-      <c r="AC42" s="55"/>
+      <c r="AC42" s="59"/>
       <c r="AD42" s="32"/>
       <c r="AE42" s="32"/>
       <c r="AF42" s="32"/>
       <c r="AG42" s="32"/>
       <c r="AH42" s="32"/>
       <c r="AI42" s="32"/>
-      <c r="AJ42" s="47"/>
+      <c r="AJ42" s="52"/>
       <c r="AK42" s="32"/>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A43" s="57"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="49" t="s">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A43" s="46"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="47" t="s">
         <v>43</v>
       </c>
       <c r="D43" s="16" t="s">
@@ -6315,27 +6308,27 @@
       <c r="S43" s="33"/>
       <c r="T43" s="33"/>
       <c r="U43" s="33"/>
-      <c r="V43" s="52"/>
+      <c r="V43" s="56"/>
       <c r="W43" s="33"/>
       <c r="X43" s="33"/>
       <c r="Y43" s="33"/>
       <c r="Z43" s="33"/>
       <c r="AA43" s="33"/>
       <c r="AB43" s="33"/>
-      <c r="AC43" s="55"/>
+      <c r="AC43" s="59"/>
       <c r="AD43" s="32"/>
       <c r="AE43" s="32"/>
       <c r="AF43" s="32"/>
       <c r="AG43" s="32"/>
       <c r="AH43" s="32"/>
       <c r="AI43" s="32"/>
-      <c r="AJ43" s="47"/>
+      <c r="AJ43" s="52"/>
       <c r="AK43" s="32"/>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A44" s="57"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="49"/>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A44" s="46"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="47"/>
       <c r="F44" s="35"/>
       <c r="G44" s="35"/>
       <c r="J44" s="7">
@@ -6352,27 +6345,27 @@
       <c r="S44" s="33"/>
       <c r="T44" s="33"/>
       <c r="U44" s="33"/>
-      <c r="V44" s="52"/>
+      <c r="V44" s="56"/>
       <c r="W44" s="33"/>
       <c r="X44" s="33"/>
       <c r="Y44" s="33"/>
       <c r="Z44" s="33"/>
       <c r="AA44" s="33"/>
       <c r="AB44" s="33"/>
-      <c r="AC44" s="55"/>
+      <c r="AC44" s="59"/>
       <c r="AD44" s="32"/>
       <c r="AE44" s="32"/>
       <c r="AF44" s="32"/>
       <c r="AG44" s="32"/>
       <c r="AH44" s="32"/>
       <c r="AI44" s="32"/>
-      <c r="AJ44" s="47"/>
+      <c r="AJ44" s="52"/>
       <c r="AK44" s="32"/>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A45" s="57"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="49"/>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A45" s="46"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="47"/>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
       <c r="J45" s="7">
@@ -6389,27 +6382,27 @@
       <c r="S45" s="33"/>
       <c r="T45" s="33"/>
       <c r="U45" s="33"/>
-      <c r="V45" s="52"/>
+      <c r="V45" s="56"/>
       <c r="W45" s="33"/>
       <c r="X45" s="33"/>
       <c r="Y45" s="33"/>
       <c r="Z45" s="33"/>
       <c r="AA45" s="33"/>
       <c r="AB45" s="33"/>
-      <c r="AC45" s="55"/>
+      <c r="AC45" s="59"/>
       <c r="AD45" s="32"/>
       <c r="AE45" s="32"/>
       <c r="AF45" s="32"/>
       <c r="AG45" s="32"/>
       <c r="AH45" s="32"/>
       <c r="AI45" s="32"/>
-      <c r="AJ45" s="47"/>
+      <c r="AJ45" s="52"/>
       <c r="AK45" s="32"/>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A46" s="57"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="49" t="s">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A46" s="46"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="47" t="s">
         <v>17</v>
       </c>
       <c r="D46" t="s">
@@ -6429,27 +6422,27 @@
       <c r="S46" s="33"/>
       <c r="T46" s="33"/>
       <c r="U46" s="33"/>
-      <c r="V46" s="52"/>
+      <c r="V46" s="56"/>
       <c r="W46" s="33"/>
       <c r="X46" s="33"/>
       <c r="Y46" s="33"/>
       <c r="Z46" s="33"/>
       <c r="AA46" s="33"/>
       <c r="AB46" s="33"/>
-      <c r="AC46" s="55"/>
+      <c r="AC46" s="59"/>
       <c r="AD46" s="32"/>
       <c r="AE46" s="32"/>
       <c r="AF46" s="32"/>
       <c r="AG46" s="32"/>
       <c r="AH46" s="32"/>
       <c r="AI46" s="32"/>
-      <c r="AJ46" s="47"/>
+      <c r="AJ46" s="52"/>
       <c r="AK46" s="32"/>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A47" s="57"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="49"/>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A47" s="46"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="47"/>
       <c r="D47" t="s">
         <v>36</v>
       </c>
@@ -6467,27 +6460,27 @@
       <c r="S47" s="33"/>
       <c r="T47" s="33"/>
       <c r="U47" s="33"/>
-      <c r="V47" s="52"/>
+      <c r="V47" s="56"/>
       <c r="W47" s="33"/>
       <c r="X47" s="33"/>
       <c r="Y47" s="33"/>
       <c r="Z47" s="33"/>
       <c r="AA47" s="33"/>
       <c r="AB47" s="33"/>
-      <c r="AC47" s="55"/>
+      <c r="AC47" s="59"/>
       <c r="AD47" s="32"/>
       <c r="AE47" s="32"/>
       <c r="AF47" s="32"/>
       <c r="AG47" s="32"/>
       <c r="AH47" s="32"/>
       <c r="AI47" s="32"/>
-      <c r="AJ47" s="47"/>
+      <c r="AJ47" s="52"/>
       <c r="AK47" s="32"/>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A48" s="57"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="49"/>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A48" s="46"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="47"/>
       <c r="D48" t="s">
         <v>37</v>
       </c>
@@ -6505,27 +6498,27 @@
       <c r="S48" s="33"/>
       <c r="T48" s="33"/>
       <c r="U48" s="33"/>
-      <c r="V48" s="52"/>
+      <c r="V48" s="56"/>
       <c r="W48" s="33"/>
       <c r="X48" s="33"/>
       <c r="Y48" s="33"/>
       <c r="Z48" s="33"/>
       <c r="AA48" s="33"/>
       <c r="AB48" s="33"/>
-      <c r="AC48" s="55"/>
+      <c r="AC48" s="59"/>
       <c r="AD48" s="32"/>
       <c r="AE48" s="32"/>
       <c r="AF48" s="32"/>
       <c r="AG48" s="32"/>
       <c r="AH48" s="32"/>
       <c r="AI48" s="32"/>
-      <c r="AJ48" s="47"/>
+      <c r="AJ48" s="52"/>
       <c r="AK48" s="32"/>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A49" s="57"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="49"/>
+    <row r="49" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A49" s="46"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="47"/>
       <c r="D49" t="s">
         <v>38</v>
       </c>
@@ -6543,27 +6536,27 @@
       <c r="S49" s="33"/>
       <c r="T49" s="33"/>
       <c r="U49" s="33"/>
-      <c r="V49" s="52"/>
+      <c r="V49" s="56"/>
       <c r="W49" s="33"/>
       <c r="X49" s="33"/>
       <c r="Y49" s="33"/>
       <c r="Z49" s="33"/>
       <c r="AA49" s="33"/>
       <c r="AB49" s="33"/>
-      <c r="AC49" s="55"/>
+      <c r="AC49" s="59"/>
       <c r="AD49" s="32"/>
       <c r="AE49" s="32"/>
       <c r="AF49" s="32"/>
       <c r="AG49" s="32"/>
       <c r="AH49" s="32"/>
       <c r="AI49" s="32"/>
-      <c r="AJ49" s="47"/>
+      <c r="AJ49" s="52"/>
       <c r="AK49" s="32"/>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A50" s="57"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="49"/>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A50" s="46"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="47"/>
       <c r="D50" t="s">
         <v>33</v>
       </c>
@@ -6581,26 +6574,26 @@
       <c r="S50" s="33"/>
       <c r="T50" s="33"/>
       <c r="U50" s="33"/>
-      <c r="V50" s="52"/>
+      <c r="V50" s="56"/>
       <c r="W50" s="33"/>
       <c r="X50" s="33"/>
       <c r="Y50" s="33"/>
       <c r="Z50" s="33"/>
       <c r="AA50" s="33"/>
       <c r="AB50" s="33"/>
-      <c r="AC50" s="55"/>
+      <c r="AC50" s="59"/>
       <c r="AD50" s="32"/>
       <c r="AE50" s="32"/>
       <c r="AF50" s="32"/>
       <c r="AG50" s="32"/>
       <c r="AH50" s="32"/>
       <c r="AI50" s="32"/>
-      <c r="AJ50" s="47"/>
+      <c r="AJ50" s="52"/>
       <c r="AK50" s="32"/>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A51" s="57"/>
-      <c r="B51" s="50"/>
+    <row r="51" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A51" s="46"/>
+      <c r="B51" s="54"/>
       <c r="J51" s="7">
         <v>0</v>
       </c>
@@ -6615,26 +6608,26 @@
       <c r="S51" s="33"/>
       <c r="T51" s="33"/>
       <c r="U51" s="33"/>
-      <c r="V51" s="52"/>
+      <c r="V51" s="56"/>
       <c r="W51" s="33"/>
       <c r="X51" s="33"/>
       <c r="Y51" s="33"/>
       <c r="Z51" s="33"/>
       <c r="AA51" s="33"/>
       <c r="AB51" s="33"/>
-      <c r="AC51" s="55"/>
+      <c r="AC51" s="59"/>
       <c r="AD51" s="32"/>
       <c r="AE51" s="32"/>
       <c r="AF51" s="32"/>
       <c r="AG51" s="32"/>
       <c r="AH51" s="32"/>
       <c r="AI51" s="32"/>
-      <c r="AJ51" s="47"/>
+      <c r="AJ51" s="52"/>
       <c r="AK51" s="32"/>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A52" s="57"/>
-      <c r="B52" s="50"/>
+    <row r="52" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A52" s="46"/>
+      <c r="B52" s="54"/>
       <c r="C52" s="10" t="s">
         <v>131</v>
       </c>
@@ -6655,26 +6648,26 @@
       <c r="S52" s="33"/>
       <c r="T52" s="33"/>
       <c r="U52" s="33"/>
-      <c r="V52" s="52"/>
+      <c r="V52" s="56"/>
       <c r="W52" s="33"/>
       <c r="X52" s="33"/>
       <c r="Y52" s="33"/>
       <c r="Z52" s="33"/>
       <c r="AA52" s="33"/>
       <c r="AB52" s="33"/>
-      <c r="AC52" s="55"/>
+      <c r="AC52" s="59"/>
       <c r="AD52" s="32"/>
       <c r="AE52" s="32"/>
       <c r="AF52" s="32"/>
       <c r="AG52" s="32"/>
       <c r="AH52" s="32"/>
       <c r="AI52" s="32"/>
-      <c r="AJ52" s="47"/>
+      <c r="AJ52" s="52"/>
       <c r="AK52" s="32"/>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A53" s="57"/>
-      <c r="B53" s="50"/>
+    <row r="53" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A53" s="46"/>
+      <c r="B53" s="54"/>
       <c r="J53" s="7">
         <v>0</v>
       </c>
@@ -6689,26 +6682,26 @@
       <c r="S53" s="33"/>
       <c r="T53" s="33"/>
       <c r="U53" s="33"/>
-      <c r="V53" s="52"/>
+      <c r="V53" s="56"/>
       <c r="W53" s="33"/>
       <c r="X53" s="33"/>
       <c r="Y53" s="33"/>
       <c r="Z53" s="33"/>
       <c r="AA53" s="33"/>
       <c r="AB53" s="33"/>
-      <c r="AC53" s="55"/>
+      <c r="AC53" s="59"/>
       <c r="AD53" s="32"/>
       <c r="AE53" s="32"/>
       <c r="AF53" s="32"/>
       <c r="AG53" s="32"/>
       <c r="AH53" s="32"/>
       <c r="AI53" s="32"/>
-      <c r="AJ53" s="47"/>
+      <c r="AJ53" s="52"/>
       <c r="AK53" s="32"/>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A54" s="57"/>
-      <c r="B54" s="50"/>
+    <row r="54" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A54" s="46"/>
+      <c r="B54" s="54"/>
       <c r="J54" s="7">
         <v>0</v>
       </c>
@@ -6723,26 +6716,26 @@
       <c r="S54" s="33"/>
       <c r="T54" s="33"/>
       <c r="U54" s="33"/>
-      <c r="V54" s="52"/>
+      <c r="V54" s="56"/>
       <c r="W54" s="33"/>
       <c r="X54" s="33"/>
       <c r="Y54" s="33"/>
       <c r="Z54" s="33"/>
       <c r="AA54" s="33"/>
       <c r="AB54" s="33"/>
-      <c r="AC54" s="55"/>
+      <c r="AC54" s="59"/>
       <c r="AD54" s="32"/>
       <c r="AE54" s="32"/>
       <c r="AF54" s="32"/>
       <c r="AG54" s="32"/>
       <c r="AH54" s="32"/>
       <c r="AI54" s="32"/>
-      <c r="AJ54" s="47"/>
+      <c r="AJ54" s="52"/>
       <c r="AK54" s="32"/>
     </row>
-    <row r="55" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="57"/>
-      <c r="B55" s="50"/>
+    <row r="55" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="46"/>
+      <c r="B55" s="54"/>
       <c r="C55" s="13" t="s">
         <v>76</v>
       </c>
@@ -6768,32 +6761,32 @@
       <c r="S55" s="34"/>
       <c r="T55" s="34"/>
       <c r="U55" s="34"/>
-      <c r="V55" s="52"/>
+      <c r="V55" s="56"/>
       <c r="W55" s="34"/>
       <c r="X55" s="34"/>
       <c r="Y55" s="34"/>
       <c r="Z55" s="34"/>
       <c r="AA55" s="34"/>
       <c r="AB55" s="34"/>
-      <c r="AC55" s="55"/>
+      <c r="AC55" s="59"/>
       <c r="AD55" s="32"/>
       <c r="AE55" s="32"/>
       <c r="AF55" s="32"/>
       <c r="AG55" s="32"/>
       <c r="AH55" s="32"/>
       <c r="AI55" s="32"/>
-      <c r="AJ55" s="47"/>
+      <c r="AJ55" s="52"/>
       <c r="AK55" s="32"/>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A56" s="57"/>
-      <c r="B56" s="60" t="s">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A56" s="46"/>
+      <c r="B56" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="D56" s="49" t="s">
+      <c r="D56" s="47" t="s">
         <v>29</v>
       </c>
       <c r="E56" t="s">
@@ -6825,28 +6818,28 @@
       <c r="S56" s="33"/>
       <c r="T56" s="33"/>
       <c r="U56" s="33"/>
-      <c r="V56" s="52"/>
+      <c r="V56" s="56"/>
       <c r="W56" s="33"/>
       <c r="X56" s="33"/>
       <c r="Y56" s="33"/>
       <c r="Z56" s="33"/>
       <c r="AA56" s="33"/>
       <c r="AB56" s="33"/>
-      <c r="AC56" s="55"/>
+      <c r="AC56" s="59"/>
       <c r="AD56" s="32"/>
       <c r="AE56" s="32"/>
       <c r="AF56" s="32"/>
       <c r="AG56" s="32"/>
       <c r="AH56" s="32"/>
       <c r="AI56" s="32"/>
-      <c r="AJ56" s="47"/>
+      <c r="AJ56" s="52"/>
       <c r="AK56" s="32"/>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A57" s="57"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
+    <row r="57" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A57" s="46"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
       <c r="E57" t="s">
         <v>140</v>
       </c>
@@ -6876,30 +6869,30 @@
       <c r="S57" s="33"/>
       <c r="T57" s="33"/>
       <c r="U57" s="33"/>
-      <c r="V57" s="52"/>
+      <c r="V57" s="56"/>
       <c r="W57" s="33"/>
       <c r="X57" s="33"/>
       <c r="Y57" s="33"/>
       <c r="Z57" s="33"/>
       <c r="AA57" s="33"/>
       <c r="AB57" s="33"/>
-      <c r="AC57" s="55"/>
+      <c r="AC57" s="59"/>
       <c r="AD57" s="32"/>
       <c r="AE57" s="32"/>
       <c r="AF57" s="32"/>
       <c r="AG57" s="32"/>
       <c r="AH57" s="32"/>
       <c r="AI57" s="32"/>
-      <c r="AJ57" s="47"/>
+      <c r="AJ57" s="52"/>
       <c r="AK57" s="32"/>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A58" s="57"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="49" t="s">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A58" s="46"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="49" t="s">
+      <c r="D58" s="47" t="s">
         <v>102</v>
       </c>
       <c r="E58" t="s">
@@ -6921,28 +6914,28 @@
       <c r="S58" s="33"/>
       <c r="T58" s="33"/>
       <c r="U58" s="33"/>
-      <c r="V58" s="52"/>
+      <c r="V58" s="56"/>
       <c r="W58" s="33"/>
       <c r="X58" s="33"/>
       <c r="Y58" s="33"/>
       <c r="Z58" s="33"/>
       <c r="AA58" s="33"/>
       <c r="AB58" s="33"/>
-      <c r="AC58" s="55"/>
+      <c r="AC58" s="59"/>
       <c r="AD58" s="32"/>
       <c r="AE58" s="32"/>
       <c r="AF58" s="32"/>
       <c r="AG58" s="32"/>
       <c r="AH58" s="32"/>
       <c r="AI58" s="32"/>
-      <c r="AJ58" s="47"/>
+      <c r="AJ58" s="52"/>
       <c r="AK58" s="32"/>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A59" s="57"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
+    <row r="59" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A59" s="46"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
       <c r="E59" t="s">
         <v>115</v>
       </c>
@@ -6962,28 +6955,28 @@
       <c r="S59" s="33"/>
       <c r="T59" s="33"/>
       <c r="U59" s="33"/>
-      <c r="V59" s="52"/>
+      <c r="V59" s="56"/>
       <c r="W59" s="33"/>
       <c r="X59" s="33"/>
       <c r="Y59" s="33"/>
       <c r="Z59" s="33"/>
       <c r="AA59" s="33"/>
       <c r="AB59" s="33"/>
-      <c r="AC59" s="55"/>
+      <c r="AC59" s="59"/>
       <c r="AD59" s="32"/>
       <c r="AE59" s="32"/>
       <c r="AF59" s="32"/>
       <c r="AG59" s="32"/>
       <c r="AH59" s="32"/>
       <c r="AI59" s="32"/>
-      <c r="AJ59" s="47"/>
+      <c r="AJ59" s="52"/>
       <c r="AK59" s="32"/>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A60" s="57"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
+    <row r="60" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A60" s="46"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
       <c r="E60" t="s">
         <v>116</v>
       </c>
@@ -7003,27 +6996,27 @@
       <c r="S60" s="33"/>
       <c r="T60" s="33"/>
       <c r="U60" s="33"/>
-      <c r="V60" s="52"/>
+      <c r="V60" s="56"/>
       <c r="W60" s="33"/>
       <c r="X60" s="33"/>
       <c r="Y60" s="33"/>
       <c r="Z60" s="33"/>
       <c r="AA60" s="33"/>
       <c r="AB60" s="33"/>
-      <c r="AC60" s="55"/>
+      <c r="AC60" s="59"/>
       <c r="AD60" s="32"/>
       <c r="AE60" s="32"/>
       <c r="AF60" s="32"/>
       <c r="AG60" s="32"/>
       <c r="AH60" s="32"/>
       <c r="AI60" s="32"/>
-      <c r="AJ60" s="47"/>
+      <c r="AJ60" s="52"/>
       <c r="AK60" s="32"/>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A61" s="57"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="49"/>
+    <row r="61" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A61" s="46"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="47"/>
       <c r="D61" t="s">
         <v>104</v>
       </c>
@@ -7043,27 +7036,27 @@
       <c r="S61" s="33"/>
       <c r="T61" s="33"/>
       <c r="U61" s="33"/>
-      <c r="V61" s="52"/>
+      <c r="V61" s="56"/>
       <c r="W61" s="33"/>
       <c r="X61" s="33"/>
       <c r="Y61" s="33"/>
       <c r="Z61" s="33"/>
       <c r="AA61" s="33"/>
       <c r="AB61" s="33"/>
-      <c r="AC61" s="55"/>
+      <c r="AC61" s="59"/>
       <c r="AD61" s="32"/>
       <c r="AE61" s="32"/>
       <c r="AF61" s="32"/>
       <c r="AG61" s="32"/>
       <c r="AH61" s="32"/>
       <c r="AI61" s="32"/>
-      <c r="AJ61" s="47"/>
+      <c r="AJ61" s="52"/>
       <c r="AK61" s="32"/>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A62" s="57"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="49"/>
+    <row r="62" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A62" s="46"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="47"/>
       <c r="F62" s="36"/>
       <c r="G62" s="36"/>
       <c r="J62" s="7">
@@ -7080,27 +7073,27 @@
       <c r="S62" s="33"/>
       <c r="T62" s="33"/>
       <c r="U62" s="33"/>
-      <c r="V62" s="52"/>
+      <c r="V62" s="56"/>
       <c r="W62" s="33"/>
       <c r="X62" s="33"/>
       <c r="Y62" s="33"/>
       <c r="Z62" s="33"/>
       <c r="AA62" s="33"/>
       <c r="AB62" s="33"/>
-      <c r="AC62" s="55"/>
+      <c r="AC62" s="59"/>
       <c r="AD62" s="32"/>
       <c r="AE62" s="32"/>
       <c r="AF62" s="32"/>
       <c r="AG62" s="32"/>
       <c r="AH62" s="32"/>
       <c r="AI62" s="32"/>
-      <c r="AJ62" s="47"/>
+      <c r="AJ62" s="52"/>
       <c r="AK62" s="32"/>
     </row>
-    <row r="63" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="57"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="49" t="s">
+    <row r="63" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="46"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="47" t="s">
         <v>44</v>
       </c>
       <c r="D63" t="s">
@@ -7121,27 +7114,27 @@
       <c r="S63" s="33"/>
       <c r="T63" s="33"/>
       <c r="U63" s="33"/>
-      <c r="V63" s="52"/>
+      <c r="V63" s="56"/>
       <c r="W63" s="33"/>
       <c r="X63" s="33"/>
       <c r="Y63" s="33"/>
       <c r="Z63" s="33"/>
       <c r="AA63" s="33"/>
       <c r="AB63" s="33"/>
-      <c r="AC63" s="55"/>
+      <c r="AC63" s="59"/>
       <c r="AD63" s="32"/>
       <c r="AE63" s="32"/>
       <c r="AF63" s="32"/>
       <c r="AG63" s="32"/>
       <c r="AH63" s="32"/>
       <c r="AI63" s="32"/>
-      <c r="AJ63" s="47"/>
+      <c r="AJ63" s="52"/>
       <c r="AK63" s="32"/>
     </row>
-    <row r="64" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="57"/>
-      <c r="B64" s="60"/>
-      <c r="C64" s="49"/>
+    <row r="64" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="46"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="47"/>
       <c r="D64" t="s">
         <v>105</v>
       </c>
@@ -7161,26 +7154,26 @@
       <c r="S64" s="33"/>
       <c r="T64" s="33"/>
       <c r="U64" s="33"/>
-      <c r="V64" s="52"/>
+      <c r="V64" s="56"/>
       <c r="W64" s="33"/>
       <c r="X64" s="33"/>
       <c r="Y64" s="33"/>
       <c r="Z64" s="33"/>
       <c r="AA64" s="33"/>
       <c r="AB64" s="33"/>
-      <c r="AC64" s="55"/>
+      <c r="AC64" s="59"/>
       <c r="AD64" s="32"/>
       <c r="AE64" s="32"/>
       <c r="AF64" s="32"/>
       <c r="AG64" s="32"/>
       <c r="AH64" s="32"/>
       <c r="AI64" s="32"/>
-      <c r="AJ64" s="47"/>
+      <c r="AJ64" s="52"/>
       <c r="AK64" s="32"/>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A65" s="57"/>
-      <c r="B65" s="60"/>
+    <row r="65" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A65" s="46"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="14" t="s">
         <v>96</v>
       </c>
@@ -7199,26 +7192,26 @@
       <c r="S65" s="33"/>
       <c r="T65" s="33"/>
       <c r="U65" s="33"/>
-      <c r="V65" s="52"/>
+      <c r="V65" s="56"/>
       <c r="W65" s="33"/>
       <c r="X65" s="33"/>
       <c r="Y65" s="33"/>
       <c r="Z65" s="33"/>
       <c r="AA65" s="33"/>
       <c r="AB65" s="33"/>
-      <c r="AC65" s="55"/>
+      <c r="AC65" s="59"/>
       <c r="AD65" s="32"/>
       <c r="AE65" s="32"/>
       <c r="AF65" s="32"/>
       <c r="AG65" s="32"/>
       <c r="AH65" s="32"/>
       <c r="AI65" s="32"/>
-      <c r="AJ65" s="47"/>
+      <c r="AJ65" s="52"/>
       <c r="AK65" s="32"/>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A66" s="57"/>
-      <c r="B66" s="60"/>
+    <row r="66" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A66" s="46"/>
+      <c r="B66" s="50"/>
       <c r="C66" s="10" t="s">
         <v>24</v>
       </c>
@@ -7236,27 +7229,27 @@
       <c r="S66" s="33"/>
       <c r="T66" s="33"/>
       <c r="U66" s="33"/>
-      <c r="V66" s="52"/>
+      <c r="V66" s="56"/>
       <c r="W66" s="33"/>
       <c r="X66" s="33"/>
       <c r="Y66" s="33"/>
       <c r="Z66" s="33"/>
       <c r="AA66" s="33"/>
       <c r="AB66" s="33"/>
-      <c r="AC66" s="55"/>
+      <c r="AC66" s="59"/>
       <c r="AD66" s="32"/>
       <c r="AE66" s="32"/>
       <c r="AF66" s="32"/>
       <c r="AG66" s="32"/>
       <c r="AH66" s="32"/>
       <c r="AI66" s="32"/>
-      <c r="AJ66" s="47"/>
+      <c r="AJ66" s="52"/>
       <c r="AK66" s="32"/>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A67" s="57"/>
-      <c r="B67" s="60"/>
-      <c r="C67" s="49" t="s">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A67" s="46"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="47" t="s">
         <v>13</v>
       </c>
       <c r="D67" t="s">
@@ -7288,27 +7281,27 @@
       <c r="S67" s="33"/>
       <c r="T67" s="33"/>
       <c r="U67" s="33"/>
-      <c r="V67" s="52"/>
+      <c r="V67" s="56"/>
       <c r="W67" s="33"/>
       <c r="X67" s="33"/>
       <c r="Y67" s="33"/>
       <c r="Z67" s="33"/>
       <c r="AA67" s="33"/>
       <c r="AB67" s="33"/>
-      <c r="AC67" s="55"/>
+      <c r="AC67" s="59"/>
       <c r="AD67" s="32"/>
       <c r="AE67" s="32"/>
       <c r="AF67" s="32"/>
       <c r="AG67" s="32"/>
       <c r="AH67" s="32"/>
       <c r="AI67" s="32"/>
-      <c r="AJ67" s="47"/>
+      <c r="AJ67" s="52"/>
       <c r="AK67" s="32"/>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A68" s="57"/>
-      <c r="B68" s="60"/>
-      <c r="C68" s="49"/>
+    <row r="68" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A68" s="46"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="47"/>
       <c r="D68" t="s">
         <v>136</v>
       </c>
@@ -7338,27 +7331,27 @@
       <c r="S68" s="33"/>
       <c r="T68" s="33"/>
       <c r="U68" s="33"/>
-      <c r="V68" s="52"/>
+      <c r="V68" s="56"/>
       <c r="W68" s="33"/>
       <c r="X68" s="33"/>
       <c r="Y68" s="33"/>
       <c r="Z68" s="33"/>
       <c r="AA68" s="33"/>
       <c r="AB68" s="33"/>
-      <c r="AC68" s="55"/>
+      <c r="AC68" s="59"/>
       <c r="AD68" s="32"/>
       <c r="AE68" s="32"/>
       <c r="AF68" s="32"/>
       <c r="AG68" s="32"/>
       <c r="AH68" s="32"/>
       <c r="AI68" s="32"/>
-      <c r="AJ68" s="47"/>
+      <c r="AJ68" s="52"/>
       <c r="AK68" s="32"/>
     </row>
-    <row r="69" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="57"/>
-      <c r="B69" s="60"/>
-      <c r="C69" s="49" t="s">
+    <row r="69" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="46"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="47" t="s">
         <v>106</v>
       </c>
       <c r="D69" t="s">
@@ -7380,27 +7373,27 @@
       <c r="S69" s="33"/>
       <c r="T69" s="33"/>
       <c r="U69" s="33"/>
-      <c r="V69" s="52"/>
+      <c r="V69" s="56"/>
       <c r="W69" s="33"/>
       <c r="X69" s="33"/>
       <c r="Y69" s="33"/>
       <c r="Z69" s="33"/>
       <c r="AA69" s="33"/>
       <c r="AB69" s="33"/>
-      <c r="AC69" s="55"/>
+      <c r="AC69" s="59"/>
       <c r="AD69" s="32"/>
       <c r="AE69" s="32"/>
       <c r="AF69" s="32"/>
       <c r="AG69" s="32"/>
       <c r="AH69" s="32"/>
       <c r="AI69" s="32"/>
-      <c r="AJ69" s="47"/>
+      <c r="AJ69" s="52"/>
       <c r="AK69" s="32"/>
     </row>
-    <row r="70" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="57"/>
-      <c r="B70" s="60"/>
-      <c r="C70" s="49"/>
+    <row r="70" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="46"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="47"/>
       <c r="D70" t="s">
         <v>108</v>
       </c>
@@ -7420,27 +7413,27 @@
       <c r="S70" s="33"/>
       <c r="T70" s="33"/>
       <c r="U70" s="33"/>
-      <c r="V70" s="52"/>
+      <c r="V70" s="56"/>
       <c r="W70" s="33"/>
       <c r="X70" s="33"/>
       <c r="Y70" s="33"/>
       <c r="Z70" s="33"/>
       <c r="AA70" s="33"/>
       <c r="AB70" s="33"/>
-      <c r="AC70" s="55"/>
+      <c r="AC70" s="59"/>
       <c r="AD70" s="32"/>
       <c r="AE70" s="32"/>
       <c r="AF70" s="32"/>
       <c r="AG70" s="32"/>
       <c r="AH70" s="32"/>
       <c r="AI70" s="32"/>
-      <c r="AJ70" s="47"/>
+      <c r="AJ70" s="52"/>
       <c r="AK70" s="32"/>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A71" s="57"/>
-      <c r="B71" s="60"/>
-      <c r="C71" s="49" t="s">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A71" s="46"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="47" t="s">
         <v>30</v>
       </c>
       <c r="D71" t="s">
@@ -7460,27 +7453,27 @@
       <c r="S71" s="33"/>
       <c r="T71" s="33"/>
       <c r="U71" s="33"/>
-      <c r="V71" s="52"/>
+      <c r="V71" s="56"/>
       <c r="W71" s="33"/>
       <c r="X71" s="33"/>
       <c r="Y71" s="33"/>
       <c r="Z71" s="33"/>
       <c r="AA71" s="33"/>
       <c r="AB71" s="33"/>
-      <c r="AC71" s="55"/>
+      <c r="AC71" s="59"/>
       <c r="AD71" s="32"/>
       <c r="AE71" s="32"/>
       <c r="AF71" s="32"/>
       <c r="AG71" s="32"/>
       <c r="AH71" s="32"/>
       <c r="AI71" s="32"/>
-      <c r="AJ71" s="47"/>
+      <c r="AJ71" s="52"/>
       <c r="AK71" s="32"/>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A72" s="57"/>
-      <c r="B72" s="60"/>
-      <c r="C72" s="49"/>
+    <row r="72" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A72" s="46"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="47"/>
       <c r="D72" t="s">
         <v>32</v>
       </c>
@@ -7498,27 +7491,27 @@
       <c r="S72" s="33"/>
       <c r="T72" s="33"/>
       <c r="U72" s="33"/>
-      <c r="V72" s="52"/>
+      <c r="V72" s="56"/>
       <c r="W72" s="33"/>
       <c r="X72" s="33"/>
       <c r="Y72" s="33"/>
       <c r="Z72" s="33"/>
       <c r="AA72" s="33"/>
       <c r="AB72" s="33"/>
-      <c r="AC72" s="55"/>
+      <c r="AC72" s="59"/>
       <c r="AD72" s="32"/>
       <c r="AE72" s="32"/>
       <c r="AF72" s="32"/>
       <c r="AG72" s="32"/>
       <c r="AH72" s="32"/>
       <c r="AI72" s="32"/>
-      <c r="AJ72" s="47"/>
+      <c r="AJ72" s="52"/>
       <c r="AK72" s="32"/>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A73" s="57"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="49"/>
+    <row r="73" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A73" s="46"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="47"/>
       <c r="D73" t="s">
         <v>33</v>
       </c>
@@ -7536,25 +7529,25 @@
       <c r="S73" s="33"/>
       <c r="T73" s="33"/>
       <c r="U73" s="33"/>
-      <c r="V73" s="53"/>
+      <c r="V73" s="57"/>
       <c r="W73" s="33"/>
       <c r="X73" s="33"/>
       <c r="Y73" s="33"/>
       <c r="Z73" s="33"/>
       <c r="AA73" s="33"/>
       <c r="AB73" s="33"/>
-      <c r="AC73" s="56"/>
+      <c r="AC73" s="60"/>
       <c r="AD73" s="32"/>
       <c r="AE73" s="32"/>
       <c r="AF73" s="32"/>
       <c r="AG73" s="32"/>
       <c r="AH73" s="32"/>
       <c r="AI73" s="32"/>
-      <c r="AJ73" s="48"/>
+      <c r="AJ73" s="53"/>
       <c r="AK73" s="32"/>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A74" s="57"/>
+    <row r="74" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A74" s="46"/>
       <c r="B74" s="11" t="s">
         <v>21</v>
       </c>
@@ -7570,18 +7563,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A5:A74"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B56:B73"/>
-    <mergeCell ref="C67:C68"/>
     <mergeCell ref="AJ5:AJ73"/>
     <mergeCell ref="C18:C40"/>
     <mergeCell ref="B11:B55"/>
@@ -7595,6 +7576,18 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="D56:D57"/>
+    <mergeCell ref="A5:A74"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B56:B73"/>
+    <mergeCell ref="C67:C68"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K3:AK5 K6:U73 AK6:AK73 W6:AB73 AD6:AI73">
@@ -7662,31 +7655,31 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="11" max="11" width="32.3984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="53.3984375" customWidth="1"/>
+    <col min="11" max="11" width="32.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="53.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-    </row>
-    <row r="4" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+    </row>
+    <row r="4" spans="2:14" ht="45.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
       <c r="K4" s="24" t="s">
         <v>78</v>
       </c>
@@ -7694,15 +7687,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+    <row r="5" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
       <c r="K5" s="25" t="s">
         <v>80</v>
       </c>
@@ -7710,15 +7703,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
+    <row r="6" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
       <c r="K6" s="25" t="s">
         <v>81</v>
       </c>
@@ -7726,208 +7719,208 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
+    <row r="7" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
       <c r="K7" s="25" t="s">
         <v>82</v>
       </c>
       <c r="L7" s="26"/>
     </row>
-    <row r="8" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
+    <row r="8" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B8" s="47"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
       <c r="K8" s="25" t="s">
         <v>83</v>
       </c>
       <c r="L8" s="26"/>
     </row>
-    <row r="9" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
+    <row r="9" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
       <c r="K9" s="25" t="s">
         <v>84</v>
       </c>
       <c r="L9" s="26"/>
     </row>
-    <row r="10" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
+    <row r="10" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
       <c r="K10" s="25" t="s">
         <v>85</v>
       </c>
       <c r="L10" s="26"/>
     </row>
-    <row r="11" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
+    <row r="11" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
       <c r="K11" s="25" t="s">
         <v>86</v>
       </c>
       <c r="L11" s="26"/>
       <c r="N11" s="23"/>
     </row>
-    <row r="12" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
+    <row r="12" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
       <c r="K12" s="25" t="s">
         <v>87</v>
       </c>
       <c r="L12" s="26"/>
     </row>
-    <row r="13" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
+    <row r="13" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
       <c r="K13" s="25" t="s">
         <v>88</v>
       </c>
       <c r="L13" s="26"/>
     </row>
-    <row r="14" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
+    <row r="14" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
       <c r="K14" s="25" t="s">
         <v>89</v>
       </c>
       <c r="L14" s="26"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7946,7 +7939,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7961,40 +7954,40 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" customWidth="1"/>
-    <col min="2" max="2" width="17.19921875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.19921875" style="18" customWidth="1"/>
+    <col min="1" max="1" width="7.25" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="18" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="14"/>
       <c r="B4" s="27" t="s">
         <v>54</v>
@@ -8010,7 +8003,7 @@
       </c>
       <c r="F4" s="14"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B5" s="28" t="s">
         <v>48</v>
       </c>
@@ -8022,7 +8015,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B6" s="28" t="s">
         <v>49</v>
       </c>
@@ -8036,7 +8029,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B7" s="28" t="s">
         <v>70</v>
       </c>
@@ -8048,7 +8041,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B8" s="28" t="s">
         <v>50</v>
       </c>
@@ -8060,7 +8053,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B9" s="28" t="s">
         <v>51</v>
       </c>
@@ -8072,7 +8065,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B10" s="62" t="s">
         <v>67</v>
       </c>
@@ -8086,7 +8079,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B11" s="62"/>
       <c r="C11" s="2" t="s">
         <v>73</v>
@@ -8094,7 +8087,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" s="28" t="s">
         <v>52</v>
       </c>
@@ -8108,7 +8101,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B13" s="28" t="s">
         <v>53</v>
       </c>
@@ -8120,7 +8113,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B14" s="28" t="s">
         <v>64</v>
       </c>
@@ -8132,25 +8125,25 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B15" s="28"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16" s="28"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="28"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="28" t="s">
         <v>56</v>
       </c>
@@ -8176,15 +8169,15 @@
       <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.8984375" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/schedule/ガントチャートxlsx.xlsx
+++ b/schedule/ガントチャートxlsx.xlsx
@@ -1669,21 +1669,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1692,6 +1677,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1713,6 +1701,18 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4357,7 +4357,7 @@
       <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4365,7 +4365,7 @@
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.25" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="22.625" customWidth="1"/>
     <col min="6" max="6" width="7.125" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="14"/>
@@ -4642,10 +4642,10 @@
       </c>
     </row>
     <row r="5" spans="1:45" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="58" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -4677,7 +4677,7 @@
       <c r="S5" s="32"/>
       <c r="T5" s="32"/>
       <c r="U5" s="32"/>
-      <c r="V5" s="55" t="s">
+      <c r="V5" s="51" t="s">
         <v>118</v>
       </c>
       <c r="W5" s="32"/>
@@ -4686,7 +4686,7 @@
       <c r="Z5" s="32"/>
       <c r="AA5" s="32"/>
       <c r="AB5" s="32"/>
-      <c r="AC5" s="58" t="s">
+      <c r="AC5" s="54" t="s">
         <v>119</v>
       </c>
       <c r="AD5" s="32"/>
@@ -4695,14 +4695,14 @@
       <c r="AG5" s="32"/>
       <c r="AH5" s="32"/>
       <c r="AI5" s="32"/>
-      <c r="AJ5" s="51" t="s">
+      <c r="AJ5" s="46" t="s">
         <v>94</v>
       </c>
       <c r="AK5" s="32"/>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A6" s="46"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
@@ -4726,26 +4726,26 @@
       <c r="S6" s="33"/>
       <c r="T6" s="33"/>
       <c r="U6" s="33"/>
-      <c r="V6" s="56"/>
+      <c r="V6" s="52"/>
       <c r="W6" s="33"/>
       <c r="X6" s="33"/>
       <c r="Y6" s="33"/>
       <c r="Z6" s="33"/>
       <c r="AA6" s="33"/>
       <c r="AB6" s="33"/>
-      <c r="AC6" s="59"/>
+      <c r="AC6" s="55"/>
       <c r="AD6" s="32"/>
       <c r="AE6" s="32"/>
       <c r="AF6" s="32"/>
       <c r="AG6" s="32"/>
       <c r="AH6" s="32"/>
       <c r="AI6" s="32"/>
-      <c r="AJ6" s="52"/>
+      <c r="AJ6" s="47"/>
       <c r="AK6" s="32"/>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A7" s="46"/>
-      <c r="B7" s="49"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
@@ -4766,26 +4766,26 @@
       <c r="S7" s="33"/>
       <c r="T7" s="33"/>
       <c r="U7" s="33"/>
-      <c r="V7" s="56"/>
+      <c r="V7" s="52"/>
       <c r="W7" s="33"/>
       <c r="X7" s="33"/>
       <c r="Y7" s="33"/>
       <c r="Z7" s="33"/>
       <c r="AA7" s="33"/>
       <c r="AB7" s="33"/>
-      <c r="AC7" s="59"/>
+      <c r="AC7" s="55"/>
       <c r="AD7" s="32"/>
       <c r="AE7" s="32"/>
       <c r="AF7" s="32"/>
       <c r="AG7" s="32"/>
       <c r="AH7" s="32"/>
       <c r="AI7" s="32"/>
-      <c r="AJ7" s="52"/>
+      <c r="AJ7" s="47"/>
       <c r="AK7" s="32"/>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A8" s="46"/>
-      <c r="B8" s="49"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
@@ -4809,26 +4809,26 @@
       <c r="S8" s="33"/>
       <c r="T8" s="33"/>
       <c r="U8" s="33"/>
-      <c r="V8" s="56"/>
+      <c r="V8" s="52"/>
       <c r="W8" s="33"/>
       <c r="X8" s="33"/>
       <c r="Y8" s="33"/>
       <c r="Z8" s="33"/>
       <c r="AA8" s="33"/>
       <c r="AB8" s="33"/>
-      <c r="AC8" s="59"/>
+      <c r="AC8" s="55"/>
       <c r="AD8" s="32"/>
       <c r="AE8" s="32"/>
       <c r="AF8" s="32"/>
       <c r="AG8" s="32"/>
       <c r="AH8" s="32"/>
       <c r="AI8" s="32"/>
-      <c r="AJ8" s="52"/>
+      <c r="AJ8" s="47"/>
       <c r="AK8" s="32"/>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A9" s="46"/>
-      <c r="B9" s="49"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="10" t="s">
         <v>34</v>
       </c>
@@ -4849,26 +4849,26 @@
       <c r="S9" s="33"/>
       <c r="T9" s="33"/>
       <c r="U9" s="33"/>
-      <c r="V9" s="56"/>
+      <c r="V9" s="52"/>
       <c r="W9" s="33"/>
       <c r="X9" s="33"/>
       <c r="Y9" s="33"/>
       <c r="Z9" s="33"/>
       <c r="AA9" s="33"/>
       <c r="AB9" s="33"/>
-      <c r="AC9" s="59"/>
+      <c r="AC9" s="55"/>
       <c r="AD9" s="32"/>
       <c r="AE9" s="32"/>
       <c r="AF9" s="32"/>
       <c r="AG9" s="32"/>
       <c r="AH9" s="32"/>
       <c r="AI9" s="32"/>
-      <c r="AJ9" s="52"/>
+      <c r="AJ9" s="47"/>
       <c r="AK9" s="32"/>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A10" s="46"/>
-      <c r="B10" s="49"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="10" t="s">
         <v>35</v>
       </c>
@@ -4889,29 +4889,29 @@
       <c r="S10" s="33"/>
       <c r="T10" s="33"/>
       <c r="U10" s="33"/>
-      <c r="V10" s="56"/>
+      <c r="V10" s="52"/>
       <c r="W10" s="33"/>
       <c r="X10" s="33"/>
       <c r="Y10" s="33"/>
       <c r="Z10" s="33"/>
       <c r="AA10" s="33"/>
       <c r="AB10" s="33"/>
-      <c r="AC10" s="59"/>
+      <c r="AC10" s="55"/>
       <c r="AD10" s="32"/>
       <c r="AE10" s="32"/>
       <c r="AF10" s="32"/>
       <c r="AG10" s="32"/>
       <c r="AH10" s="32"/>
       <c r="AI10" s="32"/>
-      <c r="AJ10" s="52"/>
+      <c r="AJ10" s="47"/>
       <c r="AK10" s="32"/>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A11" s="46"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="57"/>
+      <c r="B11" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="49" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="s">
@@ -4943,27 +4943,27 @@
       <c r="S11" s="33"/>
       <c r="T11" s="33"/>
       <c r="U11" s="33"/>
-      <c r="V11" s="56"/>
+      <c r="V11" s="52"/>
       <c r="W11" s="33"/>
       <c r="X11" s="33"/>
       <c r="Y11" s="33"/>
       <c r="Z11" s="33"/>
       <c r="AA11" s="33"/>
       <c r="AB11" s="33"/>
-      <c r="AC11" s="59"/>
+      <c r="AC11" s="55"/>
       <c r="AD11" s="32"/>
       <c r="AE11" s="32"/>
       <c r="AF11" s="32"/>
       <c r="AG11" s="32"/>
       <c r="AH11" s="32"/>
       <c r="AI11" s="32"/>
-      <c r="AJ11" s="52"/>
+      <c r="AJ11" s="47"/>
       <c r="AK11" s="32"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A12" s="46"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="47"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="49"/>
       <c r="D12" t="s">
         <v>23</v>
       </c>
@@ -4981,27 +4981,27 @@
       <c r="S12" s="33"/>
       <c r="T12" s="33"/>
       <c r="U12" s="33"/>
-      <c r="V12" s="56"/>
+      <c r="V12" s="52"/>
       <c r="W12" s="33"/>
       <c r="X12" s="33"/>
       <c r="Y12" s="33"/>
       <c r="Z12" s="33"/>
       <c r="AA12" s="33"/>
       <c r="AB12" s="33"/>
-      <c r="AC12" s="59"/>
+      <c r="AC12" s="55"/>
       <c r="AD12" s="32"/>
       <c r="AE12" s="32"/>
       <c r="AF12" s="32"/>
       <c r="AG12" s="32"/>
       <c r="AH12" s="32"/>
       <c r="AI12" s="32"/>
-      <c r="AJ12" s="52"/>
+      <c r="AJ12" s="47"/>
       <c r="AK12" s="32"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A13" s="46"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="47"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="16" t="s">
         <v>45</v>
       </c>
@@ -5021,27 +5021,27 @@
       <c r="S13" s="33"/>
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
-      <c r="V13" s="56"/>
+      <c r="V13" s="52"/>
       <c r="W13" s="33"/>
       <c r="X13" s="33"/>
       <c r="Y13" s="33"/>
       <c r="Z13" s="33"/>
       <c r="AA13" s="33"/>
       <c r="AB13" s="33"/>
-      <c r="AC13" s="59"/>
+      <c r="AC13" s="55"/>
       <c r="AD13" s="32"/>
       <c r="AE13" s="32"/>
       <c r="AF13" s="32"/>
       <c r="AG13" s="32"/>
       <c r="AH13" s="32"/>
       <c r="AI13" s="32"/>
-      <c r="AJ13" s="52"/>
+      <c r="AJ13" s="47"/>
       <c r="AK13" s="32"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A14" s="46"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="47"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="15" t="s">
         <v>27</v>
       </c>
@@ -5060,27 +5060,27 @@
       <c r="S14" s="33"/>
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
-      <c r="V14" s="56"/>
+      <c r="V14" s="52"/>
       <c r="W14" s="33"/>
       <c r="X14" s="33"/>
       <c r="Y14" s="33"/>
       <c r="Z14" s="33"/>
       <c r="AA14" s="33"/>
       <c r="AB14" s="33"/>
-      <c r="AC14" s="59"/>
+      <c r="AC14" s="55"/>
       <c r="AD14" s="32"/>
       <c r="AE14" s="32"/>
       <c r="AF14" s="32"/>
       <c r="AG14" s="32"/>
       <c r="AH14" s="32"/>
       <c r="AI14" s="32"/>
-      <c r="AJ14" s="52"/>
+      <c r="AJ14" s="47"/>
       <c r="AK14" s="32"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A15" s="46"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="47" t="s">
+      <c r="A15" s="57"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="49" t="s">
         <v>19</v>
       </c>
       <c r="D15" t="s">
@@ -5103,27 +5103,27 @@
       <c r="S15" s="33"/>
       <c r="T15" s="33"/>
       <c r="U15" s="33"/>
-      <c r="V15" s="56"/>
+      <c r="V15" s="52"/>
       <c r="W15" s="33"/>
       <c r="X15" s="33"/>
       <c r="Y15" s="33"/>
       <c r="Z15" s="33"/>
       <c r="AA15" s="33"/>
       <c r="AB15" s="33"/>
-      <c r="AC15" s="59"/>
+      <c r="AC15" s="55"/>
       <c r="AD15" s="32"/>
       <c r="AE15" s="32"/>
       <c r="AF15" s="32"/>
       <c r="AG15" s="32"/>
       <c r="AH15" s="32"/>
       <c r="AI15" s="32"/>
-      <c r="AJ15" s="52"/>
+      <c r="AJ15" s="47"/>
       <c r="AK15" s="32"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A16" s="46"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="47"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="17" t="s">
         <v>45</v>
       </c>
@@ -5143,27 +5143,27 @@
       <c r="S16" s="33"/>
       <c r="T16" s="33"/>
       <c r="U16" s="33"/>
-      <c r="V16" s="56"/>
+      <c r="V16" s="52"/>
       <c r="W16" s="33"/>
       <c r="X16" s="33"/>
       <c r="Y16" s="33"/>
       <c r="Z16" s="33"/>
       <c r="AA16" s="33"/>
       <c r="AB16" s="33"/>
-      <c r="AC16" s="59"/>
+      <c r="AC16" s="55"/>
       <c r="AD16" s="32"/>
       <c r="AE16" s="32"/>
       <c r="AF16" s="32"/>
       <c r="AG16" s="32"/>
       <c r="AH16" s="32"/>
       <c r="AI16" s="32"/>
-      <c r="AJ16" s="52"/>
+      <c r="AJ16" s="47"/>
       <c r="AK16" s="32"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A17" s="46"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="47"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="49"/>
       <c r="D17" t="s">
         <v>23</v>
       </c>
@@ -5181,30 +5181,30 @@
       <c r="S17" s="33"/>
       <c r="T17" s="33"/>
       <c r="U17" s="33"/>
-      <c r="V17" s="56"/>
+      <c r="V17" s="52"/>
       <c r="W17" s="33"/>
       <c r="X17" s="33"/>
       <c r="Y17" s="33"/>
       <c r="Z17" s="33"/>
       <c r="AA17" s="33"/>
       <c r="AB17" s="33"/>
-      <c r="AC17" s="59"/>
+      <c r="AC17" s="55"/>
       <c r="AD17" s="32"/>
       <c r="AE17" s="32"/>
       <c r="AF17" s="32"/>
       <c r="AG17" s="32"/>
       <c r="AH17" s="32"/>
       <c r="AI17" s="32"/>
-      <c r="AJ17" s="52"/>
+      <c r="AJ17" s="47"/>
       <c r="AK17" s="32"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A18" s="46"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="47" t="s">
+      <c r="A18" s="57"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="49" t="s">
         <v>102</v>
       </c>
       <c r="E18" t="s">
@@ -5230,28 +5230,28 @@
       <c r="S18" s="33"/>
       <c r="T18" s="33"/>
       <c r="U18" s="33"/>
-      <c r="V18" s="56"/>
+      <c r="V18" s="52"/>
       <c r="W18" s="33"/>
       <c r="X18" s="33"/>
       <c r="Y18" s="33"/>
       <c r="Z18" s="33"/>
       <c r="AA18" s="33"/>
       <c r="AB18" s="33"/>
-      <c r="AC18" s="59"/>
+      <c r="AC18" s="55"/>
       <c r="AD18" s="32"/>
       <c r="AE18" s="32"/>
       <c r="AF18" s="32"/>
       <c r="AG18" s="32"/>
       <c r="AH18" s="32"/>
       <c r="AI18" s="32"/>
-      <c r="AJ18" s="52"/>
+      <c r="AJ18" s="47"/>
       <c r="AK18" s="32"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A19" s="46"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
       <c r="E19" t="s">
         <v>122</v>
       </c>
@@ -5281,28 +5281,28 @@
       <c r="S19" s="33"/>
       <c r="T19" s="33"/>
       <c r="U19" s="33"/>
-      <c r="V19" s="56"/>
+      <c r="V19" s="52"/>
       <c r="W19" s="33"/>
       <c r="X19" s="33"/>
       <c r="Y19" s="33"/>
       <c r="Z19" s="33"/>
       <c r="AA19" s="33"/>
       <c r="AB19" s="33"/>
-      <c r="AC19" s="59"/>
+      <c r="AC19" s="55"/>
       <c r="AD19" s="32"/>
       <c r="AE19" s="32"/>
       <c r="AF19" s="32"/>
       <c r="AG19" s="32"/>
       <c r="AH19" s="32"/>
       <c r="AI19" s="32"/>
-      <c r="AJ19" s="52"/>
+      <c r="AJ19" s="47"/>
       <c r="AK19" s="32"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A20" s="46"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
       <c r="E20" t="s">
         <v>116</v>
       </c>
@@ -5322,28 +5322,28 @@
       <c r="S20" s="33"/>
       <c r="T20" s="33"/>
       <c r="U20" s="33"/>
-      <c r="V20" s="56"/>
+      <c r="V20" s="52"/>
       <c r="W20" s="33"/>
       <c r="X20" s="33"/>
       <c r="Y20" s="33"/>
       <c r="Z20" s="33"/>
       <c r="AA20" s="33"/>
       <c r="AB20" s="33"/>
-      <c r="AC20" s="59"/>
+      <c r="AC20" s="55"/>
       <c r="AD20" s="32"/>
       <c r="AE20" s="32"/>
       <c r="AF20" s="32"/>
       <c r="AG20" s="32"/>
       <c r="AH20" s="32"/>
       <c r="AI20" s="32"/>
-      <c r="AJ20" s="52"/>
+      <c r="AJ20" s="47"/>
       <c r="AK20" s="32"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A21" s="46"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
       <c r="E21" t="s">
         <v>146</v>
       </c>
@@ -5373,28 +5373,28 @@
       <c r="S21" s="33"/>
       <c r="T21" s="33"/>
       <c r="U21" s="33"/>
-      <c r="V21" s="56"/>
+      <c r="V21" s="52"/>
       <c r="W21" s="33"/>
       <c r="X21" s="33"/>
       <c r="Y21" s="33"/>
       <c r="Z21" s="33"/>
       <c r="AA21" s="33"/>
       <c r="AB21" s="33"/>
-      <c r="AC21" s="59"/>
+      <c r="AC21" s="55"/>
       <c r="AD21" s="32"/>
       <c r="AE21" s="32"/>
       <c r="AF21" s="32"/>
       <c r="AG21" s="32"/>
       <c r="AH21" s="32"/>
       <c r="AI21" s="32"/>
-      <c r="AJ21" s="52"/>
+      <c r="AJ21" s="47"/>
       <c r="AK21" s="32"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A22" s="46"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
       <c r="F22" s="45"/>
       <c r="G22" s="45"/>
       <c r="J22" s="7">
@@ -5411,28 +5411,28 @@
       <c r="S22" s="33"/>
       <c r="T22" s="33"/>
       <c r="U22" s="33"/>
-      <c r="V22" s="56"/>
+      <c r="V22" s="52"/>
       <c r="W22" s="33"/>
       <c r="X22" s="33"/>
       <c r="Y22" s="33"/>
       <c r="Z22" s="33"/>
       <c r="AA22" s="33"/>
       <c r="AB22" s="33"/>
-      <c r="AC22" s="59"/>
+      <c r="AC22" s="55"/>
       <c r="AD22" s="32"/>
       <c r="AE22" s="32"/>
       <c r="AF22" s="32"/>
       <c r="AG22" s="32"/>
       <c r="AH22" s="32"/>
       <c r="AI22" s="32"/>
-      <c r="AJ22" s="52"/>
+      <c r="AJ22" s="47"/>
       <c r="AK22" s="32"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A23" s="46"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
       <c r="E23" t="s">
         <v>128</v>
       </c>
@@ -5462,28 +5462,28 @@
       <c r="S23" s="33"/>
       <c r="T23" s="33"/>
       <c r="U23" s="33"/>
-      <c r="V23" s="56"/>
+      <c r="V23" s="52"/>
       <c r="W23" s="33"/>
       <c r="X23" s="33"/>
       <c r="Y23" s="33"/>
       <c r="Z23" s="33"/>
       <c r="AA23" s="33"/>
       <c r="AB23" s="33"/>
-      <c r="AC23" s="59"/>
+      <c r="AC23" s="55"/>
       <c r="AD23" s="32"/>
       <c r="AE23" s="32"/>
       <c r="AF23" s="32"/>
       <c r="AG23" s="32"/>
       <c r="AH23" s="32"/>
       <c r="AI23" s="32"/>
-      <c r="AJ23" s="52"/>
+      <c r="AJ23" s="47"/>
       <c r="AK23" s="32"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A24" s="46"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
       <c r="E24" t="s">
         <v>117</v>
       </c>
@@ -5503,28 +5503,28 @@
       <c r="S24" s="33"/>
       <c r="T24" s="33"/>
       <c r="U24" s="33"/>
-      <c r="V24" s="56"/>
+      <c r="V24" s="52"/>
       <c r="W24" s="33"/>
       <c r="X24" s="33"/>
       <c r="Y24" s="33"/>
       <c r="Z24" s="33"/>
       <c r="AA24" s="33"/>
       <c r="AB24" s="33"/>
-      <c r="AC24" s="59"/>
+      <c r="AC24" s="55"/>
       <c r="AD24" s="32"/>
       <c r="AE24" s="32"/>
       <c r="AF24" s="32"/>
       <c r="AG24" s="32"/>
       <c r="AH24" s="32"/>
       <c r="AI24" s="32"/>
-      <c r="AJ24" s="52"/>
+      <c r="AJ24" s="47"/>
       <c r="AK24" s="32"/>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A25" s="46"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
       <c r="E25" t="s">
         <v>114</v>
       </c>
@@ -5554,28 +5554,28 @@
       <c r="S25" s="33"/>
       <c r="T25" s="33"/>
       <c r="U25" s="33"/>
-      <c r="V25" s="56"/>
+      <c r="V25" s="52"/>
       <c r="W25" s="33"/>
       <c r="X25" s="33"/>
       <c r="Y25" s="33"/>
       <c r="Z25" s="33"/>
       <c r="AA25" s="33"/>
       <c r="AB25" s="33"/>
-      <c r="AC25" s="59"/>
+      <c r="AC25" s="55"/>
       <c r="AD25" s="32"/>
       <c r="AE25" s="32"/>
       <c r="AF25" s="32"/>
       <c r="AG25" s="32"/>
       <c r="AH25" s="32"/>
       <c r="AI25" s="32"/>
-      <c r="AJ25" s="52"/>
+      <c r="AJ25" s="47"/>
       <c r="AK25" s="32"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A26" s="46"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
       <c r="E26" t="s">
         <v>110</v>
       </c>
@@ -5595,28 +5595,28 @@
       <c r="S26" s="33"/>
       <c r="T26" s="33"/>
       <c r="U26" s="33"/>
-      <c r="V26" s="56"/>
+      <c r="V26" s="52"/>
       <c r="W26" s="33"/>
       <c r="X26" s="33"/>
       <c r="Y26" s="33"/>
       <c r="Z26" s="33"/>
       <c r="AA26" s="33"/>
       <c r="AB26" s="33"/>
-      <c r="AC26" s="59"/>
+      <c r="AC26" s="55"/>
       <c r="AD26" s="32"/>
       <c r="AE26" s="32"/>
       <c r="AF26" s="32"/>
       <c r="AG26" s="32"/>
       <c r="AH26" s="32"/>
       <c r="AI26" s="32"/>
-      <c r="AJ26" s="52"/>
+      <c r="AJ26" s="47"/>
       <c r="AK26" s="32"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A27" s="46"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47" t="s">
+      <c r="A27" s="57"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49" t="s">
         <v>25</v>
       </c>
       <c r="E27" t="s">
@@ -5645,28 +5645,28 @@
       <c r="S27" s="33"/>
       <c r="T27" s="33"/>
       <c r="U27" s="33"/>
-      <c r="V27" s="56"/>
+      <c r="V27" s="52"/>
       <c r="W27" s="33"/>
       <c r="X27" s="33"/>
       <c r="Y27" s="33"/>
       <c r="Z27" s="33"/>
       <c r="AA27" s="33"/>
       <c r="AB27" s="33"/>
-      <c r="AC27" s="59"/>
+      <c r="AC27" s="55"/>
       <c r="AD27" s="32"/>
       <c r="AE27" s="32"/>
       <c r="AF27" s="32"/>
       <c r="AG27" s="32"/>
       <c r="AH27" s="32"/>
       <c r="AI27" s="32"/>
-      <c r="AJ27" s="52"/>
+      <c r="AJ27" s="47"/>
       <c r="AK27" s="32"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A28" s="46"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
       <c r="E28" t="s">
         <v>129</v>
       </c>
@@ -5694,28 +5694,28 @@
       <c r="S28" s="33"/>
       <c r="T28" s="33"/>
       <c r="U28" s="33"/>
-      <c r="V28" s="56"/>
+      <c r="V28" s="52"/>
       <c r="W28" s="33"/>
       <c r="X28" s="33"/>
       <c r="Y28" s="33"/>
       <c r="Z28" s="33"/>
       <c r="AA28" s="33"/>
       <c r="AB28" s="33"/>
-      <c r="AC28" s="59"/>
+      <c r="AC28" s="55"/>
       <c r="AD28" s="32"/>
       <c r="AE28" s="32"/>
       <c r="AF28" s="32"/>
       <c r="AG28" s="32"/>
       <c r="AH28" s="32"/>
       <c r="AI28" s="32"/>
-      <c r="AJ28" s="52"/>
+      <c r="AJ28" s="47"/>
       <c r="AK28" s="32"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A29" s="46"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47" t="s">
+      <c r="A29" s="57"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49" t="s">
         <v>13</v>
       </c>
       <c r="E29" t="s">
@@ -5735,28 +5735,28 @@
       <c r="S29" s="33"/>
       <c r="T29" s="33"/>
       <c r="U29" s="33"/>
-      <c r="V29" s="56"/>
+      <c r="V29" s="52"/>
       <c r="W29" s="33"/>
       <c r="X29" s="33"/>
       <c r="Y29" s="33"/>
       <c r="Z29" s="33"/>
       <c r="AA29" s="33"/>
       <c r="AB29" s="33"/>
-      <c r="AC29" s="59"/>
+      <c r="AC29" s="55"/>
       <c r="AD29" s="32"/>
       <c r="AE29" s="32"/>
       <c r="AF29" s="32"/>
       <c r="AG29" s="32"/>
       <c r="AH29" s="32"/>
       <c r="AI29" s="32"/>
-      <c r="AJ29" s="52"/>
+      <c r="AJ29" s="47"/>
       <c r="AK29" s="32"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A30" s="46"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
       <c r="E30" t="s">
         <v>106</v>
       </c>
@@ -5776,28 +5776,28 @@
       <c r="S30" s="33"/>
       <c r="T30" s="33"/>
       <c r="U30" s="33"/>
-      <c r="V30" s="56"/>
+      <c r="V30" s="52"/>
       <c r="W30" s="33"/>
       <c r="X30" s="33"/>
       <c r="Y30" s="33"/>
       <c r="Z30" s="33"/>
       <c r="AA30" s="33"/>
       <c r="AB30" s="33"/>
-      <c r="AC30" s="59"/>
+      <c r="AC30" s="55"/>
       <c r="AD30" s="32"/>
       <c r="AE30" s="32"/>
       <c r="AF30" s="32"/>
       <c r="AG30" s="32"/>
       <c r="AH30" s="32"/>
       <c r="AI30" s="32"/>
-      <c r="AJ30" s="52"/>
+      <c r="AJ30" s="47"/>
       <c r="AK30" s="32"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A31" s="46"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
       <c r="E31" t="s">
         <v>123</v>
       </c>
@@ -5827,28 +5827,28 @@
       <c r="S31" s="33"/>
       <c r="T31" s="33"/>
       <c r="U31" s="33"/>
-      <c r="V31" s="56"/>
+      <c r="V31" s="52"/>
       <c r="W31" s="33"/>
       <c r="X31" s="33"/>
       <c r="Y31" s="33"/>
       <c r="Z31" s="33"/>
       <c r="AA31" s="33"/>
       <c r="AB31" s="33"/>
-      <c r="AC31" s="59"/>
+      <c r="AC31" s="55"/>
       <c r="AD31" s="32"/>
       <c r="AE31" s="32"/>
       <c r="AF31" s="32"/>
       <c r="AG31" s="32"/>
       <c r="AH31" s="32"/>
       <c r="AI31" s="32"/>
-      <c r="AJ31" s="52"/>
+      <c r="AJ31" s="47"/>
       <c r="AK31" s="32"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A32" s="46"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47" t="s">
+      <c r="A32" s="57"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49" t="s">
         <v>97</v>
       </c>
       <c r="E32" t="s">
@@ -5870,28 +5870,28 @@
       <c r="S32" s="33"/>
       <c r="T32" s="33"/>
       <c r="U32" s="33"/>
-      <c r="V32" s="56"/>
+      <c r="V32" s="52"/>
       <c r="W32" s="33"/>
       <c r="X32" s="33"/>
       <c r="Y32" s="33"/>
       <c r="Z32" s="33"/>
       <c r="AA32" s="33"/>
       <c r="AB32" s="33"/>
-      <c r="AC32" s="59"/>
+      <c r="AC32" s="55"/>
       <c r="AD32" s="32"/>
       <c r="AE32" s="32"/>
       <c r="AF32" s="32"/>
       <c r="AG32" s="32"/>
       <c r="AH32" s="32"/>
       <c r="AI32" s="32"/>
-      <c r="AJ32" s="52"/>
+      <c r="AJ32" s="47"/>
       <c r="AK32" s="32"/>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A33" s="46"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
       <c r="E33" t="s">
         <v>121</v>
       </c>
@@ -5911,28 +5911,28 @@
       <c r="S33" s="33"/>
       <c r="T33" s="33"/>
       <c r="U33" s="33"/>
-      <c r="V33" s="56"/>
+      <c r="V33" s="52"/>
       <c r="W33" s="33"/>
       <c r="X33" s="33"/>
       <c r="Y33" s="33"/>
       <c r="Z33" s="33"/>
       <c r="AA33" s="33"/>
       <c r="AB33" s="33"/>
-      <c r="AC33" s="59"/>
+      <c r="AC33" s="55"/>
       <c r="AD33" s="32"/>
       <c r="AE33" s="32"/>
       <c r="AF33" s="32"/>
       <c r="AG33" s="32"/>
       <c r="AH33" s="32"/>
       <c r="AI33" s="32"/>
-      <c r="AJ33" s="52"/>
+      <c r="AJ33" s="47"/>
       <c r="AK33" s="32"/>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A34" s="46"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="49"/>
       <c r="E34" t="s">
         <v>111</v>
       </c>
@@ -5952,27 +5952,27 @@
       <c r="S34" s="33"/>
       <c r="T34" s="33"/>
       <c r="U34" s="33"/>
-      <c r="V34" s="56"/>
+      <c r="V34" s="52"/>
       <c r="W34" s="33"/>
       <c r="X34" s="33"/>
       <c r="Y34" s="33"/>
       <c r="Z34" s="33"/>
       <c r="AA34" s="33"/>
       <c r="AB34" s="33"/>
-      <c r="AC34" s="59"/>
+      <c r="AC34" s="55"/>
       <c r="AD34" s="32"/>
       <c r="AE34" s="32"/>
       <c r="AF34" s="32"/>
       <c r="AG34" s="32"/>
       <c r="AH34" s="32"/>
       <c r="AI34" s="32"/>
-      <c r="AJ34" s="52"/>
+      <c r="AJ34" s="47"/>
       <c r="AK34" s="32"/>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A35" s="46"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="47"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="49"/>
       <c r="D35" t="s">
         <v>24</v>
       </c>
@@ -5990,27 +5990,27 @@
       <c r="S35" s="33"/>
       <c r="T35" s="33"/>
       <c r="U35" s="33"/>
-      <c r="V35" s="56"/>
+      <c r="V35" s="52"/>
       <c r="W35" s="33"/>
       <c r="X35" s="33"/>
       <c r="Y35" s="33"/>
       <c r="Z35" s="33"/>
       <c r="AA35" s="33"/>
       <c r="AB35" s="33"/>
-      <c r="AC35" s="59"/>
+      <c r="AC35" s="55"/>
       <c r="AD35" s="32"/>
       <c r="AE35" s="32"/>
       <c r="AF35" s="32"/>
       <c r="AG35" s="32"/>
       <c r="AH35" s="32"/>
       <c r="AI35" s="32"/>
-      <c r="AJ35" s="52"/>
+      <c r="AJ35" s="47"/>
       <c r="AK35" s="32"/>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A36" s="46"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="47"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="49"/>
       <c r="D36" t="s">
         <v>101</v>
       </c>
@@ -6030,27 +6030,27 @@
       <c r="S36" s="33"/>
       <c r="T36" s="33"/>
       <c r="U36" s="33"/>
-      <c r="V36" s="56"/>
+      <c r="V36" s="52"/>
       <c r="W36" s="33"/>
       <c r="X36" s="33"/>
       <c r="Y36" s="33"/>
       <c r="Z36" s="33"/>
       <c r="AA36" s="33"/>
       <c r="AB36" s="33"/>
-      <c r="AC36" s="59"/>
+      <c r="AC36" s="55"/>
       <c r="AD36" s="32"/>
       <c r="AE36" s="32"/>
       <c r="AF36" s="32"/>
       <c r="AG36" s="32"/>
       <c r="AH36" s="32"/>
       <c r="AI36" s="32"/>
-      <c r="AJ36" s="52"/>
+      <c r="AJ36" s="47"/>
       <c r="AK36" s="32"/>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A37" s="46"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="47"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="49"/>
       <c r="D37" t="s">
         <v>23</v>
       </c>
@@ -6068,27 +6068,27 @@
       <c r="S37" s="33"/>
       <c r="T37" s="33"/>
       <c r="U37" s="33"/>
-      <c r="V37" s="56"/>
+      <c r="V37" s="52"/>
       <c r="W37" s="33"/>
       <c r="X37" s="33"/>
       <c r="Y37" s="33"/>
       <c r="Z37" s="33"/>
       <c r="AA37" s="33"/>
       <c r="AB37" s="33"/>
-      <c r="AC37" s="59"/>
+      <c r="AC37" s="55"/>
       <c r="AD37" s="32"/>
       <c r="AE37" s="32"/>
       <c r="AF37" s="32"/>
       <c r="AG37" s="32"/>
       <c r="AH37" s="32"/>
       <c r="AI37" s="32"/>
-      <c r="AJ37" s="52"/>
+      <c r="AJ37" s="47"/>
       <c r="AK37" s="32"/>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A38" s="46"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="47"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="15" t="s">
         <v>27</v>
       </c>
@@ -6108,27 +6108,27 @@
       <c r="S38" s="33"/>
       <c r="T38" s="33"/>
       <c r="U38" s="33"/>
-      <c r="V38" s="56"/>
+      <c r="V38" s="52"/>
       <c r="W38" s="33"/>
       <c r="X38" s="33"/>
       <c r="Y38" s="33"/>
       <c r="Z38" s="33"/>
       <c r="AA38" s="33"/>
       <c r="AB38" s="33"/>
-      <c r="AC38" s="59"/>
+      <c r="AC38" s="55"/>
       <c r="AD38" s="32"/>
       <c r="AE38" s="32"/>
       <c r="AF38" s="32"/>
       <c r="AG38" s="32"/>
       <c r="AH38" s="32"/>
       <c r="AI38" s="32"/>
-      <c r="AJ38" s="52"/>
+      <c r="AJ38" s="47"/>
       <c r="AK38" s="32"/>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A39" s="46"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="47"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="16" t="s">
         <v>45</v>
       </c>
@@ -6148,27 +6148,27 @@
       <c r="S39" s="33"/>
       <c r="T39" s="33"/>
       <c r="U39" s="33"/>
-      <c r="V39" s="56"/>
+      <c r="V39" s="52"/>
       <c r="W39" s="33"/>
       <c r="X39" s="33"/>
       <c r="Y39" s="33"/>
       <c r="Z39" s="33"/>
       <c r="AA39" s="33"/>
       <c r="AB39" s="33"/>
-      <c r="AC39" s="59"/>
+      <c r="AC39" s="55"/>
       <c r="AD39" s="32"/>
       <c r="AE39" s="32"/>
       <c r="AF39" s="32"/>
       <c r="AG39" s="32"/>
       <c r="AH39" s="32"/>
       <c r="AI39" s="32"/>
-      <c r="AJ39" s="52"/>
+      <c r="AJ39" s="47"/>
       <c r="AK39" s="32"/>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A40" s="46"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="47"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="49"/>
       <c r="D40" t="s">
         <v>26</v>
       </c>
@@ -6186,27 +6186,27 @@
       <c r="S40" s="33"/>
       <c r="T40" s="33"/>
       <c r="U40" s="33"/>
-      <c r="V40" s="56"/>
+      <c r="V40" s="52"/>
       <c r="W40" s="33"/>
       <c r="X40" s="33"/>
       <c r="Y40" s="33"/>
       <c r="Z40" s="33"/>
       <c r="AA40" s="33"/>
       <c r="AB40" s="33"/>
-      <c r="AC40" s="59"/>
+      <c r="AC40" s="55"/>
       <c r="AD40" s="32"/>
       <c r="AE40" s="32"/>
       <c r="AF40" s="32"/>
       <c r="AG40" s="32"/>
       <c r="AH40" s="32"/>
       <c r="AI40" s="32"/>
-      <c r="AJ40" s="52"/>
+      <c r="AJ40" s="47"/>
       <c r="AK40" s="32"/>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A41" s="46"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="47" t="s">
+      <c r="A41" s="57"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="49" t="s">
         <v>42</v>
       </c>
       <c r="D41" s="17" t="s">
@@ -6227,27 +6227,27 @@
       <c r="S41" s="33"/>
       <c r="T41" s="33"/>
       <c r="U41" s="33"/>
-      <c r="V41" s="56"/>
+      <c r="V41" s="52"/>
       <c r="W41" s="33"/>
       <c r="X41" s="33"/>
       <c r="Y41" s="33"/>
       <c r="Z41" s="33"/>
       <c r="AA41" s="33"/>
       <c r="AB41" s="33"/>
-      <c r="AC41" s="59"/>
+      <c r="AC41" s="55"/>
       <c r="AD41" s="32"/>
       <c r="AE41" s="32"/>
       <c r="AF41" s="32"/>
       <c r="AG41" s="32"/>
       <c r="AH41" s="32"/>
       <c r="AI41" s="32"/>
-      <c r="AJ41" s="52"/>
+      <c r="AJ41" s="47"/>
       <c r="AK41" s="32"/>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A42" s="46"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="47"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="49"/>
       <c r="D42" t="s">
         <v>26</v>
       </c>
@@ -6267,27 +6267,27 @@
       <c r="S42" s="33"/>
       <c r="T42" s="33"/>
       <c r="U42" s="33"/>
-      <c r="V42" s="56"/>
+      <c r="V42" s="52"/>
       <c r="W42" s="33"/>
       <c r="X42" s="33"/>
       <c r="Y42" s="33"/>
       <c r="Z42" s="33"/>
       <c r="AA42" s="33"/>
       <c r="AB42" s="33"/>
-      <c r="AC42" s="59"/>
+      <c r="AC42" s="55"/>
       <c r="AD42" s="32"/>
       <c r="AE42" s="32"/>
       <c r="AF42" s="32"/>
       <c r="AG42" s="32"/>
       <c r="AH42" s="32"/>
       <c r="AI42" s="32"/>
-      <c r="AJ42" s="52"/>
+      <c r="AJ42" s="47"/>
       <c r="AK42" s="32"/>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A43" s="46"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="47" t="s">
+      <c r="A43" s="57"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="49" t="s">
         <v>43</v>
       </c>
       <c r="D43" s="16" t="s">
@@ -6308,27 +6308,27 @@
       <c r="S43" s="33"/>
       <c r="T43" s="33"/>
       <c r="U43" s="33"/>
-      <c r="V43" s="56"/>
+      <c r="V43" s="52"/>
       <c r="W43" s="33"/>
       <c r="X43" s="33"/>
       <c r="Y43" s="33"/>
       <c r="Z43" s="33"/>
       <c r="AA43" s="33"/>
       <c r="AB43" s="33"/>
-      <c r="AC43" s="59"/>
+      <c r="AC43" s="55"/>
       <c r="AD43" s="32"/>
       <c r="AE43" s="32"/>
       <c r="AF43" s="32"/>
       <c r="AG43" s="32"/>
       <c r="AH43" s="32"/>
       <c r="AI43" s="32"/>
-      <c r="AJ43" s="52"/>
+      <c r="AJ43" s="47"/>
       <c r="AK43" s="32"/>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A44" s="46"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="47"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="49"/>
       <c r="F44" s="35"/>
       <c r="G44" s="35"/>
       <c r="J44" s="7">
@@ -6345,27 +6345,27 @@
       <c r="S44" s="33"/>
       <c r="T44" s="33"/>
       <c r="U44" s="33"/>
-      <c r="V44" s="56"/>
+      <c r="V44" s="52"/>
       <c r="W44" s="33"/>
       <c r="X44" s="33"/>
       <c r="Y44" s="33"/>
       <c r="Z44" s="33"/>
       <c r="AA44" s="33"/>
       <c r="AB44" s="33"/>
-      <c r="AC44" s="59"/>
+      <c r="AC44" s="55"/>
       <c r="AD44" s="32"/>
       <c r="AE44" s="32"/>
       <c r="AF44" s="32"/>
       <c r="AG44" s="32"/>
       <c r="AH44" s="32"/>
       <c r="AI44" s="32"/>
-      <c r="AJ44" s="52"/>
+      <c r="AJ44" s="47"/>
       <c r="AK44" s="32"/>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A45" s="46"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="47"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="49"/>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
       <c r="J45" s="7">
@@ -6382,27 +6382,27 @@
       <c r="S45" s="33"/>
       <c r="T45" s="33"/>
       <c r="U45" s="33"/>
-      <c r="V45" s="56"/>
+      <c r="V45" s="52"/>
       <c r="W45" s="33"/>
       <c r="X45" s="33"/>
       <c r="Y45" s="33"/>
       <c r="Z45" s="33"/>
       <c r="AA45" s="33"/>
       <c r="AB45" s="33"/>
-      <c r="AC45" s="59"/>
+      <c r="AC45" s="55"/>
       <c r="AD45" s="32"/>
       <c r="AE45" s="32"/>
       <c r="AF45" s="32"/>
       <c r="AG45" s="32"/>
       <c r="AH45" s="32"/>
       <c r="AI45" s="32"/>
-      <c r="AJ45" s="52"/>
+      <c r="AJ45" s="47"/>
       <c r="AK45" s="32"/>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A46" s="46"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="47" t="s">
+      <c r="A46" s="57"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="49" t="s">
         <v>17</v>
       </c>
       <c r="D46" t="s">
@@ -6422,27 +6422,27 @@
       <c r="S46" s="33"/>
       <c r="T46" s="33"/>
       <c r="U46" s="33"/>
-      <c r="V46" s="56"/>
+      <c r="V46" s="52"/>
       <c r="W46" s="33"/>
       <c r="X46" s="33"/>
       <c r="Y46" s="33"/>
       <c r="Z46" s="33"/>
       <c r="AA46" s="33"/>
       <c r="AB46" s="33"/>
-      <c r="AC46" s="59"/>
+      <c r="AC46" s="55"/>
       <c r="AD46" s="32"/>
       <c r="AE46" s="32"/>
       <c r="AF46" s="32"/>
       <c r="AG46" s="32"/>
       <c r="AH46" s="32"/>
       <c r="AI46" s="32"/>
-      <c r="AJ46" s="52"/>
+      <c r="AJ46" s="47"/>
       <c r="AK46" s="32"/>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A47" s="46"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="47"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="49"/>
       <c r="D47" t="s">
         <v>36</v>
       </c>
@@ -6460,27 +6460,27 @@
       <c r="S47" s="33"/>
       <c r="T47" s="33"/>
       <c r="U47" s="33"/>
-      <c r="V47" s="56"/>
+      <c r="V47" s="52"/>
       <c r="W47" s="33"/>
       <c r="X47" s="33"/>
       <c r="Y47" s="33"/>
       <c r="Z47" s="33"/>
       <c r="AA47" s="33"/>
       <c r="AB47" s="33"/>
-      <c r="AC47" s="59"/>
+      <c r="AC47" s="55"/>
       <c r="AD47" s="32"/>
       <c r="AE47" s="32"/>
       <c r="AF47" s="32"/>
       <c r="AG47" s="32"/>
       <c r="AH47" s="32"/>
       <c r="AI47" s="32"/>
-      <c r="AJ47" s="52"/>
+      <c r="AJ47" s="47"/>
       <c r="AK47" s="32"/>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A48" s="46"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="47"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="49"/>
       <c r="D48" t="s">
         <v>37</v>
       </c>
@@ -6498,27 +6498,27 @@
       <c r="S48" s="33"/>
       <c r="T48" s="33"/>
       <c r="U48" s="33"/>
-      <c r="V48" s="56"/>
+      <c r="V48" s="52"/>
       <c r="W48" s="33"/>
       <c r="X48" s="33"/>
       <c r="Y48" s="33"/>
       <c r="Z48" s="33"/>
       <c r="AA48" s="33"/>
       <c r="AB48" s="33"/>
-      <c r="AC48" s="59"/>
+      <c r="AC48" s="55"/>
       <c r="AD48" s="32"/>
       <c r="AE48" s="32"/>
       <c r="AF48" s="32"/>
       <c r="AG48" s="32"/>
       <c r="AH48" s="32"/>
       <c r="AI48" s="32"/>
-      <c r="AJ48" s="52"/>
+      <c r="AJ48" s="47"/>
       <c r="AK48" s="32"/>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A49" s="46"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="47"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="49"/>
       <c r="D49" t="s">
         <v>38</v>
       </c>
@@ -6536,27 +6536,27 @@
       <c r="S49" s="33"/>
       <c r="T49" s="33"/>
       <c r="U49" s="33"/>
-      <c r="V49" s="56"/>
+      <c r="V49" s="52"/>
       <c r="W49" s="33"/>
       <c r="X49" s="33"/>
       <c r="Y49" s="33"/>
       <c r="Z49" s="33"/>
       <c r="AA49" s="33"/>
       <c r="AB49" s="33"/>
-      <c r="AC49" s="59"/>
+      <c r="AC49" s="55"/>
       <c r="AD49" s="32"/>
       <c r="AE49" s="32"/>
       <c r="AF49" s="32"/>
       <c r="AG49" s="32"/>
       <c r="AH49" s="32"/>
       <c r="AI49" s="32"/>
-      <c r="AJ49" s="52"/>
+      <c r="AJ49" s="47"/>
       <c r="AK49" s="32"/>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A50" s="46"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="47"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="49"/>
       <c r="D50" t="s">
         <v>33</v>
       </c>
@@ -6574,26 +6574,26 @@
       <c r="S50" s="33"/>
       <c r="T50" s="33"/>
       <c r="U50" s="33"/>
-      <c r="V50" s="56"/>
+      <c r="V50" s="52"/>
       <c r="W50" s="33"/>
       <c r="X50" s="33"/>
       <c r="Y50" s="33"/>
       <c r="Z50" s="33"/>
       <c r="AA50" s="33"/>
       <c r="AB50" s="33"/>
-      <c r="AC50" s="59"/>
+      <c r="AC50" s="55"/>
       <c r="AD50" s="32"/>
       <c r="AE50" s="32"/>
       <c r="AF50" s="32"/>
       <c r="AG50" s="32"/>
       <c r="AH50" s="32"/>
       <c r="AI50" s="32"/>
-      <c r="AJ50" s="52"/>
+      <c r="AJ50" s="47"/>
       <c r="AK50" s="32"/>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A51" s="46"/>
-      <c r="B51" s="54"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="50"/>
       <c r="J51" s="7">
         <v>0</v>
       </c>
@@ -6608,26 +6608,26 @@
       <c r="S51" s="33"/>
       <c r="T51" s="33"/>
       <c r="U51" s="33"/>
-      <c r="V51" s="56"/>
+      <c r="V51" s="52"/>
       <c r="W51" s="33"/>
       <c r="X51" s="33"/>
       <c r="Y51" s="33"/>
       <c r="Z51" s="33"/>
       <c r="AA51" s="33"/>
       <c r="AB51" s="33"/>
-      <c r="AC51" s="59"/>
+      <c r="AC51" s="55"/>
       <c r="AD51" s="32"/>
       <c r="AE51" s="32"/>
       <c r="AF51" s="32"/>
       <c r="AG51" s="32"/>
       <c r="AH51" s="32"/>
       <c r="AI51" s="32"/>
-      <c r="AJ51" s="52"/>
+      <c r="AJ51" s="47"/>
       <c r="AK51" s="32"/>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A52" s="46"/>
-      <c r="B52" s="54"/>
+      <c r="A52" s="57"/>
+      <c r="B52" s="50"/>
       <c r="C52" s="10" t="s">
         <v>131</v>
       </c>
@@ -6648,26 +6648,26 @@
       <c r="S52" s="33"/>
       <c r="T52" s="33"/>
       <c r="U52" s="33"/>
-      <c r="V52" s="56"/>
+      <c r="V52" s="52"/>
       <c r="W52" s="33"/>
       <c r="X52" s="33"/>
       <c r="Y52" s="33"/>
       <c r="Z52" s="33"/>
       <c r="AA52" s="33"/>
       <c r="AB52" s="33"/>
-      <c r="AC52" s="59"/>
+      <c r="AC52" s="55"/>
       <c r="AD52" s="32"/>
       <c r="AE52" s="32"/>
       <c r="AF52" s="32"/>
       <c r="AG52" s="32"/>
       <c r="AH52" s="32"/>
       <c r="AI52" s="32"/>
-      <c r="AJ52" s="52"/>
+      <c r="AJ52" s="47"/>
       <c r="AK52" s="32"/>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A53" s="46"/>
-      <c r="B53" s="54"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="50"/>
       <c r="J53" s="7">
         <v>0</v>
       </c>
@@ -6682,26 +6682,26 @@
       <c r="S53" s="33"/>
       <c r="T53" s="33"/>
       <c r="U53" s="33"/>
-      <c r="V53" s="56"/>
+      <c r="V53" s="52"/>
       <c r="W53" s="33"/>
       <c r="X53" s="33"/>
       <c r="Y53" s="33"/>
       <c r="Z53" s="33"/>
       <c r="AA53" s="33"/>
       <c r="AB53" s="33"/>
-      <c r="AC53" s="59"/>
+      <c r="AC53" s="55"/>
       <c r="AD53" s="32"/>
       <c r="AE53" s="32"/>
       <c r="AF53" s="32"/>
       <c r="AG53" s="32"/>
       <c r="AH53" s="32"/>
       <c r="AI53" s="32"/>
-      <c r="AJ53" s="52"/>
+      <c r="AJ53" s="47"/>
       <c r="AK53" s="32"/>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A54" s="46"/>
-      <c r="B54" s="54"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="50"/>
       <c r="J54" s="7">
         <v>0</v>
       </c>
@@ -6716,26 +6716,26 @@
       <c r="S54" s="33"/>
       <c r="T54" s="33"/>
       <c r="U54" s="33"/>
-      <c r="V54" s="56"/>
+      <c r="V54" s="52"/>
       <c r="W54" s="33"/>
       <c r="X54" s="33"/>
       <c r="Y54" s="33"/>
       <c r="Z54" s="33"/>
       <c r="AA54" s="33"/>
       <c r="AB54" s="33"/>
-      <c r="AC54" s="59"/>
+      <c r="AC54" s="55"/>
       <c r="AD54" s="32"/>
       <c r="AE54" s="32"/>
       <c r="AF54" s="32"/>
       <c r="AG54" s="32"/>
       <c r="AH54" s="32"/>
       <c r="AI54" s="32"/>
-      <c r="AJ54" s="52"/>
+      <c r="AJ54" s="47"/>
       <c r="AK54" s="32"/>
     </row>
     <row r="55" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="46"/>
-      <c r="B55" s="54"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="13" t="s">
         <v>76</v>
       </c>
@@ -6761,32 +6761,32 @@
       <c r="S55" s="34"/>
       <c r="T55" s="34"/>
       <c r="U55" s="34"/>
-      <c r="V55" s="56"/>
+      <c r="V55" s="52"/>
       <c r="W55" s="34"/>
       <c r="X55" s="34"/>
       <c r="Y55" s="34"/>
       <c r="Z55" s="34"/>
       <c r="AA55" s="34"/>
       <c r="AB55" s="34"/>
-      <c r="AC55" s="59"/>
+      <c r="AC55" s="55"/>
       <c r="AD55" s="32"/>
       <c r="AE55" s="32"/>
       <c r="AF55" s="32"/>
       <c r="AG55" s="32"/>
       <c r="AH55" s="32"/>
       <c r="AI55" s="32"/>
-      <c r="AJ55" s="52"/>
+      <c r="AJ55" s="47"/>
       <c r="AK55" s="32"/>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A56" s="46"/>
-      <c r="B56" s="50" t="s">
+      <c r="A56" s="57"/>
+      <c r="B56" s="60" t="s">
         <v>130</v>
       </c>
-      <c r="C56" s="47" t="s">
+      <c r="C56" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D56" s="47" t="s">
+      <c r="D56" s="49" t="s">
         <v>29</v>
       </c>
       <c r="E56" t="s">
@@ -6818,28 +6818,28 @@
       <c r="S56" s="33"/>
       <c r="T56" s="33"/>
       <c r="U56" s="33"/>
-      <c r="V56" s="56"/>
+      <c r="V56" s="52"/>
       <c r="W56" s="33"/>
       <c r="X56" s="33"/>
       <c r="Y56" s="33"/>
       <c r="Z56" s="33"/>
       <c r="AA56" s="33"/>
       <c r="AB56" s="33"/>
-      <c r="AC56" s="59"/>
+      <c r="AC56" s="55"/>
       <c r="AD56" s="32"/>
       <c r="AE56" s="32"/>
       <c r="AF56" s="32"/>
       <c r="AG56" s="32"/>
       <c r="AH56" s="32"/>
       <c r="AI56" s="32"/>
-      <c r="AJ56" s="52"/>
+      <c r="AJ56" s="47"/>
       <c r="AK56" s="32"/>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A57" s="46"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="47"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
       <c r="E57" t="s">
         <v>140</v>
       </c>
@@ -6869,30 +6869,30 @@
       <c r="S57" s="33"/>
       <c r="T57" s="33"/>
       <c r="U57" s="33"/>
-      <c r="V57" s="56"/>
+      <c r="V57" s="52"/>
       <c r="W57" s="33"/>
       <c r="X57" s="33"/>
       <c r="Y57" s="33"/>
       <c r="Z57" s="33"/>
       <c r="AA57" s="33"/>
       <c r="AB57" s="33"/>
-      <c r="AC57" s="59"/>
+      <c r="AC57" s="55"/>
       <c r="AD57" s="32"/>
       <c r="AE57" s="32"/>
       <c r="AF57" s="32"/>
       <c r="AG57" s="32"/>
       <c r="AH57" s="32"/>
       <c r="AI57" s="32"/>
-      <c r="AJ57" s="52"/>
+      <c r="AJ57" s="47"/>
       <c r="AK57" s="32"/>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A58" s="46"/>
-      <c r="B58" s="50"/>
-      <c r="C58" s="47" t="s">
+      <c r="A58" s="57"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="47" t="s">
+      <c r="D58" s="49" t="s">
         <v>102</v>
       </c>
       <c r="E58" t="s">
@@ -6914,28 +6914,28 @@
       <c r="S58" s="33"/>
       <c r="T58" s="33"/>
       <c r="U58" s="33"/>
-      <c r="V58" s="56"/>
+      <c r="V58" s="52"/>
       <c r="W58" s="33"/>
       <c r="X58" s="33"/>
       <c r="Y58" s="33"/>
       <c r="Z58" s="33"/>
       <c r="AA58" s="33"/>
       <c r="AB58" s="33"/>
-      <c r="AC58" s="59"/>
+      <c r="AC58" s="55"/>
       <c r="AD58" s="32"/>
       <c r="AE58" s="32"/>
       <c r="AF58" s="32"/>
       <c r="AG58" s="32"/>
       <c r="AH58" s="32"/>
       <c r="AI58" s="32"/>
-      <c r="AJ58" s="52"/>
+      <c r="AJ58" s="47"/>
       <c r="AK58" s="32"/>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A59" s="46"/>
-      <c r="B59" s="50"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
+      <c r="A59" s="57"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="49"/>
+      <c r="D59" s="49"/>
       <c r="E59" t="s">
         <v>115</v>
       </c>
@@ -6955,28 +6955,28 @@
       <c r="S59" s="33"/>
       <c r="T59" s="33"/>
       <c r="U59" s="33"/>
-      <c r="V59" s="56"/>
+      <c r="V59" s="52"/>
       <c r="W59" s="33"/>
       <c r="X59" s="33"/>
       <c r="Y59" s="33"/>
       <c r="Z59" s="33"/>
       <c r="AA59" s="33"/>
       <c r="AB59" s="33"/>
-      <c r="AC59" s="59"/>
+      <c r="AC59" s="55"/>
       <c r="AD59" s="32"/>
       <c r="AE59" s="32"/>
       <c r="AF59" s="32"/>
       <c r="AG59" s="32"/>
       <c r="AH59" s="32"/>
       <c r="AI59" s="32"/>
-      <c r="AJ59" s="52"/>
+      <c r="AJ59" s="47"/>
       <c r="AK59" s="32"/>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A60" s="46"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
+      <c r="A60" s="57"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="49"/>
       <c r="E60" t="s">
         <v>116</v>
       </c>
@@ -6996,27 +6996,27 @@
       <c r="S60" s="33"/>
       <c r="T60" s="33"/>
       <c r="U60" s="33"/>
-      <c r="V60" s="56"/>
+      <c r="V60" s="52"/>
       <c r="W60" s="33"/>
       <c r="X60" s="33"/>
       <c r="Y60" s="33"/>
       <c r="Z60" s="33"/>
       <c r="AA60" s="33"/>
       <c r="AB60" s="33"/>
-      <c r="AC60" s="59"/>
+      <c r="AC60" s="55"/>
       <c r="AD60" s="32"/>
       <c r="AE60" s="32"/>
       <c r="AF60" s="32"/>
       <c r="AG60" s="32"/>
       <c r="AH60" s="32"/>
       <c r="AI60" s="32"/>
-      <c r="AJ60" s="52"/>
+      <c r="AJ60" s="47"/>
       <c r="AK60" s="32"/>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A61" s="46"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="47"/>
+      <c r="A61" s="57"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="49"/>
       <c r="D61" t="s">
         <v>104</v>
       </c>
@@ -7036,27 +7036,27 @@
       <c r="S61" s="33"/>
       <c r="T61" s="33"/>
       <c r="U61" s="33"/>
-      <c r="V61" s="56"/>
+      <c r="V61" s="52"/>
       <c r="W61" s="33"/>
       <c r="X61" s="33"/>
       <c r="Y61" s="33"/>
       <c r="Z61" s="33"/>
       <c r="AA61" s="33"/>
       <c r="AB61" s="33"/>
-      <c r="AC61" s="59"/>
+      <c r="AC61" s="55"/>
       <c r="AD61" s="32"/>
       <c r="AE61" s="32"/>
       <c r="AF61" s="32"/>
       <c r="AG61" s="32"/>
       <c r="AH61" s="32"/>
       <c r="AI61" s="32"/>
-      <c r="AJ61" s="52"/>
+      <c r="AJ61" s="47"/>
       <c r="AK61" s="32"/>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A62" s="46"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="47"/>
+      <c r="A62" s="57"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="49"/>
       <c r="F62" s="36"/>
       <c r="G62" s="36"/>
       <c r="J62" s="7">
@@ -7073,27 +7073,27 @@
       <c r="S62" s="33"/>
       <c r="T62" s="33"/>
       <c r="U62" s="33"/>
-      <c r="V62" s="56"/>
+      <c r="V62" s="52"/>
       <c r="W62" s="33"/>
       <c r="X62" s="33"/>
       <c r="Y62" s="33"/>
       <c r="Z62" s="33"/>
       <c r="AA62" s="33"/>
       <c r="AB62" s="33"/>
-      <c r="AC62" s="59"/>
+      <c r="AC62" s="55"/>
       <c r="AD62" s="32"/>
       <c r="AE62" s="32"/>
       <c r="AF62" s="32"/>
       <c r="AG62" s="32"/>
       <c r="AH62" s="32"/>
       <c r="AI62" s="32"/>
-      <c r="AJ62" s="52"/>
+      <c r="AJ62" s="47"/>
       <c r="AK62" s="32"/>
     </row>
     <row r="63" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="46"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="47" t="s">
+      <c r="A63" s="57"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="49" t="s">
         <v>44</v>
       </c>
       <c r="D63" t="s">
@@ -7114,27 +7114,27 @@
       <c r="S63" s="33"/>
       <c r="T63" s="33"/>
       <c r="U63" s="33"/>
-      <c r="V63" s="56"/>
+      <c r="V63" s="52"/>
       <c r="W63" s="33"/>
       <c r="X63" s="33"/>
       <c r="Y63" s="33"/>
       <c r="Z63" s="33"/>
       <c r="AA63" s="33"/>
       <c r="AB63" s="33"/>
-      <c r="AC63" s="59"/>
+      <c r="AC63" s="55"/>
       <c r="AD63" s="32"/>
       <c r="AE63" s="32"/>
       <c r="AF63" s="32"/>
       <c r="AG63" s="32"/>
       <c r="AH63" s="32"/>
       <c r="AI63" s="32"/>
-      <c r="AJ63" s="52"/>
+      <c r="AJ63" s="47"/>
       <c r="AK63" s="32"/>
     </row>
     <row r="64" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="46"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="47"/>
+      <c r="A64" s="57"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="49"/>
       <c r="D64" t="s">
         <v>105</v>
       </c>
@@ -7154,26 +7154,26 @@
       <c r="S64" s="33"/>
       <c r="T64" s="33"/>
       <c r="U64" s="33"/>
-      <c r="V64" s="56"/>
+      <c r="V64" s="52"/>
       <c r="W64" s="33"/>
       <c r="X64" s="33"/>
       <c r="Y64" s="33"/>
       <c r="Z64" s="33"/>
       <c r="AA64" s="33"/>
       <c r="AB64" s="33"/>
-      <c r="AC64" s="59"/>
+      <c r="AC64" s="55"/>
       <c r="AD64" s="32"/>
       <c r="AE64" s="32"/>
       <c r="AF64" s="32"/>
       <c r="AG64" s="32"/>
       <c r="AH64" s="32"/>
       <c r="AI64" s="32"/>
-      <c r="AJ64" s="52"/>
+      <c r="AJ64" s="47"/>
       <c r="AK64" s="32"/>
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A65" s="46"/>
-      <c r="B65" s="50"/>
+      <c r="A65" s="57"/>
+      <c r="B65" s="60"/>
       <c r="C65" s="14" t="s">
         <v>96</v>
       </c>
@@ -7192,26 +7192,26 @@
       <c r="S65" s="33"/>
       <c r="T65" s="33"/>
       <c r="U65" s="33"/>
-      <c r="V65" s="56"/>
+      <c r="V65" s="52"/>
       <c r="W65" s="33"/>
       <c r="X65" s="33"/>
       <c r="Y65" s="33"/>
       <c r="Z65" s="33"/>
       <c r="AA65" s="33"/>
       <c r="AB65" s="33"/>
-      <c r="AC65" s="59"/>
+      <c r="AC65" s="55"/>
       <c r="AD65" s="32"/>
       <c r="AE65" s="32"/>
       <c r="AF65" s="32"/>
       <c r="AG65" s="32"/>
       <c r="AH65" s="32"/>
       <c r="AI65" s="32"/>
-      <c r="AJ65" s="52"/>
+      <c r="AJ65" s="47"/>
       <c r="AK65" s="32"/>
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A66" s="46"/>
-      <c r="B66" s="50"/>
+      <c r="A66" s="57"/>
+      <c r="B66" s="60"/>
       <c r="C66" s="10" t="s">
         <v>24</v>
       </c>
@@ -7229,27 +7229,27 @@
       <c r="S66" s="33"/>
       <c r="T66" s="33"/>
       <c r="U66" s="33"/>
-      <c r="V66" s="56"/>
+      <c r="V66" s="52"/>
       <c r="W66" s="33"/>
       <c r="X66" s="33"/>
       <c r="Y66" s="33"/>
       <c r="Z66" s="33"/>
       <c r="AA66" s="33"/>
       <c r="AB66" s="33"/>
-      <c r="AC66" s="59"/>
+      <c r="AC66" s="55"/>
       <c r="AD66" s="32"/>
       <c r="AE66" s="32"/>
       <c r="AF66" s="32"/>
       <c r="AG66" s="32"/>
       <c r="AH66" s="32"/>
       <c r="AI66" s="32"/>
-      <c r="AJ66" s="52"/>
+      <c r="AJ66" s="47"/>
       <c r="AK66" s="32"/>
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A67" s="46"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="47" t="s">
+      <c r="A67" s="57"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="49" t="s">
         <v>13</v>
       </c>
       <c r="D67" t="s">
@@ -7281,27 +7281,27 @@
       <c r="S67" s="33"/>
       <c r="T67" s="33"/>
       <c r="U67" s="33"/>
-      <c r="V67" s="56"/>
+      <c r="V67" s="52"/>
       <c r="W67" s="33"/>
       <c r="X67" s="33"/>
       <c r="Y67" s="33"/>
       <c r="Z67" s="33"/>
       <c r="AA67" s="33"/>
       <c r="AB67" s="33"/>
-      <c r="AC67" s="59"/>
+      <c r="AC67" s="55"/>
       <c r="AD67" s="32"/>
       <c r="AE67" s="32"/>
       <c r="AF67" s="32"/>
       <c r="AG67" s="32"/>
       <c r="AH67" s="32"/>
       <c r="AI67" s="32"/>
-      <c r="AJ67" s="52"/>
+      <c r="AJ67" s="47"/>
       <c r="AK67" s="32"/>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A68" s="46"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="47"/>
+      <c r="A68" s="57"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="49"/>
       <c r="D68" t="s">
         <v>136</v>
       </c>
@@ -7331,27 +7331,27 @@
       <c r="S68" s="33"/>
       <c r="T68" s="33"/>
       <c r="U68" s="33"/>
-      <c r="V68" s="56"/>
+      <c r="V68" s="52"/>
       <c r="W68" s="33"/>
       <c r="X68" s="33"/>
       <c r="Y68" s="33"/>
       <c r="Z68" s="33"/>
       <c r="AA68" s="33"/>
       <c r="AB68" s="33"/>
-      <c r="AC68" s="59"/>
+      <c r="AC68" s="55"/>
       <c r="AD68" s="32"/>
       <c r="AE68" s="32"/>
       <c r="AF68" s="32"/>
       <c r="AG68" s="32"/>
       <c r="AH68" s="32"/>
       <c r="AI68" s="32"/>
-      <c r="AJ68" s="52"/>
+      <c r="AJ68" s="47"/>
       <c r="AK68" s="32"/>
     </row>
     <row r="69" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="46"/>
-      <c r="B69" s="50"/>
-      <c r="C69" s="47" t="s">
+      <c r="A69" s="57"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="49" t="s">
         <v>106</v>
       </c>
       <c r="D69" t="s">
@@ -7373,27 +7373,27 @@
       <c r="S69" s="33"/>
       <c r="T69" s="33"/>
       <c r="U69" s="33"/>
-      <c r="V69" s="56"/>
+      <c r="V69" s="52"/>
       <c r="W69" s="33"/>
       <c r="X69" s="33"/>
       <c r="Y69" s="33"/>
       <c r="Z69" s="33"/>
       <c r="AA69" s="33"/>
       <c r="AB69" s="33"/>
-      <c r="AC69" s="59"/>
+      <c r="AC69" s="55"/>
       <c r="AD69" s="32"/>
       <c r="AE69" s="32"/>
       <c r="AF69" s="32"/>
       <c r="AG69" s="32"/>
       <c r="AH69" s="32"/>
       <c r="AI69" s="32"/>
-      <c r="AJ69" s="52"/>
+      <c r="AJ69" s="47"/>
       <c r="AK69" s="32"/>
     </row>
     <row r="70" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="46"/>
-      <c r="B70" s="50"/>
-      <c r="C70" s="47"/>
+      <c r="A70" s="57"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="49"/>
       <c r="D70" t="s">
         <v>108</v>
       </c>
@@ -7413,27 +7413,27 @@
       <c r="S70" s="33"/>
       <c r="T70" s="33"/>
       <c r="U70" s="33"/>
-      <c r="V70" s="56"/>
+      <c r="V70" s="52"/>
       <c r="W70" s="33"/>
       <c r="X70" s="33"/>
       <c r="Y70" s="33"/>
       <c r="Z70" s="33"/>
       <c r="AA70" s="33"/>
       <c r="AB70" s="33"/>
-      <c r="AC70" s="59"/>
+      <c r="AC70" s="55"/>
       <c r="AD70" s="32"/>
       <c r="AE70" s="32"/>
       <c r="AF70" s="32"/>
       <c r="AG70" s="32"/>
       <c r="AH70" s="32"/>
       <c r="AI70" s="32"/>
-      <c r="AJ70" s="52"/>
+      <c r="AJ70" s="47"/>
       <c r="AK70" s="32"/>
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A71" s="46"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="47" t="s">
+      <c r="A71" s="57"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="49" t="s">
         <v>30</v>
       </c>
       <c r="D71" t="s">
@@ -7453,27 +7453,27 @@
       <c r="S71" s="33"/>
       <c r="T71" s="33"/>
       <c r="U71" s="33"/>
-      <c r="V71" s="56"/>
+      <c r="V71" s="52"/>
       <c r="W71" s="33"/>
       <c r="X71" s="33"/>
       <c r="Y71" s="33"/>
       <c r="Z71" s="33"/>
       <c r="AA71" s="33"/>
       <c r="AB71" s="33"/>
-      <c r="AC71" s="59"/>
+      <c r="AC71" s="55"/>
       <c r="AD71" s="32"/>
       <c r="AE71" s="32"/>
       <c r="AF71" s="32"/>
       <c r="AG71" s="32"/>
       <c r="AH71" s="32"/>
       <c r="AI71" s="32"/>
-      <c r="AJ71" s="52"/>
+      <c r="AJ71" s="47"/>
       <c r="AK71" s="32"/>
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A72" s="46"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="47"/>
+      <c r="A72" s="57"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="49"/>
       <c r="D72" t="s">
         <v>32</v>
       </c>
@@ -7491,27 +7491,27 @@
       <c r="S72" s="33"/>
       <c r="T72" s="33"/>
       <c r="U72" s="33"/>
-      <c r="V72" s="56"/>
+      <c r="V72" s="52"/>
       <c r="W72" s="33"/>
       <c r="X72" s="33"/>
       <c r="Y72" s="33"/>
       <c r="Z72" s="33"/>
       <c r="AA72" s="33"/>
       <c r="AB72" s="33"/>
-      <c r="AC72" s="59"/>
+      <c r="AC72" s="55"/>
       <c r="AD72" s="32"/>
       <c r="AE72" s="32"/>
       <c r="AF72" s="32"/>
       <c r="AG72" s="32"/>
       <c r="AH72" s="32"/>
       <c r="AI72" s="32"/>
-      <c r="AJ72" s="52"/>
+      <c r="AJ72" s="47"/>
       <c r="AK72" s="32"/>
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A73" s="46"/>
-      <c r="B73" s="50"/>
-      <c r="C73" s="47"/>
+      <c r="A73" s="57"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="49"/>
       <c r="D73" t="s">
         <v>33</v>
       </c>
@@ -7529,25 +7529,25 @@
       <c r="S73" s="33"/>
       <c r="T73" s="33"/>
       <c r="U73" s="33"/>
-      <c r="V73" s="57"/>
+      <c r="V73" s="53"/>
       <c r="W73" s="33"/>
       <c r="X73" s="33"/>
       <c r="Y73" s="33"/>
       <c r="Z73" s="33"/>
       <c r="AA73" s="33"/>
       <c r="AB73" s="33"/>
-      <c r="AC73" s="60"/>
+      <c r="AC73" s="56"/>
       <c r="AD73" s="32"/>
       <c r="AE73" s="32"/>
       <c r="AF73" s="32"/>
       <c r="AG73" s="32"/>
       <c r="AH73" s="32"/>
       <c r="AI73" s="32"/>
-      <c r="AJ73" s="53"/>
+      <c r="AJ73" s="48"/>
       <c r="AK73" s="32"/>
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A74" s="46"/>
+      <c r="A74" s="57"/>
       <c r="B74" s="11" t="s">
         <v>21</v>
       </c>
@@ -7563,6 +7563,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A5:A74"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B56:B73"/>
+    <mergeCell ref="C67:C68"/>
     <mergeCell ref="AJ5:AJ73"/>
     <mergeCell ref="C18:C40"/>
     <mergeCell ref="B11:B55"/>
@@ -7576,18 +7588,6 @@
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="C56:C57"/>
     <mergeCell ref="D56:D57"/>
-    <mergeCell ref="A5:A74"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B56:B73"/>
-    <mergeCell ref="C67:C68"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K3:AK5 K6:U73 AK6:AK73 W6:AB73 AD6:AI73">
@@ -7651,9 +7651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -7662,24 +7660,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
     </row>
     <row r="4" spans="2:14" ht="45.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
       <c r="K4" s="24" t="s">
         <v>78</v>
       </c>
@@ -7688,14 +7686,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
       <c r="K5" s="25" t="s">
         <v>80</v>
       </c>
@@ -7704,14 +7702,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
       <c r="K6" s="25" t="s">
         <v>81</v>
       </c>
@@ -7720,70 +7718,70 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
       <c r="K7" s="25" t="s">
         <v>82</v>
       </c>
       <c r="L7" s="26"/>
     </row>
     <row r="8" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
       <c r="K8" s="25" t="s">
         <v>83</v>
       </c>
       <c r="L8" s="26"/>
     </row>
     <row r="9" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="47"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
       <c r="K9" s="25" t="s">
         <v>84</v>
       </c>
       <c r="L9" s="26"/>
     </row>
     <row r="10" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
       <c r="K10" s="25" t="s">
         <v>85</v>
       </c>
       <c r="L10" s="26"/>
     </row>
     <row r="11" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="47"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
       <c r="K11" s="25" t="s">
         <v>86</v>
       </c>
@@ -7791,136 +7789,136 @@
       <c r="N11" s="23"/>
     </row>
     <row r="12" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="47"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
       <c r="K12" s="25" t="s">
         <v>87</v>
       </c>
       <c r="L12" s="26"/>
     </row>
     <row r="13" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="47"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
       <c r="K13" s="25" t="s">
         <v>88</v>
       </c>
       <c r="L13" s="26"/>
     </row>
     <row r="14" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
       <c r="K14" s="25" t="s">
         <v>89</v>
       </c>
       <c r="L14" s="26"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="47"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7967,19 +7965,19 @@
       <c r="A1" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="14"/>
@@ -8175,9 +8173,9 @@
       <c r="A1" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/schedule/ガントチャートxlsx.xlsx
+++ b/schedule/ガントチャートxlsx.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="167">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -882,13 +882,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>表示</t>
-    <rPh sb="0" eb="2">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤー表示</t>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
@@ -1046,6 +1039,34 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>1日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビルボード追加</t>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>増澤</t>
     <rPh sb="0" eb="2">
       <t>マスザワ</t>
@@ -1053,16 +1074,120 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1日</t>
+    <t>敵表示</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>筒井</t>
+    <rPh sb="0" eb="2">
+      <t>ツツイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロック配置</t>
+    <rPh sb="4" eb="6">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wall追加</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩く</t>
+    <rPh sb="0" eb="1">
+      <t>アル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待機</t>
+    <rPh sb="0" eb="2">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネズミモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三浦</t>
+    <rPh sb="0" eb="2">
+      <t>ミウラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡</t>
+    <rPh sb="0" eb="1">
+      <t>オカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の配置ツール</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ生成ツール</t>
+    <rPh sb="3" eb="5">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工藤</t>
+    <rPh sb="0" eb="2">
+      <t>クドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　仕　様　書</t>
     <rPh sb="1" eb="2">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7日</t>
-    <rPh sb="1" eb="2">
-      <t>ニチ</t>
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お菓子</t>
+    <rPh sb="1" eb="3">
+      <t>カシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1076,7 +1201,7 @@
     <numFmt numFmtId="177" formatCode="aaa"/>
     <numFmt numFmtId="178" formatCode="m/d"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1293,6 +1418,24 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1362,7 +1505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1409,15 +1552,6 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1479,14 +1613,40 @@
     <border>
       <left/>
       <right/>
-      <top style="double">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1517,16 +1677,19 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1540,64 +1703,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="7" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="12" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="12" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1636,12 +1760,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1666,53 +1784,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="8" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="7" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" xfId="13" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1723,8 +1820,74 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="12" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="12" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="14" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="15">
     <cellStyle name="40% - アクセント 1" xfId="6" builtinId="31"/>
     <cellStyle name="60% - アクセント 1" xfId="7" builtinId="32"/>
     <cellStyle name="60% - アクセント 2" xfId="3" builtinId="36"/>
@@ -1737,6 +1900,7 @@
     <cellStyle name="ハイパーリンク" xfId="12" builtinId="8"/>
     <cellStyle name="メモ" xfId="11" builtinId="10"/>
     <cellStyle name="悪い" xfId="9" builtinId="27"/>
+    <cellStyle name="集計" xfId="14" builtinId="25"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="良い" xfId="8" builtinId="26"/>
   </cellStyles>
@@ -1774,13 +1938,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>14007</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>49026</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>7003</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1834,77 +1998,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>5322</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>26334</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>264457</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>215434</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="右矢印 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11330267" y="2582676"/>
-          <a:ext cx="259135" cy="189100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-            <a:gd name="adj2" fmla="val 52778"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>14007</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>257454</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>222438</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1964,8 +2066,8 @@
       <xdr:rowOff>38660</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>245128</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>252132</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>227760</xdr:rowOff>
     </xdr:to>
@@ -1976,8 +2078,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10008253" y="1159248"/>
-          <a:ext cx="1827960" cy="189100"/>
+          <a:off x="9987242" y="1054193"/>
+          <a:ext cx="2199155" cy="189100"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2021,15 +2123,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>7004</xdr:colOff>
+      <xdr:colOff>14007</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>49026</xdr:rowOff>
+      <xdr:rowOff>35019</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>7003</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>224119</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2038,8 +2140,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11598089" y="4881563"/>
-          <a:ext cx="259135" cy="189100"/>
+          <a:off x="11682132" y="5581931"/>
+          <a:ext cx="259136" cy="189100"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -2208,13 +2310,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>12326</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>24654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>255773</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>213754</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2270,13 +2372,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>10646</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>29977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>254093</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>219077</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2350,6 +2452,130 @@
         <a:xfrm>
           <a:off x="11694460" y="6770874"/>
           <a:ext cx="259136" cy="189100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 52778"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>5322</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>264458</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>222438</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="右矢印 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11939587" y="5104000"/>
+          <a:ext cx="259136" cy="189100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 52778"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>21304</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>281610</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>231913</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="右矢印 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11401608" y="17443174"/>
+          <a:ext cx="260306" cy="215348"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -4351,27 +4577,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS74"/>
+  <dimension ref="A1:AS76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="10" ySplit="4" topLeftCell="K56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="I67" sqref="I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="5" max="5" width="22.625" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="14"/>
-    <col min="8" max="9" width="7.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="7"/>
+    <col min="8" max="9" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5" style="3" customWidth="1"/>
     <col min="12" max="15" width="3.5" customWidth="1"/>
     <col min="16" max="16" width="4.375" customWidth="1"/>
     <col min="17" max="17" width="3.5" customWidth="1"/>
@@ -4382,13 +4608,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="K1" s="5">
+      <c r="K1" s="3">
         <v>2020</v>
       </c>
       <c r="L1" t="s">
@@ -4400,99 +4626,99 @@
       <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="41" t="s">
+      <c r="P1" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="42" t="s">
+      <c r="S1" s="24"/>
+      <c r="T1" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="U1" s="40"/>
+      <c r="U1" s="25"/>
     </row>
     <row r="3" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="K3" s="30">
+      <c r="K3" s="17">
         <v>44116</v>
       </c>
-      <c r="L3" s="30">
+      <c r="L3" s="17">
         <v>44117</v>
       </c>
-      <c r="M3" s="30">
+      <c r="M3" s="17">
         <v>44118</v>
       </c>
-      <c r="N3" s="30">
+      <c r="N3" s="17">
         <v>44119</v>
       </c>
-      <c r="O3" s="30">
+      <c r="O3" s="17">
         <v>44120</v>
       </c>
-      <c r="P3" s="30">
+      <c r="P3" s="17">
         <v>44121</v>
       </c>
-      <c r="Q3" s="30">
+      <c r="Q3" s="17">
         <v>44122</v>
       </c>
-      <c r="R3" s="30">
+      <c r="R3" s="17">
         <v>44123</v>
       </c>
-      <c r="S3" s="30">
+      <c r="S3" s="17">
         <v>44124</v>
       </c>
-      <c r="T3" s="30">
+      <c r="T3" s="17">
         <v>44125</v>
       </c>
-      <c r="U3" s="30">
+      <c r="U3" s="17">
         <v>44126</v>
       </c>
-      <c r="V3" s="30">
+      <c r="V3" s="17">
         <v>44127</v>
       </c>
-      <c r="W3" s="30">
+      <c r="W3" s="17">
         <v>44128</v>
       </c>
-      <c r="X3" s="30">
+      <c r="X3" s="17">
         <v>44129</v>
       </c>
-      <c r="Y3" s="30">
+      <c r="Y3" s="17">
         <v>44130</v>
       </c>
-      <c r="Z3" s="30">
+      <c r="Z3" s="17">
         <v>44131</v>
       </c>
-      <c r="AA3" s="30">
+      <c r="AA3" s="17">
         <v>44132</v>
       </c>
-      <c r="AB3" s="30">
+      <c r="AB3" s="17">
         <v>44133</v>
       </c>
-      <c r="AC3" s="30">
+      <c r="AC3" s="17">
         <v>44134</v>
       </c>
-      <c r="AD3" s="30">
+      <c r="AD3" s="17">
         <v>44135</v>
       </c>
-      <c r="AE3" s="30">
+      <c r="AE3" s="17">
         <v>44136</v>
       </c>
-      <c r="AF3" s="30">
+      <c r="AF3" s="17">
         <v>44137</v>
       </c>
-      <c r="AG3" s="30">
+      <c r="AG3" s="17">
         <v>44138</v>
       </c>
-      <c r="AH3" s="30">
+      <c r="AH3" s="17">
         <v>44139</v>
       </c>
-      <c r="AI3" s="30">
+      <c r="AI3" s="17">
         <v>44140</v>
       </c>
-      <c r="AJ3" s="30">
+      <c r="AJ3" s="17">
         <v>44141</v>
       </c>
-      <c r="AK3" s="30">
+      <c r="AK3" s="17">
         <v>44142</v>
       </c>
       <c r="AL3" s="1"/>
@@ -4505,3092 +4731,3472 @@
       <c r="AS3" s="1"/>
     </row>
     <row r="4" spans="1:45" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="31">
+      <c r="K4" s="18">
         <f>K3</f>
         <v>44116</v>
       </c>
-      <c r="L4" s="31">
+      <c r="L4" s="18">
         <f t="shared" ref="L4:AK4" si="0">L3</f>
         <v>44117</v>
       </c>
-      <c r="M4" s="31">
+      <c r="M4" s="18">
         <f t="shared" si="0"/>
         <v>44118</v>
       </c>
-      <c r="N4" s="31">
+      <c r="N4" s="18">
         <f t="shared" si="0"/>
         <v>44119</v>
       </c>
-      <c r="O4" s="31">
+      <c r="O4" s="18">
         <f t="shared" si="0"/>
         <v>44120</v>
       </c>
-      <c r="P4" s="31">
+      <c r="P4" s="18">
         <f t="shared" si="0"/>
         <v>44121</v>
       </c>
-      <c r="Q4" s="31">
+      <c r="Q4" s="18">
         <f t="shared" si="0"/>
         <v>44122</v>
       </c>
-      <c r="R4" s="31">
+      <c r="R4" s="18">
         <f t="shared" si="0"/>
         <v>44123</v>
       </c>
-      <c r="S4" s="31">
+      <c r="S4" s="18">
         <f t="shared" si="0"/>
         <v>44124</v>
       </c>
-      <c r="T4" s="31">
+      <c r="T4" s="18">
         <f t="shared" si="0"/>
         <v>44125</v>
       </c>
-      <c r="U4" s="31">
+      <c r="U4" s="18">
         <f t="shared" si="0"/>
         <v>44126</v>
       </c>
-      <c r="V4" s="31">
+      <c r="V4" s="18">
         <f t="shared" si="0"/>
         <v>44127</v>
       </c>
-      <c r="W4" s="31">
+      <c r="W4" s="18">
         <f t="shared" si="0"/>
         <v>44128</v>
       </c>
-      <c r="X4" s="31">
+      <c r="X4" s="18">
         <f t="shared" si="0"/>
         <v>44129</v>
       </c>
-      <c r="Y4" s="31">
+      <c r="Y4" s="18">
         <f t="shared" si="0"/>
         <v>44130</v>
       </c>
-      <c r="Z4" s="31">
+      <c r="Z4" s="18">
         <f t="shared" si="0"/>
         <v>44131</v>
       </c>
-      <c r="AA4" s="31">
+      <c r="AA4" s="18">
         <f t="shared" si="0"/>
         <v>44132</v>
       </c>
-      <c r="AB4" s="31">
+      <c r="AB4" s="18">
         <f t="shared" si="0"/>
         <v>44133</v>
       </c>
-      <c r="AC4" s="31">
+      <c r="AC4" s="18">
         <f t="shared" si="0"/>
         <v>44134</v>
       </c>
-      <c r="AD4" s="31">
+      <c r="AD4" s="18">
         <f t="shared" si="0"/>
         <v>44135</v>
       </c>
-      <c r="AE4" s="31">
+      <c r="AE4" s="18">
         <f t="shared" si="0"/>
         <v>44136</v>
       </c>
-      <c r="AF4" s="31">
+      <c r="AF4" s="18">
         <f t="shared" si="0"/>
         <v>44137</v>
       </c>
-      <c r="AG4" s="31">
+      <c r="AG4" s="18">
         <f t="shared" si="0"/>
         <v>44138</v>
       </c>
-      <c r="AH4" s="31">
+      <c r="AH4" s="18">
         <f t="shared" si="0"/>
         <v>44139</v>
       </c>
-      <c r="AI4" s="31">
+      <c r="AI4" s="18">
         <f t="shared" si="0"/>
         <v>44140</v>
       </c>
-      <c r="AJ4" s="31">
+      <c r="AJ4" s="18">
         <f t="shared" si="0"/>
         <v>44141</v>
       </c>
-      <c r="AK4" s="31">
+      <c r="AK4" s="18">
         <f t="shared" si="0"/>
         <v>44142</v>
       </c>
     </row>
     <row r="5" spans="1:45" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="50">
+        <v>44118</v>
+      </c>
+      <c r="I5" s="50">
+        <v>44125</v>
+      </c>
+      <c r="J5" s="51">
+        <v>1</v>
+      </c>
+      <c r="K5" s="42"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19"/>
+      <c r="V5" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
+      <c r="AH5" s="19"/>
+      <c r="AI5" s="19"/>
+      <c r="AJ5" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK5" s="19"/>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A6" s="48"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="50">
+        <v>44125</v>
+      </c>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51">
+        <v>0.05</v>
+      </c>
+      <c r="K6" s="43"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="19"/>
+      <c r="AJ6" s="31"/>
+      <c r="AK6" s="19"/>
+    </row>
+    <row r="7" spans="1:45" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="48"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="63" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="51">
+        <v>0</v>
+      </c>
+      <c r="K7" s="43"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="34"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AI7" s="19"/>
+      <c r="AJ7" s="31"/>
+      <c r="AK7" s="19"/>
+    </row>
+    <row r="8" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="48"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="50">
+        <v>44119</v>
+      </c>
+      <c r="I8" s="50"/>
+      <c r="J8" s="51">
+        <v>0.1</v>
+      </c>
+      <c r="K8" s="43"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19"/>
+      <c r="AJ8" s="31"/>
+      <c r="AK8" s="19"/>
+    </row>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A9" s="48"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="51">
+        <v>0</v>
+      </c>
+      <c r="K9" s="43"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="34"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="19"/>
+    </row>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A10" s="48"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51">
+        <v>0</v>
+      </c>
+      <c r="K10" s="43"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="31"/>
+      <c r="AK10" s="19"/>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A11" s="48"/>
+      <c r="B11" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="31"/>
+      <c r="AK11" s="19"/>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A12" s="48"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="51">
+        <v>0</v>
+      </c>
+      <c r="K12" s="43"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="37"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="19"/>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A13" s="48"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="54"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="51">
+        <v>0</v>
+      </c>
+      <c r="K13" s="43"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="37"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="31"/>
+      <c r="AK13" s="19"/>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A14" s="48"/>
+      <c r="B14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="55"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="51">
+        <v>0</v>
+      </c>
+      <c r="K14" s="43"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="37"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="31"/>
+      <c r="AK14" s="19"/>
+    </row>
+    <row r="15" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A15" s="48"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="51">
+        <v>0</v>
+      </c>
+      <c r="K15" s="43"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="31"/>
+      <c r="AK15" s="19"/>
+    </row>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A16" s="48"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="56"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="51">
+        <v>0</v>
+      </c>
+      <c r="K16" s="43"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="37"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="31"/>
+      <c r="AK16" s="19"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A17" s="48"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="51">
+        <v>0</v>
+      </c>
+      <c r="K17" s="43"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="31"/>
+      <c r="AK17" s="19"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A18" s="48"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" s="50">
+        <v>44124</v>
+      </c>
+      <c r="I18" s="50"/>
+      <c r="J18" s="51">
+        <v>0</v>
+      </c>
+      <c r="K18" s="43"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="37"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="31"/>
+      <c r="AK18" s="19"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A19" s="48"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G19" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="H5" s="19">
-        <v>44118</v>
-      </c>
-      <c r="I5" s="19">
+      <c r="H19" s="50">
         <v>44125</v>
       </c>
-      <c r="J5" s="7">
+      <c r="I19" s="50"/>
+      <c r="J19" s="51">
+        <v>0</v>
+      </c>
+      <c r="K19" s="43"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="37"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="31"/>
+      <c r="AK19" s="19"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A20" s="48"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H20" s="50">
+        <v>44124</v>
+      </c>
+      <c r="I20" s="50">
+        <v>44124</v>
+      </c>
+      <c r="J20" s="51">
         <v>1</v>
       </c>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="32"/>
-      <c r="T5" s="32"/>
-      <c r="U5" s="32"/>
-      <c r="V5" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="W5" s="32"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="32"/>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="32"/>
-      <c r="AB5" s="32"/>
-      <c r="AC5" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="AD5" s="32"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="32"/>
-      <c r="AH5" s="32"/>
-      <c r="AI5" s="32"/>
-      <c r="AJ5" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="AK5" s="32"/>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A6" s="57"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="19">
+      <c r="K20" s="43"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="19"/>
+      <c r="AJ20" s="31"/>
+      <c r="AK20" s="19"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A21" s="48"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51">
+        <v>0</v>
+      </c>
+      <c r="K21" s="43"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
+      <c r="AB21" s="20"/>
+      <c r="AC21" s="37"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="19"/>
+      <c r="AJ21" s="31"/>
+      <c r="AK21" s="19"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A22" s="48"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="H22" s="50">
+        <v>44125</v>
+      </c>
+      <c r="I22" s="50">
+        <v>44125</v>
+      </c>
+      <c r="J22" s="51">
+        <v>1</v>
+      </c>
+      <c r="K22" s="43"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="37"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="31"/>
+      <c r="AK22" s="19"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A23" s="48"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="50">
         <v>44124</v>
       </c>
-      <c r="J6" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="55"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="32"/>
-      <c r="AG6" s="32"/>
-      <c r="AH6" s="32"/>
-      <c r="AI6" s="32"/>
-      <c r="AJ6" s="47"/>
-      <c r="AK6" s="32"/>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A7" s="57"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="7">
+      <c r="I23" s="50">
+        <v>44124</v>
+      </c>
+      <c r="J23" s="51">
+        <v>1</v>
+      </c>
+      <c r="K23" s="43"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="37"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="31"/>
+      <c r="AK23" s="19"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A24" s="48"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="51">
         <v>0</v>
       </c>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="55"/>
-      <c r="AD7" s="32"/>
-      <c r="AE7" s="32"/>
-      <c r="AF7" s="32"/>
-      <c r="AG7" s="32"/>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="47"/>
-      <c r="AK7" s="32"/>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A8" s="57"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="19">
-        <v>44119</v>
-      </c>
-      <c r="J8" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="33"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="33"/>
-      <c r="Z8" s="33"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="33"/>
-      <c r="AC8" s="55"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="32"/>
-      <c r="AF8" s="32"/>
-      <c r="AG8" s="32"/>
-      <c r="AH8" s="32"/>
-      <c r="AI8" s="32"/>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="32"/>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A9" s="57"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="7">
+      <c r="K24" s="43"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="37"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="31"/>
+      <c r="AK24" s="19"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A25" s="48"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="50">
+        <v>44124</v>
+      </c>
+      <c r="I25" s="50">
+        <v>44125</v>
+      </c>
+      <c r="J25" s="51">
+        <v>0.25</v>
+      </c>
+      <c r="K25" s="43"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="37"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="19"/>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="19"/>
+      <c r="AJ25" s="31"/>
+      <c r="AK25" s="19"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A26" s="48"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="51">
         <v>0</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="52"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="55"/>
-      <c r="AD9" s="32"/>
-      <c r="AE9" s="32"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="32"/>
-      <c r="AH9" s="32"/>
-      <c r="AI9" s="32"/>
-      <c r="AJ9" s="47"/>
-      <c r="AK9" s="32"/>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A10" s="57"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="7">
+      <c r="K26" s="43"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
+      <c r="AB26" s="20"/>
+      <c r="AC26" s="37"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="31"/>
+      <c r="AK26" s="19"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A27" s="48"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H27" s="50">
+        <v>44124</v>
+      </c>
+      <c r="I27" s="50">
+        <v>44124</v>
+      </c>
+      <c r="J27" s="51">
+        <v>1</v>
+      </c>
+      <c r="K27" s="43"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="34"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
+      <c r="AB27" s="20"/>
+      <c r="AC27" s="37"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="19"/>
+      <c r="AJ27" s="31"/>
+      <c r="AK27" s="19"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A28" s="48"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="50">
+        <v>44124</v>
+      </c>
+      <c r="I28" s="50">
+        <v>44124</v>
+      </c>
+      <c r="J28" s="51">
+        <v>1</v>
+      </c>
+      <c r="K28" s="43"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="31"/>
+      <c r="AK28" s="19"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A29" s="48"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="50"/>
+      <c r="J29" s="51">
         <v>0</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="55"/>
-      <c r="AD10" s="32"/>
-      <c r="AE10" s="32"/>
-      <c r="AF10" s="32"/>
-      <c r="AG10" s="32"/>
-      <c r="AH10" s="32"/>
-      <c r="AI10" s="32"/>
-      <c r="AJ10" s="47"/>
-      <c r="AK10" s="32"/>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A11" s="57"/>
-      <c r="B11" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="K29" s="43"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="20"/>
+      <c r="R29" s="20"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="20"/>
+      <c r="U29" s="20"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="20"/>
+      <c r="X29" s="20"/>
+      <c r="Y29" s="20"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
+      <c r="AB29" s="20"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="19"/>
+      <c r="AJ29" s="31"/>
+      <c r="AK29" s="19"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A30" s="48"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="51">
+        <v>0</v>
+      </c>
+      <c r="K30" s="43"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="20"/>
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="34"/>
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="37"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="19"/>
+      <c r="AG30" s="19"/>
+      <c r="AH30" s="19"/>
+      <c r="AI30" s="19"/>
+      <c r="AJ30" s="31"/>
+      <c r="AK30" s="19"/>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A31" s="48"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H31" s="50">
+        <v>44124</v>
+      </c>
+      <c r="I31" s="50">
+        <v>44124</v>
+      </c>
+      <c r="J31" s="51">
+        <v>1</v>
+      </c>
+      <c r="K31" s="43"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
+      <c r="AB31" s="20"/>
+      <c r="AC31" s="37"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
+      <c r="AF31" s="19"/>
+      <c r="AG31" s="19"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="19"/>
+      <c r="AJ31" s="31"/>
+      <c r="AK31" s="19"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A32" s="48"/>
+      <c r="B32" s="52"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="51">
+        <v>0</v>
+      </c>
+      <c r="K32" s="43"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="20"/>
+      <c r="P32" s="20"/>
+      <c r="Q32" s="20"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="20"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
+      <c r="AB32" s="20"/>
+      <c r="AC32" s="37"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="19"/>
+      <c r="AJ32" s="31"/>
+      <c r="AK32" s="19"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A33" s="48"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="H33" s="50">
+        <v>44125</v>
+      </c>
+      <c r="I33" s="50"/>
+      <c r="J33" s="51">
+        <v>0</v>
+      </c>
+      <c r="K33" s="43"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="34"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="37"/>
+      <c r="AD33" s="19"/>
+      <c r="AE33" s="19"/>
+      <c r="AF33" s="19"/>
+      <c r="AG33" s="19"/>
+      <c r="AH33" s="19"/>
+      <c r="AI33" s="19"/>
+      <c r="AJ33" s="31"/>
+      <c r="AK33" s="19"/>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A34" s="48"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="51">
+        <v>0</v>
+      </c>
+      <c r="K34" s="43"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="34"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="20"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
+      <c r="AB34" s="20"/>
+      <c r="AC34" s="37"/>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="19"/>
+      <c r="AF34" s="19"/>
+      <c r="AG34" s="19"/>
+      <c r="AH34" s="19"/>
+      <c r="AI34" s="19"/>
+      <c r="AJ34" s="31"/>
+      <c r="AK34" s="19"/>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A35" s="48"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="51">
+        <v>0</v>
+      </c>
+      <c r="K35" s="43"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="20"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="34"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="20"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="20"/>
+      <c r="AB35" s="20"/>
+      <c r="AC35" s="37"/>
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="19"/>
+      <c r="AF35" s="19"/>
+      <c r="AG35" s="19"/>
+      <c r="AH35" s="19"/>
+      <c r="AI35" s="19"/>
+      <c r="AJ35" s="31"/>
+      <c r="AK35" s="19"/>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A36" s="48"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="H36" s="50">
+        <v>44125</v>
+      </c>
+      <c r="I36" s="50"/>
+      <c r="J36" s="51">
+        <v>0</v>
+      </c>
+      <c r="K36" s="43"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="20"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="20"/>
+      <c r="Q36" s="20"/>
+      <c r="R36" s="20"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="20"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="34"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="20"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="20"/>
+      <c r="AB36" s="20"/>
+      <c r="AC36" s="37"/>
+      <c r="AD36" s="19"/>
+      <c r="AE36" s="19"/>
+      <c r="AF36" s="19"/>
+      <c r="AG36" s="19"/>
+      <c r="AH36" s="19"/>
+      <c r="AI36" s="19"/>
+      <c r="AJ36" s="31"/>
+      <c r="AK36" s="19"/>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A37" s="48"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="50"/>
+      <c r="J37" s="51">
+        <v>0</v>
+      </c>
+      <c r="K37" s="43"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="20"/>
+      <c r="P37" s="20"/>
+      <c r="Q37" s="20"/>
+      <c r="R37" s="20"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="20"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="34"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="20"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="20"/>
+      <c r="AB37" s="20"/>
+      <c r="AC37" s="37"/>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="19"/>
+      <c r="AF37" s="19"/>
+      <c r="AG37" s="19"/>
+      <c r="AH37" s="19"/>
+      <c r="AI37" s="19"/>
+      <c r="AJ37" s="31"/>
+      <c r="AK37" s="19"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A38" s="48"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="50"/>
+      <c r="J38" s="51">
+        <v>0</v>
+      </c>
+      <c r="K38" s="43"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="20"/>
+      <c r="Q38" s="20"/>
+      <c r="R38" s="20"/>
+      <c r="S38" s="20"/>
+      <c r="T38" s="20"/>
+      <c r="U38" s="20"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="20"/>
+      <c r="X38" s="20"/>
+      <c r="Y38" s="20"/>
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="20"/>
+      <c r="AB38" s="20"/>
+      <c r="AC38" s="37"/>
+      <c r="AD38" s="19"/>
+      <c r="AE38" s="19"/>
+      <c r="AF38" s="19"/>
+      <c r="AG38" s="19"/>
+      <c r="AH38" s="19"/>
+      <c r="AI38" s="19"/>
+      <c r="AJ38" s="31"/>
+      <c r="AK38" s="19"/>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A39" s="48"/>
+      <c r="B39" s="52"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="55"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="50"/>
+      <c r="J39" s="51">
+        <v>0</v>
+      </c>
+      <c r="K39" s="43"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="20"/>
+      <c r="P39" s="20"/>
+      <c r="Q39" s="20"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="20"/>
+      <c r="T39" s="20"/>
+      <c r="U39" s="20"/>
+      <c r="V39" s="34"/>
+      <c r="W39" s="20"/>
+      <c r="X39" s="20"/>
+      <c r="Y39" s="20"/>
+      <c r="Z39" s="20"/>
+      <c r="AA39" s="20"/>
+      <c r="AB39" s="20"/>
+      <c r="AC39" s="37"/>
+      <c r="AD39" s="19"/>
+      <c r="AE39" s="19"/>
+      <c r="AF39" s="19"/>
+      <c r="AG39" s="19"/>
+      <c r="AH39" s="19"/>
+      <c r="AI39" s="19"/>
+      <c r="AJ39" s="31"/>
+      <c r="AK39" s="19"/>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A40" s="48"/>
+      <c r="B40" s="52"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="54"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="50"/>
+      <c r="J40" s="51">
+        <v>0</v>
+      </c>
+      <c r="K40" s="43"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="20"/>
+      <c r="Q40" s="20"/>
+      <c r="R40" s="20"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="20"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="34"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="20"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="20"/>
+      <c r="AB40" s="20"/>
+      <c r="AC40" s="37"/>
+      <c r="AD40" s="19"/>
+      <c r="AE40" s="19"/>
+      <c r="AF40" s="19"/>
+      <c r="AG40" s="19"/>
+      <c r="AH40" s="19"/>
+      <c r="AI40" s="19"/>
+      <c r="AJ40" s="31"/>
+      <c r="AK40" s="19"/>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A41" s="48"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="E41" s="2"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="50"/>
+      <c r="J41" s="51">
+        <v>0</v>
+      </c>
+      <c r="K41" s="43"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="20"/>
+      <c r="Q41" s="20"/>
+      <c r="R41" s="20"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="20"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="34"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="20"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="20"/>
+      <c r="AA41" s="20"/>
+      <c r="AB41" s="20"/>
+      <c r="AC41" s="37"/>
+      <c r="AD41" s="19"/>
+      <c r="AE41" s="19"/>
+      <c r="AF41" s="19"/>
+      <c r="AG41" s="19"/>
+      <c r="AH41" s="19"/>
+      <c r="AI41" s="19"/>
+      <c r="AJ41" s="31"/>
+      <c r="AK41" s="19"/>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A42" s="48"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="51">
+        <v>0</v>
+      </c>
+      <c r="K42" s="43"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="20"/>
+      <c r="Q42" s="20"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="20"/>
+      <c r="X42" s="20"/>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="20"/>
+      <c r="AA42" s="20"/>
+      <c r="AB42" s="20"/>
+      <c r="AC42" s="37"/>
+      <c r="AD42" s="19"/>
+      <c r="AE42" s="19"/>
+      <c r="AF42" s="19"/>
+      <c r="AG42" s="19"/>
+      <c r="AH42" s="19"/>
+      <c r="AI42" s="19"/>
+      <c r="AJ42" s="31"/>
+      <c r="AK42" s="19"/>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A43" s="48"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="51">
+        <v>0</v>
+      </c>
+      <c r="K43" s="43"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="20"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="20"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="20"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="20"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="20"/>
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="20"/>
+      <c r="AA43" s="20"/>
+      <c r="AB43" s="20"/>
+      <c r="AC43" s="37"/>
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="19"/>
+      <c r="AF43" s="19"/>
+      <c r="AG43" s="19"/>
+      <c r="AH43" s="19"/>
+      <c r="AI43" s="19"/>
+      <c r="AJ43" s="31"/>
+      <c r="AK43" s="19"/>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A44" s="48"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="51">
+        <v>0</v>
+      </c>
+      <c r="K44" s="43"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="34"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="20"/>
+      <c r="AA44" s="20"/>
+      <c r="AB44" s="20"/>
+      <c r="AC44" s="37"/>
+      <c r="AD44" s="19"/>
+      <c r="AE44" s="19"/>
+      <c r="AF44" s="19"/>
+      <c r="AG44" s="19"/>
+      <c r="AH44" s="19"/>
+      <c r="AI44" s="19"/>
+      <c r="AJ44" s="31"/>
+      <c r="AK44" s="19"/>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A45" s="48"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="51">
+        <v>0</v>
+      </c>
+      <c r="K45" s="43"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="20"/>
+      <c r="R45" s="20"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="20"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="34"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="20"/>
+      <c r="AA45" s="20"/>
+      <c r="AB45" s="20"/>
+      <c r="AC45" s="37"/>
+      <c r="AD45" s="19"/>
+      <c r="AE45" s="19"/>
+      <c r="AF45" s="19"/>
+      <c r="AG45" s="19"/>
+      <c r="AH45" s="19"/>
+      <c r="AI45" s="19"/>
+      <c r="AJ45" s="31"/>
+      <c r="AK45" s="19"/>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A46" s="48"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="51">
+        <v>0</v>
+      </c>
+      <c r="K46" s="43"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="20"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="20"/>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="20"/>
+      <c r="U46" s="20"/>
+      <c r="V46" s="34"/>
+      <c r="W46" s="20"/>
+      <c r="X46" s="20"/>
+      <c r="Y46" s="20"/>
+      <c r="Z46" s="20"/>
+      <c r="AA46" s="20"/>
+      <c r="AB46" s="20"/>
+      <c r="AC46" s="37"/>
+      <c r="AD46" s="19"/>
+      <c r="AE46" s="19"/>
+      <c r="AF46" s="19"/>
+      <c r="AG46" s="19"/>
+      <c r="AH46" s="19"/>
+      <c r="AI46" s="19"/>
+      <c r="AJ46" s="31"/>
+      <c r="AK46" s="19"/>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A47" s="48"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="51">
+        <v>0</v>
+      </c>
+      <c r="K47" s="43"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+      <c r="R47" s="20"/>
+      <c r="S47" s="20"/>
+      <c r="T47" s="20"/>
+      <c r="U47" s="20"/>
+      <c r="V47" s="34"/>
+      <c r="W47" s="20"/>
+      <c r="X47" s="20"/>
+      <c r="Y47" s="20"/>
+      <c r="Z47" s="20"/>
+      <c r="AA47" s="20"/>
+      <c r="AB47" s="20"/>
+      <c r="AC47" s="37"/>
+      <c r="AD47" s="19"/>
+      <c r="AE47" s="19"/>
+      <c r="AF47" s="19"/>
+      <c r="AG47" s="19"/>
+      <c r="AH47" s="19"/>
+      <c r="AI47" s="19"/>
+      <c r="AJ47" s="31"/>
+      <c r="AK47" s="19"/>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A48" s="48"/>
+      <c r="B48" s="52"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="50"/>
+      <c r="J48" s="51">
+        <v>0</v>
+      </c>
+      <c r="K48" s="43"/>
+      <c r="L48" s="20"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="20"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="20"/>
+      <c r="R48" s="20"/>
+      <c r="S48" s="20"/>
+      <c r="T48" s="20"/>
+      <c r="U48" s="20"/>
+      <c r="V48" s="34"/>
+      <c r="W48" s="20"/>
+      <c r="X48" s="20"/>
+      <c r="Y48" s="20"/>
+      <c r="Z48" s="20"/>
+      <c r="AA48" s="20"/>
+      <c r="AB48" s="20"/>
+      <c r="AC48" s="37"/>
+      <c r="AD48" s="19"/>
+      <c r="AE48" s="19"/>
+      <c r="AF48" s="19"/>
+      <c r="AG48" s="19"/>
+      <c r="AH48" s="19"/>
+      <c r="AI48" s="19"/>
+      <c r="AJ48" s="31"/>
+      <c r="AK48" s="19"/>
+    </row>
+    <row r="49" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A49" s="48"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="50"/>
+      <c r="J49" s="51">
+        <v>0</v>
+      </c>
+      <c r="K49" s="43"/>
+      <c r="L49" s="20"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="20"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="20"/>
+      <c r="S49" s="20"/>
+      <c r="T49" s="20"/>
+      <c r="U49" s="20"/>
+      <c r="V49" s="34"/>
+      <c r="W49" s="20"/>
+      <c r="X49" s="20"/>
+      <c r="Y49" s="20"/>
+      <c r="Z49" s="20"/>
+      <c r="AA49" s="20"/>
+      <c r="AB49" s="20"/>
+      <c r="AC49" s="37"/>
+      <c r="AD49" s="19"/>
+      <c r="AE49" s="19"/>
+      <c r="AF49" s="19"/>
+      <c r="AG49" s="19"/>
+      <c r="AH49" s="19"/>
+      <c r="AI49" s="19"/>
+      <c r="AJ49" s="31"/>
+      <c r="AK49" s="19"/>
+    </row>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A50" s="48"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="51">
+        <v>0</v>
+      </c>
+      <c r="K50" s="43"/>
+      <c r="L50" s="20"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="34"/>
+      <c r="W50" s="20"/>
+      <c r="X50" s="20"/>
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="20"/>
+      <c r="AA50" s="20"/>
+      <c r="AB50" s="20"/>
+      <c r="AC50" s="37"/>
+      <c r="AD50" s="19"/>
+      <c r="AE50" s="19"/>
+      <c r="AF50" s="19"/>
+      <c r="AG50" s="19"/>
+      <c r="AH50" s="19"/>
+      <c r="AI50" s="19"/>
+      <c r="AJ50" s="31"/>
+      <c r="AK50" s="19"/>
+    </row>
+    <row r="51" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A51" s="48"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="50"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="51">
+        <v>0</v>
+      </c>
+      <c r="K51" s="43"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20"/>
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20"/>
+      <c r="S51" s="20"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="34"/>
+      <c r="W51" s="20"/>
+      <c r="X51" s="20"/>
+      <c r="Y51" s="20"/>
+      <c r="Z51" s="20"/>
+      <c r="AA51" s="20"/>
+      <c r="AB51" s="20"/>
+      <c r="AC51" s="37"/>
+      <c r="AD51" s="19"/>
+      <c r="AE51" s="19"/>
+      <c r="AF51" s="19"/>
+      <c r="AG51" s="19"/>
+      <c r="AH51" s="19"/>
+      <c r="AI51" s="19"/>
+      <c r="AJ51" s="31"/>
+      <c r="AK51" s="19"/>
+    </row>
+    <row r="52" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A52" s="48"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G52" s="20"/>
+      <c r="H52" s="50">
+        <v>44124</v>
+      </c>
+      <c r="I52" s="50"/>
+      <c r="J52" s="51">
+        <v>0</v>
+      </c>
+      <c r="K52" s="43"/>
+      <c r="L52" s="20"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="20"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="20"/>
+      <c r="R52" s="20"/>
+      <c r="S52" s="20"/>
+      <c r="T52" s="20"/>
+      <c r="U52" s="20"/>
+      <c r="V52" s="34"/>
+      <c r="W52" s="20"/>
+      <c r="X52" s="20"/>
+      <c r="Y52" s="20"/>
+      <c r="Z52" s="20"/>
+      <c r="AA52" s="20"/>
+      <c r="AB52" s="20"/>
+      <c r="AC52" s="37"/>
+      <c r="AD52" s="19"/>
+      <c r="AE52" s="19"/>
+      <c r="AF52" s="19"/>
+      <c r="AG52" s="19"/>
+      <c r="AH52" s="19"/>
+      <c r="AI52" s="19"/>
+      <c r="AJ52" s="31"/>
+      <c r="AK52" s="19"/>
+    </row>
+    <row r="53" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A53" s="48"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G53" s="20"/>
+      <c r="H53" s="50">
+        <v>44124</v>
+      </c>
+      <c r="I53" s="50"/>
+      <c r="J53" s="51">
+        <v>0</v>
+      </c>
+      <c r="K53" s="43"/>
+      <c r="L53" s="20"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="20"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="20"/>
+      <c r="R53" s="20"/>
+      <c r="S53" s="20"/>
+      <c r="T53" s="20"/>
+      <c r="U53" s="20"/>
+      <c r="V53" s="34"/>
+      <c r="W53" s="20"/>
+      <c r="X53" s="20"/>
+      <c r="Y53" s="20"/>
+      <c r="Z53" s="20"/>
+      <c r="AA53" s="20"/>
+      <c r="AB53" s="20"/>
+      <c r="AC53" s="37"/>
+      <c r="AD53" s="19"/>
+      <c r="AE53" s="19"/>
+      <c r="AF53" s="19"/>
+      <c r="AG53" s="19"/>
+      <c r="AH53" s="19"/>
+      <c r="AI53" s="19"/>
+      <c r="AJ53" s="31"/>
+      <c r="AK53" s="19"/>
+    </row>
+    <row r="54" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="48"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D54" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="E54" s="57"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="58"/>
+      <c r="J54" s="59">
+        <v>0</v>
+      </c>
+      <c r="K54" s="44"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="21"/>
+      <c r="V54" s="34"/>
+      <c r="W54" s="21"/>
+      <c r="X54" s="21"/>
+      <c r="Y54" s="21"/>
+      <c r="Z54" s="21"/>
+      <c r="AA54" s="21"/>
+      <c r="AB54" s="21"/>
+      <c r="AC54" s="37"/>
+      <c r="AD54" s="19"/>
+      <c r="AE54" s="19"/>
+      <c r="AF54" s="19"/>
+      <c r="AG54" s="19"/>
+      <c r="AH54" s="19"/>
+      <c r="AI54" s="19"/>
+      <c r="AJ54" s="31"/>
+      <c r="AK54" s="19"/>
+    </row>
+    <row r="55" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A55" s="48"/>
+      <c r="B55" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="C55" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F55" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="19">
+      <c r="G55" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H55" s="50">
+        <v>44124</v>
+      </c>
+      <c r="I55" s="50">
+        <v>44124</v>
+      </c>
+      <c r="J55" s="51">
+        <v>1</v>
+      </c>
+      <c r="K55" s="43"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="20"/>
+      <c r="R55" s="20"/>
+      <c r="S55" s="20"/>
+      <c r="T55" s="20"/>
+      <c r="U55" s="20"/>
+      <c r="V55" s="34"/>
+      <c r="W55" s="20"/>
+      <c r="X55" s="20"/>
+      <c r="Y55" s="20"/>
+      <c r="Z55" s="20"/>
+      <c r="AA55" s="20"/>
+      <c r="AB55" s="20"/>
+      <c r="AC55" s="37"/>
+      <c r="AD55" s="19"/>
+      <c r="AE55" s="19"/>
+      <c r="AF55" s="19"/>
+      <c r="AG55" s="19"/>
+      <c r="AH55" s="19"/>
+      <c r="AI55" s="19"/>
+      <c r="AJ55" s="31"/>
+      <c r="AK55" s="19"/>
+    </row>
+    <row r="56" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A56" s="48"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G56" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="H56" s="50">
+        <v>44124</v>
+      </c>
+      <c r="I56" s="50">
+        <v>44125</v>
+      </c>
+      <c r="J56" s="51">
+        <v>0.25</v>
+      </c>
+      <c r="K56" s="43"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="20"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="20"/>
+      <c r="R56" s="20"/>
+      <c r="S56" s="20"/>
+      <c r="T56" s="20"/>
+      <c r="U56" s="20"/>
+      <c r="V56" s="34"/>
+      <c r="W56" s="20"/>
+      <c r="X56" s="20"/>
+      <c r="Y56" s="20"/>
+      <c r="Z56" s="20"/>
+      <c r="AA56" s="20"/>
+      <c r="AB56" s="20"/>
+      <c r="AC56" s="37"/>
+      <c r="AD56" s="19"/>
+      <c r="AE56" s="19"/>
+      <c r="AF56" s="19"/>
+      <c r="AG56" s="19"/>
+      <c r="AH56" s="19"/>
+      <c r="AI56" s="19"/>
+      <c r="AJ56" s="31"/>
+      <c r="AK56" s="19"/>
+    </row>
+    <row r="57" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A57" s="48"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D57" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="50"/>
+      <c r="J57" s="51">
+        <v>0</v>
+      </c>
+      <c r="K57" s="43"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="20"/>
+      <c r="P57" s="20"/>
+      <c r="Q57" s="20"/>
+      <c r="R57" s="20"/>
+      <c r="S57" s="20"/>
+      <c r="T57" s="20"/>
+      <c r="U57" s="20"/>
+      <c r="V57" s="34"/>
+      <c r="W57" s="20"/>
+      <c r="X57" s="20"/>
+      <c r="Y57" s="20"/>
+      <c r="Z57" s="20"/>
+      <c r="AA57" s="20"/>
+      <c r="AB57" s="20"/>
+      <c r="AC57" s="37"/>
+      <c r="AD57" s="19"/>
+      <c r="AE57" s="19"/>
+      <c r="AF57" s="19"/>
+      <c r="AG57" s="19"/>
+      <c r="AH57" s="19"/>
+      <c r="AI57" s="19"/>
+      <c r="AJ57" s="31"/>
+      <c r="AK57" s="19"/>
+    </row>
+    <row r="58" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A58" s="48"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="50"/>
+      <c r="I58" s="50"/>
+      <c r="J58" s="51">
+        <v>0</v>
+      </c>
+      <c r="K58" s="43"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="20"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="20"/>
+      <c r="R58" s="20"/>
+      <c r="S58" s="20"/>
+      <c r="T58" s="20"/>
+      <c r="U58" s="20"/>
+      <c r="V58" s="34"/>
+      <c r="W58" s="20"/>
+      <c r="X58" s="20"/>
+      <c r="Y58" s="20"/>
+      <c r="Z58" s="20"/>
+      <c r="AA58" s="20"/>
+      <c r="AB58" s="20"/>
+      <c r="AC58" s="37"/>
+      <c r="AD58" s="19"/>
+      <c r="AE58" s="19"/>
+      <c r="AF58" s="19"/>
+      <c r="AG58" s="19"/>
+      <c r="AH58" s="19"/>
+      <c r="AI58" s="19"/>
+      <c r="AJ58" s="31"/>
+      <c r="AK58" s="19"/>
+    </row>
+    <row r="59" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A59" s="48"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
+      <c r="E59" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="50"/>
+      <c r="I59" s="50"/>
+      <c r="J59" s="51">
+        <v>0</v>
+      </c>
+      <c r="K59" s="43"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="20"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="20"/>
+      <c r="R59" s="20"/>
+      <c r="S59" s="20"/>
+      <c r="T59" s="20"/>
+      <c r="U59" s="20"/>
+      <c r="V59" s="34"/>
+      <c r="W59" s="20"/>
+      <c r="X59" s="20"/>
+      <c r="Y59" s="20"/>
+      <c r="Z59" s="20"/>
+      <c r="AA59" s="20"/>
+      <c r="AB59" s="20"/>
+      <c r="AC59" s="37"/>
+      <c r="AD59" s="19"/>
+      <c r="AE59" s="19"/>
+      <c r="AF59" s="19"/>
+      <c r="AG59" s="19"/>
+      <c r="AH59" s="19"/>
+      <c r="AI59" s="19"/>
+      <c r="AJ59" s="31"/>
+      <c r="AK59" s="19"/>
+    </row>
+    <row r="60" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A60" s="48"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="50"/>
+      <c r="I60" s="50"/>
+      <c r="J60" s="51">
+        <v>0</v>
+      </c>
+      <c r="K60" s="43"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="20"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="20"/>
+      <c r="R60" s="20"/>
+      <c r="S60" s="20"/>
+      <c r="T60" s="20"/>
+      <c r="U60" s="20"/>
+      <c r="V60" s="34"/>
+      <c r="W60" s="20"/>
+      <c r="X60" s="20"/>
+      <c r="Y60" s="20"/>
+      <c r="Z60" s="20"/>
+      <c r="AA60" s="20"/>
+      <c r="AB60" s="20"/>
+      <c r="AC60" s="37"/>
+      <c r="AD60" s="19"/>
+      <c r="AE60" s="19"/>
+      <c r="AF60" s="19"/>
+      <c r="AG60" s="19"/>
+      <c r="AH60" s="19"/>
+      <c r="AI60" s="19"/>
+      <c r="AJ60" s="31"/>
+      <c r="AK60" s="19"/>
+    </row>
+    <row r="61" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A61" s="48"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
+      <c r="E61" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="50"/>
+      <c r="I61" s="50"/>
+      <c r="J61" s="51">
+        <v>0</v>
+      </c>
+      <c r="K61" s="43"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="20"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="20"/>
+      <c r="R61" s="20"/>
+      <c r="S61" s="20"/>
+      <c r="T61" s="20"/>
+      <c r="U61" s="20"/>
+      <c r="V61" s="34"/>
+      <c r="W61" s="20"/>
+      <c r="X61" s="20"/>
+      <c r="Y61" s="20"/>
+      <c r="Z61" s="20"/>
+      <c r="AA61" s="20"/>
+      <c r="AB61" s="20"/>
+      <c r="AC61" s="37"/>
+      <c r="AD61" s="19"/>
+      <c r="AE61" s="19"/>
+      <c r="AF61" s="19"/>
+      <c r="AG61" s="19"/>
+      <c r="AH61" s="19"/>
+      <c r="AI61" s="19"/>
+      <c r="AJ61" s="31"/>
+      <c r="AK61" s="19"/>
+    </row>
+    <row r="62" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A62" s="48"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="50"/>
+      <c r="I62" s="50"/>
+      <c r="J62" s="51">
+        <v>0</v>
+      </c>
+      <c r="K62" s="43"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="20"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="20"/>
+      <c r="Q62" s="20"/>
+      <c r="R62" s="20"/>
+      <c r="S62" s="20"/>
+      <c r="T62" s="20"/>
+      <c r="U62" s="20"/>
+      <c r="V62" s="34"/>
+      <c r="W62" s="20"/>
+      <c r="X62" s="20"/>
+      <c r="Y62" s="20"/>
+      <c r="Z62" s="20"/>
+      <c r="AA62" s="20"/>
+      <c r="AB62" s="20"/>
+      <c r="AC62" s="37"/>
+      <c r="AD62" s="19"/>
+      <c r="AE62" s="19"/>
+      <c r="AF62" s="19"/>
+      <c r="AG62" s="19"/>
+      <c r="AH62" s="19"/>
+      <c r="AI62" s="19"/>
+      <c r="AJ62" s="31"/>
+      <c r="AK62" s="19"/>
+    </row>
+    <row r="63" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A63" s="48"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
+      <c r="E63" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="50"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="51">
+        <v>0</v>
+      </c>
+      <c r="K63" s="43"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="20"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="20"/>
+      <c r="R63" s="20"/>
+      <c r="S63" s="20"/>
+      <c r="T63" s="20"/>
+      <c r="U63" s="20"/>
+      <c r="V63" s="34"/>
+      <c r="W63" s="20"/>
+      <c r="X63" s="20"/>
+      <c r="Y63" s="20"/>
+      <c r="Z63" s="20"/>
+      <c r="AA63" s="20"/>
+      <c r="AB63" s="20"/>
+      <c r="AC63" s="37"/>
+      <c r="AD63" s="19"/>
+      <c r="AE63" s="19"/>
+      <c r="AF63" s="19"/>
+      <c r="AG63" s="19"/>
+      <c r="AH63" s="19"/>
+      <c r="AI63" s="19"/>
+      <c r="AJ63" s="31"/>
+      <c r="AK63" s="19"/>
+    </row>
+    <row r="64" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="48"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D64" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F64" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G64" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="H64" s="50">
+        <v>44125</v>
+      </c>
+      <c r="I64" s="50"/>
+      <c r="J64" s="51">
+        <v>0</v>
+      </c>
+      <c r="K64" s="43"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="20"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="20"/>
+      <c r="R64" s="20"/>
+      <c r="S64" s="20"/>
+      <c r="T64" s="20"/>
+      <c r="U64" s="20"/>
+      <c r="V64" s="34"/>
+      <c r="W64" s="20"/>
+      <c r="X64" s="20"/>
+      <c r="Y64" s="20"/>
+      <c r="Z64" s="20"/>
+      <c r="AA64" s="20"/>
+      <c r="AB64" s="20"/>
+      <c r="AC64" s="37"/>
+      <c r="AD64" s="19"/>
+      <c r="AE64" s="19"/>
+      <c r="AF64" s="19"/>
+      <c r="AG64" s="19"/>
+      <c r="AH64" s="19"/>
+      <c r="AI64" s="19"/>
+      <c r="AJ64" s="31"/>
+      <c r="AK64" s="19"/>
+    </row>
+    <row r="65" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="48"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
+      <c r="E65" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="50"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="51">
+        <v>0</v>
+      </c>
+      <c r="K65" s="43"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="20"/>
+      <c r="O65" s="20"/>
+      <c r="P65" s="20"/>
+      <c r="Q65" s="20"/>
+      <c r="R65" s="20"/>
+      <c r="S65" s="20"/>
+      <c r="T65" s="20"/>
+      <c r="U65" s="20"/>
+      <c r="V65" s="34"/>
+      <c r="W65" s="20"/>
+      <c r="X65" s="20"/>
+      <c r="Y65" s="20"/>
+      <c r="Z65" s="20"/>
+      <c r="AA65" s="20"/>
+      <c r="AB65" s="20"/>
+      <c r="AC65" s="37"/>
+      <c r="AD65" s="19"/>
+      <c r="AE65" s="19"/>
+      <c r="AF65" s="19"/>
+      <c r="AG65" s="19"/>
+      <c r="AH65" s="19"/>
+      <c r="AI65" s="19"/>
+      <c r="AJ65" s="31"/>
+      <c r="AK65" s="19"/>
+    </row>
+    <row r="66" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="48"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="20"/>
+      <c r="H66" s="50"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="51">
+        <v>0</v>
+      </c>
+      <c r="K66" s="43"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="20"/>
+      <c r="O66" s="20"/>
+      <c r="P66" s="20"/>
+      <c r="Q66" s="20"/>
+      <c r="R66" s="20"/>
+      <c r="S66" s="20"/>
+      <c r="T66" s="20"/>
+      <c r="U66" s="20"/>
+      <c r="V66" s="34"/>
+      <c r="W66" s="20"/>
+      <c r="X66" s="20"/>
+      <c r="Y66" s="20"/>
+      <c r="Z66" s="20"/>
+      <c r="AA66" s="20"/>
+      <c r="AB66" s="20"/>
+      <c r="AC66" s="37"/>
+      <c r="AD66" s="19"/>
+      <c r="AE66" s="19"/>
+      <c r="AF66" s="19"/>
+      <c r="AG66" s="19"/>
+      <c r="AH66" s="19"/>
+      <c r="AI66" s="19"/>
+      <c r="AJ66" s="31"/>
+      <c r="AK66" s="19"/>
+    </row>
+    <row r="67" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A67" s="48"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="50"/>
+      <c r="J67" s="51">
+        <v>0</v>
+      </c>
+      <c r="K67" s="43"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="20"/>
+      <c r="O67" s="20"/>
+      <c r="P67" s="20"/>
+      <c r="Q67" s="20"/>
+      <c r="R67" s="20"/>
+      <c r="S67" s="20"/>
+      <c r="T67" s="20"/>
+      <c r="U67" s="20"/>
+      <c r="V67" s="34"/>
+      <c r="W67" s="20"/>
+      <c r="X67" s="20"/>
+      <c r="Y67" s="20"/>
+      <c r="Z67" s="20"/>
+      <c r="AA67" s="20"/>
+      <c r="AB67" s="20"/>
+      <c r="AC67" s="37"/>
+      <c r="AD67" s="19"/>
+      <c r="AE67" s="19"/>
+      <c r="AF67" s="19"/>
+      <c r="AG67" s="19"/>
+      <c r="AH67" s="19"/>
+      <c r="AI67" s="19"/>
+      <c r="AJ67" s="31"/>
+      <c r="AK67" s="19"/>
+    </row>
+    <row r="68" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A68" s="48"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="50"/>
+      <c r="J68" s="51">
+        <v>0</v>
+      </c>
+      <c r="K68" s="43"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="20"/>
+      <c r="O68" s="20"/>
+      <c r="P68" s="20"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="20"/>
+      <c r="U68" s="20"/>
+      <c r="V68" s="34"/>
+      <c r="W68" s="20"/>
+      <c r="X68" s="20"/>
+      <c r="Y68" s="20"/>
+      <c r="Z68" s="20"/>
+      <c r="AA68" s="20"/>
+      <c r="AB68" s="20"/>
+      <c r="AC68" s="37"/>
+      <c r="AD68" s="19"/>
+      <c r="AE68" s="19"/>
+      <c r="AF68" s="19"/>
+      <c r="AG68" s="19"/>
+      <c r="AH68" s="19"/>
+      <c r="AI68" s="19"/>
+      <c r="AJ68" s="31"/>
+      <c r="AK68" s="19"/>
+    </row>
+    <row r="69" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A69" s="48"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="G69" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="H69" s="50">
+        <v>44124</v>
+      </c>
+      <c r="I69" s="50">
+        <v>44124</v>
+      </c>
+      <c r="J69" s="51">
+        <v>1</v>
+      </c>
+      <c r="K69" s="43"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="20"/>
+      <c r="O69" s="20"/>
+      <c r="P69" s="20"/>
+      <c r="Q69" s="20"/>
+      <c r="R69" s="20"/>
+      <c r="S69" s="20"/>
+      <c r="T69" s="20"/>
+      <c r="U69" s="20"/>
+      <c r="V69" s="34"/>
+      <c r="W69" s="20"/>
+      <c r="X69" s="20"/>
+      <c r="Y69" s="20"/>
+      <c r="Z69" s="20"/>
+      <c r="AA69" s="20"/>
+      <c r="AB69" s="20"/>
+      <c r="AC69" s="37"/>
+      <c r="AD69" s="19"/>
+      <c r="AE69" s="19"/>
+      <c r="AF69" s="19"/>
+      <c r="AG69" s="19"/>
+      <c r="AH69" s="19"/>
+      <c r="AI69" s="19"/>
+      <c r="AJ69" s="31"/>
+      <c r="AK69" s="19"/>
+    </row>
+    <row r="70" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A70" s="48"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="G70" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="H70" s="50">
+        <v>44124</v>
+      </c>
+      <c r="I70" s="50">
+        <v>44124</v>
+      </c>
+      <c r="J70" s="51">
+        <v>1</v>
+      </c>
+      <c r="K70" s="43"/>
+      <c r="L70" s="20"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="20"/>
+      <c r="O70" s="20"/>
+      <c r="P70" s="20"/>
+      <c r="Q70" s="20"/>
+      <c r="R70" s="20"/>
+      <c r="S70" s="20"/>
+      <c r="T70" s="20"/>
+      <c r="U70" s="20"/>
+      <c r="V70" s="34"/>
+      <c r="W70" s="20"/>
+      <c r="X70" s="20"/>
+      <c r="Y70" s="20"/>
+      <c r="Z70" s="20"/>
+      <c r="AA70" s="20"/>
+      <c r="AB70" s="20"/>
+      <c r="AC70" s="37"/>
+      <c r="AD70" s="19"/>
+      <c r="AE70" s="19"/>
+      <c r="AF70" s="19"/>
+      <c r="AG70" s="19"/>
+      <c r="AH70" s="19"/>
+      <c r="AI70" s="19"/>
+      <c r="AJ70" s="31"/>
+      <c r="AK70" s="19"/>
+    </row>
+    <row r="71" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="48"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G71" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="H71" s="50">
+        <v>44125</v>
+      </c>
+      <c r="I71" s="50"/>
+      <c r="J71" s="51">
+        <v>0</v>
+      </c>
+      <c r="K71" s="43"/>
+      <c r="L71" s="20"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="20"/>
+      <c r="O71" s="20"/>
+      <c r="P71" s="20"/>
+      <c r="Q71" s="20"/>
+      <c r="R71" s="20"/>
+      <c r="S71" s="20"/>
+      <c r="T71" s="20"/>
+      <c r="U71" s="20"/>
+      <c r="V71" s="34"/>
+      <c r="W71" s="20"/>
+      <c r="X71" s="20"/>
+      <c r="Y71" s="20"/>
+      <c r="Z71" s="20"/>
+      <c r="AA71" s="20"/>
+      <c r="AB71" s="20"/>
+      <c r="AC71" s="37"/>
+      <c r="AD71" s="19"/>
+      <c r="AE71" s="19"/>
+      <c r="AF71" s="19"/>
+      <c r="AG71" s="19"/>
+      <c r="AH71" s="19"/>
+      <c r="AI71" s="19"/>
+      <c r="AJ71" s="31"/>
+      <c r="AK71" s="19"/>
+    </row>
+    <row r="72" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="48"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="50"/>
+      <c r="J72" s="51">
+        <v>0</v>
+      </c>
+      <c r="K72" s="43"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="20"/>
+      <c r="O72" s="20"/>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="20"/>
+      <c r="R72" s="20"/>
+      <c r="S72" s="20"/>
+      <c r="T72" s="20"/>
+      <c r="U72" s="20"/>
+      <c r="V72" s="34"/>
+      <c r="W72" s="20"/>
+      <c r="X72" s="20"/>
+      <c r="Y72" s="20"/>
+      <c r="Z72" s="20"/>
+      <c r="AA72" s="20"/>
+      <c r="AB72" s="20"/>
+      <c r="AC72" s="37"/>
+      <c r="AD72" s="19"/>
+      <c r="AE72" s="19"/>
+      <c r="AF72" s="19"/>
+      <c r="AG72" s="19"/>
+      <c r="AH72" s="19"/>
+      <c r="AI72" s="19"/>
+      <c r="AJ72" s="31"/>
+      <c r="AK72" s="19"/>
+    </row>
+    <row r="73" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A73" s="48"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G73" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="H73" s="50">
         <v>44123</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I73" s="50">
         <v>44123</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J73" s="51">
         <v>1</v>
       </c>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="55"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="32"/>
-      <c r="AG11" s="32"/>
-      <c r="AH11" s="32"/>
-      <c r="AI11" s="32"/>
-      <c r="AJ11" s="47"/>
-      <c r="AK11" s="32"/>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A12" s="57"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="49"/>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J12" s="7">
+      <c r="K73" s="43"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="20"/>
+      <c r="O73" s="20"/>
+      <c r="P73" s="20"/>
+      <c r="Q73" s="20"/>
+      <c r="R73" s="20"/>
+      <c r="S73" s="20"/>
+      <c r="T73" s="20"/>
+      <c r="U73" s="20"/>
+      <c r="V73" s="34"/>
+      <c r="W73" s="20"/>
+      <c r="X73" s="20"/>
+      <c r="Y73" s="20"/>
+      <c r="Z73" s="20"/>
+      <c r="AA73" s="20"/>
+      <c r="AB73" s="20"/>
+      <c r="AC73" s="37"/>
+      <c r="AD73" s="19"/>
+      <c r="AE73" s="19"/>
+      <c r="AF73" s="19"/>
+      <c r="AG73" s="19"/>
+      <c r="AH73" s="19"/>
+      <c r="AI73" s="19"/>
+      <c r="AJ73" s="31"/>
+      <c r="AK73" s="19"/>
+    </row>
+    <row r="74" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A74" s="48"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="20"/>
+      <c r="H74" s="50"/>
+      <c r="I74" s="50"/>
+      <c r="J74" s="51">
         <v>0</v>
       </c>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="33"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="33"/>
-      <c r="U12" s="33"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="33"/>
-      <c r="Y12" s="33"/>
-      <c r="Z12" s="33"/>
-      <c r="AA12" s="33"/>
-      <c r="AB12" s="33"/>
-      <c r="AC12" s="55"/>
-      <c r="AD12" s="32"/>
-      <c r="AE12" s="32"/>
-      <c r="AF12" s="32"/>
-      <c r="AG12" s="32"/>
-      <c r="AH12" s="32"/>
-      <c r="AI12" s="32"/>
-      <c r="AJ12" s="47"/>
-      <c r="AK12" s="32"/>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A13" s="57"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="14"/>
-      <c r="J13" s="7">
+      <c r="K74" s="43"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="20"/>
+      <c r="O74" s="20"/>
+      <c r="P74" s="20"/>
+      <c r="Q74" s="20"/>
+      <c r="R74" s="20"/>
+      <c r="S74" s="20"/>
+      <c r="T74" s="20"/>
+      <c r="U74" s="20"/>
+      <c r="V74" s="34"/>
+      <c r="W74" s="20"/>
+      <c r="X74" s="20"/>
+      <c r="Y74" s="20"/>
+      <c r="Z74" s="20"/>
+      <c r="AA74" s="20"/>
+      <c r="AB74" s="20"/>
+      <c r="AC74" s="37"/>
+      <c r="AD74" s="19"/>
+      <c r="AE74" s="19"/>
+      <c r="AF74" s="19"/>
+      <c r="AG74" s="19"/>
+      <c r="AH74" s="19"/>
+      <c r="AI74" s="19"/>
+      <c r="AJ74" s="31"/>
+      <c r="AK74" s="19"/>
+    </row>
+    <row r="75" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A75" s="48"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="53"/>
+      <c r="D75" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="51">
         <v>0</v>
       </c>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="52"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="33"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="33"/>
-      <c r="AB13" s="33"/>
-      <c r="AC13" s="55"/>
-      <c r="AD13" s="32"/>
-      <c r="AE13" s="32"/>
-      <c r="AF13" s="32"/>
-      <c r="AG13" s="32"/>
-      <c r="AH13" s="32"/>
-      <c r="AI13" s="32"/>
-      <c r="AJ13" s="47"/>
-      <c r="AK13" s="32"/>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A14" s="57"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="J14" s="7">
+      <c r="K75" s="43"/>
+      <c r="L75" s="20"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="20"/>
+      <c r="O75" s="20"/>
+      <c r="P75" s="20"/>
+      <c r="Q75" s="20"/>
+      <c r="R75" s="20"/>
+      <c r="S75" s="20"/>
+      <c r="T75" s="20"/>
+      <c r="U75" s="20"/>
+      <c r="V75" s="35"/>
+      <c r="W75" s="20"/>
+      <c r="X75" s="20"/>
+      <c r="Y75" s="20"/>
+      <c r="Z75" s="20"/>
+      <c r="AA75" s="20"/>
+      <c r="AB75" s="20"/>
+      <c r="AC75" s="38"/>
+      <c r="AD75" s="19"/>
+      <c r="AE75" s="19"/>
+      <c r="AF75" s="19"/>
+      <c r="AG75" s="19"/>
+      <c r="AH75" s="19"/>
+      <c r="AI75" s="19"/>
+      <c r="AJ75" s="32"/>
+      <c r="AK75" s="19"/>
+    </row>
+    <row r="76" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A76" s="48"/>
+      <c r="B76" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G76" s="20"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="50"/>
+      <c r="J76" s="62">
         <v>0</v>
       </c>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="33"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="33"/>
-      <c r="AB14" s="33"/>
-      <c r="AC14" s="55"/>
-      <c r="AD14" s="32"/>
-      <c r="AE14" s="32"/>
-      <c r="AF14" s="32"/>
-      <c r="AG14" s="32"/>
-      <c r="AH14" s="32"/>
-      <c r="AI14" s="32"/>
-      <c r="AJ14" s="47"/>
-      <c r="AK14" s="32"/>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A15" s="57"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="49" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="7">
-        <v>0</v>
-      </c>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="52"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="33"/>
-      <c r="Z15" s="33"/>
-      <c r="AA15" s="33"/>
-      <c r="AB15" s="33"/>
-      <c r="AC15" s="55"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="47"/>
-      <c r="AK15" s="32"/>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A16" s="57"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="14"/>
-      <c r="J16" s="7">
-        <v>0</v>
-      </c>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="33"/>
-      <c r="AA16" s="33"/>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="55"/>
-      <c r="AD16" s="32"/>
-      <c r="AE16" s="32"/>
-      <c r="AF16" s="32"/>
-      <c r="AG16" s="32"/>
-      <c r="AH16" s="32"/>
-      <c r="AI16" s="32"/>
-      <c r="AJ16" s="47"/>
-      <c r="AK16" s="32"/>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A17" s="57"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="49"/>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" s="7">
-        <v>0</v>
-      </c>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="52"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="55"/>
-      <c r="AD17" s="32"/>
-      <c r="AE17" s="32"/>
-      <c r="AF17" s="32"/>
-      <c r="AG17" s="32"/>
-      <c r="AH17" s="32"/>
-      <c r="AI17" s="32"/>
-      <c r="AJ17" s="47"/>
-      <c r="AK17" s="32"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A18" s="57"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" t="s">
-        <v>115</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="H18" s="19">
-        <v>44124</v>
-      </c>
-      <c r="J18" s="7">
-        <v>0</v>
-      </c>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
-      <c r="Z18" s="33"/>
-      <c r="AA18" s="33"/>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="55"/>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="32"/>
-      <c r="AF18" s="32"/>
-      <c r="AG18" s="32"/>
-      <c r="AH18" s="32"/>
-      <c r="AI18" s="32"/>
-      <c r="AJ18" s="47"/>
-      <c r="AK18" s="32"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A19" s="57"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" t="s">
-        <v>122</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="H19" s="19">
-        <v>44124</v>
-      </c>
-      <c r="I19" s="19">
-        <v>44124</v>
-      </c>
-      <c r="J19" s="7">
-        <v>1</v>
-      </c>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="Q19" s="33"/>
-      <c r="R19" s="33"/>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="52"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="33"/>
-      <c r="Z19" s="33"/>
-      <c r="AA19" s="33"/>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="55"/>
-      <c r="AD19" s="32"/>
-      <c r="AE19" s="32"/>
-      <c r="AF19" s="32"/>
-      <c r="AG19" s="32"/>
-      <c r="AH19" s="32"/>
-      <c r="AI19" s="32"/>
-      <c r="AJ19" s="47"/>
-      <c r="AK19" s="32"/>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A20" s="57"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="J20" s="7">
-        <v>0</v>
-      </c>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="52"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="33"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="33"/>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="55"/>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="32"/>
-      <c r="AF20" s="32"/>
-      <c r="AG20" s="32"/>
-      <c r="AH20" s="32"/>
-      <c r="AI20" s="32"/>
-      <c r="AJ20" s="47"/>
-      <c r="AK20" s="32"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A21" s="57"/>
-      <c r="B21" s="50"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" t="s">
-        <v>146</v>
-      </c>
-      <c r="F21" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="H21" s="19">
-        <v>44125</v>
-      </c>
-      <c r="I21" s="19">
-        <v>44125</v>
-      </c>
-      <c r="J21" s="7">
-        <v>0</v>
-      </c>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="33"/>
-      <c r="Z21" s="33"/>
-      <c r="AA21" s="33"/>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="55"/>
-      <c r="AD21" s="32"/>
-      <c r="AE21" s="32"/>
-      <c r="AF21" s="32"/>
-      <c r="AG21" s="32"/>
-      <c r="AH21" s="32"/>
-      <c r="AI21" s="32"/>
-      <c r="AJ21" s="47"/>
-      <c r="AK21" s="32"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A22" s="57"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="J22" s="7">
-        <v>0</v>
-      </c>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="Q22" s="33"/>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="52"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="33"/>
-      <c r="Y22" s="33"/>
-      <c r="Z22" s="33"/>
-      <c r="AA22" s="33"/>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="55"/>
-      <c r="AD22" s="32"/>
-      <c r="AE22" s="32"/>
-      <c r="AF22" s="32"/>
-      <c r="AG22" s="32"/>
-      <c r="AH22" s="32"/>
-      <c r="AI22" s="32"/>
-      <c r="AJ22" s="47"/>
-      <c r="AK22" s="32"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A23" s="57"/>
-      <c r="B23" s="50"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" t="s">
-        <v>128</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="G23" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="H23" s="19">
-        <v>44124</v>
-      </c>
-      <c r="I23" s="19">
-        <v>44124</v>
-      </c>
-      <c r="J23" s="7">
-        <v>1</v>
-      </c>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
-      <c r="O23" s="33"/>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="52"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="33"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="33"/>
-      <c r="AB23" s="33"/>
-      <c r="AC23" s="55"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="32"/>
-      <c r="AH23" s="32"/>
-      <c r="AI23" s="32"/>
-      <c r="AJ23" s="47"/>
-      <c r="AK23" s="32"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A24" s="57"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="J24" s="7">
-        <v>0</v>
-      </c>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="52"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="55"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="32"/>
-      <c r="AF24" s="32"/>
-      <c r="AG24" s="32"/>
-      <c r="AH24" s="32"/>
-      <c r="AI24" s="32"/>
-      <c r="AJ24" s="47"/>
-      <c r="AK24" s="32"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A25" s="57"/>
-      <c r="B25" s="50"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="G25" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="H25" s="19">
-        <v>44124</v>
-      </c>
-      <c r="I25" s="19">
-        <v>44125</v>
-      </c>
-      <c r="J25" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33"/>
-      <c r="M25" s="33"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="33"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="52"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="55"/>
-      <c r="AD25" s="32"/>
-      <c r="AE25" s="32"/>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="32"/>
-      <c r="AH25" s="32"/>
-      <c r="AI25" s="32"/>
-      <c r="AJ25" s="47"/>
-      <c r="AK25" s="32"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A26" s="57"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="J26" s="7">
-        <v>0</v>
-      </c>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="52"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="55"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="32"/>
-      <c r="AJ26" s="47"/>
-      <c r="AK26" s="32"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A27" s="57"/>
-      <c r="B27" s="50"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" t="s">
-        <v>113</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="H27" s="19">
-        <v>44124</v>
-      </c>
-      <c r="I27" s="19">
-        <v>44124</v>
-      </c>
-      <c r="J27" s="7">
-        <v>1</v>
-      </c>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="Q27" s="33"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="52"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="33"/>
-      <c r="Z27" s="33"/>
-      <c r="AA27" s="33"/>
-      <c r="AB27" s="33"/>
-      <c r="AC27" s="55"/>
-      <c r="AD27" s="32"/>
-      <c r="AE27" s="32"/>
-      <c r="AF27" s="32"/>
-      <c r="AG27" s="32"/>
-      <c r="AH27" s="32"/>
-      <c r="AI27" s="32"/>
-      <c r="AJ27" s="47"/>
-      <c r="AK27" s="32"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A28" s="57"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" t="s">
-        <v>129</v>
-      </c>
-      <c r="F28" s="36"/>
-      <c r="G28" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="H28" s="19">
-        <v>44124</v>
-      </c>
-      <c r="I28" s="19">
-        <v>44124</v>
-      </c>
-      <c r="J28" s="7">
-        <v>1</v>
-      </c>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="52"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="33"/>
-      <c r="Y28" s="33"/>
-      <c r="Z28" s="33"/>
-      <c r="AA28" s="33"/>
-      <c r="AB28" s="33"/>
-      <c r="AC28" s="55"/>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="32"/>
-      <c r="AF28" s="32"/>
-      <c r="AG28" s="32"/>
-      <c r="AH28" s="32"/>
-      <c r="AI28" s="32"/>
-      <c r="AJ28" s="47"/>
-      <c r="AK28" s="32"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A29" s="57"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" t="s">
-        <v>112</v>
-      </c>
-      <c r="J29" s="7">
-        <v>0</v>
-      </c>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="52"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="33"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="33"/>
-      <c r="AB29" s="33"/>
-      <c r="AC29" s="55"/>
-      <c r="AD29" s="32"/>
-      <c r="AE29" s="32"/>
-      <c r="AF29" s="32"/>
-      <c r="AG29" s="32"/>
-      <c r="AH29" s="32"/>
-      <c r="AI29" s="32"/>
-      <c r="AJ29" s="47"/>
-      <c r="AK29" s="32"/>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A30" s="57"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" t="s">
-        <v>106</v>
-      </c>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36"/>
-      <c r="J30" s="7">
-        <v>0</v>
-      </c>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="52"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="33"/>
-      <c r="Y30" s="33"/>
-      <c r="Z30" s="33"/>
-      <c r="AA30" s="33"/>
-      <c r="AB30" s="33"/>
-      <c r="AC30" s="55"/>
-      <c r="AD30" s="32"/>
-      <c r="AE30" s="32"/>
-      <c r="AF30" s="32"/>
-      <c r="AG30" s="32"/>
-      <c r="AH30" s="32"/>
-      <c r="AI30" s="32"/>
-      <c r="AJ30" s="47"/>
-      <c r="AK30" s="32"/>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A31" s="57"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" t="s">
-        <v>123</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="H31" s="19">
-        <v>44124</v>
-      </c>
-      <c r="I31" s="19">
-        <v>44124</v>
-      </c>
-      <c r="J31" s="7">
-        <v>1</v>
-      </c>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="52"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="33"/>
-      <c r="Z31" s="33"/>
-      <c r="AA31" s="33"/>
-      <c r="AB31" s="33"/>
-      <c r="AC31" s="55"/>
-      <c r="AD31" s="32"/>
-      <c r="AE31" s="32"/>
-      <c r="AF31" s="32"/>
-      <c r="AG31" s="32"/>
-      <c r="AH31" s="32"/>
-      <c r="AI31" s="32"/>
-      <c r="AJ31" s="47"/>
-      <c r="AK31" s="32"/>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A32" s="57"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49" t="s">
-        <v>97</v>
-      </c>
-      <c r="E32" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="J32" s="7">
-        <v>0</v>
-      </c>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="33"/>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="52"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="33"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="33"/>
-      <c r="AB32" s="33"/>
-      <c r="AC32" s="55"/>
-      <c r="AD32" s="32"/>
-      <c r="AE32" s="32"/>
-      <c r="AF32" s="32"/>
-      <c r="AG32" s="32"/>
-      <c r="AH32" s="32"/>
-      <c r="AI32" s="32"/>
-      <c r="AJ32" s="47"/>
-      <c r="AK32" s="32"/>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A33" s="57"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" t="s">
-        <v>121</v>
-      </c>
-      <c r="F33" s="36"/>
-      <c r="G33" s="36"/>
-      <c r="J33" s="7">
-        <v>0</v>
-      </c>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="Q33" s="33"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="52"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="33"/>
-      <c r="Z33" s="33"/>
-      <c r="AA33" s="33"/>
-      <c r="AB33" s="33"/>
-      <c r="AC33" s="55"/>
-      <c r="AD33" s="32"/>
-      <c r="AE33" s="32"/>
-      <c r="AF33" s="32"/>
-      <c r="AG33" s="32"/>
-      <c r="AH33" s="32"/>
-      <c r="AI33" s="32"/>
-      <c r="AJ33" s="47"/>
-      <c r="AK33" s="32"/>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A34" s="57"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" t="s">
-        <v>111</v>
-      </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="J34" s="7">
-        <v>0</v>
-      </c>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="33"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="U34" s="33"/>
-      <c r="V34" s="52"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="33"/>
-      <c r="Y34" s="33"/>
-      <c r="Z34" s="33"/>
-      <c r="AA34" s="33"/>
-      <c r="AB34" s="33"/>
-      <c r="AC34" s="55"/>
-      <c r="AD34" s="32"/>
-      <c r="AE34" s="32"/>
-      <c r="AF34" s="32"/>
-      <c r="AG34" s="32"/>
-      <c r="AH34" s="32"/>
-      <c r="AI34" s="32"/>
-      <c r="AJ34" s="47"/>
-      <c r="AK34" s="32"/>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A35" s="57"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="49"/>
-      <c r="D35" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="7">
-        <v>0</v>
-      </c>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="Q35" s="33"/>
-      <c r="R35" s="33"/>
-      <c r="S35" s="33"/>
-      <c r="T35" s="33"/>
-      <c r="U35" s="33"/>
-      <c r="V35" s="52"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="33"/>
-      <c r="Z35" s="33"/>
-      <c r="AA35" s="33"/>
-      <c r="AB35" s="33"/>
-      <c r="AC35" s="55"/>
-      <c r="AD35" s="32"/>
-      <c r="AE35" s="32"/>
-      <c r="AF35" s="32"/>
-      <c r="AG35" s="32"/>
-      <c r="AH35" s="32"/>
-      <c r="AI35" s="32"/>
-      <c r="AJ35" s="47"/>
-      <c r="AK35" s="32"/>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A36" s="57"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="49"/>
-      <c r="D36" t="s">
-        <v>101</v>
-      </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="J36" s="7">
-        <v>0</v>
-      </c>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="Q36" s="33"/>
-      <c r="R36" s="33"/>
-      <c r="S36" s="33"/>
-      <c r="T36" s="33"/>
-      <c r="U36" s="33"/>
-      <c r="V36" s="52"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="33"/>
-      <c r="Y36" s="33"/>
-      <c r="Z36" s="33"/>
-      <c r="AA36" s="33"/>
-      <c r="AB36" s="33"/>
-      <c r="AC36" s="55"/>
-      <c r="AD36" s="32"/>
-      <c r="AE36" s="32"/>
-      <c r="AF36" s="32"/>
-      <c r="AG36" s="32"/>
-      <c r="AH36" s="32"/>
-      <c r="AI36" s="32"/>
-      <c r="AJ36" s="47"/>
-      <c r="AK36" s="32"/>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A37" s="57"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="49"/>
-      <c r="D37" t="s">
-        <v>23</v>
-      </c>
-      <c r="J37" s="7">
-        <v>0</v>
-      </c>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="33"/>
-      <c r="U37" s="33"/>
-      <c r="V37" s="52"/>
-      <c r="W37" s="33"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="33"/>
-      <c r="Z37" s="33"/>
-      <c r="AA37" s="33"/>
-      <c r="AB37" s="33"/>
-      <c r="AC37" s="55"/>
-      <c r="AD37" s="32"/>
-      <c r="AE37" s="32"/>
-      <c r="AF37" s="32"/>
-      <c r="AG37" s="32"/>
-      <c r="AH37" s="32"/>
-      <c r="AI37" s="32"/>
-      <c r="AJ37" s="47"/>
-      <c r="AK37" s="32"/>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A38" s="57"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="12"/>
-      <c r="J38" s="7">
-        <v>0</v>
-      </c>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="Q38" s="33"/>
-      <c r="R38" s="33"/>
-      <c r="S38" s="33"/>
-      <c r="T38" s="33"/>
-      <c r="U38" s="33"/>
-      <c r="V38" s="52"/>
-      <c r="W38" s="33"/>
-      <c r="X38" s="33"/>
-      <c r="Y38" s="33"/>
-      <c r="Z38" s="33"/>
-      <c r="AA38" s="33"/>
-      <c r="AB38" s="33"/>
-      <c r="AC38" s="55"/>
-      <c r="AD38" s="32"/>
-      <c r="AE38" s="32"/>
-      <c r="AF38" s="32"/>
-      <c r="AG38" s="32"/>
-      <c r="AH38" s="32"/>
-      <c r="AI38" s="32"/>
-      <c r="AJ38" s="47"/>
-      <c r="AK38" s="32"/>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A39" s="57"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="14"/>
-      <c r="J39" s="7">
-        <v>0</v>
-      </c>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="33"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="33"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="33"/>
-      <c r="Z39" s="33"/>
-      <c r="AA39" s="33"/>
-      <c r="AB39" s="33"/>
-      <c r="AC39" s="55"/>
-      <c r="AD39" s="32"/>
-      <c r="AE39" s="32"/>
-      <c r="AF39" s="32"/>
-      <c r="AG39" s="32"/>
-      <c r="AH39" s="32"/>
-      <c r="AI39" s="32"/>
-      <c r="AJ39" s="47"/>
-      <c r="AK39" s="32"/>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A40" s="57"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="49"/>
-      <c r="D40" t="s">
-        <v>26</v>
-      </c>
-      <c r="J40" s="7">
-        <v>0</v>
-      </c>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="33"/>
-      <c r="R40" s="33"/>
-      <c r="S40" s="33"/>
-      <c r="T40" s="33"/>
-      <c r="U40" s="33"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="33"/>
-      <c r="X40" s="33"/>
-      <c r="Y40" s="33"/>
-      <c r="Z40" s="33"/>
-      <c r="AA40" s="33"/>
-      <c r="AB40" s="33"/>
-      <c r="AC40" s="55"/>
-      <c r="AD40" s="32"/>
-      <c r="AE40" s="32"/>
-      <c r="AF40" s="32"/>
-      <c r="AG40" s="32"/>
-      <c r="AH40" s="32"/>
-      <c r="AI40" s="32"/>
-      <c r="AJ40" s="47"/>
-      <c r="AK40" s="32"/>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A41" s="57"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F41" s="12"/>
-      <c r="J41" s="7">
-        <v>0</v>
-      </c>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="33"/>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="33"/>
-      <c r="U41" s="33"/>
-      <c r="V41" s="52"/>
-      <c r="W41" s="33"/>
-      <c r="X41" s="33"/>
-      <c r="Y41" s="33"/>
-      <c r="Z41" s="33"/>
-      <c r="AA41" s="33"/>
-      <c r="AB41" s="33"/>
-      <c r="AC41" s="55"/>
-      <c r="AD41" s="32"/>
-      <c r="AE41" s="32"/>
-      <c r="AF41" s="32"/>
-      <c r="AG41" s="32"/>
-      <c r="AH41" s="32"/>
-      <c r="AI41" s="32"/>
-      <c r="AJ41" s="47"/>
-      <c r="AK41" s="32"/>
-    </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A42" s="57"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="49"/>
-      <c r="D42" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="J42" s="7">
-        <v>0</v>
-      </c>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
-      <c r="Q42" s="33"/>
-      <c r="R42" s="33"/>
-      <c r="S42" s="33"/>
-      <c r="T42" s="33"/>
-      <c r="U42" s="33"/>
-      <c r="V42" s="52"/>
-      <c r="W42" s="33"/>
-      <c r="X42" s="33"/>
-      <c r="Y42" s="33"/>
-      <c r="Z42" s="33"/>
-      <c r="AA42" s="33"/>
-      <c r="AB42" s="33"/>
-      <c r="AC42" s="55"/>
-      <c r="AD42" s="32"/>
-      <c r="AE42" s="32"/>
-      <c r="AF42" s="32"/>
-      <c r="AG42" s="32"/>
-      <c r="AH42" s="32"/>
-      <c r="AI42" s="32"/>
-      <c r="AJ42" s="47"/>
-      <c r="AK42" s="32"/>
-    </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A43" s="57"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" s="12"/>
-      <c r="J43" s="7">
-        <v>0</v>
-      </c>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="33"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="33"/>
-      <c r="S43" s="33"/>
-      <c r="T43" s="33"/>
-      <c r="U43" s="33"/>
-      <c r="V43" s="52"/>
-      <c r="W43" s="33"/>
-      <c r="X43" s="33"/>
-      <c r="Y43" s="33"/>
-      <c r="Z43" s="33"/>
-      <c r="AA43" s="33"/>
-      <c r="AB43" s="33"/>
-      <c r="AC43" s="55"/>
-      <c r="AD43" s="32"/>
-      <c r="AE43" s="32"/>
-      <c r="AF43" s="32"/>
-      <c r="AG43" s="32"/>
-      <c r="AH43" s="32"/>
-      <c r="AI43" s="32"/>
-      <c r="AJ43" s="47"/>
-      <c r="AK43" s="32"/>
-    </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A44" s="57"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="49"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="J44" s="7">
-        <v>0</v>
-      </c>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="33"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="33"/>
-      <c r="R44" s="33"/>
-      <c r="S44" s="33"/>
-      <c r="T44" s="33"/>
-      <c r="U44" s="33"/>
-      <c r="V44" s="52"/>
-      <c r="W44" s="33"/>
-      <c r="X44" s="33"/>
-      <c r="Y44" s="33"/>
-      <c r="Z44" s="33"/>
-      <c r="AA44" s="33"/>
-      <c r="AB44" s="33"/>
-      <c r="AC44" s="55"/>
-      <c r="AD44" s="32"/>
-      <c r="AE44" s="32"/>
-      <c r="AF44" s="32"/>
-      <c r="AG44" s="32"/>
-      <c r="AH44" s="32"/>
-      <c r="AI44" s="32"/>
-      <c r="AJ44" s="47"/>
-      <c r="AK44" s="32"/>
-    </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A45" s="57"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="49"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="J45" s="7">
-        <v>0</v>
-      </c>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="33"/>
-      <c r="S45" s="33"/>
-      <c r="T45" s="33"/>
-      <c r="U45" s="33"/>
-      <c r="V45" s="52"/>
-      <c r="W45" s="33"/>
-      <c r="X45" s="33"/>
-      <c r="Y45" s="33"/>
-      <c r="Z45" s="33"/>
-      <c r="AA45" s="33"/>
-      <c r="AB45" s="33"/>
-      <c r="AC45" s="55"/>
-      <c r="AD45" s="32"/>
-      <c r="AE45" s="32"/>
-      <c r="AF45" s="32"/>
-      <c r="AG45" s="32"/>
-      <c r="AH45" s="32"/>
-      <c r="AI45" s="32"/>
-      <c r="AJ45" s="47"/>
-      <c r="AK45" s="32"/>
-    </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A46" s="57"/>
-      <c r="B46" s="50"/>
-      <c r="C46" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" t="s">
-        <v>46</v>
-      </c>
-      <c r="J46" s="7">
-        <v>0</v>
-      </c>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="33"/>
-      <c r="S46" s="33"/>
-      <c r="T46" s="33"/>
-      <c r="U46" s="33"/>
-      <c r="V46" s="52"/>
-      <c r="W46" s="33"/>
-      <c r="X46" s="33"/>
-      <c r="Y46" s="33"/>
-      <c r="Z46" s="33"/>
-      <c r="AA46" s="33"/>
-      <c r="AB46" s="33"/>
-      <c r="AC46" s="55"/>
-      <c r="AD46" s="32"/>
-      <c r="AE46" s="32"/>
-      <c r="AF46" s="32"/>
-      <c r="AG46" s="32"/>
-      <c r="AH46" s="32"/>
-      <c r="AI46" s="32"/>
-      <c r="AJ46" s="47"/>
-      <c r="AK46" s="32"/>
-    </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A47" s="57"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="49"/>
-      <c r="D47" t="s">
-        <v>36</v>
-      </c>
-      <c r="J47" s="7">
-        <v>0</v>
-      </c>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="33"/>
-      <c r="O47" s="33"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="33"/>
-      <c r="R47" s="33"/>
-      <c r="S47" s="33"/>
-      <c r="T47" s="33"/>
-      <c r="U47" s="33"/>
-      <c r="V47" s="52"/>
-      <c r="W47" s="33"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="33"/>
-      <c r="Z47" s="33"/>
-      <c r="AA47" s="33"/>
-      <c r="AB47" s="33"/>
-      <c r="AC47" s="55"/>
-      <c r="AD47" s="32"/>
-      <c r="AE47" s="32"/>
-      <c r="AF47" s="32"/>
-      <c r="AG47" s="32"/>
-      <c r="AH47" s="32"/>
-      <c r="AI47" s="32"/>
-      <c r="AJ47" s="47"/>
-      <c r="AK47" s="32"/>
-    </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A48" s="57"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="49"/>
-      <c r="D48" t="s">
-        <v>37</v>
-      </c>
-      <c r="J48" s="7">
-        <v>0</v>
-      </c>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="33"/>
-      <c r="S48" s="33"/>
-      <c r="T48" s="33"/>
-      <c r="U48" s="33"/>
-      <c r="V48" s="52"/>
-      <c r="W48" s="33"/>
-      <c r="X48" s="33"/>
-      <c r="Y48" s="33"/>
-      <c r="Z48" s="33"/>
-      <c r="AA48" s="33"/>
-      <c r="AB48" s="33"/>
-      <c r="AC48" s="55"/>
-      <c r="AD48" s="32"/>
-      <c r="AE48" s="32"/>
-      <c r="AF48" s="32"/>
-      <c r="AG48" s="32"/>
-      <c r="AH48" s="32"/>
-      <c r="AI48" s="32"/>
-      <c r="AJ48" s="47"/>
-      <c r="AK48" s="32"/>
-    </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A49" s="57"/>
-      <c r="B49" s="50"/>
-      <c r="C49" s="49"/>
-      <c r="D49" t="s">
-        <v>38</v>
-      </c>
-      <c r="J49" s="7">
-        <v>0</v>
-      </c>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="33"/>
-      <c r="S49" s="33"/>
-      <c r="T49" s="33"/>
-      <c r="U49" s="33"/>
-      <c r="V49" s="52"/>
-      <c r="W49" s="33"/>
-      <c r="X49" s="33"/>
-      <c r="Y49" s="33"/>
-      <c r="Z49" s="33"/>
-      <c r="AA49" s="33"/>
-      <c r="AB49" s="33"/>
-      <c r="AC49" s="55"/>
-      <c r="AD49" s="32"/>
-      <c r="AE49" s="32"/>
-      <c r="AF49" s="32"/>
-      <c r="AG49" s="32"/>
-      <c r="AH49" s="32"/>
-      <c r="AI49" s="32"/>
-      <c r="AJ49" s="47"/>
-      <c r="AK49" s="32"/>
-    </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A50" s="57"/>
-      <c r="B50" s="50"/>
-      <c r="C50" s="49"/>
-      <c r="D50" t="s">
-        <v>33</v>
-      </c>
-      <c r="J50" s="7">
-        <v>0</v>
-      </c>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="33"/>
-      <c r="O50" s="33"/>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="33"/>
-      <c r="R50" s="33"/>
-      <c r="S50" s="33"/>
-      <c r="T50" s="33"/>
-      <c r="U50" s="33"/>
-      <c r="V50" s="52"/>
-      <c r="W50" s="33"/>
-      <c r="X50" s="33"/>
-      <c r="Y50" s="33"/>
-      <c r="Z50" s="33"/>
-      <c r="AA50" s="33"/>
-      <c r="AB50" s="33"/>
-      <c r="AC50" s="55"/>
-      <c r="AD50" s="32"/>
-      <c r="AE50" s="32"/>
-      <c r="AF50" s="32"/>
-      <c r="AG50" s="32"/>
-      <c r="AH50" s="32"/>
-      <c r="AI50" s="32"/>
-      <c r="AJ50" s="47"/>
-      <c r="AK50" s="32"/>
-    </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A51" s="57"/>
-      <c r="B51" s="50"/>
-      <c r="J51" s="7">
-        <v>0</v>
-      </c>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="33"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="33"/>
-      <c r="S51" s="33"/>
-      <c r="T51" s="33"/>
-      <c r="U51" s="33"/>
-      <c r="V51" s="52"/>
-      <c r="W51" s="33"/>
-      <c r="X51" s="33"/>
-      <c r="Y51" s="33"/>
-      <c r="Z51" s="33"/>
-      <c r="AA51" s="33"/>
-      <c r="AB51" s="33"/>
-      <c r="AC51" s="55"/>
-      <c r="AD51" s="32"/>
-      <c r="AE51" s="32"/>
-      <c r="AF51" s="32"/>
-      <c r="AG51" s="32"/>
-      <c r="AH51" s="32"/>
-      <c r="AI51" s="32"/>
-      <c r="AJ51" s="47"/>
-      <c r="AK51" s="32"/>
-    </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A52" s="57"/>
-      <c r="B52" s="50"/>
-      <c r="C52" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="J52" s="7">
-        <v>0</v>
-      </c>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="33"/>
-      <c r="U52" s="33"/>
-      <c r="V52" s="52"/>
-      <c r="W52" s="33"/>
-      <c r="X52" s="33"/>
-      <c r="Y52" s="33"/>
-      <c r="Z52" s="33"/>
-      <c r="AA52" s="33"/>
-      <c r="AB52" s="33"/>
-      <c r="AC52" s="55"/>
-      <c r="AD52" s="32"/>
-      <c r="AE52" s="32"/>
-      <c r="AF52" s="32"/>
-      <c r="AG52" s="32"/>
-      <c r="AH52" s="32"/>
-      <c r="AI52" s="32"/>
-      <c r="AJ52" s="47"/>
-      <c r="AK52" s="32"/>
-    </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A53" s="57"/>
-      <c r="B53" s="50"/>
-      <c r="J53" s="7">
-        <v>0</v>
-      </c>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="33"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="33"/>
-      <c r="Q53" s="33"/>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="33"/>
-      <c r="U53" s="33"/>
-      <c r="V53" s="52"/>
-      <c r="W53" s="33"/>
-      <c r="X53" s="33"/>
-      <c r="Y53" s="33"/>
-      <c r="Z53" s="33"/>
-      <c r="AA53" s="33"/>
-      <c r="AB53" s="33"/>
-      <c r="AC53" s="55"/>
-      <c r="AD53" s="32"/>
-      <c r="AE53" s="32"/>
-      <c r="AF53" s="32"/>
-      <c r="AG53" s="32"/>
-      <c r="AH53" s="32"/>
-      <c r="AI53" s="32"/>
-      <c r="AJ53" s="47"/>
-      <c r="AK53" s="32"/>
-    </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A54" s="57"/>
-      <c r="B54" s="50"/>
-      <c r="J54" s="7">
-        <v>0</v>
-      </c>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="33"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="33"/>
-      <c r="T54" s="33"/>
-      <c r="U54" s="33"/>
-      <c r="V54" s="52"/>
-      <c r="W54" s="33"/>
-      <c r="X54" s="33"/>
-      <c r="Y54" s="33"/>
-      <c r="Z54" s="33"/>
-      <c r="AA54" s="33"/>
-      <c r="AB54" s="33"/>
-      <c r="AC54" s="55"/>
-      <c r="AD54" s="32"/>
-      <c r="AE54" s="32"/>
-      <c r="AF54" s="32"/>
-      <c r="AG54" s="32"/>
-      <c r="AH54" s="32"/>
-      <c r="AI54" s="32"/>
-      <c r="AJ54" s="47"/>
-      <c r="AK54" s="32"/>
-    </row>
-    <row r="55" spans="1:37" s="8" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="57"/>
-      <c r="B55" s="50"/>
-      <c r="C55" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E55" s="22"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="21"/>
-      <c r="J55" s="9">
-        <v>0</v>
-      </c>
-      <c r="K55" s="34"/>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="34"/>
-      <c r="O55" s="34"/>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="34"/>
-      <c r="S55" s="34"/>
-      <c r="T55" s="34"/>
-      <c r="U55" s="34"/>
-      <c r="V55" s="52"/>
-      <c r="W55" s="34"/>
-      <c r="X55" s="34"/>
-      <c r="Y55" s="34"/>
-      <c r="Z55" s="34"/>
-      <c r="AA55" s="34"/>
-      <c r="AB55" s="34"/>
-      <c r="AC55" s="55"/>
-      <c r="AD55" s="32"/>
-      <c r="AE55" s="32"/>
-      <c r="AF55" s="32"/>
-      <c r="AG55" s="32"/>
-      <c r="AH55" s="32"/>
-      <c r="AI55" s="32"/>
-      <c r="AJ55" s="47"/>
-      <c r="AK55" s="32"/>
-    </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A56" s="57"/>
-      <c r="B56" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="C56" s="49" t="s">
-        <v>99</v>
-      </c>
-      <c r="D56" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="E56" t="s">
-        <v>139</v>
-      </c>
-      <c r="F56" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="H56" s="19">
-        <v>44124</v>
-      </c>
-      <c r="I56" s="19">
-        <v>44124</v>
-      </c>
-      <c r="J56" s="7">
-        <v>1</v>
-      </c>
-      <c r="K56" s="33"/>
-      <c r="L56" s="33"/>
-      <c r="M56" s="33"/>
-      <c r="N56" s="33"/>
-      <c r="O56" s="33"/>
-      <c r="P56" s="33"/>
-      <c r="Q56" s="33"/>
-      <c r="R56" s="33"/>
-      <c r="S56" s="33"/>
-      <c r="T56" s="33"/>
-      <c r="U56" s="33"/>
-      <c r="V56" s="52"/>
-      <c r="W56" s="33"/>
-      <c r="X56" s="33"/>
-      <c r="Y56" s="33"/>
-      <c r="Z56" s="33"/>
-      <c r="AA56" s="33"/>
-      <c r="AB56" s="33"/>
-      <c r="AC56" s="55"/>
-      <c r="AD56" s="32"/>
-      <c r="AE56" s="32"/>
-      <c r="AF56" s="32"/>
-      <c r="AG56" s="32"/>
-      <c r="AH56" s="32"/>
-      <c r="AI56" s="32"/>
-      <c r="AJ56" s="47"/>
-      <c r="AK56" s="32"/>
-    </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A57" s="57"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" t="s">
-        <v>140</v>
-      </c>
-      <c r="F57" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="G57" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="H57" s="19">
-        <v>44124</v>
-      </c>
-      <c r="I57" s="19">
-        <v>44125</v>
-      </c>
-      <c r="J57" s="7">
-        <v>0.25</v>
-      </c>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="33"/>
-      <c r="P57" s="33"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="33"/>
-      <c r="T57" s="33"/>
-      <c r="U57" s="33"/>
-      <c r="V57" s="52"/>
-      <c r="W57" s="33"/>
-      <c r="X57" s="33"/>
-      <c r="Y57" s="33"/>
-      <c r="Z57" s="33"/>
-      <c r="AA57" s="33"/>
-      <c r="AB57" s="33"/>
-      <c r="AC57" s="55"/>
-      <c r="AD57" s="32"/>
-      <c r="AE57" s="32"/>
-      <c r="AF57" s="32"/>
-      <c r="AG57" s="32"/>
-      <c r="AH57" s="32"/>
-      <c r="AI57" s="32"/>
-      <c r="AJ57" s="47"/>
-      <c r="AK57" s="32"/>
-    </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A58" s="57"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="D58" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="E58" t="s">
-        <v>110</v>
-      </c>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="J58" s="7">
-        <v>0</v>
-      </c>
-      <c r="K58" s="33"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="33"/>
-      <c r="P58" s="33"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="33"/>
-      <c r="S58" s="33"/>
-      <c r="T58" s="33"/>
-      <c r="U58" s="33"/>
-      <c r="V58" s="52"/>
-      <c r="W58" s="33"/>
-      <c r="X58" s="33"/>
-      <c r="Y58" s="33"/>
-      <c r="Z58" s="33"/>
-      <c r="AA58" s="33"/>
-      <c r="AB58" s="33"/>
-      <c r="AC58" s="55"/>
-      <c r="AD58" s="32"/>
-      <c r="AE58" s="32"/>
-      <c r="AF58" s="32"/>
-      <c r="AG58" s="32"/>
-      <c r="AH58" s="32"/>
-      <c r="AI58" s="32"/>
-      <c r="AJ58" s="47"/>
-      <c r="AK58" s="32"/>
-    </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A59" s="57"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" t="s">
-        <v>115</v>
-      </c>
-      <c r="F59" s="36"/>
-      <c r="G59" s="36"/>
-      <c r="J59" s="7">
-        <v>0</v>
-      </c>
-      <c r="K59" s="33"/>
-      <c r="L59" s="33"/>
-      <c r="M59" s="33"/>
-      <c r="N59" s="33"/>
-      <c r="O59" s="33"/>
-      <c r="P59" s="33"/>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33"/>
-      <c r="S59" s="33"/>
-      <c r="T59" s="33"/>
-      <c r="U59" s="33"/>
-      <c r="V59" s="52"/>
-      <c r="W59" s="33"/>
-      <c r="X59" s="33"/>
-      <c r="Y59" s="33"/>
-      <c r="Z59" s="33"/>
-      <c r="AA59" s="33"/>
-      <c r="AB59" s="33"/>
-      <c r="AC59" s="55"/>
-      <c r="AD59" s="32"/>
-      <c r="AE59" s="32"/>
-      <c r="AF59" s="32"/>
-      <c r="AG59" s="32"/>
-      <c r="AH59" s="32"/>
-      <c r="AI59" s="32"/>
-      <c r="AJ59" s="47"/>
-      <c r="AK59" s="32"/>
-    </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A60" s="57"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-      <c r="E60" t="s">
-        <v>116</v>
-      </c>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="J60" s="7">
-        <v>0</v>
-      </c>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="33"/>
-      <c r="O60" s="33"/>
-      <c r="P60" s="33"/>
-      <c r="Q60" s="33"/>
-      <c r="R60" s="33"/>
-      <c r="S60" s="33"/>
-      <c r="T60" s="33"/>
-      <c r="U60" s="33"/>
-      <c r="V60" s="52"/>
-      <c r="W60" s="33"/>
-      <c r="X60" s="33"/>
-      <c r="Y60" s="33"/>
-      <c r="Z60" s="33"/>
-      <c r="AA60" s="33"/>
-      <c r="AB60" s="33"/>
-      <c r="AC60" s="55"/>
-      <c r="AD60" s="32"/>
-      <c r="AE60" s="32"/>
-      <c r="AF60" s="32"/>
-      <c r="AG60" s="32"/>
-      <c r="AH60" s="32"/>
-      <c r="AI60" s="32"/>
-      <c r="AJ60" s="47"/>
-      <c r="AK60" s="32"/>
-    </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A61" s="57"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="49"/>
-      <c r="D61" t="s">
-        <v>104</v>
-      </c>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="J61" s="7">
-        <v>0</v>
-      </c>
-      <c r="K61" s="33"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="33"/>
-      <c r="O61" s="33"/>
-      <c r="P61" s="33"/>
-      <c r="Q61" s="33"/>
-      <c r="R61" s="33"/>
-      <c r="S61" s="33"/>
-      <c r="T61" s="33"/>
-      <c r="U61" s="33"/>
-      <c r="V61" s="52"/>
-      <c r="W61" s="33"/>
-      <c r="X61" s="33"/>
-      <c r="Y61" s="33"/>
-      <c r="Z61" s="33"/>
-      <c r="AA61" s="33"/>
-      <c r="AB61" s="33"/>
-      <c r="AC61" s="55"/>
-      <c r="AD61" s="32"/>
-      <c r="AE61" s="32"/>
-      <c r="AF61" s="32"/>
-      <c r="AG61" s="32"/>
-      <c r="AH61" s="32"/>
-      <c r="AI61" s="32"/>
-      <c r="AJ61" s="47"/>
-      <c r="AK61" s="32"/>
-    </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A62" s="57"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="49"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="J62" s="7">
-        <v>0</v>
-      </c>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="33"/>
-      <c r="O62" s="33"/>
-      <c r="P62" s="33"/>
-      <c r="Q62" s="33"/>
-      <c r="R62" s="33"/>
-      <c r="S62" s="33"/>
-      <c r="T62" s="33"/>
-      <c r="U62" s="33"/>
-      <c r="V62" s="52"/>
-      <c r="W62" s="33"/>
-      <c r="X62" s="33"/>
-      <c r="Y62" s="33"/>
-      <c r="Z62" s="33"/>
-      <c r="AA62" s="33"/>
-      <c r="AB62" s="33"/>
-      <c r="AC62" s="55"/>
-      <c r="AD62" s="32"/>
-      <c r="AE62" s="32"/>
-      <c r="AF62" s="32"/>
-      <c r="AG62" s="32"/>
-      <c r="AH62" s="32"/>
-      <c r="AI62" s="32"/>
-      <c r="AJ62" s="47"/>
-      <c r="AK62" s="32"/>
-    </row>
-    <row r="63" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="57"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="D63" t="s">
-        <v>100</v>
-      </c>
-      <c r="F63" s="14"/>
-      <c r="J63" s="7">
-        <v>0</v>
-      </c>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="33"/>
-      <c r="O63" s="33"/>
-      <c r="P63" s="33"/>
-      <c r="Q63" s="33"/>
-      <c r="R63" s="33"/>
-      <c r="S63" s="33"/>
-      <c r="T63" s="33"/>
-      <c r="U63" s="33"/>
-      <c r="V63" s="52"/>
-      <c r="W63" s="33"/>
-      <c r="X63" s="33"/>
-      <c r="Y63" s="33"/>
-      <c r="Z63" s="33"/>
-      <c r="AA63" s="33"/>
-      <c r="AB63" s="33"/>
-      <c r="AC63" s="55"/>
-      <c r="AD63" s="32"/>
-      <c r="AE63" s="32"/>
-      <c r="AF63" s="32"/>
-      <c r="AG63" s="32"/>
-      <c r="AH63" s="32"/>
-      <c r="AI63" s="32"/>
-      <c r="AJ63" s="47"/>
-      <c r="AK63" s="32"/>
-    </row>
-    <row r="64" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="57"/>
-      <c r="B64" s="60"/>
-      <c r="C64" s="49"/>
-      <c r="D64" t="s">
-        <v>105</v>
-      </c>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="J64" s="7">
-        <v>0</v>
-      </c>
-      <c r="K64" s="33"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="33"/>
-      <c r="O64" s="33"/>
-      <c r="P64" s="33"/>
-      <c r="Q64" s="33"/>
-      <c r="R64" s="33"/>
-      <c r="S64" s="33"/>
-      <c r="T64" s="33"/>
-      <c r="U64" s="33"/>
-      <c r="V64" s="52"/>
-      <c r="W64" s="33"/>
-      <c r="X64" s="33"/>
-      <c r="Y64" s="33"/>
-      <c r="Z64" s="33"/>
-      <c r="AA64" s="33"/>
-      <c r="AB64" s="33"/>
-      <c r="AC64" s="55"/>
-      <c r="AD64" s="32"/>
-      <c r="AE64" s="32"/>
-      <c r="AF64" s="32"/>
-      <c r="AG64" s="32"/>
-      <c r="AH64" s="32"/>
-      <c r="AI64" s="32"/>
-      <c r="AJ64" s="47"/>
-      <c r="AK64" s="32"/>
-    </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A65" s="57"/>
-      <c r="B65" s="60"/>
-      <c r="C65" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F65" s="14"/>
-      <c r="J65" s="7">
-        <v>0</v>
-      </c>
-      <c r="K65" s="33"/>
-      <c r="L65" s="33"/>
-      <c r="M65" s="33"/>
-      <c r="N65" s="33"/>
-      <c r="O65" s="33"/>
-      <c r="P65" s="33"/>
-      <c r="Q65" s="33"/>
-      <c r="R65" s="33"/>
-      <c r="S65" s="33"/>
-      <c r="T65" s="33"/>
-      <c r="U65" s="33"/>
-      <c r="V65" s="52"/>
-      <c r="W65" s="33"/>
-      <c r="X65" s="33"/>
-      <c r="Y65" s="33"/>
-      <c r="Z65" s="33"/>
-      <c r="AA65" s="33"/>
-      <c r="AB65" s="33"/>
-      <c r="AC65" s="55"/>
-      <c r="AD65" s="32"/>
-      <c r="AE65" s="32"/>
-      <c r="AF65" s="32"/>
-      <c r="AG65" s="32"/>
-      <c r="AH65" s="32"/>
-      <c r="AI65" s="32"/>
-      <c r="AJ65" s="47"/>
-      <c r="AK65" s="32"/>
-    </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A66" s="57"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="J66" s="7">
-        <v>0</v>
-      </c>
-      <c r="K66" s="33"/>
-      <c r="L66" s="33"/>
-      <c r="M66" s="33"/>
-      <c r="N66" s="33"/>
-      <c r="O66" s="33"/>
-      <c r="P66" s="33"/>
-      <c r="Q66" s="33"/>
-      <c r="R66" s="33"/>
-      <c r="S66" s="33"/>
-      <c r="T66" s="33"/>
-      <c r="U66" s="33"/>
-      <c r="V66" s="52"/>
-      <c r="W66" s="33"/>
-      <c r="X66" s="33"/>
-      <c r="Y66" s="33"/>
-      <c r="Z66" s="33"/>
-      <c r="AA66" s="33"/>
-      <c r="AB66" s="33"/>
-      <c r="AC66" s="55"/>
-      <c r="AD66" s="32"/>
-      <c r="AE66" s="32"/>
-      <c r="AF66" s="32"/>
-      <c r="AG66" s="32"/>
-      <c r="AH66" s="32"/>
-      <c r="AI66" s="32"/>
-      <c r="AJ66" s="47"/>
-      <c r="AK66" s="32"/>
-    </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A67" s="57"/>
-      <c r="B67" s="60"/>
-      <c r="C67" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" t="s">
-        <v>135</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G67" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="H67" s="19">
-        <v>44124</v>
-      </c>
-      <c r="I67" s="19">
-        <v>44124</v>
-      </c>
-      <c r="J67" s="7">
-        <v>1</v>
-      </c>
-      <c r="K67" s="33"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="33"/>
-      <c r="N67" s="33"/>
-      <c r="O67" s="33"/>
-      <c r="P67" s="33"/>
-      <c r="Q67" s="33"/>
-      <c r="R67" s="33"/>
-      <c r="S67" s="33"/>
-      <c r="T67" s="33"/>
-      <c r="U67" s="33"/>
-      <c r="V67" s="52"/>
-      <c r="W67" s="33"/>
-      <c r="X67" s="33"/>
-      <c r="Y67" s="33"/>
-      <c r="Z67" s="33"/>
-      <c r="AA67" s="33"/>
-      <c r="AB67" s="33"/>
-      <c r="AC67" s="55"/>
-      <c r="AD67" s="32"/>
-      <c r="AE67" s="32"/>
-      <c r="AF67" s="32"/>
-      <c r="AG67" s="32"/>
-      <c r="AH67" s="32"/>
-      <c r="AI67" s="32"/>
-      <c r="AJ67" s="47"/>
-      <c r="AK67" s="32"/>
-    </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A68" s="57"/>
-      <c r="B68" s="60"/>
-      <c r="C68" s="49"/>
-      <c r="D68" t="s">
-        <v>136</v>
-      </c>
-      <c r="F68" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="G68" s="44" t="s">
-        <v>138</v>
-      </c>
-      <c r="H68" s="19">
-        <v>44124</v>
-      </c>
-      <c r="I68" s="19">
-        <v>44124</v>
-      </c>
-      <c r="J68" s="7">
-        <v>1</v>
-      </c>
-      <c r="K68" s="33"/>
-      <c r="L68" s="33"/>
-      <c r="M68" s="33"/>
-      <c r="N68" s="33"/>
-      <c r="O68" s="33"/>
-      <c r="P68" s="33"/>
-      <c r="Q68" s="33"/>
-      <c r="R68" s="33"/>
-      <c r="S68" s="33"/>
-      <c r="T68" s="33"/>
-      <c r="U68" s="33"/>
-      <c r="V68" s="52"/>
-      <c r="W68" s="33"/>
-      <c r="X68" s="33"/>
-      <c r="Y68" s="33"/>
-      <c r="Z68" s="33"/>
-      <c r="AA68" s="33"/>
-      <c r="AB68" s="33"/>
-      <c r="AC68" s="55"/>
-      <c r="AD68" s="32"/>
-      <c r="AE68" s="32"/>
-      <c r="AF68" s="32"/>
-      <c r="AG68" s="32"/>
-      <c r="AH68" s="32"/>
-      <c r="AI68" s="32"/>
-      <c r="AJ68" s="47"/>
-      <c r="AK68" s="32"/>
-    </row>
-    <row r="69" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="57"/>
-      <c r="B69" s="60"/>
-      <c r="C69" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="D69" t="s">
-        <v>107</v>
-      </c>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="J69" s="7">
-        <v>0</v>
-      </c>
-      <c r="K69" s="33"/>
-      <c r="L69" s="33"/>
-      <c r="M69" s="33"/>
-      <c r="N69" s="33"/>
-      <c r="O69" s="33"/>
-      <c r="P69" s="33"/>
-      <c r="Q69" s="33"/>
-      <c r="R69" s="33"/>
-      <c r="S69" s="33"/>
-      <c r="T69" s="33"/>
-      <c r="U69" s="33"/>
-      <c r="V69" s="52"/>
-      <c r="W69" s="33"/>
-      <c r="X69" s="33"/>
-      <c r="Y69" s="33"/>
-      <c r="Z69" s="33"/>
-      <c r="AA69" s="33"/>
-      <c r="AB69" s="33"/>
-      <c r="AC69" s="55"/>
-      <c r="AD69" s="32"/>
-      <c r="AE69" s="32"/>
-      <c r="AF69" s="32"/>
-      <c r="AG69" s="32"/>
-      <c r="AH69" s="32"/>
-      <c r="AI69" s="32"/>
-      <c r="AJ69" s="47"/>
-      <c r="AK69" s="32"/>
-    </row>
-    <row r="70" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="57"/>
-      <c r="B70" s="60"/>
-      <c r="C70" s="49"/>
-      <c r="D70" t="s">
-        <v>108</v>
-      </c>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="J70" s="7">
-        <v>0</v>
-      </c>
-      <c r="K70" s="33"/>
-      <c r="L70" s="33"/>
-      <c r="M70" s="33"/>
-      <c r="N70" s="33"/>
-      <c r="O70" s="33"/>
-      <c r="P70" s="33"/>
-      <c r="Q70" s="33"/>
-      <c r="R70" s="33"/>
-      <c r="S70" s="33"/>
-      <c r="T70" s="33"/>
-      <c r="U70" s="33"/>
-      <c r="V70" s="52"/>
-      <c r="W70" s="33"/>
-      <c r="X70" s="33"/>
-      <c r="Y70" s="33"/>
-      <c r="Z70" s="33"/>
-      <c r="AA70" s="33"/>
-      <c r="AB70" s="33"/>
-      <c r="AC70" s="55"/>
-      <c r="AD70" s="32"/>
-      <c r="AE70" s="32"/>
-      <c r="AF70" s="32"/>
-      <c r="AG70" s="32"/>
-      <c r="AH70" s="32"/>
-      <c r="AI70" s="32"/>
-      <c r="AJ70" s="47"/>
-      <c r="AK70" s="32"/>
-    </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A71" s="57"/>
-      <c r="B71" s="60"/>
-      <c r="C71" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="D71" t="s">
-        <v>31</v>
-      </c>
-      <c r="J71" s="7">
-        <v>0</v>
-      </c>
-      <c r="K71" s="33"/>
-      <c r="L71" s="33"/>
-      <c r="M71" s="33"/>
-      <c r="N71" s="33"/>
-      <c r="O71" s="33"/>
-      <c r="P71" s="33"/>
-      <c r="Q71" s="33"/>
-      <c r="R71" s="33"/>
-      <c r="S71" s="33"/>
-      <c r="T71" s="33"/>
-      <c r="U71" s="33"/>
-      <c r="V71" s="52"/>
-      <c r="W71" s="33"/>
-      <c r="X71" s="33"/>
-      <c r="Y71" s="33"/>
-      <c r="Z71" s="33"/>
-      <c r="AA71" s="33"/>
-      <c r="AB71" s="33"/>
-      <c r="AC71" s="55"/>
-      <c r="AD71" s="32"/>
-      <c r="AE71" s="32"/>
-      <c r="AF71" s="32"/>
-      <c r="AG71" s="32"/>
-      <c r="AH71" s="32"/>
-      <c r="AI71" s="32"/>
-      <c r="AJ71" s="47"/>
-      <c r="AK71" s="32"/>
-    </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A72" s="57"/>
-      <c r="B72" s="60"/>
-      <c r="C72" s="49"/>
-      <c r="D72" t="s">
-        <v>32</v>
-      </c>
-      <c r="J72" s="7">
-        <v>0</v>
-      </c>
-      <c r="K72" s="33"/>
-      <c r="L72" s="33"/>
-      <c r="M72" s="33"/>
-      <c r="N72" s="33"/>
-      <c r="O72" s="33"/>
-      <c r="P72" s="33"/>
-      <c r="Q72" s="33"/>
-      <c r="R72" s="33"/>
-      <c r="S72" s="33"/>
-      <c r="T72" s="33"/>
-      <c r="U72" s="33"/>
-      <c r="V72" s="52"/>
-      <c r="W72" s="33"/>
-      <c r="X72" s="33"/>
-      <c r="Y72" s="33"/>
-      <c r="Z72" s="33"/>
-      <c r="AA72" s="33"/>
-      <c r="AB72" s="33"/>
-      <c r="AC72" s="55"/>
-      <c r="AD72" s="32"/>
-      <c r="AE72" s="32"/>
-      <c r="AF72" s="32"/>
-      <c r="AG72" s="32"/>
-      <c r="AH72" s="32"/>
-      <c r="AI72" s="32"/>
-      <c r="AJ72" s="47"/>
-      <c r="AK72" s="32"/>
-    </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A73" s="57"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="49"/>
-      <c r="D73" t="s">
-        <v>33</v>
-      </c>
-      <c r="J73" s="7">
-        <v>0</v>
-      </c>
-      <c r="K73" s="33"/>
-      <c r="L73" s="33"/>
-      <c r="M73" s="33"/>
-      <c r="N73" s="33"/>
-      <c r="O73" s="33"/>
-      <c r="P73" s="33"/>
-      <c r="Q73" s="33"/>
-      <c r="R73" s="33"/>
-      <c r="S73" s="33"/>
-      <c r="T73" s="33"/>
-      <c r="U73" s="33"/>
-      <c r="V73" s="53"/>
-      <c r="W73" s="33"/>
-      <c r="X73" s="33"/>
-      <c r="Y73" s="33"/>
-      <c r="Z73" s="33"/>
-      <c r="AA73" s="33"/>
-      <c r="AB73" s="33"/>
-      <c r="AC73" s="56"/>
-      <c r="AD73" s="32"/>
-      <c r="AE73" s="32"/>
-      <c r="AF73" s="32"/>
-      <c r="AG73" s="32"/>
-      <c r="AH73" s="32"/>
-      <c r="AI73" s="32"/>
-      <c r="AJ73" s="48"/>
-      <c r="AK73" s="32"/>
-    </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A74" s="57"/>
-      <c r="B74" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F74" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J74" s="6">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A5:A74"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B56:B73"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="AJ5:AJ73"/>
-    <mergeCell ref="C18:C40"/>
-    <mergeCell ref="B11:B55"/>
+  <mergeCells count="28">
+    <mergeCell ref="AJ5:AJ75"/>
+    <mergeCell ref="C18:C41"/>
+    <mergeCell ref="B11:B54"/>
     <mergeCell ref="D18:D26"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="D32:D34"/>
-    <mergeCell ref="V5:V73"/>
-    <mergeCell ref="AC5:AC73"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="C58:C62"/>
+    <mergeCell ref="V5:V75"/>
+    <mergeCell ref="AC5:AC75"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="C57:C63"/>
     <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A5:A76"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B55:B75"/>
+    <mergeCell ref="C69:C70"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="K3:AK5 K6:U73 AK6:AK73 W6:AB73 AD6:AI73">
+  <conditionalFormatting sqref="K3:AK5 AK6:AK75 W6:AB75 AD6:AI75 K6:U75">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>WEEKDAY(K$3)=7</formula>
     </cfRule>
@@ -7616,15 +8222,16 @@
     <hyperlink ref="D13" location="SE!A1" display="SE"/>
     <hyperlink ref="D16" location="SE!A1" display="SE"/>
     <hyperlink ref="D14" location="BGM!A1" display="BGM"/>
-    <hyperlink ref="D38" location="BGM!A1" display="BGM"/>
-    <hyperlink ref="D39" location="SE!A1" display="SE"/>
-    <hyperlink ref="D55" location="コントローラーボタン配置図!A1" display="コントローラボタン配置図"/>
-    <hyperlink ref="D41" location="SE!A1" display="SE"/>
-    <hyperlink ref="D43" location="SE!A1" display="SE"/>
+    <hyperlink ref="D39" location="BGM!A1" display="BGM"/>
+    <hyperlink ref="D40" location="SE!A1" display="SE"/>
+    <hyperlink ref="D54" location="コントローラーボタン配置図!A1" display="コントローラボタン配置図"/>
+    <hyperlink ref="D42" location="SE!A1" display="SE"/>
+    <hyperlink ref="D44" location="SE!A1" display="SE"/>
+    <hyperlink ref="D7" r:id="rId1" display="仕様書"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -7655,270 +8262,270 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="11" max="11" width="32.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.375" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="53.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="2:14" ht="45.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="K4" s="24" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="K4" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="11" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="K5" s="25" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="K5" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="13" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="K6" s="25" t="s">
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="K6" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="13" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="K7" s="25" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="K7" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="L7" s="26"/>
+      <c r="L7" s="13"/>
     </row>
     <row r="8" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="K8" s="25" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="K8" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="L8" s="26"/>
+      <c r="L8" s="13"/>
     </row>
     <row r="9" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="K9" s="25" t="s">
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="K9" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="L9" s="26"/>
+      <c r="L9" s="13"/>
     </row>
     <row r="10" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="K10" s="25" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="K10" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="L10" s="26"/>
+      <c r="L10" s="13"/>
     </row>
     <row r="11" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="K11" s="25" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="K11" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="L11" s="26"/>
-      <c r="N11" s="23"/>
+      <c r="L11" s="13"/>
+      <c r="N11" s="10"/>
     </row>
     <row r="12" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="K12" s="25" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="K12" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="L12" s="26"/>
+      <c r="L12" s="13"/>
     </row>
     <row r="13" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="K13" s="25" t="s">
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="K13" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="L13" s="26"/>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="K14" s="25" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="K14" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="L14" s="26"/>
+      <c r="L14" s="13"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7949,60 +8556,60 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="7.25" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="18" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="8" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="A3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="14"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -8014,7 +8621,7 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="15" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -8028,19 +8635,19 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="15" t="s">
         <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="2"/>
@@ -8052,7 +8659,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="15" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="2"/>
@@ -8064,7 +8671,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="40" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -8078,7 +8685,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="62"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="2" t="s">
         <v>73</v>
       </c>
@@ -8086,7 +8693,7 @@
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="15" t="s">
         <v>52</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -8100,7 +8707,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="15" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="2"/>
@@ -8112,7 +8719,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="15" t="s">
         <v>64</v>
       </c>
       <c r="C14" s="2"/>
@@ -8124,25 +8731,25 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="28"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B16" s="28"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="28"/>
+      <c r="B17" s="15"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="15" t="s">
         <v>56</v>
       </c>
       <c r="C18" s="2"/>
@@ -8164,18 +8771,18 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/schedule/ガントチャートxlsx.xlsx
+++ b/schedule/ガントチャートxlsx.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\okashi_222\schedule\"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="170">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -770,13 +770,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>机</t>
-    <rPh sb="0" eb="1">
-      <t>ツクエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>詳細</t>
     <rPh sb="0" eb="2">
       <t>ショウサイ</t>
@@ -875,13 +868,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3日</t>
-    <rPh sb="1" eb="2">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プレイヤー表示</t>
     <rPh sb="5" eb="7">
       <t>ヒョウジ</t>
@@ -1134,6 +1120,68 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>岡</t>
+    <rPh sb="0" eb="1">
+      <t>オカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の配置ツール</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ生成ツール</t>
+    <rPh sb="3" eb="5">
+      <t>セイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工藤</t>
+    <rPh sb="0" eb="2">
+      <t>クドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　仕　様　書</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お菓子</t>
+    <rPh sb="1" eb="3">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉢植え</t>
+    <rPh sb="0" eb="2">
+      <t>ハチウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>三浦</t>
     <rPh sb="0" eb="2">
       <t>ミウラ</t>
@@ -1141,6 +1189,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>1日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>岡</t>
     <rPh sb="0" eb="1">
       <t>オカ</t>
@@ -1148,47 +1203,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>敵の配置ツール</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マップ生成ツール</t>
-    <rPh sb="3" eb="5">
-      <t>セイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>工藤</t>
-    <rPh sb="0" eb="2">
-      <t>クドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　仕　様　書</t>
-    <rPh sb="1" eb="2">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>サマ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お菓子</t>
-    <rPh sb="1" eb="3">
-      <t>カシ</t>
-    </rPh>
+    <t>キャンディ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1505,7 +1520,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1645,6 +1660,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1693,7 +1721,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1781,45 +1809,6 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1838,20 +1827,11 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1874,9 +1854,6 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1885,6 +1862,69 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="14" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -2558,13 +2598,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>21304</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>281610</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>231913</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2576,6 +2616,68 @@
         <a:xfrm>
           <a:off x="11401608" y="17443174"/>
           <a:ext cx="260306" cy="215348"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 52778"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>4739</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>228578</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="右矢印 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11683217" y="16937935"/>
+          <a:ext cx="541913" cy="220295"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -4577,13 +4679,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS76"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AS77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I67" sqref="I67"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4627,15 +4730,15 @@
         <v>15</v>
       </c>
       <c r="P1" s="26" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q1" s="23"/>
       <c r="R1" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="S1" s="24"/>
       <c r="T1" s="28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="U1" s="25"/>
     </row>
@@ -4731,31 +4834,31 @@
       <c r="AS3" s="1"/>
     </row>
     <row r="4" spans="1:45" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="F4" s="45" t="s">
+      <c r="E4" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="46" t="s">
+      <c r="H4" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="34" t="s">
         <v>18</v>
       </c>
       <c r="K4" s="18">
@@ -4868,10 +4971,10 @@
       </c>
     </row>
     <row r="5" spans="1:45" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="59" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -4883,18 +4986,18 @@
         <v>39</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="H5" s="50">
+        <v>145</v>
+      </c>
+      <c r="H5" s="35">
         <v>44118</v>
       </c>
-      <c r="I5" s="50">
+      <c r="I5" s="35">
         <v>44125</v>
       </c>
-      <c r="J5" s="51">
+      <c r="J5" s="36">
         <v>1</v>
       </c>
-      <c r="K5" s="42"/>
+      <c r="K5" s="29"/>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
@@ -4905,8 +5008,8 @@
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
-      <c r="V5" s="33" t="s">
-        <v>118</v>
+      <c r="V5" s="52" t="s">
+        <v>117</v>
       </c>
       <c r="W5" s="19"/>
       <c r="X5" s="19"/>
@@ -4914,8 +5017,8 @@
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
       <c r="AB5" s="19"/>
-      <c r="AC5" s="36" t="s">
-        <v>119</v>
+      <c r="AC5" s="55" t="s">
+        <v>118</v>
       </c>
       <c r="AD5" s="19"/>
       <c r="AE5" s="19"/>
@@ -4923,14 +5026,14 @@
       <c r="AG5" s="19"/>
       <c r="AH5" s="19"/>
       <c r="AI5" s="19"/>
-      <c r="AJ5" s="30" t="s">
+      <c r="AJ5" s="47" t="s">
         <v>94</v>
       </c>
       <c r="AK5" s="19"/>
     </row>
     <row r="6" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A6" s="48"/>
-      <c r="B6" s="49"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
@@ -4940,14 +5043,14 @@
         <v>39</v>
       </c>
       <c r="G6" s="20"/>
-      <c r="H6" s="50">
+      <c r="H6" s="35">
         <v>44125</v>
       </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51">
+      <c r="I6" s="35"/>
+      <c r="J6" s="36">
         <v>0.05</v>
       </c>
-      <c r="K6" s="43"/>
+      <c r="K6" s="30"/>
       <c r="L6" s="20"/>
       <c r="M6" s="20"/>
       <c r="N6" s="20"/>
@@ -4958,43 +5061,43 @@
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
-      <c r="V6" s="34"/>
+      <c r="V6" s="53"/>
       <c r="W6" s="20"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20"/>
-      <c r="AC6" s="37"/>
+      <c r="AC6" s="56"/>
       <c r="AD6" s="19"/>
       <c r="AE6" s="19"/>
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="19"/>
-      <c r="AJ6" s="31"/>
+      <c r="AJ6" s="48"/>
       <c r="AK6" s="19"/>
     </row>
     <row r="7" spans="1:45" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="48"/>
-      <c r="B7" s="49"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="63" t="s">
-        <v>165</v>
+      <c r="D7" s="46" t="s">
+        <v>162</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="20" t="s">
         <v>39</v>
       </c>
       <c r="G7" s="20"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="51">
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="36">
         <v>0</v>
       </c>
-      <c r="K7" s="43"/>
+      <c r="K7" s="30"/>
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
@@ -5005,26 +5108,26 @@
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
-      <c r="V7" s="34"/>
+      <c r="V7" s="53"/>
       <c r="W7" s="20"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20"/>
-      <c r="AC7" s="37"/>
+      <c r="AC7" s="56"/>
       <c r="AD7" s="19"/>
       <c r="AE7" s="19"/>
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
       <c r="AI7" s="19"/>
-      <c r="AJ7" s="31"/>
+      <c r="AJ7" s="48"/>
       <c r="AK7" s="19"/>
     </row>
     <row r="8" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="48"/>
-      <c r="B8" s="49"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
@@ -5034,14 +5137,14 @@
         <v>39</v>
       </c>
       <c r="G8" s="20"/>
-      <c r="H8" s="50">
+      <c r="H8" s="35">
         <v>44119</v>
       </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51">
+      <c r="I8" s="35"/>
+      <c r="J8" s="36">
         <v>0.1</v>
       </c>
-      <c r="K8" s="43"/>
+      <c r="K8" s="30"/>
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
@@ -5052,26 +5155,26 @@
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
-      <c r="V8" s="34"/>
+      <c r="V8" s="53"/>
       <c r="W8" s="20"/>
       <c r="X8" s="20"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
-      <c r="AC8" s="37"/>
+      <c r="AC8" s="56"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
       <c r="AH8" s="19"/>
       <c r="AI8" s="19"/>
-      <c r="AJ8" s="31"/>
+      <c r="AJ8" s="48"/>
       <c r="AK8" s="19"/>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A9" s="48"/>
-      <c r="B9" s="49"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="20" t="s">
         <v>34</v>
       </c>
@@ -5081,12 +5184,12 @@
         <v>39</v>
       </c>
       <c r="G9" s="20"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="51">
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="36">
         <v>0</v>
       </c>
-      <c r="K9" s="43"/>
+      <c r="K9" s="30"/>
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
       <c r="N9" s="20"/>
@@ -5097,26 +5200,26 @@
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
-      <c r="V9" s="34"/>
+      <c r="V9" s="53"/>
       <c r="W9" s="20"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20"/>
-      <c r="AC9" s="37"/>
+      <c r="AC9" s="56"/>
       <c r="AD9" s="19"/>
       <c r="AE9" s="19"/>
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
       <c r="AI9" s="19"/>
-      <c r="AJ9" s="31"/>
+      <c r="AJ9" s="48"/>
       <c r="AK9" s="19"/>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A10" s="48"/>
-      <c r="B10" s="49"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="20" t="s">
         <v>35</v>
       </c>
@@ -5126,12 +5229,12 @@
         <v>39</v>
       </c>
       <c r="G10" s="20"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="51">
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="36">
         <v>0</v>
       </c>
-      <c r="K10" s="43"/>
+      <c r="K10" s="30"/>
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="20"/>
@@ -5142,29 +5245,29 @@
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
-      <c r="V10" s="34"/>
+      <c r="V10" s="53"/>
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20"/>
-      <c r="AC10" s="37"/>
+      <c r="AC10" s="56"/>
       <c r="AD10" s="19"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="19"/>
-      <c r="AJ10" s="31"/>
+      <c r="AJ10" s="48"/>
       <c r="AK10" s="19"/>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A11" s="48"/>
-      <c r="B11" s="52" t="s">
+      <c r="A11" s="58"/>
+      <c r="B11" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="50" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -5173,10 +5276,12 @@
       <c r="E11" s="2"/>
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="43"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="36">
+        <v>0</v>
+      </c>
+      <c r="K11" s="30"/>
       <c r="L11" s="20"/>
       <c r="M11" s="20"/>
       <c r="N11" s="20"/>
@@ -5187,39 +5292,39 @@
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
-      <c r="V11" s="34"/>
+      <c r="V11" s="53"/>
       <c r="W11" s="20"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20"/>
-      <c r="AC11" s="37"/>
+      <c r="AC11" s="56"/>
       <c r="AD11" s="19"/>
       <c r="AE11" s="19"/>
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
       <c r="AI11" s="19"/>
-      <c r="AJ11" s="31"/>
+      <c r="AJ11" s="48"/>
       <c r="AK11" s="19"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A12" s="48"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="50"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="51">
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="36">
         <v>0</v>
       </c>
-      <c r="K12" s="43"/>
+      <c r="K12" s="30"/>
       <c r="L12" s="20"/>
       <c r="M12" s="20"/>
       <c r="N12" s="20"/>
@@ -5230,39 +5335,39 @@
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
-      <c r="V12" s="34"/>
+      <c r="V12" s="53"/>
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20"/>
-      <c r="AC12" s="37"/>
+      <c r="AC12" s="56"/>
       <c r="AD12" s="19"/>
       <c r="AE12" s="19"/>
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="19"/>
-      <c r="AJ12" s="31"/>
+      <c r="AJ12" s="48"/>
       <c r="AK12" s="19"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A13" s="48"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54" t="s">
+      <c r="A13" s="58"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="54"/>
+      <c r="E13" s="38"/>
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="51">
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="36">
         <v>0</v>
       </c>
-      <c r="K13" s="43"/>
+      <c r="K13" s="30"/>
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
       <c r="N13" s="20"/>
@@ -5273,39 +5378,39 @@
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
-      <c r="V13" s="34"/>
+      <c r="V13" s="53"/>
       <c r="W13" s="20"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20"/>
-      <c r="AC13" s="37"/>
+      <c r="AC13" s="56"/>
       <c r="AD13" s="19"/>
       <c r="AE13" s="19"/>
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
-      <c r="AJ13" s="31"/>
+      <c r="AJ13" s="48"/>
       <c r="AK13" s="19"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A14" s="48"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="55" t="s">
+      <c r="A14" s="58"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="55"/>
+      <c r="E14" s="39"/>
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="51">
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="36">
         <v>0</v>
       </c>
-      <c r="K14" s="43"/>
+      <c r="K14" s="30"/>
       <c r="L14" s="20"/>
       <c r="M14" s="20"/>
       <c r="N14" s="20"/>
@@ -5316,27 +5421,27 @@
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
-      <c r="V14" s="34"/>
+      <c r="V14" s="53"/>
       <c r="W14" s="20"/>
       <c r="X14" s="20"/>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20"/>
-      <c r="AC14" s="37"/>
+      <c r="AC14" s="56"/>
       <c r="AD14" s="19"/>
       <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
       <c r="AI14" s="19"/>
-      <c r="AJ14" s="31"/>
+      <c r="AJ14" s="48"/>
       <c r="AK14" s="19"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A15" s="48"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="53" t="s">
+      <c r="A15" s="58"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="50" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -5347,12 +5452,12 @@
         <v>40</v>
       </c>
       <c r="G15" s="20"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="51">
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="36">
         <v>0</v>
       </c>
-      <c r="K15" s="43"/>
+      <c r="K15" s="30"/>
       <c r="L15" s="20"/>
       <c r="M15" s="20"/>
       <c r="N15" s="20"/>
@@ -5363,39 +5468,39 @@
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
-      <c r="V15" s="34"/>
+      <c r="V15" s="53"/>
       <c r="W15" s="20"/>
       <c r="X15" s="20"/>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
-      <c r="AC15" s="37"/>
+      <c r="AC15" s="56"/>
       <c r="AD15" s="19"/>
       <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
       <c r="AI15" s="19"/>
-      <c r="AJ15" s="31"/>
+      <c r="AJ15" s="48"/>
       <c r="AK15" s="19"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A16" s="48"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="56" t="s">
+      <c r="A16" s="58"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="56"/>
+      <c r="E16" s="40"/>
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="51">
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="36">
         <v>0</v>
       </c>
-      <c r="K16" s="43"/>
+      <c r="K16" s="30"/>
       <c r="L16" s="20"/>
       <c r="M16" s="20"/>
       <c r="N16" s="20"/>
@@ -5406,39 +5511,39 @@
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
-      <c r="V16" s="34"/>
+      <c r="V16" s="53"/>
       <c r="W16" s="20"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
-      <c r="AC16" s="37"/>
+      <c r="AC16" s="56"/>
       <c r="AD16" s="19"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="19"/>
-      <c r="AJ16" s="31"/>
+      <c r="AJ16" s="48"/>
       <c r="AK16" s="19"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A17" s="48"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="50"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="51">
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="36">
         <v>0</v>
       </c>
-      <c r="K17" s="43"/>
+      <c r="K17" s="30"/>
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
       <c r="N17" s="20"/>
@@ -5449,49 +5554,49 @@
       <c r="S17" s="20"/>
       <c r="T17" s="20"/>
       <c r="U17" s="20"/>
-      <c r="V17" s="34"/>
+      <c r="V17" s="53"/>
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
-      <c r="AC17" s="37"/>
+      <c r="AC17" s="56"/>
       <c r="AD17" s="19"/>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="19"/>
       <c r="AI17" s="19"/>
-      <c r="AJ17" s="31"/>
+      <c r="AJ17" s="48"/>
       <c r="AK17" s="19"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A18" s="48"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53" t="s">
+      <c r="A18" s="58"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="50" t="s">
         <v>102</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="H18" s="50">
-        <v>44124</v>
-      </c>
-      <c r="I18" s="50"/>
-      <c r="J18" s="51">
+        <v>139</v>
+      </c>
+      <c r="H18" s="35">
+        <v>44126</v>
+      </c>
+      <c r="I18" s="35"/>
+      <c r="J18" s="36">
         <v>0</v>
       </c>
-      <c r="K18" s="43"/>
+      <c r="K18" s="30"/>
       <c r="L18" s="20"/>
       <c r="M18" s="20"/>
       <c r="N18" s="20"/>
@@ -5502,45 +5607,45 @@
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
-      <c r="V18" s="34"/>
+      <c r="V18" s="53"/>
       <c r="W18" s="20"/>
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
-      <c r="AC18" s="37"/>
+      <c r="AC18" s="56"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="19"/>
       <c r="AI18" s="19"/>
-      <c r="AJ18" s="31"/>
+      <c r="AJ18" s="48"/>
       <c r="AK18" s="19"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A19" s="48"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="H19" s="50">
+        <v>147</v>
+      </c>
+      <c r="H19" s="35">
         <v>44125</v>
       </c>
-      <c r="I19" s="50"/>
-      <c r="J19" s="51">
+      <c r="I19" s="35"/>
+      <c r="J19" s="36">
         <v>0</v>
       </c>
-      <c r="K19" s="43"/>
+      <c r="K19" s="30"/>
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
       <c r="N19" s="20"/>
@@ -5551,47 +5656,47 @@
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
-      <c r="V19" s="34"/>
+      <c r="V19" s="53"/>
       <c r="W19" s="20"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
-      <c r="AC19" s="37"/>
+      <c r="AC19" s="56"/>
       <c r="AD19" s="19"/>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
       <c r="AI19" s="19"/>
-      <c r="AJ19" s="31"/>
+      <c r="AJ19" s="48"/>
       <c r="AK19" s="19"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A20" s="48"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
       <c r="E20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" s="50">
+      <c r="H20" s="35">
         <v>44124</v>
       </c>
-      <c r="I20" s="50">
+      <c r="I20" s="35">
         <v>44124</v>
       </c>
-      <c r="J20" s="51">
+      <c r="J20" s="36">
         <v>1</v>
       </c>
-      <c r="K20" s="43"/>
+      <c r="K20" s="30"/>
       <c r="L20" s="20"/>
       <c r="M20" s="20"/>
       <c r="N20" s="20"/>
@@ -5602,39 +5707,39 @@
       <c r="S20" s="20"/>
       <c r="T20" s="20"/>
       <c r="U20" s="20"/>
-      <c r="V20" s="34"/>
+      <c r="V20" s="53"/>
       <c r="W20" s="20"/>
       <c r="X20" s="20"/>
       <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
-      <c r="AC20" s="37"/>
+      <c r="AC20" s="56"/>
       <c r="AD20" s="19"/>
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="19"/>
       <c r="AI20" s="19"/>
-      <c r="AJ20" s="31"/>
+      <c r="AJ20" s="48"/>
       <c r="AK20" s="19"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A21" s="48"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
       <c r="E21" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="51">
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="36">
         <v>0</v>
       </c>
-      <c r="K21" s="43"/>
+      <c r="K21" s="30"/>
       <c r="L21" s="20"/>
       <c r="M21" s="20"/>
       <c r="N21" s="20"/>
@@ -5645,47 +5750,47 @@
       <c r="S21" s="20"/>
       <c r="T21" s="20"/>
       <c r="U21" s="20"/>
-      <c r="V21" s="34"/>
+      <c r="V21" s="53"/>
       <c r="W21" s="20"/>
       <c r="X21" s="20"/>
       <c r="Y21" s="20"/>
       <c r="Z21" s="20"/>
       <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
-      <c r="AC21" s="37"/>
+      <c r="AC21" s="56"/>
       <c r="AD21" s="19"/>
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
       <c r="AI21" s="19"/>
-      <c r="AJ21" s="31"/>
+      <c r="AJ21" s="48"/>
       <c r="AK21" s="19"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A22" s="48"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
       <c r="E22" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="H22" s="50">
+        <v>144</v>
+      </c>
+      <c r="H22" s="35">
         <v>44125</v>
       </c>
-      <c r="I22" s="50">
+      <c r="I22" s="35">
         <v>44125</v>
       </c>
-      <c r="J22" s="51">
+      <c r="J22" s="36">
         <v>1</v>
       </c>
-      <c r="K22" s="43"/>
+      <c r="K22" s="30"/>
       <c r="L22" s="20"/>
       <c r="M22" s="20"/>
       <c r="N22" s="20"/>
@@ -5696,47 +5801,47 @@
       <c r="S22" s="20"/>
       <c r="T22" s="20"/>
       <c r="U22" s="20"/>
-      <c r="V22" s="34"/>
+      <c r="V22" s="53"/>
       <c r="W22" s="20"/>
       <c r="X22" s="20"/>
       <c r="Y22" s="20"/>
       <c r="Z22" s="20"/>
       <c r="AA22" s="20"/>
       <c r="AB22" s="20"/>
-      <c r="AC22" s="37"/>
+      <c r="AC22" s="56"/>
       <c r="AD22" s="19"/>
       <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="19"/>
       <c r="AI22" s="19"/>
-      <c r="AJ22" s="31"/>
+      <c r="AJ22" s="48"/>
       <c r="AK22" s="19"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A23" s="48"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
       <c r="E23" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="H23" s="50">
+        <v>121</v>
+      </c>
+      <c r="H23" s="35">
         <v>44124</v>
       </c>
-      <c r="I23" s="50">
+      <c r="I23" s="35">
         <v>44124</v>
       </c>
-      <c r="J23" s="51">
+      <c r="J23" s="36">
         <v>1</v>
       </c>
-      <c r="K23" s="43"/>
+      <c r="K23" s="30"/>
       <c r="L23" s="20"/>
       <c r="M23" s="20"/>
       <c r="N23" s="20"/>
@@ -5747,39 +5852,39 @@
       <c r="S23" s="20"/>
       <c r="T23" s="20"/>
       <c r="U23" s="20"/>
-      <c r="V23" s="34"/>
+      <c r="V23" s="53"/>
       <c r="W23" s="20"/>
       <c r="X23" s="20"/>
       <c r="Y23" s="20"/>
       <c r="Z23" s="20"/>
       <c r="AA23" s="20"/>
       <c r="AB23" s="20"/>
-      <c r="AC23" s="37"/>
+      <c r="AC23" s="56"/>
       <c r="AD23" s="19"/>
       <c r="AE23" s="19"/>
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="19"/>
       <c r="AI23" s="19"/>
-      <c r="AJ23" s="31"/>
+      <c r="AJ23" s="48"/>
       <c r="AK23" s="19"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A24" s="48"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
       <c r="E24" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="51">
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="36">
         <v>0</v>
       </c>
-      <c r="K24" s="43"/>
+      <c r="K24" s="30"/>
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
       <c r="N24" s="20"/>
@@ -5790,47 +5895,47 @@
       <c r="S24" s="20"/>
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
-      <c r="V24" s="34"/>
+      <c r="V24" s="53"/>
       <c r="W24" s="20"/>
       <c r="X24" s="20"/>
       <c r="Y24" s="20"/>
       <c r="Z24" s="20"/>
       <c r="AA24" s="20"/>
       <c r="AB24" s="20"/>
-      <c r="AC24" s="37"/>
+      <c r="AC24" s="56"/>
       <c r="AD24" s="19"/>
       <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="19"/>
       <c r="AI24" s="19"/>
-      <c r="AJ24" s="31"/>
+      <c r="AJ24" s="48"/>
       <c r="AK24" s="19"/>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A25" s="48"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
       <c r="E25" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="H25" s="50">
+        <v>141</v>
+      </c>
+      <c r="H25" s="35">
         <v>44124</v>
       </c>
-      <c r="I25" s="50">
+      <c r="I25" s="35">
         <v>44125</v>
       </c>
-      <c r="J25" s="51">
+      <c r="J25" s="36">
         <v>0.25</v>
       </c>
-      <c r="K25" s="43"/>
+      <c r="K25" s="30"/>
       <c r="L25" s="20"/>
       <c r="M25" s="20"/>
       <c r="N25" s="20"/>
@@ -5841,39 +5946,39 @@
       <c r="S25" s="20"/>
       <c r="T25" s="20"/>
       <c r="U25" s="20"/>
-      <c r="V25" s="34"/>
+      <c r="V25" s="53"/>
       <c r="W25" s="20"/>
       <c r="X25" s="20"/>
       <c r="Y25" s="20"/>
       <c r="Z25" s="20"/>
       <c r="AA25" s="20"/>
       <c r="AB25" s="20"/>
-      <c r="AC25" s="37"/>
+      <c r="AC25" s="56"/>
       <c r="AD25" s="19"/>
       <c r="AE25" s="19"/>
       <c r="AF25" s="19"/>
       <c r="AG25" s="19"/>
       <c r="AH25" s="19"/>
       <c r="AI25" s="19"/>
-      <c r="AJ25" s="31"/>
+      <c r="AJ25" s="48"/>
       <c r="AK25" s="19"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A26" s="48"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
       <c r="E26" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="51">
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="36">
         <v>0</v>
       </c>
-      <c r="K26" s="43"/>
+      <c r="K26" s="30"/>
       <c r="L26" s="20"/>
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
@@ -5884,49 +5989,49 @@
       <c r="S26" s="20"/>
       <c r="T26" s="20"/>
       <c r="U26" s="20"/>
-      <c r="V26" s="34"/>
+      <c r="V26" s="53"/>
       <c r="W26" s="20"/>
       <c r="X26" s="20"/>
       <c r="Y26" s="20"/>
       <c r="Z26" s="20"/>
       <c r="AA26" s="20"/>
       <c r="AB26" s="20"/>
-      <c r="AC26" s="37"/>
+      <c r="AC26" s="56"/>
       <c r="AD26" s="19"/>
       <c r="AE26" s="19"/>
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
       <c r="AH26" s="19"/>
       <c r="AI26" s="19"/>
-      <c r="AJ26" s="31"/>
+      <c r="AJ26" s="48"/>
       <c r="AK26" s="19"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A27" s="48"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53" t="s">
+      <c r="A27" s="58"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G27" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="H27" s="50">
+        <v>121</v>
+      </c>
+      <c r="H27" s="35">
         <v>44124</v>
       </c>
-      <c r="I27" s="50">
+      <c r="I27" s="35">
         <v>44124</v>
       </c>
-      <c r="J27" s="51">
+      <c r="J27" s="36">
         <v>1</v>
       </c>
-      <c r="K27" s="43"/>
+      <c r="K27" s="30"/>
       <c r="L27" s="20"/>
       <c r="M27" s="20"/>
       <c r="N27" s="20"/>
@@ -5937,47 +6042,47 @@
       <c r="S27" s="20"/>
       <c r="T27" s="20"/>
       <c r="U27" s="20"/>
-      <c r="V27" s="34"/>
+      <c r="V27" s="53"/>
       <c r="W27" s="20"/>
       <c r="X27" s="20"/>
       <c r="Y27" s="20"/>
       <c r="Z27" s="20"/>
       <c r="AA27" s="20"/>
       <c r="AB27" s="20"/>
-      <c r="AC27" s="37"/>
+      <c r="AC27" s="56"/>
       <c r="AD27" s="19"/>
       <c r="AE27" s="19"/>
       <c r="AF27" s="19"/>
       <c r="AG27" s="19"/>
       <c r="AH27" s="19"/>
       <c r="AI27" s="19"/>
-      <c r="AJ27" s="31"/>
+      <c r="AJ27" s="48"/>
       <c r="AK27" s="19"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A28" s="48"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="H28" s="50">
+        <v>121</v>
+      </c>
+      <c r="H28" s="35">
         <v>44124</v>
       </c>
-      <c r="I28" s="50">
+      <c r="I28" s="35">
         <v>44124</v>
       </c>
-      <c r="J28" s="51">
+      <c r="J28" s="36">
         <v>1</v>
       </c>
-      <c r="K28" s="43"/>
+      <c r="K28" s="30"/>
       <c r="L28" s="20"/>
       <c r="M28" s="20"/>
       <c r="N28" s="20"/>
@@ -5988,41 +6093,41 @@
       <c r="S28" s="20"/>
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
-      <c r="V28" s="34"/>
+      <c r="V28" s="53"/>
       <c r="W28" s="20"/>
       <c r="X28" s="20"/>
       <c r="Y28" s="20"/>
       <c r="Z28" s="20"/>
       <c r="AA28" s="20"/>
       <c r="AB28" s="20"/>
-      <c r="AC28" s="37"/>
+      <c r="AC28" s="56"/>
       <c r="AD28" s="19"/>
       <c r="AE28" s="19"/>
       <c r="AF28" s="19"/>
       <c r="AG28" s="19"/>
       <c r="AH28" s="19"/>
       <c r="AI28" s="19"/>
-      <c r="AJ28" s="31"/>
+      <c r="AJ28" s="48"/>
       <c r="AK28" s="19"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A29" s="48"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53" t="s">
+      <c r="A29" s="58"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="51">
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="36">
         <v>0</v>
       </c>
-      <c r="K29" s="43"/>
+      <c r="K29" s="30"/>
       <c r="L29" s="20"/>
       <c r="M29" s="20"/>
       <c r="N29" s="20"/>
@@ -6033,39 +6138,39 @@
       <c r="S29" s="20"/>
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
-      <c r="V29" s="34"/>
+      <c r="V29" s="53"/>
       <c r="W29" s="20"/>
       <c r="X29" s="20"/>
       <c r="Y29" s="20"/>
       <c r="Z29" s="20"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="20"/>
-      <c r="AC29" s="37"/>
+      <c r="AC29" s="56"/>
       <c r="AD29" s="19"/>
       <c r="AE29" s="19"/>
       <c r="AF29" s="19"/>
       <c r="AG29" s="19"/>
       <c r="AH29" s="19"/>
       <c r="AI29" s="19"/>
-      <c r="AJ29" s="31"/>
+      <c r="AJ29" s="48"/>
       <c r="AK29" s="19"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A30" s="48"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="51">
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="36">
         <v>0</v>
       </c>
-      <c r="K30" s="43"/>
+      <c r="K30" s="30"/>
       <c r="L30" s="20"/>
       <c r="M30" s="20"/>
       <c r="N30" s="20"/>
@@ -6076,47 +6181,47 @@
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
       <c r="U30" s="20"/>
-      <c r="V30" s="34"/>
+      <c r="V30" s="53"/>
       <c r="W30" s="20"/>
       <c r="X30" s="20"/>
       <c r="Y30" s="20"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
-      <c r="AC30" s="37"/>
+      <c r="AC30" s="56"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="19"/>
       <c r="AF30" s="19"/>
       <c r="AG30" s="19"/>
       <c r="AH30" s="19"/>
       <c r="AI30" s="19"/>
-      <c r="AJ30" s="31"/>
+      <c r="AJ30" s="48"/>
       <c r="AK30" s="19"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A31" s="48"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
       <c r="E31" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F31" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G31" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="H31" s="50">
+        <v>121</v>
+      </c>
+      <c r="H31" s="35">
         <v>44124</v>
       </c>
-      <c r="I31" s="50">
+      <c r="I31" s="35">
         <v>44124</v>
       </c>
-      <c r="J31" s="51">
+      <c r="J31" s="36">
         <v>1</v>
       </c>
-      <c r="K31" s="43"/>
+      <c r="K31" s="30"/>
       <c r="L31" s="20"/>
       <c r="M31" s="20"/>
       <c r="N31" s="20"/>
@@ -6127,28 +6232,28 @@
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
-      <c r="V31" s="34"/>
+      <c r="V31" s="53"/>
       <c r="W31" s="20"/>
       <c r="X31" s="20"/>
       <c r="Y31" s="20"/>
       <c r="Z31" s="20"/>
       <c r="AA31" s="20"/>
       <c r="AB31" s="20"/>
-      <c r="AC31" s="37"/>
+      <c r="AC31" s="56"/>
       <c r="AD31" s="19"/>
       <c r="AE31" s="19"/>
       <c r="AF31" s="19"/>
       <c r="AG31" s="19"/>
       <c r="AH31" s="19"/>
       <c r="AI31" s="19"/>
-      <c r="AJ31" s="31"/>
+      <c r="AJ31" s="48"/>
       <c r="AK31" s="19"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A32" s="48"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53" t="s">
+      <c r="A32" s="58"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50" t="s">
         <v>97</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -6156,12 +6261,12 @@
       </c>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="51">
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="36">
         <v>0</v>
       </c>
-      <c r="K32" s="43"/>
+      <c r="K32" s="30"/>
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
       <c r="N32" s="20"/>
@@ -6172,45 +6277,45 @@
       <c r="S32" s="20"/>
       <c r="T32" s="20"/>
       <c r="U32" s="20"/>
-      <c r="V32" s="34"/>
+      <c r="V32" s="53"/>
       <c r="W32" s="20"/>
       <c r="X32" s="20"/>
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
       <c r="AA32" s="20"/>
       <c r="AB32" s="20"/>
-      <c r="AC32" s="37"/>
+      <c r="AC32" s="56"/>
       <c r="AD32" s="19"/>
       <c r="AE32" s="19"/>
       <c r="AF32" s="19"/>
       <c r="AG32" s="19"/>
       <c r="AH32" s="19"/>
       <c r="AI32" s="19"/>
-      <c r="AJ32" s="31"/>
+      <c r="AJ32" s="48"/>
       <c r="AK32" s="19"/>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A33" s="48"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
       <c r="E33" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F33" s="20" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G33" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="H33" s="50">
-        <v>44125</v>
-      </c>
-      <c r="I33" s="50"/>
-      <c r="J33" s="51">
+        <v>147</v>
+      </c>
+      <c r="H33" s="35">
+        <v>44126</v>
+      </c>
+      <c r="I33" s="35"/>
+      <c r="J33" s="36">
         <v>0</v>
       </c>
-      <c r="K33" s="43"/>
+      <c r="K33" s="30"/>
       <c r="L33" s="20"/>
       <c r="M33" s="20"/>
       <c r="N33" s="20"/>
@@ -6221,39 +6326,39 @@
       <c r="S33" s="20"/>
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
-      <c r="V33" s="34"/>
+      <c r="V33" s="53"/>
       <c r="W33" s="20"/>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
       <c r="AA33" s="20"/>
       <c r="AB33" s="20"/>
-      <c r="AC33" s="37"/>
+      <c r="AC33" s="56"/>
       <c r="AD33" s="19"/>
       <c r="AE33" s="19"/>
       <c r="AF33" s="19"/>
       <c r="AG33" s="19"/>
       <c r="AH33" s="19"/>
       <c r="AI33" s="19"/>
-      <c r="AJ33" s="31"/>
+      <c r="AJ33" s="48"/>
       <c r="AK33" s="19"/>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A34" s="48"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
       <c r="E34" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="51">
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="36">
         <v>0</v>
       </c>
-      <c r="K34" s="43"/>
+      <c r="K34" s="30"/>
       <c r="L34" s="20"/>
       <c r="M34" s="20"/>
       <c r="N34" s="20"/>
@@ -6264,41 +6369,41 @@
       <c r="S34" s="20"/>
       <c r="T34" s="20"/>
       <c r="U34" s="20"/>
-      <c r="V34" s="34"/>
+      <c r="V34" s="53"/>
       <c r="W34" s="20"/>
       <c r="X34" s="20"/>
       <c r="Y34" s="20"/>
       <c r="Z34" s="20"/>
       <c r="AA34" s="20"/>
       <c r="AB34" s="20"/>
-      <c r="AC34" s="37"/>
+      <c r="AC34" s="56"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="19"/>
       <c r="AG34" s="19"/>
       <c r="AH34" s="19"/>
       <c r="AI34" s="19"/>
-      <c r="AJ34" s="31"/>
+      <c r="AJ34" s="48"/>
       <c r="AK34" s="19"/>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A35" s="48"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="53"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="50"/>
       <c r="D35" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="51">
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="36">
         <v>0</v>
       </c>
-      <c r="K35" s="43"/>
+      <c r="K35" s="30"/>
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
       <c r="N35" s="20"/>
@@ -6309,47 +6414,47 @@
       <c r="S35" s="20"/>
       <c r="T35" s="20"/>
       <c r="U35" s="20"/>
-      <c r="V35" s="34"/>
+      <c r="V35" s="53"/>
       <c r="W35" s="20"/>
       <c r="X35" s="20"/>
       <c r="Y35" s="20"/>
       <c r="Z35" s="20"/>
       <c r="AA35" s="20"/>
       <c r="AB35" s="20"/>
-      <c r="AC35" s="37"/>
+      <c r="AC35" s="56"/>
       <c r="AD35" s="19"/>
       <c r="AE35" s="19"/>
       <c r="AF35" s="19"/>
       <c r="AG35" s="19"/>
       <c r="AH35" s="19"/>
       <c r="AI35" s="19"/>
-      <c r="AJ35" s="31"/>
+      <c r="AJ35" s="48"/>
       <c r="AK35" s="19"/>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A36" s="48"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="53"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="50"/>
       <c r="D36" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F36" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G36" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="H36" s="50">
-        <v>44125</v>
-      </c>
-      <c r="I36" s="50"/>
-      <c r="J36" s="51">
+        <v>147</v>
+      </c>
+      <c r="H36" s="35">
+        <v>44126</v>
+      </c>
+      <c r="I36" s="35"/>
+      <c r="J36" s="36">
         <v>0</v>
       </c>
-      <c r="K36" s="43"/>
+      <c r="K36" s="30"/>
       <c r="L36" s="20"/>
       <c r="M36" s="20"/>
       <c r="N36" s="20"/>
@@ -6360,39 +6465,39 @@
       <c r="S36" s="20"/>
       <c r="T36" s="20"/>
       <c r="U36" s="20"/>
-      <c r="V36" s="34"/>
+      <c r="V36" s="53"/>
       <c r="W36" s="20"/>
       <c r="X36" s="20"/>
       <c r="Y36" s="20"/>
       <c r="Z36" s="20"/>
       <c r="AA36" s="20"/>
       <c r="AB36" s="20"/>
-      <c r="AC36" s="37"/>
+      <c r="AC36" s="56"/>
       <c r="AD36" s="19"/>
       <c r="AE36" s="19"/>
       <c r="AF36" s="19"/>
       <c r="AG36" s="19"/>
       <c r="AH36" s="19"/>
       <c r="AI36" s="19"/>
-      <c r="AJ36" s="31"/>
+      <c r="AJ36" s="48"/>
       <c r="AK36" s="19"/>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A37" s="48"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="53"/>
+      <c r="A37" s="58"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="50"/>
       <c r="D37" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="51">
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="36">
         <v>0</v>
       </c>
-      <c r="K37" s="43"/>
+      <c r="K37" s="30"/>
       <c r="L37" s="20"/>
       <c r="M37" s="20"/>
       <c r="N37" s="20"/>
@@ -6403,39 +6508,39 @@
       <c r="S37" s="20"/>
       <c r="T37" s="20"/>
       <c r="U37" s="20"/>
-      <c r="V37" s="34"/>
+      <c r="V37" s="53"/>
       <c r="W37" s="20"/>
       <c r="X37" s="20"/>
       <c r="Y37" s="20"/>
       <c r="Z37" s="20"/>
       <c r="AA37" s="20"/>
       <c r="AB37" s="20"/>
-      <c r="AC37" s="37"/>
+      <c r="AC37" s="56"/>
       <c r="AD37" s="19"/>
       <c r="AE37" s="19"/>
       <c r="AF37" s="19"/>
       <c r="AG37" s="19"/>
       <c r="AH37" s="19"/>
       <c r="AI37" s="19"/>
-      <c r="AJ37" s="31"/>
+      <c r="AJ37" s="48"/>
       <c r="AK37" s="19"/>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A38" s="48"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="53"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="50"/>
       <c r="D38" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="51">
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="36">
         <v>0</v>
       </c>
-      <c r="K38" s="43"/>
+      <c r="K38" s="30"/>
       <c r="L38" s="20"/>
       <c r="M38" s="20"/>
       <c r="N38" s="20"/>
@@ -6446,39 +6551,39 @@
       <c r="S38" s="20"/>
       <c r="T38" s="20"/>
       <c r="U38" s="20"/>
-      <c r="V38" s="34"/>
+      <c r="V38" s="53"/>
       <c r="W38" s="20"/>
       <c r="X38" s="20"/>
       <c r="Y38" s="20"/>
       <c r="Z38" s="20"/>
       <c r="AA38" s="20"/>
       <c r="AB38" s="20"/>
-      <c r="AC38" s="37"/>
+      <c r="AC38" s="56"/>
       <c r="AD38" s="19"/>
       <c r="AE38" s="19"/>
       <c r="AF38" s="19"/>
       <c r="AG38" s="19"/>
       <c r="AH38" s="19"/>
       <c r="AI38" s="19"/>
-      <c r="AJ38" s="31"/>
+      <c r="AJ38" s="48"/>
       <c r="AK38" s="19"/>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A39" s="48"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="55" t="s">
+      <c r="A39" s="58"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="55"/>
+      <c r="E39" s="39"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="51">
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="36">
         <v>0</v>
       </c>
-      <c r="K39" s="43"/>
+      <c r="K39" s="30"/>
       <c r="L39" s="20"/>
       <c r="M39" s="20"/>
       <c r="N39" s="20"/>
@@ -6489,39 +6594,39 @@
       <c r="S39" s="20"/>
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
-      <c r="V39" s="34"/>
+      <c r="V39" s="53"/>
       <c r="W39" s="20"/>
       <c r="X39" s="20"/>
       <c r="Y39" s="20"/>
       <c r="Z39" s="20"/>
       <c r="AA39" s="20"/>
       <c r="AB39" s="20"/>
-      <c r="AC39" s="37"/>
+      <c r="AC39" s="56"/>
       <c r="AD39" s="19"/>
       <c r="AE39" s="19"/>
       <c r="AF39" s="19"/>
       <c r="AG39" s="19"/>
       <c r="AH39" s="19"/>
       <c r="AI39" s="19"/>
-      <c r="AJ39" s="31"/>
+      <c r="AJ39" s="48"/>
       <c r="AK39" s="19"/>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A40" s="48"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="54" t="s">
+      <c r="A40" s="58"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E40" s="54"/>
+      <c r="E40" s="38"/>
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="51">
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="36">
         <v>0</v>
       </c>
-      <c r="K40" s="43"/>
+      <c r="K40" s="30"/>
       <c r="L40" s="20"/>
       <c r="M40" s="20"/>
       <c r="N40" s="20"/>
@@ -6532,39 +6637,39 @@
       <c r="S40" s="20"/>
       <c r="T40" s="20"/>
       <c r="U40" s="20"/>
-      <c r="V40" s="34"/>
+      <c r="V40" s="53"/>
       <c r="W40" s="20"/>
       <c r="X40" s="20"/>
       <c r="Y40" s="20"/>
       <c r="Z40" s="20"/>
       <c r="AA40" s="20"/>
       <c r="AB40" s="20"/>
-      <c r="AC40" s="37"/>
+      <c r="AC40" s="56"/>
       <c r="AD40" s="19"/>
       <c r="AE40" s="19"/>
       <c r="AF40" s="19"/>
       <c r="AG40" s="19"/>
       <c r="AH40" s="19"/>
       <c r="AI40" s="19"/>
-      <c r="AJ40" s="31"/>
+      <c r="AJ40" s="48"/>
       <c r="AK40" s="19"/>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A41" s="48"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="53"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="50"/>
       <c r="D41" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="51">
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="36">
         <v>0</v>
       </c>
-      <c r="K41" s="43"/>
+      <c r="K41" s="30"/>
       <c r="L41" s="20"/>
       <c r="M41" s="20"/>
       <c r="N41" s="20"/>
@@ -6575,41 +6680,41 @@
       <c r="S41" s="20"/>
       <c r="T41" s="20"/>
       <c r="U41" s="20"/>
-      <c r="V41" s="34"/>
+      <c r="V41" s="53"/>
       <c r="W41" s="20"/>
       <c r="X41" s="20"/>
       <c r="Y41" s="20"/>
       <c r="Z41" s="20"/>
       <c r="AA41" s="20"/>
       <c r="AB41" s="20"/>
-      <c r="AC41" s="37"/>
+      <c r="AC41" s="56"/>
       <c r="AD41" s="19"/>
       <c r="AE41" s="19"/>
       <c r="AF41" s="19"/>
       <c r="AG41" s="19"/>
       <c r="AH41" s="19"/>
       <c r="AI41" s="19"/>
-      <c r="AJ41" s="31"/>
+      <c r="AJ41" s="48"/>
       <c r="AK41" s="19"/>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A42" s="48"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="53" t="s">
+      <c r="A42" s="58"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="56" t="s">
+      <c r="D42" s="40" t="s">
         <v>45</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="51">
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="36">
         <v>0</v>
       </c>
-      <c r="K42" s="43"/>
+      <c r="K42" s="30"/>
       <c r="L42" s="20"/>
       <c r="M42" s="20"/>
       <c r="N42" s="20"/>
@@ -6620,39 +6725,39 @@
       <c r="S42" s="20"/>
       <c r="T42" s="20"/>
       <c r="U42" s="20"/>
-      <c r="V42" s="34"/>
+      <c r="V42" s="53"/>
       <c r="W42" s="20"/>
       <c r="X42" s="20"/>
       <c r="Y42" s="20"/>
       <c r="Z42" s="20"/>
       <c r="AA42" s="20"/>
       <c r="AB42" s="20"/>
-      <c r="AC42" s="37"/>
+      <c r="AC42" s="56"/>
       <c r="AD42" s="19"/>
       <c r="AE42" s="19"/>
       <c r="AF42" s="19"/>
       <c r="AG42" s="19"/>
       <c r="AH42" s="19"/>
       <c r="AI42" s="19"/>
-      <c r="AJ42" s="31"/>
+      <c r="AJ42" s="48"/>
       <c r="AK42" s="19"/>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A43" s="48"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="53"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="50"/>
       <c r="D43" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="51">
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="36">
         <v>0</v>
       </c>
-      <c r="K43" s="43"/>
+      <c r="K43" s="30"/>
       <c r="L43" s="20"/>
       <c r="M43" s="20"/>
       <c r="N43" s="20"/>
@@ -6663,41 +6768,41 @@
       <c r="S43" s="20"/>
       <c r="T43" s="20"/>
       <c r="U43" s="20"/>
-      <c r="V43" s="34"/>
+      <c r="V43" s="53"/>
       <c r="W43" s="20"/>
       <c r="X43" s="20"/>
       <c r="Y43" s="20"/>
       <c r="Z43" s="20"/>
       <c r="AA43" s="20"/>
       <c r="AB43" s="20"/>
-      <c r="AC43" s="37"/>
+      <c r="AC43" s="56"/>
       <c r="AD43" s="19"/>
       <c r="AE43" s="19"/>
       <c r="AF43" s="19"/>
       <c r="AG43" s="19"/>
       <c r="AH43" s="19"/>
       <c r="AI43" s="19"/>
-      <c r="AJ43" s="31"/>
+      <c r="AJ43" s="48"/>
       <c r="AK43" s="19"/>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A44" s="48"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="53" t="s">
+      <c r="A44" s="58"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="D44" s="54" t="s">
+      <c r="D44" s="38" t="s">
         <v>45</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="51">
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="36">
         <v>0</v>
       </c>
-      <c r="K44" s="43"/>
+      <c r="K44" s="30"/>
       <c r="L44" s="20"/>
       <c r="M44" s="20"/>
       <c r="N44" s="20"/>
@@ -6708,39 +6813,39 @@
       <c r="S44" s="20"/>
       <c r="T44" s="20"/>
       <c r="U44" s="20"/>
-      <c r="V44" s="34"/>
+      <c r="V44" s="53"/>
       <c r="W44" s="20"/>
       <c r="X44" s="20"/>
       <c r="Y44" s="20"/>
       <c r="Z44" s="20"/>
       <c r="AA44" s="20"/>
       <c r="AB44" s="20"/>
-      <c r="AC44" s="37"/>
+      <c r="AC44" s="56"/>
       <c r="AD44" s="19"/>
       <c r="AE44" s="19"/>
       <c r="AF44" s="19"/>
       <c r="AG44" s="19"/>
       <c r="AH44" s="19"/>
       <c r="AI44" s="19"/>
-      <c r="AJ44" s="31"/>
+      <c r="AJ44" s="48"/>
       <c r="AK44" s="19"/>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A45" s="48"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="53"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="50"/>
       <c r="D45" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="51">
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="36">
         <v>0</v>
       </c>
-      <c r="K45" s="43"/>
+      <c r="K45" s="30"/>
       <c r="L45" s="20"/>
       <c r="M45" s="20"/>
       <c r="N45" s="20"/>
@@ -6751,37 +6856,37 @@
       <c r="S45" s="20"/>
       <c r="T45" s="20"/>
       <c r="U45" s="20"/>
-      <c r="V45" s="34"/>
+      <c r="V45" s="53"/>
       <c r="W45" s="20"/>
       <c r="X45" s="20"/>
       <c r="Y45" s="20"/>
       <c r="Z45" s="20"/>
       <c r="AA45" s="20"/>
       <c r="AB45" s="20"/>
-      <c r="AC45" s="37"/>
+      <c r="AC45" s="56"/>
       <c r="AD45" s="19"/>
       <c r="AE45" s="19"/>
       <c r="AF45" s="19"/>
       <c r="AG45" s="19"/>
       <c r="AH45" s="19"/>
       <c r="AI45" s="19"/>
-      <c r="AJ45" s="31"/>
+      <c r="AJ45" s="48"/>
       <c r="AK45" s="19"/>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A46" s="48"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="53"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="50"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="51">
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="36">
         <v>0</v>
       </c>
-      <c r="K46" s="43"/>
+      <c r="K46" s="30"/>
       <c r="L46" s="20"/>
       <c r="M46" s="20"/>
       <c r="N46" s="20"/>
@@ -6792,27 +6897,27 @@
       <c r="S46" s="20"/>
       <c r="T46" s="20"/>
       <c r="U46" s="20"/>
-      <c r="V46" s="34"/>
+      <c r="V46" s="53"/>
       <c r="W46" s="20"/>
       <c r="X46" s="20"/>
       <c r="Y46" s="20"/>
       <c r="Z46" s="20"/>
       <c r="AA46" s="20"/>
       <c r="AB46" s="20"/>
-      <c r="AC46" s="37"/>
+      <c r="AC46" s="56"/>
       <c r="AD46" s="19"/>
       <c r="AE46" s="19"/>
       <c r="AF46" s="19"/>
       <c r="AG46" s="19"/>
       <c r="AH46" s="19"/>
       <c r="AI46" s="19"/>
-      <c r="AJ46" s="31"/>
+      <c r="AJ46" s="48"/>
       <c r="AK46" s="19"/>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A47" s="48"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="53" t="s">
+      <c r="A47" s="58"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="50" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -6821,12 +6926,12 @@
       <c r="E47" s="2"/>
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="51">
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="36">
         <v>0</v>
       </c>
-      <c r="K47" s="43"/>
+      <c r="K47" s="30"/>
       <c r="L47" s="20"/>
       <c r="M47" s="20"/>
       <c r="N47" s="20"/>
@@ -6837,39 +6942,39 @@
       <c r="S47" s="20"/>
       <c r="T47" s="20"/>
       <c r="U47" s="20"/>
-      <c r="V47" s="34"/>
+      <c r="V47" s="53"/>
       <c r="W47" s="20"/>
       <c r="X47" s="20"/>
       <c r="Y47" s="20"/>
       <c r="Z47" s="20"/>
       <c r="AA47" s="20"/>
       <c r="AB47" s="20"/>
-      <c r="AC47" s="37"/>
+      <c r="AC47" s="56"/>
       <c r="AD47" s="19"/>
       <c r="AE47" s="19"/>
       <c r="AF47" s="19"/>
       <c r="AG47" s="19"/>
       <c r="AH47" s="19"/>
       <c r="AI47" s="19"/>
-      <c r="AJ47" s="31"/>
+      <c r="AJ47" s="48"/>
       <c r="AK47" s="19"/>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A48" s="48"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="53"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="50"/>
       <c r="D48" s="2" t="s">
         <v>36</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="51">
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="36">
         <v>0</v>
       </c>
-      <c r="K48" s="43"/>
+      <c r="K48" s="30"/>
       <c r="L48" s="20"/>
       <c r="M48" s="20"/>
       <c r="N48" s="20"/>
@@ -6880,39 +6985,39 @@
       <c r="S48" s="20"/>
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
-      <c r="V48" s="34"/>
+      <c r="V48" s="53"/>
       <c r="W48" s="20"/>
       <c r="X48" s="20"/>
       <c r="Y48" s="20"/>
       <c r="Z48" s="20"/>
       <c r="AA48" s="20"/>
       <c r="AB48" s="20"/>
-      <c r="AC48" s="37"/>
+      <c r="AC48" s="56"/>
       <c r="AD48" s="19"/>
       <c r="AE48" s="19"/>
       <c r="AF48" s="19"/>
       <c r="AG48" s="19"/>
       <c r="AH48" s="19"/>
       <c r="AI48" s="19"/>
-      <c r="AJ48" s="31"/>
+      <c r="AJ48" s="48"/>
       <c r="AK48" s="19"/>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A49" s="48"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="53"/>
+      <c r="A49" s="58"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="50"/>
       <c r="D49" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="51">
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="36">
         <v>0</v>
       </c>
-      <c r="K49" s="43"/>
+      <c r="K49" s="30"/>
       <c r="L49" s="20"/>
       <c r="M49" s="20"/>
       <c r="N49" s="20"/>
@@ -6923,39 +7028,39 @@
       <c r="S49" s="20"/>
       <c r="T49" s="20"/>
       <c r="U49" s="20"/>
-      <c r="V49" s="34"/>
+      <c r="V49" s="53"/>
       <c r="W49" s="20"/>
       <c r="X49" s="20"/>
       <c r="Y49" s="20"/>
       <c r="Z49" s="20"/>
       <c r="AA49" s="20"/>
       <c r="AB49" s="20"/>
-      <c r="AC49" s="37"/>
+      <c r="AC49" s="56"/>
       <c r="AD49" s="19"/>
       <c r="AE49" s="19"/>
       <c r="AF49" s="19"/>
       <c r="AG49" s="19"/>
       <c r="AH49" s="19"/>
       <c r="AI49" s="19"/>
-      <c r="AJ49" s="31"/>
+      <c r="AJ49" s="48"/>
       <c r="AK49" s="19"/>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A50" s="48"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="53"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="50"/>
       <c r="D50" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
-      <c r="H50" s="50"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="51">
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="36">
         <v>0</v>
       </c>
-      <c r="K50" s="43"/>
+      <c r="K50" s="30"/>
       <c r="L50" s="20"/>
       <c r="M50" s="20"/>
       <c r="N50" s="20"/>
@@ -6966,39 +7071,39 @@
       <c r="S50" s="20"/>
       <c r="T50" s="20"/>
       <c r="U50" s="20"/>
-      <c r="V50" s="34"/>
+      <c r="V50" s="53"/>
       <c r="W50" s="20"/>
       <c r="X50" s="20"/>
       <c r="Y50" s="20"/>
       <c r="Z50" s="20"/>
       <c r="AA50" s="20"/>
       <c r="AB50" s="20"/>
-      <c r="AC50" s="37"/>
+      <c r="AC50" s="56"/>
       <c r="AD50" s="19"/>
       <c r="AE50" s="19"/>
       <c r="AF50" s="19"/>
       <c r="AG50" s="19"/>
       <c r="AH50" s="19"/>
       <c r="AI50" s="19"/>
-      <c r="AJ50" s="31"/>
+      <c r="AJ50" s="48"/>
       <c r="AK50" s="19"/>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A51" s="48"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="53"/>
+      <c r="A51" s="58"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="50"/>
       <c r="D51" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="51">
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="36">
         <v>0</v>
       </c>
-      <c r="K51" s="43"/>
+      <c r="K51" s="30"/>
       <c r="L51" s="20"/>
       <c r="M51" s="20"/>
       <c r="N51" s="20"/>
@@ -7009,45 +7114,45 @@
       <c r="S51" s="20"/>
       <c r="T51" s="20"/>
       <c r="U51" s="20"/>
-      <c r="V51" s="34"/>
+      <c r="V51" s="53"/>
       <c r="W51" s="20"/>
       <c r="X51" s="20"/>
       <c r="Y51" s="20"/>
       <c r="Z51" s="20"/>
       <c r="AA51" s="20"/>
       <c r="AB51" s="20"/>
-      <c r="AC51" s="37"/>
+      <c r="AC51" s="56"/>
       <c r="AD51" s="19"/>
       <c r="AE51" s="19"/>
       <c r="AF51" s="19"/>
       <c r="AG51" s="19"/>
       <c r="AH51" s="19"/>
       <c r="AI51" s="19"/>
-      <c r="AJ51" s="31"/>
+      <c r="AJ51" s="48"/>
       <c r="AK51" s="19"/>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A52" s="48"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="53" t="s">
-        <v>130</v>
+      <c r="A52" s="58"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="50" t="s">
+        <v>128</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="20" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G52" s="20"/>
-      <c r="H52" s="50">
+      <c r="H52" s="35">
         <v>44124</v>
       </c>
-      <c r="I52" s="50"/>
-      <c r="J52" s="51">
+      <c r="I52" s="35"/>
+      <c r="J52" s="36">
         <v>0</v>
       </c>
-      <c r="K52" s="43"/>
+      <c r="K52" s="30"/>
       <c r="L52" s="20"/>
       <c r="M52" s="20"/>
       <c r="N52" s="20"/>
@@ -7058,43 +7163,43 @@
       <c r="S52" s="20"/>
       <c r="T52" s="20"/>
       <c r="U52" s="20"/>
-      <c r="V52" s="34"/>
+      <c r="V52" s="53"/>
       <c r="W52" s="20"/>
       <c r="X52" s="20"/>
       <c r="Y52" s="20"/>
       <c r="Z52" s="20"/>
       <c r="AA52" s="20"/>
       <c r="AB52" s="20"/>
-      <c r="AC52" s="37"/>
+      <c r="AC52" s="56"/>
       <c r="AD52" s="19"/>
       <c r="AE52" s="19"/>
       <c r="AF52" s="19"/>
       <c r="AG52" s="19"/>
       <c r="AH52" s="19"/>
       <c r="AI52" s="19"/>
-      <c r="AJ52" s="31"/>
+      <c r="AJ52" s="48"/>
       <c r="AK52" s="19"/>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A53" s="48"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="53"/>
+      <c r="A53" s="58"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="50"/>
       <c r="D53" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G53" s="20"/>
-      <c r="H53" s="50">
+      <c r="H53" s="35">
         <v>44124</v>
       </c>
-      <c r="I53" s="50"/>
-      <c r="J53" s="51">
+      <c r="I53" s="35"/>
+      <c r="J53" s="36">
         <v>0</v>
       </c>
-      <c r="K53" s="43"/>
+      <c r="K53" s="30"/>
       <c r="L53" s="20"/>
       <c r="M53" s="20"/>
       <c r="N53" s="20"/>
@@ -7105,41 +7210,41 @@
       <c r="S53" s="20"/>
       <c r="T53" s="20"/>
       <c r="U53" s="20"/>
-      <c r="V53" s="34"/>
+      <c r="V53" s="53"/>
       <c r="W53" s="20"/>
       <c r="X53" s="20"/>
       <c r="Y53" s="20"/>
       <c r="Z53" s="20"/>
       <c r="AA53" s="20"/>
       <c r="AB53" s="20"/>
-      <c r="AC53" s="37"/>
+      <c r="AC53" s="56"/>
       <c r="AD53" s="19"/>
       <c r="AE53" s="19"/>
       <c r="AF53" s="19"/>
       <c r="AG53" s="19"/>
       <c r="AH53" s="19"/>
       <c r="AI53" s="19"/>
-      <c r="AJ53" s="31"/>
+      <c r="AJ53" s="48"/>
       <c r="AK53" s="19"/>
     </row>
     <row r="54" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="48"/>
-      <c r="B54" s="52"/>
+      <c r="A54" s="58"/>
+      <c r="B54" s="51"/>
       <c r="C54" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D54" s="57" t="s">
+      <c r="D54" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="E54" s="57"/>
+      <c r="E54" s="41"/>
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="59">
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="43">
         <v>0</v>
       </c>
-      <c r="K54" s="44"/>
+      <c r="K54" s="31"/>
       <c r="L54" s="21"/>
       <c r="M54" s="21"/>
       <c r="N54" s="21"/>
@@ -7150,53 +7255,53 @@
       <c r="S54" s="21"/>
       <c r="T54" s="21"/>
       <c r="U54" s="21"/>
-      <c r="V54" s="34"/>
+      <c r="V54" s="53"/>
       <c r="W54" s="21"/>
       <c r="X54" s="21"/>
       <c r="Y54" s="21"/>
       <c r="Z54" s="21"/>
       <c r="AA54" s="21"/>
       <c r="AB54" s="21"/>
-      <c r="AC54" s="37"/>
+      <c r="AC54" s="56"/>
       <c r="AD54" s="19"/>
       <c r="AE54" s="19"/>
       <c r="AF54" s="19"/>
       <c r="AG54" s="19"/>
       <c r="AH54" s="19"/>
       <c r="AI54" s="19"/>
-      <c r="AJ54" s="31"/>
+      <c r="AJ54" s="48"/>
       <c r="AK54" s="19"/>
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A55" s="48"/>
+      <c r="A55" s="58"/>
       <c r="B55" s="60" t="s">
-        <v>129</v>
-      </c>
-      <c r="C55" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="D55" s="53" t="s">
+      <c r="D55" s="50" t="s">
         <v>29</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F55" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G55" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="H55" s="50">
+        <v>121</v>
+      </c>
+      <c r="H55" s="35">
         <v>44124</v>
       </c>
-      <c r="I55" s="50">
+      <c r="I55" s="35">
         <v>44124</v>
       </c>
-      <c r="J55" s="51">
+      <c r="J55" s="36">
         <v>1</v>
       </c>
-      <c r="K55" s="43"/>
+      <c r="K55" s="30"/>
       <c r="L55" s="20"/>
       <c r="M55" s="20"/>
       <c r="N55" s="20"/>
@@ -7207,47 +7312,47 @@
       <c r="S55" s="20"/>
       <c r="T55" s="20"/>
       <c r="U55" s="20"/>
-      <c r="V55" s="34"/>
+      <c r="V55" s="53"/>
       <c r="W55" s="20"/>
       <c r="X55" s="20"/>
       <c r="Y55" s="20"/>
       <c r="Z55" s="20"/>
       <c r="AA55" s="20"/>
       <c r="AB55" s="20"/>
-      <c r="AC55" s="37"/>
+      <c r="AC55" s="56"/>
       <c r="AD55" s="19"/>
       <c r="AE55" s="19"/>
       <c r="AF55" s="19"/>
       <c r="AG55" s="19"/>
       <c r="AH55" s="19"/>
       <c r="AI55" s="19"/>
-      <c r="AJ55" s="31"/>
+      <c r="AJ55" s="48"/>
       <c r="AK55" s="19"/>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A56" s="48"/>
+      <c r="A56" s="58"/>
       <c r="B56" s="60"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
       <c r="E56" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G56" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="F56" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="G56" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="H56" s="50">
+      <c r="H56" s="35">
         <v>44124</v>
       </c>
-      <c r="I56" s="50">
+      <c r="I56" s="35">
         <v>44125</v>
       </c>
-      <c r="J56" s="51">
+      <c r="J56" s="36">
         <v>0.25</v>
       </c>
-      <c r="K56" s="43"/>
+      <c r="K56" s="30"/>
       <c r="L56" s="20"/>
       <c r="M56" s="20"/>
       <c r="N56" s="20"/>
@@ -7258,43 +7363,43 @@
       <c r="S56" s="20"/>
       <c r="T56" s="20"/>
       <c r="U56" s="20"/>
-      <c r="V56" s="34"/>
+      <c r="V56" s="53"/>
       <c r="W56" s="20"/>
       <c r="X56" s="20"/>
       <c r="Y56" s="20"/>
       <c r="Z56" s="20"/>
       <c r="AA56" s="20"/>
       <c r="AB56" s="20"/>
-      <c r="AC56" s="37"/>
+      <c r="AC56" s="56"/>
       <c r="AD56" s="19"/>
       <c r="AE56" s="19"/>
       <c r="AF56" s="19"/>
       <c r="AG56" s="19"/>
       <c r="AH56" s="19"/>
       <c r="AI56" s="19"/>
-      <c r="AJ56" s="31"/>
+      <c r="AJ56" s="48"/>
       <c r="AK56" s="19"/>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A57" s="48"/>
+      <c r="A57" s="58"/>
       <c r="B57" s="60"/>
-      <c r="C57" s="53" t="s">
+      <c r="C57" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="53" t="s">
+      <c r="D57" s="50" t="s">
         <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F57" s="20"/>
       <c r="G57" s="20"/>
-      <c r="H57" s="50"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="51">
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="36">
         <v>0</v>
       </c>
-      <c r="K57" s="43"/>
+      <c r="K57" s="30"/>
       <c r="L57" s="20"/>
       <c r="M57" s="20"/>
       <c r="N57" s="20"/>
@@ -7305,39 +7410,39 @@
       <c r="S57" s="20"/>
       <c r="T57" s="20"/>
       <c r="U57" s="20"/>
-      <c r="V57" s="34"/>
+      <c r="V57" s="53"/>
       <c r="W57" s="20"/>
       <c r="X57" s="20"/>
       <c r="Y57" s="20"/>
       <c r="Z57" s="20"/>
       <c r="AA57" s="20"/>
       <c r="AB57" s="20"/>
-      <c r="AC57" s="37"/>
+      <c r="AC57" s="56"/>
       <c r="AD57" s="19"/>
       <c r="AE57" s="19"/>
       <c r="AF57" s="19"/>
       <c r="AG57" s="19"/>
       <c r="AH57" s="19"/>
       <c r="AI57" s="19"/>
-      <c r="AJ57" s="31"/>
+      <c r="AJ57" s="48"/>
       <c r="AK57" s="19"/>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A58" s="48"/>
+      <c r="A58" s="58"/>
       <c r="B58" s="60"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
       <c r="E58" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F58" s="20"/>
       <c r="G58" s="20"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="51">
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="36">
         <v>0</v>
       </c>
-      <c r="K58" s="43"/>
+      <c r="K58" s="30"/>
       <c r="L58" s="20"/>
       <c r="M58" s="20"/>
       <c r="N58" s="20"/>
@@ -7348,39 +7453,39 @@
       <c r="S58" s="20"/>
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
-      <c r="V58" s="34"/>
+      <c r="V58" s="53"/>
       <c r="W58" s="20"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="20"/>
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
-      <c r="AC58" s="37"/>
+      <c r="AC58" s="56"/>
       <c r="AD58" s="19"/>
       <c r="AE58" s="19"/>
       <c r="AF58" s="19"/>
       <c r="AG58" s="19"/>
       <c r="AH58" s="19"/>
       <c r="AI58" s="19"/>
-      <c r="AJ58" s="31"/>
+      <c r="AJ58" s="48"/>
       <c r="AK58" s="19"/>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A59" s="48"/>
+      <c r="A59" s="58"/>
       <c r="B59" s="60"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
       <c r="E59" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F59" s="20"/>
       <c r="G59" s="20"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="51">
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="36">
         <v>0</v>
       </c>
-      <c r="K59" s="43"/>
+      <c r="K59" s="30"/>
       <c r="L59" s="20"/>
       <c r="M59" s="20"/>
       <c r="N59" s="20"/>
@@ -7391,39 +7496,39 @@
       <c r="S59" s="20"/>
       <c r="T59" s="20"/>
       <c r="U59" s="20"/>
-      <c r="V59" s="34"/>
+      <c r="V59" s="53"/>
       <c r="W59" s="20"/>
       <c r="X59" s="20"/>
       <c r="Y59" s="20"/>
       <c r="Z59" s="20"/>
       <c r="AA59" s="20"/>
       <c r="AB59" s="20"/>
-      <c r="AC59" s="37"/>
+      <c r="AC59" s="56"/>
       <c r="AD59" s="19"/>
       <c r="AE59" s="19"/>
       <c r="AF59" s="19"/>
       <c r="AG59" s="19"/>
       <c r="AH59" s="19"/>
       <c r="AI59" s="19"/>
-      <c r="AJ59" s="31"/>
+      <c r="AJ59" s="48"/>
       <c r="AK59" s="19"/>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A60" s="48"/>
+      <c r="A60" s="58"/>
       <c r="B60" s="60"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
       <c r="E60" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F60" s="20"/>
       <c r="G60" s="20"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="51">
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="36">
         <v>0</v>
       </c>
-      <c r="K60" s="43"/>
+      <c r="K60" s="30"/>
       <c r="L60" s="20"/>
       <c r="M60" s="20"/>
       <c r="N60" s="20"/>
@@ -7434,39 +7539,39 @@
       <c r="S60" s="20"/>
       <c r="T60" s="20"/>
       <c r="U60" s="20"/>
-      <c r="V60" s="34"/>
+      <c r="V60" s="53"/>
       <c r="W60" s="20"/>
       <c r="X60" s="20"/>
       <c r="Y60" s="20"/>
       <c r="Z60" s="20"/>
       <c r="AA60" s="20"/>
       <c r="AB60" s="20"/>
-      <c r="AC60" s="37"/>
+      <c r="AC60" s="56"/>
       <c r="AD60" s="19"/>
       <c r="AE60" s="19"/>
       <c r="AF60" s="19"/>
       <c r="AG60" s="19"/>
       <c r="AH60" s="19"/>
       <c r="AI60" s="19"/>
-      <c r="AJ60" s="31"/>
+      <c r="AJ60" s="48"/>
       <c r="AK60" s="19"/>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A61" s="48"/>
+      <c r="A61" s="58"/>
       <c r="B61" s="60"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
       <c r="E61" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="20"/>
-      <c r="H61" s="50"/>
-      <c r="I61" s="50"/>
-      <c r="J61" s="51">
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="36">
         <v>0</v>
       </c>
-      <c r="K61" s="43"/>
+      <c r="K61" s="30"/>
       <c r="L61" s="20"/>
       <c r="M61" s="20"/>
       <c r="N61" s="20"/>
@@ -7477,41 +7582,41 @@
       <c r="S61" s="20"/>
       <c r="T61" s="20"/>
       <c r="U61" s="20"/>
-      <c r="V61" s="34"/>
+      <c r="V61" s="53"/>
       <c r="W61" s="20"/>
       <c r="X61" s="20"/>
       <c r="Y61" s="20"/>
       <c r="Z61" s="20"/>
       <c r="AA61" s="20"/>
       <c r="AB61" s="20"/>
-      <c r="AC61" s="37"/>
+      <c r="AC61" s="56"/>
       <c r="AD61" s="19"/>
       <c r="AE61" s="19"/>
       <c r="AF61" s="19"/>
       <c r="AG61" s="19"/>
       <c r="AH61" s="19"/>
       <c r="AI61" s="19"/>
-      <c r="AJ61" s="31"/>
+      <c r="AJ61" s="48"/>
       <c r="AK61" s="19"/>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A62" s="48"/>
+      <c r="A62" s="58"/>
       <c r="B62" s="60"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="53" t="s">
+      <c r="C62" s="50"/>
+      <c r="D62" s="50" t="s">
         <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F62" s="20"/>
       <c r="G62" s="20"/>
-      <c r="H62" s="50"/>
-      <c r="I62" s="50"/>
-      <c r="J62" s="51">
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="36">
         <v>0</v>
       </c>
-      <c r="K62" s="43"/>
+      <c r="K62" s="30"/>
       <c r="L62" s="20"/>
       <c r="M62" s="20"/>
       <c r="N62" s="20"/>
@@ -7522,39 +7627,39 @@
       <c r="S62" s="20"/>
       <c r="T62" s="20"/>
       <c r="U62" s="20"/>
-      <c r="V62" s="34"/>
+      <c r="V62" s="53"/>
       <c r="W62" s="20"/>
       <c r="X62" s="20"/>
       <c r="Y62" s="20"/>
       <c r="Z62" s="20"/>
       <c r="AA62" s="20"/>
       <c r="AB62" s="20"/>
-      <c r="AC62" s="37"/>
+      <c r="AC62" s="56"/>
       <c r="AD62" s="19"/>
       <c r="AE62" s="19"/>
       <c r="AF62" s="19"/>
       <c r="AG62" s="19"/>
       <c r="AH62" s="19"/>
       <c r="AI62" s="19"/>
-      <c r="AJ62" s="31"/>
+      <c r="AJ62" s="48"/>
       <c r="AK62" s="19"/>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A63" s="48"/>
+      <c r="A63" s="58"/>
       <c r="B63" s="60"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="53"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
       <c r="E63" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F63" s="20"/>
       <c r="G63" s="20"/>
-      <c r="H63" s="50"/>
-      <c r="I63" s="50"/>
-      <c r="J63" s="51">
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="36">
         <v>0</v>
       </c>
-      <c r="K63" s="43"/>
+      <c r="K63" s="30"/>
       <c r="L63" s="20"/>
       <c r="M63" s="20"/>
       <c r="N63" s="20"/>
@@ -7565,49 +7670,49 @@
       <c r="S63" s="20"/>
       <c r="T63" s="20"/>
       <c r="U63" s="20"/>
-      <c r="V63" s="34"/>
+      <c r="V63" s="53"/>
       <c r="W63" s="20"/>
       <c r="X63" s="20"/>
       <c r="Y63" s="20"/>
       <c r="Z63" s="20"/>
       <c r="AA63" s="20"/>
       <c r="AB63" s="20"/>
-      <c r="AC63" s="37"/>
+      <c r="AC63" s="56"/>
       <c r="AD63" s="19"/>
       <c r="AE63" s="19"/>
       <c r="AF63" s="19"/>
       <c r="AG63" s="19"/>
       <c r="AH63" s="19"/>
       <c r="AI63" s="19"/>
-      <c r="AJ63" s="31"/>
+      <c r="AJ63" s="48"/>
       <c r="AK63" s="19"/>
     </row>
     <row r="64" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="48"/>
+      <c r="A64" s="58"/>
       <c r="B64" s="60"/>
-      <c r="C64" s="53" t="s">
+      <c r="C64" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="D64" s="53" t="s">
+      <c r="D64" s="50" t="s">
         <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F64" s="20" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="G64" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="H64" s="50">
-        <v>44125</v>
-      </c>
-      <c r="I64" s="50"/>
-      <c r="J64" s="51">
+        <v>167</v>
+      </c>
+      <c r="H64" s="35">
+        <v>44126</v>
+      </c>
+      <c r="I64" s="35"/>
+      <c r="J64" s="36">
         <v>0</v>
       </c>
-      <c r="K64" s="43"/>
+      <c r="K64" s="30"/>
       <c r="L64" s="20"/>
       <c r="M64" s="20"/>
       <c r="N64" s="20"/>
@@ -7618,39 +7723,45 @@
       <c r="S64" s="20"/>
       <c r="T64" s="20"/>
       <c r="U64" s="20"/>
-      <c r="V64" s="34"/>
+      <c r="V64" s="53"/>
       <c r="W64" s="20"/>
       <c r="X64" s="20"/>
       <c r="Y64" s="20"/>
       <c r="Z64" s="20"/>
       <c r="AA64" s="20"/>
       <c r="AB64" s="20"/>
-      <c r="AC64" s="37"/>
+      <c r="AC64" s="56"/>
       <c r="AD64" s="19"/>
       <c r="AE64" s="19"/>
       <c r="AF64" s="19"/>
       <c r="AG64" s="19"/>
       <c r="AH64" s="19"/>
       <c r="AI64" s="19"/>
-      <c r="AJ64" s="31"/>
+      <c r="AJ64" s="48"/>
       <c r="AK64" s="19"/>
     </row>
     <row r="65" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="48"/>
+      <c r="A65" s="58"/>
       <c r="B65" s="60"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="53"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
       <c r="E65" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="50"/>
-      <c r="I65" s="50"/>
-      <c r="J65" s="51">
+        <v>137</v>
+      </c>
+      <c r="F65" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G65" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H65" s="35">
+        <v>44126</v>
+      </c>
+      <c r="I65" s="35"/>
+      <c r="J65" s="36">
         <v>0</v>
       </c>
-      <c r="K65" s="43"/>
+      <c r="K65" s="30"/>
       <c r="L65" s="20"/>
       <c r="M65" s="20"/>
       <c r="N65" s="20"/>
@@ -7661,39 +7772,39 @@
       <c r="S65" s="20"/>
       <c r="T65" s="20"/>
       <c r="U65" s="20"/>
-      <c r="V65" s="34"/>
+      <c r="V65" s="53"/>
       <c r="W65" s="20"/>
       <c r="X65" s="20"/>
       <c r="Y65" s="20"/>
       <c r="Z65" s="20"/>
       <c r="AA65" s="20"/>
       <c r="AB65" s="20"/>
-      <c r="AC65" s="37"/>
+      <c r="AC65" s="56"/>
       <c r="AD65" s="19"/>
       <c r="AE65" s="19"/>
       <c r="AF65" s="19"/>
       <c r="AG65" s="19"/>
       <c r="AH65" s="19"/>
       <c r="AI65" s="19"/>
-      <c r="AJ65" s="31"/>
+      <c r="AJ65" s="48"/>
       <c r="AK65" s="19"/>
     </row>
     <row r="66" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="48"/>
+      <c r="A66" s="58"/>
       <c r="B66" s="60"/>
-      <c r="C66" s="53"/>
+      <c r="C66" s="50"/>
       <c r="D66" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="20"/>
       <c r="G66" s="20"/>
-      <c r="H66" s="50"/>
-      <c r="I66" s="50"/>
-      <c r="J66" s="51">
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="36">
         <v>0</v>
       </c>
-      <c r="K66" s="43"/>
+      <c r="K66" s="30"/>
       <c r="L66" s="20"/>
       <c r="M66" s="20"/>
       <c r="N66" s="20"/>
@@ -7704,25 +7815,25 @@
       <c r="S66" s="20"/>
       <c r="T66" s="20"/>
       <c r="U66" s="20"/>
-      <c r="V66" s="34"/>
+      <c r="V66" s="53"/>
       <c r="W66" s="20"/>
       <c r="X66" s="20"/>
       <c r="Y66" s="20"/>
       <c r="Z66" s="20"/>
       <c r="AA66" s="20"/>
       <c r="AB66" s="20"/>
-      <c r="AC66" s="37"/>
+      <c r="AC66" s="56"/>
       <c r="AD66" s="19"/>
       <c r="AE66" s="19"/>
       <c r="AF66" s="19"/>
       <c r="AG66" s="19"/>
       <c r="AH66" s="19"/>
       <c r="AI66" s="19"/>
-      <c r="AJ66" s="31"/>
+      <c r="AJ66" s="48"/>
       <c r="AK66" s="19"/>
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A67" s="48"/>
+      <c r="A67" s="58"/>
       <c r="B67" s="60"/>
       <c r="C67" s="20" t="s">
         <v>96</v>
@@ -7731,12 +7842,12 @@
       <c r="E67" s="2"/>
       <c r="F67" s="20"/>
       <c r="G67" s="20"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="50"/>
-      <c r="J67" s="51">
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="36">
         <v>0</v>
       </c>
-      <c r="K67" s="43"/>
+      <c r="K67" s="30"/>
       <c r="L67" s="20"/>
       <c r="M67" s="20"/>
       <c r="N67" s="20"/>
@@ -7747,39 +7858,41 @@
       <c r="S67" s="20"/>
       <c r="T67" s="20"/>
       <c r="U67" s="20"/>
-      <c r="V67" s="34"/>
+      <c r="V67" s="53"/>
       <c r="W67" s="20"/>
       <c r="X67" s="20"/>
       <c r="Y67" s="20"/>
       <c r="Z67" s="20"/>
       <c r="AA67" s="20"/>
       <c r="AB67" s="20"/>
-      <c r="AC67" s="37"/>
+      <c r="AC67" s="56"/>
       <c r="AD67" s="19"/>
       <c r="AE67" s="19"/>
       <c r="AF67" s="19"/>
       <c r="AG67" s="19"/>
       <c r="AH67" s="19"/>
       <c r="AI67" s="19"/>
-      <c r="AJ67" s="31"/>
+      <c r="AJ67" s="48"/>
       <c r="AK67" s="19"/>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A68" s="48"/>
+      <c r="A68" s="58"/>
       <c r="B68" s="60"/>
       <c r="C68" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D68" s="2"/>
+      <c r="D68" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="E68" s="2"/>
       <c r="F68" s="20"/>
       <c r="G68" s="20"/>
-      <c r="H68" s="50"/>
-      <c r="I68" s="50"/>
-      <c r="J68" s="51">
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="36">
         <v>0</v>
       </c>
-      <c r="K68" s="43"/>
+      <c r="K68" s="30"/>
       <c r="L68" s="20"/>
       <c r="M68" s="20"/>
       <c r="N68" s="20"/>
@@ -7790,49 +7903,49 @@
       <c r="S68" s="20"/>
       <c r="T68" s="20"/>
       <c r="U68" s="20"/>
-      <c r="V68" s="34"/>
+      <c r="V68" s="53"/>
       <c r="W68" s="20"/>
       <c r="X68" s="20"/>
       <c r="Y68" s="20"/>
       <c r="Z68" s="20"/>
       <c r="AA68" s="20"/>
       <c r="AB68" s="20"/>
-      <c r="AC68" s="37"/>
+      <c r="AC68" s="56"/>
       <c r="AD68" s="19"/>
       <c r="AE68" s="19"/>
       <c r="AF68" s="19"/>
       <c r="AG68" s="19"/>
       <c r="AH68" s="19"/>
       <c r="AI68" s="19"/>
-      <c r="AJ68" s="31"/>
+      <c r="AJ68" s="48"/>
       <c r="AK68" s="19"/>
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A69" s="48"/>
+      <c r="A69" s="58"/>
       <c r="B69" s="60"/>
-      <c r="C69" s="53" t="s">
+      <c r="C69" s="50" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="H69" s="50">
+        <v>135</v>
+      </c>
+      <c r="H69" s="35">
         <v>44124</v>
       </c>
-      <c r="I69" s="50">
+      <c r="I69" s="35">
         <v>44124</v>
       </c>
-      <c r="J69" s="51">
+      <c r="J69" s="36">
         <v>1</v>
       </c>
-      <c r="K69" s="43"/>
+      <c r="K69" s="30"/>
       <c r="L69" s="20"/>
       <c r="M69" s="20"/>
       <c r="N69" s="20"/>
@@ -7843,47 +7956,47 @@
       <c r="S69" s="20"/>
       <c r="T69" s="20"/>
       <c r="U69" s="20"/>
-      <c r="V69" s="34"/>
+      <c r="V69" s="53"/>
       <c r="W69" s="20"/>
       <c r="X69" s="20"/>
       <c r="Y69" s="20"/>
       <c r="Z69" s="20"/>
       <c r="AA69" s="20"/>
       <c r="AB69" s="20"/>
-      <c r="AC69" s="37"/>
+      <c r="AC69" s="56"/>
       <c r="AD69" s="19"/>
       <c r="AE69" s="19"/>
       <c r="AF69" s="19"/>
       <c r="AG69" s="19"/>
       <c r="AH69" s="19"/>
       <c r="AI69" s="19"/>
-      <c r="AJ69" s="31"/>
+      <c r="AJ69" s="48"/>
       <c r="AK69" s="19"/>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A70" s="48"/>
+      <c r="A70" s="58"/>
       <c r="B70" s="60"/>
-      <c r="C70" s="53"/>
+      <c r="C70" s="50"/>
       <c r="D70" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="H70" s="50">
+        <v>135</v>
+      </c>
+      <c r="H70" s="35">
         <v>44124</v>
       </c>
-      <c r="I70" s="50">
+      <c r="I70" s="35">
         <v>44124</v>
       </c>
-      <c r="J70" s="51">
+      <c r="J70" s="36">
         <v>1</v>
       </c>
-      <c r="K70" s="43"/>
+      <c r="K70" s="30"/>
       <c r="L70" s="20"/>
       <c r="M70" s="20"/>
       <c r="N70" s="20"/>
@@ -7894,27 +8007,27 @@
       <c r="S70" s="20"/>
       <c r="T70" s="20"/>
       <c r="U70" s="20"/>
-      <c r="V70" s="34"/>
+      <c r="V70" s="53"/>
       <c r="W70" s="20"/>
       <c r="X70" s="20"/>
       <c r="Y70" s="20"/>
       <c r="Z70" s="20"/>
       <c r="AA70" s="20"/>
       <c r="AB70" s="20"/>
-      <c r="AC70" s="37"/>
+      <c r="AC70" s="56"/>
       <c r="AD70" s="19"/>
       <c r="AE70" s="19"/>
       <c r="AF70" s="19"/>
       <c r="AG70" s="19"/>
       <c r="AH70" s="19"/>
       <c r="AI70" s="19"/>
-      <c r="AJ70" s="31"/>
+      <c r="AJ70" s="48"/>
       <c r="AK70" s="19"/>
     </row>
     <row r="71" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="48"/>
+      <c r="A71" s="58"/>
       <c r="B71" s="60"/>
-      <c r="C71" s="53" t="s">
+      <c r="C71" s="65" t="s">
         <v>106</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -7922,19 +8035,21 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="H71" s="50">
+        <v>147</v>
+      </c>
+      <c r="H71" s="35">
         <v>44125</v>
       </c>
-      <c r="I71" s="50"/>
-      <c r="J71" s="51">
-        <v>0</v>
-      </c>
-      <c r="K71" s="43"/>
+      <c r="I71" s="35">
+        <v>44126</v>
+      </c>
+      <c r="J71" s="36">
+        <v>1</v>
+      </c>
+      <c r="K71" s="30"/>
       <c r="L71" s="20"/>
       <c r="M71" s="20"/>
       <c r="N71" s="20"/>
@@ -7945,39 +8060,45 @@
       <c r="S71" s="20"/>
       <c r="T71" s="20"/>
       <c r="U71" s="20"/>
-      <c r="V71" s="34"/>
+      <c r="V71" s="53"/>
       <c r="W71" s="20"/>
       <c r="X71" s="20"/>
       <c r="Y71" s="20"/>
       <c r="Z71" s="20"/>
       <c r="AA71" s="20"/>
       <c r="AB71" s="20"/>
-      <c r="AC71" s="37"/>
+      <c r="AC71" s="56"/>
       <c r="AD71" s="19"/>
       <c r="AE71" s="19"/>
       <c r="AF71" s="19"/>
       <c r="AG71" s="19"/>
       <c r="AH71" s="19"/>
       <c r="AI71" s="19"/>
-      <c r="AJ71" s="31"/>
+      <c r="AJ71" s="48"/>
       <c r="AK71" s="19"/>
     </row>
     <row r="72" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="48"/>
+      <c r="A72" s="58"/>
       <c r="B72" s="60"/>
-      <c r="C72" s="53"/>
+      <c r="C72" s="66"/>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>164</v>
       </c>
       <c r="E72" s="2"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="50"/>
-      <c r="I72" s="50"/>
-      <c r="J72" s="51">
+      <c r="F72" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G72" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H72" s="35">
+        <v>44126</v>
+      </c>
+      <c r="I72" s="35"/>
+      <c r="J72" s="36">
         <v>0</v>
       </c>
-      <c r="K72" s="43"/>
+      <c r="K72" s="30"/>
       <c r="L72" s="20"/>
       <c r="M72" s="20"/>
       <c r="N72" s="20"/>
@@ -7988,92 +8109,90 @@
       <c r="S72" s="20"/>
       <c r="T72" s="20"/>
       <c r="U72" s="20"/>
-      <c r="V72" s="34"/>
+      <c r="V72" s="53"/>
       <c r="W72" s="20"/>
       <c r="X72" s="20"/>
       <c r="Y72" s="20"/>
       <c r="Z72" s="20"/>
       <c r="AA72" s="20"/>
       <c r="AB72" s="20"/>
-      <c r="AC72" s="37"/>
+      <c r="AC72" s="56"/>
       <c r="AD72" s="19"/>
       <c r="AE72" s="19"/>
       <c r="AF72" s="19"/>
       <c r="AG72" s="19"/>
       <c r="AH72" s="19"/>
       <c r="AI72" s="19"/>
-      <c r="AJ72" s="31"/>
+      <c r="AJ72" s="48"/>
       <c r="AK72" s="19"/>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A73" s="48"/>
+    <row r="73" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="58"/>
       <c r="B73" s="60"/>
-      <c r="C73" s="53" t="s">
-        <v>30</v>
-      </c>
+      <c r="C73" s="67"/>
       <c r="D73" s="2" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c r="E73" s="2"/>
-      <c r="F73" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="G73" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="H73" s="50">
-        <v>44123</v>
-      </c>
-      <c r="I73" s="50">
-        <v>44123</v>
-      </c>
-      <c r="J73" s="51">
-        <v>1</v>
-      </c>
-      <c r="K73" s="43"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="20"/>
-      <c r="N73" s="20"/>
-      <c r="O73" s="20"/>
-      <c r="P73" s="20"/>
-      <c r="Q73" s="20"/>
-      <c r="R73" s="20"/>
-      <c r="S73" s="20"/>
-      <c r="T73" s="20"/>
-      <c r="U73" s="20"/>
-      <c r="V73" s="34"/>
-      <c r="W73" s="20"/>
-      <c r="X73" s="20"/>
-      <c r="Y73" s="20"/>
-      <c r="Z73" s="20"/>
-      <c r="AA73" s="20"/>
-      <c r="AB73" s="20"/>
-      <c r="AC73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="37"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="37"/>
+      <c r="R73" s="37"/>
+      <c r="S73" s="37"/>
+      <c r="T73" s="37"/>
+      <c r="U73" s="37"/>
+      <c r="V73" s="53"/>
+      <c r="W73" s="37"/>
+      <c r="X73" s="37"/>
+      <c r="Y73" s="37"/>
+      <c r="Z73" s="37"/>
+      <c r="AA73" s="37"/>
+      <c r="AB73" s="37"/>
+      <c r="AC73" s="56"/>
       <c r="AD73" s="19"/>
       <c r="AE73" s="19"/>
       <c r="AF73" s="19"/>
       <c r="AG73" s="19"/>
       <c r="AH73" s="19"/>
       <c r="AI73" s="19"/>
-      <c r="AJ73" s="31"/>
+      <c r="AJ73" s="48"/>
       <c r="AK73" s="19"/>
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A74" s="48"/>
+      <c r="A74" s="58"/>
       <c r="B74" s="60"/>
-      <c r="C74" s="53"/>
+      <c r="C74" s="50" t="s">
+        <v>30</v>
+      </c>
       <c r="D74" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E74" s="2"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="50"/>
-      <c r="I74" s="50"/>
-      <c r="J74" s="51">
-        <v>0</v>
-      </c>
-      <c r="K74" s="43"/>
+      <c r="F74" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G74" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="H74" s="35">
+        <v>44123</v>
+      </c>
+      <c r="I74" s="35">
+        <v>44123</v>
+      </c>
+      <c r="J74" s="36">
+        <v>1</v>
+      </c>
+      <c r="K74" s="30"/>
       <c r="L74" s="20"/>
       <c r="M74" s="20"/>
       <c r="N74" s="20"/>
@@ -8084,39 +8203,39 @@
       <c r="S74" s="20"/>
       <c r="T74" s="20"/>
       <c r="U74" s="20"/>
-      <c r="V74" s="34"/>
+      <c r="V74" s="53"/>
       <c r="W74" s="20"/>
       <c r="X74" s="20"/>
       <c r="Y74" s="20"/>
       <c r="Z74" s="20"/>
       <c r="AA74" s="20"/>
       <c r="AB74" s="20"/>
-      <c r="AC74" s="37"/>
+      <c r="AC74" s="56"/>
       <c r="AD74" s="19"/>
       <c r="AE74" s="19"/>
       <c r="AF74" s="19"/>
       <c r="AG74" s="19"/>
       <c r="AH74" s="19"/>
       <c r="AI74" s="19"/>
-      <c r="AJ74" s="31"/>
+      <c r="AJ74" s="48"/>
       <c r="AK74" s="19"/>
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A75" s="48"/>
+      <c r="A75" s="58"/>
       <c r="B75" s="60"/>
-      <c r="C75" s="53"/>
+      <c r="C75" s="50"/>
       <c r="D75" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="20"/>
       <c r="G75" s="20"/>
-      <c r="H75" s="50"/>
-      <c r="I75" s="50"/>
-      <c r="J75" s="51">
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="36">
         <v>0</v>
       </c>
-      <c r="K75" s="43"/>
+      <c r="K75" s="30"/>
       <c r="L75" s="20"/>
       <c r="M75" s="20"/>
       <c r="N75" s="20"/>
@@ -8127,53 +8246,108 @@
       <c r="S75" s="20"/>
       <c r="T75" s="20"/>
       <c r="U75" s="20"/>
-      <c r="V75" s="35"/>
+      <c r="V75" s="53"/>
       <c r="W75" s="20"/>
       <c r="X75" s="20"/>
       <c r="Y75" s="20"/>
       <c r="Z75" s="20"/>
       <c r="AA75" s="20"/>
       <c r="AB75" s="20"/>
-      <c r="AC75" s="38"/>
+      <c r="AC75" s="56"/>
       <c r="AD75" s="19"/>
       <c r="AE75" s="19"/>
       <c r="AF75" s="19"/>
       <c r="AG75" s="19"/>
       <c r="AH75" s="19"/>
       <c r="AI75" s="19"/>
-      <c r="AJ75" s="32"/>
+      <c r="AJ75" s="48"/>
       <c r="AK75" s="19"/>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A76" s="48"/>
-      <c r="B76" s="61" t="s">
+      <c r="A76" s="58"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="36">
+        <v>0</v>
+      </c>
+      <c r="K76" s="30"/>
+      <c r="L76" s="20"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="20"/>
+      <c r="O76" s="20"/>
+      <c r="P76" s="20"/>
+      <c r="Q76" s="20"/>
+      <c r="R76" s="20"/>
+      <c r="S76" s="20"/>
+      <c r="T76" s="20"/>
+      <c r="U76" s="20"/>
+      <c r="V76" s="54"/>
+      <c r="W76" s="20"/>
+      <c r="X76" s="20"/>
+      <c r="Y76" s="20"/>
+      <c r="Z76" s="20"/>
+      <c r="AA76" s="20"/>
+      <c r="AB76" s="20"/>
+      <c r="AC76" s="57"/>
+      <c r="AD76" s="19"/>
+      <c r="AE76" s="19"/>
+      <c r="AF76" s="19"/>
+      <c r="AG76" s="19"/>
+      <c r="AH76" s="19"/>
+      <c r="AI76" s="19"/>
+      <c r="AJ76" s="49"/>
+      <c r="AK76" s="19"/>
+    </row>
+    <row r="77" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A77" s="58"/>
+      <c r="B77" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C77" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="20" t="s">
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="G76" s="20"/>
-      <c r="H76" s="50"/>
-      <c r="I76" s="50"/>
-      <c r="J76" s="62">
+      <c r="G77" s="20"/>
+      <c r="H77" s="35"/>
+      <c r="I77" s="35"/>
+      <c r="J77" s="45">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AJ5:AJ75"/>
+    <mergeCell ref="A5:A77"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B55:B76"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="AJ5:AJ76"/>
     <mergeCell ref="C18:C41"/>
     <mergeCell ref="B11:B54"/>
     <mergeCell ref="D18:D26"/>
     <mergeCell ref="D29:D31"/>
     <mergeCell ref="D32:D34"/>
-    <mergeCell ref="V5:V75"/>
-    <mergeCell ref="AC5:AC75"/>
+    <mergeCell ref="V5:V76"/>
+    <mergeCell ref="AC5:AC76"/>
     <mergeCell ref="D57:D61"/>
     <mergeCell ref="C57:C63"/>
     <mergeCell ref="D27:D28"/>
@@ -8182,21 +8356,9 @@
     <mergeCell ref="D62:D63"/>
     <mergeCell ref="D64:D65"/>
     <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A5:A76"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B55:B75"/>
-    <mergeCell ref="C69:C70"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="K3:AK5 AK6:AK75 W6:AB75 AD6:AI75 K6:U75">
+  <conditionalFormatting sqref="K3:AK5 AK6:AK76 W6:AB76 AD6:AI76 K6:U76">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>WEEKDAY(K$3)=7</formula>
     </cfRule>
@@ -8256,6 +8418,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8267,24 +8430,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
     </row>
     <row r="4" spans="2:14" ht="45.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
       <c r="K4" s="11" t="s">
         <v>78</v>
       </c>
@@ -8293,14 +8456,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
       <c r="K5" s="12" t="s">
         <v>80</v>
       </c>
@@ -8309,14 +8472,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
       <c r="K6" s="12" t="s">
         <v>81</v>
       </c>
@@ -8325,70 +8488,70 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
       <c r="K7" s="12" t="s">
         <v>82</v>
       </c>
       <c r="L7" s="13"/>
     </row>
     <row r="8" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61"/>
       <c r="K8" s="12" t="s">
         <v>83</v>
       </c>
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61"/>
       <c r="K9" s="12" t="s">
         <v>84</v>
       </c>
       <c r="L9" s="13"/>
     </row>
     <row r="10" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
       <c r="K10" s="12" t="s">
         <v>85</v>
       </c>
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
       <c r="K11" s="12" t="s">
         <v>86</v>
       </c>
@@ -8396,136 +8559,136 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
       <c r="K12" s="12" t="s">
         <v>87</v>
       </c>
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
       <c r="K13" s="12" t="s">
         <v>88</v>
       </c>
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
       <c r="K14" s="12" t="s">
         <v>89</v>
       </c>
       <c r="L14" s="13"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
+      <c r="B20" s="61"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8540,6 +8703,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8553,6 +8717,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -8569,22 +8734,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
@@ -8642,7 +8807,7 @@
         <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -8671,7 +8836,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="63" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -8685,7 +8850,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="40"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="2" t="s">
         <v>73</v>
       </c>
@@ -8768,6 +8933,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
@@ -8777,12 +8943,12 @@
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/schedule/ガントチャートxlsx.xlsx
+++ b/schedule/ガントチャートxlsx.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="173">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -1204,6 +1204,36 @@
   </si>
   <si>
     <t>キャンディ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　企　画　書</t>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ガ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワンシート企画書</t>
+    <rPh sb="5" eb="8">
+      <t>キカクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ配置図</t>
+    <rPh sb="3" eb="5">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1216,7 +1246,7 @@
     <numFmt numFmtId="177" formatCode="aaa"/>
     <numFmt numFmtId="178" formatCode="m/d"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1451,6 +1481,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1520,7 +1566,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1673,6 +1719,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1721,7 +1780,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1860,8 +1919,26 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="14" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -1871,9 +1948,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1896,15 +1970,6 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1917,13 +1982,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4686,7 +4754,7 @@
       <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4970,17 +5038,19 @@
         <v>44142</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="19.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="58" t="s">
+    <row r="5" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="48" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="70" t="s">
+        <v>171</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="20" t="s">
         <v>39</v>
@@ -5008,7 +5078,7 @@
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
-      <c r="V5" s="52" t="s">
+      <c r="V5" s="57" t="s">
         <v>117</v>
       </c>
       <c r="W5" s="19"/>
@@ -5017,7 +5087,7 @@
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
       <c r="AB5" s="19"/>
-      <c r="AC5" s="55" t="s">
+      <c r="AC5" s="60" t="s">
         <v>118</v>
       </c>
       <c r="AD5" s="19"/>
@@ -5026,18 +5096,20 @@
       <c r="AG5" s="19"/>
       <c r="AH5" s="19"/>
       <c r="AI5" s="19"/>
-      <c r="AJ5" s="47" t="s">
+      <c r="AJ5" s="53" t="s">
         <v>94</v>
       </c>
       <c r="AK5" s="19"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A6" s="58"/>
-      <c r="B6" s="59"/>
+    <row r="6" spans="1:45" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="46"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="69" t="s">
+        <v>170</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="20" t="s">
         <v>39</v>
@@ -5061,30 +5133,30 @@
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
-      <c r="V6" s="53"/>
+      <c r="V6" s="58"/>
       <c r="W6" s="20"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20"/>
-      <c r="AC6" s="56"/>
+      <c r="AC6" s="61"/>
       <c r="AD6" s="19"/>
       <c r="AE6" s="19"/>
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="19"/>
-      <c r="AJ6" s="48"/>
+      <c r="AJ6" s="54"/>
       <c r="AK6" s="19"/>
     </row>
-    <row r="7" spans="1:45" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59"/>
+    <row r="7" spans="1:45" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="46"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="68" t="s">
         <v>162</v>
       </c>
       <c r="E7" s="2"/>
@@ -5108,30 +5180,30 @@
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
-      <c r="V7" s="53"/>
+      <c r="V7" s="58"/>
       <c r="W7" s="20"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20"/>
-      <c r="AC7" s="56"/>
+      <c r="AC7" s="61"/>
       <c r="AD7" s="19"/>
       <c r="AE7" s="19"/>
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
       <c r="AI7" s="19"/>
-      <c r="AJ7" s="48"/>
+      <c r="AJ7" s="54"/>
       <c r="AK7" s="19"/>
     </row>
     <row r="8" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="58"/>
-      <c r="B8" s="59"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="2"/>
       <c r="F8" s="20" t="s">
         <v>39</v>
@@ -5155,30 +5227,32 @@
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
-      <c r="V8" s="53"/>
+      <c r="V8" s="58"/>
       <c r="W8" s="20"/>
       <c r="X8" s="20"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
-      <c r="AC8" s="56"/>
+      <c r="AC8" s="61"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
       <c r="AH8" s="19"/>
       <c r="AI8" s="19"/>
-      <c r="AJ8" s="48"/>
+      <c r="AJ8" s="54"/>
       <c r="AK8" s="19"/>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59"/>
+    <row r="9" spans="1:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="46"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="70" t="s">
+        <v>172</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="20" t="s">
         <v>39</v>
@@ -5200,30 +5274,30 @@
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
-      <c r="V9" s="53"/>
+      <c r="V9" s="58"/>
       <c r="W9" s="20"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20"/>
-      <c r="AC9" s="56"/>
+      <c r="AC9" s="61"/>
       <c r="AD9" s="19"/>
       <c r="AE9" s="19"/>
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
       <c r="AI9" s="19"/>
-      <c r="AJ9" s="48"/>
+      <c r="AJ9" s="54"/>
       <c r="AK9" s="19"/>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A10" s="58"/>
-      <c r="B10" s="59"/>
+    <row r="10" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="46"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="67"/>
       <c r="E10" s="2"/>
       <c r="F10" s="20" t="s">
         <v>39</v>
@@ -5245,29 +5319,29 @@
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
-      <c r="V10" s="53"/>
+      <c r="V10" s="58"/>
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20"/>
-      <c r="AC10" s="56"/>
+      <c r="AC10" s="61"/>
       <c r="AD10" s="19"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="19"/>
-      <c r="AJ10" s="48"/>
+      <c r="AJ10" s="54"/>
       <c r="AK10" s="19"/>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A11" s="58"/>
-      <c r="B11" s="51" t="s">
+      <c r="A11" s="46"/>
+      <c r="B11" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="47" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -5292,27 +5366,27 @@
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
-      <c r="V11" s="53"/>
+      <c r="V11" s="58"/>
       <c r="W11" s="20"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20"/>
-      <c r="AC11" s="56"/>
+      <c r="AC11" s="61"/>
       <c r="AD11" s="19"/>
       <c r="AE11" s="19"/>
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
       <c r="AI11" s="19"/>
-      <c r="AJ11" s="48"/>
+      <c r="AJ11" s="54"/>
       <c r="AK11" s="19"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A12" s="58"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="50"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="47"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
@@ -5335,27 +5409,27 @@
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
-      <c r="V12" s="53"/>
+      <c r="V12" s="58"/>
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20"/>
-      <c r="AC12" s="56"/>
+      <c r="AC12" s="61"/>
       <c r="AD12" s="19"/>
       <c r="AE12" s="19"/>
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="19"/>
-      <c r="AJ12" s="48"/>
+      <c r="AJ12" s="54"/>
       <c r="AK12" s="19"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A13" s="58"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="50"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="47"/>
       <c r="D13" s="38" t="s">
         <v>45</v>
       </c>
@@ -5378,27 +5452,27 @@
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
-      <c r="V13" s="53"/>
+      <c r="V13" s="58"/>
       <c r="W13" s="20"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20"/>
-      <c r="AC13" s="56"/>
+      <c r="AC13" s="61"/>
       <c r="AD13" s="19"/>
       <c r="AE13" s="19"/>
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
-      <c r="AJ13" s="48"/>
+      <c r="AJ13" s="54"/>
       <c r="AK13" s="19"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A14" s="58"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="50"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="47"/>
       <c r="D14" s="39" t="s">
         <v>27</v>
       </c>
@@ -5421,27 +5495,27 @@
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
-      <c r="V14" s="53"/>
+      <c r="V14" s="58"/>
       <c r="W14" s="20"/>
       <c r="X14" s="20"/>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20"/>
-      <c r="AC14" s="56"/>
+      <c r="AC14" s="61"/>
       <c r="AD14" s="19"/>
       <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
       <c r="AI14" s="19"/>
-      <c r="AJ14" s="48"/>
+      <c r="AJ14" s="54"/>
       <c r="AK14" s="19"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A15" s="58"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="50" t="s">
+      <c r="A15" s="46"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="47" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -5468,27 +5542,27 @@
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
-      <c r="V15" s="53"/>
+      <c r="V15" s="58"/>
       <c r="W15" s="20"/>
       <c r="X15" s="20"/>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
-      <c r="AC15" s="56"/>
+      <c r="AC15" s="61"/>
       <c r="AD15" s="19"/>
       <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
       <c r="AI15" s="19"/>
-      <c r="AJ15" s="48"/>
+      <c r="AJ15" s="54"/>
       <c r="AK15" s="19"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A16" s="58"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="50"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="47"/>
       <c r="D16" s="40" t="s">
         <v>45</v>
       </c>
@@ -5511,27 +5585,27 @@
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
-      <c r="V16" s="53"/>
+      <c r="V16" s="58"/>
       <c r="W16" s="20"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
-      <c r="AC16" s="56"/>
+      <c r="AC16" s="61"/>
       <c r="AD16" s="19"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="19"/>
-      <c r="AJ16" s="48"/>
+      <c r="AJ16" s="54"/>
       <c r="AK16" s="19"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A17" s="58"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="50"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="47"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
@@ -5554,30 +5628,30 @@
       <c r="S17" s="20"/>
       <c r="T17" s="20"/>
       <c r="U17" s="20"/>
-      <c r="V17" s="53"/>
+      <c r="V17" s="58"/>
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
-      <c r="AC17" s="56"/>
+      <c r="AC17" s="61"/>
       <c r="AD17" s="19"/>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="19"/>
       <c r="AI17" s="19"/>
-      <c r="AJ17" s="48"/>
+      <c r="AJ17" s="54"/>
       <c r="AK17" s="19"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A18" s="58"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="50" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="50" t="s">
+      <c r="D18" s="47" t="s">
         <v>102</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -5607,28 +5681,28 @@
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
-      <c r="V18" s="53"/>
+      <c r="V18" s="58"/>
       <c r="W18" s="20"/>
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
-      <c r="AC18" s="56"/>
+      <c r="AC18" s="61"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="19"/>
       <c r="AI18" s="19"/>
-      <c r="AJ18" s="48"/>
+      <c r="AJ18" s="54"/>
       <c r="AK18" s="19"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A19" s="58"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
       <c r="E19" s="2" t="s">
         <v>146</v>
       </c>
@@ -5656,28 +5730,28 @@
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
-      <c r="V19" s="53"/>
+      <c r="V19" s="58"/>
       <c r="W19" s="20"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
-      <c r="AC19" s="56"/>
+      <c r="AC19" s="61"/>
       <c r="AD19" s="19"/>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
       <c r="AI19" s="19"/>
-      <c r="AJ19" s="48"/>
+      <c r="AJ19" s="54"/>
       <c r="AK19" s="19"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A20" s="58"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="50"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
       <c r="E20" s="2" t="s">
         <v>119</v>
       </c>
@@ -5707,28 +5781,28 @@
       <c r="S20" s="20"/>
       <c r="T20" s="20"/>
       <c r="U20" s="20"/>
-      <c r="V20" s="53"/>
+      <c r="V20" s="58"/>
       <c r="W20" s="20"/>
       <c r="X20" s="20"/>
       <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
-      <c r="AC20" s="56"/>
+      <c r="AC20" s="61"/>
       <c r="AD20" s="19"/>
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="19"/>
       <c r="AI20" s="19"/>
-      <c r="AJ20" s="48"/>
+      <c r="AJ20" s="54"/>
       <c r="AK20" s="19"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A21" s="58"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
       <c r="E21" s="2" t="s">
         <v>115</v>
       </c>
@@ -5750,28 +5824,28 @@
       <c r="S21" s="20"/>
       <c r="T21" s="20"/>
       <c r="U21" s="20"/>
-      <c r="V21" s="53"/>
+      <c r="V21" s="58"/>
       <c r="W21" s="20"/>
       <c r="X21" s="20"/>
       <c r="Y21" s="20"/>
       <c r="Z21" s="20"/>
       <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
-      <c r="AC21" s="56"/>
+      <c r="AC21" s="61"/>
       <c r="AD21" s="19"/>
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
       <c r="AI21" s="19"/>
-      <c r="AJ21" s="48"/>
+      <c r="AJ21" s="54"/>
       <c r="AK21" s="19"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A22" s="58"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
       <c r="E22" s="2" t="s">
         <v>143</v>
       </c>
@@ -5801,28 +5875,28 @@
       <c r="S22" s="20"/>
       <c r="T22" s="20"/>
       <c r="U22" s="20"/>
-      <c r="V22" s="53"/>
+      <c r="V22" s="58"/>
       <c r="W22" s="20"/>
       <c r="X22" s="20"/>
       <c r="Y22" s="20"/>
       <c r="Z22" s="20"/>
       <c r="AA22" s="20"/>
       <c r="AB22" s="20"/>
-      <c r="AC22" s="56"/>
+      <c r="AC22" s="61"/>
       <c r="AD22" s="19"/>
       <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="19"/>
       <c r="AI22" s="19"/>
-      <c r="AJ22" s="48"/>
+      <c r="AJ22" s="54"/>
       <c r="AK22" s="19"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A23" s="58"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="2" t="s">
         <v>125</v>
       </c>
@@ -5852,28 +5926,28 @@
       <c r="S23" s="20"/>
       <c r="T23" s="20"/>
       <c r="U23" s="20"/>
-      <c r="V23" s="53"/>
+      <c r="V23" s="58"/>
       <c r="W23" s="20"/>
       <c r="X23" s="20"/>
       <c r="Y23" s="20"/>
       <c r="Z23" s="20"/>
       <c r="AA23" s="20"/>
       <c r="AB23" s="20"/>
-      <c r="AC23" s="56"/>
+      <c r="AC23" s="61"/>
       <c r="AD23" s="19"/>
       <c r="AE23" s="19"/>
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="19"/>
       <c r="AI23" s="19"/>
-      <c r="AJ23" s="48"/>
+      <c r="AJ23" s="54"/>
       <c r="AK23" s="19"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A24" s="58"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="50"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
       <c r="E24" s="2" t="s">
         <v>116</v>
       </c>
@@ -5895,28 +5969,28 @@
       <c r="S24" s="20"/>
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
-      <c r="V24" s="53"/>
+      <c r="V24" s="58"/>
       <c r="W24" s="20"/>
       <c r="X24" s="20"/>
       <c r="Y24" s="20"/>
       <c r="Z24" s="20"/>
       <c r="AA24" s="20"/>
       <c r="AB24" s="20"/>
-      <c r="AC24" s="56"/>
+      <c r="AC24" s="61"/>
       <c r="AD24" s="19"/>
       <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="19"/>
       <c r="AI24" s="19"/>
-      <c r="AJ24" s="48"/>
+      <c r="AJ24" s="54"/>
       <c r="AK24" s="19"/>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A25" s="58"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="2" t="s">
         <v>113</v>
       </c>
@@ -5946,28 +6020,28 @@
       <c r="S25" s="20"/>
       <c r="T25" s="20"/>
       <c r="U25" s="20"/>
-      <c r="V25" s="53"/>
+      <c r="V25" s="58"/>
       <c r="W25" s="20"/>
       <c r="X25" s="20"/>
       <c r="Y25" s="20"/>
       <c r="Z25" s="20"/>
       <c r="AA25" s="20"/>
       <c r="AB25" s="20"/>
-      <c r="AC25" s="56"/>
+      <c r="AC25" s="61"/>
       <c r="AD25" s="19"/>
       <c r="AE25" s="19"/>
       <c r="AF25" s="19"/>
       <c r="AG25" s="19"/>
       <c r="AH25" s="19"/>
       <c r="AI25" s="19"/>
-      <c r="AJ25" s="48"/>
+      <c r="AJ25" s="54"/>
       <c r="AK25" s="19"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A26" s="58"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
       <c r="E26" s="2" t="s">
         <v>109</v>
       </c>
@@ -5989,28 +6063,28 @@
       <c r="S26" s="20"/>
       <c r="T26" s="20"/>
       <c r="U26" s="20"/>
-      <c r="V26" s="53"/>
+      <c r="V26" s="58"/>
       <c r="W26" s="20"/>
       <c r="X26" s="20"/>
       <c r="Y26" s="20"/>
       <c r="Z26" s="20"/>
       <c r="AA26" s="20"/>
       <c r="AB26" s="20"/>
-      <c r="AC26" s="56"/>
+      <c r="AC26" s="61"/>
       <c r="AD26" s="19"/>
       <c r="AE26" s="19"/>
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
       <c r="AH26" s="19"/>
       <c r="AI26" s="19"/>
-      <c r="AJ26" s="48"/>
+      <c r="AJ26" s="54"/>
       <c r="AK26" s="19"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A27" s="58"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="50"/>
-      <c r="D27" s="50" t="s">
+      <c r="A27" s="46"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -6042,28 +6116,28 @@
       <c r="S27" s="20"/>
       <c r="T27" s="20"/>
       <c r="U27" s="20"/>
-      <c r="V27" s="53"/>
+      <c r="V27" s="58"/>
       <c r="W27" s="20"/>
       <c r="X27" s="20"/>
       <c r="Y27" s="20"/>
       <c r="Z27" s="20"/>
       <c r="AA27" s="20"/>
       <c r="AB27" s="20"/>
-      <c r="AC27" s="56"/>
+      <c r="AC27" s="61"/>
       <c r="AD27" s="19"/>
       <c r="AE27" s="19"/>
       <c r="AF27" s="19"/>
       <c r="AG27" s="19"/>
       <c r="AH27" s="19"/>
       <c r="AI27" s="19"/>
-      <c r="AJ27" s="48"/>
+      <c r="AJ27" s="54"/>
       <c r="AK27" s="19"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A28" s="58"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
       <c r="E28" s="2" t="s">
         <v>126</v>
       </c>
@@ -6093,28 +6167,28 @@
       <c r="S28" s="20"/>
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
-      <c r="V28" s="53"/>
+      <c r="V28" s="58"/>
       <c r="W28" s="20"/>
       <c r="X28" s="20"/>
       <c r="Y28" s="20"/>
       <c r="Z28" s="20"/>
       <c r="AA28" s="20"/>
       <c r="AB28" s="20"/>
-      <c r="AC28" s="56"/>
+      <c r="AC28" s="61"/>
       <c r="AD28" s="19"/>
       <c r="AE28" s="19"/>
       <c r="AF28" s="19"/>
       <c r="AG28" s="19"/>
       <c r="AH28" s="19"/>
       <c r="AI28" s="19"/>
-      <c r="AJ28" s="48"/>
+      <c r="AJ28" s="54"/>
       <c r="AK28" s="19"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A29" s="58"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50" t="s">
+      <c r="A29" s="46"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -6138,28 +6212,28 @@
       <c r="S29" s="20"/>
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
-      <c r="V29" s="53"/>
+      <c r="V29" s="58"/>
       <c r="W29" s="20"/>
       <c r="X29" s="20"/>
       <c r="Y29" s="20"/>
       <c r="Z29" s="20"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="20"/>
-      <c r="AC29" s="56"/>
+      <c r="AC29" s="61"/>
       <c r="AD29" s="19"/>
       <c r="AE29" s="19"/>
       <c r="AF29" s="19"/>
       <c r="AG29" s="19"/>
       <c r="AH29" s="19"/>
       <c r="AI29" s="19"/>
-      <c r="AJ29" s="48"/>
+      <c r="AJ29" s="54"/>
       <c r="AK29" s="19"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A30" s="58"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="2" t="s">
         <v>151</v>
       </c>
@@ -6181,28 +6255,28 @@
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
       <c r="U30" s="20"/>
-      <c r="V30" s="53"/>
+      <c r="V30" s="58"/>
       <c r="W30" s="20"/>
       <c r="X30" s="20"/>
       <c r="Y30" s="20"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
-      <c r="AC30" s="56"/>
+      <c r="AC30" s="61"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="19"/>
       <c r="AF30" s="19"/>
       <c r="AG30" s="19"/>
       <c r="AH30" s="19"/>
       <c r="AI30" s="19"/>
-      <c r="AJ30" s="48"/>
+      <c r="AJ30" s="54"/>
       <c r="AK30" s="19"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A31" s="58"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="2" t="s">
         <v>120</v>
       </c>
@@ -6232,28 +6306,28 @@
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
-      <c r="V31" s="53"/>
+      <c r="V31" s="58"/>
       <c r="W31" s="20"/>
       <c r="X31" s="20"/>
       <c r="Y31" s="20"/>
       <c r="Z31" s="20"/>
       <c r="AA31" s="20"/>
       <c r="AB31" s="20"/>
-      <c r="AC31" s="56"/>
+      <c r="AC31" s="61"/>
       <c r="AD31" s="19"/>
       <c r="AE31" s="19"/>
       <c r="AF31" s="19"/>
       <c r="AG31" s="19"/>
       <c r="AH31" s="19"/>
       <c r="AI31" s="19"/>
-      <c r="AJ31" s="48"/>
+      <c r="AJ31" s="54"/>
       <c r="AK31" s="19"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A32" s="58"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50" t="s">
+      <c r="A32" s="46"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47" t="s">
         <v>97</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -6277,28 +6351,28 @@
       <c r="S32" s="20"/>
       <c r="T32" s="20"/>
       <c r="U32" s="20"/>
-      <c r="V32" s="53"/>
+      <c r="V32" s="58"/>
       <c r="W32" s="20"/>
       <c r="X32" s="20"/>
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
       <c r="AA32" s="20"/>
       <c r="AB32" s="20"/>
-      <c r="AC32" s="56"/>
+      <c r="AC32" s="61"/>
       <c r="AD32" s="19"/>
       <c r="AE32" s="19"/>
       <c r="AF32" s="19"/>
       <c r="AG32" s="19"/>
       <c r="AH32" s="19"/>
       <c r="AI32" s="19"/>
-      <c r="AJ32" s="48"/>
+      <c r="AJ32" s="54"/>
       <c r="AK32" s="19"/>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A33" s="58"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="50"/>
-      <c r="D33" s="50"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="2" t="s">
         <v>149</v>
       </c>
@@ -6326,28 +6400,28 @@
       <c r="S33" s="20"/>
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
-      <c r="V33" s="53"/>
+      <c r="V33" s="58"/>
       <c r="W33" s="20"/>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
       <c r="AA33" s="20"/>
       <c r="AB33" s="20"/>
-      <c r="AC33" s="56"/>
+      <c r="AC33" s="61"/>
       <c r="AD33" s="19"/>
       <c r="AE33" s="19"/>
       <c r="AF33" s="19"/>
       <c r="AG33" s="19"/>
       <c r="AH33" s="19"/>
       <c r="AI33" s="19"/>
-      <c r="AJ33" s="48"/>
+      <c r="AJ33" s="54"/>
       <c r="AK33" s="19"/>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A34" s="58"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
       <c r="E34" s="2" t="s">
         <v>110</v>
       </c>
@@ -6369,27 +6443,27 @@
       <c r="S34" s="20"/>
       <c r="T34" s="20"/>
       <c r="U34" s="20"/>
-      <c r="V34" s="53"/>
+      <c r="V34" s="58"/>
       <c r="W34" s="20"/>
       <c r="X34" s="20"/>
       <c r="Y34" s="20"/>
       <c r="Z34" s="20"/>
       <c r="AA34" s="20"/>
       <c r="AB34" s="20"/>
-      <c r="AC34" s="56"/>
+      <c r="AC34" s="61"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="19"/>
       <c r="AG34" s="19"/>
       <c r="AH34" s="19"/>
       <c r="AI34" s="19"/>
-      <c r="AJ34" s="48"/>
+      <c r="AJ34" s="54"/>
       <c r="AK34" s="19"/>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A35" s="58"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="50"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="2" t="s">
         <v>24</v>
       </c>
@@ -6414,27 +6488,27 @@
       <c r="S35" s="20"/>
       <c r="T35" s="20"/>
       <c r="U35" s="20"/>
-      <c r="V35" s="53"/>
+      <c r="V35" s="58"/>
       <c r="W35" s="20"/>
       <c r="X35" s="20"/>
       <c r="Y35" s="20"/>
       <c r="Z35" s="20"/>
       <c r="AA35" s="20"/>
       <c r="AB35" s="20"/>
-      <c r="AC35" s="56"/>
+      <c r="AC35" s="61"/>
       <c r="AD35" s="19"/>
       <c r="AE35" s="19"/>
       <c r="AF35" s="19"/>
       <c r="AG35" s="19"/>
       <c r="AH35" s="19"/>
       <c r="AI35" s="19"/>
-      <c r="AJ35" s="48"/>
+      <c r="AJ35" s="54"/>
       <c r="AK35" s="19"/>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A36" s="58"/>
-      <c r="B36" s="51"/>
-      <c r="C36" s="50"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="2" t="s">
         <v>152</v>
       </c>
@@ -6465,27 +6539,27 @@
       <c r="S36" s="20"/>
       <c r="T36" s="20"/>
       <c r="U36" s="20"/>
-      <c r="V36" s="53"/>
+      <c r="V36" s="58"/>
       <c r="W36" s="20"/>
       <c r="X36" s="20"/>
       <c r="Y36" s="20"/>
       <c r="Z36" s="20"/>
       <c r="AA36" s="20"/>
       <c r="AB36" s="20"/>
-      <c r="AC36" s="56"/>
+      <c r="AC36" s="61"/>
       <c r="AD36" s="19"/>
       <c r="AE36" s="19"/>
       <c r="AF36" s="19"/>
       <c r="AG36" s="19"/>
       <c r="AH36" s="19"/>
       <c r="AI36" s="19"/>
-      <c r="AJ36" s="48"/>
+      <c r="AJ36" s="54"/>
       <c r="AK36" s="19"/>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A37" s="58"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="50"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="2" t="s">
         <v>101</v>
       </c>
@@ -6508,27 +6582,27 @@
       <c r="S37" s="20"/>
       <c r="T37" s="20"/>
       <c r="U37" s="20"/>
-      <c r="V37" s="53"/>
+      <c r="V37" s="58"/>
       <c r="W37" s="20"/>
       <c r="X37" s="20"/>
       <c r="Y37" s="20"/>
       <c r="Z37" s="20"/>
       <c r="AA37" s="20"/>
       <c r="AB37" s="20"/>
-      <c r="AC37" s="56"/>
+      <c r="AC37" s="61"/>
       <c r="AD37" s="19"/>
       <c r="AE37" s="19"/>
       <c r="AF37" s="19"/>
       <c r="AG37" s="19"/>
       <c r="AH37" s="19"/>
       <c r="AI37" s="19"/>
-      <c r="AJ37" s="48"/>
+      <c r="AJ37" s="54"/>
       <c r="AK37" s="19"/>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A38" s="58"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="50"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="2" t="s">
         <v>23</v>
       </c>
@@ -6551,27 +6625,27 @@
       <c r="S38" s="20"/>
       <c r="T38" s="20"/>
       <c r="U38" s="20"/>
-      <c r="V38" s="53"/>
+      <c r="V38" s="58"/>
       <c r="W38" s="20"/>
       <c r="X38" s="20"/>
       <c r="Y38" s="20"/>
       <c r="Z38" s="20"/>
       <c r="AA38" s="20"/>
       <c r="AB38" s="20"/>
-      <c r="AC38" s="56"/>
+      <c r="AC38" s="61"/>
       <c r="AD38" s="19"/>
       <c r="AE38" s="19"/>
       <c r="AF38" s="19"/>
       <c r="AG38" s="19"/>
       <c r="AH38" s="19"/>
       <c r="AI38" s="19"/>
-      <c r="AJ38" s="48"/>
+      <c r="AJ38" s="54"/>
       <c r="AK38" s="19"/>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A39" s="58"/>
-      <c r="B39" s="51"/>
-      <c r="C39" s="50"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="39" t="s">
         <v>27</v>
       </c>
@@ -6594,27 +6668,27 @@
       <c r="S39" s="20"/>
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
-      <c r="V39" s="53"/>
+      <c r="V39" s="58"/>
       <c r="W39" s="20"/>
       <c r="X39" s="20"/>
       <c r="Y39" s="20"/>
       <c r="Z39" s="20"/>
       <c r="AA39" s="20"/>
       <c r="AB39" s="20"/>
-      <c r="AC39" s="56"/>
+      <c r="AC39" s="61"/>
       <c r="AD39" s="19"/>
       <c r="AE39" s="19"/>
       <c r="AF39" s="19"/>
       <c r="AG39" s="19"/>
       <c r="AH39" s="19"/>
       <c r="AI39" s="19"/>
-      <c r="AJ39" s="48"/>
+      <c r="AJ39" s="54"/>
       <c r="AK39" s="19"/>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A40" s="58"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="50"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="38" t="s">
         <v>45</v>
       </c>
@@ -6637,27 +6711,27 @@
       <c r="S40" s="20"/>
       <c r="T40" s="20"/>
       <c r="U40" s="20"/>
-      <c r="V40" s="53"/>
+      <c r="V40" s="58"/>
       <c r="W40" s="20"/>
       <c r="X40" s="20"/>
       <c r="Y40" s="20"/>
       <c r="Z40" s="20"/>
       <c r="AA40" s="20"/>
       <c r="AB40" s="20"/>
-      <c r="AC40" s="56"/>
+      <c r="AC40" s="61"/>
       <c r="AD40" s="19"/>
       <c r="AE40" s="19"/>
       <c r="AF40" s="19"/>
       <c r="AG40" s="19"/>
       <c r="AH40" s="19"/>
       <c r="AI40" s="19"/>
-      <c r="AJ40" s="48"/>
+      <c r="AJ40" s="54"/>
       <c r="AK40" s="19"/>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A41" s="58"/>
-      <c r="B41" s="51"/>
-      <c r="C41" s="50"/>
+      <c r="A41" s="46"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="2" t="s">
         <v>26</v>
       </c>
@@ -6680,27 +6754,27 @@
       <c r="S41" s="20"/>
       <c r="T41" s="20"/>
       <c r="U41" s="20"/>
-      <c r="V41" s="53"/>
+      <c r="V41" s="58"/>
       <c r="W41" s="20"/>
       <c r="X41" s="20"/>
       <c r="Y41" s="20"/>
       <c r="Z41" s="20"/>
       <c r="AA41" s="20"/>
       <c r="AB41" s="20"/>
-      <c r="AC41" s="56"/>
+      <c r="AC41" s="61"/>
       <c r="AD41" s="19"/>
       <c r="AE41" s="19"/>
       <c r="AF41" s="19"/>
       <c r="AG41" s="19"/>
       <c r="AH41" s="19"/>
       <c r="AI41" s="19"/>
-      <c r="AJ41" s="48"/>
+      <c r="AJ41" s="54"/>
       <c r="AK41" s="19"/>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A42" s="58"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="50" t="s">
+      <c r="A42" s="46"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="47" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="40" t="s">
@@ -6725,27 +6799,27 @@
       <c r="S42" s="20"/>
       <c r="T42" s="20"/>
       <c r="U42" s="20"/>
-      <c r="V42" s="53"/>
+      <c r="V42" s="58"/>
       <c r="W42" s="20"/>
       <c r="X42" s="20"/>
       <c r="Y42" s="20"/>
       <c r="Z42" s="20"/>
       <c r="AA42" s="20"/>
       <c r="AB42" s="20"/>
-      <c r="AC42" s="56"/>
+      <c r="AC42" s="61"/>
       <c r="AD42" s="19"/>
       <c r="AE42" s="19"/>
       <c r="AF42" s="19"/>
       <c r="AG42" s="19"/>
       <c r="AH42" s="19"/>
       <c r="AI42" s="19"/>
-      <c r="AJ42" s="48"/>
+      <c r="AJ42" s="54"/>
       <c r="AK42" s="19"/>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A43" s="58"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="50"/>
+      <c r="A43" s="46"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="2" t="s">
         <v>26</v>
       </c>
@@ -6768,27 +6842,27 @@
       <c r="S43" s="20"/>
       <c r="T43" s="20"/>
       <c r="U43" s="20"/>
-      <c r="V43" s="53"/>
+      <c r="V43" s="58"/>
       <c r="W43" s="20"/>
       <c r="X43" s="20"/>
       <c r="Y43" s="20"/>
       <c r="Z43" s="20"/>
       <c r="AA43" s="20"/>
       <c r="AB43" s="20"/>
-      <c r="AC43" s="56"/>
+      <c r="AC43" s="61"/>
       <c r="AD43" s="19"/>
       <c r="AE43" s="19"/>
       <c r="AF43" s="19"/>
       <c r="AG43" s="19"/>
       <c r="AH43" s="19"/>
       <c r="AI43" s="19"/>
-      <c r="AJ43" s="48"/>
+      <c r="AJ43" s="54"/>
       <c r="AK43" s="19"/>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A44" s="58"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="50" t="s">
+      <c r="A44" s="46"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="47" t="s">
         <v>43</v>
       </c>
       <c r="D44" s="38" t="s">
@@ -6813,27 +6887,27 @@
       <c r="S44" s="20"/>
       <c r="T44" s="20"/>
       <c r="U44" s="20"/>
-      <c r="V44" s="53"/>
+      <c r="V44" s="58"/>
       <c r="W44" s="20"/>
       <c r="X44" s="20"/>
       <c r="Y44" s="20"/>
       <c r="Z44" s="20"/>
       <c r="AA44" s="20"/>
       <c r="AB44" s="20"/>
-      <c r="AC44" s="56"/>
+      <c r="AC44" s="61"/>
       <c r="AD44" s="19"/>
       <c r="AE44" s="19"/>
       <c r="AF44" s="19"/>
       <c r="AG44" s="19"/>
       <c r="AH44" s="19"/>
       <c r="AI44" s="19"/>
-      <c r="AJ44" s="48"/>
+      <c r="AJ44" s="54"/>
       <c r="AK44" s="19"/>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A45" s="58"/>
-      <c r="B45" s="51"/>
-      <c r="C45" s="50"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="47"/>
       <c r="D45" s="2" t="s">
         <v>26</v>
       </c>
@@ -6856,27 +6930,27 @@
       <c r="S45" s="20"/>
       <c r="T45" s="20"/>
       <c r="U45" s="20"/>
-      <c r="V45" s="53"/>
+      <c r="V45" s="58"/>
       <c r="W45" s="20"/>
       <c r="X45" s="20"/>
       <c r="Y45" s="20"/>
       <c r="Z45" s="20"/>
       <c r="AA45" s="20"/>
       <c r="AB45" s="20"/>
-      <c r="AC45" s="56"/>
+      <c r="AC45" s="61"/>
       <c r="AD45" s="19"/>
       <c r="AE45" s="19"/>
       <c r="AF45" s="19"/>
       <c r="AG45" s="19"/>
       <c r="AH45" s="19"/>
       <c r="AI45" s="19"/>
-      <c r="AJ45" s="48"/>
+      <c r="AJ45" s="54"/>
       <c r="AK45" s="19"/>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A46" s="58"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="50"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="47"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="20"/>
@@ -6897,27 +6971,27 @@
       <c r="S46" s="20"/>
       <c r="T46" s="20"/>
       <c r="U46" s="20"/>
-      <c r="V46" s="53"/>
+      <c r="V46" s="58"/>
       <c r="W46" s="20"/>
       <c r="X46" s="20"/>
       <c r="Y46" s="20"/>
       <c r="Z46" s="20"/>
       <c r="AA46" s="20"/>
       <c r="AB46" s="20"/>
-      <c r="AC46" s="56"/>
+      <c r="AC46" s="61"/>
       <c r="AD46" s="19"/>
       <c r="AE46" s="19"/>
       <c r="AF46" s="19"/>
       <c r="AG46" s="19"/>
       <c r="AH46" s="19"/>
       <c r="AI46" s="19"/>
-      <c r="AJ46" s="48"/>
+      <c r="AJ46" s="54"/>
       <c r="AK46" s="19"/>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A47" s="58"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="50" t="s">
+      <c r="A47" s="46"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="47" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -6942,27 +7016,27 @@
       <c r="S47" s="20"/>
       <c r="T47" s="20"/>
       <c r="U47" s="20"/>
-      <c r="V47" s="53"/>
+      <c r="V47" s="58"/>
       <c r="W47" s="20"/>
       <c r="X47" s="20"/>
       <c r="Y47" s="20"/>
       <c r="Z47" s="20"/>
       <c r="AA47" s="20"/>
       <c r="AB47" s="20"/>
-      <c r="AC47" s="56"/>
+      <c r="AC47" s="61"/>
       <c r="AD47" s="19"/>
       <c r="AE47" s="19"/>
       <c r="AF47" s="19"/>
       <c r="AG47" s="19"/>
       <c r="AH47" s="19"/>
       <c r="AI47" s="19"/>
-      <c r="AJ47" s="48"/>
+      <c r="AJ47" s="54"/>
       <c r="AK47" s="19"/>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A48" s="58"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="50"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="47"/>
       <c r="D48" s="2" t="s">
         <v>36</v>
       </c>
@@ -6985,27 +7059,27 @@
       <c r="S48" s="20"/>
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
-      <c r="V48" s="53"/>
+      <c r="V48" s="58"/>
       <c r="W48" s="20"/>
       <c r="X48" s="20"/>
       <c r="Y48" s="20"/>
       <c r="Z48" s="20"/>
       <c r="AA48" s="20"/>
       <c r="AB48" s="20"/>
-      <c r="AC48" s="56"/>
+      <c r="AC48" s="61"/>
       <c r="AD48" s="19"/>
       <c r="AE48" s="19"/>
       <c r="AF48" s="19"/>
       <c r="AG48" s="19"/>
       <c r="AH48" s="19"/>
       <c r="AI48" s="19"/>
-      <c r="AJ48" s="48"/>
+      <c r="AJ48" s="54"/>
       <c r="AK48" s="19"/>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A49" s="58"/>
-      <c r="B49" s="51"/>
-      <c r="C49" s="50"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="47"/>
       <c r="D49" s="2" t="s">
         <v>37</v>
       </c>
@@ -7028,27 +7102,27 @@
       <c r="S49" s="20"/>
       <c r="T49" s="20"/>
       <c r="U49" s="20"/>
-      <c r="V49" s="53"/>
+      <c r="V49" s="58"/>
       <c r="W49" s="20"/>
       <c r="X49" s="20"/>
       <c r="Y49" s="20"/>
       <c r="Z49" s="20"/>
       <c r="AA49" s="20"/>
       <c r="AB49" s="20"/>
-      <c r="AC49" s="56"/>
+      <c r="AC49" s="61"/>
       <c r="AD49" s="19"/>
       <c r="AE49" s="19"/>
       <c r="AF49" s="19"/>
       <c r="AG49" s="19"/>
       <c r="AH49" s="19"/>
       <c r="AI49" s="19"/>
-      <c r="AJ49" s="48"/>
+      <c r="AJ49" s="54"/>
       <c r="AK49" s="19"/>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A50" s="58"/>
-      <c r="B50" s="51"/>
-      <c r="C50" s="50"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="2" t="s">
         <v>38</v>
       </c>
@@ -7071,27 +7145,27 @@
       <c r="S50" s="20"/>
       <c r="T50" s="20"/>
       <c r="U50" s="20"/>
-      <c r="V50" s="53"/>
+      <c r="V50" s="58"/>
       <c r="W50" s="20"/>
       <c r="X50" s="20"/>
       <c r="Y50" s="20"/>
       <c r="Z50" s="20"/>
       <c r="AA50" s="20"/>
       <c r="AB50" s="20"/>
-      <c r="AC50" s="56"/>
+      <c r="AC50" s="61"/>
       <c r="AD50" s="19"/>
       <c r="AE50" s="19"/>
       <c r="AF50" s="19"/>
       <c r="AG50" s="19"/>
       <c r="AH50" s="19"/>
       <c r="AI50" s="19"/>
-      <c r="AJ50" s="48"/>
+      <c r="AJ50" s="54"/>
       <c r="AK50" s="19"/>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A51" s="58"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="50"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="47"/>
       <c r="D51" s="2" t="s">
         <v>33</v>
       </c>
@@ -7114,27 +7188,27 @@
       <c r="S51" s="20"/>
       <c r="T51" s="20"/>
       <c r="U51" s="20"/>
-      <c r="V51" s="53"/>
+      <c r="V51" s="58"/>
       <c r="W51" s="20"/>
       <c r="X51" s="20"/>
       <c r="Y51" s="20"/>
       <c r="Z51" s="20"/>
       <c r="AA51" s="20"/>
       <c r="AB51" s="20"/>
-      <c r="AC51" s="56"/>
+      <c r="AC51" s="61"/>
       <c r="AD51" s="19"/>
       <c r="AE51" s="19"/>
       <c r="AF51" s="19"/>
       <c r="AG51" s="19"/>
       <c r="AH51" s="19"/>
       <c r="AI51" s="19"/>
-      <c r="AJ51" s="48"/>
+      <c r="AJ51" s="54"/>
       <c r="AK51" s="19"/>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A52" s="58"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="50" t="s">
+      <c r="A52" s="46"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="47" t="s">
         <v>128</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -7163,27 +7237,27 @@
       <c r="S52" s="20"/>
       <c r="T52" s="20"/>
       <c r="U52" s="20"/>
-      <c r="V52" s="53"/>
+      <c r="V52" s="58"/>
       <c r="W52" s="20"/>
       <c r="X52" s="20"/>
       <c r="Y52" s="20"/>
       <c r="Z52" s="20"/>
       <c r="AA52" s="20"/>
       <c r="AB52" s="20"/>
-      <c r="AC52" s="56"/>
+      <c r="AC52" s="61"/>
       <c r="AD52" s="19"/>
       <c r="AE52" s="19"/>
       <c r="AF52" s="19"/>
       <c r="AG52" s="19"/>
       <c r="AH52" s="19"/>
       <c r="AI52" s="19"/>
-      <c r="AJ52" s="48"/>
+      <c r="AJ52" s="54"/>
       <c r="AK52" s="19"/>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A53" s="58"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="50"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="47"/>
       <c r="D53" s="2" t="s">
         <v>159</v>
       </c>
@@ -7210,26 +7284,26 @@
       <c r="S53" s="20"/>
       <c r="T53" s="20"/>
       <c r="U53" s="20"/>
-      <c r="V53" s="53"/>
+      <c r="V53" s="58"/>
       <c r="W53" s="20"/>
       <c r="X53" s="20"/>
       <c r="Y53" s="20"/>
       <c r="Z53" s="20"/>
       <c r="AA53" s="20"/>
       <c r="AB53" s="20"/>
-      <c r="AC53" s="56"/>
+      <c r="AC53" s="61"/>
       <c r="AD53" s="19"/>
       <c r="AE53" s="19"/>
       <c r="AF53" s="19"/>
       <c r="AG53" s="19"/>
       <c r="AH53" s="19"/>
       <c r="AI53" s="19"/>
-      <c r="AJ53" s="48"/>
+      <c r="AJ53" s="54"/>
       <c r="AK53" s="19"/>
     </row>
     <row r="54" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="58"/>
-      <c r="B54" s="51"/>
+      <c r="A54" s="46"/>
+      <c r="B54" s="56"/>
       <c r="C54" s="21" t="s">
         <v>76</v>
       </c>
@@ -7255,32 +7329,32 @@
       <c r="S54" s="21"/>
       <c r="T54" s="21"/>
       <c r="U54" s="21"/>
-      <c r="V54" s="53"/>
+      <c r="V54" s="58"/>
       <c r="W54" s="21"/>
       <c r="X54" s="21"/>
       <c r="Y54" s="21"/>
       <c r="Z54" s="21"/>
       <c r="AA54" s="21"/>
       <c r="AB54" s="21"/>
-      <c r="AC54" s="56"/>
+      <c r="AC54" s="61"/>
       <c r="AD54" s="19"/>
       <c r="AE54" s="19"/>
       <c r="AF54" s="19"/>
       <c r="AG54" s="19"/>
       <c r="AH54" s="19"/>
       <c r="AI54" s="19"/>
-      <c r="AJ54" s="48"/>
+      <c r="AJ54" s="54"/>
       <c r="AK54" s="19"/>
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A55" s="58"/>
-      <c r="B55" s="60" t="s">
+      <c r="A55" s="46"/>
+      <c r="B55" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="C55" s="50" t="s">
+      <c r="C55" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="D55" s="50" t="s">
+      <c r="D55" s="47" t="s">
         <v>29</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -7312,28 +7386,28 @@
       <c r="S55" s="20"/>
       <c r="T55" s="20"/>
       <c r="U55" s="20"/>
-      <c r="V55" s="53"/>
+      <c r="V55" s="58"/>
       <c r="W55" s="20"/>
       <c r="X55" s="20"/>
       <c r="Y55" s="20"/>
       <c r="Z55" s="20"/>
       <c r="AA55" s="20"/>
       <c r="AB55" s="20"/>
-      <c r="AC55" s="56"/>
+      <c r="AC55" s="61"/>
       <c r="AD55" s="19"/>
       <c r="AE55" s="19"/>
       <c r="AF55" s="19"/>
       <c r="AG55" s="19"/>
       <c r="AH55" s="19"/>
       <c r="AI55" s="19"/>
-      <c r="AJ55" s="48"/>
+      <c r="AJ55" s="54"/>
       <c r="AK55" s="19"/>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A56" s="58"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="50"/>
+      <c r="A56" s="46"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
       <c r="E56" s="2" t="s">
         <v>137</v>
       </c>
@@ -7363,30 +7437,30 @@
       <c r="S56" s="20"/>
       <c r="T56" s="20"/>
       <c r="U56" s="20"/>
-      <c r="V56" s="53"/>
+      <c r="V56" s="58"/>
       <c r="W56" s="20"/>
       <c r="X56" s="20"/>
       <c r="Y56" s="20"/>
       <c r="Z56" s="20"/>
       <c r="AA56" s="20"/>
       <c r="AB56" s="20"/>
-      <c r="AC56" s="56"/>
+      <c r="AC56" s="61"/>
       <c r="AD56" s="19"/>
       <c r="AE56" s="19"/>
       <c r="AF56" s="19"/>
       <c r="AG56" s="19"/>
       <c r="AH56" s="19"/>
       <c r="AI56" s="19"/>
-      <c r="AJ56" s="48"/>
+      <c r="AJ56" s="54"/>
       <c r="AK56" s="19"/>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A57" s="58"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="50" t="s">
+      <c r="A57" s="46"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="50" t="s">
+      <c r="D57" s="47" t="s">
         <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
@@ -7410,28 +7484,28 @@
       <c r="S57" s="20"/>
       <c r="T57" s="20"/>
       <c r="U57" s="20"/>
-      <c r="V57" s="53"/>
+      <c r="V57" s="58"/>
       <c r="W57" s="20"/>
       <c r="X57" s="20"/>
       <c r="Y57" s="20"/>
       <c r="Z57" s="20"/>
       <c r="AA57" s="20"/>
       <c r="AB57" s="20"/>
-      <c r="AC57" s="56"/>
+      <c r="AC57" s="61"/>
       <c r="AD57" s="19"/>
       <c r="AE57" s="19"/>
       <c r="AF57" s="19"/>
       <c r="AG57" s="19"/>
       <c r="AH57" s="19"/>
       <c r="AI57" s="19"/>
-      <c r="AJ57" s="48"/>
+      <c r="AJ57" s="54"/>
       <c r="AK57" s="19"/>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A58" s="58"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="50"/>
+      <c r="A58" s="46"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
       <c r="E58" s="2" t="s">
         <v>154</v>
       </c>
@@ -7453,28 +7527,28 @@
       <c r="S58" s="20"/>
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
-      <c r="V58" s="53"/>
+      <c r="V58" s="58"/>
       <c r="W58" s="20"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="20"/>
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
-      <c r="AC58" s="56"/>
+      <c r="AC58" s="61"/>
       <c r="AD58" s="19"/>
       <c r="AE58" s="19"/>
       <c r="AF58" s="19"/>
       <c r="AG58" s="19"/>
       <c r="AH58" s="19"/>
       <c r="AI58" s="19"/>
-      <c r="AJ58" s="48"/>
+      <c r="AJ58" s="54"/>
       <c r="AK58" s="19"/>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A59" s="58"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
+      <c r="A59" s="46"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
       <c r="E59" s="2" t="s">
         <v>155</v>
       </c>
@@ -7496,28 +7570,28 @@
       <c r="S59" s="20"/>
       <c r="T59" s="20"/>
       <c r="U59" s="20"/>
-      <c r="V59" s="53"/>
+      <c r="V59" s="58"/>
       <c r="W59" s="20"/>
       <c r="X59" s="20"/>
       <c r="Y59" s="20"/>
       <c r="Z59" s="20"/>
       <c r="AA59" s="20"/>
       <c r="AB59" s="20"/>
-      <c r="AC59" s="56"/>
+      <c r="AC59" s="61"/>
       <c r="AD59" s="19"/>
       <c r="AE59" s="19"/>
       <c r="AF59" s="19"/>
       <c r="AG59" s="19"/>
       <c r="AH59" s="19"/>
       <c r="AI59" s="19"/>
-      <c r="AJ59" s="48"/>
+      <c r="AJ59" s="54"/>
       <c r="AK59" s="19"/>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A60" s="58"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
+      <c r="A60" s="46"/>
+      <c r="B60" s="49"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="47"/>
       <c r="E60" s="2" t="s">
         <v>114</v>
       </c>
@@ -7539,28 +7613,28 @@
       <c r="S60" s="20"/>
       <c r="T60" s="20"/>
       <c r="U60" s="20"/>
-      <c r="V60" s="53"/>
+      <c r="V60" s="58"/>
       <c r="W60" s="20"/>
       <c r="X60" s="20"/>
       <c r="Y60" s="20"/>
       <c r="Z60" s="20"/>
       <c r="AA60" s="20"/>
       <c r="AB60" s="20"/>
-      <c r="AC60" s="56"/>
+      <c r="AC60" s="61"/>
       <c r="AD60" s="19"/>
       <c r="AE60" s="19"/>
       <c r="AF60" s="19"/>
       <c r="AG60" s="19"/>
       <c r="AH60" s="19"/>
       <c r="AI60" s="19"/>
-      <c r="AJ60" s="48"/>
+      <c r="AJ60" s="54"/>
       <c r="AK60" s="19"/>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A61" s="58"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="50"/>
+      <c r="A61" s="46"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="47"/>
+      <c r="D61" s="47"/>
       <c r="E61" s="2" t="s">
         <v>115</v>
       </c>
@@ -7582,28 +7656,28 @@
       <c r="S61" s="20"/>
       <c r="T61" s="20"/>
       <c r="U61" s="20"/>
-      <c r="V61" s="53"/>
+      <c r="V61" s="58"/>
       <c r="W61" s="20"/>
       <c r="X61" s="20"/>
       <c r="Y61" s="20"/>
       <c r="Z61" s="20"/>
       <c r="AA61" s="20"/>
       <c r="AB61" s="20"/>
-      <c r="AC61" s="56"/>
+      <c r="AC61" s="61"/>
       <c r="AD61" s="19"/>
       <c r="AE61" s="19"/>
       <c r="AF61" s="19"/>
       <c r="AG61" s="19"/>
       <c r="AH61" s="19"/>
       <c r="AI61" s="19"/>
-      <c r="AJ61" s="48"/>
+      <c r="AJ61" s="54"/>
       <c r="AK61" s="19"/>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A62" s="58"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="50" t="s">
+      <c r="A62" s="46"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47" t="s">
         <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
@@ -7627,28 +7701,28 @@
       <c r="S62" s="20"/>
       <c r="T62" s="20"/>
       <c r="U62" s="20"/>
-      <c r="V62" s="53"/>
+      <c r="V62" s="58"/>
       <c r="W62" s="20"/>
       <c r="X62" s="20"/>
       <c r="Y62" s="20"/>
       <c r="Z62" s="20"/>
       <c r="AA62" s="20"/>
       <c r="AB62" s="20"/>
-      <c r="AC62" s="56"/>
+      <c r="AC62" s="61"/>
       <c r="AD62" s="19"/>
       <c r="AE62" s="19"/>
       <c r="AF62" s="19"/>
       <c r="AG62" s="19"/>
       <c r="AH62" s="19"/>
       <c r="AI62" s="19"/>
-      <c r="AJ62" s="48"/>
+      <c r="AJ62" s="54"/>
       <c r="AK62" s="19"/>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A63" s="58"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="50"/>
+      <c r="A63" s="46"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="47"/>
+      <c r="D63" s="47"/>
       <c r="E63" s="2" t="s">
         <v>109</v>
       </c>
@@ -7670,30 +7744,30 @@
       <c r="S63" s="20"/>
       <c r="T63" s="20"/>
       <c r="U63" s="20"/>
-      <c r="V63" s="53"/>
+      <c r="V63" s="58"/>
       <c r="W63" s="20"/>
       <c r="X63" s="20"/>
       <c r="Y63" s="20"/>
       <c r="Z63" s="20"/>
       <c r="AA63" s="20"/>
       <c r="AB63" s="20"/>
-      <c r="AC63" s="56"/>
+      <c r="AC63" s="61"/>
       <c r="AD63" s="19"/>
       <c r="AE63" s="19"/>
       <c r="AF63" s="19"/>
       <c r="AG63" s="19"/>
       <c r="AH63" s="19"/>
       <c r="AI63" s="19"/>
-      <c r="AJ63" s="48"/>
+      <c r="AJ63" s="54"/>
       <c r="AK63" s="19"/>
     </row>
     <row r="64" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="58"/>
-      <c r="B64" s="60"/>
-      <c r="C64" s="50" t="s">
+      <c r="A64" s="46"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="D64" s="50" t="s">
+      <c r="D64" s="47" t="s">
         <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
@@ -7723,28 +7797,28 @@
       <c r="S64" s="20"/>
       <c r="T64" s="20"/>
       <c r="U64" s="20"/>
-      <c r="V64" s="53"/>
+      <c r="V64" s="58"/>
       <c r="W64" s="20"/>
       <c r="X64" s="20"/>
       <c r="Y64" s="20"/>
       <c r="Z64" s="20"/>
       <c r="AA64" s="20"/>
       <c r="AB64" s="20"/>
-      <c r="AC64" s="56"/>
+      <c r="AC64" s="61"/>
       <c r="AD64" s="19"/>
       <c r="AE64" s="19"/>
       <c r="AF64" s="19"/>
       <c r="AG64" s="19"/>
       <c r="AH64" s="19"/>
       <c r="AI64" s="19"/>
-      <c r="AJ64" s="48"/>
+      <c r="AJ64" s="54"/>
       <c r="AK64" s="19"/>
     </row>
     <row r="65" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="58"/>
-      <c r="B65" s="60"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="50"/>
+      <c r="A65" s="46"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="47"/>
+      <c r="D65" s="47"/>
       <c r="E65" s="2" t="s">
         <v>137</v>
       </c>
@@ -7772,27 +7846,27 @@
       <c r="S65" s="20"/>
       <c r="T65" s="20"/>
       <c r="U65" s="20"/>
-      <c r="V65" s="53"/>
+      <c r="V65" s="58"/>
       <c r="W65" s="20"/>
       <c r="X65" s="20"/>
       <c r="Y65" s="20"/>
       <c r="Z65" s="20"/>
       <c r="AA65" s="20"/>
       <c r="AB65" s="20"/>
-      <c r="AC65" s="56"/>
+      <c r="AC65" s="61"/>
       <c r="AD65" s="19"/>
       <c r="AE65" s="19"/>
       <c r="AF65" s="19"/>
       <c r="AG65" s="19"/>
       <c r="AH65" s="19"/>
       <c r="AI65" s="19"/>
-      <c r="AJ65" s="48"/>
+      <c r="AJ65" s="54"/>
       <c r="AK65" s="19"/>
     </row>
     <row r="66" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="58"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="50"/>
+      <c r="A66" s="46"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="47"/>
       <c r="D66" s="2" t="s">
         <v>105</v>
       </c>
@@ -7815,26 +7889,26 @@
       <c r="S66" s="20"/>
       <c r="T66" s="20"/>
       <c r="U66" s="20"/>
-      <c r="V66" s="53"/>
+      <c r="V66" s="58"/>
       <c r="W66" s="20"/>
       <c r="X66" s="20"/>
       <c r="Y66" s="20"/>
       <c r="Z66" s="20"/>
       <c r="AA66" s="20"/>
       <c r="AB66" s="20"/>
-      <c r="AC66" s="56"/>
+      <c r="AC66" s="61"/>
       <c r="AD66" s="19"/>
       <c r="AE66" s="19"/>
       <c r="AF66" s="19"/>
       <c r="AG66" s="19"/>
       <c r="AH66" s="19"/>
       <c r="AI66" s="19"/>
-      <c r="AJ66" s="48"/>
+      <c r="AJ66" s="54"/>
       <c r="AK66" s="19"/>
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A67" s="58"/>
-      <c r="B67" s="60"/>
+      <c r="A67" s="46"/>
+      <c r="B67" s="49"/>
       <c r="C67" s="20" t="s">
         <v>96</v>
       </c>
@@ -7858,26 +7932,26 @@
       <c r="S67" s="20"/>
       <c r="T67" s="20"/>
       <c r="U67" s="20"/>
-      <c r="V67" s="53"/>
+      <c r="V67" s="58"/>
       <c r="W67" s="20"/>
       <c r="X67" s="20"/>
       <c r="Y67" s="20"/>
       <c r="Z67" s="20"/>
       <c r="AA67" s="20"/>
       <c r="AB67" s="20"/>
-      <c r="AC67" s="56"/>
+      <c r="AC67" s="61"/>
       <c r="AD67" s="19"/>
       <c r="AE67" s="19"/>
       <c r="AF67" s="19"/>
       <c r="AG67" s="19"/>
       <c r="AH67" s="19"/>
       <c r="AI67" s="19"/>
-      <c r="AJ67" s="48"/>
+      <c r="AJ67" s="54"/>
       <c r="AK67" s="19"/>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A68" s="58"/>
-      <c r="B68" s="60"/>
+      <c r="A68" s="46"/>
+      <c r="B68" s="49"/>
       <c r="C68" s="20" t="s">
         <v>24</v>
       </c>
@@ -7903,27 +7977,27 @@
       <c r="S68" s="20"/>
       <c r="T68" s="20"/>
       <c r="U68" s="20"/>
-      <c r="V68" s="53"/>
+      <c r="V68" s="58"/>
       <c r="W68" s="20"/>
       <c r="X68" s="20"/>
       <c r="Y68" s="20"/>
       <c r="Z68" s="20"/>
       <c r="AA68" s="20"/>
       <c r="AB68" s="20"/>
-      <c r="AC68" s="56"/>
+      <c r="AC68" s="61"/>
       <c r="AD68" s="19"/>
       <c r="AE68" s="19"/>
       <c r="AF68" s="19"/>
       <c r="AG68" s="19"/>
       <c r="AH68" s="19"/>
       <c r="AI68" s="19"/>
-      <c r="AJ68" s="48"/>
+      <c r="AJ68" s="54"/>
       <c r="AK68" s="19"/>
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A69" s="58"/>
-      <c r="B69" s="60"/>
-      <c r="C69" s="50" t="s">
+      <c r="A69" s="46"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="47" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -7956,27 +8030,27 @@
       <c r="S69" s="20"/>
       <c r="T69" s="20"/>
       <c r="U69" s="20"/>
-      <c r="V69" s="53"/>
+      <c r="V69" s="58"/>
       <c r="W69" s="20"/>
       <c r="X69" s="20"/>
       <c r="Y69" s="20"/>
       <c r="Z69" s="20"/>
       <c r="AA69" s="20"/>
       <c r="AB69" s="20"/>
-      <c r="AC69" s="56"/>
+      <c r="AC69" s="61"/>
       <c r="AD69" s="19"/>
       <c r="AE69" s="19"/>
       <c r="AF69" s="19"/>
       <c r="AG69" s="19"/>
       <c r="AH69" s="19"/>
       <c r="AI69" s="19"/>
-      <c r="AJ69" s="48"/>
+      <c r="AJ69" s="54"/>
       <c r="AK69" s="19"/>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A70" s="58"/>
-      <c r="B70" s="60"/>
-      <c r="C70" s="50"/>
+      <c r="A70" s="46"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="47"/>
       <c r="D70" s="2" t="s">
         <v>133</v>
       </c>
@@ -8007,27 +8081,27 @@
       <c r="S70" s="20"/>
       <c r="T70" s="20"/>
       <c r="U70" s="20"/>
-      <c r="V70" s="53"/>
+      <c r="V70" s="58"/>
       <c r="W70" s="20"/>
       <c r="X70" s="20"/>
       <c r="Y70" s="20"/>
       <c r="Z70" s="20"/>
       <c r="AA70" s="20"/>
       <c r="AB70" s="20"/>
-      <c r="AC70" s="56"/>
+      <c r="AC70" s="61"/>
       <c r="AD70" s="19"/>
       <c r="AE70" s="19"/>
       <c r="AF70" s="19"/>
       <c r="AG70" s="19"/>
       <c r="AH70" s="19"/>
       <c r="AI70" s="19"/>
-      <c r="AJ70" s="48"/>
+      <c r="AJ70" s="54"/>
       <c r="AK70" s="19"/>
     </row>
     <row r="71" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="58"/>
-      <c r="B71" s="60"/>
-      <c r="C71" s="65" t="s">
+      <c r="A71" s="46"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="50" t="s">
         <v>106</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -8060,27 +8134,27 @@
       <c r="S71" s="20"/>
       <c r="T71" s="20"/>
       <c r="U71" s="20"/>
-      <c r="V71" s="53"/>
+      <c r="V71" s="58"/>
       <c r="W71" s="20"/>
       <c r="X71" s="20"/>
       <c r="Y71" s="20"/>
       <c r="Z71" s="20"/>
       <c r="AA71" s="20"/>
       <c r="AB71" s="20"/>
-      <c r="AC71" s="56"/>
+      <c r="AC71" s="61"/>
       <c r="AD71" s="19"/>
       <c r="AE71" s="19"/>
       <c r="AF71" s="19"/>
       <c r="AG71" s="19"/>
       <c r="AH71" s="19"/>
       <c r="AI71" s="19"/>
-      <c r="AJ71" s="48"/>
+      <c r="AJ71" s="54"/>
       <c r="AK71" s="19"/>
     </row>
     <row r="72" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="58"/>
-      <c r="B72" s="60"/>
-      <c r="C72" s="66"/>
+      <c r="A72" s="46"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="51"/>
       <c r="D72" s="2" t="s">
         <v>164</v>
       </c>
@@ -8109,27 +8183,27 @@
       <c r="S72" s="20"/>
       <c r="T72" s="20"/>
       <c r="U72" s="20"/>
-      <c r="V72" s="53"/>
+      <c r="V72" s="58"/>
       <c r="W72" s="20"/>
       <c r="X72" s="20"/>
       <c r="Y72" s="20"/>
       <c r="Z72" s="20"/>
       <c r="AA72" s="20"/>
       <c r="AB72" s="20"/>
-      <c r="AC72" s="56"/>
+      <c r="AC72" s="61"/>
       <c r="AD72" s="19"/>
       <c r="AE72" s="19"/>
       <c r="AF72" s="19"/>
       <c r="AG72" s="19"/>
       <c r="AH72" s="19"/>
       <c r="AI72" s="19"/>
-      <c r="AJ72" s="48"/>
+      <c r="AJ72" s="54"/>
       <c r="AK72" s="19"/>
     </row>
     <row r="73" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="58"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="67"/>
+      <c r="A73" s="46"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="52"/>
       <c r="D73" s="2" t="s">
         <v>165</v>
       </c>
@@ -8150,27 +8224,27 @@
       <c r="S73" s="37"/>
       <c r="T73" s="37"/>
       <c r="U73" s="37"/>
-      <c r="V73" s="53"/>
+      <c r="V73" s="58"/>
       <c r="W73" s="37"/>
       <c r="X73" s="37"/>
       <c r="Y73" s="37"/>
       <c r="Z73" s="37"/>
       <c r="AA73" s="37"/>
       <c r="AB73" s="37"/>
-      <c r="AC73" s="56"/>
+      <c r="AC73" s="61"/>
       <c r="AD73" s="19"/>
       <c r="AE73" s="19"/>
       <c r="AF73" s="19"/>
       <c r="AG73" s="19"/>
       <c r="AH73" s="19"/>
       <c r="AI73" s="19"/>
-      <c r="AJ73" s="48"/>
+      <c r="AJ73" s="54"/>
       <c r="AK73" s="19"/>
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A74" s="58"/>
-      <c r="B74" s="60"/>
-      <c r="C74" s="50" t="s">
+      <c r="A74" s="46"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="47" t="s">
         <v>30</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -8203,27 +8277,27 @@
       <c r="S74" s="20"/>
       <c r="T74" s="20"/>
       <c r="U74" s="20"/>
-      <c r="V74" s="53"/>
+      <c r="V74" s="58"/>
       <c r="W74" s="20"/>
       <c r="X74" s="20"/>
       <c r="Y74" s="20"/>
       <c r="Z74" s="20"/>
       <c r="AA74" s="20"/>
       <c r="AB74" s="20"/>
-      <c r="AC74" s="56"/>
+      <c r="AC74" s="61"/>
       <c r="AD74" s="19"/>
       <c r="AE74" s="19"/>
       <c r="AF74" s="19"/>
       <c r="AG74" s="19"/>
       <c r="AH74" s="19"/>
       <c r="AI74" s="19"/>
-      <c r="AJ74" s="48"/>
+      <c r="AJ74" s="54"/>
       <c r="AK74" s="19"/>
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A75" s="58"/>
-      <c r="B75" s="60"/>
-      <c r="C75" s="50"/>
+      <c r="A75" s="46"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="47"/>
       <c r="D75" s="2" t="s">
         <v>32</v>
       </c>
@@ -8246,27 +8320,27 @@
       <c r="S75" s="20"/>
       <c r="T75" s="20"/>
       <c r="U75" s="20"/>
-      <c r="V75" s="53"/>
+      <c r="V75" s="58"/>
       <c r="W75" s="20"/>
       <c r="X75" s="20"/>
       <c r="Y75" s="20"/>
       <c r="Z75" s="20"/>
       <c r="AA75" s="20"/>
       <c r="AB75" s="20"/>
-      <c r="AC75" s="56"/>
+      <c r="AC75" s="61"/>
       <c r="AD75" s="19"/>
       <c r="AE75" s="19"/>
       <c r="AF75" s="19"/>
       <c r="AG75" s="19"/>
       <c r="AH75" s="19"/>
       <c r="AI75" s="19"/>
-      <c r="AJ75" s="48"/>
+      <c r="AJ75" s="54"/>
       <c r="AK75" s="19"/>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A76" s="58"/>
-      <c r="B76" s="60"/>
-      <c r="C76" s="50"/>
+      <c r="A76" s="46"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="47"/>
       <c r="D76" s="2" t="s">
         <v>33</v>
       </c>
@@ -8289,25 +8363,25 @@
       <c r="S76" s="20"/>
       <c r="T76" s="20"/>
       <c r="U76" s="20"/>
-      <c r="V76" s="54"/>
+      <c r="V76" s="59"/>
       <c r="W76" s="20"/>
       <c r="X76" s="20"/>
       <c r="Y76" s="20"/>
       <c r="Z76" s="20"/>
       <c r="AA76" s="20"/>
       <c r="AB76" s="20"/>
-      <c r="AC76" s="57"/>
+      <c r="AC76" s="62"/>
       <c r="AD76" s="19"/>
       <c r="AE76" s="19"/>
       <c r="AF76" s="19"/>
       <c r="AG76" s="19"/>
       <c r="AH76" s="19"/>
       <c r="AI76" s="19"/>
-      <c r="AJ76" s="49"/>
+      <c r="AJ76" s="55"/>
       <c r="AK76" s="19"/>
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A77" s="58"/>
+      <c r="A77" s="46"/>
       <c r="B77" s="44" t="s">
         <v>21</v>
       </c>
@@ -8328,18 +8402,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A5:A77"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B55:B76"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C73"/>
     <mergeCell ref="AJ5:AJ76"/>
     <mergeCell ref="C18:C41"/>
     <mergeCell ref="B11:B54"/>
@@ -8356,6 +8418,18 @@
     <mergeCell ref="D62:D63"/>
     <mergeCell ref="D64:D65"/>
     <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A5:A77"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B55:B76"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C73"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K3:AK5 AK6:AK76 W6:AB76 AD6:AI76 K6:U76">
@@ -8390,10 +8464,13 @@
     <hyperlink ref="D42" location="SE!A1" display="SE"/>
     <hyperlink ref="D44" location="SE!A1" display="SE"/>
     <hyperlink ref="D7" r:id="rId1" display="仕様書"/>
+    <hyperlink ref="D6" r:id="rId2"/>
+    <hyperlink ref="D5" r:id="rId3"/>
+    <hyperlink ref="D9" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <drawing r:id="rId6"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -8430,24 +8507,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
     </row>
     <row r="4" spans="2:14" ht="45.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
       <c r="K4" s="11" t="s">
         <v>78</v>
       </c>
@@ -8456,14 +8533,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
       <c r="K5" s="12" t="s">
         <v>80</v>
       </c>
@@ -8472,14 +8549,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
       <c r="K6" s="12" t="s">
         <v>81</v>
       </c>
@@ -8488,70 +8565,70 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
       <c r="K7" s="12" t="s">
         <v>82</v>
       </c>
       <c r="L7" s="13"/>
     </row>
     <row r="8" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63"/>
       <c r="K8" s="12" t="s">
         <v>83</v>
       </c>
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
       <c r="K9" s="12" t="s">
         <v>84</v>
       </c>
       <c r="L9" s="13"/>
     </row>
     <row r="10" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
       <c r="K10" s="12" t="s">
         <v>85</v>
       </c>
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
       <c r="K11" s="12" t="s">
         <v>86</v>
       </c>
@@ -8559,136 +8636,136 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
       <c r="K12" s="12" t="s">
         <v>87</v>
       </c>
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
       <c r="K13" s="12" t="s">
         <v>88</v>
       </c>
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
       <c r="K14" s="12" t="s">
         <v>89</v>
       </c>
       <c r="L14" s="13"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="63"/>
+      <c r="I15" s="63"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="63"/>
+      <c r="H16" s="63"/>
+      <c r="I16" s="63"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8734,22 +8811,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="61"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
@@ -8836,7 +8913,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="65" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -8850,7 +8927,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="63"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="2" t="s">
         <v>73</v>
       </c>
@@ -8936,19 +9013,19 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/schedule/ガントチャートxlsx.xlsx
+++ b/schedule/ガントチャートxlsx.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="175">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -1233,6 +1233,20 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三浦</t>
+    <rPh sb="0" eb="2">
+      <t>ミウラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1919,25 +1933,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1948,6 +1953,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1970,6 +1978,24 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1980,18 +2006,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2727,15 +2741,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>4739</xdr:colOff>
+      <xdr:colOff>13021</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>8283</xdr:rowOff>
+      <xdr:rowOff>24849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>16565</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>256760</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>228578</xdr:rowOff>
+      <xdr:rowOff>245144</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2744,8 +2758,318 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11683217" y="16937935"/>
-          <a:ext cx="541913" cy="220295"/>
+          <a:off x="11691499" y="17062175"/>
+          <a:ext cx="508783" cy="220295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 52778"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>4739</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>31196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>248186</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>220296</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="右矢印 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12213304" y="17317000"/>
+          <a:ext cx="243447" cy="189100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 52778"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>16335</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>42790</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>259782</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>231890</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="右矢印 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12224900" y="17577073"/>
+          <a:ext cx="243447" cy="189100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 52778"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>24665</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>43326</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>3068</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>232426</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="右矢印 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12233230" y="15374435"/>
+          <a:ext cx="243447" cy="189100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 52778"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>16383</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>16566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>248478</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>224144</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="右矢印 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11694861" y="13426109"/>
+          <a:ext cx="497139" cy="207578"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 52778"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>1157</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>16566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>248478</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7919</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="右矢印 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11944679" y="4538870"/>
+          <a:ext cx="512364" cy="231549"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -4754,7 +5078,7 @@
       <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5039,16 +5363,16 @@
       </c>
     </row>
     <row r="5" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="62" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="49" t="s">
         <v>171</v>
       </c>
       <c r="E5" s="2"/>
@@ -5078,7 +5402,7 @@
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
-      <c r="V5" s="57" t="s">
+      <c r="V5" s="55" t="s">
         <v>117</v>
       </c>
       <c r="W5" s="19"/>
@@ -5087,7 +5411,7 @@
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
       <c r="AB5" s="19"/>
-      <c r="AC5" s="60" t="s">
+      <c r="AC5" s="58" t="s">
         <v>118</v>
       </c>
       <c r="AD5" s="19"/>
@@ -5096,18 +5420,18 @@
       <c r="AG5" s="19"/>
       <c r="AH5" s="19"/>
       <c r="AI5" s="19"/>
-      <c r="AJ5" s="53" t="s">
+      <c r="AJ5" s="50" t="s">
         <v>94</v>
       </c>
       <c r="AK5" s="19"/>
     </row>
     <row r="6" spans="1:45" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="46"/>
-      <c r="B6" s="48"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="48" t="s">
         <v>170</v>
       </c>
       <c r="E6" s="2"/>
@@ -5133,30 +5457,30 @@
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
-      <c r="V6" s="58"/>
+      <c r="V6" s="56"/>
       <c r="W6" s="20"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20"/>
-      <c r="AC6" s="61"/>
+      <c r="AC6" s="59"/>
       <c r="AD6" s="19"/>
       <c r="AE6" s="19"/>
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="19"/>
-      <c r="AJ6" s="54"/>
+      <c r="AJ6" s="51"/>
       <c r="AK6" s="19"/>
     </row>
     <row r="7" spans="1:45" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="46"/>
-      <c r="B7" s="48"/>
+      <c r="A7" s="61"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="47" t="s">
         <v>162</v>
       </c>
       <c r="E7" s="2"/>
@@ -5180,30 +5504,30 @@
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
-      <c r="V7" s="58"/>
+      <c r="V7" s="56"/>
       <c r="W7" s="20"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20"/>
-      <c r="AC7" s="61"/>
+      <c r="AC7" s="59"/>
       <c r="AD7" s="19"/>
       <c r="AE7" s="19"/>
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
       <c r="AI7" s="19"/>
-      <c r="AJ7" s="54"/>
+      <c r="AJ7" s="51"/>
       <c r="AK7" s="19"/>
     </row>
     <row r="8" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="46"/>
-      <c r="B8" s="48"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="67"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="2"/>
       <c r="F8" s="20" t="s">
         <v>39</v>
@@ -5227,30 +5551,30 @@
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
-      <c r="V8" s="58"/>
+      <c r="V8" s="56"/>
       <c r="W8" s="20"/>
       <c r="X8" s="20"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
-      <c r="AC8" s="61"/>
+      <c r="AC8" s="59"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
       <c r="AH8" s="19"/>
       <c r="AI8" s="19"/>
-      <c r="AJ8" s="54"/>
+      <c r="AJ8" s="51"/>
       <c r="AK8" s="19"/>
     </row>
     <row r="9" spans="1:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="46"/>
-      <c r="B9" s="48"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="70" t="s">
+      <c r="D9" s="49" t="s">
         <v>172</v>
       </c>
       <c r="E9" s="2"/>
@@ -5274,30 +5598,30 @@
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
-      <c r="V9" s="58"/>
+      <c r="V9" s="56"/>
       <c r="W9" s="20"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20"/>
-      <c r="AC9" s="61"/>
+      <c r="AC9" s="59"/>
       <c r="AD9" s="19"/>
       <c r="AE9" s="19"/>
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
       <c r="AI9" s="19"/>
-      <c r="AJ9" s="54"/>
+      <c r="AJ9" s="51"/>
       <c r="AK9" s="19"/>
     </row>
     <row r="10" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="46"/>
-      <c r="B10" s="48"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="67"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="2"/>
       <c r="F10" s="20" t="s">
         <v>39</v>
@@ -5319,29 +5643,29 @@
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
-      <c r="V10" s="58"/>
+      <c r="V10" s="56"/>
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20"/>
-      <c r="AC10" s="61"/>
+      <c r="AC10" s="59"/>
       <c r="AD10" s="19"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="19"/>
-      <c r="AJ10" s="54"/>
+      <c r="AJ10" s="51"/>
       <c r="AK10" s="19"/>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A11" s="46"/>
-      <c r="B11" s="56" t="s">
+      <c r="A11" s="61"/>
+      <c r="B11" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="47" t="s">
+      <c r="C11" s="53" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -5366,27 +5690,27 @@
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
-      <c r="V11" s="58"/>
+      <c r="V11" s="56"/>
       <c r="W11" s="20"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20"/>
-      <c r="AC11" s="61"/>
+      <c r="AC11" s="59"/>
       <c r="AD11" s="19"/>
       <c r="AE11" s="19"/>
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
       <c r="AI11" s="19"/>
-      <c r="AJ11" s="54"/>
+      <c r="AJ11" s="51"/>
       <c r="AK11" s="19"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A12" s="46"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="47"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
@@ -5409,27 +5733,27 @@
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
-      <c r="V12" s="58"/>
+      <c r="V12" s="56"/>
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20"/>
-      <c r="AC12" s="61"/>
+      <c r="AC12" s="59"/>
       <c r="AD12" s="19"/>
       <c r="AE12" s="19"/>
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="19"/>
-      <c r="AJ12" s="54"/>
+      <c r="AJ12" s="51"/>
       <c r="AK12" s="19"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A13" s="46"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="47"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="38" t="s">
         <v>45</v>
       </c>
@@ -5452,27 +5776,27 @@
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
-      <c r="V13" s="58"/>
+      <c r="V13" s="56"/>
       <c r="W13" s="20"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20"/>
-      <c r="AC13" s="61"/>
+      <c r="AC13" s="59"/>
       <c r="AD13" s="19"/>
       <c r="AE13" s="19"/>
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
-      <c r="AJ13" s="54"/>
+      <c r="AJ13" s="51"/>
       <c r="AK13" s="19"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A14" s="46"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="47"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="39" t="s">
         <v>27</v>
       </c>
@@ -5495,27 +5819,27 @@
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
-      <c r="V14" s="58"/>
+      <c r="V14" s="56"/>
       <c r="W14" s="20"/>
       <c r="X14" s="20"/>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20"/>
-      <c r="AC14" s="61"/>
+      <c r="AC14" s="59"/>
       <c r="AD14" s="19"/>
       <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
       <c r="AI14" s="19"/>
-      <c r="AJ14" s="54"/>
+      <c r="AJ14" s="51"/>
       <c r="AK14" s="19"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A15" s="46"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="47" t="s">
+      <c r="A15" s="61"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -5542,27 +5866,27 @@
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
-      <c r="V15" s="58"/>
+      <c r="V15" s="56"/>
       <c r="W15" s="20"/>
       <c r="X15" s="20"/>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
-      <c r="AC15" s="61"/>
+      <c r="AC15" s="59"/>
       <c r="AD15" s="19"/>
       <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
       <c r="AI15" s="19"/>
-      <c r="AJ15" s="54"/>
+      <c r="AJ15" s="51"/>
       <c r="AK15" s="19"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A16" s="46"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="47"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="40" t="s">
         <v>45</v>
       </c>
@@ -5585,27 +5909,27 @@
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
-      <c r="V16" s="58"/>
+      <c r="V16" s="56"/>
       <c r="W16" s="20"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
-      <c r="AC16" s="61"/>
+      <c r="AC16" s="59"/>
       <c r="AD16" s="19"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="19"/>
-      <c r="AJ16" s="54"/>
+      <c r="AJ16" s="51"/>
       <c r="AK16" s="19"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A17" s="46"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="47"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
@@ -5628,30 +5952,30 @@
       <c r="S17" s="20"/>
       <c r="T17" s="20"/>
       <c r="U17" s="20"/>
-      <c r="V17" s="58"/>
+      <c r="V17" s="56"/>
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
-      <c r="AC17" s="61"/>
+      <c r="AC17" s="59"/>
       <c r="AD17" s="19"/>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="19"/>
       <c r="AI17" s="19"/>
-      <c r="AJ17" s="54"/>
+      <c r="AJ17" s="51"/>
       <c r="AK17" s="19"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A18" s="46"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="47" t="s">
+      <c r="A18" s="61"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="47" t="s">
+      <c r="D18" s="53" t="s">
         <v>102</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -5681,28 +6005,28 @@
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
-      <c r="V18" s="58"/>
+      <c r="V18" s="56"/>
       <c r="W18" s="20"/>
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
-      <c r="AC18" s="61"/>
+      <c r="AC18" s="59"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="19"/>
       <c r="AI18" s="19"/>
-      <c r="AJ18" s="54"/>
+      <c r="AJ18" s="51"/>
       <c r="AK18" s="19"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A19" s="46"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="2" t="s">
         <v>146</v>
       </c>
@@ -5715,9 +6039,11 @@
       <c r="H19" s="35">
         <v>44125</v>
       </c>
-      <c r="I19" s="35"/>
+      <c r="I19" s="35">
+        <v>44126</v>
+      </c>
       <c r="J19" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="30"/>
       <c r="L19" s="20"/>
@@ -5730,28 +6056,28 @@
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
-      <c r="V19" s="58"/>
+      <c r="V19" s="56"/>
       <c r="W19" s="20"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
-      <c r="AC19" s="61"/>
+      <c r="AC19" s="59"/>
       <c r="AD19" s="19"/>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
       <c r="AI19" s="19"/>
-      <c r="AJ19" s="54"/>
+      <c r="AJ19" s="51"/>
       <c r="AK19" s="19"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A20" s="46"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="2" t="s">
         <v>119</v>
       </c>
@@ -5781,28 +6107,28 @@
       <c r="S20" s="20"/>
       <c r="T20" s="20"/>
       <c r="U20" s="20"/>
-      <c r="V20" s="58"/>
+      <c r="V20" s="56"/>
       <c r="W20" s="20"/>
       <c r="X20" s="20"/>
       <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
-      <c r="AC20" s="61"/>
+      <c r="AC20" s="59"/>
       <c r="AD20" s="19"/>
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="19"/>
       <c r="AI20" s="19"/>
-      <c r="AJ20" s="54"/>
+      <c r="AJ20" s="51"/>
       <c r="AK20" s="19"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A21" s="46"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="2" t="s">
         <v>115</v>
       </c>
@@ -5824,28 +6150,28 @@
       <c r="S21" s="20"/>
       <c r="T21" s="20"/>
       <c r="U21" s="20"/>
-      <c r="V21" s="58"/>
+      <c r="V21" s="56"/>
       <c r="W21" s="20"/>
       <c r="X21" s="20"/>
       <c r="Y21" s="20"/>
       <c r="Z21" s="20"/>
       <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
-      <c r="AC21" s="61"/>
+      <c r="AC21" s="59"/>
       <c r="AD21" s="19"/>
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
       <c r="AI21" s="19"/>
-      <c r="AJ21" s="54"/>
+      <c r="AJ21" s="51"/>
       <c r="AK21" s="19"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A22" s="46"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="2" t="s">
         <v>143</v>
       </c>
@@ -5875,28 +6201,28 @@
       <c r="S22" s="20"/>
       <c r="T22" s="20"/>
       <c r="U22" s="20"/>
-      <c r="V22" s="58"/>
+      <c r="V22" s="56"/>
       <c r="W22" s="20"/>
       <c r="X22" s="20"/>
       <c r="Y22" s="20"/>
       <c r="Z22" s="20"/>
       <c r="AA22" s="20"/>
       <c r="AB22" s="20"/>
-      <c r="AC22" s="61"/>
+      <c r="AC22" s="59"/>
       <c r="AD22" s="19"/>
       <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="19"/>
       <c r="AI22" s="19"/>
-      <c r="AJ22" s="54"/>
+      <c r="AJ22" s="51"/>
       <c r="AK22" s="19"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A23" s="46"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="2" t="s">
         <v>125</v>
       </c>
@@ -5926,28 +6252,28 @@
       <c r="S23" s="20"/>
       <c r="T23" s="20"/>
       <c r="U23" s="20"/>
-      <c r="V23" s="58"/>
+      <c r="V23" s="56"/>
       <c r="W23" s="20"/>
       <c r="X23" s="20"/>
       <c r="Y23" s="20"/>
       <c r="Z23" s="20"/>
       <c r="AA23" s="20"/>
       <c r="AB23" s="20"/>
-      <c r="AC23" s="61"/>
+      <c r="AC23" s="59"/>
       <c r="AD23" s="19"/>
       <c r="AE23" s="19"/>
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="19"/>
       <c r="AI23" s="19"/>
-      <c r="AJ23" s="54"/>
+      <c r="AJ23" s="51"/>
       <c r="AK23" s="19"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A24" s="46"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="2" t="s">
         <v>116</v>
       </c>
@@ -5969,28 +6295,28 @@
       <c r="S24" s="20"/>
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
-      <c r="V24" s="58"/>
+      <c r="V24" s="56"/>
       <c r="W24" s="20"/>
       <c r="X24" s="20"/>
       <c r="Y24" s="20"/>
       <c r="Z24" s="20"/>
       <c r="AA24" s="20"/>
       <c r="AB24" s="20"/>
-      <c r="AC24" s="61"/>
+      <c r="AC24" s="59"/>
       <c r="AD24" s="19"/>
       <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="19"/>
       <c r="AI24" s="19"/>
-      <c r="AJ24" s="54"/>
+      <c r="AJ24" s="51"/>
       <c r="AK24" s="19"/>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A25" s="46"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="2" t="s">
         <v>113</v>
       </c>
@@ -6020,28 +6346,28 @@
       <c r="S25" s="20"/>
       <c r="T25" s="20"/>
       <c r="U25" s="20"/>
-      <c r="V25" s="58"/>
+      <c r="V25" s="56"/>
       <c r="W25" s="20"/>
       <c r="X25" s="20"/>
       <c r="Y25" s="20"/>
       <c r="Z25" s="20"/>
       <c r="AA25" s="20"/>
       <c r="AB25" s="20"/>
-      <c r="AC25" s="61"/>
+      <c r="AC25" s="59"/>
       <c r="AD25" s="19"/>
       <c r="AE25" s="19"/>
       <c r="AF25" s="19"/>
       <c r="AG25" s="19"/>
       <c r="AH25" s="19"/>
       <c r="AI25" s="19"/>
-      <c r="AJ25" s="54"/>
+      <c r="AJ25" s="51"/>
       <c r="AK25" s="19"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A26" s="46"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
       <c r="E26" s="2" t="s">
         <v>109</v>
       </c>
@@ -6063,28 +6389,28 @@
       <c r="S26" s="20"/>
       <c r="T26" s="20"/>
       <c r="U26" s="20"/>
-      <c r="V26" s="58"/>
+      <c r="V26" s="56"/>
       <c r="W26" s="20"/>
       <c r="X26" s="20"/>
       <c r="Y26" s="20"/>
       <c r="Z26" s="20"/>
       <c r="AA26" s="20"/>
       <c r="AB26" s="20"/>
-      <c r="AC26" s="61"/>
+      <c r="AC26" s="59"/>
       <c r="AD26" s="19"/>
       <c r="AE26" s="19"/>
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
       <c r="AH26" s="19"/>
       <c r="AI26" s="19"/>
-      <c r="AJ26" s="54"/>
+      <c r="AJ26" s="51"/>
       <c r="AK26" s="19"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A27" s="46"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47" t="s">
+      <c r="A27" s="61"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -6116,28 +6442,28 @@
       <c r="S27" s="20"/>
       <c r="T27" s="20"/>
       <c r="U27" s="20"/>
-      <c r="V27" s="58"/>
+      <c r="V27" s="56"/>
       <c r="W27" s="20"/>
       <c r="X27" s="20"/>
       <c r="Y27" s="20"/>
       <c r="Z27" s="20"/>
       <c r="AA27" s="20"/>
       <c r="AB27" s="20"/>
-      <c r="AC27" s="61"/>
+      <c r="AC27" s="59"/>
       <c r="AD27" s="19"/>
       <c r="AE27" s="19"/>
       <c r="AF27" s="19"/>
       <c r="AG27" s="19"/>
       <c r="AH27" s="19"/>
       <c r="AI27" s="19"/>
-      <c r="AJ27" s="54"/>
+      <c r="AJ27" s="51"/>
       <c r="AK27" s="19"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A28" s="46"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
       <c r="E28" s="2" t="s">
         <v>126</v>
       </c>
@@ -6167,28 +6493,28 @@
       <c r="S28" s="20"/>
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
-      <c r="V28" s="58"/>
+      <c r="V28" s="56"/>
       <c r="W28" s="20"/>
       <c r="X28" s="20"/>
       <c r="Y28" s="20"/>
       <c r="Z28" s="20"/>
       <c r="AA28" s="20"/>
       <c r="AB28" s="20"/>
-      <c r="AC28" s="61"/>
+      <c r="AC28" s="59"/>
       <c r="AD28" s="19"/>
       <c r="AE28" s="19"/>
       <c r="AF28" s="19"/>
       <c r="AG28" s="19"/>
       <c r="AH28" s="19"/>
       <c r="AI28" s="19"/>
-      <c r="AJ28" s="54"/>
+      <c r="AJ28" s="51"/>
       <c r="AK28" s="19"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A29" s="46"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47" t="s">
+      <c r="A29" s="61"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53" t="s">
         <v>13</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -6212,28 +6538,28 @@
       <c r="S29" s="20"/>
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
-      <c r="V29" s="58"/>
+      <c r="V29" s="56"/>
       <c r="W29" s="20"/>
       <c r="X29" s="20"/>
       <c r="Y29" s="20"/>
       <c r="Z29" s="20"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="20"/>
-      <c r="AC29" s="61"/>
+      <c r="AC29" s="59"/>
       <c r="AD29" s="19"/>
       <c r="AE29" s="19"/>
       <c r="AF29" s="19"/>
       <c r="AG29" s="19"/>
       <c r="AH29" s="19"/>
       <c r="AI29" s="19"/>
-      <c r="AJ29" s="54"/>
+      <c r="AJ29" s="51"/>
       <c r="AK29" s="19"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A30" s="46"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
       <c r="E30" s="2" t="s">
         <v>151</v>
       </c>
@@ -6255,28 +6581,28 @@
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
       <c r="U30" s="20"/>
-      <c r="V30" s="58"/>
+      <c r="V30" s="56"/>
       <c r="W30" s="20"/>
       <c r="X30" s="20"/>
       <c r="Y30" s="20"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
-      <c r="AC30" s="61"/>
+      <c r="AC30" s="59"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="19"/>
       <c r="AF30" s="19"/>
       <c r="AG30" s="19"/>
       <c r="AH30" s="19"/>
       <c r="AI30" s="19"/>
-      <c r="AJ30" s="54"/>
+      <c r="AJ30" s="51"/>
       <c r="AK30" s="19"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A31" s="46"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
       <c r="E31" s="2" t="s">
         <v>120</v>
       </c>
@@ -6306,28 +6632,28 @@
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
-      <c r="V31" s="58"/>
+      <c r="V31" s="56"/>
       <c r="W31" s="20"/>
       <c r="X31" s="20"/>
       <c r="Y31" s="20"/>
       <c r="Z31" s="20"/>
       <c r="AA31" s="20"/>
       <c r="AB31" s="20"/>
-      <c r="AC31" s="61"/>
+      <c r="AC31" s="59"/>
       <c r="AD31" s="19"/>
       <c r="AE31" s="19"/>
       <c r="AF31" s="19"/>
       <c r="AG31" s="19"/>
       <c r="AH31" s="19"/>
       <c r="AI31" s="19"/>
-      <c r="AJ31" s="54"/>
+      <c r="AJ31" s="51"/>
       <c r="AK31" s="19"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A32" s="46"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47" t="s">
+      <c r="A32" s="61"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53" t="s">
         <v>97</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -6351,28 +6677,28 @@
       <c r="S32" s="20"/>
       <c r="T32" s="20"/>
       <c r="U32" s="20"/>
-      <c r="V32" s="58"/>
+      <c r="V32" s="56"/>
       <c r="W32" s="20"/>
       <c r="X32" s="20"/>
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
       <c r="AA32" s="20"/>
       <c r="AB32" s="20"/>
-      <c r="AC32" s="61"/>
+      <c r="AC32" s="59"/>
       <c r="AD32" s="19"/>
       <c r="AE32" s="19"/>
       <c r="AF32" s="19"/>
       <c r="AG32" s="19"/>
       <c r="AH32" s="19"/>
       <c r="AI32" s="19"/>
-      <c r="AJ32" s="54"/>
+      <c r="AJ32" s="51"/>
       <c r="AK32" s="19"/>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A33" s="46"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
       <c r="E33" s="2" t="s">
         <v>149</v>
       </c>
@@ -6400,28 +6726,28 @@
       <c r="S33" s="20"/>
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
-      <c r="V33" s="58"/>
+      <c r="V33" s="56"/>
       <c r="W33" s="20"/>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
       <c r="AA33" s="20"/>
       <c r="AB33" s="20"/>
-      <c r="AC33" s="61"/>
+      <c r="AC33" s="59"/>
       <c r="AD33" s="19"/>
       <c r="AE33" s="19"/>
       <c r="AF33" s="19"/>
       <c r="AG33" s="19"/>
       <c r="AH33" s="19"/>
       <c r="AI33" s="19"/>
-      <c r="AJ33" s="54"/>
+      <c r="AJ33" s="51"/>
       <c r="AK33" s="19"/>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A34" s="46"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="2" t="s">
         <v>110</v>
       </c>
@@ -6443,27 +6769,27 @@
       <c r="S34" s="20"/>
       <c r="T34" s="20"/>
       <c r="U34" s="20"/>
-      <c r="V34" s="58"/>
+      <c r="V34" s="56"/>
       <c r="W34" s="20"/>
       <c r="X34" s="20"/>
       <c r="Y34" s="20"/>
       <c r="Z34" s="20"/>
       <c r="AA34" s="20"/>
       <c r="AB34" s="20"/>
-      <c r="AC34" s="61"/>
+      <c r="AC34" s="59"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="19"/>
       <c r="AG34" s="19"/>
       <c r="AH34" s="19"/>
       <c r="AI34" s="19"/>
-      <c r="AJ34" s="54"/>
+      <c r="AJ34" s="51"/>
       <c r="AK34" s="19"/>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A35" s="46"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="47"/>
+      <c r="A35" s="61"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="53"/>
       <c r="D35" s="2" t="s">
         <v>24</v>
       </c>
@@ -6488,27 +6814,27 @@
       <c r="S35" s="20"/>
       <c r="T35" s="20"/>
       <c r="U35" s="20"/>
-      <c r="V35" s="58"/>
+      <c r="V35" s="56"/>
       <c r="W35" s="20"/>
       <c r="X35" s="20"/>
       <c r="Y35" s="20"/>
       <c r="Z35" s="20"/>
       <c r="AA35" s="20"/>
       <c r="AB35" s="20"/>
-      <c r="AC35" s="61"/>
+      <c r="AC35" s="59"/>
       <c r="AD35" s="19"/>
       <c r="AE35" s="19"/>
       <c r="AF35" s="19"/>
       <c r="AG35" s="19"/>
       <c r="AH35" s="19"/>
       <c r="AI35" s="19"/>
-      <c r="AJ35" s="54"/>
+      <c r="AJ35" s="51"/>
       <c r="AK35" s="19"/>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A36" s="46"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="47"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="2" t="s">
         <v>152</v>
       </c>
@@ -6539,27 +6865,27 @@
       <c r="S36" s="20"/>
       <c r="T36" s="20"/>
       <c r="U36" s="20"/>
-      <c r="V36" s="58"/>
+      <c r="V36" s="56"/>
       <c r="W36" s="20"/>
       <c r="X36" s="20"/>
       <c r="Y36" s="20"/>
       <c r="Z36" s="20"/>
       <c r="AA36" s="20"/>
       <c r="AB36" s="20"/>
-      <c r="AC36" s="61"/>
+      <c r="AC36" s="59"/>
       <c r="AD36" s="19"/>
       <c r="AE36" s="19"/>
       <c r="AF36" s="19"/>
       <c r="AG36" s="19"/>
       <c r="AH36" s="19"/>
       <c r="AI36" s="19"/>
-      <c r="AJ36" s="54"/>
+      <c r="AJ36" s="51"/>
       <c r="AK36" s="19"/>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A37" s="46"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="47"/>
+      <c r="A37" s="61"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="53"/>
       <c r="D37" s="2" t="s">
         <v>101</v>
       </c>
@@ -6582,27 +6908,27 @@
       <c r="S37" s="20"/>
       <c r="T37" s="20"/>
       <c r="U37" s="20"/>
-      <c r="V37" s="58"/>
+      <c r="V37" s="56"/>
       <c r="W37" s="20"/>
       <c r="X37" s="20"/>
       <c r="Y37" s="20"/>
       <c r="Z37" s="20"/>
       <c r="AA37" s="20"/>
       <c r="AB37" s="20"/>
-      <c r="AC37" s="61"/>
+      <c r="AC37" s="59"/>
       <c r="AD37" s="19"/>
       <c r="AE37" s="19"/>
       <c r="AF37" s="19"/>
       <c r="AG37" s="19"/>
       <c r="AH37" s="19"/>
       <c r="AI37" s="19"/>
-      <c r="AJ37" s="54"/>
+      <c r="AJ37" s="51"/>
       <c r="AK37" s="19"/>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A38" s="46"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="47"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="53"/>
       <c r="D38" s="2" t="s">
         <v>23</v>
       </c>
@@ -6625,27 +6951,27 @@
       <c r="S38" s="20"/>
       <c r="T38" s="20"/>
       <c r="U38" s="20"/>
-      <c r="V38" s="58"/>
+      <c r="V38" s="56"/>
       <c r="W38" s="20"/>
       <c r="X38" s="20"/>
       <c r="Y38" s="20"/>
       <c r="Z38" s="20"/>
       <c r="AA38" s="20"/>
       <c r="AB38" s="20"/>
-      <c r="AC38" s="61"/>
+      <c r="AC38" s="59"/>
       <c r="AD38" s="19"/>
       <c r="AE38" s="19"/>
       <c r="AF38" s="19"/>
       <c r="AG38" s="19"/>
       <c r="AH38" s="19"/>
       <c r="AI38" s="19"/>
-      <c r="AJ38" s="54"/>
+      <c r="AJ38" s="51"/>
       <c r="AK38" s="19"/>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A39" s="46"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="47"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="53"/>
       <c r="D39" s="39" t="s">
         <v>27</v>
       </c>
@@ -6668,27 +6994,27 @@
       <c r="S39" s="20"/>
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
-      <c r="V39" s="58"/>
+      <c r="V39" s="56"/>
       <c r="W39" s="20"/>
       <c r="X39" s="20"/>
       <c r="Y39" s="20"/>
       <c r="Z39" s="20"/>
       <c r="AA39" s="20"/>
       <c r="AB39" s="20"/>
-      <c r="AC39" s="61"/>
+      <c r="AC39" s="59"/>
       <c r="AD39" s="19"/>
       <c r="AE39" s="19"/>
       <c r="AF39" s="19"/>
       <c r="AG39" s="19"/>
       <c r="AH39" s="19"/>
       <c r="AI39" s="19"/>
-      <c r="AJ39" s="54"/>
+      <c r="AJ39" s="51"/>
       <c r="AK39" s="19"/>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A40" s="46"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="47"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="53"/>
       <c r="D40" s="38" t="s">
         <v>45</v>
       </c>
@@ -6711,27 +7037,27 @@
       <c r="S40" s="20"/>
       <c r="T40" s="20"/>
       <c r="U40" s="20"/>
-      <c r="V40" s="58"/>
+      <c r="V40" s="56"/>
       <c r="W40" s="20"/>
       <c r="X40" s="20"/>
       <c r="Y40" s="20"/>
       <c r="Z40" s="20"/>
       <c r="AA40" s="20"/>
       <c r="AB40" s="20"/>
-      <c r="AC40" s="61"/>
+      <c r="AC40" s="59"/>
       <c r="AD40" s="19"/>
       <c r="AE40" s="19"/>
       <c r="AF40" s="19"/>
       <c r="AG40" s="19"/>
       <c r="AH40" s="19"/>
       <c r="AI40" s="19"/>
-      <c r="AJ40" s="54"/>
+      <c r="AJ40" s="51"/>
       <c r="AK40" s="19"/>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A41" s="46"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="47"/>
+      <c r="A41" s="61"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="53"/>
       <c r="D41" s="2" t="s">
         <v>26</v>
       </c>
@@ -6754,27 +7080,27 @@
       <c r="S41" s="20"/>
       <c r="T41" s="20"/>
       <c r="U41" s="20"/>
-      <c r="V41" s="58"/>
+      <c r="V41" s="56"/>
       <c r="W41" s="20"/>
       <c r="X41" s="20"/>
       <c r="Y41" s="20"/>
       <c r="Z41" s="20"/>
       <c r="AA41" s="20"/>
       <c r="AB41" s="20"/>
-      <c r="AC41" s="61"/>
+      <c r="AC41" s="59"/>
       <c r="AD41" s="19"/>
       <c r="AE41" s="19"/>
       <c r="AF41" s="19"/>
       <c r="AG41" s="19"/>
       <c r="AH41" s="19"/>
       <c r="AI41" s="19"/>
-      <c r="AJ41" s="54"/>
+      <c r="AJ41" s="51"/>
       <c r="AK41" s="19"/>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A42" s="46"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="47" t="s">
+      <c r="A42" s="61"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="53" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="40" t="s">
@@ -6799,27 +7125,27 @@
       <c r="S42" s="20"/>
       <c r="T42" s="20"/>
       <c r="U42" s="20"/>
-      <c r="V42" s="58"/>
+      <c r="V42" s="56"/>
       <c r="W42" s="20"/>
       <c r="X42" s="20"/>
       <c r="Y42" s="20"/>
       <c r="Z42" s="20"/>
       <c r="AA42" s="20"/>
       <c r="AB42" s="20"/>
-      <c r="AC42" s="61"/>
+      <c r="AC42" s="59"/>
       <c r="AD42" s="19"/>
       <c r="AE42" s="19"/>
       <c r="AF42" s="19"/>
       <c r="AG42" s="19"/>
       <c r="AH42" s="19"/>
       <c r="AI42" s="19"/>
-      <c r="AJ42" s="54"/>
+      <c r="AJ42" s="51"/>
       <c r="AK42" s="19"/>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A43" s="46"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="47"/>
+      <c r="A43" s="61"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="53"/>
       <c r="D43" s="2" t="s">
         <v>26</v>
       </c>
@@ -6842,27 +7168,27 @@
       <c r="S43" s="20"/>
       <c r="T43" s="20"/>
       <c r="U43" s="20"/>
-      <c r="V43" s="58"/>
+      <c r="V43" s="56"/>
       <c r="W43" s="20"/>
       <c r="X43" s="20"/>
       <c r="Y43" s="20"/>
       <c r="Z43" s="20"/>
       <c r="AA43" s="20"/>
       <c r="AB43" s="20"/>
-      <c r="AC43" s="61"/>
+      <c r="AC43" s="59"/>
       <c r="AD43" s="19"/>
       <c r="AE43" s="19"/>
       <c r="AF43" s="19"/>
       <c r="AG43" s="19"/>
       <c r="AH43" s="19"/>
       <c r="AI43" s="19"/>
-      <c r="AJ43" s="54"/>
+      <c r="AJ43" s="51"/>
       <c r="AK43" s="19"/>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A44" s="46"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="47" t="s">
+      <c r="A44" s="61"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="53" t="s">
         <v>43</v>
       </c>
       <c r="D44" s="38" t="s">
@@ -6887,27 +7213,27 @@
       <c r="S44" s="20"/>
       <c r="T44" s="20"/>
       <c r="U44" s="20"/>
-      <c r="V44" s="58"/>
+      <c r="V44" s="56"/>
       <c r="W44" s="20"/>
       <c r="X44" s="20"/>
       <c r="Y44" s="20"/>
       <c r="Z44" s="20"/>
       <c r="AA44" s="20"/>
       <c r="AB44" s="20"/>
-      <c r="AC44" s="61"/>
+      <c r="AC44" s="59"/>
       <c r="AD44" s="19"/>
       <c r="AE44" s="19"/>
       <c r="AF44" s="19"/>
       <c r="AG44" s="19"/>
       <c r="AH44" s="19"/>
       <c r="AI44" s="19"/>
-      <c r="AJ44" s="54"/>
+      <c r="AJ44" s="51"/>
       <c r="AK44" s="19"/>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A45" s="46"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="47"/>
+      <c r="A45" s="61"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="53"/>
       <c r="D45" s="2" t="s">
         <v>26</v>
       </c>
@@ -6930,27 +7256,27 @@
       <c r="S45" s="20"/>
       <c r="T45" s="20"/>
       <c r="U45" s="20"/>
-      <c r="V45" s="58"/>
+      <c r="V45" s="56"/>
       <c r="W45" s="20"/>
       <c r="X45" s="20"/>
       <c r="Y45" s="20"/>
       <c r="Z45" s="20"/>
       <c r="AA45" s="20"/>
       <c r="AB45" s="20"/>
-      <c r="AC45" s="61"/>
+      <c r="AC45" s="59"/>
       <c r="AD45" s="19"/>
       <c r="AE45" s="19"/>
       <c r="AF45" s="19"/>
       <c r="AG45" s="19"/>
       <c r="AH45" s="19"/>
       <c r="AI45" s="19"/>
-      <c r="AJ45" s="54"/>
+      <c r="AJ45" s="51"/>
       <c r="AK45" s="19"/>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A46" s="46"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="47"/>
+      <c r="A46" s="61"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="53"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="20"/>
@@ -6971,27 +7297,27 @@
       <c r="S46" s="20"/>
       <c r="T46" s="20"/>
       <c r="U46" s="20"/>
-      <c r="V46" s="58"/>
+      <c r="V46" s="56"/>
       <c r="W46" s="20"/>
       <c r="X46" s="20"/>
       <c r="Y46" s="20"/>
       <c r="Z46" s="20"/>
       <c r="AA46" s="20"/>
       <c r="AB46" s="20"/>
-      <c r="AC46" s="61"/>
+      <c r="AC46" s="59"/>
       <c r="AD46" s="19"/>
       <c r="AE46" s="19"/>
       <c r="AF46" s="19"/>
       <c r="AG46" s="19"/>
       <c r="AH46" s="19"/>
       <c r="AI46" s="19"/>
-      <c r="AJ46" s="54"/>
+      <c r="AJ46" s="51"/>
       <c r="AK46" s="19"/>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A47" s="46"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="47" t="s">
+      <c r="A47" s="61"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="53" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -7016,27 +7342,27 @@
       <c r="S47" s="20"/>
       <c r="T47" s="20"/>
       <c r="U47" s="20"/>
-      <c r="V47" s="58"/>
+      <c r="V47" s="56"/>
       <c r="W47" s="20"/>
       <c r="X47" s="20"/>
       <c r="Y47" s="20"/>
       <c r="Z47" s="20"/>
       <c r="AA47" s="20"/>
       <c r="AB47" s="20"/>
-      <c r="AC47" s="61"/>
+      <c r="AC47" s="59"/>
       <c r="AD47" s="19"/>
       <c r="AE47" s="19"/>
       <c r="AF47" s="19"/>
       <c r="AG47" s="19"/>
       <c r="AH47" s="19"/>
       <c r="AI47" s="19"/>
-      <c r="AJ47" s="54"/>
+      <c r="AJ47" s="51"/>
       <c r="AK47" s="19"/>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A48" s="46"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="47"/>
+      <c r="A48" s="61"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="53"/>
       <c r="D48" s="2" t="s">
         <v>36</v>
       </c>
@@ -7059,27 +7385,27 @@
       <c r="S48" s="20"/>
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
-      <c r="V48" s="58"/>
+      <c r="V48" s="56"/>
       <c r="W48" s="20"/>
       <c r="X48" s="20"/>
       <c r="Y48" s="20"/>
       <c r="Z48" s="20"/>
       <c r="AA48" s="20"/>
       <c r="AB48" s="20"/>
-      <c r="AC48" s="61"/>
+      <c r="AC48" s="59"/>
       <c r="AD48" s="19"/>
       <c r="AE48" s="19"/>
       <c r="AF48" s="19"/>
       <c r="AG48" s="19"/>
       <c r="AH48" s="19"/>
       <c r="AI48" s="19"/>
-      <c r="AJ48" s="54"/>
+      <c r="AJ48" s="51"/>
       <c r="AK48" s="19"/>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A49" s="46"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="47"/>
+      <c r="A49" s="61"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="53"/>
       <c r="D49" s="2" t="s">
         <v>37</v>
       </c>
@@ -7102,27 +7428,27 @@
       <c r="S49" s="20"/>
       <c r="T49" s="20"/>
       <c r="U49" s="20"/>
-      <c r="V49" s="58"/>
+      <c r="V49" s="56"/>
       <c r="W49" s="20"/>
       <c r="X49" s="20"/>
       <c r="Y49" s="20"/>
       <c r="Z49" s="20"/>
       <c r="AA49" s="20"/>
       <c r="AB49" s="20"/>
-      <c r="AC49" s="61"/>
+      <c r="AC49" s="59"/>
       <c r="AD49" s="19"/>
       <c r="AE49" s="19"/>
       <c r="AF49" s="19"/>
       <c r="AG49" s="19"/>
       <c r="AH49" s="19"/>
       <c r="AI49" s="19"/>
-      <c r="AJ49" s="54"/>
+      <c r="AJ49" s="51"/>
       <c r="AK49" s="19"/>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A50" s="46"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="47"/>
+      <c r="A50" s="61"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="53"/>
       <c r="D50" s="2" t="s">
         <v>38</v>
       </c>
@@ -7145,27 +7471,27 @@
       <c r="S50" s="20"/>
       <c r="T50" s="20"/>
       <c r="U50" s="20"/>
-      <c r="V50" s="58"/>
+      <c r="V50" s="56"/>
       <c r="W50" s="20"/>
       <c r="X50" s="20"/>
       <c r="Y50" s="20"/>
       <c r="Z50" s="20"/>
       <c r="AA50" s="20"/>
       <c r="AB50" s="20"/>
-      <c r="AC50" s="61"/>
+      <c r="AC50" s="59"/>
       <c r="AD50" s="19"/>
       <c r="AE50" s="19"/>
       <c r="AF50" s="19"/>
       <c r="AG50" s="19"/>
       <c r="AH50" s="19"/>
       <c r="AI50" s="19"/>
-      <c r="AJ50" s="54"/>
+      <c r="AJ50" s="51"/>
       <c r="AK50" s="19"/>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A51" s="46"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="47"/>
+      <c r="A51" s="61"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="53"/>
       <c r="D51" s="2" t="s">
         <v>33</v>
       </c>
@@ -7188,27 +7514,27 @@
       <c r="S51" s="20"/>
       <c r="T51" s="20"/>
       <c r="U51" s="20"/>
-      <c r="V51" s="58"/>
+      <c r="V51" s="56"/>
       <c r="W51" s="20"/>
       <c r="X51" s="20"/>
       <c r="Y51" s="20"/>
       <c r="Z51" s="20"/>
       <c r="AA51" s="20"/>
       <c r="AB51" s="20"/>
-      <c r="AC51" s="61"/>
+      <c r="AC51" s="59"/>
       <c r="AD51" s="19"/>
       <c r="AE51" s="19"/>
       <c r="AF51" s="19"/>
       <c r="AG51" s="19"/>
       <c r="AH51" s="19"/>
       <c r="AI51" s="19"/>
-      <c r="AJ51" s="54"/>
+      <c r="AJ51" s="51"/>
       <c r="AK51" s="19"/>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A52" s="46"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="47" t="s">
+      <c r="A52" s="61"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="53" t="s">
         <v>128</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -7237,27 +7563,27 @@
       <c r="S52" s="20"/>
       <c r="T52" s="20"/>
       <c r="U52" s="20"/>
-      <c r="V52" s="58"/>
+      <c r="V52" s="56"/>
       <c r="W52" s="20"/>
       <c r="X52" s="20"/>
       <c r="Y52" s="20"/>
       <c r="Z52" s="20"/>
       <c r="AA52" s="20"/>
       <c r="AB52" s="20"/>
-      <c r="AC52" s="61"/>
+      <c r="AC52" s="59"/>
       <c r="AD52" s="19"/>
       <c r="AE52" s="19"/>
       <c r="AF52" s="19"/>
       <c r="AG52" s="19"/>
       <c r="AH52" s="19"/>
       <c r="AI52" s="19"/>
-      <c r="AJ52" s="54"/>
+      <c r="AJ52" s="51"/>
       <c r="AK52" s="19"/>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A53" s="46"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="47"/>
+      <c r="A53" s="61"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="53"/>
       <c r="D53" s="2" t="s">
         <v>159</v>
       </c>
@@ -7284,26 +7610,26 @@
       <c r="S53" s="20"/>
       <c r="T53" s="20"/>
       <c r="U53" s="20"/>
-      <c r="V53" s="58"/>
+      <c r="V53" s="56"/>
       <c r="W53" s="20"/>
       <c r="X53" s="20"/>
       <c r="Y53" s="20"/>
       <c r="Z53" s="20"/>
       <c r="AA53" s="20"/>
       <c r="AB53" s="20"/>
-      <c r="AC53" s="61"/>
+      <c r="AC53" s="59"/>
       <c r="AD53" s="19"/>
       <c r="AE53" s="19"/>
       <c r="AF53" s="19"/>
       <c r="AG53" s="19"/>
       <c r="AH53" s="19"/>
       <c r="AI53" s="19"/>
-      <c r="AJ53" s="54"/>
+      <c r="AJ53" s="51"/>
       <c r="AK53" s="19"/>
     </row>
     <row r="54" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="46"/>
-      <c r="B54" s="56"/>
+      <c r="A54" s="61"/>
+      <c r="B54" s="54"/>
       <c r="C54" s="21" t="s">
         <v>76</v>
       </c>
@@ -7329,32 +7655,32 @@
       <c r="S54" s="21"/>
       <c r="T54" s="21"/>
       <c r="U54" s="21"/>
-      <c r="V54" s="58"/>
+      <c r="V54" s="56"/>
       <c r="W54" s="21"/>
       <c r="X54" s="21"/>
       <c r="Y54" s="21"/>
       <c r="Z54" s="21"/>
       <c r="AA54" s="21"/>
       <c r="AB54" s="21"/>
-      <c r="AC54" s="61"/>
+      <c r="AC54" s="59"/>
       <c r="AD54" s="19"/>
       <c r="AE54" s="19"/>
       <c r="AF54" s="19"/>
       <c r="AG54" s="19"/>
       <c r="AH54" s="19"/>
       <c r="AI54" s="19"/>
-      <c r="AJ54" s="54"/>
+      <c r="AJ54" s="51"/>
       <c r="AK54" s="19"/>
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A55" s="46"/>
-      <c r="B55" s="49" t="s">
+      <c r="A55" s="61"/>
+      <c r="B55" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="C55" s="47" t="s">
+      <c r="C55" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="D55" s="47" t="s">
+      <c r="D55" s="53" t="s">
         <v>29</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -7386,28 +7712,28 @@
       <c r="S55" s="20"/>
       <c r="T55" s="20"/>
       <c r="U55" s="20"/>
-      <c r="V55" s="58"/>
+      <c r="V55" s="56"/>
       <c r="W55" s="20"/>
       <c r="X55" s="20"/>
       <c r="Y55" s="20"/>
       <c r="Z55" s="20"/>
       <c r="AA55" s="20"/>
       <c r="AB55" s="20"/>
-      <c r="AC55" s="61"/>
+      <c r="AC55" s="59"/>
       <c r="AD55" s="19"/>
       <c r="AE55" s="19"/>
       <c r="AF55" s="19"/>
       <c r="AG55" s="19"/>
       <c r="AH55" s="19"/>
       <c r="AI55" s="19"/>
-      <c r="AJ55" s="54"/>
+      <c r="AJ55" s="51"/>
       <c r="AK55" s="19"/>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A56" s="46"/>
-      <c r="B56" s="49"/>
-      <c r="C56" s="47"/>
-      <c r="D56" s="47"/>
+      <c r="A56" s="61"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
       <c r="E56" s="2" t="s">
         <v>137</v>
       </c>
@@ -7424,7 +7750,7 @@
         <v>44125</v>
       </c>
       <c r="J56" s="36">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="K56" s="30"/>
       <c r="L56" s="20"/>
@@ -7437,30 +7763,30 @@
       <c r="S56" s="20"/>
       <c r="T56" s="20"/>
       <c r="U56" s="20"/>
-      <c r="V56" s="58"/>
+      <c r="V56" s="56"/>
       <c r="W56" s="20"/>
       <c r="X56" s="20"/>
       <c r="Y56" s="20"/>
       <c r="Z56" s="20"/>
       <c r="AA56" s="20"/>
       <c r="AB56" s="20"/>
-      <c r="AC56" s="61"/>
+      <c r="AC56" s="59"/>
       <c r="AD56" s="19"/>
       <c r="AE56" s="19"/>
       <c r="AF56" s="19"/>
       <c r="AG56" s="19"/>
       <c r="AH56" s="19"/>
       <c r="AI56" s="19"/>
-      <c r="AJ56" s="54"/>
+      <c r="AJ56" s="51"/>
       <c r="AK56" s="19"/>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A57" s="46"/>
-      <c r="B57" s="49"/>
-      <c r="C57" s="47" t="s">
+      <c r="A57" s="61"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="D57" s="47" t="s">
+      <c r="D57" s="53" t="s">
         <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
@@ -7484,28 +7810,28 @@
       <c r="S57" s="20"/>
       <c r="T57" s="20"/>
       <c r="U57" s="20"/>
-      <c r="V57" s="58"/>
+      <c r="V57" s="56"/>
       <c r="W57" s="20"/>
       <c r="X57" s="20"/>
       <c r="Y57" s="20"/>
       <c r="Z57" s="20"/>
       <c r="AA57" s="20"/>
       <c r="AB57" s="20"/>
-      <c r="AC57" s="61"/>
+      <c r="AC57" s="59"/>
       <c r="AD57" s="19"/>
       <c r="AE57" s="19"/>
       <c r="AF57" s="19"/>
       <c r="AG57" s="19"/>
       <c r="AH57" s="19"/>
       <c r="AI57" s="19"/>
-      <c r="AJ57" s="54"/>
+      <c r="AJ57" s="51"/>
       <c r="AK57" s="19"/>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A58" s="46"/>
-      <c r="B58" s="49"/>
-      <c r="C58" s="47"/>
-      <c r="D58" s="47"/>
+      <c r="A58" s="61"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
       <c r="E58" s="2" t="s">
         <v>154</v>
       </c>
@@ -7527,28 +7853,28 @@
       <c r="S58" s="20"/>
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
-      <c r="V58" s="58"/>
+      <c r="V58" s="56"/>
       <c r="W58" s="20"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="20"/>
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
-      <c r="AC58" s="61"/>
+      <c r="AC58" s="59"/>
       <c r="AD58" s="19"/>
       <c r="AE58" s="19"/>
       <c r="AF58" s="19"/>
       <c r="AG58" s="19"/>
       <c r="AH58" s="19"/>
       <c r="AI58" s="19"/>
-      <c r="AJ58" s="54"/>
+      <c r="AJ58" s="51"/>
       <c r="AK58" s="19"/>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A59" s="46"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
+      <c r="A59" s="61"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
       <c r="E59" s="2" t="s">
         <v>155</v>
       </c>
@@ -7570,28 +7896,28 @@
       <c r="S59" s="20"/>
       <c r="T59" s="20"/>
       <c r="U59" s="20"/>
-      <c r="V59" s="58"/>
+      <c r="V59" s="56"/>
       <c r="W59" s="20"/>
       <c r="X59" s="20"/>
       <c r="Y59" s="20"/>
       <c r="Z59" s="20"/>
       <c r="AA59" s="20"/>
       <c r="AB59" s="20"/>
-      <c r="AC59" s="61"/>
+      <c r="AC59" s="59"/>
       <c r="AD59" s="19"/>
       <c r="AE59" s="19"/>
       <c r="AF59" s="19"/>
       <c r="AG59" s="19"/>
       <c r="AH59" s="19"/>
       <c r="AI59" s="19"/>
-      <c r="AJ59" s="54"/>
+      <c r="AJ59" s="51"/>
       <c r="AK59" s="19"/>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A60" s="46"/>
-      <c r="B60" s="49"/>
-      <c r="C60" s="47"/>
-      <c r="D60" s="47"/>
+      <c r="A60" s="61"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
       <c r="E60" s="2" t="s">
         <v>114</v>
       </c>
@@ -7613,28 +7939,28 @@
       <c r="S60" s="20"/>
       <c r="T60" s="20"/>
       <c r="U60" s="20"/>
-      <c r="V60" s="58"/>
+      <c r="V60" s="56"/>
       <c r="W60" s="20"/>
       <c r="X60" s="20"/>
       <c r="Y60" s="20"/>
       <c r="Z60" s="20"/>
       <c r="AA60" s="20"/>
       <c r="AB60" s="20"/>
-      <c r="AC60" s="61"/>
+      <c r="AC60" s="59"/>
       <c r="AD60" s="19"/>
       <c r="AE60" s="19"/>
       <c r="AF60" s="19"/>
       <c r="AG60" s="19"/>
       <c r="AH60" s="19"/>
       <c r="AI60" s="19"/>
-      <c r="AJ60" s="54"/>
+      <c r="AJ60" s="51"/>
       <c r="AK60" s="19"/>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A61" s="46"/>
-      <c r="B61" s="49"/>
-      <c r="C61" s="47"/>
-      <c r="D61" s="47"/>
+      <c r="A61" s="61"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
       <c r="E61" s="2" t="s">
         <v>115</v>
       </c>
@@ -7656,28 +7982,28 @@
       <c r="S61" s="20"/>
       <c r="T61" s="20"/>
       <c r="U61" s="20"/>
-      <c r="V61" s="58"/>
+      <c r="V61" s="56"/>
       <c r="W61" s="20"/>
       <c r="X61" s="20"/>
       <c r="Y61" s="20"/>
       <c r="Z61" s="20"/>
       <c r="AA61" s="20"/>
       <c r="AB61" s="20"/>
-      <c r="AC61" s="61"/>
+      <c r="AC61" s="59"/>
       <c r="AD61" s="19"/>
       <c r="AE61" s="19"/>
       <c r="AF61" s="19"/>
       <c r="AG61" s="19"/>
       <c r="AH61" s="19"/>
       <c r="AI61" s="19"/>
-      <c r="AJ61" s="54"/>
+      <c r="AJ61" s="51"/>
       <c r="AK61" s="19"/>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A62" s="46"/>
-      <c r="B62" s="49"/>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47" t="s">
+      <c r="A62" s="61"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53" t="s">
         <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
@@ -7701,28 +8027,28 @@
       <c r="S62" s="20"/>
       <c r="T62" s="20"/>
       <c r="U62" s="20"/>
-      <c r="V62" s="58"/>
+      <c r="V62" s="56"/>
       <c r="W62" s="20"/>
       <c r="X62" s="20"/>
       <c r="Y62" s="20"/>
       <c r="Z62" s="20"/>
       <c r="AA62" s="20"/>
       <c r="AB62" s="20"/>
-      <c r="AC62" s="61"/>
+      <c r="AC62" s="59"/>
       <c r="AD62" s="19"/>
       <c r="AE62" s="19"/>
       <c r="AF62" s="19"/>
       <c r="AG62" s="19"/>
       <c r="AH62" s="19"/>
       <c r="AI62" s="19"/>
-      <c r="AJ62" s="54"/>
+      <c r="AJ62" s="51"/>
       <c r="AK62" s="19"/>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A63" s="46"/>
-      <c r="B63" s="49"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
+      <c r="A63" s="61"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
       <c r="E63" s="2" t="s">
         <v>109</v>
       </c>
@@ -7744,30 +8070,30 @@
       <c r="S63" s="20"/>
       <c r="T63" s="20"/>
       <c r="U63" s="20"/>
-      <c r="V63" s="58"/>
+      <c r="V63" s="56"/>
       <c r="W63" s="20"/>
       <c r="X63" s="20"/>
       <c r="Y63" s="20"/>
       <c r="Z63" s="20"/>
       <c r="AA63" s="20"/>
       <c r="AB63" s="20"/>
-      <c r="AC63" s="61"/>
+      <c r="AC63" s="59"/>
       <c r="AD63" s="19"/>
       <c r="AE63" s="19"/>
       <c r="AF63" s="19"/>
       <c r="AG63" s="19"/>
       <c r="AH63" s="19"/>
       <c r="AI63" s="19"/>
-      <c r="AJ63" s="54"/>
+      <c r="AJ63" s="51"/>
       <c r="AK63" s="19"/>
     </row>
     <row r="64" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="46"/>
-      <c r="B64" s="49"/>
-      <c r="C64" s="47" t="s">
+      <c r="A64" s="61"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D64" s="47" t="s">
+      <c r="D64" s="53" t="s">
         <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
@@ -7782,9 +8108,11 @@
       <c r="H64" s="35">
         <v>44126</v>
       </c>
-      <c r="I64" s="35"/>
+      <c r="I64" s="35">
+        <v>44126</v>
+      </c>
       <c r="J64" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="30"/>
       <c r="L64" s="20"/>
@@ -7797,28 +8125,28 @@
       <c r="S64" s="20"/>
       <c r="T64" s="20"/>
       <c r="U64" s="20"/>
-      <c r="V64" s="58"/>
+      <c r="V64" s="56"/>
       <c r="W64" s="20"/>
       <c r="X64" s="20"/>
       <c r="Y64" s="20"/>
       <c r="Z64" s="20"/>
       <c r="AA64" s="20"/>
       <c r="AB64" s="20"/>
-      <c r="AC64" s="61"/>
+      <c r="AC64" s="59"/>
       <c r="AD64" s="19"/>
       <c r="AE64" s="19"/>
       <c r="AF64" s="19"/>
       <c r="AG64" s="19"/>
       <c r="AH64" s="19"/>
       <c r="AI64" s="19"/>
-      <c r="AJ64" s="54"/>
+      <c r="AJ64" s="51"/>
       <c r="AK64" s="19"/>
     </row>
     <row r="65" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="46"/>
-      <c r="B65" s="49"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
+      <c r="A65" s="61"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="53"/>
       <c r="E65" s="2" t="s">
         <v>137</v>
       </c>
@@ -7846,27 +8174,27 @@
       <c r="S65" s="20"/>
       <c r="T65" s="20"/>
       <c r="U65" s="20"/>
-      <c r="V65" s="58"/>
+      <c r="V65" s="56"/>
       <c r="W65" s="20"/>
       <c r="X65" s="20"/>
       <c r="Y65" s="20"/>
       <c r="Z65" s="20"/>
       <c r="AA65" s="20"/>
       <c r="AB65" s="20"/>
-      <c r="AC65" s="61"/>
+      <c r="AC65" s="59"/>
       <c r="AD65" s="19"/>
       <c r="AE65" s="19"/>
       <c r="AF65" s="19"/>
       <c r="AG65" s="19"/>
       <c r="AH65" s="19"/>
       <c r="AI65" s="19"/>
-      <c r="AJ65" s="54"/>
+      <c r="AJ65" s="51"/>
       <c r="AK65" s="19"/>
     </row>
     <row r="66" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="46"/>
-      <c r="B66" s="49"/>
-      <c r="C66" s="47"/>
+      <c r="A66" s="61"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="53"/>
       <c r="D66" s="2" t="s">
         <v>105</v>
       </c>
@@ -7889,26 +8217,26 @@
       <c r="S66" s="20"/>
       <c r="T66" s="20"/>
       <c r="U66" s="20"/>
-      <c r="V66" s="58"/>
+      <c r="V66" s="56"/>
       <c r="W66" s="20"/>
       <c r="X66" s="20"/>
       <c r="Y66" s="20"/>
       <c r="Z66" s="20"/>
       <c r="AA66" s="20"/>
       <c r="AB66" s="20"/>
-      <c r="AC66" s="61"/>
+      <c r="AC66" s="59"/>
       <c r="AD66" s="19"/>
       <c r="AE66" s="19"/>
       <c r="AF66" s="19"/>
       <c r="AG66" s="19"/>
       <c r="AH66" s="19"/>
       <c r="AI66" s="19"/>
-      <c r="AJ66" s="54"/>
+      <c r="AJ66" s="51"/>
       <c r="AK66" s="19"/>
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A67" s="46"/>
-      <c r="B67" s="49"/>
+      <c r="A67" s="61"/>
+      <c r="B67" s="63"/>
       <c r="C67" s="20" t="s">
         <v>96</v>
       </c>
@@ -7932,26 +8260,26 @@
       <c r="S67" s="20"/>
       <c r="T67" s="20"/>
       <c r="U67" s="20"/>
-      <c r="V67" s="58"/>
+      <c r="V67" s="56"/>
       <c r="W67" s="20"/>
       <c r="X67" s="20"/>
       <c r="Y67" s="20"/>
       <c r="Z67" s="20"/>
       <c r="AA67" s="20"/>
       <c r="AB67" s="20"/>
-      <c r="AC67" s="61"/>
+      <c r="AC67" s="59"/>
       <c r="AD67" s="19"/>
       <c r="AE67" s="19"/>
       <c r="AF67" s="19"/>
       <c r="AG67" s="19"/>
       <c r="AH67" s="19"/>
       <c r="AI67" s="19"/>
-      <c r="AJ67" s="54"/>
+      <c r="AJ67" s="51"/>
       <c r="AK67" s="19"/>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A68" s="46"/>
-      <c r="B68" s="49"/>
+      <c r="A68" s="61"/>
+      <c r="B68" s="63"/>
       <c r="C68" s="20" t="s">
         <v>24</v>
       </c>
@@ -7959,9 +8287,15 @@
         <v>169</v>
       </c>
       <c r="E68" s="2"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="35"/>
+      <c r="F68" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G68" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="H68" s="35">
+        <v>44127</v>
+      </c>
       <c r="I68" s="35"/>
       <c r="J68" s="36">
         <v>0</v>
@@ -7977,27 +8311,27 @@
       <c r="S68" s="20"/>
       <c r="T68" s="20"/>
       <c r="U68" s="20"/>
-      <c r="V68" s="58"/>
+      <c r="V68" s="56"/>
       <c r="W68" s="20"/>
       <c r="X68" s="20"/>
       <c r="Y68" s="20"/>
       <c r="Z68" s="20"/>
       <c r="AA68" s="20"/>
       <c r="AB68" s="20"/>
-      <c r="AC68" s="61"/>
+      <c r="AC68" s="59"/>
       <c r="AD68" s="19"/>
       <c r="AE68" s="19"/>
       <c r="AF68" s="19"/>
       <c r="AG68" s="19"/>
       <c r="AH68" s="19"/>
       <c r="AI68" s="19"/>
-      <c r="AJ68" s="54"/>
+      <c r="AJ68" s="51"/>
       <c r="AK68" s="19"/>
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A69" s="46"/>
-      <c r="B69" s="49"/>
-      <c r="C69" s="47" t="s">
+      <c r="A69" s="61"/>
+      <c r="B69" s="63"/>
+      <c r="C69" s="53" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -8030,27 +8364,27 @@
       <c r="S69" s="20"/>
       <c r="T69" s="20"/>
       <c r="U69" s="20"/>
-      <c r="V69" s="58"/>
+      <c r="V69" s="56"/>
       <c r="W69" s="20"/>
       <c r="X69" s="20"/>
       <c r="Y69" s="20"/>
       <c r="Z69" s="20"/>
       <c r="AA69" s="20"/>
       <c r="AB69" s="20"/>
-      <c r="AC69" s="61"/>
+      <c r="AC69" s="59"/>
       <c r="AD69" s="19"/>
       <c r="AE69" s="19"/>
       <c r="AF69" s="19"/>
       <c r="AG69" s="19"/>
       <c r="AH69" s="19"/>
       <c r="AI69" s="19"/>
-      <c r="AJ69" s="54"/>
+      <c r="AJ69" s="51"/>
       <c r="AK69" s="19"/>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A70" s="46"/>
-      <c r="B70" s="49"/>
-      <c r="C70" s="47"/>
+      <c r="A70" s="61"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="53"/>
       <c r="D70" s="2" t="s">
         <v>133</v>
       </c>
@@ -8081,27 +8415,27 @@
       <c r="S70" s="20"/>
       <c r="T70" s="20"/>
       <c r="U70" s="20"/>
-      <c r="V70" s="58"/>
+      <c r="V70" s="56"/>
       <c r="W70" s="20"/>
       <c r="X70" s="20"/>
       <c r="Y70" s="20"/>
       <c r="Z70" s="20"/>
       <c r="AA70" s="20"/>
       <c r="AB70" s="20"/>
-      <c r="AC70" s="61"/>
+      <c r="AC70" s="59"/>
       <c r="AD70" s="19"/>
       <c r="AE70" s="19"/>
       <c r="AF70" s="19"/>
       <c r="AG70" s="19"/>
       <c r="AH70" s="19"/>
       <c r="AI70" s="19"/>
-      <c r="AJ70" s="54"/>
+      <c r="AJ70" s="51"/>
       <c r="AK70" s="19"/>
     </row>
     <row r="71" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="46"/>
-      <c r="B71" s="49"/>
-      <c r="C71" s="50" t="s">
+      <c r="A71" s="61"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="64" t="s">
         <v>106</v>
       </c>
       <c r="D71" s="2" t="s">
@@ -8134,27 +8468,27 @@
       <c r="S71" s="20"/>
       <c r="T71" s="20"/>
       <c r="U71" s="20"/>
-      <c r="V71" s="58"/>
+      <c r="V71" s="56"/>
       <c r="W71" s="20"/>
       <c r="X71" s="20"/>
       <c r="Y71" s="20"/>
       <c r="Z71" s="20"/>
       <c r="AA71" s="20"/>
       <c r="AB71" s="20"/>
-      <c r="AC71" s="61"/>
+      <c r="AC71" s="59"/>
       <c r="AD71" s="19"/>
       <c r="AE71" s="19"/>
       <c r="AF71" s="19"/>
       <c r="AG71" s="19"/>
       <c r="AH71" s="19"/>
       <c r="AI71" s="19"/>
-      <c r="AJ71" s="54"/>
+      <c r="AJ71" s="51"/>
       <c r="AK71" s="19"/>
     </row>
     <row r="72" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="46"/>
-      <c r="B72" s="49"/>
-      <c r="C72" s="51"/>
+      <c r="A72" s="61"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="65"/>
       <c r="D72" s="2" t="s">
         <v>164</v>
       </c>
@@ -8168,9 +8502,11 @@
       <c r="H72" s="35">
         <v>44126</v>
       </c>
-      <c r="I72" s="35"/>
+      <c r="I72" s="35">
+        <v>44126</v>
+      </c>
       <c r="J72" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="30"/>
       <c r="L72" s="20"/>
@@ -8183,36 +8519,46 @@
       <c r="S72" s="20"/>
       <c r="T72" s="20"/>
       <c r="U72" s="20"/>
-      <c r="V72" s="58"/>
+      <c r="V72" s="56"/>
       <c r="W72" s="20"/>
       <c r="X72" s="20"/>
       <c r="Y72" s="20"/>
       <c r="Z72" s="20"/>
       <c r="AA72" s="20"/>
       <c r="AB72" s="20"/>
-      <c r="AC72" s="61"/>
+      <c r="AC72" s="59"/>
       <c r="AD72" s="19"/>
       <c r="AE72" s="19"/>
       <c r="AF72" s="19"/>
       <c r="AG72" s="19"/>
       <c r="AH72" s="19"/>
       <c r="AI72" s="19"/>
-      <c r="AJ72" s="54"/>
+      <c r="AJ72" s="51"/>
       <c r="AK72" s="19"/>
     </row>
     <row r="73" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="46"/>
-      <c r="B73" s="49"/>
-      <c r="C73" s="52"/>
+      <c r="A73" s="61"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="66"/>
       <c r="D73" s="2" t="s">
         <v>165</v>
       </c>
       <c r="E73" s="2"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="36"/>
+      <c r="F73" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="G73" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="H73" s="35">
+        <v>44126</v>
+      </c>
+      <c r="I73" s="35">
+        <v>44126</v>
+      </c>
+      <c r="J73" s="36">
+        <v>1</v>
+      </c>
       <c r="K73" s="30"/>
       <c r="L73" s="37"/>
       <c r="M73" s="37"/>
@@ -8224,27 +8570,27 @@
       <c r="S73" s="37"/>
       <c r="T73" s="37"/>
       <c r="U73" s="37"/>
-      <c r="V73" s="58"/>
+      <c r="V73" s="56"/>
       <c r="W73" s="37"/>
       <c r="X73" s="37"/>
       <c r="Y73" s="37"/>
       <c r="Z73" s="37"/>
       <c r="AA73" s="37"/>
       <c r="AB73" s="37"/>
-      <c r="AC73" s="61"/>
+      <c r="AC73" s="59"/>
       <c r="AD73" s="19"/>
       <c r="AE73" s="19"/>
       <c r="AF73" s="19"/>
       <c r="AG73" s="19"/>
       <c r="AH73" s="19"/>
       <c r="AI73" s="19"/>
-      <c r="AJ73" s="54"/>
+      <c r="AJ73" s="51"/>
       <c r="AK73" s="19"/>
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A74" s="46"/>
-      <c r="B74" s="49"/>
-      <c r="C74" s="47" t="s">
+      <c r="A74" s="61"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="53" t="s">
         <v>30</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -8277,27 +8623,27 @@
       <c r="S74" s="20"/>
       <c r="T74" s="20"/>
       <c r="U74" s="20"/>
-      <c r="V74" s="58"/>
+      <c r="V74" s="56"/>
       <c r="W74" s="20"/>
       <c r="X74" s="20"/>
       <c r="Y74" s="20"/>
       <c r="Z74" s="20"/>
       <c r="AA74" s="20"/>
       <c r="AB74" s="20"/>
-      <c r="AC74" s="61"/>
+      <c r="AC74" s="59"/>
       <c r="AD74" s="19"/>
       <c r="AE74" s="19"/>
       <c r="AF74" s="19"/>
       <c r="AG74" s="19"/>
       <c r="AH74" s="19"/>
       <c r="AI74" s="19"/>
-      <c r="AJ74" s="54"/>
+      <c r="AJ74" s="51"/>
       <c r="AK74" s="19"/>
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A75" s="46"/>
-      <c r="B75" s="49"/>
-      <c r="C75" s="47"/>
+      <c r="A75" s="61"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="53"/>
       <c r="D75" s="2" t="s">
         <v>32</v>
       </c>
@@ -8320,27 +8666,27 @@
       <c r="S75" s="20"/>
       <c r="T75" s="20"/>
       <c r="U75" s="20"/>
-      <c r="V75" s="58"/>
+      <c r="V75" s="56"/>
       <c r="W75" s="20"/>
       <c r="X75" s="20"/>
       <c r="Y75" s="20"/>
       <c r="Z75" s="20"/>
       <c r="AA75" s="20"/>
       <c r="AB75" s="20"/>
-      <c r="AC75" s="61"/>
+      <c r="AC75" s="59"/>
       <c r="AD75" s="19"/>
       <c r="AE75" s="19"/>
       <c r="AF75" s="19"/>
       <c r="AG75" s="19"/>
       <c r="AH75" s="19"/>
       <c r="AI75" s="19"/>
-      <c r="AJ75" s="54"/>
+      <c r="AJ75" s="51"/>
       <c r="AK75" s="19"/>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A76" s="46"/>
-      <c r="B76" s="49"/>
-      <c r="C76" s="47"/>
+      <c r="A76" s="61"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="53"/>
       <c r="D76" s="2" t="s">
         <v>33</v>
       </c>
@@ -8363,25 +8709,25 @@
       <c r="S76" s="20"/>
       <c r="T76" s="20"/>
       <c r="U76" s="20"/>
-      <c r="V76" s="59"/>
+      <c r="V76" s="57"/>
       <c r="W76" s="20"/>
       <c r="X76" s="20"/>
       <c r="Y76" s="20"/>
       <c r="Z76" s="20"/>
       <c r="AA76" s="20"/>
       <c r="AB76" s="20"/>
-      <c r="AC76" s="62"/>
+      <c r="AC76" s="60"/>
       <c r="AD76" s="19"/>
       <c r="AE76" s="19"/>
       <c r="AF76" s="19"/>
       <c r="AG76" s="19"/>
       <c r="AH76" s="19"/>
       <c r="AI76" s="19"/>
-      <c r="AJ76" s="55"/>
+      <c r="AJ76" s="52"/>
       <c r="AK76" s="19"/>
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A77" s="46"/>
+      <c r="A77" s="61"/>
       <c r="B77" s="44" t="s">
         <v>21</v>
       </c>
@@ -8402,6 +8748,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A5:A77"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B55:B76"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C73"/>
     <mergeCell ref="AJ5:AJ76"/>
     <mergeCell ref="C18:C41"/>
     <mergeCell ref="B11:B54"/>
@@ -8418,18 +8776,6 @@
     <mergeCell ref="D62:D63"/>
     <mergeCell ref="D64:D65"/>
     <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A5:A77"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B55:B76"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C73"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K3:AK5 AK6:AK76 W6:AB76 AD6:AI76 K6:U76">
@@ -8507,24 +8853,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
     </row>
     <row r="4" spans="2:14" ht="45.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
       <c r="K4" s="11" t="s">
         <v>78</v>
       </c>
@@ -8533,14 +8879,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
       <c r="K5" s="12" t="s">
         <v>80</v>
       </c>
@@ -8549,14 +8895,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
       <c r="K6" s="12" t="s">
         <v>81</v>
       </c>
@@ -8565,70 +8911,70 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
       <c r="K7" s="12" t="s">
         <v>82</v>
       </c>
       <c r="L7" s="13"/>
     </row>
     <row r="8" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="63"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
       <c r="K8" s="12" t="s">
         <v>83</v>
       </c>
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
       <c r="K9" s="12" t="s">
         <v>84</v>
       </c>
       <c r="L9" s="13"/>
     </row>
     <row r="10" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
       <c r="K10" s="12" t="s">
         <v>85</v>
       </c>
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
       <c r="K11" s="12" t="s">
         <v>86</v>
       </c>
@@ -8636,136 +8982,136 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
       <c r="K12" s="12" t="s">
         <v>87</v>
       </c>
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
       <c r="K13" s="12" t="s">
         <v>88</v>
       </c>
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
       <c r="K14" s="12" t="s">
         <v>89</v>
       </c>
       <c r="L14" s="13"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63"/>
-      <c r="I19" s="63"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="63"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8811,22 +9157,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
@@ -8913,7 +9259,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="69" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -8927,7 +9273,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="65"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="2" t="s">
         <v>73</v>
       </c>
@@ -9020,12 +9366,12 @@
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/schedule/ガントチャートxlsx.xlsx
+++ b/schedule/ガントチャートxlsx.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="177">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -1240,6 +1240,26 @@
     <t>三浦</t>
     <rPh sb="0" eb="2">
       <t>ミウラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵との当たり判定</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1794,7 +1814,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1945,6 +1965,33 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -1953,9 +2000,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1977,24 +2021,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2122,13 +2148,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>14007</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>257454</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>222438</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2308,13 +2334,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>7005</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>35018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>224118</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2370,13 +2396,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>292475</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>40340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>257457</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>229440</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2432,13 +2458,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>12326</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>24654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>255773</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>213754</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2494,13 +2520,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>10646</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>29977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>254093</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>219077</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2556,13 +2582,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>5324</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>264460</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>222437</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2680,13 +2706,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>21304</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>281610</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>231913</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2742,13 +2768,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>13021</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>24849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>256760</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>245144</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2804,13 +2830,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>4739</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>31196</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>248186</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>220296</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2866,13 +2892,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>16335</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>42790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>259782</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>231890</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2928,13 +2954,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>24665</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>43326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>3068</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>232426</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2990,13 +3016,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>16383</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>16566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>248478</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>224144</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5072,13 +5098,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AS77"/>
+  <dimension ref="A1:AS78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="K16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5363,10 +5389,10 @@
       </c>
     </row>
     <row r="5" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="54" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -5402,7 +5428,7 @@
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
-      <c r="V5" s="55" t="s">
+      <c r="V5" s="63" t="s">
         <v>117</v>
       </c>
       <c r="W5" s="19"/>
@@ -5411,7 +5437,7 @@
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
       <c r="AB5" s="19"/>
-      <c r="AC5" s="58" t="s">
+      <c r="AC5" s="66" t="s">
         <v>118</v>
       </c>
       <c r="AD5" s="19"/>
@@ -5420,14 +5446,14 @@
       <c r="AG5" s="19"/>
       <c r="AH5" s="19"/>
       <c r="AI5" s="19"/>
-      <c r="AJ5" s="50" t="s">
+      <c r="AJ5" s="59" t="s">
         <v>94</v>
       </c>
       <c r="AK5" s="19"/>
     </row>
     <row r="6" spans="1:45" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="61"/>
-      <c r="B6" s="62"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
@@ -5457,26 +5483,26 @@
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
-      <c r="V6" s="56"/>
+      <c r="V6" s="64"/>
       <c r="W6" s="20"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20"/>
-      <c r="AC6" s="59"/>
+      <c r="AC6" s="67"/>
       <c r="AD6" s="19"/>
       <c r="AE6" s="19"/>
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="19"/>
-      <c r="AJ6" s="51"/>
+      <c r="AJ6" s="60"/>
       <c r="AK6" s="19"/>
     </row>
     <row r="7" spans="1:45" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="61"/>
-      <c r="B7" s="62"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="20" t="s">
         <v>10</v>
       </c>
@@ -5504,26 +5530,26 @@
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
-      <c r="V7" s="56"/>
+      <c r="V7" s="64"/>
       <c r="W7" s="20"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20"/>
-      <c r="AC7" s="59"/>
+      <c r="AC7" s="67"/>
       <c r="AD7" s="19"/>
       <c r="AE7" s="19"/>
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
       <c r="AI7" s="19"/>
-      <c r="AJ7" s="51"/>
+      <c r="AJ7" s="60"/>
       <c r="AK7" s="19"/>
     </row>
     <row r="8" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="61"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
@@ -5551,26 +5577,26 @@
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
-      <c r="V8" s="56"/>
+      <c r="V8" s="64"/>
       <c r="W8" s="20"/>
       <c r="X8" s="20"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
-      <c r="AC8" s="59"/>
+      <c r="AC8" s="67"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
       <c r="AH8" s="19"/>
       <c r="AI8" s="19"/>
-      <c r="AJ8" s="51"/>
+      <c r="AJ8" s="60"/>
       <c r="AK8" s="19"/>
     </row>
     <row r="9" spans="1:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="61"/>
-      <c r="B9" s="62"/>
+      <c r="A9" s="52"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="20" t="s">
         <v>34</v>
       </c>
@@ -5598,26 +5624,26 @@
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
-      <c r="V9" s="56"/>
+      <c r="V9" s="64"/>
       <c r="W9" s="20"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20"/>
-      <c r="AC9" s="59"/>
+      <c r="AC9" s="67"/>
       <c r="AD9" s="19"/>
       <c r="AE9" s="19"/>
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
       <c r="AI9" s="19"/>
-      <c r="AJ9" s="51"/>
+      <c r="AJ9" s="60"/>
       <c r="AK9" s="19"/>
     </row>
     <row r="10" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="61"/>
-      <c r="B10" s="62"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="20" t="s">
         <v>35</v>
       </c>
@@ -5643,26 +5669,26 @@
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
-      <c r="V10" s="56"/>
+      <c r="V10" s="64"/>
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20"/>
-      <c r="AC10" s="59"/>
+      <c r="AC10" s="67"/>
       <c r="AD10" s="19"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="19"/>
-      <c r="AJ10" s="51"/>
+      <c r="AJ10" s="60"/>
       <c r="AK10" s="19"/>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A11" s="61"/>
-      <c r="B11" s="54" t="s">
+      <c r="A11" s="52"/>
+      <c r="B11" s="62" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="53" t="s">
@@ -5690,26 +5716,26 @@
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
-      <c r="V11" s="56"/>
+      <c r="V11" s="64"/>
       <c r="W11" s="20"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20"/>
-      <c r="AC11" s="59"/>
+      <c r="AC11" s="67"/>
       <c r="AD11" s="19"/>
       <c r="AE11" s="19"/>
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
       <c r="AI11" s="19"/>
-      <c r="AJ11" s="51"/>
+      <c r="AJ11" s="60"/>
       <c r="AK11" s="19"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A12" s="61"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="53"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
@@ -5733,26 +5759,26 @@
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
-      <c r="V12" s="56"/>
+      <c r="V12" s="64"/>
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20"/>
-      <c r="AC12" s="59"/>
+      <c r="AC12" s="67"/>
       <c r="AD12" s="19"/>
       <c r="AE12" s="19"/>
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="19"/>
-      <c r="AJ12" s="51"/>
+      <c r="AJ12" s="60"/>
       <c r="AK12" s="19"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A13" s="61"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="53"/>
       <c r="D13" s="38" t="s">
         <v>45</v>
@@ -5776,26 +5802,26 @@
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
-      <c r="V13" s="56"/>
+      <c r="V13" s="64"/>
       <c r="W13" s="20"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20"/>
-      <c r="AC13" s="59"/>
+      <c r="AC13" s="67"/>
       <c r="AD13" s="19"/>
       <c r="AE13" s="19"/>
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
-      <c r="AJ13" s="51"/>
+      <c r="AJ13" s="60"/>
       <c r="AK13" s="19"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A14" s="61"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="53"/>
       <c r="D14" s="39" t="s">
         <v>27</v>
@@ -5819,26 +5845,26 @@
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
-      <c r="V14" s="56"/>
+      <c r="V14" s="64"/>
       <c r="W14" s="20"/>
       <c r="X14" s="20"/>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20"/>
-      <c r="AC14" s="59"/>
+      <c r="AC14" s="67"/>
       <c r="AD14" s="19"/>
       <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
       <c r="AI14" s="19"/>
-      <c r="AJ14" s="51"/>
+      <c r="AJ14" s="60"/>
       <c r="AK14" s="19"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A15" s="61"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="53" t="s">
         <v>19</v>
       </c>
@@ -5866,26 +5892,26 @@
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
-      <c r="V15" s="56"/>
+      <c r="V15" s="64"/>
       <c r="W15" s="20"/>
       <c r="X15" s="20"/>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
-      <c r="AC15" s="59"/>
+      <c r="AC15" s="67"/>
       <c r="AD15" s="19"/>
       <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
       <c r="AI15" s="19"/>
-      <c r="AJ15" s="51"/>
+      <c r="AJ15" s="60"/>
       <c r="AK15" s="19"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A16" s="61"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="53"/>
       <c r="D16" s="40" t="s">
         <v>45</v>
@@ -5909,26 +5935,26 @@
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
-      <c r="V16" s="56"/>
+      <c r="V16" s="64"/>
       <c r="W16" s="20"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
-      <c r="AC16" s="59"/>
+      <c r="AC16" s="67"/>
       <c r="AD16" s="19"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="19"/>
-      <c r="AJ16" s="51"/>
+      <c r="AJ16" s="60"/>
       <c r="AK16" s="19"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A17" s="61"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="53"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
@@ -5952,26 +5978,26 @@
       <c r="S17" s="20"/>
       <c r="T17" s="20"/>
       <c r="U17" s="20"/>
-      <c r="V17" s="56"/>
+      <c r="V17" s="64"/>
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
-      <c r="AC17" s="59"/>
+      <c r="AC17" s="67"/>
       <c r="AD17" s="19"/>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="19"/>
       <c r="AI17" s="19"/>
-      <c r="AJ17" s="51"/>
+      <c r="AJ17" s="60"/>
       <c r="AK17" s="19"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A18" s="61"/>
-      <c r="B18" s="54"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="53" t="s">
         <v>20</v>
       </c>
@@ -6005,26 +6031,26 @@
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
-      <c r="V18" s="56"/>
+      <c r="V18" s="64"/>
       <c r="W18" s="20"/>
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
-      <c r="AC18" s="59"/>
+      <c r="AC18" s="67"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="19"/>
       <c r="AI18" s="19"/>
-      <c r="AJ18" s="51"/>
+      <c r="AJ18" s="60"/>
       <c r="AK18" s="19"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A19" s="61"/>
-      <c r="B19" s="54"/>
+      <c r="A19" s="52"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="53"/>
       <c r="D19" s="53"/>
       <c r="E19" s="2" t="s">
@@ -6056,26 +6082,26 @@
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
-      <c r="V19" s="56"/>
+      <c r="V19" s="64"/>
       <c r="W19" s="20"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
-      <c r="AC19" s="59"/>
+      <c r="AC19" s="67"/>
       <c r="AD19" s="19"/>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
       <c r="AI19" s="19"/>
-      <c r="AJ19" s="51"/>
+      <c r="AJ19" s="60"/>
       <c r="AK19" s="19"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A20" s="61"/>
-      <c r="B20" s="54"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="62"/>
       <c r="C20" s="53"/>
       <c r="D20" s="53"/>
       <c r="E20" s="2" t="s">
@@ -6107,26 +6133,26 @@
       <c r="S20" s="20"/>
       <c r="T20" s="20"/>
       <c r="U20" s="20"/>
-      <c r="V20" s="56"/>
+      <c r="V20" s="64"/>
       <c r="W20" s="20"/>
       <c r="X20" s="20"/>
       <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
-      <c r="AC20" s="59"/>
+      <c r="AC20" s="67"/>
       <c r="AD20" s="19"/>
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="19"/>
       <c r="AI20" s="19"/>
-      <c r="AJ20" s="51"/>
+      <c r="AJ20" s="60"/>
       <c r="AK20" s="19"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A21" s="61"/>
-      <c r="B21" s="54"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="62"/>
       <c r="C21" s="53"/>
       <c r="D21" s="53"/>
       <c r="E21" s="2" t="s">
@@ -6150,26 +6176,26 @@
       <c r="S21" s="20"/>
       <c r="T21" s="20"/>
       <c r="U21" s="20"/>
-      <c r="V21" s="56"/>
+      <c r="V21" s="64"/>
       <c r="W21" s="20"/>
       <c r="X21" s="20"/>
       <c r="Y21" s="20"/>
       <c r="Z21" s="20"/>
       <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
-      <c r="AC21" s="59"/>
+      <c r="AC21" s="67"/>
       <c r="AD21" s="19"/>
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
       <c r="AI21" s="19"/>
-      <c r="AJ21" s="51"/>
+      <c r="AJ21" s="60"/>
       <c r="AK21" s="19"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A22" s="61"/>
-      <c r="B22" s="54"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="53"/>
       <c r="D22" s="53"/>
       <c r="E22" s="2" t="s">
@@ -6201,26 +6227,26 @@
       <c r="S22" s="20"/>
       <c r="T22" s="20"/>
       <c r="U22" s="20"/>
-      <c r="V22" s="56"/>
+      <c r="V22" s="64"/>
       <c r="W22" s="20"/>
       <c r="X22" s="20"/>
       <c r="Y22" s="20"/>
       <c r="Z22" s="20"/>
       <c r="AA22" s="20"/>
       <c r="AB22" s="20"/>
-      <c r="AC22" s="59"/>
+      <c r="AC22" s="67"/>
       <c r="AD22" s="19"/>
       <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="19"/>
       <c r="AI22" s="19"/>
-      <c r="AJ22" s="51"/>
+      <c r="AJ22" s="60"/>
       <c r="AK22" s="19"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A23" s="61"/>
-      <c r="B23" s="54"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="62"/>
       <c r="C23" s="53"/>
       <c r="D23" s="53"/>
       <c r="E23" s="2" t="s">
@@ -6252,26 +6278,26 @@
       <c r="S23" s="20"/>
       <c r="T23" s="20"/>
       <c r="U23" s="20"/>
-      <c r="V23" s="56"/>
+      <c r="V23" s="64"/>
       <c r="W23" s="20"/>
       <c r="X23" s="20"/>
       <c r="Y23" s="20"/>
       <c r="Z23" s="20"/>
       <c r="AA23" s="20"/>
       <c r="AB23" s="20"/>
-      <c r="AC23" s="59"/>
+      <c r="AC23" s="67"/>
       <c r="AD23" s="19"/>
       <c r="AE23" s="19"/>
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="19"/>
       <c r="AI23" s="19"/>
-      <c r="AJ23" s="51"/>
+      <c r="AJ23" s="60"/>
       <c r="AK23" s="19"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A24" s="61"/>
-      <c r="B24" s="54"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="62"/>
       <c r="C24" s="53"/>
       <c r="D24" s="53"/>
       <c r="E24" s="2" t="s">
@@ -6295,88 +6321,92 @@
       <c r="S24" s="20"/>
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
-      <c r="V24" s="56"/>
+      <c r="V24" s="64"/>
       <c r="W24" s="20"/>
       <c r="X24" s="20"/>
       <c r="Y24" s="20"/>
       <c r="Z24" s="20"/>
       <c r="AA24" s="20"/>
       <c r="AB24" s="20"/>
-      <c r="AC24" s="59"/>
+      <c r="AC24" s="67"/>
       <c r="AD24" s="19"/>
       <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="19"/>
       <c r="AI24" s="19"/>
-      <c r="AJ24" s="51"/>
+      <c r="AJ24" s="60"/>
       <c r="AK24" s="19"/>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A25" s="61"/>
-      <c r="B25" s="54"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="53"/>
       <c r="D25" s="53"/>
       <c r="E25" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="G25" s="20" t="s">
-        <v>141</v>
+        <v>175</v>
+      </c>
+      <c r="F25" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="50" t="s">
+        <v>176</v>
       </c>
       <c r="H25" s="35">
-        <v>44124</v>
-      </c>
-      <c r="I25" s="35">
-        <v>44125</v>
-      </c>
-      <c r="J25" s="36">
-        <v>0.25</v>
-      </c>
+        <v>44127</v>
+      </c>
+      <c r="I25" s="35"/>
+      <c r="J25" s="36"/>
       <c r="K25" s="30"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="20"/>
-      <c r="Y25" s="20"/>
-      <c r="Z25" s="20"/>
-      <c r="AA25" s="20"/>
-      <c r="AB25" s="20"/>
-      <c r="AC25" s="59"/>
-      <c r="AD25" s="19"/>
-      <c r="AE25" s="19"/>
-      <c r="AF25" s="19"/>
-      <c r="AG25" s="19"/>
-      <c r="AH25" s="19"/>
-      <c r="AI25" s="19"/>
-      <c r="AJ25" s="51"/>
-      <c r="AK25" s="19"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="50"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="50"/>
+      <c r="Q25" s="50"/>
+      <c r="R25" s="50"/>
+      <c r="S25" s="50"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="50"/>
+      <c r="V25" s="64"/>
+      <c r="W25" s="50"/>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="50"/>
+      <c r="Z25" s="50"/>
+      <c r="AA25" s="50"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="67"/>
+      <c r="AD25" s="51"/>
+      <c r="AE25" s="51"/>
+      <c r="AF25" s="51"/>
+      <c r="AG25" s="51"/>
+      <c r="AH25" s="51"/>
+      <c r="AI25" s="51"/>
+      <c r="AJ25" s="60"/>
+      <c r="AK25" s="51"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A26" s="61"/>
-      <c r="B26" s="54"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="53"/>
       <c r="D26" s="53"/>
       <c r="E26" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
+        <v>113</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="H26" s="35">
+        <v>44124</v>
+      </c>
+      <c r="I26" s="35">
+        <v>44125</v>
+      </c>
       <c r="J26" s="36">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K26" s="30"/>
       <c r="L26" s="20"/>
@@ -6389,47 +6419,37 @@
       <c r="S26" s="20"/>
       <c r="T26" s="20"/>
       <c r="U26" s="20"/>
-      <c r="V26" s="56"/>
+      <c r="V26" s="64"/>
       <c r="W26" s="20"/>
       <c r="X26" s="20"/>
       <c r="Y26" s="20"/>
       <c r="Z26" s="20"/>
       <c r="AA26" s="20"/>
       <c r="AB26" s="20"/>
-      <c r="AC26" s="59"/>
+      <c r="AC26" s="67"/>
       <c r="AD26" s="19"/>
       <c r="AE26" s="19"/>
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
       <c r="AH26" s="19"/>
       <c r="AI26" s="19"/>
-      <c r="AJ26" s="51"/>
+      <c r="AJ26" s="60"/>
       <c r="AK26" s="19"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A27" s="61"/>
-      <c r="B27" s="54"/>
+      <c r="A27" s="52"/>
+      <c r="B27" s="62"/>
       <c r="C27" s="53"/>
-      <c r="D27" s="53" t="s">
-        <v>25</v>
-      </c>
+      <c r="D27" s="53"/>
       <c r="E27" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F27" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="G27" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="H27" s="35">
-        <v>44124</v>
-      </c>
-      <c r="I27" s="35">
-        <v>44124</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
       <c r="J27" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="30"/>
       <c r="L27" s="20"/>
@@ -6442,30 +6462,32 @@
       <c r="S27" s="20"/>
       <c r="T27" s="20"/>
       <c r="U27" s="20"/>
-      <c r="V27" s="56"/>
+      <c r="V27" s="64"/>
       <c r="W27" s="20"/>
       <c r="X27" s="20"/>
       <c r="Y27" s="20"/>
       <c r="Z27" s="20"/>
       <c r="AA27" s="20"/>
       <c r="AB27" s="20"/>
-      <c r="AC27" s="59"/>
+      <c r="AC27" s="67"/>
       <c r="AD27" s="19"/>
       <c r="AE27" s="19"/>
       <c r="AF27" s="19"/>
       <c r="AG27" s="19"/>
       <c r="AH27" s="19"/>
       <c r="AI27" s="19"/>
-      <c r="AJ27" s="51"/>
+      <c r="AJ27" s="60"/>
       <c r="AK27" s="19"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A28" s="61"/>
-      <c r="B28" s="54"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="62"/>
       <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
+      <c r="D28" s="53" t="s">
+        <v>25</v>
+      </c>
       <c r="E28" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F28" s="20" t="s">
         <v>148</v>
@@ -6493,39 +6515,45 @@
       <c r="S28" s="20"/>
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
-      <c r="V28" s="56"/>
+      <c r="V28" s="64"/>
       <c r="W28" s="20"/>
       <c r="X28" s="20"/>
       <c r="Y28" s="20"/>
       <c r="Z28" s="20"/>
       <c r="AA28" s="20"/>
       <c r="AB28" s="20"/>
-      <c r="AC28" s="59"/>
+      <c r="AC28" s="67"/>
       <c r="AD28" s="19"/>
       <c r="AE28" s="19"/>
       <c r="AF28" s="19"/>
       <c r="AG28" s="19"/>
       <c r="AH28" s="19"/>
       <c r="AI28" s="19"/>
-      <c r="AJ28" s="51"/>
+      <c r="AJ28" s="60"/>
       <c r="AK28" s="19"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A29" s="61"/>
-      <c r="B29" s="54"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="62"/>
       <c r="C29" s="53"/>
-      <c r="D29" s="53" t="s">
-        <v>13</v>
-      </c>
+      <c r="D29" s="53"/>
       <c r="E29" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
+        <v>126</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="H29" s="35">
+        <v>44124</v>
+      </c>
+      <c r="I29" s="35">
+        <v>44124</v>
+      </c>
       <c r="J29" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="30"/>
       <c r="L29" s="20"/>
@@ -6538,30 +6566,32 @@
       <c r="S29" s="20"/>
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
-      <c r="V29" s="56"/>
+      <c r="V29" s="64"/>
       <c r="W29" s="20"/>
       <c r="X29" s="20"/>
       <c r="Y29" s="20"/>
       <c r="Z29" s="20"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="20"/>
-      <c r="AC29" s="59"/>
+      <c r="AC29" s="67"/>
       <c r="AD29" s="19"/>
       <c r="AE29" s="19"/>
       <c r="AF29" s="19"/>
       <c r="AG29" s="19"/>
       <c r="AH29" s="19"/>
       <c r="AI29" s="19"/>
-      <c r="AJ29" s="51"/>
+      <c r="AJ29" s="60"/>
       <c r="AK29" s="19"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A30" s="61"/>
-      <c r="B30" s="54"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="62"/>
       <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
+      <c r="D30" s="53" t="s">
+        <v>13</v>
+      </c>
       <c r="E30" s="2" t="s">
-        <v>151</v>
+        <v>111</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
@@ -6581,45 +6611,37 @@
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
       <c r="U30" s="20"/>
-      <c r="V30" s="56"/>
+      <c r="V30" s="64"/>
       <c r="W30" s="20"/>
       <c r="X30" s="20"/>
       <c r="Y30" s="20"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
-      <c r="AC30" s="59"/>
+      <c r="AC30" s="67"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="19"/>
       <c r="AF30" s="19"/>
       <c r="AG30" s="19"/>
       <c r="AH30" s="19"/>
       <c r="AI30" s="19"/>
-      <c r="AJ30" s="51"/>
+      <c r="AJ30" s="60"/>
       <c r="AK30" s="19"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A31" s="61"/>
-      <c r="B31" s="54"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="62"/>
       <c r="C31" s="53"/>
       <c r="D31" s="53"/>
       <c r="E31" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F31" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="H31" s="35">
-        <v>44124</v>
-      </c>
-      <c r="I31" s="35">
-        <v>44124</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
       <c r="J31" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="30"/>
       <c r="L31" s="20"/>
@@ -6632,39 +6654,45 @@
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
-      <c r="V31" s="56"/>
+      <c r="V31" s="64"/>
       <c r="W31" s="20"/>
       <c r="X31" s="20"/>
       <c r="Y31" s="20"/>
       <c r="Z31" s="20"/>
       <c r="AA31" s="20"/>
       <c r="AB31" s="20"/>
-      <c r="AC31" s="59"/>
+      <c r="AC31" s="67"/>
       <c r="AD31" s="19"/>
       <c r="AE31" s="19"/>
       <c r="AF31" s="19"/>
       <c r="AG31" s="19"/>
       <c r="AH31" s="19"/>
       <c r="AI31" s="19"/>
-      <c r="AJ31" s="51"/>
+      <c r="AJ31" s="60"/>
       <c r="AK31" s="19"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A32" s="61"/>
-      <c r="B32" s="54"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="62"/>
       <c r="C32" s="53"/>
-      <c r="D32" s="53" t="s">
-        <v>97</v>
-      </c>
+      <c r="D32" s="53"/>
       <c r="E32" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
+        <v>120</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="H32" s="35">
+        <v>44124</v>
+      </c>
+      <c r="I32" s="35">
+        <v>44124</v>
+      </c>
       <c r="J32" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="30"/>
       <c r="L32" s="20"/>
@@ -6677,40 +6705,36 @@
       <c r="S32" s="20"/>
       <c r="T32" s="20"/>
       <c r="U32" s="20"/>
-      <c r="V32" s="56"/>
+      <c r="V32" s="64"/>
       <c r="W32" s="20"/>
       <c r="X32" s="20"/>
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
       <c r="AA32" s="20"/>
       <c r="AB32" s="20"/>
-      <c r="AC32" s="59"/>
+      <c r="AC32" s="67"/>
       <c r="AD32" s="19"/>
       <c r="AE32" s="19"/>
       <c r="AF32" s="19"/>
       <c r="AG32" s="19"/>
       <c r="AH32" s="19"/>
       <c r="AI32" s="19"/>
-      <c r="AJ32" s="51"/>
+      <c r="AJ32" s="60"/>
       <c r="AK32" s="19"/>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A33" s="61"/>
-      <c r="B33" s="54"/>
+      <c r="A33" s="52"/>
+      <c r="B33" s="62"/>
       <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
+      <c r="D33" s="53" t="s">
+        <v>97</v>
+      </c>
       <c r="E33" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="G33" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="H33" s="35">
-        <v>44126</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="35"/>
       <c r="I33" s="35"/>
       <c r="J33" s="36">
         <v>0</v>
@@ -6726,34 +6750,40 @@
       <c r="S33" s="20"/>
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
-      <c r="V33" s="56"/>
+      <c r="V33" s="64"/>
       <c r="W33" s="20"/>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
       <c r="AA33" s="20"/>
       <c r="AB33" s="20"/>
-      <c r="AC33" s="59"/>
+      <c r="AC33" s="67"/>
       <c r="AD33" s="19"/>
       <c r="AE33" s="19"/>
       <c r="AF33" s="19"/>
       <c r="AG33" s="19"/>
       <c r="AH33" s="19"/>
       <c r="AI33" s="19"/>
-      <c r="AJ33" s="51"/>
+      <c r="AJ33" s="60"/>
       <c r="AK33" s="19"/>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A34" s="61"/>
-      <c r="B34" s="54"/>
+      <c r="A34" s="52"/>
+      <c r="B34" s="62"/>
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
       <c r="E34" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="35"/>
+        <v>149</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="H34" s="35">
+        <v>44126</v>
+      </c>
       <c r="I34" s="35"/>
       <c r="J34" s="36">
         <v>0</v>
@@ -6769,32 +6799,30 @@
       <c r="S34" s="20"/>
       <c r="T34" s="20"/>
       <c r="U34" s="20"/>
-      <c r="V34" s="56"/>
+      <c r="V34" s="64"/>
       <c r="W34" s="20"/>
       <c r="X34" s="20"/>
       <c r="Y34" s="20"/>
       <c r="Z34" s="20"/>
       <c r="AA34" s="20"/>
       <c r="AB34" s="20"/>
-      <c r="AC34" s="59"/>
+      <c r="AC34" s="67"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="19"/>
       <c r="AG34" s="19"/>
       <c r="AH34" s="19"/>
       <c r="AI34" s="19"/>
-      <c r="AJ34" s="51"/>
+      <c r="AJ34" s="60"/>
       <c r="AK34" s="19"/>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A35" s="61"/>
-      <c r="B35" s="54"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="62"/>
       <c r="C35" s="53"/>
-      <c r="D35" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="D35" s="53"/>
       <c r="E35" s="2" t="s">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
@@ -6814,42 +6842,36 @@
       <c r="S35" s="20"/>
       <c r="T35" s="20"/>
       <c r="U35" s="20"/>
-      <c r="V35" s="56"/>
+      <c r="V35" s="64"/>
       <c r="W35" s="20"/>
       <c r="X35" s="20"/>
       <c r="Y35" s="20"/>
       <c r="Z35" s="20"/>
       <c r="AA35" s="20"/>
       <c r="AB35" s="20"/>
-      <c r="AC35" s="59"/>
+      <c r="AC35" s="67"/>
       <c r="AD35" s="19"/>
       <c r="AE35" s="19"/>
       <c r="AF35" s="19"/>
       <c r="AG35" s="19"/>
       <c r="AH35" s="19"/>
       <c r="AI35" s="19"/>
-      <c r="AJ35" s="51"/>
+      <c r="AJ35" s="60"/>
       <c r="AK35" s="19"/>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A36" s="61"/>
-      <c r="B36" s="54"/>
+      <c r="A36" s="52"/>
+      <c r="B36" s="62"/>
       <c r="C36" s="53"/>
       <c r="D36" s="2" t="s">
-        <v>152</v>
+        <v>24</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="H36" s="35">
-        <v>44126</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="35"/>
       <c r="I36" s="35"/>
       <c r="J36" s="36">
         <v>0</v>
@@ -6865,34 +6887,42 @@
       <c r="S36" s="20"/>
       <c r="T36" s="20"/>
       <c r="U36" s="20"/>
-      <c r="V36" s="56"/>
+      <c r="V36" s="64"/>
       <c r="W36" s="20"/>
       <c r="X36" s="20"/>
       <c r="Y36" s="20"/>
       <c r="Z36" s="20"/>
       <c r="AA36" s="20"/>
       <c r="AB36" s="20"/>
-      <c r="AC36" s="59"/>
+      <c r="AC36" s="67"/>
       <c r="AD36" s="19"/>
       <c r="AE36" s="19"/>
       <c r="AF36" s="19"/>
       <c r="AG36" s="19"/>
       <c r="AH36" s="19"/>
       <c r="AI36" s="19"/>
-      <c r="AJ36" s="51"/>
+      <c r="AJ36" s="60"/>
       <c r="AK36" s="19"/>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A37" s="61"/>
-      <c r="B37" s="54"/>
+      <c r="A37" s="52"/>
+      <c r="B37" s="62"/>
       <c r="C37" s="53"/>
       <c r="D37" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="35"/>
+        <v>152</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="H37" s="35">
+        <v>44126</v>
+      </c>
       <c r="I37" s="35"/>
       <c r="J37" s="36">
         <v>0</v>
@@ -6908,29 +6938,29 @@
       <c r="S37" s="20"/>
       <c r="T37" s="20"/>
       <c r="U37" s="20"/>
-      <c r="V37" s="56"/>
+      <c r="V37" s="64"/>
       <c r="W37" s="20"/>
       <c r="X37" s="20"/>
       <c r="Y37" s="20"/>
       <c r="Z37" s="20"/>
       <c r="AA37" s="20"/>
       <c r="AB37" s="20"/>
-      <c r="AC37" s="59"/>
+      <c r="AC37" s="67"/>
       <c r="AD37" s="19"/>
       <c r="AE37" s="19"/>
       <c r="AF37" s="19"/>
       <c r="AG37" s="19"/>
       <c r="AH37" s="19"/>
       <c r="AI37" s="19"/>
-      <c r="AJ37" s="51"/>
+      <c r="AJ37" s="60"/>
       <c r="AK37" s="19"/>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A38" s="61"/>
-      <c r="B38" s="54"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="62"/>
       <c r="C38" s="53"/>
       <c r="D38" s="2" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="20"/>
@@ -6951,31 +6981,31 @@
       <c r="S38" s="20"/>
       <c r="T38" s="20"/>
       <c r="U38" s="20"/>
-      <c r="V38" s="56"/>
+      <c r="V38" s="64"/>
       <c r="W38" s="20"/>
       <c r="X38" s="20"/>
       <c r="Y38" s="20"/>
       <c r="Z38" s="20"/>
       <c r="AA38" s="20"/>
       <c r="AB38" s="20"/>
-      <c r="AC38" s="59"/>
+      <c r="AC38" s="67"/>
       <c r="AD38" s="19"/>
       <c r="AE38" s="19"/>
       <c r="AF38" s="19"/>
       <c r="AG38" s="19"/>
       <c r="AH38" s="19"/>
       <c r="AI38" s="19"/>
-      <c r="AJ38" s="51"/>
+      <c r="AJ38" s="60"/>
       <c r="AK38" s="19"/>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A39" s="61"/>
-      <c r="B39" s="54"/>
+      <c r="A39" s="52"/>
+      <c r="B39" s="62"/>
       <c r="C39" s="53"/>
-      <c r="D39" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="39"/>
+      <c r="D39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
       <c r="H39" s="35"/>
@@ -6994,31 +7024,31 @@
       <c r="S39" s="20"/>
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
-      <c r="V39" s="56"/>
+      <c r="V39" s="64"/>
       <c r="W39" s="20"/>
       <c r="X39" s="20"/>
       <c r="Y39" s="20"/>
       <c r="Z39" s="20"/>
       <c r="AA39" s="20"/>
       <c r="AB39" s="20"/>
-      <c r="AC39" s="59"/>
+      <c r="AC39" s="67"/>
       <c r="AD39" s="19"/>
       <c r="AE39" s="19"/>
       <c r="AF39" s="19"/>
       <c r="AG39" s="19"/>
       <c r="AH39" s="19"/>
       <c r="AI39" s="19"/>
-      <c r="AJ39" s="51"/>
+      <c r="AJ39" s="60"/>
       <c r="AK39" s="19"/>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A40" s="61"/>
-      <c r="B40" s="54"/>
+      <c r="A40" s="52"/>
+      <c r="B40" s="62"/>
       <c r="C40" s="53"/>
-      <c r="D40" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="38"/>
+      <c r="D40" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="39"/>
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
       <c r="H40" s="35"/>
@@ -7037,31 +7067,31 @@
       <c r="S40" s="20"/>
       <c r="T40" s="20"/>
       <c r="U40" s="20"/>
-      <c r="V40" s="56"/>
+      <c r="V40" s="64"/>
       <c r="W40" s="20"/>
       <c r="X40" s="20"/>
       <c r="Y40" s="20"/>
       <c r="Z40" s="20"/>
       <c r="AA40" s="20"/>
       <c r="AB40" s="20"/>
-      <c r="AC40" s="59"/>
+      <c r="AC40" s="67"/>
       <c r="AD40" s="19"/>
       <c r="AE40" s="19"/>
       <c r="AF40" s="19"/>
       <c r="AG40" s="19"/>
       <c r="AH40" s="19"/>
       <c r="AI40" s="19"/>
-      <c r="AJ40" s="51"/>
+      <c r="AJ40" s="60"/>
       <c r="AK40" s="19"/>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A41" s="61"/>
-      <c r="B41" s="54"/>
+      <c r="A41" s="52"/>
+      <c r="B41" s="62"/>
       <c r="C41" s="53"/>
-      <c r="D41" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="2"/>
+      <c r="D41" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="38"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
       <c r="H41" s="35"/>
@@ -7080,31 +7110,29 @@
       <c r="S41" s="20"/>
       <c r="T41" s="20"/>
       <c r="U41" s="20"/>
-      <c r="V41" s="56"/>
+      <c r="V41" s="64"/>
       <c r="W41" s="20"/>
       <c r="X41" s="20"/>
       <c r="Y41" s="20"/>
       <c r="Z41" s="20"/>
       <c r="AA41" s="20"/>
       <c r="AB41" s="20"/>
-      <c r="AC41" s="59"/>
+      <c r="AC41" s="67"/>
       <c r="AD41" s="19"/>
       <c r="AE41" s="19"/>
       <c r="AF41" s="19"/>
       <c r="AG41" s="19"/>
       <c r="AH41" s="19"/>
       <c r="AI41" s="19"/>
-      <c r="AJ41" s="51"/>
+      <c r="AJ41" s="60"/>
       <c r="AK41" s="19"/>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A42" s="61"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="D42" s="40" t="s">
-        <v>45</v>
+      <c r="A42" s="52"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="20"/>
@@ -7125,29 +7153,31 @@
       <c r="S42" s="20"/>
       <c r="T42" s="20"/>
       <c r="U42" s="20"/>
-      <c r="V42" s="56"/>
+      <c r="V42" s="64"/>
       <c r="W42" s="20"/>
       <c r="X42" s="20"/>
       <c r="Y42" s="20"/>
       <c r="Z42" s="20"/>
       <c r="AA42" s="20"/>
       <c r="AB42" s="20"/>
-      <c r="AC42" s="59"/>
+      <c r="AC42" s="67"/>
       <c r="AD42" s="19"/>
       <c r="AE42" s="19"/>
       <c r="AF42" s="19"/>
       <c r="AG42" s="19"/>
       <c r="AH42" s="19"/>
       <c r="AI42" s="19"/>
-      <c r="AJ42" s="51"/>
+      <c r="AJ42" s="60"/>
       <c r="AK42" s="19"/>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A43" s="61"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="2" t="s">
-        <v>26</v>
+      <c r="A43" s="52"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="40" t="s">
+        <v>45</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="20"/>
@@ -7168,31 +7198,29 @@
       <c r="S43" s="20"/>
       <c r="T43" s="20"/>
       <c r="U43" s="20"/>
-      <c r="V43" s="56"/>
+      <c r="V43" s="64"/>
       <c r="W43" s="20"/>
       <c r="X43" s="20"/>
       <c r="Y43" s="20"/>
       <c r="Z43" s="20"/>
       <c r="AA43" s="20"/>
       <c r="AB43" s="20"/>
-      <c r="AC43" s="59"/>
+      <c r="AC43" s="67"/>
       <c r="AD43" s="19"/>
       <c r="AE43" s="19"/>
       <c r="AF43" s="19"/>
       <c r="AG43" s="19"/>
       <c r="AH43" s="19"/>
       <c r="AI43" s="19"/>
-      <c r="AJ43" s="51"/>
+      <c r="AJ43" s="60"/>
       <c r="AK43" s="19"/>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A44" s="61"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>45</v>
+      <c r="A44" s="52"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="20"/>
@@ -7213,29 +7241,31 @@
       <c r="S44" s="20"/>
       <c r="T44" s="20"/>
       <c r="U44" s="20"/>
-      <c r="V44" s="56"/>
+      <c r="V44" s="64"/>
       <c r="W44" s="20"/>
       <c r="X44" s="20"/>
       <c r="Y44" s="20"/>
       <c r="Z44" s="20"/>
       <c r="AA44" s="20"/>
       <c r="AB44" s="20"/>
-      <c r="AC44" s="59"/>
+      <c r="AC44" s="67"/>
       <c r="AD44" s="19"/>
       <c r="AE44" s="19"/>
       <c r="AF44" s="19"/>
       <c r="AG44" s="19"/>
       <c r="AH44" s="19"/>
       <c r="AI44" s="19"/>
-      <c r="AJ44" s="51"/>
+      <c r="AJ44" s="60"/>
       <c r="AK44" s="19"/>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A45" s="61"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="2" t="s">
-        <v>26</v>
+      <c r="A45" s="52"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>45</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="20"/>
@@ -7256,28 +7286,30 @@
       <c r="S45" s="20"/>
       <c r="T45" s="20"/>
       <c r="U45" s="20"/>
-      <c r="V45" s="56"/>
+      <c r="V45" s="64"/>
       <c r="W45" s="20"/>
       <c r="X45" s="20"/>
       <c r="Y45" s="20"/>
       <c r="Z45" s="20"/>
       <c r="AA45" s="20"/>
       <c r="AB45" s="20"/>
-      <c r="AC45" s="59"/>
+      <c r="AC45" s="67"/>
       <c r="AD45" s="19"/>
       <c r="AE45" s="19"/>
       <c r="AF45" s="19"/>
       <c r="AG45" s="19"/>
       <c r="AH45" s="19"/>
       <c r="AI45" s="19"/>
-      <c r="AJ45" s="51"/>
+      <c r="AJ45" s="60"/>
       <c r="AK45" s="19"/>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A46" s="61"/>
-      <c r="B46" s="54"/>
+      <c r="A46" s="52"/>
+      <c r="B46" s="62"/>
       <c r="C46" s="53"/>
-      <c r="D46" s="2"/>
+      <c r="D46" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E46" s="2"/>
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
@@ -7297,32 +7329,28 @@
       <c r="S46" s="20"/>
       <c r="T46" s="20"/>
       <c r="U46" s="20"/>
-      <c r="V46" s="56"/>
+      <c r="V46" s="64"/>
       <c r="W46" s="20"/>
       <c r="X46" s="20"/>
       <c r="Y46" s="20"/>
       <c r="Z46" s="20"/>
       <c r="AA46" s="20"/>
       <c r="AB46" s="20"/>
-      <c r="AC46" s="59"/>
+      <c r="AC46" s="67"/>
       <c r="AD46" s="19"/>
       <c r="AE46" s="19"/>
       <c r="AF46" s="19"/>
       <c r="AG46" s="19"/>
       <c r="AH46" s="19"/>
       <c r="AI46" s="19"/>
-      <c r="AJ46" s="51"/>
+      <c r="AJ46" s="60"/>
       <c r="AK46" s="19"/>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A47" s="61"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A47" s="52"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
@@ -7342,29 +7370,31 @@
       <c r="S47" s="20"/>
       <c r="T47" s="20"/>
       <c r="U47" s="20"/>
-      <c r="V47" s="56"/>
+      <c r="V47" s="64"/>
       <c r="W47" s="20"/>
       <c r="X47" s="20"/>
       <c r="Y47" s="20"/>
       <c r="Z47" s="20"/>
       <c r="AA47" s="20"/>
       <c r="AB47" s="20"/>
-      <c r="AC47" s="59"/>
+      <c r="AC47" s="67"/>
       <c r="AD47" s="19"/>
       <c r="AE47" s="19"/>
       <c r="AF47" s="19"/>
       <c r="AG47" s="19"/>
       <c r="AH47" s="19"/>
       <c r="AI47" s="19"/>
-      <c r="AJ47" s="51"/>
+      <c r="AJ47" s="60"/>
       <c r="AK47" s="19"/>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A48" s="61"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="53"/>
+      <c r="A48" s="52"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="53" t="s">
+        <v>17</v>
+      </c>
       <c r="D48" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="20"/>
@@ -7385,29 +7415,29 @@
       <c r="S48" s="20"/>
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
-      <c r="V48" s="56"/>
+      <c r="V48" s="64"/>
       <c r="W48" s="20"/>
       <c r="X48" s="20"/>
       <c r="Y48" s="20"/>
       <c r="Z48" s="20"/>
       <c r="AA48" s="20"/>
       <c r="AB48" s="20"/>
-      <c r="AC48" s="59"/>
+      <c r="AC48" s="67"/>
       <c r="AD48" s="19"/>
       <c r="AE48" s="19"/>
       <c r="AF48" s="19"/>
       <c r="AG48" s="19"/>
       <c r="AH48" s="19"/>
       <c r="AI48" s="19"/>
-      <c r="AJ48" s="51"/>
+      <c r="AJ48" s="60"/>
       <c r="AK48" s="19"/>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A49" s="61"/>
-      <c r="B49" s="54"/>
+      <c r="A49" s="52"/>
+      <c r="B49" s="62"/>
       <c r="C49" s="53"/>
       <c r="D49" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="20"/>
@@ -7428,29 +7458,29 @@
       <c r="S49" s="20"/>
       <c r="T49" s="20"/>
       <c r="U49" s="20"/>
-      <c r="V49" s="56"/>
+      <c r="V49" s="64"/>
       <c r="W49" s="20"/>
       <c r="X49" s="20"/>
       <c r="Y49" s="20"/>
       <c r="Z49" s="20"/>
       <c r="AA49" s="20"/>
       <c r="AB49" s="20"/>
-      <c r="AC49" s="59"/>
+      <c r="AC49" s="67"/>
       <c r="AD49" s="19"/>
       <c r="AE49" s="19"/>
       <c r="AF49" s="19"/>
       <c r="AG49" s="19"/>
       <c r="AH49" s="19"/>
       <c r="AI49" s="19"/>
-      <c r="AJ49" s="51"/>
+      <c r="AJ49" s="60"/>
       <c r="AK49" s="19"/>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A50" s="61"/>
-      <c r="B50" s="54"/>
+      <c r="A50" s="52"/>
+      <c r="B50" s="62"/>
       <c r="C50" s="53"/>
       <c r="D50" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="20"/>
@@ -7471,29 +7501,29 @@
       <c r="S50" s="20"/>
       <c r="T50" s="20"/>
       <c r="U50" s="20"/>
-      <c r="V50" s="56"/>
+      <c r="V50" s="64"/>
       <c r="W50" s="20"/>
       <c r="X50" s="20"/>
       <c r="Y50" s="20"/>
       <c r="Z50" s="20"/>
       <c r="AA50" s="20"/>
       <c r="AB50" s="20"/>
-      <c r="AC50" s="59"/>
+      <c r="AC50" s="67"/>
       <c r="AD50" s="19"/>
       <c r="AE50" s="19"/>
       <c r="AF50" s="19"/>
       <c r="AG50" s="19"/>
       <c r="AH50" s="19"/>
       <c r="AI50" s="19"/>
-      <c r="AJ50" s="51"/>
+      <c r="AJ50" s="60"/>
       <c r="AK50" s="19"/>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A51" s="61"/>
-      <c r="B51" s="54"/>
+      <c r="A51" s="52"/>
+      <c r="B51" s="62"/>
       <c r="C51" s="53"/>
       <c r="D51" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="20"/>
@@ -7514,40 +7544,34 @@
       <c r="S51" s="20"/>
       <c r="T51" s="20"/>
       <c r="U51" s="20"/>
-      <c r="V51" s="56"/>
+      <c r="V51" s="64"/>
       <c r="W51" s="20"/>
       <c r="X51" s="20"/>
       <c r="Y51" s="20"/>
       <c r="Z51" s="20"/>
       <c r="AA51" s="20"/>
       <c r="AB51" s="20"/>
-      <c r="AC51" s="59"/>
+      <c r="AC51" s="67"/>
       <c r="AD51" s="19"/>
       <c r="AE51" s="19"/>
       <c r="AF51" s="19"/>
       <c r="AG51" s="19"/>
       <c r="AH51" s="19"/>
       <c r="AI51" s="19"/>
-      <c r="AJ51" s="51"/>
+      <c r="AJ51" s="60"/>
       <c r="AK51" s="19"/>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A52" s="61"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="53" t="s">
-        <v>128</v>
-      </c>
+      <c r="A52" s="52"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="53"/>
       <c r="D52" s="2" t="s">
-        <v>160</v>
+        <v>33</v>
       </c>
       <c r="E52" s="2"/>
-      <c r="F52" s="20" t="s">
-        <v>142</v>
-      </c>
+      <c r="F52" s="20"/>
       <c r="G52" s="20"/>
-      <c r="H52" s="35">
-        <v>44124</v>
-      </c>
+      <c r="H52" s="35"/>
       <c r="I52" s="35"/>
       <c r="J52" s="36">
         <v>0</v>
@@ -7563,33 +7587,35 @@
       <c r="S52" s="20"/>
       <c r="T52" s="20"/>
       <c r="U52" s="20"/>
-      <c r="V52" s="56"/>
+      <c r="V52" s="64"/>
       <c r="W52" s="20"/>
       <c r="X52" s="20"/>
       <c r="Y52" s="20"/>
       <c r="Z52" s="20"/>
       <c r="AA52" s="20"/>
       <c r="AB52" s="20"/>
-      <c r="AC52" s="59"/>
+      <c r="AC52" s="67"/>
       <c r="AD52" s="19"/>
       <c r="AE52" s="19"/>
       <c r="AF52" s="19"/>
       <c r="AG52" s="19"/>
       <c r="AH52" s="19"/>
       <c r="AI52" s="19"/>
-      <c r="AJ52" s="51"/>
+      <c r="AJ52" s="60"/>
       <c r="AK52" s="19"/>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A53" s="61"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="53"/>
+      <c r="A53" s="52"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="53" t="s">
+        <v>128</v>
+      </c>
       <c r="D53" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="20" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="G53" s="20"/>
       <c r="H53" s="35">
@@ -7610,144 +7636,140 @@
       <c r="S53" s="20"/>
       <c r="T53" s="20"/>
       <c r="U53" s="20"/>
-      <c r="V53" s="56"/>
+      <c r="V53" s="64"/>
       <c r="W53" s="20"/>
       <c r="X53" s="20"/>
       <c r="Y53" s="20"/>
       <c r="Z53" s="20"/>
       <c r="AA53" s="20"/>
       <c r="AB53" s="20"/>
-      <c r="AC53" s="59"/>
+      <c r="AC53" s="67"/>
       <c r="AD53" s="19"/>
       <c r="AE53" s="19"/>
       <c r="AF53" s="19"/>
       <c r="AG53" s="19"/>
       <c r="AH53" s="19"/>
       <c r="AI53" s="19"/>
-      <c r="AJ53" s="51"/>
+      <c r="AJ53" s="60"/>
       <c r="AK53" s="19"/>
     </row>
-    <row r="54" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="61"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D54" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="E54" s="41"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="43">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A54" s="52"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="53"/>
+      <c r="D54" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G54" s="20"/>
+      <c r="H54" s="35">
+        <v>44124</v>
+      </c>
+      <c r="I54" s="35"/>
+      <c r="J54" s="36">
         <v>0</v>
       </c>
-      <c r="K54" s="31"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="21"/>
-      <c r="S54" s="21"/>
-      <c r="T54" s="21"/>
-      <c r="U54" s="21"/>
-      <c r="V54" s="56"/>
-      <c r="W54" s="21"/>
-      <c r="X54" s="21"/>
-      <c r="Y54" s="21"/>
-      <c r="Z54" s="21"/>
-      <c r="AA54" s="21"/>
-      <c r="AB54" s="21"/>
-      <c r="AC54" s="59"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="20"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="20"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="20"/>
+      <c r="R54" s="20"/>
+      <c r="S54" s="20"/>
+      <c r="T54" s="20"/>
+      <c r="U54" s="20"/>
+      <c r="V54" s="64"/>
+      <c r="W54" s="20"/>
+      <c r="X54" s="20"/>
+      <c r="Y54" s="20"/>
+      <c r="Z54" s="20"/>
+      <c r="AA54" s="20"/>
+      <c r="AB54" s="20"/>
+      <c r="AC54" s="67"/>
       <c r="AD54" s="19"/>
       <c r="AE54" s="19"/>
       <c r="AF54" s="19"/>
       <c r="AG54" s="19"/>
       <c r="AH54" s="19"/>
       <c r="AI54" s="19"/>
-      <c r="AJ54" s="51"/>
+      <c r="AJ54" s="60"/>
       <c r="AK54" s="19"/>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A55" s="61"/>
-      <c r="B55" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="C55" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="D55" s="53" t="s">
-        <v>29</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F55" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G55" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="H55" s="35">
-        <v>44124</v>
-      </c>
-      <c r="I55" s="35">
-        <v>44124</v>
-      </c>
-      <c r="J55" s="36">
-        <v>1</v>
-      </c>
-      <c r="K55" s="30"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="20"/>
-      <c r="T55" s="20"/>
-      <c r="U55" s="20"/>
-      <c r="V55" s="56"/>
-      <c r="W55" s="20"/>
-      <c r="X55" s="20"/>
-      <c r="Y55" s="20"/>
-      <c r="Z55" s="20"/>
-      <c r="AA55" s="20"/>
-      <c r="AB55" s="20"/>
-      <c r="AC55" s="59"/>
+    <row r="55" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="52"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" s="41"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="43">
+        <v>0</v>
+      </c>
+      <c r="K55" s="31"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="64"/>
+      <c r="W55" s="21"/>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="21"/>
+      <c r="Z55" s="21"/>
+      <c r="AA55" s="21"/>
+      <c r="AB55" s="21"/>
+      <c r="AC55" s="67"/>
       <c r="AD55" s="19"/>
       <c r="AE55" s="19"/>
       <c r="AF55" s="19"/>
       <c r="AG55" s="19"/>
       <c r="AH55" s="19"/>
       <c r="AI55" s="19"/>
-      <c r="AJ55" s="51"/>
+      <c r="AJ55" s="60"/>
       <c r="AK55" s="19"/>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A56" s="61"/>
-      <c r="B56" s="63"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
+      <c r="A56" s="52"/>
+      <c r="B56" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="53" t="s">
+        <v>29</v>
+      </c>
       <c r="E56" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="H56" s="35">
         <v>44124</v>
       </c>
       <c r="I56" s="35">
-        <v>44125</v>
+        <v>44124</v>
       </c>
       <c r="J56" s="36">
         <v>1</v>
@@ -7763,41 +7785,45 @@
       <c r="S56" s="20"/>
       <c r="T56" s="20"/>
       <c r="U56" s="20"/>
-      <c r="V56" s="56"/>
+      <c r="V56" s="64"/>
       <c r="W56" s="20"/>
       <c r="X56" s="20"/>
       <c r="Y56" s="20"/>
       <c r="Z56" s="20"/>
       <c r="AA56" s="20"/>
       <c r="AB56" s="20"/>
-      <c r="AC56" s="59"/>
+      <c r="AC56" s="67"/>
       <c r="AD56" s="19"/>
       <c r="AE56" s="19"/>
       <c r="AF56" s="19"/>
       <c r="AG56" s="19"/>
       <c r="AH56" s="19"/>
       <c r="AI56" s="19"/>
-      <c r="AJ56" s="51"/>
+      <c r="AJ56" s="60"/>
       <c r="AK56" s="19"/>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A57" s="61"/>
-      <c r="B57" s="63"/>
-      <c r="C57" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="D57" s="53" t="s">
-        <v>102</v>
-      </c>
+      <c r="A57" s="52"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
       <c r="E57" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
+        <v>137</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="G57" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="H57" s="35">
+        <v>44124</v>
+      </c>
+      <c r="I57" s="35">
+        <v>44125</v>
+      </c>
       <c r="J57" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="30"/>
       <c r="L57" s="20"/>
@@ -7810,32 +7836,38 @@
       <c r="S57" s="20"/>
       <c r="T57" s="20"/>
       <c r="U57" s="20"/>
-      <c r="V57" s="56"/>
+      <c r="V57" s="64"/>
       <c r="W57" s="20"/>
       <c r="X57" s="20"/>
       <c r="Y57" s="20"/>
       <c r="Z57" s="20"/>
       <c r="AA57" s="20"/>
       <c r="AB57" s="20"/>
-      <c r="AC57" s="59"/>
+      <c r="AC57" s="67"/>
       <c r="AD57" s="19"/>
       <c r="AE57" s="19"/>
       <c r="AF57" s="19"/>
       <c r="AG57" s="19"/>
       <c r="AH57" s="19"/>
       <c r="AI57" s="19"/>
-      <c r="AJ57" s="51"/>
+      <c r="AJ57" s="60"/>
       <c r="AK57" s="19"/>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A58" s="61"/>
-      <c r="B58" s="63"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
+      <c r="A58" s="52"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D58" s="53" t="s">
+        <v>102</v>
+      </c>
       <c r="E58" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="F58" s="20"/>
+        <v>109</v>
+      </c>
+      <c r="F58" s="50" t="s">
+        <v>40</v>
+      </c>
       <c r="G58" s="20"/>
       <c r="H58" s="35"/>
       <c r="I58" s="35"/>
@@ -7853,32 +7885,34 @@
       <c r="S58" s="20"/>
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
-      <c r="V58" s="56"/>
+      <c r="V58" s="64"/>
       <c r="W58" s="20"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="20"/>
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
-      <c r="AC58" s="59"/>
+      <c r="AC58" s="67"/>
       <c r="AD58" s="19"/>
       <c r="AE58" s="19"/>
       <c r="AF58" s="19"/>
       <c r="AG58" s="19"/>
       <c r="AH58" s="19"/>
       <c r="AI58" s="19"/>
-      <c r="AJ58" s="51"/>
+      <c r="AJ58" s="60"/>
       <c r="AK58" s="19"/>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A59" s="61"/>
-      <c r="B59" s="63"/>
+      <c r="A59" s="52"/>
+      <c r="B59" s="55"/>
       <c r="C59" s="53"/>
       <c r="D59" s="53"/>
       <c r="E59" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F59" s="20"/>
+        <v>154</v>
+      </c>
+      <c r="F59" s="50" t="s">
+        <v>40</v>
+      </c>
       <c r="G59" s="20"/>
       <c r="H59" s="35"/>
       <c r="I59" s="35"/>
@@ -7896,32 +7930,34 @@
       <c r="S59" s="20"/>
       <c r="T59" s="20"/>
       <c r="U59" s="20"/>
-      <c r="V59" s="56"/>
+      <c r="V59" s="64"/>
       <c r="W59" s="20"/>
       <c r="X59" s="20"/>
       <c r="Y59" s="20"/>
       <c r="Z59" s="20"/>
       <c r="AA59" s="20"/>
       <c r="AB59" s="20"/>
-      <c r="AC59" s="59"/>
+      <c r="AC59" s="67"/>
       <c r="AD59" s="19"/>
       <c r="AE59" s="19"/>
       <c r="AF59" s="19"/>
       <c r="AG59" s="19"/>
       <c r="AH59" s="19"/>
       <c r="AI59" s="19"/>
-      <c r="AJ59" s="51"/>
+      <c r="AJ59" s="60"/>
       <c r="AK59" s="19"/>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A60" s="61"/>
-      <c r="B60" s="63"/>
+      <c r="A60" s="52"/>
+      <c r="B60" s="55"/>
       <c r="C60" s="53"/>
       <c r="D60" s="53"/>
       <c r="E60" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F60" s="20"/>
+        <v>155</v>
+      </c>
+      <c r="F60" s="50" t="s">
+        <v>40</v>
+      </c>
       <c r="G60" s="20"/>
       <c r="H60" s="35"/>
       <c r="I60" s="35"/>
@@ -7939,32 +7975,34 @@
       <c r="S60" s="20"/>
       <c r="T60" s="20"/>
       <c r="U60" s="20"/>
-      <c r="V60" s="56"/>
+      <c r="V60" s="64"/>
       <c r="W60" s="20"/>
       <c r="X60" s="20"/>
       <c r="Y60" s="20"/>
       <c r="Z60" s="20"/>
       <c r="AA60" s="20"/>
       <c r="AB60" s="20"/>
-      <c r="AC60" s="59"/>
+      <c r="AC60" s="67"/>
       <c r="AD60" s="19"/>
       <c r="AE60" s="19"/>
       <c r="AF60" s="19"/>
       <c r="AG60" s="19"/>
       <c r="AH60" s="19"/>
       <c r="AI60" s="19"/>
-      <c r="AJ60" s="51"/>
+      <c r="AJ60" s="60"/>
       <c r="AK60" s="19"/>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A61" s="61"/>
-      <c r="B61" s="63"/>
+      <c r="A61" s="52"/>
+      <c r="B61" s="55"/>
       <c r="C61" s="53"/>
       <c r="D61" s="53"/>
       <c r="E61" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F61" s="20"/>
+        <v>114</v>
+      </c>
+      <c r="F61" s="50" t="s">
+        <v>40</v>
+      </c>
       <c r="G61" s="20"/>
       <c r="H61" s="35"/>
       <c r="I61" s="35"/>
@@ -7982,34 +8020,34 @@
       <c r="S61" s="20"/>
       <c r="T61" s="20"/>
       <c r="U61" s="20"/>
-      <c r="V61" s="56"/>
+      <c r="V61" s="64"/>
       <c r="W61" s="20"/>
       <c r="X61" s="20"/>
       <c r="Y61" s="20"/>
       <c r="Z61" s="20"/>
       <c r="AA61" s="20"/>
       <c r="AB61" s="20"/>
-      <c r="AC61" s="59"/>
+      <c r="AC61" s="67"/>
       <c r="AD61" s="19"/>
       <c r="AE61" s="19"/>
       <c r="AF61" s="19"/>
       <c r="AG61" s="19"/>
       <c r="AH61" s="19"/>
       <c r="AI61" s="19"/>
-      <c r="AJ61" s="51"/>
+      <c r="AJ61" s="60"/>
       <c r="AK61" s="19"/>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A62" s="61"/>
-      <c r="B62" s="63"/>
+      <c r="A62" s="52"/>
+      <c r="B62" s="55"/>
       <c r="C62" s="53"/>
-      <c r="D62" s="53" t="s">
-        <v>104</v>
-      </c>
+      <c r="D62" s="53"/>
       <c r="E62" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F62" s="20"/>
+        <v>115</v>
+      </c>
+      <c r="F62" s="50" t="s">
+        <v>40</v>
+      </c>
       <c r="G62" s="20"/>
       <c r="H62" s="35"/>
       <c r="I62" s="35"/>
@@ -8027,32 +8065,36 @@
       <c r="S62" s="20"/>
       <c r="T62" s="20"/>
       <c r="U62" s="20"/>
-      <c r="V62" s="56"/>
+      <c r="V62" s="64"/>
       <c r="W62" s="20"/>
       <c r="X62" s="20"/>
       <c r="Y62" s="20"/>
       <c r="Z62" s="20"/>
       <c r="AA62" s="20"/>
       <c r="AB62" s="20"/>
-      <c r="AC62" s="59"/>
+      <c r="AC62" s="67"/>
       <c r="AD62" s="19"/>
       <c r="AE62" s="19"/>
       <c r="AF62" s="19"/>
       <c r="AG62" s="19"/>
       <c r="AH62" s="19"/>
       <c r="AI62" s="19"/>
-      <c r="AJ62" s="51"/>
+      <c r="AJ62" s="60"/>
       <c r="AK62" s="19"/>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A63" s="61"/>
-      <c r="B63" s="63"/>
+      <c r="A63" s="52"/>
+      <c r="B63" s="55"/>
       <c r="C63" s="53"/>
-      <c r="D63" s="53"/>
+      <c r="D63" s="53" t="s">
+        <v>104</v>
+      </c>
       <c r="E63" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F63" s="20"/>
+        <v>156</v>
+      </c>
+      <c r="F63" s="50" t="s">
+        <v>40</v>
+      </c>
       <c r="G63" s="20"/>
       <c r="H63" s="35"/>
       <c r="I63" s="35"/>
@@ -8070,49 +8112,39 @@
       <c r="S63" s="20"/>
       <c r="T63" s="20"/>
       <c r="U63" s="20"/>
-      <c r="V63" s="56"/>
+      <c r="V63" s="64"/>
       <c r="W63" s="20"/>
       <c r="X63" s="20"/>
       <c r="Y63" s="20"/>
       <c r="Z63" s="20"/>
       <c r="AA63" s="20"/>
       <c r="AB63" s="20"/>
-      <c r="AC63" s="59"/>
+      <c r="AC63" s="67"/>
       <c r="AD63" s="19"/>
       <c r="AE63" s="19"/>
       <c r="AF63" s="19"/>
       <c r="AG63" s="19"/>
       <c r="AH63" s="19"/>
       <c r="AI63" s="19"/>
-      <c r="AJ63" s="51"/>
+      <c r="AJ63" s="60"/>
       <c r="AK63" s="19"/>
     </row>
-    <row r="64" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="61"/>
-      <c r="B64" s="63"/>
-      <c r="C64" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D64" s="53" t="s">
-        <v>100</v>
-      </c>
+    <row r="64" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A64" s="52"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
       <c r="E64" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F64" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="G64" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="H64" s="35">
-        <v>44126</v>
-      </c>
-      <c r="I64" s="35">
-        <v>44126</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F64" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="G64" s="20"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
       <c r="J64" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="30"/>
       <c r="L64" s="20"/>
@@ -8125,30 +8157,34 @@
       <c r="S64" s="20"/>
       <c r="T64" s="20"/>
       <c r="U64" s="20"/>
-      <c r="V64" s="56"/>
+      <c r="V64" s="64"/>
       <c r="W64" s="20"/>
       <c r="X64" s="20"/>
       <c r="Y64" s="20"/>
       <c r="Z64" s="20"/>
       <c r="AA64" s="20"/>
       <c r="AB64" s="20"/>
-      <c r="AC64" s="59"/>
+      <c r="AC64" s="67"/>
       <c r="AD64" s="19"/>
       <c r="AE64" s="19"/>
       <c r="AF64" s="19"/>
       <c r="AG64" s="19"/>
       <c r="AH64" s="19"/>
       <c r="AI64" s="19"/>
-      <c r="AJ64" s="51"/>
+      <c r="AJ64" s="60"/>
       <c r="AK64" s="19"/>
     </row>
     <row r="65" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="61"/>
-      <c r="B65" s="63"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="53"/>
+      <c r="A65" s="52"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D65" s="53" t="s">
+        <v>100</v>
+      </c>
       <c r="E65" s="2" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="F65" s="20" t="s">
         <v>168</v>
@@ -8159,9 +8195,11 @@
       <c r="H65" s="35">
         <v>44126</v>
       </c>
-      <c r="I65" s="35"/>
+      <c r="I65" s="35">
+        <v>44126</v>
+      </c>
       <c r="J65" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="30"/>
       <c r="L65" s="20"/>
@@ -8174,34 +8212,40 @@
       <c r="S65" s="20"/>
       <c r="T65" s="20"/>
       <c r="U65" s="20"/>
-      <c r="V65" s="56"/>
+      <c r="V65" s="64"/>
       <c r="W65" s="20"/>
       <c r="X65" s="20"/>
       <c r="Y65" s="20"/>
       <c r="Z65" s="20"/>
       <c r="AA65" s="20"/>
       <c r="AB65" s="20"/>
-      <c r="AC65" s="59"/>
+      <c r="AC65" s="67"/>
       <c r="AD65" s="19"/>
       <c r="AE65" s="19"/>
       <c r="AF65" s="19"/>
       <c r="AG65" s="19"/>
       <c r="AH65" s="19"/>
       <c r="AI65" s="19"/>
-      <c r="AJ65" s="51"/>
+      <c r="AJ65" s="60"/>
       <c r="AK65" s="19"/>
     </row>
     <row r="66" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="61"/>
-      <c r="B66" s="63"/>
+      <c r="A66" s="52"/>
+      <c r="B66" s="55"/>
       <c r="C66" s="53"/>
-      <c r="D66" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="35"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G66" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H66" s="35">
+        <v>44126</v>
+      </c>
       <c r="I66" s="35"/>
       <c r="J66" s="36">
         <v>0</v>
@@ -8217,30 +8261,30 @@
       <c r="S66" s="20"/>
       <c r="T66" s="20"/>
       <c r="U66" s="20"/>
-      <c r="V66" s="56"/>
+      <c r="V66" s="64"/>
       <c r="W66" s="20"/>
       <c r="X66" s="20"/>
       <c r="Y66" s="20"/>
       <c r="Z66" s="20"/>
       <c r="AA66" s="20"/>
       <c r="AB66" s="20"/>
-      <c r="AC66" s="59"/>
+      <c r="AC66" s="67"/>
       <c r="AD66" s="19"/>
       <c r="AE66" s="19"/>
       <c r="AF66" s="19"/>
       <c r="AG66" s="19"/>
       <c r="AH66" s="19"/>
       <c r="AI66" s="19"/>
-      <c r="AJ66" s="51"/>
+      <c r="AJ66" s="60"/>
       <c r="AK66" s="19"/>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A67" s="61"/>
-      <c r="B67" s="63"/>
-      <c r="C67" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D67" s="2"/>
+    <row r="67" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="52"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="E67" s="2"/>
       <c r="F67" s="20"/>
       <c r="G67" s="20"/>
@@ -8260,42 +8304,34 @@
       <c r="S67" s="20"/>
       <c r="T67" s="20"/>
       <c r="U67" s="20"/>
-      <c r="V67" s="56"/>
+      <c r="V67" s="64"/>
       <c r="W67" s="20"/>
       <c r="X67" s="20"/>
       <c r="Y67" s="20"/>
       <c r="Z67" s="20"/>
       <c r="AA67" s="20"/>
       <c r="AB67" s="20"/>
-      <c r="AC67" s="59"/>
+      <c r="AC67" s="67"/>
       <c r="AD67" s="19"/>
       <c r="AE67" s="19"/>
       <c r="AF67" s="19"/>
       <c r="AG67" s="19"/>
       <c r="AH67" s="19"/>
       <c r="AI67" s="19"/>
-      <c r="AJ67" s="51"/>
+      <c r="AJ67" s="60"/>
       <c r="AK67" s="19"/>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A68" s="61"/>
-      <c r="B68" s="63"/>
+      <c r="A68" s="52"/>
+      <c r="B68" s="55"/>
       <c r="C68" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>169</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="G68" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="H68" s="35">
-        <v>44127</v>
-      </c>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="35"/>
       <c r="I68" s="35"/>
       <c r="J68" s="36">
         <v>0</v>
@@ -8311,47 +8347,45 @@
       <c r="S68" s="20"/>
       <c r="T68" s="20"/>
       <c r="U68" s="20"/>
-      <c r="V68" s="56"/>
+      <c r="V68" s="64"/>
       <c r="W68" s="20"/>
       <c r="X68" s="20"/>
       <c r="Y68" s="20"/>
       <c r="Z68" s="20"/>
       <c r="AA68" s="20"/>
       <c r="AB68" s="20"/>
-      <c r="AC68" s="59"/>
+      <c r="AC68" s="67"/>
       <c r="AD68" s="19"/>
       <c r="AE68" s="19"/>
       <c r="AF68" s="19"/>
       <c r="AG68" s="19"/>
       <c r="AH68" s="19"/>
       <c r="AI68" s="19"/>
-      <c r="AJ68" s="51"/>
+      <c r="AJ68" s="60"/>
       <c r="AK68" s="19"/>
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A69" s="61"/>
-      <c r="B69" s="63"/>
-      <c r="C69" s="53" t="s">
-        <v>13</v>
+      <c r="A69" s="52"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="20" t="s">
-        <v>134</v>
+        <v>173</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="H69" s="35">
-        <v>44124</v>
-      </c>
-      <c r="I69" s="35">
-        <v>44124</v>
-      </c>
+        <v>44127</v>
+      </c>
+      <c r="I69" s="35"/>
       <c r="J69" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69" s="30"/>
       <c r="L69" s="20"/>
@@ -8364,29 +8398,31 @@
       <c r="S69" s="20"/>
       <c r="T69" s="20"/>
       <c r="U69" s="20"/>
-      <c r="V69" s="56"/>
+      <c r="V69" s="64"/>
       <c r="W69" s="20"/>
       <c r="X69" s="20"/>
       <c r="Y69" s="20"/>
       <c r="Z69" s="20"/>
       <c r="AA69" s="20"/>
       <c r="AB69" s="20"/>
-      <c r="AC69" s="59"/>
+      <c r="AC69" s="67"/>
       <c r="AD69" s="19"/>
       <c r="AE69" s="19"/>
       <c r="AF69" s="19"/>
       <c r="AG69" s="19"/>
       <c r="AH69" s="19"/>
       <c r="AI69" s="19"/>
-      <c r="AJ69" s="51"/>
+      <c r="AJ69" s="60"/>
       <c r="AK69" s="19"/>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A70" s="61"/>
-      <c r="B70" s="63"/>
-      <c r="C70" s="53"/>
+      <c r="A70" s="52"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="53" t="s">
+        <v>13</v>
+      </c>
       <c r="D70" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="20" t="s">
@@ -8415,44 +8451,42 @@
       <c r="S70" s="20"/>
       <c r="T70" s="20"/>
       <c r="U70" s="20"/>
-      <c r="V70" s="56"/>
+      <c r="V70" s="64"/>
       <c r="W70" s="20"/>
       <c r="X70" s="20"/>
       <c r="Y70" s="20"/>
       <c r="Z70" s="20"/>
       <c r="AA70" s="20"/>
       <c r="AB70" s="20"/>
-      <c r="AC70" s="59"/>
+      <c r="AC70" s="67"/>
       <c r="AD70" s="19"/>
       <c r="AE70" s="19"/>
       <c r="AF70" s="19"/>
       <c r="AG70" s="19"/>
       <c r="AH70" s="19"/>
       <c r="AI70" s="19"/>
-      <c r="AJ70" s="51"/>
+      <c r="AJ70" s="60"/>
       <c r="AK70" s="19"/>
     </row>
-    <row r="71" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="61"/>
-      <c r="B71" s="63"/>
-      <c r="C71" s="64" t="s">
-        <v>106</v>
-      </c>
+    <row r="71" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A71" s="52"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="53"/>
       <c r="D71" s="2" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="20" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="H71" s="35">
-        <v>44125</v>
+        <v>44124</v>
       </c>
       <c r="I71" s="35">
-        <v>44126</v>
+        <v>44124</v>
       </c>
       <c r="J71" s="36">
         <v>1</v>
@@ -8468,39 +8502,41 @@
       <c r="S71" s="20"/>
       <c r="T71" s="20"/>
       <c r="U71" s="20"/>
-      <c r="V71" s="56"/>
+      <c r="V71" s="64"/>
       <c r="W71" s="20"/>
       <c r="X71" s="20"/>
       <c r="Y71" s="20"/>
       <c r="Z71" s="20"/>
       <c r="AA71" s="20"/>
       <c r="AB71" s="20"/>
-      <c r="AC71" s="59"/>
+      <c r="AC71" s="67"/>
       <c r="AD71" s="19"/>
       <c r="AE71" s="19"/>
       <c r="AF71" s="19"/>
       <c r="AG71" s="19"/>
       <c r="AH71" s="19"/>
       <c r="AI71" s="19"/>
-      <c r="AJ71" s="51"/>
+      <c r="AJ71" s="60"/>
       <c r="AK71" s="19"/>
     </row>
     <row r="72" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="61"/>
-      <c r="B72" s="63"/>
-      <c r="C72" s="65"/>
+      <c r="A72" s="52"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="56" t="s">
+        <v>106</v>
+      </c>
       <c r="D72" s="2" t="s">
-        <v>164</v>
+        <v>107</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="20" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="H72" s="35">
-        <v>44126</v>
+        <v>44125</v>
       </c>
       <c r="I72" s="35">
         <v>44126</v>
@@ -8519,36 +8555,36 @@
       <c r="S72" s="20"/>
       <c r="T72" s="20"/>
       <c r="U72" s="20"/>
-      <c r="V72" s="56"/>
+      <c r="V72" s="64"/>
       <c r="W72" s="20"/>
       <c r="X72" s="20"/>
       <c r="Y72" s="20"/>
       <c r="Z72" s="20"/>
       <c r="AA72" s="20"/>
       <c r="AB72" s="20"/>
-      <c r="AC72" s="59"/>
+      <c r="AC72" s="67"/>
       <c r="AD72" s="19"/>
       <c r="AE72" s="19"/>
       <c r="AF72" s="19"/>
       <c r="AG72" s="19"/>
       <c r="AH72" s="19"/>
       <c r="AI72" s="19"/>
-      <c r="AJ72" s="51"/>
+      <c r="AJ72" s="60"/>
       <c r="AK72" s="19"/>
     </row>
     <row r="73" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="61"/>
-      <c r="B73" s="63"/>
-      <c r="C73" s="66"/>
+      <c r="A73" s="52"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="57"/>
       <c r="D73" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E73" s="2"/>
-      <c r="F73" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="G73" s="37" t="s">
-        <v>174</v>
+      <c r="F73" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="G73" s="20" t="s">
+        <v>167</v>
       </c>
       <c r="H73" s="35">
         <v>44126</v>
@@ -8560,100 +8596,108 @@
         <v>1</v>
       </c>
       <c r="K73" s="30"/>
-      <c r="L73" s="37"/>
-      <c r="M73" s="37"/>
-      <c r="N73" s="37"/>
-      <c r="O73" s="37"/>
-      <c r="P73" s="37"/>
-      <c r="Q73" s="37"/>
-      <c r="R73" s="37"/>
-      <c r="S73" s="37"/>
-      <c r="T73" s="37"/>
-      <c r="U73" s="37"/>
-      <c r="V73" s="56"/>
-      <c r="W73" s="37"/>
-      <c r="X73" s="37"/>
-      <c r="Y73" s="37"/>
-      <c r="Z73" s="37"/>
-      <c r="AA73" s="37"/>
-      <c r="AB73" s="37"/>
-      <c r="AC73" s="59"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="20"/>
+      <c r="O73" s="20"/>
+      <c r="P73" s="20"/>
+      <c r="Q73" s="20"/>
+      <c r="R73" s="20"/>
+      <c r="S73" s="20"/>
+      <c r="T73" s="20"/>
+      <c r="U73" s="20"/>
+      <c r="V73" s="64"/>
+      <c r="W73" s="20"/>
+      <c r="X73" s="20"/>
+      <c r="Y73" s="20"/>
+      <c r="Z73" s="20"/>
+      <c r="AA73" s="20"/>
+      <c r="AB73" s="20"/>
+      <c r="AC73" s="67"/>
       <c r="AD73" s="19"/>
       <c r="AE73" s="19"/>
       <c r="AF73" s="19"/>
       <c r="AG73" s="19"/>
       <c r="AH73" s="19"/>
       <c r="AI73" s="19"/>
-      <c r="AJ73" s="51"/>
+      <c r="AJ73" s="60"/>
       <c r="AK73" s="19"/>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A74" s="61"/>
-      <c r="B74" s="63"/>
-      <c r="C74" s="53" t="s">
-        <v>30</v>
-      </c>
+    <row r="74" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="52"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="58"/>
       <c r="D74" s="2" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c r="E74" s="2"/>
-      <c r="F74" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="G74" s="20" t="s">
-        <v>147</v>
+      <c r="F74" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="G74" s="37" t="s">
+        <v>174</v>
       </c>
       <c r="H74" s="35">
-        <v>44123</v>
+        <v>44126</v>
       </c>
       <c r="I74" s="35">
-        <v>44123</v>
+        <v>44126</v>
       </c>
       <c r="J74" s="36">
         <v>1</v>
       </c>
       <c r="K74" s="30"/>
-      <c r="L74" s="20"/>
-      <c r="M74" s="20"/>
-      <c r="N74" s="20"/>
-      <c r="O74" s="20"/>
-      <c r="P74" s="20"/>
-      <c r="Q74" s="20"/>
-      <c r="R74" s="20"/>
-      <c r="S74" s="20"/>
-      <c r="T74" s="20"/>
-      <c r="U74" s="20"/>
-      <c r="V74" s="56"/>
-      <c r="W74" s="20"/>
-      <c r="X74" s="20"/>
-      <c r="Y74" s="20"/>
-      <c r="Z74" s="20"/>
-      <c r="AA74" s="20"/>
-      <c r="AB74" s="20"/>
-      <c r="AC74" s="59"/>
+      <c r="L74" s="37"/>
+      <c r="M74" s="37"/>
+      <c r="N74" s="37"/>
+      <c r="O74" s="37"/>
+      <c r="P74" s="37"/>
+      <c r="Q74" s="37"/>
+      <c r="R74" s="37"/>
+      <c r="S74" s="37"/>
+      <c r="T74" s="37"/>
+      <c r="U74" s="37"/>
+      <c r="V74" s="64"/>
+      <c r="W74" s="37"/>
+      <c r="X74" s="37"/>
+      <c r="Y74" s="37"/>
+      <c r="Z74" s="37"/>
+      <c r="AA74" s="37"/>
+      <c r="AB74" s="37"/>
+      <c r="AC74" s="67"/>
       <c r="AD74" s="19"/>
       <c r="AE74" s="19"/>
       <c r="AF74" s="19"/>
       <c r="AG74" s="19"/>
       <c r="AH74" s="19"/>
       <c r="AI74" s="19"/>
-      <c r="AJ74" s="51"/>
+      <c r="AJ74" s="60"/>
       <c r="AK74" s="19"/>
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A75" s="61"/>
-      <c r="B75" s="63"/>
-      <c r="C75" s="53"/>
+      <c r="A75" s="52"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="53" t="s">
+        <v>30</v>
+      </c>
       <c r="D75" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E75" s="2"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
+      <c r="F75" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G75" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="H75" s="35">
+        <v>44123</v>
+      </c>
+      <c r="I75" s="35">
+        <v>44123</v>
+      </c>
       <c r="J75" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="30"/>
       <c r="L75" s="20"/>
@@ -8666,29 +8710,29 @@
       <c r="S75" s="20"/>
       <c r="T75" s="20"/>
       <c r="U75" s="20"/>
-      <c r="V75" s="56"/>
+      <c r="V75" s="64"/>
       <c r="W75" s="20"/>
       <c r="X75" s="20"/>
       <c r="Y75" s="20"/>
       <c r="Z75" s="20"/>
       <c r="AA75" s="20"/>
       <c r="AB75" s="20"/>
-      <c r="AC75" s="59"/>
+      <c r="AC75" s="67"/>
       <c r="AD75" s="19"/>
       <c r="AE75" s="19"/>
       <c r="AF75" s="19"/>
       <c r="AG75" s="19"/>
       <c r="AH75" s="19"/>
       <c r="AI75" s="19"/>
-      <c r="AJ75" s="51"/>
+      <c r="AJ75" s="60"/>
       <c r="AK75" s="19"/>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A76" s="61"/>
-      <c r="B76" s="63"/>
+      <c r="A76" s="52"/>
+      <c r="B76" s="55"/>
       <c r="C76" s="53"/>
       <c r="D76" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="20"/>
@@ -8709,76 +8753,119 @@
       <c r="S76" s="20"/>
       <c r="T76" s="20"/>
       <c r="U76" s="20"/>
-      <c r="V76" s="57"/>
+      <c r="V76" s="64"/>
       <c r="W76" s="20"/>
       <c r="X76" s="20"/>
       <c r="Y76" s="20"/>
       <c r="Z76" s="20"/>
       <c r="AA76" s="20"/>
       <c r="AB76" s="20"/>
-      <c r="AC76" s="60"/>
+      <c r="AC76" s="67"/>
       <c r="AD76" s="19"/>
       <c r="AE76" s="19"/>
       <c r="AF76" s="19"/>
       <c r="AG76" s="19"/>
       <c r="AH76" s="19"/>
       <c r="AI76" s="19"/>
-      <c r="AJ76" s="52"/>
+      <c r="AJ76" s="60"/>
       <c r="AK76" s="19"/>
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A77" s="61"/>
-      <c r="B77" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="C77" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D77" s="2"/>
+      <c r="A77" s="52"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="E77" s="2"/>
-      <c r="F77" s="20" t="s">
-        <v>41</v>
-      </c>
+      <c r="F77" s="20"/>
       <c r="G77" s="20"/>
       <c r="H77" s="35"/>
       <c r="I77" s="35"/>
-      <c r="J77" s="45">
+      <c r="J77" s="36">
+        <v>0</v>
+      </c>
+      <c r="K77" s="30"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="20"/>
+      <c r="N77" s="20"/>
+      <c r="O77" s="20"/>
+      <c r="P77" s="20"/>
+      <c r="Q77" s="20"/>
+      <c r="R77" s="20"/>
+      <c r="S77" s="20"/>
+      <c r="T77" s="20"/>
+      <c r="U77" s="20"/>
+      <c r="V77" s="65"/>
+      <c r="W77" s="20"/>
+      <c r="X77" s="20"/>
+      <c r="Y77" s="20"/>
+      <c r="Z77" s="20"/>
+      <c r="AA77" s="20"/>
+      <c r="AB77" s="20"/>
+      <c r="AC77" s="68"/>
+      <c r="AD77" s="19"/>
+      <c r="AE77" s="19"/>
+      <c r="AF77" s="19"/>
+      <c r="AG77" s="19"/>
+      <c r="AH77" s="19"/>
+      <c r="AI77" s="19"/>
+      <c r="AJ77" s="61"/>
+      <c r="AK77" s="19"/>
+    </row>
+    <row r="78" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A78" s="52"/>
+      <c r="B78" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="G78" s="20"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="45">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A5:A77"/>
+    <mergeCell ref="AJ5:AJ77"/>
+    <mergeCell ref="C18:C42"/>
+    <mergeCell ref="B11:B55"/>
+    <mergeCell ref="D18:D27"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="V5:V77"/>
+    <mergeCell ref="AC5:AC77"/>
+    <mergeCell ref="D58:D62"/>
+    <mergeCell ref="C58:C64"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A5:A78"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="C47:C51"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C65:C67"/>
     <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B55:B76"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="AJ5:AJ76"/>
-    <mergeCell ref="C18:C41"/>
-    <mergeCell ref="B11:B54"/>
-    <mergeCell ref="D18:D26"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="D32:D34"/>
-    <mergeCell ref="V5:V76"/>
-    <mergeCell ref="AC5:AC76"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="C57:C63"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B56:B77"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C74"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="K3:AK5 AK6:AK76 W6:AB76 AD6:AI76 K6:U76">
+  <conditionalFormatting sqref="K3:AK5 AK6:AK77 W6:AB77 AD6:AI77 K6:U77">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>WEEKDAY(K$3)=7</formula>
     </cfRule>
@@ -8804,11 +8891,11 @@
     <hyperlink ref="D13" location="SE!A1" display="SE"/>
     <hyperlink ref="D16" location="SE!A1" display="SE"/>
     <hyperlink ref="D14" location="BGM!A1" display="BGM"/>
-    <hyperlink ref="D39" location="BGM!A1" display="BGM"/>
-    <hyperlink ref="D40" location="SE!A1" display="SE"/>
-    <hyperlink ref="D54" location="コントローラーボタン配置図!A1" display="コントローラボタン配置図"/>
-    <hyperlink ref="D42" location="SE!A1" display="SE"/>
-    <hyperlink ref="D44" location="SE!A1" display="SE"/>
+    <hyperlink ref="D40" location="BGM!A1" display="BGM"/>
+    <hyperlink ref="D41" location="SE!A1" display="SE"/>
+    <hyperlink ref="D55" location="コントローラーボタン配置図!A1" display="コントローラボタン配置図"/>
+    <hyperlink ref="D43" location="SE!A1" display="SE"/>
+    <hyperlink ref="D45" location="SE!A1" display="SE"/>
     <hyperlink ref="D7" r:id="rId1" display="仕様書"/>
     <hyperlink ref="D6" r:id="rId2"/>
     <hyperlink ref="D5" r:id="rId3"/>
@@ -8853,24 +8940,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
     </row>
     <row r="4" spans="2:14" ht="45.75" x14ac:dyDescent="0.4">
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
       <c r="K4" s="11" t="s">
         <v>78</v>
       </c>
@@ -8879,14 +8966,14 @@
       </c>
     </row>
     <row r="5" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
       <c r="K5" s="12" t="s">
         <v>80</v>
       </c>
@@ -8895,14 +8982,14 @@
       </c>
     </row>
     <row r="6" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
       <c r="K6" s="12" t="s">
         <v>81</v>
       </c>
@@ -8911,70 +8998,70 @@
       </c>
     </row>
     <row r="7" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
       <c r="K7" s="12" t="s">
         <v>82</v>
       </c>
       <c r="L7" s="13"/>
     </row>
     <row r="8" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
       <c r="K8" s="12" t="s">
         <v>83</v>
       </c>
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
       <c r="K9" s="12" t="s">
         <v>84</v>
       </c>
       <c r="L9" s="13"/>
     </row>
     <row r="10" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="67"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
       <c r="K10" s="12" t="s">
         <v>85</v>
       </c>
       <c r="L10" s="13"/>
     </row>
     <row r="11" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
       <c r="K11" s="12" t="s">
         <v>86</v>
       </c>
@@ -8982,136 +9069,136 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="67"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="67"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
       <c r="K12" s="12" t="s">
         <v>87</v>
       </c>
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
       <c r="K13" s="12" t="s">
         <v>88</v>
       </c>
       <c r="L13" s="13"/>
     </row>
     <row r="14" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
       <c r="K14" s="12" t="s">
         <v>89</v>
       </c>
       <c r="L14" s="13"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-      <c r="I20" s="67"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="69"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9157,22 +9244,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
@@ -9259,7 +9346,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="71" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -9273,7 +9360,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B11" s="69"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="2" t="s">
         <v>73</v>
       </c>
@@ -9366,12 +9453,12 @@
   <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/schedule/ガントチャートxlsx.xlsx
+++ b/schedule/ガントチャートxlsx.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="176">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -710,13 +710,6 @@
     <t>ゲームの流れ</t>
     <rPh sb="4" eb="5">
       <t>ナガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>武器</t>
-    <rPh sb="0" eb="2">
-      <t>ブキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1971,27 +1964,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2000,6 +1972,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2021,6 +1996,24 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2458,13 +2451,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>12326</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>24654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>255773</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>213754</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2520,13 +2513,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>10646</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>29977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>254093</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>219077</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2706,13 +2699,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>21304</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>281610</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>231913</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2766,15 +2759,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>13021</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>24849</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>256760</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>256761</xdr:colOff>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>245144</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2784,7 +2777,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11691499" y="17062175"/>
+          <a:off x="11956543" y="17062175"/>
           <a:ext cx="508783" cy="220295"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -2830,13 +2823,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>4739</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>31196</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>248186</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>220296</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2892,13 +2885,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>16335</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>42790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>259782</xdr:colOff>
-      <xdr:row>73</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>231890</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5098,13 +5091,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AS78"/>
+  <dimension ref="A1:AS77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="K30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomRight" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5148,15 +5141,15 @@
         <v>15</v>
       </c>
       <c r="P1" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q1" s="23"/>
       <c r="R1" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="S1" s="24"/>
       <c r="T1" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="U1" s="25"/>
     </row>
@@ -5262,7 +5255,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" s="32" t="s">
         <v>2</v>
@@ -5389,24 +5382,24 @@
       </c>
     </row>
     <row r="5" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="64" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="20" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H5" s="35">
         <v>44118</v>
@@ -5428,8 +5421,8 @@
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
-      <c r="V5" s="63" t="s">
-        <v>117</v>
+      <c r="V5" s="57" t="s">
+        <v>116</v>
       </c>
       <c r="W5" s="19"/>
       <c r="X5" s="19"/>
@@ -5437,8 +5430,8 @@
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
       <c r="AB5" s="19"/>
-      <c r="AC5" s="66" t="s">
-        <v>118</v>
+      <c r="AC5" s="60" t="s">
+        <v>117</v>
       </c>
       <c r="AD5" s="19"/>
       <c r="AE5" s="19"/>
@@ -5446,19 +5439,19 @@
       <c r="AG5" s="19"/>
       <c r="AH5" s="19"/>
       <c r="AI5" s="19"/>
-      <c r="AJ5" s="59" t="s">
+      <c r="AJ5" s="52" t="s">
         <v>94</v>
       </c>
       <c r="AK5" s="19"/>
     </row>
     <row r="6" spans="1:45" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="52"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="20" t="s">
@@ -5483,31 +5476,31 @@
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
-      <c r="V6" s="64"/>
+      <c r="V6" s="58"/>
       <c r="W6" s="20"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20"/>
-      <c r="AC6" s="67"/>
+      <c r="AC6" s="61"/>
       <c r="AD6" s="19"/>
       <c r="AE6" s="19"/>
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="19"/>
-      <c r="AJ6" s="60"/>
+      <c r="AJ6" s="53"/>
       <c r="AK6" s="19"/>
     </row>
     <row r="7" spans="1:45" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="52"/>
-      <c r="B7" s="54"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="20" t="s">
@@ -5530,26 +5523,26 @@
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
-      <c r="V7" s="64"/>
+      <c r="V7" s="58"/>
       <c r="W7" s="20"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20"/>
-      <c r="AC7" s="67"/>
+      <c r="AC7" s="61"/>
       <c r="AD7" s="19"/>
       <c r="AE7" s="19"/>
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
       <c r="AI7" s="19"/>
-      <c r="AJ7" s="60"/>
+      <c r="AJ7" s="53"/>
       <c r="AK7" s="19"/>
     </row>
     <row r="8" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="52"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
@@ -5577,31 +5570,31 @@
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
-      <c r="V8" s="64"/>
+      <c r="V8" s="58"/>
       <c r="W8" s="20"/>
       <c r="X8" s="20"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
-      <c r="AC8" s="67"/>
+      <c r="AC8" s="61"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
       <c r="AH8" s="19"/>
       <c r="AI8" s="19"/>
-      <c r="AJ8" s="60"/>
+      <c r="AJ8" s="53"/>
       <c r="AK8" s="19"/>
     </row>
     <row r="9" spans="1:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="52"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="20" t="s">
@@ -5624,26 +5617,26 @@
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
-      <c r="V9" s="64"/>
+      <c r="V9" s="58"/>
       <c r="W9" s="20"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20"/>
-      <c r="AC9" s="67"/>
+      <c r="AC9" s="61"/>
       <c r="AD9" s="19"/>
       <c r="AE9" s="19"/>
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
       <c r="AI9" s="19"/>
-      <c r="AJ9" s="60"/>
+      <c r="AJ9" s="53"/>
       <c r="AK9" s="19"/>
     </row>
     <row r="10" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="52"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="20" t="s">
         <v>35</v>
       </c>
@@ -5669,29 +5662,29 @@
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
-      <c r="V10" s="64"/>
+      <c r="V10" s="58"/>
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20"/>
-      <c r="AC10" s="67"/>
+      <c r="AC10" s="61"/>
       <c r="AD10" s="19"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="19"/>
-      <c r="AJ10" s="60"/>
+      <c r="AJ10" s="53"/>
       <c r="AK10" s="19"/>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A11" s="52"/>
-      <c r="B11" s="62" t="s">
+      <c r="A11" s="63"/>
+      <c r="B11" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="55" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -5716,27 +5709,27 @@
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
-      <c r="V11" s="64"/>
+      <c r="V11" s="58"/>
       <c r="W11" s="20"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20"/>
-      <c r="AC11" s="67"/>
+      <c r="AC11" s="61"/>
       <c r="AD11" s="19"/>
       <c r="AE11" s="19"/>
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
       <c r="AI11" s="19"/>
-      <c r="AJ11" s="60"/>
+      <c r="AJ11" s="53"/>
       <c r="AK11" s="19"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A12" s="52"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="53"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
@@ -5759,27 +5752,27 @@
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
-      <c r="V12" s="64"/>
+      <c r="V12" s="58"/>
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20"/>
-      <c r="AC12" s="67"/>
+      <c r="AC12" s="61"/>
       <c r="AD12" s="19"/>
       <c r="AE12" s="19"/>
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="19"/>
-      <c r="AJ12" s="60"/>
+      <c r="AJ12" s="53"/>
       <c r="AK12" s="19"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A13" s="52"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="53"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="38" t="s">
         <v>45</v>
       </c>
@@ -5802,27 +5795,27 @@
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
-      <c r="V13" s="64"/>
+      <c r="V13" s="58"/>
       <c r="W13" s="20"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20"/>
-      <c r="AC13" s="67"/>
+      <c r="AC13" s="61"/>
       <c r="AD13" s="19"/>
       <c r="AE13" s="19"/>
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
-      <c r="AJ13" s="60"/>
+      <c r="AJ13" s="53"/>
       <c r="AK13" s="19"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A14" s="52"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="53"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="39" t="s">
         <v>27</v>
       </c>
@@ -5845,27 +5838,27 @@
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
-      <c r="V14" s="64"/>
+      <c r="V14" s="58"/>
       <c r="W14" s="20"/>
       <c r="X14" s="20"/>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20"/>
-      <c r="AC14" s="67"/>
+      <c r="AC14" s="61"/>
       <c r="AD14" s="19"/>
       <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
       <c r="AI14" s="19"/>
-      <c r="AJ14" s="60"/>
+      <c r="AJ14" s="53"/>
       <c r="AK14" s="19"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A15" s="52"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="53" t="s">
+      <c r="A15" s="63"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -5892,27 +5885,27 @@
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
-      <c r="V15" s="64"/>
+      <c r="V15" s="58"/>
       <c r="W15" s="20"/>
       <c r="X15" s="20"/>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
-      <c r="AC15" s="67"/>
+      <c r="AC15" s="61"/>
       <c r="AD15" s="19"/>
       <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
       <c r="AI15" s="19"/>
-      <c r="AJ15" s="60"/>
+      <c r="AJ15" s="53"/>
       <c r="AK15" s="19"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A16" s="52"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="53"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="40" t="s">
         <v>45</v>
       </c>
@@ -5935,27 +5928,27 @@
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
-      <c r="V16" s="64"/>
+      <c r="V16" s="58"/>
       <c r="W16" s="20"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
-      <c r="AC16" s="67"/>
+      <c r="AC16" s="61"/>
       <c r="AD16" s="19"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="19"/>
-      <c r="AJ16" s="60"/>
+      <c r="AJ16" s="53"/>
       <c r="AK16" s="19"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A17" s="52"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="53"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
@@ -5978,40 +5971,40 @@
       <c r="S17" s="20"/>
       <c r="T17" s="20"/>
       <c r="U17" s="20"/>
-      <c r="V17" s="64"/>
+      <c r="V17" s="58"/>
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
-      <c r="AC17" s="67"/>
+      <c r="AC17" s="61"/>
       <c r="AD17" s="19"/>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="19"/>
       <c r="AI17" s="19"/>
-      <c r="AJ17" s="60"/>
+      <c r="AJ17" s="53"/>
       <c r="AK17" s="19"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A18" s="52"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="53" t="s">
+      <c r="A18" s="63"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="53" t="s">
-        <v>102</v>
+      <c r="D18" s="55" t="s">
+        <v>101</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H18" s="35">
         <v>44126</v>
@@ -6031,36 +6024,36 @@
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
-      <c r="V18" s="64"/>
+      <c r="V18" s="58"/>
       <c r="W18" s="20"/>
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
-      <c r="AC18" s="67"/>
+      <c r="AC18" s="61"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="19"/>
       <c r="AI18" s="19"/>
-      <c r="AJ18" s="60"/>
+      <c r="AJ18" s="53"/>
       <c r="AK18" s="19"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A19" s="52"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
       <c r="E19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" s="20" t="s">
         <v>146</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>147</v>
       </c>
       <c r="H19" s="35">
         <v>44125</v>
@@ -6082,36 +6075,36 @@
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
-      <c r="V19" s="64"/>
+      <c r="V19" s="58"/>
       <c r="W19" s="20"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
-      <c r="AC19" s="67"/>
+      <c r="AC19" s="61"/>
       <c r="AD19" s="19"/>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
       <c r="AI19" s="19"/>
-      <c r="AJ19" s="60"/>
+      <c r="AJ19" s="53"/>
       <c r="AK19" s="19"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A20" s="52"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H20" s="35">
         <v>44124</v>
@@ -6133,30 +6126,30 @@
       <c r="S20" s="20"/>
       <c r="T20" s="20"/>
       <c r="U20" s="20"/>
-      <c r="V20" s="64"/>
+      <c r="V20" s="58"/>
       <c r="W20" s="20"/>
       <c r="X20" s="20"/>
       <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
-      <c r="AC20" s="67"/>
+      <c r="AC20" s="61"/>
       <c r="AD20" s="19"/>
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="19"/>
       <c r="AI20" s="19"/>
-      <c r="AJ20" s="60"/>
+      <c r="AJ20" s="53"/>
       <c r="AK20" s="19"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A21" s="52"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
@@ -6176,36 +6169,36 @@
       <c r="S21" s="20"/>
       <c r="T21" s="20"/>
       <c r="U21" s="20"/>
-      <c r="V21" s="64"/>
+      <c r="V21" s="58"/>
       <c r="W21" s="20"/>
       <c r="X21" s="20"/>
       <c r="Y21" s="20"/>
       <c r="Z21" s="20"/>
       <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
-      <c r="AC21" s="67"/>
+      <c r="AC21" s="61"/>
       <c r="AD21" s="19"/>
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
       <c r="AI21" s="19"/>
-      <c r="AJ21" s="60"/>
+      <c r="AJ21" s="53"/>
       <c r="AK21" s="19"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A22" s="52"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H22" s="35">
         <v>44125</v>
@@ -6227,36 +6220,36 @@
       <c r="S22" s="20"/>
       <c r="T22" s="20"/>
       <c r="U22" s="20"/>
-      <c r="V22" s="64"/>
+      <c r="V22" s="58"/>
       <c r="W22" s="20"/>
       <c r="X22" s="20"/>
       <c r="Y22" s="20"/>
       <c r="Z22" s="20"/>
       <c r="AA22" s="20"/>
       <c r="AB22" s="20"/>
-      <c r="AC22" s="67"/>
+      <c r="AC22" s="61"/>
       <c r="AD22" s="19"/>
       <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="19"/>
       <c r="AI22" s="19"/>
-      <c r="AJ22" s="60"/>
+      <c r="AJ22" s="53"/>
       <c r="AK22" s="19"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A23" s="52"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H23" s="35">
         <v>44124</v>
@@ -6278,30 +6271,30 @@
       <c r="S23" s="20"/>
       <c r="T23" s="20"/>
       <c r="U23" s="20"/>
-      <c r="V23" s="64"/>
+      <c r="V23" s="58"/>
       <c r="W23" s="20"/>
       <c r="X23" s="20"/>
       <c r="Y23" s="20"/>
       <c r="Z23" s="20"/>
       <c r="AA23" s="20"/>
       <c r="AB23" s="20"/>
-      <c r="AC23" s="67"/>
+      <c r="AC23" s="61"/>
       <c r="AD23" s="19"/>
       <c r="AE23" s="19"/>
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="19"/>
       <c r="AI23" s="19"/>
-      <c r="AJ23" s="60"/>
+      <c r="AJ23" s="53"/>
       <c r="AK23" s="19"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A24" s="52"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
@@ -6321,36 +6314,36 @@
       <c r="S24" s="20"/>
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
-      <c r="V24" s="64"/>
+      <c r="V24" s="58"/>
       <c r="W24" s="20"/>
       <c r="X24" s="20"/>
       <c r="Y24" s="20"/>
       <c r="Z24" s="20"/>
       <c r="AA24" s="20"/>
       <c r="AB24" s="20"/>
-      <c r="AC24" s="67"/>
+      <c r="AC24" s="61"/>
       <c r="AD24" s="19"/>
       <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="19"/>
       <c r="AI24" s="19"/>
-      <c r="AJ24" s="60"/>
+      <c r="AJ24" s="53"/>
       <c r="AK24" s="19"/>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A25" s="52"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="50" t="s">
         <v>175</v>
-      </c>
-      <c r="F25" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="G25" s="50" t="s">
-        <v>176</v>
       </c>
       <c r="H25" s="35">
         <v>44127</v>
@@ -6368,36 +6361,36 @@
       <c r="S25" s="50"/>
       <c r="T25" s="50"/>
       <c r="U25" s="50"/>
-      <c r="V25" s="64"/>
+      <c r="V25" s="58"/>
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="50"/>
       <c r="Z25" s="50"/>
       <c r="AA25" s="50"/>
       <c r="AB25" s="50"/>
-      <c r="AC25" s="67"/>
+      <c r="AC25" s="61"/>
       <c r="AD25" s="51"/>
       <c r="AE25" s="51"/>
       <c r="AF25" s="51"/>
       <c r="AG25" s="51"/>
       <c r="AH25" s="51"/>
       <c r="AI25" s="51"/>
-      <c r="AJ25" s="60"/>
+      <c r="AJ25" s="53"/>
       <c r="AK25" s="51"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A26" s="52"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F26" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" s="20" t="s">
         <v>140</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>141</v>
       </c>
       <c r="H26" s="35">
         <v>44124</v>
@@ -6419,30 +6412,30 @@
       <c r="S26" s="20"/>
       <c r="T26" s="20"/>
       <c r="U26" s="20"/>
-      <c r="V26" s="64"/>
+      <c r="V26" s="58"/>
       <c r="W26" s="20"/>
       <c r="X26" s="20"/>
       <c r="Y26" s="20"/>
       <c r="Z26" s="20"/>
       <c r="AA26" s="20"/>
       <c r="AB26" s="20"/>
-      <c r="AC26" s="67"/>
+      <c r="AC26" s="61"/>
       <c r="AD26" s="19"/>
       <c r="AE26" s="19"/>
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
       <c r="AH26" s="19"/>
       <c r="AI26" s="19"/>
-      <c r="AJ26" s="60"/>
+      <c r="AJ26" s="53"/>
       <c r="AK26" s="19"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A27" s="52"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
@@ -6462,38 +6455,38 @@
       <c r="S27" s="20"/>
       <c r="T27" s="20"/>
       <c r="U27" s="20"/>
-      <c r="V27" s="64"/>
+      <c r="V27" s="58"/>
       <c r="W27" s="20"/>
       <c r="X27" s="20"/>
       <c r="Y27" s="20"/>
       <c r="Z27" s="20"/>
       <c r="AA27" s="20"/>
       <c r="AB27" s="20"/>
-      <c r="AC27" s="67"/>
+      <c r="AC27" s="61"/>
       <c r="AD27" s="19"/>
       <c r="AE27" s="19"/>
       <c r="AF27" s="19"/>
       <c r="AG27" s="19"/>
       <c r="AH27" s="19"/>
       <c r="AI27" s="19"/>
-      <c r="AJ27" s="60"/>
+      <c r="AJ27" s="53"/>
       <c r="AK27" s="19"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A28" s="52"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53" t="s">
+      <c r="A28" s="63"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H28" s="35">
         <v>44124</v>
@@ -6515,36 +6508,36 @@
       <c r="S28" s="20"/>
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
-      <c r="V28" s="64"/>
+      <c r="V28" s="58"/>
       <c r="W28" s="20"/>
       <c r="X28" s="20"/>
       <c r="Y28" s="20"/>
       <c r="Z28" s="20"/>
       <c r="AA28" s="20"/>
       <c r="AB28" s="20"/>
-      <c r="AC28" s="67"/>
+      <c r="AC28" s="61"/>
       <c r="AD28" s="19"/>
       <c r="AE28" s="19"/>
       <c r="AF28" s="19"/>
       <c r="AG28" s="19"/>
       <c r="AH28" s="19"/>
       <c r="AI28" s="19"/>
-      <c r="AJ28" s="60"/>
+      <c r="AJ28" s="53"/>
       <c r="AK28" s="19"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A29" s="52"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H29" s="35">
         <v>44124</v>
@@ -6566,32 +6559,32 @@
       <c r="S29" s="20"/>
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
-      <c r="V29" s="64"/>
+      <c r="V29" s="58"/>
       <c r="W29" s="20"/>
       <c r="X29" s="20"/>
       <c r="Y29" s="20"/>
       <c r="Z29" s="20"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="20"/>
-      <c r="AC29" s="67"/>
+      <c r="AC29" s="61"/>
       <c r="AD29" s="19"/>
       <c r="AE29" s="19"/>
       <c r="AF29" s="19"/>
       <c r="AG29" s="19"/>
       <c r="AH29" s="19"/>
       <c r="AI29" s="19"/>
-      <c r="AJ29" s="60"/>
+      <c r="AJ29" s="53"/>
       <c r="AK29" s="19"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A30" s="52"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53" t="s">
+      <c r="A30" s="63"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
@@ -6611,30 +6604,30 @@
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
       <c r="U30" s="20"/>
-      <c r="V30" s="64"/>
+      <c r="V30" s="58"/>
       <c r="W30" s="20"/>
       <c r="X30" s="20"/>
       <c r="Y30" s="20"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
-      <c r="AC30" s="67"/>
+      <c r="AC30" s="61"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="19"/>
       <c r="AF30" s="19"/>
       <c r="AG30" s="19"/>
       <c r="AH30" s="19"/>
       <c r="AI30" s="19"/>
-      <c r="AJ30" s="60"/>
+      <c r="AJ30" s="53"/>
       <c r="AK30" s="19"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A31" s="52"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
@@ -6654,36 +6647,36 @@
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
-      <c r="V31" s="64"/>
+      <c r="V31" s="58"/>
       <c r="W31" s="20"/>
       <c r="X31" s="20"/>
       <c r="Y31" s="20"/>
       <c r="Z31" s="20"/>
       <c r="AA31" s="20"/>
       <c r="AB31" s="20"/>
-      <c r="AC31" s="67"/>
+      <c r="AC31" s="61"/>
       <c r="AD31" s="19"/>
       <c r="AE31" s="19"/>
       <c r="AF31" s="19"/>
       <c r="AG31" s="19"/>
       <c r="AH31" s="19"/>
       <c r="AI31" s="19"/>
-      <c r="AJ31" s="60"/>
+      <c r="AJ31" s="53"/>
       <c r="AK31" s="19"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A32" s="52"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="G32" s="20" t="s">
         <v>120</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>121</v>
       </c>
       <c r="H32" s="35">
         <v>44124</v>
@@ -6705,32 +6698,32 @@
       <c r="S32" s="20"/>
       <c r="T32" s="20"/>
       <c r="U32" s="20"/>
-      <c r="V32" s="64"/>
+      <c r="V32" s="58"/>
       <c r="W32" s="20"/>
       <c r="X32" s="20"/>
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
       <c r="AA32" s="20"/>
       <c r="AB32" s="20"/>
-      <c r="AC32" s="67"/>
+      <c r="AC32" s="61"/>
       <c r="AD32" s="19"/>
       <c r="AE32" s="19"/>
       <c r="AF32" s="19"/>
       <c r="AG32" s="19"/>
       <c r="AH32" s="19"/>
       <c r="AI32" s="19"/>
-      <c r="AJ32" s="60"/>
+      <c r="AJ32" s="53"/>
       <c r="AK32" s="19"/>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A33" s="52"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53" t="s">
+      <c r="A33" s="63"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
@@ -6750,36 +6743,36 @@
       <c r="S33" s="20"/>
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
-      <c r="V33" s="64"/>
+      <c r="V33" s="58"/>
       <c r="W33" s="20"/>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
       <c r="AA33" s="20"/>
       <c r="AB33" s="20"/>
-      <c r="AC33" s="67"/>
+      <c r="AC33" s="61"/>
       <c r="AD33" s="19"/>
       <c r="AE33" s="19"/>
       <c r="AF33" s="19"/>
       <c r="AG33" s="19"/>
       <c r="AH33" s="19"/>
       <c r="AI33" s="19"/>
-      <c r="AJ33" s="60"/>
+      <c r="AJ33" s="53"/>
       <c r="AK33" s="19"/>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A34" s="52"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
       <c r="E34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F34" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="F34" s="20" t="s">
-        <v>150</v>
-      </c>
       <c r="G34" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H34" s="35">
         <v>44126</v>
@@ -6799,30 +6792,30 @@
       <c r="S34" s="20"/>
       <c r="T34" s="20"/>
       <c r="U34" s="20"/>
-      <c r="V34" s="64"/>
+      <c r="V34" s="58"/>
       <c r="W34" s="20"/>
       <c r="X34" s="20"/>
       <c r="Y34" s="20"/>
       <c r="Z34" s="20"/>
       <c r="AA34" s="20"/>
       <c r="AB34" s="20"/>
-      <c r="AC34" s="67"/>
+      <c r="AC34" s="61"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="19"/>
       <c r="AG34" s="19"/>
       <c r="AH34" s="19"/>
       <c r="AI34" s="19"/>
-      <c r="AJ34" s="60"/>
+      <c r="AJ34" s="53"/>
       <c r="AK34" s="19"/>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A35" s="52"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
       <c r="E35" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
@@ -6842,32 +6835,32 @@
       <c r="S35" s="20"/>
       <c r="T35" s="20"/>
       <c r="U35" s="20"/>
-      <c r="V35" s="64"/>
+      <c r="V35" s="58"/>
       <c r="W35" s="20"/>
       <c r="X35" s="20"/>
       <c r="Y35" s="20"/>
       <c r="Z35" s="20"/>
       <c r="AA35" s="20"/>
       <c r="AB35" s="20"/>
-      <c r="AC35" s="67"/>
+      <c r="AC35" s="61"/>
       <c r="AD35" s="19"/>
       <c r="AE35" s="19"/>
       <c r="AF35" s="19"/>
       <c r="AG35" s="19"/>
       <c r="AH35" s="19"/>
       <c r="AI35" s="19"/>
-      <c r="AJ35" s="60"/>
+      <c r="AJ35" s="53"/>
       <c r="AK35" s="19"/>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A36" s="52"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="53"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="55"/>
       <c r="D36" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
@@ -6887,38 +6880,38 @@
       <c r="S36" s="20"/>
       <c r="T36" s="20"/>
       <c r="U36" s="20"/>
-      <c r="V36" s="64"/>
+      <c r="V36" s="58"/>
       <c r="W36" s="20"/>
       <c r="X36" s="20"/>
       <c r="Y36" s="20"/>
       <c r="Z36" s="20"/>
       <c r="AA36" s="20"/>
       <c r="AB36" s="20"/>
-      <c r="AC36" s="67"/>
+      <c r="AC36" s="61"/>
       <c r="AD36" s="19"/>
       <c r="AE36" s="19"/>
       <c r="AF36" s="19"/>
       <c r="AG36" s="19"/>
       <c r="AH36" s="19"/>
       <c r="AI36" s="19"/>
-      <c r="AJ36" s="60"/>
+      <c r="AJ36" s="53"/>
       <c r="AK36" s="19"/>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A37" s="52"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="53"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="55"/>
       <c r="D37" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="F37" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H37" s="35">
         <v>44126</v>
@@ -6938,29 +6931,29 @@
       <c r="S37" s="20"/>
       <c r="T37" s="20"/>
       <c r="U37" s="20"/>
-      <c r="V37" s="64"/>
+      <c r="V37" s="58"/>
       <c r="W37" s="20"/>
       <c r="X37" s="20"/>
       <c r="Y37" s="20"/>
       <c r="Z37" s="20"/>
       <c r="AA37" s="20"/>
       <c r="AB37" s="20"/>
-      <c r="AC37" s="67"/>
+      <c r="AC37" s="61"/>
       <c r="AD37" s="19"/>
       <c r="AE37" s="19"/>
       <c r="AF37" s="19"/>
       <c r="AG37" s="19"/>
       <c r="AH37" s="19"/>
       <c r="AI37" s="19"/>
-      <c r="AJ37" s="60"/>
+      <c r="AJ37" s="53"/>
       <c r="AK37" s="19"/>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A38" s="52"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="53"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="55"/>
       <c r="D38" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="20"/>
@@ -6981,27 +6974,27 @@
       <c r="S38" s="20"/>
       <c r="T38" s="20"/>
       <c r="U38" s="20"/>
-      <c r="V38" s="64"/>
+      <c r="V38" s="58"/>
       <c r="W38" s="20"/>
       <c r="X38" s="20"/>
       <c r="Y38" s="20"/>
       <c r="Z38" s="20"/>
       <c r="AA38" s="20"/>
       <c r="AB38" s="20"/>
-      <c r="AC38" s="67"/>
+      <c r="AC38" s="61"/>
       <c r="AD38" s="19"/>
       <c r="AE38" s="19"/>
       <c r="AF38" s="19"/>
       <c r="AG38" s="19"/>
       <c r="AH38" s="19"/>
       <c r="AI38" s="19"/>
-      <c r="AJ38" s="60"/>
+      <c r="AJ38" s="53"/>
       <c r="AK38" s="19"/>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A39" s="52"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="53"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="55"/>
       <c r="D39" s="2" t="s">
         <v>23</v>
       </c>
@@ -7024,27 +7017,27 @@
       <c r="S39" s="20"/>
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
-      <c r="V39" s="64"/>
+      <c r="V39" s="58"/>
       <c r="W39" s="20"/>
       <c r="X39" s="20"/>
       <c r="Y39" s="20"/>
       <c r="Z39" s="20"/>
       <c r="AA39" s="20"/>
       <c r="AB39" s="20"/>
-      <c r="AC39" s="67"/>
+      <c r="AC39" s="61"/>
       <c r="AD39" s="19"/>
       <c r="AE39" s="19"/>
       <c r="AF39" s="19"/>
       <c r="AG39" s="19"/>
       <c r="AH39" s="19"/>
       <c r="AI39" s="19"/>
-      <c r="AJ39" s="60"/>
+      <c r="AJ39" s="53"/>
       <c r="AK39" s="19"/>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A40" s="52"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="53"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="55"/>
       <c r="D40" s="39" t="s">
         <v>27</v>
       </c>
@@ -7067,27 +7060,27 @@
       <c r="S40" s="20"/>
       <c r="T40" s="20"/>
       <c r="U40" s="20"/>
-      <c r="V40" s="64"/>
+      <c r="V40" s="58"/>
       <c r="W40" s="20"/>
       <c r="X40" s="20"/>
       <c r="Y40" s="20"/>
       <c r="Z40" s="20"/>
       <c r="AA40" s="20"/>
       <c r="AB40" s="20"/>
-      <c r="AC40" s="67"/>
+      <c r="AC40" s="61"/>
       <c r="AD40" s="19"/>
       <c r="AE40" s="19"/>
       <c r="AF40" s="19"/>
       <c r="AG40" s="19"/>
       <c r="AH40" s="19"/>
       <c r="AI40" s="19"/>
-      <c r="AJ40" s="60"/>
+      <c r="AJ40" s="53"/>
       <c r="AK40" s="19"/>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A41" s="52"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="53"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="55"/>
       <c r="D41" s="38" t="s">
         <v>45</v>
       </c>
@@ -7110,27 +7103,27 @@
       <c r="S41" s="20"/>
       <c r="T41" s="20"/>
       <c r="U41" s="20"/>
-      <c r="V41" s="64"/>
+      <c r="V41" s="58"/>
       <c r="W41" s="20"/>
       <c r="X41" s="20"/>
       <c r="Y41" s="20"/>
       <c r="Z41" s="20"/>
       <c r="AA41" s="20"/>
       <c r="AB41" s="20"/>
-      <c r="AC41" s="67"/>
+      <c r="AC41" s="61"/>
       <c r="AD41" s="19"/>
       <c r="AE41" s="19"/>
       <c r="AF41" s="19"/>
       <c r="AG41" s="19"/>
       <c r="AH41" s="19"/>
       <c r="AI41" s="19"/>
-      <c r="AJ41" s="60"/>
+      <c r="AJ41" s="53"/>
       <c r="AK41" s="19"/>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A42" s="52"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="53"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="55"/>
       <c r="D42" s="2" t="s">
         <v>26</v>
       </c>
@@ -7153,27 +7146,27 @@
       <c r="S42" s="20"/>
       <c r="T42" s="20"/>
       <c r="U42" s="20"/>
-      <c r="V42" s="64"/>
+      <c r="V42" s="58"/>
       <c r="W42" s="20"/>
       <c r="X42" s="20"/>
       <c r="Y42" s="20"/>
       <c r="Z42" s="20"/>
       <c r="AA42" s="20"/>
       <c r="AB42" s="20"/>
-      <c r="AC42" s="67"/>
+      <c r="AC42" s="61"/>
       <c r="AD42" s="19"/>
       <c r="AE42" s="19"/>
       <c r="AF42" s="19"/>
       <c r="AG42" s="19"/>
       <c r="AH42" s="19"/>
       <c r="AI42" s="19"/>
-      <c r="AJ42" s="60"/>
+      <c r="AJ42" s="53"/>
       <c r="AK42" s="19"/>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A43" s="52"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="53" t="s">
+      <c r="A43" s="63"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="55" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="40" t="s">
@@ -7198,27 +7191,27 @@
       <c r="S43" s="20"/>
       <c r="T43" s="20"/>
       <c r="U43" s="20"/>
-      <c r="V43" s="64"/>
+      <c r="V43" s="58"/>
       <c r="W43" s="20"/>
       <c r="X43" s="20"/>
       <c r="Y43" s="20"/>
       <c r="Z43" s="20"/>
       <c r="AA43" s="20"/>
       <c r="AB43" s="20"/>
-      <c r="AC43" s="67"/>
+      <c r="AC43" s="61"/>
       <c r="AD43" s="19"/>
       <c r="AE43" s="19"/>
       <c r="AF43" s="19"/>
       <c r="AG43" s="19"/>
       <c r="AH43" s="19"/>
       <c r="AI43" s="19"/>
-      <c r="AJ43" s="60"/>
+      <c r="AJ43" s="53"/>
       <c r="AK43" s="19"/>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A44" s="52"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="53"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="55"/>
       <c r="D44" s="2" t="s">
         <v>26</v>
       </c>
@@ -7241,27 +7234,27 @@
       <c r="S44" s="20"/>
       <c r="T44" s="20"/>
       <c r="U44" s="20"/>
-      <c r="V44" s="64"/>
+      <c r="V44" s="58"/>
       <c r="W44" s="20"/>
       <c r="X44" s="20"/>
       <c r="Y44" s="20"/>
       <c r="Z44" s="20"/>
       <c r="AA44" s="20"/>
       <c r="AB44" s="20"/>
-      <c r="AC44" s="67"/>
+      <c r="AC44" s="61"/>
       <c r="AD44" s="19"/>
       <c r="AE44" s="19"/>
       <c r="AF44" s="19"/>
       <c r="AG44" s="19"/>
       <c r="AH44" s="19"/>
       <c r="AI44" s="19"/>
-      <c r="AJ44" s="60"/>
+      <c r="AJ44" s="53"/>
       <c r="AK44" s="19"/>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A45" s="52"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="53" t="s">
+      <c r="A45" s="63"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="55" t="s">
         <v>43</v>
       </c>
       <c r="D45" s="38" t="s">
@@ -7286,27 +7279,27 @@
       <c r="S45" s="20"/>
       <c r="T45" s="20"/>
       <c r="U45" s="20"/>
-      <c r="V45" s="64"/>
+      <c r="V45" s="58"/>
       <c r="W45" s="20"/>
       <c r="X45" s="20"/>
       <c r="Y45" s="20"/>
       <c r="Z45" s="20"/>
       <c r="AA45" s="20"/>
       <c r="AB45" s="20"/>
-      <c r="AC45" s="67"/>
+      <c r="AC45" s="61"/>
       <c r="AD45" s="19"/>
       <c r="AE45" s="19"/>
       <c r="AF45" s="19"/>
       <c r="AG45" s="19"/>
       <c r="AH45" s="19"/>
       <c r="AI45" s="19"/>
-      <c r="AJ45" s="60"/>
+      <c r="AJ45" s="53"/>
       <c r="AK45" s="19"/>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A46" s="52"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="53"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="55"/>
       <c r="D46" s="2" t="s">
         <v>26</v>
       </c>
@@ -7329,27 +7322,27 @@
       <c r="S46" s="20"/>
       <c r="T46" s="20"/>
       <c r="U46" s="20"/>
-      <c r="V46" s="64"/>
+      <c r="V46" s="58"/>
       <c r="W46" s="20"/>
       <c r="X46" s="20"/>
       <c r="Y46" s="20"/>
       <c r="Z46" s="20"/>
       <c r="AA46" s="20"/>
       <c r="AB46" s="20"/>
-      <c r="AC46" s="67"/>
+      <c r="AC46" s="61"/>
       <c r="AD46" s="19"/>
       <c r="AE46" s="19"/>
       <c r="AF46" s="19"/>
       <c r="AG46" s="19"/>
       <c r="AH46" s="19"/>
       <c r="AI46" s="19"/>
-      <c r="AJ46" s="60"/>
+      <c r="AJ46" s="53"/>
       <c r="AK46" s="19"/>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A47" s="52"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="53"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="55"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="20"/>
@@ -7370,27 +7363,27 @@
       <c r="S47" s="20"/>
       <c r="T47" s="20"/>
       <c r="U47" s="20"/>
-      <c r="V47" s="64"/>
+      <c r="V47" s="58"/>
       <c r="W47" s="20"/>
       <c r="X47" s="20"/>
       <c r="Y47" s="20"/>
       <c r="Z47" s="20"/>
       <c r="AA47" s="20"/>
       <c r="AB47" s="20"/>
-      <c r="AC47" s="67"/>
+      <c r="AC47" s="61"/>
       <c r="AD47" s="19"/>
       <c r="AE47" s="19"/>
       <c r="AF47" s="19"/>
       <c r="AG47" s="19"/>
       <c r="AH47" s="19"/>
       <c r="AI47" s="19"/>
-      <c r="AJ47" s="60"/>
+      <c r="AJ47" s="53"/>
       <c r="AK47" s="19"/>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A48" s="52"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="53" t="s">
+      <c r="A48" s="63"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="55" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -7415,27 +7408,27 @@
       <c r="S48" s="20"/>
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
-      <c r="V48" s="64"/>
+      <c r="V48" s="58"/>
       <c r="W48" s="20"/>
       <c r="X48" s="20"/>
       <c r="Y48" s="20"/>
       <c r="Z48" s="20"/>
       <c r="AA48" s="20"/>
       <c r="AB48" s="20"/>
-      <c r="AC48" s="67"/>
+      <c r="AC48" s="61"/>
       <c r="AD48" s="19"/>
       <c r="AE48" s="19"/>
       <c r="AF48" s="19"/>
       <c r="AG48" s="19"/>
       <c r="AH48" s="19"/>
       <c r="AI48" s="19"/>
-      <c r="AJ48" s="60"/>
+      <c r="AJ48" s="53"/>
       <c r="AK48" s="19"/>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A49" s="52"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="53"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="55"/>
       <c r="D49" s="2" t="s">
         <v>36</v>
       </c>
@@ -7458,27 +7451,27 @@
       <c r="S49" s="20"/>
       <c r="T49" s="20"/>
       <c r="U49" s="20"/>
-      <c r="V49" s="64"/>
+      <c r="V49" s="58"/>
       <c r="W49" s="20"/>
       <c r="X49" s="20"/>
       <c r="Y49" s="20"/>
       <c r="Z49" s="20"/>
       <c r="AA49" s="20"/>
       <c r="AB49" s="20"/>
-      <c r="AC49" s="67"/>
+      <c r="AC49" s="61"/>
       <c r="AD49" s="19"/>
       <c r="AE49" s="19"/>
       <c r="AF49" s="19"/>
       <c r="AG49" s="19"/>
       <c r="AH49" s="19"/>
       <c r="AI49" s="19"/>
-      <c r="AJ49" s="60"/>
+      <c r="AJ49" s="53"/>
       <c r="AK49" s="19"/>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A50" s="52"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="53"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="55"/>
       <c r="D50" s="2" t="s">
         <v>37</v>
       </c>
@@ -7501,27 +7494,27 @@
       <c r="S50" s="20"/>
       <c r="T50" s="20"/>
       <c r="U50" s="20"/>
-      <c r="V50" s="64"/>
+      <c r="V50" s="58"/>
       <c r="W50" s="20"/>
       <c r="X50" s="20"/>
       <c r="Y50" s="20"/>
       <c r="Z50" s="20"/>
       <c r="AA50" s="20"/>
       <c r="AB50" s="20"/>
-      <c r="AC50" s="67"/>
+      <c r="AC50" s="61"/>
       <c r="AD50" s="19"/>
       <c r="AE50" s="19"/>
       <c r="AF50" s="19"/>
       <c r="AG50" s="19"/>
       <c r="AH50" s="19"/>
       <c r="AI50" s="19"/>
-      <c r="AJ50" s="60"/>
+      <c r="AJ50" s="53"/>
       <c r="AK50" s="19"/>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A51" s="52"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="53"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="55"/>
       <c r="D51" s="2" t="s">
         <v>38</v>
       </c>
@@ -7544,27 +7537,27 @@
       <c r="S51" s="20"/>
       <c r="T51" s="20"/>
       <c r="U51" s="20"/>
-      <c r="V51" s="64"/>
+      <c r="V51" s="58"/>
       <c r="W51" s="20"/>
       <c r="X51" s="20"/>
       <c r="Y51" s="20"/>
       <c r="Z51" s="20"/>
       <c r="AA51" s="20"/>
       <c r="AB51" s="20"/>
-      <c r="AC51" s="67"/>
+      <c r="AC51" s="61"/>
       <c r="AD51" s="19"/>
       <c r="AE51" s="19"/>
       <c r="AF51" s="19"/>
       <c r="AG51" s="19"/>
       <c r="AH51" s="19"/>
       <c r="AI51" s="19"/>
-      <c r="AJ51" s="60"/>
+      <c r="AJ51" s="53"/>
       <c r="AK51" s="19"/>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A52" s="52"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="53"/>
+      <c r="A52" s="63"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="55"/>
       <c r="D52" s="2" t="s">
         <v>33</v>
       </c>
@@ -7587,35 +7580,35 @@
       <c r="S52" s="20"/>
       <c r="T52" s="20"/>
       <c r="U52" s="20"/>
-      <c r="V52" s="64"/>
+      <c r="V52" s="58"/>
       <c r="W52" s="20"/>
       <c r="X52" s="20"/>
       <c r="Y52" s="20"/>
       <c r="Z52" s="20"/>
       <c r="AA52" s="20"/>
       <c r="AB52" s="20"/>
-      <c r="AC52" s="67"/>
+      <c r="AC52" s="61"/>
       <c r="AD52" s="19"/>
       <c r="AE52" s="19"/>
       <c r="AF52" s="19"/>
       <c r="AG52" s="19"/>
       <c r="AH52" s="19"/>
       <c r="AI52" s="19"/>
-      <c r="AJ52" s="60"/>
+      <c r="AJ52" s="53"/>
       <c r="AK52" s="19"/>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A53" s="52"/>
-      <c r="B53" s="62"/>
-      <c r="C53" s="53" t="s">
-        <v>128</v>
+      <c r="A53" s="63"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="55" t="s">
+        <v>127</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G53" s="20"/>
       <c r="H53" s="35">
@@ -7636,33 +7629,33 @@
       <c r="S53" s="20"/>
       <c r="T53" s="20"/>
       <c r="U53" s="20"/>
-      <c r="V53" s="64"/>
+      <c r="V53" s="58"/>
       <c r="W53" s="20"/>
       <c r="X53" s="20"/>
       <c r="Y53" s="20"/>
       <c r="Z53" s="20"/>
       <c r="AA53" s="20"/>
       <c r="AB53" s="20"/>
-      <c r="AC53" s="67"/>
+      <c r="AC53" s="61"/>
       <c r="AD53" s="19"/>
       <c r="AE53" s="19"/>
       <c r="AF53" s="19"/>
       <c r="AG53" s="19"/>
       <c r="AH53" s="19"/>
       <c r="AI53" s="19"/>
-      <c r="AJ53" s="60"/>
+      <c r="AJ53" s="53"/>
       <c r="AK53" s="19"/>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A54" s="52"/>
-      <c r="B54" s="62"/>
-      <c r="C54" s="53"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="55"/>
       <c r="D54" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="35">
@@ -7683,26 +7676,26 @@
       <c r="S54" s="20"/>
       <c r="T54" s="20"/>
       <c r="U54" s="20"/>
-      <c r="V54" s="64"/>
+      <c r="V54" s="58"/>
       <c r="W54" s="20"/>
       <c r="X54" s="20"/>
       <c r="Y54" s="20"/>
       <c r="Z54" s="20"/>
       <c r="AA54" s="20"/>
       <c r="AB54" s="20"/>
-      <c r="AC54" s="67"/>
+      <c r="AC54" s="61"/>
       <c r="AD54" s="19"/>
       <c r="AE54" s="19"/>
       <c r="AF54" s="19"/>
       <c r="AG54" s="19"/>
       <c r="AH54" s="19"/>
       <c r="AI54" s="19"/>
-      <c r="AJ54" s="60"/>
+      <c r="AJ54" s="53"/>
       <c r="AK54" s="19"/>
     </row>
     <row r="55" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="52"/>
-      <c r="B55" s="62"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="21" t="s">
         <v>76</v>
       </c>
@@ -7728,42 +7721,42 @@
       <c r="S55" s="21"/>
       <c r="T55" s="21"/>
       <c r="U55" s="21"/>
-      <c r="V55" s="64"/>
+      <c r="V55" s="58"/>
       <c r="W55" s="21"/>
       <c r="X55" s="21"/>
       <c r="Y55" s="21"/>
       <c r="Z55" s="21"/>
       <c r="AA55" s="21"/>
       <c r="AB55" s="21"/>
-      <c r="AC55" s="67"/>
+      <c r="AC55" s="61"/>
       <c r="AD55" s="19"/>
       <c r="AE55" s="19"/>
       <c r="AF55" s="19"/>
       <c r="AG55" s="19"/>
       <c r="AH55" s="19"/>
       <c r="AI55" s="19"/>
-      <c r="AJ55" s="60"/>
+      <c r="AJ55" s="53"/>
       <c r="AK55" s="19"/>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A56" s="52"/>
-      <c r="B56" s="55" t="s">
-        <v>127</v>
-      </c>
-      <c r="C56" s="53" t="s">
-        <v>99</v>
-      </c>
-      <c r="D56" s="53" t="s">
+      <c r="A56" s="63"/>
+      <c r="B56" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="55" t="s">
         <v>29</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F56" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H56" s="35">
         <v>44124</v>
@@ -7785,36 +7778,36 @@
       <c r="S56" s="20"/>
       <c r="T56" s="20"/>
       <c r="U56" s="20"/>
-      <c r="V56" s="64"/>
+      <c r="V56" s="58"/>
       <c r="W56" s="20"/>
       <c r="X56" s="20"/>
       <c r="Y56" s="20"/>
       <c r="Z56" s="20"/>
       <c r="AA56" s="20"/>
       <c r="AB56" s="20"/>
-      <c r="AC56" s="67"/>
+      <c r="AC56" s="61"/>
       <c r="AD56" s="19"/>
       <c r="AE56" s="19"/>
       <c r="AF56" s="19"/>
       <c r="AG56" s="19"/>
       <c r="AH56" s="19"/>
       <c r="AI56" s="19"/>
-      <c r="AJ56" s="60"/>
+      <c r="AJ56" s="53"/>
       <c r="AK56" s="19"/>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A57" s="52"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
+      <c r="A57" s="63"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
       <c r="E57" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F57" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="F57" s="20" t="s">
+      <c r="G57" s="20" t="s">
         <v>138</v>
-      </c>
-      <c r="G57" s="20" t="s">
-        <v>139</v>
       </c>
       <c r="H57" s="35">
         <v>44124</v>
@@ -7836,34 +7829,34 @@
       <c r="S57" s="20"/>
       <c r="T57" s="20"/>
       <c r="U57" s="20"/>
-      <c r="V57" s="64"/>
+      <c r="V57" s="58"/>
       <c r="W57" s="20"/>
       <c r="X57" s="20"/>
       <c r="Y57" s="20"/>
       <c r="Z57" s="20"/>
       <c r="AA57" s="20"/>
       <c r="AB57" s="20"/>
-      <c r="AC57" s="67"/>
+      <c r="AC57" s="61"/>
       <c r="AD57" s="19"/>
       <c r="AE57" s="19"/>
       <c r="AF57" s="19"/>
       <c r="AG57" s="19"/>
       <c r="AH57" s="19"/>
       <c r="AI57" s="19"/>
-      <c r="AJ57" s="60"/>
+      <c r="AJ57" s="53"/>
       <c r="AK57" s="19"/>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A58" s="52"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="D58" s="53" t="s">
+      <c r="A58" s="63"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="55" t="s">
         <v>102</v>
       </c>
+      <c r="D58" s="55" t="s">
+        <v>101</v>
+      </c>
       <c r="E58" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F58" s="50" t="s">
         <v>40</v>
@@ -7885,30 +7878,30 @@
       <c r="S58" s="20"/>
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
-      <c r="V58" s="64"/>
+      <c r="V58" s="58"/>
       <c r="W58" s="20"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="20"/>
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
-      <c r="AC58" s="67"/>
+      <c r="AC58" s="61"/>
       <c r="AD58" s="19"/>
       <c r="AE58" s="19"/>
       <c r="AF58" s="19"/>
       <c r="AG58" s="19"/>
       <c r="AH58" s="19"/>
       <c r="AI58" s="19"/>
-      <c r="AJ58" s="60"/>
+      <c r="AJ58" s="53"/>
       <c r="AK58" s="19"/>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A59" s="52"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
+      <c r="A59" s="63"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
       <c r="E59" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F59" s="50" t="s">
         <v>40</v>
@@ -7917,7 +7910,7 @@
       <c r="H59" s="35"/>
       <c r="I59" s="35"/>
       <c r="J59" s="36">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="K59" s="30"/>
       <c r="L59" s="20"/>
@@ -7930,30 +7923,30 @@
       <c r="S59" s="20"/>
       <c r="T59" s="20"/>
       <c r="U59" s="20"/>
-      <c r="V59" s="64"/>
+      <c r="V59" s="58"/>
       <c r="W59" s="20"/>
       <c r="X59" s="20"/>
       <c r="Y59" s="20"/>
       <c r="Z59" s="20"/>
       <c r="AA59" s="20"/>
       <c r="AB59" s="20"/>
-      <c r="AC59" s="67"/>
+      <c r="AC59" s="61"/>
       <c r="AD59" s="19"/>
       <c r="AE59" s="19"/>
       <c r="AF59" s="19"/>
       <c r="AG59" s="19"/>
       <c r="AH59" s="19"/>
       <c r="AI59" s="19"/>
-      <c r="AJ59" s="60"/>
+      <c r="AJ59" s="53"/>
       <c r="AK59" s="19"/>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A60" s="52"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
+      <c r="A60" s="63"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
       <c r="E60" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F60" s="50" t="s">
         <v>40</v>
@@ -7975,30 +7968,30 @@
       <c r="S60" s="20"/>
       <c r="T60" s="20"/>
       <c r="U60" s="20"/>
-      <c r="V60" s="64"/>
+      <c r="V60" s="58"/>
       <c r="W60" s="20"/>
       <c r="X60" s="20"/>
       <c r="Y60" s="20"/>
       <c r="Z60" s="20"/>
       <c r="AA60" s="20"/>
       <c r="AB60" s="20"/>
-      <c r="AC60" s="67"/>
+      <c r="AC60" s="61"/>
       <c r="AD60" s="19"/>
       <c r="AE60" s="19"/>
       <c r="AF60" s="19"/>
       <c r="AG60" s="19"/>
       <c r="AH60" s="19"/>
       <c r="AI60" s="19"/>
-      <c r="AJ60" s="60"/>
+      <c r="AJ60" s="53"/>
       <c r="AK60" s="19"/>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A61" s="52"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
+      <c r="A61" s="63"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
       <c r="E61" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F61" s="50" t="s">
         <v>40</v>
@@ -8020,30 +8013,30 @@
       <c r="S61" s="20"/>
       <c r="T61" s="20"/>
       <c r="U61" s="20"/>
-      <c r="V61" s="64"/>
+      <c r="V61" s="58"/>
       <c r="W61" s="20"/>
       <c r="X61" s="20"/>
       <c r="Y61" s="20"/>
       <c r="Z61" s="20"/>
       <c r="AA61" s="20"/>
       <c r="AB61" s="20"/>
-      <c r="AC61" s="67"/>
+      <c r="AC61" s="61"/>
       <c r="AD61" s="19"/>
       <c r="AE61" s="19"/>
       <c r="AF61" s="19"/>
       <c r="AG61" s="19"/>
       <c r="AH61" s="19"/>
       <c r="AI61" s="19"/>
-      <c r="AJ61" s="60"/>
+      <c r="AJ61" s="53"/>
       <c r="AK61" s="19"/>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A62" s="52"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="53"/>
+      <c r="A62" s="63"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
       <c r="E62" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F62" s="50" t="s">
         <v>40</v>
@@ -8065,32 +8058,32 @@
       <c r="S62" s="20"/>
       <c r="T62" s="20"/>
       <c r="U62" s="20"/>
-      <c r="V62" s="64"/>
+      <c r="V62" s="58"/>
       <c r="W62" s="20"/>
       <c r="X62" s="20"/>
       <c r="Y62" s="20"/>
       <c r="Z62" s="20"/>
       <c r="AA62" s="20"/>
       <c r="AB62" s="20"/>
-      <c r="AC62" s="67"/>
+      <c r="AC62" s="61"/>
       <c r="AD62" s="19"/>
       <c r="AE62" s="19"/>
       <c r="AF62" s="19"/>
       <c r="AG62" s="19"/>
       <c r="AH62" s="19"/>
       <c r="AI62" s="19"/>
-      <c r="AJ62" s="60"/>
+      <c r="AJ62" s="53"/>
       <c r="AK62" s="19"/>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A63" s="52"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="53" t="s">
-        <v>104</v>
+      <c r="A63" s="63"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55" t="s">
+        <v>103</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F63" s="50" t="s">
         <v>40</v>
@@ -8112,30 +8105,30 @@
       <c r="S63" s="20"/>
       <c r="T63" s="20"/>
       <c r="U63" s="20"/>
-      <c r="V63" s="64"/>
+      <c r="V63" s="58"/>
       <c r="W63" s="20"/>
       <c r="X63" s="20"/>
       <c r="Y63" s="20"/>
       <c r="Z63" s="20"/>
       <c r="AA63" s="20"/>
       <c r="AB63" s="20"/>
-      <c r="AC63" s="67"/>
+      <c r="AC63" s="61"/>
       <c r="AD63" s="19"/>
       <c r="AE63" s="19"/>
       <c r="AF63" s="19"/>
       <c r="AG63" s="19"/>
       <c r="AH63" s="19"/>
       <c r="AI63" s="19"/>
-      <c r="AJ63" s="60"/>
+      <c r="AJ63" s="53"/>
       <c r="AK63" s="19"/>
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A64" s="52"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
+      <c r="A64" s="63"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
       <c r="E64" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F64" s="50" t="s">
         <v>40</v>
@@ -8157,40 +8150,40 @@
       <c r="S64" s="20"/>
       <c r="T64" s="20"/>
       <c r="U64" s="20"/>
-      <c r="V64" s="64"/>
+      <c r="V64" s="58"/>
       <c r="W64" s="20"/>
       <c r="X64" s="20"/>
       <c r="Y64" s="20"/>
       <c r="Z64" s="20"/>
       <c r="AA64" s="20"/>
       <c r="AB64" s="20"/>
-      <c r="AC64" s="67"/>
+      <c r="AC64" s="61"/>
       <c r="AD64" s="19"/>
       <c r="AE64" s="19"/>
       <c r="AF64" s="19"/>
       <c r="AG64" s="19"/>
       <c r="AH64" s="19"/>
       <c r="AI64" s="19"/>
-      <c r="AJ64" s="60"/>
+      <c r="AJ64" s="53"/>
       <c r="AK64" s="19"/>
     </row>
     <row r="65" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="52"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="53" t="s">
+      <c r="A65" s="63"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="53" t="s">
-        <v>100</v>
+      <c r="D65" s="55" t="s">
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H65" s="35">
         <v>44126</v>
@@ -8212,36 +8205,36 @@
       <c r="S65" s="20"/>
       <c r="T65" s="20"/>
       <c r="U65" s="20"/>
-      <c r="V65" s="64"/>
+      <c r="V65" s="58"/>
       <c r="W65" s="20"/>
       <c r="X65" s="20"/>
       <c r="Y65" s="20"/>
       <c r="Z65" s="20"/>
       <c r="AA65" s="20"/>
       <c r="AB65" s="20"/>
-      <c r="AC65" s="67"/>
+      <c r="AC65" s="61"/>
       <c r="AD65" s="19"/>
       <c r="AE65" s="19"/>
       <c r="AF65" s="19"/>
       <c r="AG65" s="19"/>
       <c r="AH65" s="19"/>
       <c r="AI65" s="19"/>
-      <c r="AJ65" s="60"/>
+      <c r="AJ65" s="53"/>
       <c r="AK65" s="19"/>
     </row>
     <row r="66" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="52"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="53"/>
+      <c r="A66" s="63"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
       <c r="E66" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H66" s="35">
         <v>44126</v>
@@ -8261,29 +8254,29 @@
       <c r="S66" s="20"/>
       <c r="T66" s="20"/>
       <c r="U66" s="20"/>
-      <c r="V66" s="64"/>
+      <c r="V66" s="58"/>
       <c r="W66" s="20"/>
       <c r="X66" s="20"/>
       <c r="Y66" s="20"/>
       <c r="Z66" s="20"/>
       <c r="AA66" s="20"/>
       <c r="AB66" s="20"/>
-      <c r="AC66" s="67"/>
+      <c r="AC66" s="61"/>
       <c r="AD66" s="19"/>
       <c r="AE66" s="19"/>
       <c r="AF66" s="19"/>
       <c r="AG66" s="19"/>
       <c r="AH66" s="19"/>
       <c r="AI66" s="19"/>
-      <c r="AJ66" s="60"/>
+      <c r="AJ66" s="53"/>
       <c r="AK66" s="19"/>
     </row>
     <row r="67" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="52"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="53"/>
+      <c r="A67" s="63"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="55"/>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="20"/>
@@ -8304,34 +8297,42 @@
       <c r="S67" s="20"/>
       <c r="T67" s="20"/>
       <c r="U67" s="20"/>
-      <c r="V67" s="64"/>
+      <c r="V67" s="58"/>
       <c r="W67" s="20"/>
       <c r="X67" s="20"/>
       <c r="Y67" s="20"/>
       <c r="Z67" s="20"/>
       <c r="AA67" s="20"/>
       <c r="AB67" s="20"/>
-      <c r="AC67" s="67"/>
+      <c r="AC67" s="61"/>
       <c r="AD67" s="19"/>
       <c r="AE67" s="19"/>
       <c r="AF67" s="19"/>
       <c r="AG67" s="19"/>
       <c r="AH67" s="19"/>
       <c r="AI67" s="19"/>
-      <c r="AJ67" s="60"/>
+      <c r="AJ67" s="53"/>
       <c r="AK67" s="19"/>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A68" s="52"/>
-      <c r="B68" s="55"/>
+      <c r="A68" s="63"/>
+      <c r="B68" s="65"/>
       <c r="C68" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D68" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="E68" s="2"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="35"/>
+      <c r="F68" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G68" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="H68" s="35">
+        <v>44127</v>
+      </c>
       <c r="I68" s="35"/>
       <c r="J68" s="36">
         <v>0</v>
@@ -8347,45 +8348,47 @@
       <c r="S68" s="20"/>
       <c r="T68" s="20"/>
       <c r="U68" s="20"/>
-      <c r="V68" s="64"/>
+      <c r="V68" s="58"/>
       <c r="W68" s="20"/>
       <c r="X68" s="20"/>
       <c r="Y68" s="20"/>
       <c r="Z68" s="20"/>
       <c r="AA68" s="20"/>
       <c r="AB68" s="20"/>
-      <c r="AC68" s="67"/>
+      <c r="AC68" s="61"/>
       <c r="AD68" s="19"/>
       <c r="AE68" s="19"/>
       <c r="AF68" s="19"/>
       <c r="AG68" s="19"/>
       <c r="AH68" s="19"/>
       <c r="AI68" s="19"/>
-      <c r="AJ68" s="60"/>
+      <c r="AJ68" s="53"/>
       <c r="AK68" s="19"/>
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A69" s="52"/>
-      <c r="B69" s="55"/>
-      <c r="C69" s="20" t="s">
-        <v>24</v>
+      <c r="A69" s="63"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="55" t="s">
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="20" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="H69" s="35">
-        <v>44127</v>
-      </c>
-      <c r="I69" s="35"/>
+        <v>44124</v>
+      </c>
+      <c r="I69" s="35">
+        <v>44124</v>
+      </c>
       <c r="J69" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="30"/>
       <c r="L69" s="20"/>
@@ -8398,38 +8401,36 @@
       <c r="S69" s="20"/>
       <c r="T69" s="20"/>
       <c r="U69" s="20"/>
-      <c r="V69" s="64"/>
+      <c r="V69" s="58"/>
       <c r="W69" s="20"/>
       <c r="X69" s="20"/>
       <c r="Y69" s="20"/>
       <c r="Z69" s="20"/>
       <c r="AA69" s="20"/>
       <c r="AB69" s="20"/>
-      <c r="AC69" s="67"/>
+      <c r="AC69" s="61"/>
       <c r="AD69" s="19"/>
       <c r="AE69" s="19"/>
       <c r="AF69" s="19"/>
       <c r="AG69" s="19"/>
       <c r="AH69" s="19"/>
       <c r="AI69" s="19"/>
-      <c r="AJ69" s="60"/>
+      <c r="AJ69" s="53"/>
       <c r="AK69" s="19"/>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A70" s="52"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="53" t="s">
-        <v>13</v>
-      </c>
+      <c r="A70" s="63"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="55"/>
       <c r="D70" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="G70" s="20" t="s">
         <v>134</v>
-      </c>
-      <c r="G70" s="20" t="s">
-        <v>135</v>
       </c>
       <c r="H70" s="35">
         <v>44124</v>
@@ -8451,42 +8452,44 @@
       <c r="S70" s="20"/>
       <c r="T70" s="20"/>
       <c r="U70" s="20"/>
-      <c r="V70" s="64"/>
+      <c r="V70" s="58"/>
       <c r="W70" s="20"/>
       <c r="X70" s="20"/>
       <c r="Y70" s="20"/>
       <c r="Z70" s="20"/>
       <c r="AA70" s="20"/>
       <c r="AB70" s="20"/>
-      <c r="AC70" s="67"/>
+      <c r="AC70" s="61"/>
       <c r="AD70" s="19"/>
       <c r="AE70" s="19"/>
       <c r="AF70" s="19"/>
       <c r="AG70" s="19"/>
       <c r="AH70" s="19"/>
       <c r="AI70" s="19"/>
-      <c r="AJ70" s="60"/>
+      <c r="AJ70" s="53"/>
       <c r="AK70" s="19"/>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A71" s="52"/>
-      <c r="B71" s="55"/>
-      <c r="C71" s="53"/>
+    <row r="71" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="63"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="66" t="s">
+        <v>105</v>
+      </c>
       <c r="D71" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="20" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H71" s="35">
-        <v>44124</v>
+        <v>44125</v>
       </c>
       <c r="I71" s="35">
-        <v>44124</v>
+        <v>44126</v>
       </c>
       <c r="J71" s="36">
         <v>1</v>
@@ -8502,41 +8505,39 @@
       <c r="S71" s="20"/>
       <c r="T71" s="20"/>
       <c r="U71" s="20"/>
-      <c r="V71" s="64"/>
+      <c r="V71" s="58"/>
       <c r="W71" s="20"/>
       <c r="X71" s="20"/>
       <c r="Y71" s="20"/>
       <c r="Z71" s="20"/>
       <c r="AA71" s="20"/>
       <c r="AB71" s="20"/>
-      <c r="AC71" s="67"/>
+      <c r="AC71" s="61"/>
       <c r="AD71" s="19"/>
       <c r="AE71" s="19"/>
       <c r="AF71" s="19"/>
       <c r="AG71" s="19"/>
       <c r="AH71" s="19"/>
       <c r="AI71" s="19"/>
-      <c r="AJ71" s="60"/>
+      <c r="AJ71" s="53"/>
       <c r="AK71" s="19"/>
     </row>
     <row r="72" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="52"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="56" t="s">
-        <v>106</v>
-      </c>
+      <c r="A72" s="63"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="67"/>
       <c r="D72" s="2" t="s">
-        <v>107</v>
+        <v>163</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="20" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="H72" s="35">
-        <v>44125</v>
+        <v>44126</v>
       </c>
       <c r="I72" s="35">
         <v>44126</v>
@@ -8555,36 +8556,36 @@
       <c r="S72" s="20"/>
       <c r="T72" s="20"/>
       <c r="U72" s="20"/>
-      <c r="V72" s="64"/>
+      <c r="V72" s="58"/>
       <c r="W72" s="20"/>
       <c r="X72" s="20"/>
       <c r="Y72" s="20"/>
       <c r="Z72" s="20"/>
       <c r="AA72" s="20"/>
       <c r="AB72" s="20"/>
-      <c r="AC72" s="67"/>
+      <c r="AC72" s="61"/>
       <c r="AD72" s="19"/>
       <c r="AE72" s="19"/>
       <c r="AF72" s="19"/>
       <c r="AG72" s="19"/>
       <c r="AH72" s="19"/>
       <c r="AI72" s="19"/>
-      <c r="AJ72" s="60"/>
+      <c r="AJ72" s="53"/>
       <c r="AK72" s="19"/>
     </row>
     <row r="73" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="52"/>
-      <c r="B73" s="55"/>
-      <c r="C73" s="57"/>
+      <c r="A73" s="63"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="68"/>
       <c r="D73" s="2" t="s">
         <v>164</v>
       </c>
       <c r="E73" s="2"/>
-      <c r="F73" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="G73" s="20" t="s">
-        <v>167</v>
+      <c r="F73" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="G73" s="37" t="s">
+        <v>173</v>
       </c>
       <c r="H73" s="35">
         <v>44126</v>
@@ -8596,108 +8597,100 @@
         <v>1</v>
       </c>
       <c r="K73" s="30"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="20"/>
-      <c r="N73" s="20"/>
-      <c r="O73" s="20"/>
-      <c r="P73" s="20"/>
-      <c r="Q73" s="20"/>
-      <c r="R73" s="20"/>
-      <c r="S73" s="20"/>
-      <c r="T73" s="20"/>
-      <c r="U73" s="20"/>
-      <c r="V73" s="64"/>
-      <c r="W73" s="20"/>
-      <c r="X73" s="20"/>
-      <c r="Y73" s="20"/>
-      <c r="Z73" s="20"/>
-      <c r="AA73" s="20"/>
-      <c r="AB73" s="20"/>
-      <c r="AC73" s="67"/>
+      <c r="L73" s="37"/>
+      <c r="M73" s="37"/>
+      <c r="N73" s="37"/>
+      <c r="O73" s="37"/>
+      <c r="P73" s="37"/>
+      <c r="Q73" s="37"/>
+      <c r="R73" s="37"/>
+      <c r="S73" s="37"/>
+      <c r="T73" s="37"/>
+      <c r="U73" s="37"/>
+      <c r="V73" s="58"/>
+      <c r="W73" s="37"/>
+      <c r="X73" s="37"/>
+      <c r="Y73" s="37"/>
+      <c r="Z73" s="37"/>
+      <c r="AA73" s="37"/>
+      <c r="AB73" s="37"/>
+      <c r="AC73" s="61"/>
       <c r="AD73" s="19"/>
       <c r="AE73" s="19"/>
       <c r="AF73" s="19"/>
       <c r="AG73" s="19"/>
       <c r="AH73" s="19"/>
       <c r="AI73" s="19"/>
-      <c r="AJ73" s="60"/>
+      <c r="AJ73" s="53"/>
       <c r="AK73" s="19"/>
     </row>
-    <row r="74" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="52"/>
-      <c r="B74" s="55"/>
-      <c r="C74" s="58"/>
+    <row r="74" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A74" s="63"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="55" t="s">
+        <v>30</v>
+      </c>
       <c r="D74" s="2" t="s">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="E74" s="2"/>
-      <c r="F74" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="G74" s="37" t="s">
-        <v>174</v>
+      <c r="F74" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G74" s="20" t="s">
+        <v>146</v>
       </c>
       <c r="H74" s="35">
-        <v>44126</v>
+        <v>44123</v>
       </c>
       <c r="I74" s="35">
-        <v>44126</v>
+        <v>44123</v>
       </c>
       <c r="J74" s="36">
         <v>1</v>
       </c>
       <c r="K74" s="30"/>
-      <c r="L74" s="37"/>
-      <c r="M74" s="37"/>
-      <c r="N74" s="37"/>
-      <c r="O74" s="37"/>
-      <c r="P74" s="37"/>
-      <c r="Q74" s="37"/>
-      <c r="R74" s="37"/>
-      <c r="S74" s="37"/>
-      <c r="T74" s="37"/>
-      <c r="U74" s="37"/>
-      <c r="V74" s="64"/>
-      <c r="W74" s="37"/>
-      <c r="X74" s="37"/>
-      <c r="Y74" s="37"/>
-      <c r="Z74" s="37"/>
-      <c r="AA74" s="37"/>
-      <c r="AB74" s="37"/>
-      <c r="AC74" s="67"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="20"/>
+      <c r="O74" s="20"/>
+      <c r="P74" s="20"/>
+      <c r="Q74" s="20"/>
+      <c r="R74" s="20"/>
+      <c r="S74" s="20"/>
+      <c r="T74" s="20"/>
+      <c r="U74" s="20"/>
+      <c r="V74" s="58"/>
+      <c r="W74" s="20"/>
+      <c r="X74" s="20"/>
+      <c r="Y74" s="20"/>
+      <c r="Z74" s="20"/>
+      <c r="AA74" s="20"/>
+      <c r="AB74" s="20"/>
+      <c r="AC74" s="61"/>
       <c r="AD74" s="19"/>
       <c r="AE74" s="19"/>
       <c r="AF74" s="19"/>
       <c r="AG74" s="19"/>
       <c r="AH74" s="19"/>
       <c r="AI74" s="19"/>
-      <c r="AJ74" s="60"/>
+      <c r="AJ74" s="53"/>
       <c r="AK74" s="19"/>
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A75" s="52"/>
-      <c r="B75" s="55"/>
-      <c r="C75" s="53" t="s">
-        <v>30</v>
-      </c>
+      <c r="A75" s="63"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="55"/>
       <c r="D75" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E75" s="2"/>
-      <c r="F75" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="G75" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="H75" s="35">
-        <v>44123</v>
-      </c>
-      <c r="I75" s="35">
-        <v>44123</v>
-      </c>
+      <c r="F75" s="20"/>
+      <c r="G75" s="20"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
       <c r="J75" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" s="30"/>
       <c r="L75" s="20"/>
@@ -8710,29 +8703,29 @@
       <c r="S75" s="20"/>
       <c r="T75" s="20"/>
       <c r="U75" s="20"/>
-      <c r="V75" s="64"/>
+      <c r="V75" s="58"/>
       <c r="W75" s="20"/>
       <c r="X75" s="20"/>
       <c r="Y75" s="20"/>
       <c r="Z75" s="20"/>
       <c r="AA75" s="20"/>
       <c r="AB75" s="20"/>
-      <c r="AC75" s="67"/>
+      <c r="AC75" s="61"/>
       <c r="AD75" s="19"/>
       <c r="AE75" s="19"/>
       <c r="AF75" s="19"/>
       <c r="AG75" s="19"/>
       <c r="AH75" s="19"/>
       <c r="AI75" s="19"/>
-      <c r="AJ75" s="60"/>
+      <c r="AJ75" s="53"/>
       <c r="AK75" s="19"/>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A76" s="52"/>
-      <c r="B76" s="55"/>
-      <c r="C76" s="53"/>
+      <c r="A76" s="63"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="55"/>
       <c r="D76" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="20"/>
@@ -8753,96 +8746,65 @@
       <c r="S76" s="20"/>
       <c r="T76" s="20"/>
       <c r="U76" s="20"/>
-      <c r="V76" s="64"/>
+      <c r="V76" s="59"/>
       <c r="W76" s="20"/>
       <c r="X76" s="20"/>
       <c r="Y76" s="20"/>
       <c r="Z76" s="20"/>
       <c r="AA76" s="20"/>
       <c r="AB76" s="20"/>
-      <c r="AC76" s="67"/>
+      <c r="AC76" s="62"/>
       <c r="AD76" s="19"/>
       <c r="AE76" s="19"/>
       <c r="AF76" s="19"/>
       <c r="AG76" s="19"/>
       <c r="AH76" s="19"/>
       <c r="AI76" s="19"/>
-      <c r="AJ76" s="60"/>
+      <c r="AJ76" s="54"/>
       <c r="AK76" s="19"/>
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A77" s="52"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="A77" s="63"/>
+      <c r="B77" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D77" s="2"/>
       <c r="E77" s="2"/>
-      <c r="F77" s="20"/>
+      <c r="F77" s="20" t="s">
+        <v>41</v>
+      </c>
       <c r="G77" s="20"/>
       <c r="H77" s="35"/>
       <c r="I77" s="35"/>
-      <c r="J77" s="36">
-        <v>0</v>
-      </c>
-      <c r="K77" s="30"/>
-      <c r="L77" s="20"/>
-      <c r="M77" s="20"/>
-      <c r="N77" s="20"/>
-      <c r="O77" s="20"/>
-      <c r="P77" s="20"/>
-      <c r="Q77" s="20"/>
-      <c r="R77" s="20"/>
-      <c r="S77" s="20"/>
-      <c r="T77" s="20"/>
-      <c r="U77" s="20"/>
-      <c r="V77" s="65"/>
-      <c r="W77" s="20"/>
-      <c r="X77" s="20"/>
-      <c r="Y77" s="20"/>
-      <c r="Z77" s="20"/>
-      <c r="AA77" s="20"/>
-      <c r="AB77" s="20"/>
-      <c r="AC77" s="68"/>
-      <c r="AD77" s="19"/>
-      <c r="AE77" s="19"/>
-      <c r="AF77" s="19"/>
-      <c r="AG77" s="19"/>
-      <c r="AH77" s="19"/>
-      <c r="AI77" s="19"/>
-      <c r="AJ77" s="61"/>
-      <c r="AK77" s="19"/>
-    </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A78" s="52"/>
-      <c r="B78" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="C78" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G78" s="20"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="45">
+      <c r="J77" s="45">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AJ5:AJ77"/>
+    <mergeCell ref="A5:A77"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B56:B76"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="AJ5:AJ76"/>
     <mergeCell ref="C18:C42"/>
     <mergeCell ref="B11:B55"/>
     <mergeCell ref="D18:D27"/>
     <mergeCell ref="D30:D32"/>
     <mergeCell ref="D33:D35"/>
-    <mergeCell ref="V5:V77"/>
-    <mergeCell ref="AC5:AC77"/>
+    <mergeCell ref="V5:V76"/>
+    <mergeCell ref="AC5:AC76"/>
     <mergeCell ref="D58:D62"/>
     <mergeCell ref="C58:C64"/>
     <mergeCell ref="D28:D29"/>
@@ -8851,21 +8813,9 @@
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="D65:D66"/>
     <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A5:A78"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B56:B77"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C72:C74"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="K3:AK5 AK6:AK77 W6:AB77 AD6:AI77 K6:U77">
+  <conditionalFormatting sqref="K3:AK5 AK6:AK76 W6:AB76 AD6:AI76 K6:U76">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>WEEKDAY(K$3)=7</formula>
     </cfRule>
@@ -9317,7 +9267,7 @@
         <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2"/>
     </row>

--- a/schedule/ガントチャートxlsx.xlsx
+++ b/schedule/ガントチャートxlsx.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\okashi_222\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\Git\okashi_222\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1971,27 +1971,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2000,6 +1979,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2021,6 +2003,24 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5101,10 +5101,10 @@
   <dimension ref="A1:AS78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="K44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomRight" activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5389,10 +5389,10 @@
       </c>
     </row>
     <row r="5" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="64" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -5428,7 +5428,7 @@
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
-      <c r="V5" s="63" t="s">
+      <c r="V5" s="57" t="s">
         <v>117</v>
       </c>
       <c r="W5" s="19"/>
@@ -5437,7 +5437,7 @@
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
       <c r="AB5" s="19"/>
-      <c r="AC5" s="66" t="s">
+      <c r="AC5" s="60" t="s">
         <v>118</v>
       </c>
       <c r="AD5" s="19"/>
@@ -5446,14 +5446,14 @@
       <c r="AG5" s="19"/>
       <c r="AH5" s="19"/>
       <c r="AI5" s="19"/>
-      <c r="AJ5" s="59" t="s">
+      <c r="AJ5" s="52" t="s">
         <v>94</v>
       </c>
       <c r="AK5" s="19"/>
     </row>
     <row r="6" spans="1:45" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="52"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
@@ -5483,26 +5483,26 @@
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
-      <c r="V6" s="64"/>
+      <c r="V6" s="58"/>
       <c r="W6" s="20"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20"/>
-      <c r="AC6" s="67"/>
+      <c r="AC6" s="61"/>
       <c r="AD6" s="19"/>
       <c r="AE6" s="19"/>
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="19"/>
-      <c r="AJ6" s="60"/>
+      <c r="AJ6" s="53"/>
       <c r="AK6" s="19"/>
     </row>
     <row r="7" spans="1:45" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="52"/>
-      <c r="B7" s="54"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="20" t="s">
         <v>10</v>
       </c>
@@ -5530,26 +5530,26 @@
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
-      <c r="V7" s="64"/>
+      <c r="V7" s="58"/>
       <c r="W7" s="20"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20"/>
-      <c r="AC7" s="67"/>
+      <c r="AC7" s="61"/>
       <c r="AD7" s="19"/>
       <c r="AE7" s="19"/>
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
       <c r="AI7" s="19"/>
-      <c r="AJ7" s="60"/>
+      <c r="AJ7" s="53"/>
       <c r="AK7" s="19"/>
     </row>
     <row r="8" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="52"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
@@ -5577,26 +5577,26 @@
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
-      <c r="V8" s="64"/>
+      <c r="V8" s="58"/>
       <c r="W8" s="20"/>
       <c r="X8" s="20"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
-      <c r="AC8" s="67"/>
+      <c r="AC8" s="61"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
       <c r="AH8" s="19"/>
       <c r="AI8" s="19"/>
-      <c r="AJ8" s="60"/>
+      <c r="AJ8" s="53"/>
       <c r="AK8" s="19"/>
     </row>
     <row r="9" spans="1:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="52"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="20" t="s">
         <v>34</v>
       </c>
@@ -5624,26 +5624,26 @@
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
-      <c r="V9" s="64"/>
+      <c r="V9" s="58"/>
       <c r="W9" s="20"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20"/>
-      <c r="AC9" s="67"/>
+      <c r="AC9" s="61"/>
       <c r="AD9" s="19"/>
       <c r="AE9" s="19"/>
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
       <c r="AI9" s="19"/>
-      <c r="AJ9" s="60"/>
+      <c r="AJ9" s="53"/>
       <c r="AK9" s="19"/>
     </row>
     <row r="10" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="52"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="20" t="s">
         <v>35</v>
       </c>
@@ -5669,29 +5669,29 @@
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
-      <c r="V10" s="64"/>
+      <c r="V10" s="58"/>
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20"/>
-      <c r="AC10" s="67"/>
+      <c r="AC10" s="61"/>
       <c r="AD10" s="19"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="19"/>
-      <c r="AJ10" s="60"/>
+      <c r="AJ10" s="53"/>
       <c r="AK10" s="19"/>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A11" s="52"/>
-      <c r="B11" s="62" t="s">
+      <c r="A11" s="63"/>
+      <c r="B11" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="55" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -5716,27 +5716,27 @@
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
-      <c r="V11" s="64"/>
+      <c r="V11" s="58"/>
       <c r="W11" s="20"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20"/>
-      <c r="AC11" s="67"/>
+      <c r="AC11" s="61"/>
       <c r="AD11" s="19"/>
       <c r="AE11" s="19"/>
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
       <c r="AI11" s="19"/>
-      <c r="AJ11" s="60"/>
+      <c r="AJ11" s="53"/>
       <c r="AK11" s="19"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A12" s="52"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="53"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
@@ -5759,27 +5759,27 @@
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
-      <c r="V12" s="64"/>
+      <c r="V12" s="58"/>
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20"/>
-      <c r="AC12" s="67"/>
+      <c r="AC12" s="61"/>
       <c r="AD12" s="19"/>
       <c r="AE12" s="19"/>
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="19"/>
-      <c r="AJ12" s="60"/>
+      <c r="AJ12" s="53"/>
       <c r="AK12" s="19"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A13" s="52"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="53"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="38" t="s">
         <v>45</v>
       </c>
@@ -5802,27 +5802,27 @@
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
-      <c r="V13" s="64"/>
+      <c r="V13" s="58"/>
       <c r="W13" s="20"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20"/>
-      <c r="AC13" s="67"/>
+      <c r="AC13" s="61"/>
       <c r="AD13" s="19"/>
       <c r="AE13" s="19"/>
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
-      <c r="AJ13" s="60"/>
+      <c r="AJ13" s="53"/>
       <c r="AK13" s="19"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A14" s="52"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="53"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="39" t="s">
         <v>27</v>
       </c>
@@ -5845,27 +5845,27 @@
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
-      <c r="V14" s="64"/>
+      <c r="V14" s="58"/>
       <c r="W14" s="20"/>
       <c r="X14" s="20"/>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20"/>
-      <c r="AC14" s="67"/>
+      <c r="AC14" s="61"/>
       <c r="AD14" s="19"/>
       <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
       <c r="AI14" s="19"/>
-      <c r="AJ14" s="60"/>
+      <c r="AJ14" s="53"/>
       <c r="AK14" s="19"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A15" s="52"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="53" t="s">
+      <c r="A15" s="63"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -5892,27 +5892,27 @@
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
-      <c r="V15" s="64"/>
+      <c r="V15" s="58"/>
       <c r="W15" s="20"/>
       <c r="X15" s="20"/>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
-      <c r="AC15" s="67"/>
+      <c r="AC15" s="61"/>
       <c r="AD15" s="19"/>
       <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
       <c r="AI15" s="19"/>
-      <c r="AJ15" s="60"/>
+      <c r="AJ15" s="53"/>
       <c r="AK15" s="19"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A16" s="52"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="53"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="40" t="s">
         <v>45</v>
       </c>
@@ -5935,27 +5935,27 @@
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
-      <c r="V16" s="64"/>
+      <c r="V16" s="58"/>
       <c r="W16" s="20"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
-      <c r="AC16" s="67"/>
+      <c r="AC16" s="61"/>
       <c r="AD16" s="19"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="19"/>
-      <c r="AJ16" s="60"/>
+      <c r="AJ16" s="53"/>
       <c r="AK16" s="19"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A17" s="52"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="53"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
@@ -5978,30 +5978,30 @@
       <c r="S17" s="20"/>
       <c r="T17" s="20"/>
       <c r="U17" s="20"/>
-      <c r="V17" s="64"/>
+      <c r="V17" s="58"/>
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
-      <c r="AC17" s="67"/>
+      <c r="AC17" s="61"/>
       <c r="AD17" s="19"/>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="19"/>
       <c r="AI17" s="19"/>
-      <c r="AJ17" s="60"/>
+      <c r="AJ17" s="53"/>
       <c r="AK17" s="19"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A18" s="52"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="53" t="s">
+      <c r="A18" s="63"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="55" t="s">
         <v>102</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -6031,28 +6031,28 @@
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
-      <c r="V18" s="64"/>
+      <c r="V18" s="58"/>
       <c r="W18" s="20"/>
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
-      <c r="AC18" s="67"/>
+      <c r="AC18" s="61"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="19"/>
       <c r="AI18" s="19"/>
-      <c r="AJ18" s="60"/>
+      <c r="AJ18" s="53"/>
       <c r="AK18" s="19"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A19" s="52"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
       <c r="E19" s="2" t="s">
         <v>146</v>
       </c>
@@ -6082,28 +6082,28 @@
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
-      <c r="V19" s="64"/>
+      <c r="V19" s="58"/>
       <c r="W19" s="20"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
-      <c r="AC19" s="67"/>
+      <c r="AC19" s="61"/>
       <c r="AD19" s="19"/>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
       <c r="AI19" s="19"/>
-      <c r="AJ19" s="60"/>
+      <c r="AJ19" s="53"/>
       <c r="AK19" s="19"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A20" s="52"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="2" t="s">
         <v>119</v>
       </c>
@@ -6133,28 +6133,28 @@
       <c r="S20" s="20"/>
       <c r="T20" s="20"/>
       <c r="U20" s="20"/>
-      <c r="V20" s="64"/>
+      <c r="V20" s="58"/>
       <c r="W20" s="20"/>
       <c r="X20" s="20"/>
       <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
-      <c r="AC20" s="67"/>
+      <c r="AC20" s="61"/>
       <c r="AD20" s="19"/>
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="19"/>
       <c r="AI20" s="19"/>
-      <c r="AJ20" s="60"/>
+      <c r="AJ20" s="53"/>
       <c r="AK20" s="19"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A21" s="52"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="2" t="s">
         <v>115</v>
       </c>
@@ -6176,28 +6176,28 @@
       <c r="S21" s="20"/>
       <c r="T21" s="20"/>
       <c r="U21" s="20"/>
-      <c r="V21" s="64"/>
+      <c r="V21" s="58"/>
       <c r="W21" s="20"/>
       <c r="X21" s="20"/>
       <c r="Y21" s="20"/>
       <c r="Z21" s="20"/>
       <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
-      <c r="AC21" s="67"/>
+      <c r="AC21" s="61"/>
       <c r="AD21" s="19"/>
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
       <c r="AI21" s="19"/>
-      <c r="AJ21" s="60"/>
+      <c r="AJ21" s="53"/>
       <c r="AK21" s="19"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A22" s="52"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="2" t="s">
         <v>143</v>
       </c>
@@ -6227,28 +6227,28 @@
       <c r="S22" s="20"/>
       <c r="T22" s="20"/>
       <c r="U22" s="20"/>
-      <c r="V22" s="64"/>
+      <c r="V22" s="58"/>
       <c r="W22" s="20"/>
       <c r="X22" s="20"/>
       <c r="Y22" s="20"/>
       <c r="Z22" s="20"/>
       <c r="AA22" s="20"/>
       <c r="AB22" s="20"/>
-      <c r="AC22" s="67"/>
+      <c r="AC22" s="61"/>
       <c r="AD22" s="19"/>
       <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="19"/>
       <c r="AI22" s="19"/>
-      <c r="AJ22" s="60"/>
+      <c r="AJ22" s="53"/>
       <c r="AK22" s="19"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A23" s="52"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="2" t="s">
         <v>125</v>
       </c>
@@ -6278,28 +6278,28 @@
       <c r="S23" s="20"/>
       <c r="T23" s="20"/>
       <c r="U23" s="20"/>
-      <c r="V23" s="64"/>
+      <c r="V23" s="58"/>
       <c r="W23" s="20"/>
       <c r="X23" s="20"/>
       <c r="Y23" s="20"/>
       <c r="Z23" s="20"/>
       <c r="AA23" s="20"/>
       <c r="AB23" s="20"/>
-      <c r="AC23" s="67"/>
+      <c r="AC23" s="61"/>
       <c r="AD23" s="19"/>
       <c r="AE23" s="19"/>
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="19"/>
       <c r="AI23" s="19"/>
-      <c r="AJ23" s="60"/>
+      <c r="AJ23" s="53"/>
       <c r="AK23" s="19"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A24" s="52"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="2" t="s">
         <v>116</v>
       </c>
@@ -6321,28 +6321,28 @@
       <c r="S24" s="20"/>
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
-      <c r="V24" s="64"/>
+      <c r="V24" s="58"/>
       <c r="W24" s="20"/>
       <c r="X24" s="20"/>
       <c r="Y24" s="20"/>
       <c r="Z24" s="20"/>
       <c r="AA24" s="20"/>
       <c r="AB24" s="20"/>
-      <c r="AC24" s="67"/>
+      <c r="AC24" s="61"/>
       <c r="AD24" s="19"/>
       <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="19"/>
       <c r="AI24" s="19"/>
-      <c r="AJ24" s="60"/>
+      <c r="AJ24" s="53"/>
       <c r="AK24" s="19"/>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A25" s="52"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="2" t="s">
         <v>175</v>
       </c>
@@ -6368,28 +6368,28 @@
       <c r="S25" s="50"/>
       <c r="T25" s="50"/>
       <c r="U25" s="50"/>
-      <c r="V25" s="64"/>
+      <c r="V25" s="58"/>
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="50"/>
       <c r="Z25" s="50"/>
       <c r="AA25" s="50"/>
       <c r="AB25" s="50"/>
-      <c r="AC25" s="67"/>
+      <c r="AC25" s="61"/>
       <c r="AD25" s="51"/>
       <c r="AE25" s="51"/>
       <c r="AF25" s="51"/>
       <c r="AG25" s="51"/>
       <c r="AH25" s="51"/>
       <c r="AI25" s="51"/>
-      <c r="AJ25" s="60"/>
+      <c r="AJ25" s="53"/>
       <c r="AK25" s="51"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A26" s="52"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="2" t="s">
         <v>113</v>
       </c>
@@ -6419,28 +6419,28 @@
       <c r="S26" s="20"/>
       <c r="T26" s="20"/>
       <c r="U26" s="20"/>
-      <c r="V26" s="64"/>
+      <c r="V26" s="58"/>
       <c r="W26" s="20"/>
       <c r="X26" s="20"/>
       <c r="Y26" s="20"/>
       <c r="Z26" s="20"/>
       <c r="AA26" s="20"/>
       <c r="AB26" s="20"/>
-      <c r="AC26" s="67"/>
+      <c r="AC26" s="61"/>
       <c r="AD26" s="19"/>
       <c r="AE26" s="19"/>
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
       <c r="AH26" s="19"/>
       <c r="AI26" s="19"/>
-      <c r="AJ26" s="60"/>
+      <c r="AJ26" s="53"/>
       <c r="AK26" s="19"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A27" s="52"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="2" t="s">
         <v>109</v>
       </c>
@@ -6462,28 +6462,28 @@
       <c r="S27" s="20"/>
       <c r="T27" s="20"/>
       <c r="U27" s="20"/>
-      <c r="V27" s="64"/>
+      <c r="V27" s="58"/>
       <c r="W27" s="20"/>
       <c r="X27" s="20"/>
       <c r="Y27" s="20"/>
       <c r="Z27" s="20"/>
       <c r="AA27" s="20"/>
       <c r="AB27" s="20"/>
-      <c r="AC27" s="67"/>
+      <c r="AC27" s="61"/>
       <c r="AD27" s="19"/>
       <c r="AE27" s="19"/>
       <c r="AF27" s="19"/>
       <c r="AG27" s="19"/>
       <c r="AH27" s="19"/>
       <c r="AI27" s="19"/>
-      <c r="AJ27" s="60"/>
+      <c r="AJ27" s="53"/>
       <c r="AK27" s="19"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A28" s="52"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53" t="s">
+      <c r="A28" s="63"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -6515,28 +6515,28 @@
       <c r="S28" s="20"/>
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
-      <c r="V28" s="64"/>
+      <c r="V28" s="58"/>
       <c r="W28" s="20"/>
       <c r="X28" s="20"/>
       <c r="Y28" s="20"/>
       <c r="Z28" s="20"/>
       <c r="AA28" s="20"/>
       <c r="AB28" s="20"/>
-      <c r="AC28" s="67"/>
+      <c r="AC28" s="61"/>
       <c r="AD28" s="19"/>
       <c r="AE28" s="19"/>
       <c r="AF28" s="19"/>
       <c r="AG28" s="19"/>
       <c r="AH28" s="19"/>
       <c r="AI28" s="19"/>
-      <c r="AJ28" s="60"/>
+      <c r="AJ28" s="53"/>
       <c r="AK28" s="19"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A29" s="52"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="2" t="s">
         <v>126</v>
       </c>
@@ -6566,28 +6566,28 @@
       <c r="S29" s="20"/>
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
-      <c r="V29" s="64"/>
+      <c r="V29" s="58"/>
       <c r="W29" s="20"/>
       <c r="X29" s="20"/>
       <c r="Y29" s="20"/>
       <c r="Z29" s="20"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="20"/>
-      <c r="AC29" s="67"/>
+      <c r="AC29" s="61"/>
       <c r="AD29" s="19"/>
       <c r="AE29" s="19"/>
       <c r="AF29" s="19"/>
       <c r="AG29" s="19"/>
       <c r="AH29" s="19"/>
       <c r="AI29" s="19"/>
-      <c r="AJ29" s="60"/>
+      <c r="AJ29" s="53"/>
       <c r="AK29" s="19"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A30" s="52"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53" t="s">
+      <c r="A30" s="63"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -6611,28 +6611,28 @@
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
       <c r="U30" s="20"/>
-      <c r="V30" s="64"/>
+      <c r="V30" s="58"/>
       <c r="W30" s="20"/>
       <c r="X30" s="20"/>
       <c r="Y30" s="20"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
-      <c r="AC30" s="67"/>
+      <c r="AC30" s="61"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="19"/>
       <c r="AF30" s="19"/>
       <c r="AG30" s="19"/>
       <c r="AH30" s="19"/>
       <c r="AI30" s="19"/>
-      <c r="AJ30" s="60"/>
+      <c r="AJ30" s="53"/>
       <c r="AK30" s="19"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A31" s="52"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="2" t="s">
         <v>151</v>
       </c>
@@ -6654,28 +6654,28 @@
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
-      <c r="V31" s="64"/>
+      <c r="V31" s="58"/>
       <c r="W31" s="20"/>
       <c r="X31" s="20"/>
       <c r="Y31" s="20"/>
       <c r="Z31" s="20"/>
       <c r="AA31" s="20"/>
       <c r="AB31" s="20"/>
-      <c r="AC31" s="67"/>
+      <c r="AC31" s="61"/>
       <c r="AD31" s="19"/>
       <c r="AE31" s="19"/>
       <c r="AF31" s="19"/>
       <c r="AG31" s="19"/>
       <c r="AH31" s="19"/>
       <c r="AI31" s="19"/>
-      <c r="AJ31" s="60"/>
+      <c r="AJ31" s="53"/>
       <c r="AK31" s="19"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A32" s="52"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="2" t="s">
         <v>120</v>
       </c>
@@ -6705,28 +6705,28 @@
       <c r="S32" s="20"/>
       <c r="T32" s="20"/>
       <c r="U32" s="20"/>
-      <c r="V32" s="64"/>
+      <c r="V32" s="58"/>
       <c r="W32" s="20"/>
       <c r="X32" s="20"/>
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
       <c r="AA32" s="20"/>
       <c r="AB32" s="20"/>
-      <c r="AC32" s="67"/>
+      <c r="AC32" s="61"/>
       <c r="AD32" s="19"/>
       <c r="AE32" s="19"/>
       <c r="AF32" s="19"/>
       <c r="AG32" s="19"/>
       <c r="AH32" s="19"/>
       <c r="AI32" s="19"/>
-      <c r="AJ32" s="60"/>
+      <c r="AJ32" s="53"/>
       <c r="AK32" s="19"/>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A33" s="52"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53" t="s">
+      <c r="A33" s="63"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55" t="s">
         <v>97</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -6750,28 +6750,28 @@
       <c r="S33" s="20"/>
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
-      <c r="V33" s="64"/>
+      <c r="V33" s="58"/>
       <c r="W33" s="20"/>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
       <c r="AA33" s="20"/>
       <c r="AB33" s="20"/>
-      <c r="AC33" s="67"/>
+      <c r="AC33" s="61"/>
       <c r="AD33" s="19"/>
       <c r="AE33" s="19"/>
       <c r="AF33" s="19"/>
       <c r="AG33" s="19"/>
       <c r="AH33" s="19"/>
       <c r="AI33" s="19"/>
-      <c r="AJ33" s="60"/>
+      <c r="AJ33" s="53"/>
       <c r="AK33" s="19"/>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A34" s="52"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
       <c r="E34" s="2" t="s">
         <v>149</v>
       </c>
@@ -6799,28 +6799,28 @@
       <c r="S34" s="20"/>
       <c r="T34" s="20"/>
       <c r="U34" s="20"/>
-      <c r="V34" s="64"/>
+      <c r="V34" s="58"/>
       <c r="W34" s="20"/>
       <c r="X34" s="20"/>
       <c r="Y34" s="20"/>
       <c r="Z34" s="20"/>
       <c r="AA34" s="20"/>
       <c r="AB34" s="20"/>
-      <c r="AC34" s="67"/>
+      <c r="AC34" s="61"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="19"/>
       <c r="AG34" s="19"/>
       <c r="AH34" s="19"/>
       <c r="AI34" s="19"/>
-      <c r="AJ34" s="60"/>
+      <c r="AJ34" s="53"/>
       <c r="AK34" s="19"/>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A35" s="52"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
       <c r="E35" s="2" t="s">
         <v>110</v>
       </c>
@@ -6842,27 +6842,27 @@
       <c r="S35" s="20"/>
       <c r="T35" s="20"/>
       <c r="U35" s="20"/>
-      <c r="V35" s="64"/>
+      <c r="V35" s="58"/>
       <c r="W35" s="20"/>
       <c r="X35" s="20"/>
       <c r="Y35" s="20"/>
       <c r="Z35" s="20"/>
       <c r="AA35" s="20"/>
       <c r="AB35" s="20"/>
-      <c r="AC35" s="67"/>
+      <c r="AC35" s="61"/>
       <c r="AD35" s="19"/>
       <c r="AE35" s="19"/>
       <c r="AF35" s="19"/>
       <c r="AG35" s="19"/>
       <c r="AH35" s="19"/>
       <c r="AI35" s="19"/>
-      <c r="AJ35" s="60"/>
+      <c r="AJ35" s="53"/>
       <c r="AK35" s="19"/>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A36" s="52"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="53"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="55"/>
       <c r="D36" s="2" t="s">
         <v>24</v>
       </c>
@@ -6887,27 +6887,27 @@
       <c r="S36" s="20"/>
       <c r="T36" s="20"/>
       <c r="U36" s="20"/>
-      <c r="V36" s="64"/>
+      <c r="V36" s="58"/>
       <c r="W36" s="20"/>
       <c r="X36" s="20"/>
       <c r="Y36" s="20"/>
       <c r="Z36" s="20"/>
       <c r="AA36" s="20"/>
       <c r="AB36" s="20"/>
-      <c r="AC36" s="67"/>
+      <c r="AC36" s="61"/>
       <c r="AD36" s="19"/>
       <c r="AE36" s="19"/>
       <c r="AF36" s="19"/>
       <c r="AG36" s="19"/>
       <c r="AH36" s="19"/>
       <c r="AI36" s="19"/>
-      <c r="AJ36" s="60"/>
+      <c r="AJ36" s="53"/>
       <c r="AK36" s="19"/>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A37" s="52"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="53"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="55"/>
       <c r="D37" s="2" t="s">
         <v>152</v>
       </c>
@@ -6938,27 +6938,27 @@
       <c r="S37" s="20"/>
       <c r="T37" s="20"/>
       <c r="U37" s="20"/>
-      <c r="V37" s="64"/>
+      <c r="V37" s="58"/>
       <c r="W37" s="20"/>
       <c r="X37" s="20"/>
       <c r="Y37" s="20"/>
       <c r="Z37" s="20"/>
       <c r="AA37" s="20"/>
       <c r="AB37" s="20"/>
-      <c r="AC37" s="67"/>
+      <c r="AC37" s="61"/>
       <c r="AD37" s="19"/>
       <c r="AE37" s="19"/>
       <c r="AF37" s="19"/>
       <c r="AG37" s="19"/>
       <c r="AH37" s="19"/>
       <c r="AI37" s="19"/>
-      <c r="AJ37" s="60"/>
+      <c r="AJ37" s="53"/>
       <c r="AK37" s="19"/>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A38" s="52"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="53"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="55"/>
       <c r="D38" s="2" t="s">
         <v>101</v>
       </c>
@@ -6981,27 +6981,27 @@
       <c r="S38" s="20"/>
       <c r="T38" s="20"/>
       <c r="U38" s="20"/>
-      <c r="V38" s="64"/>
+      <c r="V38" s="58"/>
       <c r="W38" s="20"/>
       <c r="X38" s="20"/>
       <c r="Y38" s="20"/>
       <c r="Z38" s="20"/>
       <c r="AA38" s="20"/>
       <c r="AB38" s="20"/>
-      <c r="AC38" s="67"/>
+      <c r="AC38" s="61"/>
       <c r="AD38" s="19"/>
       <c r="AE38" s="19"/>
       <c r="AF38" s="19"/>
       <c r="AG38" s="19"/>
       <c r="AH38" s="19"/>
       <c r="AI38" s="19"/>
-      <c r="AJ38" s="60"/>
+      <c r="AJ38" s="53"/>
       <c r="AK38" s="19"/>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A39" s="52"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="53"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="55"/>
       <c r="D39" s="2" t="s">
         <v>23</v>
       </c>
@@ -7024,27 +7024,27 @@
       <c r="S39" s="20"/>
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
-      <c r="V39" s="64"/>
+      <c r="V39" s="58"/>
       <c r="W39" s="20"/>
       <c r="X39" s="20"/>
       <c r="Y39" s="20"/>
       <c r="Z39" s="20"/>
       <c r="AA39" s="20"/>
       <c r="AB39" s="20"/>
-      <c r="AC39" s="67"/>
+      <c r="AC39" s="61"/>
       <c r="AD39" s="19"/>
       <c r="AE39" s="19"/>
       <c r="AF39" s="19"/>
       <c r="AG39" s="19"/>
       <c r="AH39" s="19"/>
       <c r="AI39" s="19"/>
-      <c r="AJ39" s="60"/>
+      <c r="AJ39" s="53"/>
       <c r="AK39" s="19"/>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A40" s="52"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="53"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="55"/>
       <c r="D40" s="39" t="s">
         <v>27</v>
       </c>
@@ -7067,27 +7067,27 @@
       <c r="S40" s="20"/>
       <c r="T40" s="20"/>
       <c r="U40" s="20"/>
-      <c r="V40" s="64"/>
+      <c r="V40" s="58"/>
       <c r="W40" s="20"/>
       <c r="X40" s="20"/>
       <c r="Y40" s="20"/>
       <c r="Z40" s="20"/>
       <c r="AA40" s="20"/>
       <c r="AB40" s="20"/>
-      <c r="AC40" s="67"/>
+      <c r="AC40" s="61"/>
       <c r="AD40" s="19"/>
       <c r="AE40" s="19"/>
       <c r="AF40" s="19"/>
       <c r="AG40" s="19"/>
       <c r="AH40" s="19"/>
       <c r="AI40" s="19"/>
-      <c r="AJ40" s="60"/>
+      <c r="AJ40" s="53"/>
       <c r="AK40" s="19"/>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A41" s="52"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="53"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="55"/>
       <c r="D41" s="38" t="s">
         <v>45</v>
       </c>
@@ -7110,27 +7110,27 @@
       <c r="S41" s="20"/>
       <c r="T41" s="20"/>
       <c r="U41" s="20"/>
-      <c r="V41" s="64"/>
+      <c r="V41" s="58"/>
       <c r="W41" s="20"/>
       <c r="X41" s="20"/>
       <c r="Y41" s="20"/>
       <c r="Z41" s="20"/>
       <c r="AA41" s="20"/>
       <c r="AB41" s="20"/>
-      <c r="AC41" s="67"/>
+      <c r="AC41" s="61"/>
       <c r="AD41" s="19"/>
       <c r="AE41" s="19"/>
       <c r="AF41" s="19"/>
       <c r="AG41" s="19"/>
       <c r="AH41" s="19"/>
       <c r="AI41" s="19"/>
-      <c r="AJ41" s="60"/>
+      <c r="AJ41" s="53"/>
       <c r="AK41" s="19"/>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A42" s="52"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="53"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="55"/>
       <c r="D42" s="2" t="s">
         <v>26</v>
       </c>
@@ -7153,27 +7153,27 @@
       <c r="S42" s="20"/>
       <c r="T42" s="20"/>
       <c r="U42" s="20"/>
-      <c r="V42" s="64"/>
+      <c r="V42" s="58"/>
       <c r="W42" s="20"/>
       <c r="X42" s="20"/>
       <c r="Y42" s="20"/>
       <c r="Z42" s="20"/>
       <c r="AA42" s="20"/>
       <c r="AB42" s="20"/>
-      <c r="AC42" s="67"/>
+      <c r="AC42" s="61"/>
       <c r="AD42" s="19"/>
       <c r="AE42" s="19"/>
       <c r="AF42" s="19"/>
       <c r="AG42" s="19"/>
       <c r="AH42" s="19"/>
       <c r="AI42" s="19"/>
-      <c r="AJ42" s="60"/>
+      <c r="AJ42" s="53"/>
       <c r="AK42" s="19"/>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A43" s="52"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="53" t="s">
+      <c r="A43" s="63"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="55" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="40" t="s">
@@ -7198,27 +7198,27 @@
       <c r="S43" s="20"/>
       <c r="T43" s="20"/>
       <c r="U43" s="20"/>
-      <c r="V43" s="64"/>
+      <c r="V43" s="58"/>
       <c r="W43" s="20"/>
       <c r="X43" s="20"/>
       <c r="Y43" s="20"/>
       <c r="Z43" s="20"/>
       <c r="AA43" s="20"/>
       <c r="AB43" s="20"/>
-      <c r="AC43" s="67"/>
+      <c r="AC43" s="61"/>
       <c r="AD43" s="19"/>
       <c r="AE43" s="19"/>
       <c r="AF43" s="19"/>
       <c r="AG43" s="19"/>
       <c r="AH43" s="19"/>
       <c r="AI43" s="19"/>
-      <c r="AJ43" s="60"/>
+      <c r="AJ43" s="53"/>
       <c r="AK43" s="19"/>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A44" s="52"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="53"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="55"/>
       <c r="D44" s="2" t="s">
         <v>26</v>
       </c>
@@ -7241,27 +7241,27 @@
       <c r="S44" s="20"/>
       <c r="T44" s="20"/>
       <c r="U44" s="20"/>
-      <c r="V44" s="64"/>
+      <c r="V44" s="58"/>
       <c r="W44" s="20"/>
       <c r="X44" s="20"/>
       <c r="Y44" s="20"/>
       <c r="Z44" s="20"/>
       <c r="AA44" s="20"/>
       <c r="AB44" s="20"/>
-      <c r="AC44" s="67"/>
+      <c r="AC44" s="61"/>
       <c r="AD44" s="19"/>
       <c r="AE44" s="19"/>
       <c r="AF44" s="19"/>
       <c r="AG44" s="19"/>
       <c r="AH44" s="19"/>
       <c r="AI44" s="19"/>
-      <c r="AJ44" s="60"/>
+      <c r="AJ44" s="53"/>
       <c r="AK44" s="19"/>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A45" s="52"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="53" t="s">
+      <c r="A45" s="63"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="55" t="s">
         <v>43</v>
       </c>
       <c r="D45" s="38" t="s">
@@ -7286,27 +7286,27 @@
       <c r="S45" s="20"/>
       <c r="T45" s="20"/>
       <c r="U45" s="20"/>
-      <c r="V45" s="64"/>
+      <c r="V45" s="58"/>
       <c r="W45" s="20"/>
       <c r="X45" s="20"/>
       <c r="Y45" s="20"/>
       <c r="Z45" s="20"/>
       <c r="AA45" s="20"/>
       <c r="AB45" s="20"/>
-      <c r="AC45" s="67"/>
+      <c r="AC45" s="61"/>
       <c r="AD45" s="19"/>
       <c r="AE45" s="19"/>
       <c r="AF45" s="19"/>
       <c r="AG45" s="19"/>
       <c r="AH45" s="19"/>
       <c r="AI45" s="19"/>
-      <c r="AJ45" s="60"/>
+      <c r="AJ45" s="53"/>
       <c r="AK45" s="19"/>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A46" s="52"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="53"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="55"/>
       <c r="D46" s="2" t="s">
         <v>26</v>
       </c>
@@ -7329,27 +7329,27 @@
       <c r="S46" s="20"/>
       <c r="T46" s="20"/>
       <c r="U46" s="20"/>
-      <c r="V46" s="64"/>
+      <c r="V46" s="58"/>
       <c r="W46" s="20"/>
       <c r="X46" s="20"/>
       <c r="Y46" s="20"/>
       <c r="Z46" s="20"/>
       <c r="AA46" s="20"/>
       <c r="AB46" s="20"/>
-      <c r="AC46" s="67"/>
+      <c r="AC46" s="61"/>
       <c r="AD46" s="19"/>
       <c r="AE46" s="19"/>
       <c r="AF46" s="19"/>
       <c r="AG46" s="19"/>
       <c r="AH46" s="19"/>
       <c r="AI46" s="19"/>
-      <c r="AJ46" s="60"/>
+      <c r="AJ46" s="53"/>
       <c r="AK46" s="19"/>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A47" s="52"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="53"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="55"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="20"/>
@@ -7370,27 +7370,27 @@
       <c r="S47" s="20"/>
       <c r="T47" s="20"/>
       <c r="U47" s="20"/>
-      <c r="V47" s="64"/>
+      <c r="V47" s="58"/>
       <c r="W47" s="20"/>
       <c r="X47" s="20"/>
       <c r="Y47" s="20"/>
       <c r="Z47" s="20"/>
       <c r="AA47" s="20"/>
       <c r="AB47" s="20"/>
-      <c r="AC47" s="67"/>
+      <c r="AC47" s="61"/>
       <c r="AD47" s="19"/>
       <c r="AE47" s="19"/>
       <c r="AF47" s="19"/>
       <c r="AG47" s="19"/>
       <c r="AH47" s="19"/>
       <c r="AI47" s="19"/>
-      <c r="AJ47" s="60"/>
+      <c r="AJ47" s="53"/>
       <c r="AK47" s="19"/>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A48" s="52"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="53" t="s">
+      <c r="A48" s="63"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="55" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -7415,27 +7415,27 @@
       <c r="S48" s="20"/>
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
-      <c r="V48" s="64"/>
+      <c r="V48" s="58"/>
       <c r="W48" s="20"/>
       <c r="X48" s="20"/>
       <c r="Y48" s="20"/>
       <c r="Z48" s="20"/>
       <c r="AA48" s="20"/>
       <c r="AB48" s="20"/>
-      <c r="AC48" s="67"/>
+      <c r="AC48" s="61"/>
       <c r="AD48" s="19"/>
       <c r="AE48" s="19"/>
       <c r="AF48" s="19"/>
       <c r="AG48" s="19"/>
       <c r="AH48" s="19"/>
       <c r="AI48" s="19"/>
-      <c r="AJ48" s="60"/>
+      <c r="AJ48" s="53"/>
       <c r="AK48" s="19"/>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A49" s="52"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="53"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="55"/>
       <c r="D49" s="2" t="s">
         <v>36</v>
       </c>
@@ -7458,27 +7458,27 @@
       <c r="S49" s="20"/>
       <c r="T49" s="20"/>
       <c r="U49" s="20"/>
-      <c r="V49" s="64"/>
+      <c r="V49" s="58"/>
       <c r="W49" s="20"/>
       <c r="X49" s="20"/>
       <c r="Y49" s="20"/>
       <c r="Z49" s="20"/>
       <c r="AA49" s="20"/>
       <c r="AB49" s="20"/>
-      <c r="AC49" s="67"/>
+      <c r="AC49" s="61"/>
       <c r="AD49" s="19"/>
       <c r="AE49" s="19"/>
       <c r="AF49" s="19"/>
       <c r="AG49" s="19"/>
       <c r="AH49" s="19"/>
       <c r="AI49" s="19"/>
-      <c r="AJ49" s="60"/>
+      <c r="AJ49" s="53"/>
       <c r="AK49" s="19"/>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A50" s="52"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="53"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="55"/>
       <c r="D50" s="2" t="s">
         <v>37</v>
       </c>
@@ -7501,27 +7501,27 @@
       <c r="S50" s="20"/>
       <c r="T50" s="20"/>
       <c r="U50" s="20"/>
-      <c r="V50" s="64"/>
+      <c r="V50" s="58"/>
       <c r="W50" s="20"/>
       <c r="X50" s="20"/>
       <c r="Y50" s="20"/>
       <c r="Z50" s="20"/>
       <c r="AA50" s="20"/>
       <c r="AB50" s="20"/>
-      <c r="AC50" s="67"/>
+      <c r="AC50" s="61"/>
       <c r="AD50" s="19"/>
       <c r="AE50" s="19"/>
       <c r="AF50" s="19"/>
       <c r="AG50" s="19"/>
       <c r="AH50" s="19"/>
       <c r="AI50" s="19"/>
-      <c r="AJ50" s="60"/>
+      <c r="AJ50" s="53"/>
       <c r="AK50" s="19"/>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A51" s="52"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="53"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="55"/>
       <c r="D51" s="2" t="s">
         <v>38</v>
       </c>
@@ -7544,27 +7544,27 @@
       <c r="S51" s="20"/>
       <c r="T51" s="20"/>
       <c r="U51" s="20"/>
-      <c r="V51" s="64"/>
+      <c r="V51" s="58"/>
       <c r="W51" s="20"/>
       <c r="X51" s="20"/>
       <c r="Y51" s="20"/>
       <c r="Z51" s="20"/>
       <c r="AA51" s="20"/>
       <c r="AB51" s="20"/>
-      <c r="AC51" s="67"/>
+      <c r="AC51" s="61"/>
       <c r="AD51" s="19"/>
       <c r="AE51" s="19"/>
       <c r="AF51" s="19"/>
       <c r="AG51" s="19"/>
       <c r="AH51" s="19"/>
       <c r="AI51" s="19"/>
-      <c r="AJ51" s="60"/>
+      <c r="AJ51" s="53"/>
       <c r="AK51" s="19"/>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A52" s="52"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="53"/>
+      <c r="A52" s="63"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="55"/>
       <c r="D52" s="2" t="s">
         <v>33</v>
       </c>
@@ -7587,27 +7587,27 @@
       <c r="S52" s="20"/>
       <c r="T52" s="20"/>
       <c r="U52" s="20"/>
-      <c r="V52" s="64"/>
+      <c r="V52" s="58"/>
       <c r="W52" s="20"/>
       <c r="X52" s="20"/>
       <c r="Y52" s="20"/>
       <c r="Z52" s="20"/>
       <c r="AA52" s="20"/>
       <c r="AB52" s="20"/>
-      <c r="AC52" s="67"/>
+      <c r="AC52" s="61"/>
       <c r="AD52" s="19"/>
       <c r="AE52" s="19"/>
       <c r="AF52" s="19"/>
       <c r="AG52" s="19"/>
       <c r="AH52" s="19"/>
       <c r="AI52" s="19"/>
-      <c r="AJ52" s="60"/>
+      <c r="AJ52" s="53"/>
       <c r="AK52" s="19"/>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A53" s="52"/>
-      <c r="B53" s="62"/>
-      <c r="C53" s="53" t="s">
+      <c r="A53" s="63"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="55" t="s">
         <v>128</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -7623,7 +7623,7 @@
       </c>
       <c r="I53" s="35"/>
       <c r="J53" s="36">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="K53" s="30"/>
       <c r="L53" s="20"/>
@@ -7636,27 +7636,27 @@
       <c r="S53" s="20"/>
       <c r="T53" s="20"/>
       <c r="U53" s="20"/>
-      <c r="V53" s="64"/>
+      <c r="V53" s="58"/>
       <c r="W53" s="20"/>
       <c r="X53" s="20"/>
       <c r="Y53" s="20"/>
       <c r="Z53" s="20"/>
       <c r="AA53" s="20"/>
       <c r="AB53" s="20"/>
-      <c r="AC53" s="67"/>
+      <c r="AC53" s="61"/>
       <c r="AD53" s="19"/>
       <c r="AE53" s="19"/>
       <c r="AF53" s="19"/>
       <c r="AG53" s="19"/>
       <c r="AH53" s="19"/>
       <c r="AI53" s="19"/>
-      <c r="AJ53" s="60"/>
+      <c r="AJ53" s="53"/>
       <c r="AK53" s="19"/>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A54" s="52"/>
-      <c r="B54" s="62"/>
-      <c r="C54" s="53"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="55"/>
       <c r="D54" s="2" t="s">
         <v>159</v>
       </c>
@@ -7683,26 +7683,26 @@
       <c r="S54" s="20"/>
       <c r="T54" s="20"/>
       <c r="U54" s="20"/>
-      <c r="V54" s="64"/>
+      <c r="V54" s="58"/>
       <c r="W54" s="20"/>
       <c r="X54" s="20"/>
       <c r="Y54" s="20"/>
       <c r="Z54" s="20"/>
       <c r="AA54" s="20"/>
       <c r="AB54" s="20"/>
-      <c r="AC54" s="67"/>
+      <c r="AC54" s="61"/>
       <c r="AD54" s="19"/>
       <c r="AE54" s="19"/>
       <c r="AF54" s="19"/>
       <c r="AG54" s="19"/>
       <c r="AH54" s="19"/>
       <c r="AI54" s="19"/>
-      <c r="AJ54" s="60"/>
+      <c r="AJ54" s="53"/>
       <c r="AK54" s="19"/>
     </row>
     <row r="55" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="52"/>
-      <c r="B55" s="62"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="21" t="s">
         <v>76</v>
       </c>
@@ -7728,32 +7728,32 @@
       <c r="S55" s="21"/>
       <c r="T55" s="21"/>
       <c r="U55" s="21"/>
-      <c r="V55" s="64"/>
+      <c r="V55" s="58"/>
       <c r="W55" s="21"/>
       <c r="X55" s="21"/>
       <c r="Y55" s="21"/>
       <c r="Z55" s="21"/>
       <c r="AA55" s="21"/>
       <c r="AB55" s="21"/>
-      <c r="AC55" s="67"/>
+      <c r="AC55" s="61"/>
       <c r="AD55" s="19"/>
       <c r="AE55" s="19"/>
       <c r="AF55" s="19"/>
       <c r="AG55" s="19"/>
       <c r="AH55" s="19"/>
       <c r="AI55" s="19"/>
-      <c r="AJ55" s="60"/>
+      <c r="AJ55" s="53"/>
       <c r="AK55" s="19"/>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A56" s="52"/>
-      <c r="B56" s="55" t="s">
+      <c r="A56" s="63"/>
+      <c r="B56" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="53" t="s">
+      <c r="C56" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="D56" s="53" t="s">
+      <c r="D56" s="55" t="s">
         <v>29</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -7785,28 +7785,28 @@
       <c r="S56" s="20"/>
       <c r="T56" s="20"/>
       <c r="U56" s="20"/>
-      <c r="V56" s="64"/>
+      <c r="V56" s="58"/>
       <c r="W56" s="20"/>
       <c r="X56" s="20"/>
       <c r="Y56" s="20"/>
       <c r="Z56" s="20"/>
       <c r="AA56" s="20"/>
       <c r="AB56" s="20"/>
-      <c r="AC56" s="67"/>
+      <c r="AC56" s="61"/>
       <c r="AD56" s="19"/>
       <c r="AE56" s="19"/>
       <c r="AF56" s="19"/>
       <c r="AG56" s="19"/>
       <c r="AH56" s="19"/>
       <c r="AI56" s="19"/>
-      <c r="AJ56" s="60"/>
+      <c r="AJ56" s="53"/>
       <c r="AK56" s="19"/>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A57" s="52"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
+      <c r="A57" s="63"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
       <c r="E57" s="2" t="s">
         <v>137</v>
       </c>
@@ -7836,30 +7836,30 @@
       <c r="S57" s="20"/>
       <c r="T57" s="20"/>
       <c r="U57" s="20"/>
-      <c r="V57" s="64"/>
+      <c r="V57" s="58"/>
       <c r="W57" s="20"/>
       <c r="X57" s="20"/>
       <c r="Y57" s="20"/>
       <c r="Z57" s="20"/>
       <c r="AA57" s="20"/>
       <c r="AB57" s="20"/>
-      <c r="AC57" s="67"/>
+      <c r="AC57" s="61"/>
       <c r="AD57" s="19"/>
       <c r="AE57" s="19"/>
       <c r="AF57" s="19"/>
       <c r="AG57" s="19"/>
       <c r="AH57" s="19"/>
       <c r="AI57" s="19"/>
-      <c r="AJ57" s="60"/>
+      <c r="AJ57" s="53"/>
       <c r="AK57" s="19"/>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A58" s="52"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="53" t="s">
+      <c r="A58" s="63"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="53" t="s">
+      <c r="D58" s="55" t="s">
         <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -7885,28 +7885,28 @@
       <c r="S58" s="20"/>
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
-      <c r="V58" s="64"/>
+      <c r="V58" s="58"/>
       <c r="W58" s="20"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="20"/>
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
-      <c r="AC58" s="67"/>
+      <c r="AC58" s="61"/>
       <c r="AD58" s="19"/>
       <c r="AE58" s="19"/>
       <c r="AF58" s="19"/>
       <c r="AG58" s="19"/>
       <c r="AH58" s="19"/>
       <c r="AI58" s="19"/>
-      <c r="AJ58" s="60"/>
+      <c r="AJ58" s="53"/>
       <c r="AK58" s="19"/>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A59" s="52"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
+      <c r="A59" s="63"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
       <c r="E59" s="2" t="s">
         <v>154</v>
       </c>
@@ -7930,28 +7930,28 @@
       <c r="S59" s="20"/>
       <c r="T59" s="20"/>
       <c r="U59" s="20"/>
-      <c r="V59" s="64"/>
+      <c r="V59" s="58"/>
       <c r="W59" s="20"/>
       <c r="X59" s="20"/>
       <c r="Y59" s="20"/>
       <c r="Z59" s="20"/>
       <c r="AA59" s="20"/>
       <c r="AB59" s="20"/>
-      <c r="AC59" s="67"/>
+      <c r="AC59" s="61"/>
       <c r="AD59" s="19"/>
       <c r="AE59" s="19"/>
       <c r="AF59" s="19"/>
       <c r="AG59" s="19"/>
       <c r="AH59" s="19"/>
       <c r="AI59" s="19"/>
-      <c r="AJ59" s="60"/>
+      <c r="AJ59" s="53"/>
       <c r="AK59" s="19"/>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A60" s="52"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
+      <c r="A60" s="63"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
       <c r="E60" s="2" t="s">
         <v>155</v>
       </c>
@@ -7975,28 +7975,28 @@
       <c r="S60" s="20"/>
       <c r="T60" s="20"/>
       <c r="U60" s="20"/>
-      <c r="V60" s="64"/>
+      <c r="V60" s="58"/>
       <c r="W60" s="20"/>
       <c r="X60" s="20"/>
       <c r="Y60" s="20"/>
       <c r="Z60" s="20"/>
       <c r="AA60" s="20"/>
       <c r="AB60" s="20"/>
-      <c r="AC60" s="67"/>
+      <c r="AC60" s="61"/>
       <c r="AD60" s="19"/>
       <c r="AE60" s="19"/>
       <c r="AF60" s="19"/>
       <c r="AG60" s="19"/>
       <c r="AH60" s="19"/>
       <c r="AI60" s="19"/>
-      <c r="AJ60" s="60"/>
+      <c r="AJ60" s="53"/>
       <c r="AK60" s="19"/>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A61" s="52"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
+      <c r="A61" s="63"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
       <c r="E61" s="2" t="s">
         <v>114</v>
       </c>
@@ -8020,28 +8020,28 @@
       <c r="S61" s="20"/>
       <c r="T61" s="20"/>
       <c r="U61" s="20"/>
-      <c r="V61" s="64"/>
+      <c r="V61" s="58"/>
       <c r="W61" s="20"/>
       <c r="X61" s="20"/>
       <c r="Y61" s="20"/>
       <c r="Z61" s="20"/>
       <c r="AA61" s="20"/>
       <c r="AB61" s="20"/>
-      <c r="AC61" s="67"/>
+      <c r="AC61" s="61"/>
       <c r="AD61" s="19"/>
       <c r="AE61" s="19"/>
       <c r="AF61" s="19"/>
       <c r="AG61" s="19"/>
       <c r="AH61" s="19"/>
       <c r="AI61" s="19"/>
-      <c r="AJ61" s="60"/>
+      <c r="AJ61" s="53"/>
       <c r="AK61" s="19"/>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A62" s="52"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="53"/>
+      <c r="A62" s="63"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
       <c r="E62" s="2" t="s">
         <v>115</v>
       </c>
@@ -8065,28 +8065,28 @@
       <c r="S62" s="20"/>
       <c r="T62" s="20"/>
       <c r="U62" s="20"/>
-      <c r="V62" s="64"/>
+      <c r="V62" s="58"/>
       <c r="W62" s="20"/>
       <c r="X62" s="20"/>
       <c r="Y62" s="20"/>
       <c r="Z62" s="20"/>
       <c r="AA62" s="20"/>
       <c r="AB62" s="20"/>
-      <c r="AC62" s="67"/>
+      <c r="AC62" s="61"/>
       <c r="AD62" s="19"/>
       <c r="AE62" s="19"/>
       <c r="AF62" s="19"/>
       <c r="AG62" s="19"/>
       <c r="AH62" s="19"/>
       <c r="AI62" s="19"/>
-      <c r="AJ62" s="60"/>
+      <c r="AJ62" s="53"/>
       <c r="AK62" s="19"/>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A63" s="52"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="53" t="s">
+      <c r="A63" s="63"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55" t="s">
         <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -8112,28 +8112,28 @@
       <c r="S63" s="20"/>
       <c r="T63" s="20"/>
       <c r="U63" s="20"/>
-      <c r="V63" s="64"/>
+      <c r="V63" s="58"/>
       <c r="W63" s="20"/>
       <c r="X63" s="20"/>
       <c r="Y63" s="20"/>
       <c r="Z63" s="20"/>
       <c r="AA63" s="20"/>
       <c r="AB63" s="20"/>
-      <c r="AC63" s="67"/>
+      <c r="AC63" s="61"/>
       <c r="AD63" s="19"/>
       <c r="AE63" s="19"/>
       <c r="AF63" s="19"/>
       <c r="AG63" s="19"/>
       <c r="AH63" s="19"/>
       <c r="AI63" s="19"/>
-      <c r="AJ63" s="60"/>
+      <c r="AJ63" s="53"/>
       <c r="AK63" s="19"/>
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A64" s="52"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
+      <c r="A64" s="63"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
       <c r="E64" s="2" t="s">
         <v>109</v>
       </c>
@@ -8157,30 +8157,30 @@
       <c r="S64" s="20"/>
       <c r="T64" s="20"/>
       <c r="U64" s="20"/>
-      <c r="V64" s="64"/>
+      <c r="V64" s="58"/>
       <c r="W64" s="20"/>
       <c r="X64" s="20"/>
       <c r="Y64" s="20"/>
       <c r="Z64" s="20"/>
       <c r="AA64" s="20"/>
       <c r="AB64" s="20"/>
-      <c r="AC64" s="67"/>
+      <c r="AC64" s="61"/>
       <c r="AD64" s="19"/>
       <c r="AE64" s="19"/>
       <c r="AF64" s="19"/>
       <c r="AG64" s="19"/>
       <c r="AH64" s="19"/>
       <c r="AI64" s="19"/>
-      <c r="AJ64" s="60"/>
+      <c r="AJ64" s="53"/>
       <c r="AK64" s="19"/>
     </row>
     <row r="65" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="52"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="53" t="s">
+      <c r="A65" s="63"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="53" t="s">
+      <c r="D65" s="55" t="s">
         <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -8212,28 +8212,28 @@
       <c r="S65" s="20"/>
       <c r="T65" s="20"/>
       <c r="U65" s="20"/>
-      <c r="V65" s="64"/>
+      <c r="V65" s="58"/>
       <c r="W65" s="20"/>
       <c r="X65" s="20"/>
       <c r="Y65" s="20"/>
       <c r="Z65" s="20"/>
       <c r="AA65" s="20"/>
       <c r="AB65" s="20"/>
-      <c r="AC65" s="67"/>
+      <c r="AC65" s="61"/>
       <c r="AD65" s="19"/>
       <c r="AE65" s="19"/>
       <c r="AF65" s="19"/>
       <c r="AG65" s="19"/>
       <c r="AH65" s="19"/>
       <c r="AI65" s="19"/>
-      <c r="AJ65" s="60"/>
+      <c r="AJ65" s="53"/>
       <c r="AK65" s="19"/>
     </row>
     <row r="66" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="52"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="53"/>
+      <c r="A66" s="63"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
       <c r="E66" s="2" t="s">
         <v>137</v>
       </c>
@@ -8261,27 +8261,27 @@
       <c r="S66" s="20"/>
       <c r="T66" s="20"/>
       <c r="U66" s="20"/>
-      <c r="V66" s="64"/>
+      <c r="V66" s="58"/>
       <c r="W66" s="20"/>
       <c r="X66" s="20"/>
       <c r="Y66" s="20"/>
       <c r="Z66" s="20"/>
       <c r="AA66" s="20"/>
       <c r="AB66" s="20"/>
-      <c r="AC66" s="67"/>
+      <c r="AC66" s="61"/>
       <c r="AD66" s="19"/>
       <c r="AE66" s="19"/>
       <c r="AF66" s="19"/>
       <c r="AG66" s="19"/>
       <c r="AH66" s="19"/>
       <c r="AI66" s="19"/>
-      <c r="AJ66" s="60"/>
+      <c r="AJ66" s="53"/>
       <c r="AK66" s="19"/>
     </row>
     <row r="67" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="52"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="53"/>
+      <c r="A67" s="63"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="55"/>
       <c r="D67" s="2" t="s">
         <v>105</v>
       </c>
@@ -8304,26 +8304,26 @@
       <c r="S67" s="20"/>
       <c r="T67" s="20"/>
       <c r="U67" s="20"/>
-      <c r="V67" s="64"/>
+      <c r="V67" s="58"/>
       <c r="W67" s="20"/>
       <c r="X67" s="20"/>
       <c r="Y67" s="20"/>
       <c r="Z67" s="20"/>
       <c r="AA67" s="20"/>
       <c r="AB67" s="20"/>
-      <c r="AC67" s="67"/>
+      <c r="AC67" s="61"/>
       <c r="AD67" s="19"/>
       <c r="AE67" s="19"/>
       <c r="AF67" s="19"/>
       <c r="AG67" s="19"/>
       <c r="AH67" s="19"/>
       <c r="AI67" s="19"/>
-      <c r="AJ67" s="60"/>
+      <c r="AJ67" s="53"/>
       <c r="AK67" s="19"/>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A68" s="52"/>
-      <c r="B68" s="55"/>
+      <c r="A68" s="63"/>
+      <c r="B68" s="65"/>
       <c r="C68" s="20" t="s">
         <v>96</v>
       </c>
@@ -8347,26 +8347,26 @@
       <c r="S68" s="20"/>
       <c r="T68" s="20"/>
       <c r="U68" s="20"/>
-      <c r="V68" s="64"/>
+      <c r="V68" s="58"/>
       <c r="W68" s="20"/>
       <c r="X68" s="20"/>
       <c r="Y68" s="20"/>
       <c r="Z68" s="20"/>
       <c r="AA68" s="20"/>
       <c r="AB68" s="20"/>
-      <c r="AC68" s="67"/>
+      <c r="AC68" s="61"/>
       <c r="AD68" s="19"/>
       <c r="AE68" s="19"/>
       <c r="AF68" s="19"/>
       <c r="AG68" s="19"/>
       <c r="AH68" s="19"/>
       <c r="AI68" s="19"/>
-      <c r="AJ68" s="60"/>
+      <c r="AJ68" s="53"/>
       <c r="AK68" s="19"/>
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A69" s="52"/>
-      <c r="B69" s="55"/>
+      <c r="A69" s="63"/>
+      <c r="B69" s="65"/>
       <c r="C69" s="20" t="s">
         <v>24</v>
       </c>
@@ -8398,27 +8398,27 @@
       <c r="S69" s="20"/>
       <c r="T69" s="20"/>
       <c r="U69" s="20"/>
-      <c r="V69" s="64"/>
+      <c r="V69" s="58"/>
       <c r="W69" s="20"/>
       <c r="X69" s="20"/>
       <c r="Y69" s="20"/>
       <c r="Z69" s="20"/>
       <c r="AA69" s="20"/>
       <c r="AB69" s="20"/>
-      <c r="AC69" s="67"/>
+      <c r="AC69" s="61"/>
       <c r="AD69" s="19"/>
       <c r="AE69" s="19"/>
       <c r="AF69" s="19"/>
       <c r="AG69" s="19"/>
       <c r="AH69" s="19"/>
       <c r="AI69" s="19"/>
-      <c r="AJ69" s="60"/>
+      <c r="AJ69" s="53"/>
       <c r="AK69" s="19"/>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A70" s="52"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="53" t="s">
+      <c r="A70" s="63"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -8451,27 +8451,27 @@
       <c r="S70" s="20"/>
       <c r="T70" s="20"/>
       <c r="U70" s="20"/>
-      <c r="V70" s="64"/>
+      <c r="V70" s="58"/>
       <c r="W70" s="20"/>
       <c r="X70" s="20"/>
       <c r="Y70" s="20"/>
       <c r="Z70" s="20"/>
       <c r="AA70" s="20"/>
       <c r="AB70" s="20"/>
-      <c r="AC70" s="67"/>
+      <c r="AC70" s="61"/>
       <c r="AD70" s="19"/>
       <c r="AE70" s="19"/>
       <c r="AF70" s="19"/>
       <c r="AG70" s="19"/>
       <c r="AH70" s="19"/>
       <c r="AI70" s="19"/>
-      <c r="AJ70" s="60"/>
+      <c r="AJ70" s="53"/>
       <c r="AK70" s="19"/>
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A71" s="52"/>
-      <c r="B71" s="55"/>
-      <c r="C71" s="53"/>
+      <c r="A71" s="63"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="55"/>
       <c r="D71" s="2" t="s">
         <v>133</v>
       </c>
@@ -8502,27 +8502,27 @@
       <c r="S71" s="20"/>
       <c r="T71" s="20"/>
       <c r="U71" s="20"/>
-      <c r="V71" s="64"/>
+      <c r="V71" s="58"/>
       <c r="W71" s="20"/>
       <c r="X71" s="20"/>
       <c r="Y71" s="20"/>
       <c r="Z71" s="20"/>
       <c r="AA71" s="20"/>
       <c r="AB71" s="20"/>
-      <c r="AC71" s="67"/>
+      <c r="AC71" s="61"/>
       <c r="AD71" s="19"/>
       <c r="AE71" s="19"/>
       <c r="AF71" s="19"/>
       <c r="AG71" s="19"/>
       <c r="AH71" s="19"/>
       <c r="AI71" s="19"/>
-      <c r="AJ71" s="60"/>
+      <c r="AJ71" s="53"/>
       <c r="AK71" s="19"/>
     </row>
     <row r="72" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="52"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="56" t="s">
+      <c r="A72" s="63"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="66" t="s">
         <v>106</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -8555,27 +8555,27 @@
       <c r="S72" s="20"/>
       <c r="T72" s="20"/>
       <c r="U72" s="20"/>
-      <c r="V72" s="64"/>
+      <c r="V72" s="58"/>
       <c r="W72" s="20"/>
       <c r="X72" s="20"/>
       <c r="Y72" s="20"/>
       <c r="Z72" s="20"/>
       <c r="AA72" s="20"/>
       <c r="AB72" s="20"/>
-      <c r="AC72" s="67"/>
+      <c r="AC72" s="61"/>
       <c r="AD72" s="19"/>
       <c r="AE72" s="19"/>
       <c r="AF72" s="19"/>
       <c r="AG72" s="19"/>
       <c r="AH72" s="19"/>
       <c r="AI72" s="19"/>
-      <c r="AJ72" s="60"/>
+      <c r="AJ72" s="53"/>
       <c r="AK72" s="19"/>
     </row>
     <row r="73" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="52"/>
-      <c r="B73" s="55"/>
-      <c r="C73" s="57"/>
+      <c r="A73" s="63"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="67"/>
       <c r="D73" s="2" t="s">
         <v>164</v>
       </c>
@@ -8606,27 +8606,27 @@
       <c r="S73" s="20"/>
       <c r="T73" s="20"/>
       <c r="U73" s="20"/>
-      <c r="V73" s="64"/>
+      <c r="V73" s="58"/>
       <c r="W73" s="20"/>
       <c r="X73" s="20"/>
       <c r="Y73" s="20"/>
       <c r="Z73" s="20"/>
       <c r="AA73" s="20"/>
       <c r="AB73" s="20"/>
-      <c r="AC73" s="67"/>
+      <c r="AC73" s="61"/>
       <c r="AD73" s="19"/>
       <c r="AE73" s="19"/>
       <c r="AF73" s="19"/>
       <c r="AG73" s="19"/>
       <c r="AH73" s="19"/>
       <c r="AI73" s="19"/>
-      <c r="AJ73" s="60"/>
+      <c r="AJ73" s="53"/>
       <c r="AK73" s="19"/>
     </row>
     <row r="74" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="52"/>
-      <c r="B74" s="55"/>
-      <c r="C74" s="58"/>
+      <c r="A74" s="63"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="68"/>
       <c r="D74" s="2" t="s">
         <v>165</v>
       </c>
@@ -8657,27 +8657,27 @@
       <c r="S74" s="37"/>
       <c r="T74" s="37"/>
       <c r="U74" s="37"/>
-      <c r="V74" s="64"/>
+      <c r="V74" s="58"/>
       <c r="W74" s="37"/>
       <c r="X74" s="37"/>
       <c r="Y74" s="37"/>
       <c r="Z74" s="37"/>
       <c r="AA74" s="37"/>
       <c r="AB74" s="37"/>
-      <c r="AC74" s="67"/>
+      <c r="AC74" s="61"/>
       <c r="AD74" s="19"/>
       <c r="AE74" s="19"/>
       <c r="AF74" s="19"/>
       <c r="AG74" s="19"/>
       <c r="AH74" s="19"/>
       <c r="AI74" s="19"/>
-      <c r="AJ74" s="60"/>
+      <c r="AJ74" s="53"/>
       <c r="AK74" s="19"/>
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A75" s="52"/>
-      <c r="B75" s="55"/>
-      <c r="C75" s="53" t="s">
+      <c r="A75" s="63"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="55" t="s">
         <v>30</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -8710,27 +8710,27 @@
       <c r="S75" s="20"/>
       <c r="T75" s="20"/>
       <c r="U75" s="20"/>
-      <c r="V75" s="64"/>
+      <c r="V75" s="58"/>
       <c r="W75" s="20"/>
       <c r="X75" s="20"/>
       <c r="Y75" s="20"/>
       <c r="Z75" s="20"/>
       <c r="AA75" s="20"/>
       <c r="AB75" s="20"/>
-      <c r="AC75" s="67"/>
+      <c r="AC75" s="61"/>
       <c r="AD75" s="19"/>
       <c r="AE75" s="19"/>
       <c r="AF75" s="19"/>
       <c r="AG75" s="19"/>
       <c r="AH75" s="19"/>
       <c r="AI75" s="19"/>
-      <c r="AJ75" s="60"/>
+      <c r="AJ75" s="53"/>
       <c r="AK75" s="19"/>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A76" s="52"/>
-      <c r="B76" s="55"/>
-      <c r="C76" s="53"/>
+      <c r="A76" s="63"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="55"/>
       <c r="D76" s="2" t="s">
         <v>32</v>
       </c>
@@ -8753,27 +8753,27 @@
       <c r="S76" s="20"/>
       <c r="T76" s="20"/>
       <c r="U76" s="20"/>
-      <c r="V76" s="64"/>
+      <c r="V76" s="58"/>
       <c r="W76" s="20"/>
       <c r="X76" s="20"/>
       <c r="Y76" s="20"/>
       <c r="Z76" s="20"/>
       <c r="AA76" s="20"/>
       <c r="AB76" s="20"/>
-      <c r="AC76" s="67"/>
+      <c r="AC76" s="61"/>
       <c r="AD76" s="19"/>
       <c r="AE76" s="19"/>
       <c r="AF76" s="19"/>
       <c r="AG76" s="19"/>
       <c r="AH76" s="19"/>
       <c r="AI76" s="19"/>
-      <c r="AJ76" s="60"/>
+      <c r="AJ76" s="53"/>
       <c r="AK76" s="19"/>
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A77" s="52"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="53"/>
+      <c r="A77" s="63"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="55"/>
       <c r="D77" s="2" t="s">
         <v>33</v>
       </c>
@@ -8796,25 +8796,25 @@
       <c r="S77" s="20"/>
       <c r="T77" s="20"/>
       <c r="U77" s="20"/>
-      <c r="V77" s="65"/>
+      <c r="V77" s="59"/>
       <c r="W77" s="20"/>
       <c r="X77" s="20"/>
       <c r="Y77" s="20"/>
       <c r="Z77" s="20"/>
       <c r="AA77" s="20"/>
       <c r="AB77" s="20"/>
-      <c r="AC77" s="68"/>
+      <c r="AC77" s="62"/>
       <c r="AD77" s="19"/>
       <c r="AE77" s="19"/>
       <c r="AF77" s="19"/>
       <c r="AG77" s="19"/>
       <c r="AH77" s="19"/>
       <c r="AI77" s="19"/>
-      <c r="AJ77" s="61"/>
+      <c r="AJ77" s="54"/>
       <c r="AK77" s="19"/>
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A78" s="52"/>
+      <c r="A78" s="63"/>
       <c r="B78" s="44" t="s">
         <v>21</v>
       </c>
@@ -8835,6 +8835,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A5:A78"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B56:B77"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C74"/>
     <mergeCell ref="AJ5:AJ77"/>
     <mergeCell ref="C18:C42"/>
     <mergeCell ref="B11:B55"/>
@@ -8851,18 +8863,6 @@
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="D65:D66"/>
     <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A5:A78"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B56:B77"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C72:C74"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K3:AK5 AK6:AK77 W6:AB77 AD6:AI77 K6:U77">

--- a/schedule/ガントチャートxlsx.xlsx
+++ b/schedule/ガントチャートxlsx.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\okashi_222\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GSP023\Desktop\okashi_222\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="180">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -1267,6 +1267,30 @@
     <t>1日</t>
     <rPh sb="1" eb="2">
       <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>筒井</t>
+    <rPh sb="0" eb="2">
+      <t>ツツイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾の発射</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5100,11 +5124,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AS78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K16" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6593,9 +6617,15 @@
       <c r="E30" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="35"/>
+      <c r="F30" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="H30" s="35">
+        <v>44130</v>
+      </c>
       <c r="I30" s="35"/>
       <c r="J30" s="36">
         <v>0</v>
@@ -6784,9 +6814,11 @@
       <c r="H34" s="35">
         <v>44126</v>
       </c>
-      <c r="I34" s="35"/>
+      <c r="I34" s="35">
+        <v>44126</v>
+      </c>
       <c r="J34" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="30"/>
       <c r="L34" s="20"/>
@@ -6923,9 +6955,11 @@
       <c r="H37" s="35">
         <v>44126</v>
       </c>
-      <c r="I37" s="35"/>
+      <c r="I37" s="35">
+        <v>44126</v>
+      </c>
       <c r="J37" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="30"/>
       <c r="L37" s="20"/>
@@ -8931,7 +8965,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -9009,7 +9045,9 @@
       <c r="K7" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="L7" s="13"/>
+      <c r="L7" s="13" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="8" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
       <c r="B8" s="69"/>
@@ -9446,7 +9484,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>

--- a/schedule/ガントチャートxlsx.xlsx
+++ b/schedule/ガントチャートxlsx.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GSP023\Desktop\okashi_222\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\Git\okashi_222\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -1995,27 +1995,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2024,6 +2003,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2045,6 +2027,24 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5124,11 +5124,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AS78"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="10" ySplit="4" topLeftCell="K47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5413,10 +5413,10 @@
       </c>
     </row>
     <row r="5" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="64" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -5452,7 +5452,7 @@
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
-      <c r="V5" s="63" t="s">
+      <c r="V5" s="57" t="s">
         <v>117</v>
       </c>
       <c r="W5" s="19"/>
@@ -5461,7 +5461,7 @@
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
       <c r="AB5" s="19"/>
-      <c r="AC5" s="66" t="s">
+      <c r="AC5" s="60" t="s">
         <v>118</v>
       </c>
       <c r="AD5" s="19"/>
@@ -5470,14 +5470,14 @@
       <c r="AG5" s="19"/>
       <c r="AH5" s="19"/>
       <c r="AI5" s="19"/>
-      <c r="AJ5" s="59" t="s">
+      <c r="AJ5" s="52" t="s">
         <v>94</v>
       </c>
       <c r="AK5" s="19"/>
     </row>
     <row r="6" spans="1:45" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="52"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="64"/>
       <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
@@ -5507,26 +5507,26 @@
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
-      <c r="V6" s="64"/>
+      <c r="V6" s="58"/>
       <c r="W6" s="20"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20"/>
-      <c r="AC6" s="67"/>
+      <c r="AC6" s="61"/>
       <c r="AD6" s="19"/>
       <c r="AE6" s="19"/>
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="19"/>
-      <c r="AJ6" s="60"/>
+      <c r="AJ6" s="53"/>
       <c r="AK6" s="19"/>
     </row>
     <row r="7" spans="1:45" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="52"/>
-      <c r="B7" s="54"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="64"/>
       <c r="C7" s="20" t="s">
         <v>10</v>
       </c>
@@ -5554,26 +5554,26 @@
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
-      <c r="V7" s="64"/>
+      <c r="V7" s="58"/>
       <c r="W7" s="20"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20"/>
-      <c r="AC7" s="67"/>
+      <c r="AC7" s="61"/>
       <c r="AD7" s="19"/>
       <c r="AE7" s="19"/>
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
       <c r="AI7" s="19"/>
-      <c r="AJ7" s="60"/>
+      <c r="AJ7" s="53"/>
       <c r="AK7" s="19"/>
     </row>
     <row r="8" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="52"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="64"/>
       <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
@@ -5601,26 +5601,26 @@
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
-      <c r="V8" s="64"/>
+      <c r="V8" s="58"/>
       <c r="W8" s="20"/>
       <c r="X8" s="20"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
-      <c r="AC8" s="67"/>
+      <c r="AC8" s="61"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
       <c r="AH8" s="19"/>
       <c r="AI8" s="19"/>
-      <c r="AJ8" s="60"/>
+      <c r="AJ8" s="53"/>
       <c r="AK8" s="19"/>
     </row>
     <row r="9" spans="1:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="52"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="64"/>
       <c r="C9" s="20" t="s">
         <v>34</v>
       </c>
@@ -5648,26 +5648,26 @@
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
-      <c r="V9" s="64"/>
+      <c r="V9" s="58"/>
       <c r="W9" s="20"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20"/>
-      <c r="AC9" s="67"/>
+      <c r="AC9" s="61"/>
       <c r="AD9" s="19"/>
       <c r="AE9" s="19"/>
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
       <c r="AI9" s="19"/>
-      <c r="AJ9" s="60"/>
+      <c r="AJ9" s="53"/>
       <c r="AK9" s="19"/>
     </row>
     <row r="10" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="52"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="64"/>
       <c r="C10" s="20" t="s">
         <v>35</v>
       </c>
@@ -5693,29 +5693,29 @@
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
-      <c r="V10" s="64"/>
+      <c r="V10" s="58"/>
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20"/>
-      <c r="AC10" s="67"/>
+      <c r="AC10" s="61"/>
       <c r="AD10" s="19"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="19"/>
-      <c r="AJ10" s="60"/>
+      <c r="AJ10" s="53"/>
       <c r="AK10" s="19"/>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A11" s="52"/>
-      <c r="B11" s="62" t="s">
+      <c r="A11" s="63"/>
+      <c r="B11" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="55" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -5740,27 +5740,27 @@
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
-      <c r="V11" s="64"/>
+      <c r="V11" s="58"/>
       <c r="W11" s="20"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20"/>
-      <c r="AC11" s="67"/>
+      <c r="AC11" s="61"/>
       <c r="AD11" s="19"/>
       <c r="AE11" s="19"/>
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
       <c r="AI11" s="19"/>
-      <c r="AJ11" s="60"/>
+      <c r="AJ11" s="53"/>
       <c r="AK11" s="19"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A12" s="52"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="53"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
@@ -5783,27 +5783,27 @@
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
-      <c r="V12" s="64"/>
+      <c r="V12" s="58"/>
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20"/>
-      <c r="AC12" s="67"/>
+      <c r="AC12" s="61"/>
       <c r="AD12" s="19"/>
       <c r="AE12" s="19"/>
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="19"/>
-      <c r="AJ12" s="60"/>
+      <c r="AJ12" s="53"/>
       <c r="AK12" s="19"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A13" s="52"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="53"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="38" t="s">
         <v>45</v>
       </c>
@@ -5826,27 +5826,27 @@
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
-      <c r="V13" s="64"/>
+      <c r="V13" s="58"/>
       <c r="W13" s="20"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20"/>
-      <c r="AC13" s="67"/>
+      <c r="AC13" s="61"/>
       <c r="AD13" s="19"/>
       <c r="AE13" s="19"/>
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
-      <c r="AJ13" s="60"/>
+      <c r="AJ13" s="53"/>
       <c r="AK13" s="19"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A14" s="52"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="53"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="39" t="s">
         <v>27</v>
       </c>
@@ -5869,27 +5869,27 @@
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
-      <c r="V14" s="64"/>
+      <c r="V14" s="58"/>
       <c r="W14" s="20"/>
       <c r="X14" s="20"/>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20"/>
-      <c r="AC14" s="67"/>
+      <c r="AC14" s="61"/>
       <c r="AD14" s="19"/>
       <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
       <c r="AI14" s="19"/>
-      <c r="AJ14" s="60"/>
+      <c r="AJ14" s="53"/>
       <c r="AK14" s="19"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A15" s="52"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="53" t="s">
+      <c r="A15" s="63"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -5916,27 +5916,27 @@
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
-      <c r="V15" s="64"/>
+      <c r="V15" s="58"/>
       <c r="W15" s="20"/>
       <c r="X15" s="20"/>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
-      <c r="AC15" s="67"/>
+      <c r="AC15" s="61"/>
       <c r="AD15" s="19"/>
       <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
       <c r="AI15" s="19"/>
-      <c r="AJ15" s="60"/>
+      <c r="AJ15" s="53"/>
       <c r="AK15" s="19"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A16" s="52"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="53"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="40" t="s">
         <v>45</v>
       </c>
@@ -5959,27 +5959,27 @@
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
-      <c r="V16" s="64"/>
+      <c r="V16" s="58"/>
       <c r="W16" s="20"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
-      <c r="AC16" s="67"/>
+      <c r="AC16" s="61"/>
       <c r="AD16" s="19"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="19"/>
-      <c r="AJ16" s="60"/>
+      <c r="AJ16" s="53"/>
       <c r="AK16" s="19"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A17" s="52"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="53"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
@@ -6002,30 +6002,30 @@
       <c r="S17" s="20"/>
       <c r="T17" s="20"/>
       <c r="U17" s="20"/>
-      <c r="V17" s="64"/>
+      <c r="V17" s="58"/>
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
-      <c r="AC17" s="67"/>
+      <c r="AC17" s="61"/>
       <c r="AD17" s="19"/>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="19"/>
       <c r="AI17" s="19"/>
-      <c r="AJ17" s="60"/>
+      <c r="AJ17" s="53"/>
       <c r="AK17" s="19"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A18" s="52"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="53" t="s">
+      <c r="A18" s="63"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="55" t="s">
         <v>102</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -6055,28 +6055,28 @@
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
-      <c r="V18" s="64"/>
+      <c r="V18" s="58"/>
       <c r="W18" s="20"/>
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
-      <c r="AC18" s="67"/>
+      <c r="AC18" s="61"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="19"/>
       <c r="AI18" s="19"/>
-      <c r="AJ18" s="60"/>
+      <c r="AJ18" s="53"/>
       <c r="AK18" s="19"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A19" s="52"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
       <c r="E19" s="2" t="s">
         <v>146</v>
       </c>
@@ -6106,28 +6106,28 @@
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
-      <c r="V19" s="64"/>
+      <c r="V19" s="58"/>
       <c r="W19" s="20"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
-      <c r="AC19" s="67"/>
+      <c r="AC19" s="61"/>
       <c r="AD19" s="19"/>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
       <c r="AI19" s="19"/>
-      <c r="AJ19" s="60"/>
+      <c r="AJ19" s="53"/>
       <c r="AK19" s="19"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A20" s="52"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="2" t="s">
         <v>119</v>
       </c>
@@ -6157,28 +6157,28 @@
       <c r="S20" s="20"/>
       <c r="T20" s="20"/>
       <c r="U20" s="20"/>
-      <c r="V20" s="64"/>
+      <c r="V20" s="58"/>
       <c r="W20" s="20"/>
       <c r="X20" s="20"/>
       <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
-      <c r="AC20" s="67"/>
+      <c r="AC20" s="61"/>
       <c r="AD20" s="19"/>
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="19"/>
       <c r="AI20" s="19"/>
-      <c r="AJ20" s="60"/>
+      <c r="AJ20" s="53"/>
       <c r="AK20" s="19"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A21" s="52"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="2" t="s">
         <v>115</v>
       </c>
@@ -6200,28 +6200,28 @@
       <c r="S21" s="20"/>
       <c r="T21" s="20"/>
       <c r="U21" s="20"/>
-      <c r="V21" s="64"/>
+      <c r="V21" s="58"/>
       <c r="W21" s="20"/>
       <c r="X21" s="20"/>
       <c r="Y21" s="20"/>
       <c r="Z21" s="20"/>
       <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
-      <c r="AC21" s="67"/>
+      <c r="AC21" s="61"/>
       <c r="AD21" s="19"/>
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
       <c r="AI21" s="19"/>
-      <c r="AJ21" s="60"/>
+      <c r="AJ21" s="53"/>
       <c r="AK21" s="19"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A22" s="52"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="2" t="s">
         <v>143</v>
       </c>
@@ -6251,28 +6251,28 @@
       <c r="S22" s="20"/>
       <c r="T22" s="20"/>
       <c r="U22" s="20"/>
-      <c r="V22" s="64"/>
+      <c r="V22" s="58"/>
       <c r="W22" s="20"/>
       <c r="X22" s="20"/>
       <c r="Y22" s="20"/>
       <c r="Z22" s="20"/>
       <c r="AA22" s="20"/>
       <c r="AB22" s="20"/>
-      <c r="AC22" s="67"/>
+      <c r="AC22" s="61"/>
       <c r="AD22" s="19"/>
       <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="19"/>
       <c r="AI22" s="19"/>
-      <c r="AJ22" s="60"/>
+      <c r="AJ22" s="53"/>
       <c r="AK22" s="19"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A23" s="52"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="2" t="s">
         <v>125</v>
       </c>
@@ -6302,28 +6302,28 @@
       <c r="S23" s="20"/>
       <c r="T23" s="20"/>
       <c r="U23" s="20"/>
-      <c r="V23" s="64"/>
+      <c r="V23" s="58"/>
       <c r="W23" s="20"/>
       <c r="X23" s="20"/>
       <c r="Y23" s="20"/>
       <c r="Z23" s="20"/>
       <c r="AA23" s="20"/>
       <c r="AB23" s="20"/>
-      <c r="AC23" s="67"/>
+      <c r="AC23" s="61"/>
       <c r="AD23" s="19"/>
       <c r="AE23" s="19"/>
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="19"/>
       <c r="AI23" s="19"/>
-      <c r="AJ23" s="60"/>
+      <c r="AJ23" s="53"/>
       <c r="AK23" s="19"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A24" s="52"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="2" t="s">
         <v>116</v>
       </c>
@@ -6345,28 +6345,28 @@
       <c r="S24" s="20"/>
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
-      <c r="V24" s="64"/>
+      <c r="V24" s="58"/>
       <c r="W24" s="20"/>
       <c r="X24" s="20"/>
       <c r="Y24" s="20"/>
       <c r="Z24" s="20"/>
       <c r="AA24" s="20"/>
       <c r="AB24" s="20"/>
-      <c r="AC24" s="67"/>
+      <c r="AC24" s="61"/>
       <c r="AD24" s="19"/>
       <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="19"/>
       <c r="AI24" s="19"/>
-      <c r="AJ24" s="60"/>
+      <c r="AJ24" s="53"/>
       <c r="AK24" s="19"/>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A25" s="52"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="2" t="s">
         <v>175</v>
       </c>
@@ -6392,28 +6392,28 @@
       <c r="S25" s="50"/>
       <c r="T25" s="50"/>
       <c r="U25" s="50"/>
-      <c r="V25" s="64"/>
+      <c r="V25" s="58"/>
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="50"/>
       <c r="Z25" s="50"/>
       <c r="AA25" s="50"/>
       <c r="AB25" s="50"/>
-      <c r="AC25" s="67"/>
+      <c r="AC25" s="61"/>
       <c r="AD25" s="51"/>
       <c r="AE25" s="51"/>
       <c r="AF25" s="51"/>
       <c r="AG25" s="51"/>
       <c r="AH25" s="51"/>
       <c r="AI25" s="51"/>
-      <c r="AJ25" s="60"/>
+      <c r="AJ25" s="53"/>
       <c r="AK25" s="51"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A26" s="52"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="2" t="s">
         <v>113</v>
       </c>
@@ -6443,28 +6443,28 @@
       <c r="S26" s="20"/>
       <c r="T26" s="20"/>
       <c r="U26" s="20"/>
-      <c r="V26" s="64"/>
+      <c r="V26" s="58"/>
       <c r="W26" s="20"/>
       <c r="X26" s="20"/>
       <c r="Y26" s="20"/>
       <c r="Z26" s="20"/>
       <c r="AA26" s="20"/>
       <c r="AB26" s="20"/>
-      <c r="AC26" s="67"/>
+      <c r="AC26" s="61"/>
       <c r="AD26" s="19"/>
       <c r="AE26" s="19"/>
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
       <c r="AH26" s="19"/>
       <c r="AI26" s="19"/>
-      <c r="AJ26" s="60"/>
+      <c r="AJ26" s="53"/>
       <c r="AK26" s="19"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A27" s="52"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="2" t="s">
         <v>109</v>
       </c>
@@ -6486,28 +6486,28 @@
       <c r="S27" s="20"/>
       <c r="T27" s="20"/>
       <c r="U27" s="20"/>
-      <c r="V27" s="64"/>
+      <c r="V27" s="58"/>
       <c r="W27" s="20"/>
       <c r="X27" s="20"/>
       <c r="Y27" s="20"/>
       <c r="Z27" s="20"/>
       <c r="AA27" s="20"/>
       <c r="AB27" s="20"/>
-      <c r="AC27" s="67"/>
+      <c r="AC27" s="61"/>
       <c r="AD27" s="19"/>
       <c r="AE27" s="19"/>
       <c r="AF27" s="19"/>
       <c r="AG27" s="19"/>
       <c r="AH27" s="19"/>
       <c r="AI27" s="19"/>
-      <c r="AJ27" s="60"/>
+      <c r="AJ27" s="53"/>
       <c r="AK27" s="19"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A28" s="52"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53" t="s">
+      <c r="A28" s="63"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -6539,28 +6539,28 @@
       <c r="S28" s="20"/>
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
-      <c r="V28" s="64"/>
+      <c r="V28" s="58"/>
       <c r="W28" s="20"/>
       <c r="X28" s="20"/>
       <c r="Y28" s="20"/>
       <c r="Z28" s="20"/>
       <c r="AA28" s="20"/>
       <c r="AB28" s="20"/>
-      <c r="AC28" s="67"/>
+      <c r="AC28" s="61"/>
       <c r="AD28" s="19"/>
       <c r="AE28" s="19"/>
       <c r="AF28" s="19"/>
       <c r="AG28" s="19"/>
       <c r="AH28" s="19"/>
       <c r="AI28" s="19"/>
-      <c r="AJ28" s="60"/>
+      <c r="AJ28" s="53"/>
       <c r="AK28" s="19"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A29" s="52"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="2" t="s">
         <v>126</v>
       </c>
@@ -6590,28 +6590,28 @@
       <c r="S29" s="20"/>
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
-      <c r="V29" s="64"/>
+      <c r="V29" s="58"/>
       <c r="W29" s="20"/>
       <c r="X29" s="20"/>
       <c r="Y29" s="20"/>
       <c r="Z29" s="20"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="20"/>
-      <c r="AC29" s="67"/>
+      <c r="AC29" s="61"/>
       <c r="AD29" s="19"/>
       <c r="AE29" s="19"/>
       <c r="AF29" s="19"/>
       <c r="AG29" s="19"/>
       <c r="AH29" s="19"/>
       <c r="AI29" s="19"/>
-      <c r="AJ29" s="60"/>
+      <c r="AJ29" s="53"/>
       <c r="AK29" s="19"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A30" s="52"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53" t="s">
+      <c r="A30" s="63"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -6641,28 +6641,28 @@
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
       <c r="U30" s="20"/>
-      <c r="V30" s="64"/>
+      <c r="V30" s="58"/>
       <c r="W30" s="20"/>
       <c r="X30" s="20"/>
       <c r="Y30" s="20"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
-      <c r="AC30" s="67"/>
+      <c r="AC30" s="61"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="19"/>
       <c r="AF30" s="19"/>
       <c r="AG30" s="19"/>
       <c r="AH30" s="19"/>
       <c r="AI30" s="19"/>
-      <c r="AJ30" s="60"/>
+      <c r="AJ30" s="53"/>
       <c r="AK30" s="19"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A31" s="52"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="2" t="s">
         <v>151</v>
       </c>
@@ -6684,28 +6684,28 @@
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
-      <c r="V31" s="64"/>
+      <c r="V31" s="58"/>
       <c r="W31" s="20"/>
       <c r="X31" s="20"/>
       <c r="Y31" s="20"/>
       <c r="Z31" s="20"/>
       <c r="AA31" s="20"/>
       <c r="AB31" s="20"/>
-      <c r="AC31" s="67"/>
+      <c r="AC31" s="61"/>
       <c r="AD31" s="19"/>
       <c r="AE31" s="19"/>
       <c r="AF31" s="19"/>
       <c r="AG31" s="19"/>
       <c r="AH31" s="19"/>
       <c r="AI31" s="19"/>
-      <c r="AJ31" s="60"/>
+      <c r="AJ31" s="53"/>
       <c r="AK31" s="19"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A32" s="52"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="2" t="s">
         <v>120</v>
       </c>
@@ -6735,28 +6735,28 @@
       <c r="S32" s="20"/>
       <c r="T32" s="20"/>
       <c r="U32" s="20"/>
-      <c r="V32" s="64"/>
+      <c r="V32" s="58"/>
       <c r="W32" s="20"/>
       <c r="X32" s="20"/>
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
       <c r="AA32" s="20"/>
       <c r="AB32" s="20"/>
-      <c r="AC32" s="67"/>
+      <c r="AC32" s="61"/>
       <c r="AD32" s="19"/>
       <c r="AE32" s="19"/>
       <c r="AF32" s="19"/>
       <c r="AG32" s="19"/>
       <c r="AH32" s="19"/>
       <c r="AI32" s="19"/>
-      <c r="AJ32" s="60"/>
+      <c r="AJ32" s="53"/>
       <c r="AK32" s="19"/>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A33" s="52"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53" t="s">
+      <c r="A33" s="63"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55" t="s">
         <v>97</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -6780,28 +6780,28 @@
       <c r="S33" s="20"/>
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
-      <c r="V33" s="64"/>
+      <c r="V33" s="58"/>
       <c r="W33" s="20"/>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
       <c r="AA33" s="20"/>
       <c r="AB33" s="20"/>
-      <c r="AC33" s="67"/>
+      <c r="AC33" s="61"/>
       <c r="AD33" s="19"/>
       <c r="AE33" s="19"/>
       <c r="AF33" s="19"/>
       <c r="AG33" s="19"/>
       <c r="AH33" s="19"/>
       <c r="AI33" s="19"/>
-      <c r="AJ33" s="60"/>
+      <c r="AJ33" s="53"/>
       <c r="AK33" s="19"/>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A34" s="52"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
       <c r="E34" s="2" t="s">
         <v>149</v>
       </c>
@@ -6831,28 +6831,28 @@
       <c r="S34" s="20"/>
       <c r="T34" s="20"/>
       <c r="U34" s="20"/>
-      <c r="V34" s="64"/>
+      <c r="V34" s="58"/>
       <c r="W34" s="20"/>
       <c r="X34" s="20"/>
       <c r="Y34" s="20"/>
       <c r="Z34" s="20"/>
       <c r="AA34" s="20"/>
       <c r="AB34" s="20"/>
-      <c r="AC34" s="67"/>
+      <c r="AC34" s="61"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="19"/>
       <c r="AG34" s="19"/>
       <c r="AH34" s="19"/>
       <c r="AI34" s="19"/>
-      <c r="AJ34" s="60"/>
+      <c r="AJ34" s="53"/>
       <c r="AK34" s="19"/>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A35" s="52"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
       <c r="E35" s="2" t="s">
         <v>110</v>
       </c>
@@ -6874,27 +6874,27 @@
       <c r="S35" s="20"/>
       <c r="T35" s="20"/>
       <c r="U35" s="20"/>
-      <c r="V35" s="64"/>
+      <c r="V35" s="58"/>
       <c r="W35" s="20"/>
       <c r="X35" s="20"/>
       <c r="Y35" s="20"/>
       <c r="Z35" s="20"/>
       <c r="AA35" s="20"/>
       <c r="AB35" s="20"/>
-      <c r="AC35" s="67"/>
+      <c r="AC35" s="61"/>
       <c r="AD35" s="19"/>
       <c r="AE35" s="19"/>
       <c r="AF35" s="19"/>
       <c r="AG35" s="19"/>
       <c r="AH35" s="19"/>
       <c r="AI35" s="19"/>
-      <c r="AJ35" s="60"/>
+      <c r="AJ35" s="53"/>
       <c r="AK35" s="19"/>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A36" s="52"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="53"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="55"/>
       <c r="D36" s="2" t="s">
         <v>24</v>
       </c>
@@ -6919,27 +6919,27 @@
       <c r="S36" s="20"/>
       <c r="T36" s="20"/>
       <c r="U36" s="20"/>
-      <c r="V36" s="64"/>
+      <c r="V36" s="58"/>
       <c r="W36" s="20"/>
       <c r="X36" s="20"/>
       <c r="Y36" s="20"/>
       <c r="Z36" s="20"/>
       <c r="AA36" s="20"/>
       <c r="AB36" s="20"/>
-      <c r="AC36" s="67"/>
+      <c r="AC36" s="61"/>
       <c r="AD36" s="19"/>
       <c r="AE36" s="19"/>
       <c r="AF36" s="19"/>
       <c r="AG36" s="19"/>
       <c r="AH36" s="19"/>
       <c r="AI36" s="19"/>
-      <c r="AJ36" s="60"/>
+      <c r="AJ36" s="53"/>
       <c r="AK36" s="19"/>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A37" s="52"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="53"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="55"/>
       <c r="D37" s="2" t="s">
         <v>152</v>
       </c>
@@ -6972,27 +6972,27 @@
       <c r="S37" s="20"/>
       <c r="T37" s="20"/>
       <c r="U37" s="20"/>
-      <c r="V37" s="64"/>
+      <c r="V37" s="58"/>
       <c r="W37" s="20"/>
       <c r="X37" s="20"/>
       <c r="Y37" s="20"/>
       <c r="Z37" s="20"/>
       <c r="AA37" s="20"/>
       <c r="AB37" s="20"/>
-      <c r="AC37" s="67"/>
+      <c r="AC37" s="61"/>
       <c r="AD37" s="19"/>
       <c r="AE37" s="19"/>
       <c r="AF37" s="19"/>
       <c r="AG37" s="19"/>
       <c r="AH37" s="19"/>
       <c r="AI37" s="19"/>
-      <c r="AJ37" s="60"/>
+      <c r="AJ37" s="53"/>
       <c r="AK37" s="19"/>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A38" s="52"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="53"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="55"/>
       <c r="D38" s="2" t="s">
         <v>101</v>
       </c>
@@ -7015,27 +7015,27 @@
       <c r="S38" s="20"/>
       <c r="T38" s="20"/>
       <c r="U38" s="20"/>
-      <c r="V38" s="64"/>
+      <c r="V38" s="58"/>
       <c r="W38" s="20"/>
       <c r="X38" s="20"/>
       <c r="Y38" s="20"/>
       <c r="Z38" s="20"/>
       <c r="AA38" s="20"/>
       <c r="AB38" s="20"/>
-      <c r="AC38" s="67"/>
+      <c r="AC38" s="61"/>
       <c r="AD38" s="19"/>
       <c r="AE38" s="19"/>
       <c r="AF38" s="19"/>
       <c r="AG38" s="19"/>
       <c r="AH38" s="19"/>
       <c r="AI38" s="19"/>
-      <c r="AJ38" s="60"/>
+      <c r="AJ38" s="53"/>
       <c r="AK38" s="19"/>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A39" s="52"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="53"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="55"/>
       <c r="D39" s="2" t="s">
         <v>23</v>
       </c>
@@ -7058,27 +7058,27 @@
       <c r="S39" s="20"/>
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
-      <c r="V39" s="64"/>
+      <c r="V39" s="58"/>
       <c r="W39" s="20"/>
       <c r="X39" s="20"/>
       <c r="Y39" s="20"/>
       <c r="Z39" s="20"/>
       <c r="AA39" s="20"/>
       <c r="AB39" s="20"/>
-      <c r="AC39" s="67"/>
+      <c r="AC39" s="61"/>
       <c r="AD39" s="19"/>
       <c r="AE39" s="19"/>
       <c r="AF39" s="19"/>
       <c r="AG39" s="19"/>
       <c r="AH39" s="19"/>
       <c r="AI39" s="19"/>
-      <c r="AJ39" s="60"/>
+      <c r="AJ39" s="53"/>
       <c r="AK39" s="19"/>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A40" s="52"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="53"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="55"/>
       <c r="D40" s="39" t="s">
         <v>27</v>
       </c>
@@ -7101,27 +7101,27 @@
       <c r="S40" s="20"/>
       <c r="T40" s="20"/>
       <c r="U40" s="20"/>
-      <c r="V40" s="64"/>
+      <c r="V40" s="58"/>
       <c r="W40" s="20"/>
       <c r="X40" s="20"/>
       <c r="Y40" s="20"/>
       <c r="Z40" s="20"/>
       <c r="AA40" s="20"/>
       <c r="AB40" s="20"/>
-      <c r="AC40" s="67"/>
+      <c r="AC40" s="61"/>
       <c r="AD40" s="19"/>
       <c r="AE40" s="19"/>
       <c r="AF40" s="19"/>
       <c r="AG40" s="19"/>
       <c r="AH40" s="19"/>
       <c r="AI40" s="19"/>
-      <c r="AJ40" s="60"/>
+      <c r="AJ40" s="53"/>
       <c r="AK40" s="19"/>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A41" s="52"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="53"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="55"/>
       <c r="D41" s="38" t="s">
         <v>45</v>
       </c>
@@ -7144,27 +7144,27 @@
       <c r="S41" s="20"/>
       <c r="T41" s="20"/>
       <c r="U41" s="20"/>
-      <c r="V41" s="64"/>
+      <c r="V41" s="58"/>
       <c r="W41" s="20"/>
       <c r="X41" s="20"/>
       <c r="Y41" s="20"/>
       <c r="Z41" s="20"/>
       <c r="AA41" s="20"/>
       <c r="AB41" s="20"/>
-      <c r="AC41" s="67"/>
+      <c r="AC41" s="61"/>
       <c r="AD41" s="19"/>
       <c r="AE41" s="19"/>
       <c r="AF41" s="19"/>
       <c r="AG41" s="19"/>
       <c r="AH41" s="19"/>
       <c r="AI41" s="19"/>
-      <c r="AJ41" s="60"/>
+      <c r="AJ41" s="53"/>
       <c r="AK41" s="19"/>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A42" s="52"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="53"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="55"/>
       <c r="D42" s="2" t="s">
         <v>26</v>
       </c>
@@ -7187,27 +7187,27 @@
       <c r="S42" s="20"/>
       <c r="T42" s="20"/>
       <c r="U42" s="20"/>
-      <c r="V42" s="64"/>
+      <c r="V42" s="58"/>
       <c r="W42" s="20"/>
       <c r="X42" s="20"/>
       <c r="Y42" s="20"/>
       <c r="Z42" s="20"/>
       <c r="AA42" s="20"/>
       <c r="AB42" s="20"/>
-      <c r="AC42" s="67"/>
+      <c r="AC42" s="61"/>
       <c r="AD42" s="19"/>
       <c r="AE42" s="19"/>
       <c r="AF42" s="19"/>
       <c r="AG42" s="19"/>
       <c r="AH42" s="19"/>
       <c r="AI42" s="19"/>
-      <c r="AJ42" s="60"/>
+      <c r="AJ42" s="53"/>
       <c r="AK42" s="19"/>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A43" s="52"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="53" t="s">
+      <c r="A43" s="63"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="55" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="40" t="s">
@@ -7232,27 +7232,27 @@
       <c r="S43" s="20"/>
       <c r="T43" s="20"/>
       <c r="U43" s="20"/>
-      <c r="V43" s="64"/>
+      <c r="V43" s="58"/>
       <c r="W43" s="20"/>
       <c r="X43" s="20"/>
       <c r="Y43" s="20"/>
       <c r="Z43" s="20"/>
       <c r="AA43" s="20"/>
       <c r="AB43" s="20"/>
-      <c r="AC43" s="67"/>
+      <c r="AC43" s="61"/>
       <c r="AD43" s="19"/>
       <c r="AE43" s="19"/>
       <c r="AF43" s="19"/>
       <c r="AG43" s="19"/>
       <c r="AH43" s="19"/>
       <c r="AI43" s="19"/>
-      <c r="AJ43" s="60"/>
+      <c r="AJ43" s="53"/>
       <c r="AK43" s="19"/>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A44" s="52"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="53"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="55"/>
       <c r="D44" s="2" t="s">
         <v>26</v>
       </c>
@@ -7275,27 +7275,27 @@
       <c r="S44" s="20"/>
       <c r="T44" s="20"/>
       <c r="U44" s="20"/>
-      <c r="V44" s="64"/>
+      <c r="V44" s="58"/>
       <c r="W44" s="20"/>
       <c r="X44" s="20"/>
       <c r="Y44" s="20"/>
       <c r="Z44" s="20"/>
       <c r="AA44" s="20"/>
       <c r="AB44" s="20"/>
-      <c r="AC44" s="67"/>
+      <c r="AC44" s="61"/>
       <c r="AD44" s="19"/>
       <c r="AE44" s="19"/>
       <c r="AF44" s="19"/>
       <c r="AG44" s="19"/>
       <c r="AH44" s="19"/>
       <c r="AI44" s="19"/>
-      <c r="AJ44" s="60"/>
+      <c r="AJ44" s="53"/>
       <c r="AK44" s="19"/>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A45" s="52"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="53" t="s">
+      <c r="A45" s="63"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="55" t="s">
         <v>43</v>
       </c>
       <c r="D45" s="38" t="s">
@@ -7320,27 +7320,27 @@
       <c r="S45" s="20"/>
       <c r="T45" s="20"/>
       <c r="U45" s="20"/>
-      <c r="V45" s="64"/>
+      <c r="V45" s="58"/>
       <c r="W45" s="20"/>
       <c r="X45" s="20"/>
       <c r="Y45" s="20"/>
       <c r="Z45" s="20"/>
       <c r="AA45" s="20"/>
       <c r="AB45" s="20"/>
-      <c r="AC45" s="67"/>
+      <c r="AC45" s="61"/>
       <c r="AD45" s="19"/>
       <c r="AE45" s="19"/>
       <c r="AF45" s="19"/>
       <c r="AG45" s="19"/>
       <c r="AH45" s="19"/>
       <c r="AI45" s="19"/>
-      <c r="AJ45" s="60"/>
+      <c r="AJ45" s="53"/>
       <c r="AK45" s="19"/>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A46" s="52"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="53"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="55"/>
       <c r="D46" s="2" t="s">
         <v>26</v>
       </c>
@@ -7363,27 +7363,27 @@
       <c r="S46" s="20"/>
       <c r="T46" s="20"/>
       <c r="U46" s="20"/>
-      <c r="V46" s="64"/>
+      <c r="V46" s="58"/>
       <c r="W46" s="20"/>
       <c r="X46" s="20"/>
       <c r="Y46" s="20"/>
       <c r="Z46" s="20"/>
       <c r="AA46" s="20"/>
       <c r="AB46" s="20"/>
-      <c r="AC46" s="67"/>
+      <c r="AC46" s="61"/>
       <c r="AD46" s="19"/>
       <c r="AE46" s="19"/>
       <c r="AF46" s="19"/>
       <c r="AG46" s="19"/>
       <c r="AH46" s="19"/>
       <c r="AI46" s="19"/>
-      <c r="AJ46" s="60"/>
+      <c r="AJ46" s="53"/>
       <c r="AK46" s="19"/>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A47" s="52"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="53"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="56"/>
+      <c r="C47" s="55"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="20"/>
@@ -7404,27 +7404,27 @@
       <c r="S47" s="20"/>
       <c r="T47" s="20"/>
       <c r="U47" s="20"/>
-      <c r="V47" s="64"/>
+      <c r="V47" s="58"/>
       <c r="W47" s="20"/>
       <c r="X47" s="20"/>
       <c r="Y47" s="20"/>
       <c r="Z47" s="20"/>
       <c r="AA47" s="20"/>
       <c r="AB47" s="20"/>
-      <c r="AC47" s="67"/>
+      <c r="AC47" s="61"/>
       <c r="AD47" s="19"/>
       <c r="AE47" s="19"/>
       <c r="AF47" s="19"/>
       <c r="AG47" s="19"/>
       <c r="AH47" s="19"/>
       <c r="AI47" s="19"/>
-      <c r="AJ47" s="60"/>
+      <c r="AJ47" s="53"/>
       <c r="AK47" s="19"/>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A48" s="52"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="53" t="s">
+      <c r="A48" s="63"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="55" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -7449,27 +7449,27 @@
       <c r="S48" s="20"/>
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
-      <c r="V48" s="64"/>
+      <c r="V48" s="58"/>
       <c r="W48" s="20"/>
       <c r="X48" s="20"/>
       <c r="Y48" s="20"/>
       <c r="Z48" s="20"/>
       <c r="AA48" s="20"/>
       <c r="AB48" s="20"/>
-      <c r="AC48" s="67"/>
+      <c r="AC48" s="61"/>
       <c r="AD48" s="19"/>
       <c r="AE48" s="19"/>
       <c r="AF48" s="19"/>
       <c r="AG48" s="19"/>
       <c r="AH48" s="19"/>
       <c r="AI48" s="19"/>
-      <c r="AJ48" s="60"/>
+      <c r="AJ48" s="53"/>
       <c r="AK48" s="19"/>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A49" s="52"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="53"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="55"/>
       <c r="D49" s="2" t="s">
         <v>36</v>
       </c>
@@ -7492,27 +7492,27 @@
       <c r="S49" s="20"/>
       <c r="T49" s="20"/>
       <c r="U49" s="20"/>
-      <c r="V49" s="64"/>
+      <c r="V49" s="58"/>
       <c r="W49" s="20"/>
       <c r="X49" s="20"/>
       <c r="Y49" s="20"/>
       <c r="Z49" s="20"/>
       <c r="AA49" s="20"/>
       <c r="AB49" s="20"/>
-      <c r="AC49" s="67"/>
+      <c r="AC49" s="61"/>
       <c r="AD49" s="19"/>
       <c r="AE49" s="19"/>
       <c r="AF49" s="19"/>
       <c r="AG49" s="19"/>
       <c r="AH49" s="19"/>
       <c r="AI49" s="19"/>
-      <c r="AJ49" s="60"/>
+      <c r="AJ49" s="53"/>
       <c r="AK49" s="19"/>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A50" s="52"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="53"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="55"/>
       <c r="D50" s="2" t="s">
         <v>37</v>
       </c>
@@ -7535,27 +7535,27 @@
       <c r="S50" s="20"/>
       <c r="T50" s="20"/>
       <c r="U50" s="20"/>
-      <c r="V50" s="64"/>
+      <c r="V50" s="58"/>
       <c r="W50" s="20"/>
       <c r="X50" s="20"/>
       <c r="Y50" s="20"/>
       <c r="Z50" s="20"/>
       <c r="AA50" s="20"/>
       <c r="AB50" s="20"/>
-      <c r="AC50" s="67"/>
+      <c r="AC50" s="61"/>
       <c r="AD50" s="19"/>
       <c r="AE50" s="19"/>
       <c r="AF50" s="19"/>
       <c r="AG50" s="19"/>
       <c r="AH50" s="19"/>
       <c r="AI50" s="19"/>
-      <c r="AJ50" s="60"/>
+      <c r="AJ50" s="53"/>
       <c r="AK50" s="19"/>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A51" s="52"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="53"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="55"/>
       <c r="D51" s="2" t="s">
         <v>38</v>
       </c>
@@ -7578,27 +7578,27 @@
       <c r="S51" s="20"/>
       <c r="T51" s="20"/>
       <c r="U51" s="20"/>
-      <c r="V51" s="64"/>
+      <c r="V51" s="58"/>
       <c r="W51" s="20"/>
       <c r="X51" s="20"/>
       <c r="Y51" s="20"/>
       <c r="Z51" s="20"/>
       <c r="AA51" s="20"/>
       <c r="AB51" s="20"/>
-      <c r="AC51" s="67"/>
+      <c r="AC51" s="61"/>
       <c r="AD51" s="19"/>
       <c r="AE51" s="19"/>
       <c r="AF51" s="19"/>
       <c r="AG51" s="19"/>
       <c r="AH51" s="19"/>
       <c r="AI51" s="19"/>
-      <c r="AJ51" s="60"/>
+      <c r="AJ51" s="53"/>
       <c r="AK51" s="19"/>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A52" s="52"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="53"/>
+      <c r="A52" s="63"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="55"/>
       <c r="D52" s="2" t="s">
         <v>33</v>
       </c>
@@ -7621,27 +7621,27 @@
       <c r="S52" s="20"/>
       <c r="T52" s="20"/>
       <c r="U52" s="20"/>
-      <c r="V52" s="64"/>
+      <c r="V52" s="58"/>
       <c r="W52" s="20"/>
       <c r="X52" s="20"/>
       <c r="Y52" s="20"/>
       <c r="Z52" s="20"/>
       <c r="AA52" s="20"/>
       <c r="AB52" s="20"/>
-      <c r="AC52" s="67"/>
+      <c r="AC52" s="61"/>
       <c r="AD52" s="19"/>
       <c r="AE52" s="19"/>
       <c r="AF52" s="19"/>
       <c r="AG52" s="19"/>
       <c r="AH52" s="19"/>
       <c r="AI52" s="19"/>
-      <c r="AJ52" s="60"/>
+      <c r="AJ52" s="53"/>
       <c r="AK52" s="19"/>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A53" s="52"/>
-      <c r="B53" s="62"/>
-      <c r="C53" s="53" t="s">
+      <c r="A53" s="63"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="55" t="s">
         <v>128</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -7657,7 +7657,7 @@
       </c>
       <c r="I53" s="35"/>
       <c r="J53" s="36">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="K53" s="30"/>
       <c r="L53" s="20"/>
@@ -7670,27 +7670,27 @@
       <c r="S53" s="20"/>
       <c r="T53" s="20"/>
       <c r="U53" s="20"/>
-      <c r="V53" s="64"/>
+      <c r="V53" s="58"/>
       <c r="W53" s="20"/>
       <c r="X53" s="20"/>
       <c r="Y53" s="20"/>
       <c r="Z53" s="20"/>
       <c r="AA53" s="20"/>
       <c r="AB53" s="20"/>
-      <c r="AC53" s="67"/>
+      <c r="AC53" s="61"/>
       <c r="AD53" s="19"/>
       <c r="AE53" s="19"/>
       <c r="AF53" s="19"/>
       <c r="AG53" s="19"/>
       <c r="AH53" s="19"/>
       <c r="AI53" s="19"/>
-      <c r="AJ53" s="60"/>
+      <c r="AJ53" s="53"/>
       <c r="AK53" s="19"/>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A54" s="52"/>
-      <c r="B54" s="62"/>
-      <c r="C54" s="53"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="55"/>
       <c r="D54" s="2" t="s">
         <v>159</v>
       </c>
@@ -7717,26 +7717,26 @@
       <c r="S54" s="20"/>
       <c r="T54" s="20"/>
       <c r="U54" s="20"/>
-      <c r="V54" s="64"/>
+      <c r="V54" s="58"/>
       <c r="W54" s="20"/>
       <c r="X54" s="20"/>
       <c r="Y54" s="20"/>
       <c r="Z54" s="20"/>
       <c r="AA54" s="20"/>
       <c r="AB54" s="20"/>
-      <c r="AC54" s="67"/>
+      <c r="AC54" s="61"/>
       <c r="AD54" s="19"/>
       <c r="AE54" s="19"/>
       <c r="AF54" s="19"/>
       <c r="AG54" s="19"/>
       <c r="AH54" s="19"/>
       <c r="AI54" s="19"/>
-      <c r="AJ54" s="60"/>
+      <c r="AJ54" s="53"/>
       <c r="AK54" s="19"/>
     </row>
     <row r="55" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="52"/>
-      <c r="B55" s="62"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="56"/>
       <c r="C55" s="21" t="s">
         <v>76</v>
       </c>
@@ -7762,32 +7762,32 @@
       <c r="S55" s="21"/>
       <c r="T55" s="21"/>
       <c r="U55" s="21"/>
-      <c r="V55" s="64"/>
+      <c r="V55" s="58"/>
       <c r="W55" s="21"/>
       <c r="X55" s="21"/>
       <c r="Y55" s="21"/>
       <c r="Z55" s="21"/>
       <c r="AA55" s="21"/>
       <c r="AB55" s="21"/>
-      <c r="AC55" s="67"/>
+      <c r="AC55" s="61"/>
       <c r="AD55" s="19"/>
       <c r="AE55" s="19"/>
       <c r="AF55" s="19"/>
       <c r="AG55" s="19"/>
       <c r="AH55" s="19"/>
       <c r="AI55" s="19"/>
-      <c r="AJ55" s="60"/>
+      <c r="AJ55" s="53"/>
       <c r="AK55" s="19"/>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A56" s="52"/>
-      <c r="B56" s="55" t="s">
+      <c r="A56" s="63"/>
+      <c r="B56" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="53" t="s">
+      <c r="C56" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="D56" s="53" t="s">
+      <c r="D56" s="55" t="s">
         <v>29</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -7819,28 +7819,28 @@
       <c r="S56" s="20"/>
       <c r="T56" s="20"/>
       <c r="U56" s="20"/>
-      <c r="V56" s="64"/>
+      <c r="V56" s="58"/>
       <c r="W56" s="20"/>
       <c r="X56" s="20"/>
       <c r="Y56" s="20"/>
       <c r="Z56" s="20"/>
       <c r="AA56" s="20"/>
       <c r="AB56" s="20"/>
-      <c r="AC56" s="67"/>
+      <c r="AC56" s="61"/>
       <c r="AD56" s="19"/>
       <c r="AE56" s="19"/>
       <c r="AF56" s="19"/>
       <c r="AG56" s="19"/>
       <c r="AH56" s="19"/>
       <c r="AI56" s="19"/>
-      <c r="AJ56" s="60"/>
+      <c r="AJ56" s="53"/>
       <c r="AK56" s="19"/>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A57" s="52"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
+      <c r="A57" s="63"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
       <c r="E57" s="2" t="s">
         <v>137</v>
       </c>
@@ -7870,30 +7870,30 @@
       <c r="S57" s="20"/>
       <c r="T57" s="20"/>
       <c r="U57" s="20"/>
-      <c r="V57" s="64"/>
+      <c r="V57" s="58"/>
       <c r="W57" s="20"/>
       <c r="X57" s="20"/>
       <c r="Y57" s="20"/>
       <c r="Z57" s="20"/>
       <c r="AA57" s="20"/>
       <c r="AB57" s="20"/>
-      <c r="AC57" s="67"/>
+      <c r="AC57" s="61"/>
       <c r="AD57" s="19"/>
       <c r="AE57" s="19"/>
       <c r="AF57" s="19"/>
       <c r="AG57" s="19"/>
       <c r="AH57" s="19"/>
       <c r="AI57" s="19"/>
-      <c r="AJ57" s="60"/>
+      <c r="AJ57" s="53"/>
       <c r="AK57" s="19"/>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A58" s="52"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="53" t="s">
+      <c r="A58" s="63"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="53" t="s">
+      <c r="D58" s="55" t="s">
         <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -7919,28 +7919,28 @@
       <c r="S58" s="20"/>
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
-      <c r="V58" s="64"/>
+      <c r="V58" s="58"/>
       <c r="W58" s="20"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="20"/>
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
-      <c r="AC58" s="67"/>
+      <c r="AC58" s="61"/>
       <c r="AD58" s="19"/>
       <c r="AE58" s="19"/>
       <c r="AF58" s="19"/>
       <c r="AG58" s="19"/>
       <c r="AH58" s="19"/>
       <c r="AI58" s="19"/>
-      <c r="AJ58" s="60"/>
+      <c r="AJ58" s="53"/>
       <c r="AK58" s="19"/>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A59" s="52"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
+      <c r="A59" s="63"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="55"/>
+      <c r="D59" s="55"/>
       <c r="E59" s="2" t="s">
         <v>154</v>
       </c>
@@ -7964,28 +7964,28 @@
       <c r="S59" s="20"/>
       <c r="T59" s="20"/>
       <c r="U59" s="20"/>
-      <c r="V59" s="64"/>
+      <c r="V59" s="58"/>
       <c r="W59" s="20"/>
       <c r="X59" s="20"/>
       <c r="Y59" s="20"/>
       <c r="Z59" s="20"/>
       <c r="AA59" s="20"/>
       <c r="AB59" s="20"/>
-      <c r="AC59" s="67"/>
+      <c r="AC59" s="61"/>
       <c r="AD59" s="19"/>
       <c r="AE59" s="19"/>
       <c r="AF59" s="19"/>
       <c r="AG59" s="19"/>
       <c r="AH59" s="19"/>
       <c r="AI59" s="19"/>
-      <c r="AJ59" s="60"/>
+      <c r="AJ59" s="53"/>
       <c r="AK59" s="19"/>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A60" s="52"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
+      <c r="A60" s="63"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
       <c r="E60" s="2" t="s">
         <v>155</v>
       </c>
@@ -8009,28 +8009,28 @@
       <c r="S60" s="20"/>
       <c r="T60" s="20"/>
       <c r="U60" s="20"/>
-      <c r="V60" s="64"/>
+      <c r="V60" s="58"/>
       <c r="W60" s="20"/>
       <c r="X60" s="20"/>
       <c r="Y60" s="20"/>
       <c r="Z60" s="20"/>
       <c r="AA60" s="20"/>
       <c r="AB60" s="20"/>
-      <c r="AC60" s="67"/>
+      <c r="AC60" s="61"/>
       <c r="AD60" s="19"/>
       <c r="AE60" s="19"/>
       <c r="AF60" s="19"/>
       <c r="AG60" s="19"/>
       <c r="AH60" s="19"/>
       <c r="AI60" s="19"/>
-      <c r="AJ60" s="60"/>
+      <c r="AJ60" s="53"/>
       <c r="AK60" s="19"/>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A61" s="52"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
+      <c r="A61" s="63"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
       <c r="E61" s="2" t="s">
         <v>114</v>
       </c>
@@ -8054,28 +8054,28 @@
       <c r="S61" s="20"/>
       <c r="T61" s="20"/>
       <c r="U61" s="20"/>
-      <c r="V61" s="64"/>
+      <c r="V61" s="58"/>
       <c r="W61" s="20"/>
       <c r="X61" s="20"/>
       <c r="Y61" s="20"/>
       <c r="Z61" s="20"/>
       <c r="AA61" s="20"/>
       <c r="AB61" s="20"/>
-      <c r="AC61" s="67"/>
+      <c r="AC61" s="61"/>
       <c r="AD61" s="19"/>
       <c r="AE61" s="19"/>
       <c r="AF61" s="19"/>
       <c r="AG61" s="19"/>
       <c r="AH61" s="19"/>
       <c r="AI61" s="19"/>
-      <c r="AJ61" s="60"/>
+      <c r="AJ61" s="53"/>
       <c r="AK61" s="19"/>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A62" s="52"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="53"/>
+      <c r="A62" s="63"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
       <c r="E62" s="2" t="s">
         <v>115</v>
       </c>
@@ -8099,28 +8099,28 @@
       <c r="S62" s="20"/>
       <c r="T62" s="20"/>
       <c r="U62" s="20"/>
-      <c r="V62" s="64"/>
+      <c r="V62" s="58"/>
       <c r="W62" s="20"/>
       <c r="X62" s="20"/>
       <c r="Y62" s="20"/>
       <c r="Z62" s="20"/>
       <c r="AA62" s="20"/>
       <c r="AB62" s="20"/>
-      <c r="AC62" s="67"/>
+      <c r="AC62" s="61"/>
       <c r="AD62" s="19"/>
       <c r="AE62" s="19"/>
       <c r="AF62" s="19"/>
       <c r="AG62" s="19"/>
       <c r="AH62" s="19"/>
       <c r="AI62" s="19"/>
-      <c r="AJ62" s="60"/>
+      <c r="AJ62" s="53"/>
       <c r="AK62" s="19"/>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A63" s="52"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="53" t="s">
+      <c r="A63" s="63"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55" t="s">
         <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -8146,28 +8146,28 @@
       <c r="S63" s="20"/>
       <c r="T63" s="20"/>
       <c r="U63" s="20"/>
-      <c r="V63" s="64"/>
+      <c r="V63" s="58"/>
       <c r="W63" s="20"/>
       <c r="X63" s="20"/>
       <c r="Y63" s="20"/>
       <c r="Z63" s="20"/>
       <c r="AA63" s="20"/>
       <c r="AB63" s="20"/>
-      <c r="AC63" s="67"/>
+      <c r="AC63" s="61"/>
       <c r="AD63" s="19"/>
       <c r="AE63" s="19"/>
       <c r="AF63" s="19"/>
       <c r="AG63" s="19"/>
       <c r="AH63" s="19"/>
       <c r="AI63" s="19"/>
-      <c r="AJ63" s="60"/>
+      <c r="AJ63" s="53"/>
       <c r="AK63" s="19"/>
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A64" s="52"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
+      <c r="A64" s="63"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
       <c r="E64" s="2" t="s">
         <v>109</v>
       </c>
@@ -8191,30 +8191,30 @@
       <c r="S64" s="20"/>
       <c r="T64" s="20"/>
       <c r="U64" s="20"/>
-      <c r="V64" s="64"/>
+      <c r="V64" s="58"/>
       <c r="W64" s="20"/>
       <c r="X64" s="20"/>
       <c r="Y64" s="20"/>
       <c r="Z64" s="20"/>
       <c r="AA64" s="20"/>
       <c r="AB64" s="20"/>
-      <c r="AC64" s="67"/>
+      <c r="AC64" s="61"/>
       <c r="AD64" s="19"/>
       <c r="AE64" s="19"/>
       <c r="AF64" s="19"/>
       <c r="AG64" s="19"/>
       <c r="AH64" s="19"/>
       <c r="AI64" s="19"/>
-      <c r="AJ64" s="60"/>
+      <c r="AJ64" s="53"/>
       <c r="AK64" s="19"/>
     </row>
     <row r="65" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="52"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="53" t="s">
+      <c r="A65" s="63"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="53" t="s">
+      <c r="D65" s="55" t="s">
         <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -8246,28 +8246,28 @@
       <c r="S65" s="20"/>
       <c r="T65" s="20"/>
       <c r="U65" s="20"/>
-      <c r="V65" s="64"/>
+      <c r="V65" s="58"/>
       <c r="W65" s="20"/>
       <c r="X65" s="20"/>
       <c r="Y65" s="20"/>
       <c r="Z65" s="20"/>
       <c r="AA65" s="20"/>
       <c r="AB65" s="20"/>
-      <c r="AC65" s="67"/>
+      <c r="AC65" s="61"/>
       <c r="AD65" s="19"/>
       <c r="AE65" s="19"/>
       <c r="AF65" s="19"/>
       <c r="AG65" s="19"/>
       <c r="AH65" s="19"/>
       <c r="AI65" s="19"/>
-      <c r="AJ65" s="60"/>
+      <c r="AJ65" s="53"/>
       <c r="AK65" s="19"/>
     </row>
     <row r="66" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="52"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="53"/>
+      <c r="A66" s="63"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
       <c r="E66" s="2" t="s">
         <v>137</v>
       </c>
@@ -8295,27 +8295,27 @@
       <c r="S66" s="20"/>
       <c r="T66" s="20"/>
       <c r="U66" s="20"/>
-      <c r="V66" s="64"/>
+      <c r="V66" s="58"/>
       <c r="W66" s="20"/>
       <c r="X66" s="20"/>
       <c r="Y66" s="20"/>
       <c r="Z66" s="20"/>
       <c r="AA66" s="20"/>
       <c r="AB66" s="20"/>
-      <c r="AC66" s="67"/>
+      <c r="AC66" s="61"/>
       <c r="AD66" s="19"/>
       <c r="AE66" s="19"/>
       <c r="AF66" s="19"/>
       <c r="AG66" s="19"/>
       <c r="AH66" s="19"/>
       <c r="AI66" s="19"/>
-      <c r="AJ66" s="60"/>
+      <c r="AJ66" s="53"/>
       <c r="AK66" s="19"/>
     </row>
     <row r="67" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="52"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="53"/>
+      <c r="A67" s="63"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="55"/>
       <c r="D67" s="2" t="s">
         <v>105</v>
       </c>
@@ -8338,26 +8338,26 @@
       <c r="S67" s="20"/>
       <c r="T67" s="20"/>
       <c r="U67" s="20"/>
-      <c r="V67" s="64"/>
+      <c r="V67" s="58"/>
       <c r="W67" s="20"/>
       <c r="X67" s="20"/>
       <c r="Y67" s="20"/>
       <c r="Z67" s="20"/>
       <c r="AA67" s="20"/>
       <c r="AB67" s="20"/>
-      <c r="AC67" s="67"/>
+      <c r="AC67" s="61"/>
       <c r="AD67" s="19"/>
       <c r="AE67" s="19"/>
       <c r="AF67" s="19"/>
       <c r="AG67" s="19"/>
       <c r="AH67" s="19"/>
       <c r="AI67" s="19"/>
-      <c r="AJ67" s="60"/>
+      <c r="AJ67" s="53"/>
       <c r="AK67" s="19"/>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A68" s="52"/>
-      <c r="B68" s="55"/>
+      <c r="A68" s="63"/>
+      <c r="B68" s="65"/>
       <c r="C68" s="20" t="s">
         <v>96</v>
       </c>
@@ -8381,26 +8381,26 @@
       <c r="S68" s="20"/>
       <c r="T68" s="20"/>
       <c r="U68" s="20"/>
-      <c r="V68" s="64"/>
+      <c r="V68" s="58"/>
       <c r="W68" s="20"/>
       <c r="X68" s="20"/>
       <c r="Y68" s="20"/>
       <c r="Z68" s="20"/>
       <c r="AA68" s="20"/>
       <c r="AB68" s="20"/>
-      <c r="AC68" s="67"/>
+      <c r="AC68" s="61"/>
       <c r="AD68" s="19"/>
       <c r="AE68" s="19"/>
       <c r="AF68" s="19"/>
       <c r="AG68" s="19"/>
       <c r="AH68" s="19"/>
       <c r="AI68" s="19"/>
-      <c r="AJ68" s="60"/>
+      <c r="AJ68" s="53"/>
       <c r="AK68" s="19"/>
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A69" s="52"/>
-      <c r="B69" s="55"/>
+      <c r="A69" s="63"/>
+      <c r="B69" s="65"/>
       <c r="C69" s="20" t="s">
         <v>24</v>
       </c>
@@ -8432,27 +8432,27 @@
       <c r="S69" s="20"/>
       <c r="T69" s="20"/>
       <c r="U69" s="20"/>
-      <c r="V69" s="64"/>
+      <c r="V69" s="58"/>
       <c r="W69" s="20"/>
       <c r="X69" s="20"/>
       <c r="Y69" s="20"/>
       <c r="Z69" s="20"/>
       <c r="AA69" s="20"/>
       <c r="AB69" s="20"/>
-      <c r="AC69" s="67"/>
+      <c r="AC69" s="61"/>
       <c r="AD69" s="19"/>
       <c r="AE69" s="19"/>
       <c r="AF69" s="19"/>
       <c r="AG69" s="19"/>
       <c r="AH69" s="19"/>
       <c r="AI69" s="19"/>
-      <c r="AJ69" s="60"/>
+      <c r="AJ69" s="53"/>
       <c r="AK69" s="19"/>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A70" s="52"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="53" t="s">
+      <c r="A70" s="63"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="55" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -8485,27 +8485,27 @@
       <c r="S70" s="20"/>
       <c r="T70" s="20"/>
       <c r="U70" s="20"/>
-      <c r="V70" s="64"/>
+      <c r="V70" s="58"/>
       <c r="W70" s="20"/>
       <c r="X70" s="20"/>
       <c r="Y70" s="20"/>
       <c r="Z70" s="20"/>
       <c r="AA70" s="20"/>
       <c r="AB70" s="20"/>
-      <c r="AC70" s="67"/>
+      <c r="AC70" s="61"/>
       <c r="AD70" s="19"/>
       <c r="AE70" s="19"/>
       <c r="AF70" s="19"/>
       <c r="AG70" s="19"/>
       <c r="AH70" s="19"/>
       <c r="AI70" s="19"/>
-      <c r="AJ70" s="60"/>
+      <c r="AJ70" s="53"/>
       <c r="AK70" s="19"/>
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A71" s="52"/>
-      <c r="B71" s="55"/>
-      <c r="C71" s="53"/>
+      <c r="A71" s="63"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="55"/>
       <c r="D71" s="2" t="s">
         <v>133</v>
       </c>
@@ -8536,27 +8536,27 @@
       <c r="S71" s="20"/>
       <c r="T71" s="20"/>
       <c r="U71" s="20"/>
-      <c r="V71" s="64"/>
+      <c r="V71" s="58"/>
       <c r="W71" s="20"/>
       <c r="X71" s="20"/>
       <c r="Y71" s="20"/>
       <c r="Z71" s="20"/>
       <c r="AA71" s="20"/>
       <c r="AB71" s="20"/>
-      <c r="AC71" s="67"/>
+      <c r="AC71" s="61"/>
       <c r="AD71" s="19"/>
       <c r="AE71" s="19"/>
       <c r="AF71" s="19"/>
       <c r="AG71" s="19"/>
       <c r="AH71" s="19"/>
       <c r="AI71" s="19"/>
-      <c r="AJ71" s="60"/>
+      <c r="AJ71" s="53"/>
       <c r="AK71" s="19"/>
     </row>
     <row r="72" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="52"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="56" t="s">
+      <c r="A72" s="63"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="66" t="s">
         <v>106</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -8589,27 +8589,27 @@
       <c r="S72" s="20"/>
       <c r="T72" s="20"/>
       <c r="U72" s="20"/>
-      <c r="V72" s="64"/>
+      <c r="V72" s="58"/>
       <c r="W72" s="20"/>
       <c r="X72" s="20"/>
       <c r="Y72" s="20"/>
       <c r="Z72" s="20"/>
       <c r="AA72" s="20"/>
       <c r="AB72" s="20"/>
-      <c r="AC72" s="67"/>
+      <c r="AC72" s="61"/>
       <c r="AD72" s="19"/>
       <c r="AE72" s="19"/>
       <c r="AF72" s="19"/>
       <c r="AG72" s="19"/>
       <c r="AH72" s="19"/>
       <c r="AI72" s="19"/>
-      <c r="AJ72" s="60"/>
+      <c r="AJ72" s="53"/>
       <c r="AK72" s="19"/>
     </row>
     <row r="73" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="52"/>
-      <c r="B73" s="55"/>
-      <c r="C73" s="57"/>
+      <c r="A73" s="63"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="67"/>
       <c r="D73" s="2" t="s">
         <v>164</v>
       </c>
@@ -8640,27 +8640,27 @@
       <c r="S73" s="20"/>
       <c r="T73" s="20"/>
       <c r="U73" s="20"/>
-      <c r="V73" s="64"/>
+      <c r="V73" s="58"/>
       <c r="W73" s="20"/>
       <c r="X73" s="20"/>
       <c r="Y73" s="20"/>
       <c r="Z73" s="20"/>
       <c r="AA73" s="20"/>
       <c r="AB73" s="20"/>
-      <c r="AC73" s="67"/>
+      <c r="AC73" s="61"/>
       <c r="AD73" s="19"/>
       <c r="AE73" s="19"/>
       <c r="AF73" s="19"/>
       <c r="AG73" s="19"/>
       <c r="AH73" s="19"/>
       <c r="AI73" s="19"/>
-      <c r="AJ73" s="60"/>
+      <c r="AJ73" s="53"/>
       <c r="AK73" s="19"/>
     </row>
     <row r="74" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="52"/>
-      <c r="B74" s="55"/>
-      <c r="C74" s="58"/>
+      <c r="A74" s="63"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="68"/>
       <c r="D74" s="2" t="s">
         <v>165</v>
       </c>
@@ -8691,27 +8691,27 @@
       <c r="S74" s="37"/>
       <c r="T74" s="37"/>
       <c r="U74" s="37"/>
-      <c r="V74" s="64"/>
+      <c r="V74" s="58"/>
       <c r="W74" s="37"/>
       <c r="X74" s="37"/>
       <c r="Y74" s="37"/>
       <c r="Z74" s="37"/>
       <c r="AA74" s="37"/>
       <c r="AB74" s="37"/>
-      <c r="AC74" s="67"/>
+      <c r="AC74" s="61"/>
       <c r="AD74" s="19"/>
       <c r="AE74" s="19"/>
       <c r="AF74" s="19"/>
       <c r="AG74" s="19"/>
       <c r="AH74" s="19"/>
       <c r="AI74" s="19"/>
-      <c r="AJ74" s="60"/>
+      <c r="AJ74" s="53"/>
       <c r="AK74" s="19"/>
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A75" s="52"/>
-      <c r="B75" s="55"/>
-      <c r="C75" s="53" t="s">
+      <c r="A75" s="63"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="55" t="s">
         <v>30</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -8744,27 +8744,27 @@
       <c r="S75" s="20"/>
       <c r="T75" s="20"/>
       <c r="U75" s="20"/>
-      <c r="V75" s="64"/>
+      <c r="V75" s="58"/>
       <c r="W75" s="20"/>
       <c r="X75" s="20"/>
       <c r="Y75" s="20"/>
       <c r="Z75" s="20"/>
       <c r="AA75" s="20"/>
       <c r="AB75" s="20"/>
-      <c r="AC75" s="67"/>
+      <c r="AC75" s="61"/>
       <c r="AD75" s="19"/>
       <c r="AE75" s="19"/>
       <c r="AF75" s="19"/>
       <c r="AG75" s="19"/>
       <c r="AH75" s="19"/>
       <c r="AI75" s="19"/>
-      <c r="AJ75" s="60"/>
+      <c r="AJ75" s="53"/>
       <c r="AK75" s="19"/>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A76" s="52"/>
-      <c r="B76" s="55"/>
-      <c r="C76" s="53"/>
+      <c r="A76" s="63"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="55"/>
       <c r="D76" s="2" t="s">
         <v>32</v>
       </c>
@@ -8787,27 +8787,27 @@
       <c r="S76" s="20"/>
       <c r="T76" s="20"/>
       <c r="U76" s="20"/>
-      <c r="V76" s="64"/>
+      <c r="V76" s="58"/>
       <c r="W76" s="20"/>
       <c r="X76" s="20"/>
       <c r="Y76" s="20"/>
       <c r="Z76" s="20"/>
       <c r="AA76" s="20"/>
       <c r="AB76" s="20"/>
-      <c r="AC76" s="67"/>
+      <c r="AC76" s="61"/>
       <c r="AD76" s="19"/>
       <c r="AE76" s="19"/>
       <c r="AF76" s="19"/>
       <c r="AG76" s="19"/>
       <c r="AH76" s="19"/>
       <c r="AI76" s="19"/>
-      <c r="AJ76" s="60"/>
+      <c r="AJ76" s="53"/>
       <c r="AK76" s="19"/>
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A77" s="52"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="53"/>
+      <c r="A77" s="63"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="55"/>
       <c r="D77" s="2" t="s">
         <v>33</v>
       </c>
@@ -8830,25 +8830,25 @@
       <c r="S77" s="20"/>
       <c r="T77" s="20"/>
       <c r="U77" s="20"/>
-      <c r="V77" s="65"/>
+      <c r="V77" s="59"/>
       <c r="W77" s="20"/>
       <c r="X77" s="20"/>
       <c r="Y77" s="20"/>
       <c r="Z77" s="20"/>
       <c r="AA77" s="20"/>
       <c r="AB77" s="20"/>
-      <c r="AC77" s="68"/>
+      <c r="AC77" s="62"/>
       <c r="AD77" s="19"/>
       <c r="AE77" s="19"/>
       <c r="AF77" s="19"/>
       <c r="AG77" s="19"/>
       <c r="AH77" s="19"/>
       <c r="AI77" s="19"/>
-      <c r="AJ77" s="61"/>
+      <c r="AJ77" s="54"/>
       <c r="AK77" s="19"/>
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A78" s="52"/>
+      <c r="A78" s="63"/>
       <c r="B78" s="44" t="s">
         <v>21</v>
       </c>
@@ -8869,6 +8869,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A5:A78"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B56:B77"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C74"/>
     <mergeCell ref="AJ5:AJ77"/>
     <mergeCell ref="C18:C42"/>
     <mergeCell ref="B11:B55"/>
@@ -8885,18 +8897,6 @@
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="D65:D66"/>
     <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A5:A78"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B56:B77"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C72:C74"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K3:AK5 AK6:AK77 W6:AB77 AD6:AI77 K6:U77">
@@ -9484,7 +9484,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>

--- a/schedule/ガントチャートxlsx.xlsx
+++ b/schedule/ガントチャートxlsx.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\Git\okashi_222\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsp030\Desktop\git\okashi_222\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14928" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="179">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -1000,6 +1000,69 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>2日</t>
+    <rPh sb="1" eb="2">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工藤</t>
+    <rPh sb="0" eb="2">
+      <t>クドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テクスチャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビルボード追加</t>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>増澤</t>
+    <rPh sb="0" eb="2">
+      <t>マスザワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵表示</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>筒井</t>
     <rPh sb="0" eb="2">
       <t>ツツイ</t>
@@ -1007,9 +1070,69 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2日</t>
-    <rPh sb="1" eb="2">
-      <t>ヒ</t>
+    <t>ブロック配置</t>
+    <rPh sb="4" eb="6">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wall追加</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>歩く</t>
+    <rPh sb="0" eb="1">
+      <t>アル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待機</t>
+    <rPh sb="0" eb="2">
+      <t>タイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネズミモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岡</t>
+    <rPh sb="0" eb="1">
+      <t>オカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の配置ツール</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ生成ツール</t>
+    <rPh sb="3" eb="5">
+      <t>セイセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1021,7 +1144,41 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テクスチャ</t>
+    <t>　仕　様　書</t>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お菓子</t>
+    <rPh sb="1" eb="3">
+      <t>カシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉢植え</t>
+    <rPh sb="0" eb="2">
+      <t>ハチウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タンス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三浦</t>
+    <rPh sb="0" eb="2">
+      <t>ミウラ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1032,16 +1189,50 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>7日</t>
+    <t>岡</t>
+    <rPh sb="0" eb="1">
+      <t>オカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャンディ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　企　画　書</t>
     <rPh sb="1" eb="2">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ビルボード追加</t>
-    <rPh sb="5" eb="7">
-      <t>ツイカ</t>
+      <t>キ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ガ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワンシート企画書</t>
+    <rPh sb="5" eb="8">
+      <t>キカクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップ配置図</t>
+    <rPh sb="3" eb="5">
+      <t>ハイチ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三浦</t>
+    <rPh sb="0" eb="2">
+      <t>ミウラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1053,244 +1244,46 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>敵との当たり判定</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾の発射</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>増澤</t>
     <rPh sb="0" eb="2">
       <t>マスザワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵表示</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>筒井</t>
-    <rPh sb="0" eb="2">
-      <t>ツツイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロック配置</t>
-    <rPh sb="4" eb="6">
-      <t>ハイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ブロック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Wall追加</t>
-    <rPh sb="4" eb="6">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>歩く</t>
-    <rPh sb="0" eb="1">
-      <t>アル</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>待機</t>
-    <rPh sb="0" eb="2">
-      <t>タイキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ネズミモデル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>岡</t>
-    <rPh sb="0" eb="1">
-      <t>オカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵の配置ツール</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハイチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マップ生成ツール</t>
-    <rPh sb="3" eb="5">
-      <t>セイセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>工藤</t>
-    <rPh sb="0" eb="2">
-      <t>クドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　仕　様　書</t>
-    <rPh sb="1" eb="2">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>サマ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お菓子</t>
-    <rPh sb="1" eb="3">
-      <t>カシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鉢植え</t>
-    <rPh sb="0" eb="2">
-      <t>ハチウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>タンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>三浦</t>
-    <rPh sb="0" eb="2">
-      <t>ミウラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1日</t>
-    <rPh sb="1" eb="2">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>岡</t>
-    <rPh sb="0" eb="1">
-      <t>オカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>キャンディ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　企　画　書</t>
-    <rPh sb="1" eb="2">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ガ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ワンシート企画書</t>
-    <rPh sb="5" eb="8">
-      <t>キカクショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マップ配置図</t>
-    <rPh sb="3" eb="5">
-      <t>ハイチ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>三浦</t>
-    <rPh sb="0" eb="2">
-      <t>ミウラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1日</t>
-    <rPh sb="1" eb="2">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>敵との当たり判定</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1日</t>
-    <rPh sb="1" eb="2">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>筒井</t>
-    <rPh sb="0" eb="2">
-      <t>ツツイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1日</t>
-    <rPh sb="1" eb="2">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>弾の発射</t>
-    <rPh sb="0" eb="1">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハッシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1995,6 +1988,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2003,9 +2017,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2027,24 +2038,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5125,34 +5118,34 @@
   <dimension ref="A1:AS78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="K17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J54" sqref="J54"/>
+      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.59765625" customWidth="1"/>
+    <col min="6" max="6" width="7.09765625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="7"/>
-    <col min="8" max="9" width="7.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.09765625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="3" customWidth="1"/>
     <col min="12" max="15" width="3.5" customWidth="1"/>
-    <col min="16" max="16" width="4.375" customWidth="1"/>
+    <col min="16" max="16" width="4.3984375" customWidth="1"/>
     <col min="17" max="17" width="3.5" customWidth="1"/>
-    <col min="18" max="18" width="3.875" customWidth="1"/>
+    <col min="18" max="18" width="3.8984375" customWidth="1"/>
     <col min="19" max="35" width="3.5" customWidth="1"/>
-    <col min="36" max="36" width="6.75" customWidth="1"/>
+    <col min="36" max="36" width="6.69921875" customWidth="1"/>
     <col min="37" max="45" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:45" ht="26.4" x14ac:dyDescent="0.45">
       <c r="B1" s="16" t="s">
         <v>92</v>
       </c>
@@ -5184,7 +5177,7 @@
       </c>
       <c r="U1" s="25"/>
     </row>
-    <row r="3" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K3" s="17">
         <v>44116</v>
       </c>
@@ -5275,7 +5268,7 @@
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
     </row>
-    <row r="4" spans="1:45" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:45" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="32" t="s">
         <v>6</v>
       </c>
@@ -5412,25 +5405,25 @@
         <v>44142</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="63" t="s">
+    <row r="5" spans="1:45" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="54" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="20" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H5" s="35">
         <v>44118</v>
@@ -5452,7 +5445,7 @@
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
-      <c r="V5" s="57" t="s">
+      <c r="V5" s="63" t="s">
         <v>117</v>
       </c>
       <c r="W5" s="19"/>
@@ -5461,7 +5454,7 @@
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
       <c r="AB5" s="19"/>
-      <c r="AC5" s="60" t="s">
+      <c r="AC5" s="66" t="s">
         <v>118</v>
       </c>
       <c r="AD5" s="19"/>
@@ -5470,19 +5463,19 @@
       <c r="AG5" s="19"/>
       <c r="AH5" s="19"/>
       <c r="AI5" s="19"/>
-      <c r="AJ5" s="52" t="s">
+      <c r="AJ5" s="59" t="s">
         <v>94</v>
       </c>
       <c r="AK5" s="19"/>
     </row>
-    <row r="6" spans="1:45" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="63"/>
-      <c r="B6" s="64"/>
+    <row r="6" spans="1:45" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="52"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="20" t="s">
@@ -5507,31 +5500,31 @@
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
-      <c r="V6" s="58"/>
+      <c r="V6" s="64"/>
       <c r="W6" s="20"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20"/>
-      <c r="AC6" s="61"/>
+      <c r="AC6" s="67"/>
       <c r="AD6" s="19"/>
       <c r="AE6" s="19"/>
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="19"/>
-      <c r="AJ6" s="53"/>
+      <c r="AJ6" s="60"/>
       <c r="AK6" s="19"/>
     </row>
-    <row r="7" spans="1:45" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="63"/>
-      <c r="B7" s="64"/>
+    <row r="7" spans="1:45" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="52"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="20" t="s">
@@ -5554,26 +5547,26 @@
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
-      <c r="V7" s="58"/>
+      <c r="V7" s="64"/>
       <c r="W7" s="20"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20"/>
-      <c r="AC7" s="61"/>
+      <c r="AC7" s="67"/>
       <c r="AD7" s="19"/>
       <c r="AE7" s="19"/>
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
       <c r="AI7" s="19"/>
-      <c r="AJ7" s="53"/>
+      <c r="AJ7" s="60"/>
       <c r="AK7" s="19"/>
     </row>
-    <row r="8" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="63"/>
-      <c r="B8" s="64"/>
+    <row r="8" spans="1:45" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="52"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
@@ -5601,31 +5594,31 @@
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
-      <c r="V8" s="58"/>
+      <c r="V8" s="64"/>
       <c r="W8" s="20"/>
       <c r="X8" s="20"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
-      <c r="AC8" s="61"/>
+      <c r="AC8" s="67"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
       <c r="AH8" s="19"/>
       <c r="AI8" s="19"/>
-      <c r="AJ8" s="53"/>
+      <c r="AJ8" s="60"/>
       <c r="AK8" s="19"/>
     </row>
-    <row r="9" spans="1:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="63"/>
-      <c r="B9" s="64"/>
+    <row r="9" spans="1:45" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="52"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="20" t="s">
@@ -5648,26 +5641,26 @@
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
-      <c r="V9" s="58"/>
+      <c r="V9" s="64"/>
       <c r="W9" s="20"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20"/>
-      <c r="AC9" s="61"/>
+      <c r="AC9" s="67"/>
       <c r="AD9" s="19"/>
       <c r="AE9" s="19"/>
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
       <c r="AI9" s="19"/>
-      <c r="AJ9" s="53"/>
+      <c r="AJ9" s="60"/>
       <c r="AK9" s="19"/>
     </row>
-    <row r="10" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="63"/>
-      <c r="B10" s="64"/>
+    <row r="10" spans="1:45" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="52"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="20" t="s">
         <v>35</v>
       </c>
@@ -5693,29 +5686,29 @@
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
-      <c r="V10" s="58"/>
+      <c r="V10" s="64"/>
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20"/>
-      <c r="AC10" s="61"/>
+      <c r="AC10" s="67"/>
       <c r="AD10" s="19"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="19"/>
-      <c r="AJ10" s="53"/>
+      <c r="AJ10" s="60"/>
       <c r="AK10" s="19"/>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A11" s="63"/>
-      <c r="B11" s="56" t="s">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="A11" s="52"/>
+      <c r="B11" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="53" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -5740,27 +5733,27 @@
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
-      <c r="V11" s="58"/>
+      <c r="V11" s="64"/>
       <c r="W11" s="20"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20"/>
-      <c r="AC11" s="61"/>
+      <c r="AC11" s="67"/>
       <c r="AD11" s="19"/>
       <c r="AE11" s="19"/>
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
       <c r="AI11" s="19"/>
-      <c r="AJ11" s="53"/>
+      <c r="AJ11" s="60"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A12" s="63"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="55"/>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="A12" s="52"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
@@ -5783,27 +5776,27 @@
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
-      <c r="V12" s="58"/>
+      <c r="V12" s="64"/>
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20"/>
-      <c r="AC12" s="61"/>
+      <c r="AC12" s="67"/>
       <c r="AD12" s="19"/>
       <c r="AE12" s="19"/>
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="19"/>
-      <c r="AJ12" s="53"/>
+      <c r="AJ12" s="60"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A13" s="63"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="55"/>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="A13" s="52"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="53"/>
       <c r="D13" s="38" t="s">
         <v>45</v>
       </c>
@@ -5826,27 +5819,27 @@
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
-      <c r="V13" s="58"/>
+      <c r="V13" s="64"/>
       <c r="W13" s="20"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20"/>
-      <c r="AC13" s="61"/>
+      <c r="AC13" s="67"/>
       <c r="AD13" s="19"/>
       <c r="AE13" s="19"/>
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
-      <c r="AJ13" s="53"/>
+      <c r="AJ13" s="60"/>
       <c r="AK13" s="19"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A14" s="63"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="55"/>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="A14" s="52"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="53"/>
       <c r="D14" s="39" t="s">
         <v>27</v>
       </c>
@@ -5869,27 +5862,27 @@
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
-      <c r="V14" s="58"/>
+      <c r="V14" s="64"/>
       <c r="W14" s="20"/>
       <c r="X14" s="20"/>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20"/>
-      <c r="AC14" s="61"/>
+      <c r="AC14" s="67"/>
       <c r="AD14" s="19"/>
       <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
       <c r="AI14" s="19"/>
-      <c r="AJ14" s="53"/>
+      <c r="AJ14" s="60"/>
       <c r="AK14" s="19"/>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A15" s="63"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="55" t="s">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="A15" s="52"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="53" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -5916,27 +5909,27 @@
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
-      <c r="V15" s="58"/>
+      <c r="V15" s="64"/>
       <c r="W15" s="20"/>
       <c r="X15" s="20"/>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
-      <c r="AC15" s="61"/>
+      <c r="AC15" s="67"/>
       <c r="AD15" s="19"/>
       <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
       <c r="AI15" s="19"/>
-      <c r="AJ15" s="53"/>
+      <c r="AJ15" s="60"/>
       <c r="AK15" s="19"/>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.4">
-      <c r="A16" s="63"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="55"/>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.45">
+      <c r="A16" s="52"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="40" t="s">
         <v>45</v>
       </c>
@@ -5959,27 +5952,27 @@
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
-      <c r="V16" s="58"/>
+      <c r="V16" s="64"/>
       <c r="W16" s="20"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
-      <c r="AC16" s="61"/>
+      <c r="AC16" s="67"/>
       <c r="AD16" s="19"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="19"/>
-      <c r="AJ16" s="53"/>
+      <c r="AJ16" s="60"/>
       <c r="AK16" s="19"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A17" s="63"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="55"/>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A17" s="52"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="53"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
@@ -6002,30 +5995,30 @@
       <c r="S17" s="20"/>
       <c r="T17" s="20"/>
       <c r="U17" s="20"/>
-      <c r="V17" s="58"/>
+      <c r="V17" s="64"/>
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
-      <c r="AC17" s="61"/>
+      <c r="AC17" s="67"/>
       <c r="AD17" s="19"/>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="19"/>
       <c r="AI17" s="19"/>
-      <c r="AJ17" s="53"/>
+      <c r="AJ17" s="60"/>
       <c r="AK17" s="19"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A18" s="63"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="55" t="s">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A18" s="52"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="53" t="s">
         <v>102</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -6040,9 +6033,11 @@
       <c r="H18" s="35">
         <v>44126</v>
       </c>
-      <c r="I18" s="35"/>
+      <c r="I18" s="35">
+        <v>44127</v>
+      </c>
       <c r="J18" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="30"/>
       <c r="L18" s="20"/>
@@ -6055,36 +6050,36 @@
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
-      <c r="V18" s="58"/>
+      <c r="V18" s="64"/>
       <c r="W18" s="20"/>
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
-      <c r="AC18" s="61"/>
+      <c r="AC18" s="67"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="19"/>
       <c r="AI18" s="19"/>
-      <c r="AJ18" s="53"/>
+      <c r="AJ18" s="60"/>
       <c r="AK18" s="19"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A19" s="63"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A19" s="52"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>124</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H19" s="35">
         <v>44125</v>
@@ -6106,28 +6101,28 @@
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
-      <c r="V19" s="58"/>
+      <c r="V19" s="64"/>
       <c r="W19" s="20"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
-      <c r="AC19" s="61"/>
+      <c r="AC19" s="67"/>
       <c r="AD19" s="19"/>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
       <c r="AI19" s="19"/>
-      <c r="AJ19" s="53"/>
+      <c r="AJ19" s="60"/>
       <c r="AK19" s="19"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A20" s="63"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A20" s="52"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
       <c r="E20" s="2" t="s">
         <v>119</v>
       </c>
@@ -6157,34 +6152,38 @@
       <c r="S20" s="20"/>
       <c r="T20" s="20"/>
       <c r="U20" s="20"/>
-      <c r="V20" s="58"/>
+      <c r="V20" s="64"/>
       <c r="W20" s="20"/>
       <c r="X20" s="20"/>
       <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
-      <c r="AC20" s="61"/>
+      <c r="AC20" s="67"/>
       <c r="AD20" s="19"/>
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="19"/>
       <c r="AI20" s="19"/>
-      <c r="AJ20" s="53"/>
+      <c r="AJ20" s="60"/>
       <c r="AK20" s="19"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A21" s="63"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A21" s="52"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F21" s="20"/>
+      <c r="F21" s="20" t="s">
+        <v>178</v>
+      </c>
       <c r="G21" s="20"/>
-      <c r="H21" s="35"/>
+      <c r="H21" s="35">
+        <v>44130</v>
+      </c>
       <c r="I21" s="35"/>
       <c r="J21" s="36">
         <v>0</v>
@@ -6200,36 +6199,36 @@
       <c r="S21" s="20"/>
       <c r="T21" s="20"/>
       <c r="U21" s="20"/>
-      <c r="V21" s="58"/>
+      <c r="V21" s="64"/>
       <c r="W21" s="20"/>
       <c r="X21" s="20"/>
       <c r="Y21" s="20"/>
       <c r="Z21" s="20"/>
       <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
-      <c r="AC21" s="61"/>
+      <c r="AC21" s="67"/>
       <c r="AD21" s="19"/>
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
       <c r="AI21" s="19"/>
-      <c r="AJ21" s="53"/>
+      <c r="AJ21" s="60"/>
       <c r="AK21" s="19"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A22" s="63"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A22" s="52"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H22" s="35">
         <v>44125</v>
@@ -6251,28 +6250,28 @@
       <c r="S22" s="20"/>
       <c r="T22" s="20"/>
       <c r="U22" s="20"/>
-      <c r="V22" s="58"/>
+      <c r="V22" s="64"/>
       <c r="W22" s="20"/>
       <c r="X22" s="20"/>
       <c r="Y22" s="20"/>
       <c r="Z22" s="20"/>
       <c r="AA22" s="20"/>
       <c r="AB22" s="20"/>
-      <c r="AC22" s="61"/>
+      <c r="AC22" s="67"/>
       <c r="AD22" s="19"/>
       <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="19"/>
       <c r="AI22" s="19"/>
-      <c r="AJ22" s="53"/>
+      <c r="AJ22" s="60"/>
       <c r="AK22" s="19"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A23" s="63"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A23" s="52"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="2" t="s">
         <v>125</v>
       </c>
@@ -6302,28 +6301,28 @@
       <c r="S23" s="20"/>
       <c r="T23" s="20"/>
       <c r="U23" s="20"/>
-      <c r="V23" s="58"/>
+      <c r="V23" s="64"/>
       <c r="W23" s="20"/>
       <c r="X23" s="20"/>
       <c r="Y23" s="20"/>
       <c r="Z23" s="20"/>
       <c r="AA23" s="20"/>
       <c r="AB23" s="20"/>
-      <c r="AC23" s="61"/>
+      <c r="AC23" s="67"/>
       <c r="AD23" s="19"/>
       <c r="AE23" s="19"/>
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="19"/>
       <c r="AI23" s="19"/>
-      <c r="AJ23" s="53"/>
+      <c r="AJ23" s="60"/>
       <c r="AK23" s="19"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A24" s="63"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A24" s="52"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="2" t="s">
         <v>116</v>
       </c>
@@ -6345,36 +6344,36 @@
       <c r="S24" s="20"/>
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
-      <c r="V24" s="58"/>
+      <c r="V24" s="64"/>
       <c r="W24" s="20"/>
       <c r="X24" s="20"/>
       <c r="Y24" s="20"/>
       <c r="Z24" s="20"/>
       <c r="AA24" s="20"/>
       <c r="AB24" s="20"/>
-      <c r="AC24" s="61"/>
+      <c r="AC24" s="67"/>
       <c r="AD24" s="19"/>
       <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="19"/>
       <c r="AI24" s="19"/>
-      <c r="AJ24" s="53"/>
+      <c r="AJ24" s="60"/>
       <c r="AK24" s="19"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A25" s="63"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A25" s="52"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F25" s="50" t="s">
         <v>124</v>
       </c>
       <c r="G25" s="50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H25" s="35">
         <v>44127</v>
@@ -6392,36 +6391,36 @@
       <c r="S25" s="50"/>
       <c r="T25" s="50"/>
       <c r="U25" s="50"/>
-      <c r="V25" s="58"/>
+      <c r="V25" s="64"/>
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="50"/>
       <c r="Z25" s="50"/>
       <c r="AA25" s="50"/>
       <c r="AB25" s="50"/>
-      <c r="AC25" s="61"/>
+      <c r="AC25" s="67"/>
       <c r="AD25" s="51"/>
       <c r="AE25" s="51"/>
       <c r="AF25" s="51"/>
       <c r="AG25" s="51"/>
       <c r="AH25" s="51"/>
       <c r="AI25" s="51"/>
-      <c r="AJ25" s="53"/>
+      <c r="AJ25" s="60"/>
       <c r="AK25" s="51"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A26" s="63"/>
-      <c r="B26" s="56"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A26" s="52"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
       <c r="E26" s="2" t="s">
         <v>113</v>
       </c>
       <c r="F26" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="G26" s="20" t="s">
         <v>140</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>141</v>
       </c>
       <c r="H26" s="35">
         <v>44124</v>
@@ -6430,7 +6429,7 @@
         <v>44125</v>
       </c>
       <c r="J26" s="36">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="K26" s="30"/>
       <c r="L26" s="20"/>
@@ -6443,28 +6442,28 @@
       <c r="S26" s="20"/>
       <c r="T26" s="20"/>
       <c r="U26" s="20"/>
-      <c r="V26" s="58"/>
+      <c r="V26" s="64"/>
       <c r="W26" s="20"/>
       <c r="X26" s="20"/>
       <c r="Y26" s="20"/>
       <c r="Z26" s="20"/>
       <c r="AA26" s="20"/>
       <c r="AB26" s="20"/>
-      <c r="AC26" s="61"/>
+      <c r="AC26" s="67"/>
       <c r="AD26" s="19"/>
       <c r="AE26" s="19"/>
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
       <c r="AH26" s="19"/>
       <c r="AI26" s="19"/>
-      <c r="AJ26" s="53"/>
+      <c r="AJ26" s="60"/>
       <c r="AK26" s="19"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A27" s="63"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A27" s="52"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
       <c r="E27" s="2" t="s">
         <v>109</v>
       </c>
@@ -6486,35 +6485,35 @@
       <c r="S27" s="20"/>
       <c r="T27" s="20"/>
       <c r="U27" s="20"/>
-      <c r="V27" s="58"/>
+      <c r="V27" s="64"/>
       <c r="W27" s="20"/>
       <c r="X27" s="20"/>
       <c r="Y27" s="20"/>
       <c r="Z27" s="20"/>
       <c r="AA27" s="20"/>
       <c r="AB27" s="20"/>
-      <c r="AC27" s="61"/>
+      <c r="AC27" s="67"/>
       <c r="AD27" s="19"/>
       <c r="AE27" s="19"/>
       <c r="AF27" s="19"/>
       <c r="AG27" s="19"/>
       <c r="AH27" s="19"/>
       <c r="AI27" s="19"/>
-      <c r="AJ27" s="53"/>
+      <c r="AJ27" s="60"/>
       <c r="AK27" s="19"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A28" s="63"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55" t="s">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A28" s="52"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G28" s="20" t="s">
         <v>121</v>
@@ -6539,33 +6538,33 @@
       <c r="S28" s="20"/>
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
-      <c r="V28" s="58"/>
+      <c r="V28" s="64"/>
       <c r="W28" s="20"/>
       <c r="X28" s="20"/>
       <c r="Y28" s="20"/>
       <c r="Z28" s="20"/>
       <c r="AA28" s="20"/>
       <c r="AB28" s="20"/>
-      <c r="AC28" s="61"/>
+      <c r="AC28" s="67"/>
       <c r="AD28" s="19"/>
       <c r="AE28" s="19"/>
       <c r="AF28" s="19"/>
       <c r="AG28" s="19"/>
       <c r="AH28" s="19"/>
       <c r="AI28" s="19"/>
-      <c r="AJ28" s="53"/>
+      <c r="AJ28" s="60"/>
       <c r="AK28" s="19"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A29" s="63"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A29" s="52"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
       <c r="E29" s="2" t="s">
         <v>126</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G29" s="20" t="s">
         <v>121</v>
@@ -6590,38 +6589,38 @@
       <c r="S29" s="20"/>
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
-      <c r="V29" s="58"/>
+      <c r="V29" s="64"/>
       <c r="W29" s="20"/>
       <c r="X29" s="20"/>
       <c r="Y29" s="20"/>
       <c r="Z29" s="20"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="20"/>
-      <c r="AC29" s="61"/>
+      <c r="AC29" s="67"/>
       <c r="AD29" s="19"/>
       <c r="AE29" s="19"/>
       <c r="AF29" s="19"/>
       <c r="AG29" s="19"/>
       <c r="AH29" s="19"/>
       <c r="AI29" s="19"/>
-      <c r="AJ29" s="53"/>
+      <c r="AJ29" s="60"/>
       <c r="AK29" s="19"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A30" s="63"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55" t="s">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A30" s="52"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>111</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>177</v>
+        <v>141</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H30" s="35">
         <v>44130</v>
@@ -6641,30 +6640,30 @@
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
       <c r="U30" s="20"/>
-      <c r="V30" s="58"/>
+      <c r="V30" s="64"/>
       <c r="W30" s="20"/>
       <c r="X30" s="20"/>
       <c r="Y30" s="20"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
-      <c r="AC30" s="61"/>
+      <c r="AC30" s="67"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="19"/>
       <c r="AF30" s="19"/>
       <c r="AG30" s="19"/>
       <c r="AH30" s="19"/>
       <c r="AI30" s="19"/>
-      <c r="AJ30" s="53"/>
+      <c r="AJ30" s="60"/>
       <c r="AK30" s="19"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A31" s="63"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A31" s="52"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
       <c r="E31" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
@@ -6684,28 +6683,28 @@
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
-      <c r="V31" s="58"/>
+      <c r="V31" s="64"/>
       <c r="W31" s="20"/>
       <c r="X31" s="20"/>
       <c r="Y31" s="20"/>
       <c r="Z31" s="20"/>
       <c r="AA31" s="20"/>
       <c r="AB31" s="20"/>
-      <c r="AC31" s="61"/>
+      <c r="AC31" s="67"/>
       <c r="AD31" s="19"/>
       <c r="AE31" s="19"/>
       <c r="AF31" s="19"/>
       <c r="AG31" s="19"/>
       <c r="AH31" s="19"/>
       <c r="AI31" s="19"/>
-      <c r="AJ31" s="53"/>
+      <c r="AJ31" s="60"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A32" s="63"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A32" s="52"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
       <c r="E32" s="2" t="s">
         <v>120</v>
       </c>
@@ -6735,28 +6734,28 @@
       <c r="S32" s="20"/>
       <c r="T32" s="20"/>
       <c r="U32" s="20"/>
-      <c r="V32" s="58"/>
+      <c r="V32" s="64"/>
       <c r="W32" s="20"/>
       <c r="X32" s="20"/>
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
       <c r="AA32" s="20"/>
       <c r="AB32" s="20"/>
-      <c r="AC32" s="61"/>
+      <c r="AC32" s="67"/>
       <c r="AD32" s="19"/>
       <c r="AE32" s="19"/>
       <c r="AF32" s="19"/>
       <c r="AG32" s="19"/>
       <c r="AH32" s="19"/>
       <c r="AI32" s="19"/>
-      <c r="AJ32" s="53"/>
+      <c r="AJ32" s="60"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A33" s="63"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55" t="s">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A33" s="52"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53" t="s">
         <v>97</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -6780,36 +6779,36 @@
       <c r="S33" s="20"/>
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
-      <c r="V33" s="58"/>
+      <c r="V33" s="64"/>
       <c r="W33" s="20"/>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
       <c r="AA33" s="20"/>
       <c r="AB33" s="20"/>
-      <c r="AC33" s="61"/>
+      <c r="AC33" s="67"/>
       <c r="AD33" s="19"/>
       <c r="AE33" s="19"/>
       <c r="AF33" s="19"/>
       <c r="AG33" s="19"/>
       <c r="AH33" s="19"/>
       <c r="AI33" s="19"/>
-      <c r="AJ33" s="53"/>
+      <c r="AJ33" s="60"/>
       <c r="AK33" s="19"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A34" s="63"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A34" s="52"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F34" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="F34" s="20" t="s">
-        <v>150</v>
-      </c>
       <c r="G34" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H34" s="35">
         <v>44126</v>
@@ -6831,28 +6830,28 @@
       <c r="S34" s="20"/>
       <c r="T34" s="20"/>
       <c r="U34" s="20"/>
-      <c r="V34" s="58"/>
+      <c r="V34" s="64"/>
       <c r="W34" s="20"/>
       <c r="X34" s="20"/>
       <c r="Y34" s="20"/>
       <c r="Z34" s="20"/>
       <c r="AA34" s="20"/>
       <c r="AB34" s="20"/>
-      <c r="AC34" s="61"/>
+      <c r="AC34" s="67"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="19"/>
       <c r="AG34" s="19"/>
       <c r="AH34" s="19"/>
       <c r="AI34" s="19"/>
-      <c r="AJ34" s="53"/>
+      <c r="AJ34" s="60"/>
       <c r="AK34" s="19"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A35" s="63"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A35" s="52"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
       <c r="E35" s="2" t="s">
         <v>110</v>
       </c>
@@ -6874,32 +6873,32 @@
       <c r="S35" s="20"/>
       <c r="T35" s="20"/>
       <c r="U35" s="20"/>
-      <c r="V35" s="58"/>
+      <c r="V35" s="64"/>
       <c r="W35" s="20"/>
       <c r="X35" s="20"/>
       <c r="Y35" s="20"/>
       <c r="Z35" s="20"/>
       <c r="AA35" s="20"/>
       <c r="AB35" s="20"/>
-      <c r="AC35" s="61"/>
+      <c r="AC35" s="67"/>
       <c r="AD35" s="19"/>
       <c r="AE35" s="19"/>
       <c r="AF35" s="19"/>
       <c r="AG35" s="19"/>
       <c r="AH35" s="19"/>
       <c r="AI35" s="19"/>
-      <c r="AJ35" s="53"/>
+      <c r="AJ35" s="60"/>
       <c r="AK35" s="19"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A36" s="63"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="55"/>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A36" s="52"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
@@ -6919,38 +6918,38 @@
       <c r="S36" s="20"/>
       <c r="T36" s="20"/>
       <c r="U36" s="20"/>
-      <c r="V36" s="58"/>
+      <c r="V36" s="64"/>
       <c r="W36" s="20"/>
       <c r="X36" s="20"/>
       <c r="Y36" s="20"/>
       <c r="Z36" s="20"/>
       <c r="AA36" s="20"/>
       <c r="AB36" s="20"/>
-      <c r="AC36" s="61"/>
+      <c r="AC36" s="67"/>
       <c r="AD36" s="19"/>
       <c r="AE36" s="19"/>
       <c r="AF36" s="19"/>
       <c r="AG36" s="19"/>
       <c r="AH36" s="19"/>
       <c r="AI36" s="19"/>
-      <c r="AJ36" s="53"/>
+      <c r="AJ36" s="60"/>
       <c r="AK36" s="19"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A37" s="63"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="55"/>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A37" s="52"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="53"/>
       <c r="D37" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="F37" s="20" t="s">
         <v>123</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H37" s="35">
         <v>44126</v>
@@ -6972,27 +6971,27 @@
       <c r="S37" s="20"/>
       <c r="T37" s="20"/>
       <c r="U37" s="20"/>
-      <c r="V37" s="58"/>
+      <c r="V37" s="64"/>
       <c r="W37" s="20"/>
       <c r="X37" s="20"/>
       <c r="Y37" s="20"/>
       <c r="Z37" s="20"/>
       <c r="AA37" s="20"/>
       <c r="AB37" s="20"/>
-      <c r="AC37" s="61"/>
+      <c r="AC37" s="67"/>
       <c r="AD37" s="19"/>
       <c r="AE37" s="19"/>
       <c r="AF37" s="19"/>
       <c r="AG37" s="19"/>
       <c r="AH37" s="19"/>
       <c r="AI37" s="19"/>
-      <c r="AJ37" s="53"/>
+      <c r="AJ37" s="60"/>
       <c r="AK37" s="19"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A38" s="63"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="55"/>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A38" s="52"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="53"/>
       <c r="D38" s="2" t="s">
         <v>101</v>
       </c>
@@ -7015,27 +7014,27 @@
       <c r="S38" s="20"/>
       <c r="T38" s="20"/>
       <c r="U38" s="20"/>
-      <c r="V38" s="58"/>
+      <c r="V38" s="64"/>
       <c r="W38" s="20"/>
       <c r="X38" s="20"/>
       <c r="Y38" s="20"/>
       <c r="Z38" s="20"/>
       <c r="AA38" s="20"/>
       <c r="AB38" s="20"/>
-      <c r="AC38" s="61"/>
+      <c r="AC38" s="67"/>
       <c r="AD38" s="19"/>
       <c r="AE38" s="19"/>
       <c r="AF38" s="19"/>
       <c r="AG38" s="19"/>
       <c r="AH38" s="19"/>
       <c r="AI38" s="19"/>
-      <c r="AJ38" s="53"/>
+      <c r="AJ38" s="60"/>
       <c r="AK38" s="19"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A39" s="63"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="55"/>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A39" s="52"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="53"/>
       <c r="D39" s="2" t="s">
         <v>23</v>
       </c>
@@ -7058,27 +7057,27 @@
       <c r="S39" s="20"/>
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
-      <c r="V39" s="58"/>
+      <c r="V39" s="64"/>
       <c r="W39" s="20"/>
       <c r="X39" s="20"/>
       <c r="Y39" s="20"/>
       <c r="Z39" s="20"/>
       <c r="AA39" s="20"/>
       <c r="AB39" s="20"/>
-      <c r="AC39" s="61"/>
+      <c r="AC39" s="67"/>
       <c r="AD39" s="19"/>
       <c r="AE39" s="19"/>
       <c r="AF39" s="19"/>
       <c r="AG39" s="19"/>
       <c r="AH39" s="19"/>
       <c r="AI39" s="19"/>
-      <c r="AJ39" s="53"/>
+      <c r="AJ39" s="60"/>
       <c r="AK39" s="19"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A40" s="63"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="55"/>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A40" s="52"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="53"/>
       <c r="D40" s="39" t="s">
         <v>27</v>
       </c>
@@ -7101,27 +7100,27 @@
       <c r="S40" s="20"/>
       <c r="T40" s="20"/>
       <c r="U40" s="20"/>
-      <c r="V40" s="58"/>
+      <c r="V40" s="64"/>
       <c r="W40" s="20"/>
       <c r="X40" s="20"/>
       <c r="Y40" s="20"/>
       <c r="Z40" s="20"/>
       <c r="AA40" s="20"/>
       <c r="AB40" s="20"/>
-      <c r="AC40" s="61"/>
+      <c r="AC40" s="67"/>
       <c r="AD40" s="19"/>
       <c r="AE40" s="19"/>
       <c r="AF40" s="19"/>
       <c r="AG40" s="19"/>
       <c r="AH40" s="19"/>
       <c r="AI40" s="19"/>
-      <c r="AJ40" s="53"/>
+      <c r="AJ40" s="60"/>
       <c r="AK40" s="19"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A41" s="63"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="55"/>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A41" s="52"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="53"/>
       <c r="D41" s="38" t="s">
         <v>45</v>
       </c>
@@ -7144,27 +7143,27 @@
       <c r="S41" s="20"/>
       <c r="T41" s="20"/>
       <c r="U41" s="20"/>
-      <c r="V41" s="58"/>
+      <c r="V41" s="64"/>
       <c r="W41" s="20"/>
       <c r="X41" s="20"/>
       <c r="Y41" s="20"/>
       <c r="Z41" s="20"/>
       <c r="AA41" s="20"/>
       <c r="AB41" s="20"/>
-      <c r="AC41" s="61"/>
+      <c r="AC41" s="67"/>
       <c r="AD41" s="19"/>
       <c r="AE41" s="19"/>
       <c r="AF41" s="19"/>
       <c r="AG41" s="19"/>
       <c r="AH41" s="19"/>
       <c r="AI41" s="19"/>
-      <c r="AJ41" s="53"/>
+      <c r="AJ41" s="60"/>
       <c r="AK41" s="19"/>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A42" s="63"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="55"/>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A42" s="52"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="53"/>
       <c r="D42" s="2" t="s">
         <v>26</v>
       </c>
@@ -7187,27 +7186,27 @@
       <c r="S42" s="20"/>
       <c r="T42" s="20"/>
       <c r="U42" s="20"/>
-      <c r="V42" s="58"/>
+      <c r="V42" s="64"/>
       <c r="W42" s="20"/>
       <c r="X42" s="20"/>
       <c r="Y42" s="20"/>
       <c r="Z42" s="20"/>
       <c r="AA42" s="20"/>
       <c r="AB42" s="20"/>
-      <c r="AC42" s="61"/>
+      <c r="AC42" s="67"/>
       <c r="AD42" s="19"/>
       <c r="AE42" s="19"/>
       <c r="AF42" s="19"/>
       <c r="AG42" s="19"/>
       <c r="AH42" s="19"/>
       <c r="AI42" s="19"/>
-      <c r="AJ42" s="53"/>
+      <c r="AJ42" s="60"/>
       <c r="AK42" s="19"/>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A43" s="63"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="55" t="s">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A43" s="52"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="53" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="40" t="s">
@@ -7232,27 +7231,27 @@
       <c r="S43" s="20"/>
       <c r="T43" s="20"/>
       <c r="U43" s="20"/>
-      <c r="V43" s="58"/>
+      <c r="V43" s="64"/>
       <c r="W43" s="20"/>
       <c r="X43" s="20"/>
       <c r="Y43" s="20"/>
       <c r="Z43" s="20"/>
       <c r="AA43" s="20"/>
       <c r="AB43" s="20"/>
-      <c r="AC43" s="61"/>
+      <c r="AC43" s="67"/>
       <c r="AD43" s="19"/>
       <c r="AE43" s="19"/>
       <c r="AF43" s="19"/>
       <c r="AG43" s="19"/>
       <c r="AH43" s="19"/>
       <c r="AI43" s="19"/>
-      <c r="AJ43" s="53"/>
+      <c r="AJ43" s="60"/>
       <c r="AK43" s="19"/>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A44" s="63"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="55"/>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A44" s="52"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="53"/>
       <c r="D44" s="2" t="s">
         <v>26</v>
       </c>
@@ -7275,27 +7274,27 @@
       <c r="S44" s="20"/>
       <c r="T44" s="20"/>
       <c r="U44" s="20"/>
-      <c r="V44" s="58"/>
+      <c r="V44" s="64"/>
       <c r="W44" s="20"/>
       <c r="X44" s="20"/>
       <c r="Y44" s="20"/>
       <c r="Z44" s="20"/>
       <c r="AA44" s="20"/>
       <c r="AB44" s="20"/>
-      <c r="AC44" s="61"/>
+      <c r="AC44" s="67"/>
       <c r="AD44" s="19"/>
       <c r="AE44" s="19"/>
       <c r="AF44" s="19"/>
       <c r="AG44" s="19"/>
       <c r="AH44" s="19"/>
       <c r="AI44" s="19"/>
-      <c r="AJ44" s="53"/>
+      <c r="AJ44" s="60"/>
       <c r="AK44" s="19"/>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A45" s="63"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="55" t="s">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A45" s="52"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="53" t="s">
         <v>43</v>
       </c>
       <c r="D45" s="38" t="s">
@@ -7320,27 +7319,27 @@
       <c r="S45" s="20"/>
       <c r="T45" s="20"/>
       <c r="U45" s="20"/>
-      <c r="V45" s="58"/>
+      <c r="V45" s="64"/>
       <c r="W45" s="20"/>
       <c r="X45" s="20"/>
       <c r="Y45" s="20"/>
       <c r="Z45" s="20"/>
       <c r="AA45" s="20"/>
       <c r="AB45" s="20"/>
-      <c r="AC45" s="61"/>
+      <c r="AC45" s="67"/>
       <c r="AD45" s="19"/>
       <c r="AE45" s="19"/>
       <c r="AF45" s="19"/>
       <c r="AG45" s="19"/>
       <c r="AH45" s="19"/>
       <c r="AI45" s="19"/>
-      <c r="AJ45" s="53"/>
+      <c r="AJ45" s="60"/>
       <c r="AK45" s="19"/>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A46" s="63"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="55"/>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A46" s="52"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="53"/>
       <c r="D46" s="2" t="s">
         <v>26</v>
       </c>
@@ -7363,27 +7362,27 @@
       <c r="S46" s="20"/>
       <c r="T46" s="20"/>
       <c r="U46" s="20"/>
-      <c r="V46" s="58"/>
+      <c r="V46" s="64"/>
       <c r="W46" s="20"/>
       <c r="X46" s="20"/>
       <c r="Y46" s="20"/>
       <c r="Z46" s="20"/>
       <c r="AA46" s="20"/>
       <c r="AB46" s="20"/>
-      <c r="AC46" s="61"/>
+      <c r="AC46" s="67"/>
       <c r="AD46" s="19"/>
       <c r="AE46" s="19"/>
       <c r="AF46" s="19"/>
       <c r="AG46" s="19"/>
       <c r="AH46" s="19"/>
       <c r="AI46" s="19"/>
-      <c r="AJ46" s="53"/>
+      <c r="AJ46" s="60"/>
       <c r="AK46" s="19"/>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A47" s="63"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="55"/>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A47" s="52"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="53"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="20"/>
@@ -7404,27 +7403,27 @@
       <c r="S47" s="20"/>
       <c r="T47" s="20"/>
       <c r="U47" s="20"/>
-      <c r="V47" s="58"/>
+      <c r="V47" s="64"/>
       <c r="W47" s="20"/>
       <c r="X47" s="20"/>
       <c r="Y47" s="20"/>
       <c r="Z47" s="20"/>
       <c r="AA47" s="20"/>
       <c r="AB47" s="20"/>
-      <c r="AC47" s="61"/>
+      <c r="AC47" s="67"/>
       <c r="AD47" s="19"/>
       <c r="AE47" s="19"/>
       <c r="AF47" s="19"/>
       <c r="AG47" s="19"/>
       <c r="AH47" s="19"/>
       <c r="AI47" s="19"/>
-      <c r="AJ47" s="53"/>
+      <c r="AJ47" s="60"/>
       <c r="AK47" s="19"/>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A48" s="63"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="55" t="s">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A48" s="52"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="53" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -7449,27 +7448,27 @@
       <c r="S48" s="20"/>
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
-      <c r="V48" s="58"/>
+      <c r="V48" s="64"/>
       <c r="W48" s="20"/>
       <c r="X48" s="20"/>
       <c r="Y48" s="20"/>
       <c r="Z48" s="20"/>
       <c r="AA48" s="20"/>
       <c r="AB48" s="20"/>
-      <c r="AC48" s="61"/>
+      <c r="AC48" s="67"/>
       <c r="AD48" s="19"/>
       <c r="AE48" s="19"/>
       <c r="AF48" s="19"/>
       <c r="AG48" s="19"/>
       <c r="AH48" s="19"/>
       <c r="AI48" s="19"/>
-      <c r="AJ48" s="53"/>
+      <c r="AJ48" s="60"/>
       <c r="AK48" s="19"/>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A49" s="63"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="55"/>
+    <row r="49" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A49" s="52"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="53"/>
       <c r="D49" s="2" t="s">
         <v>36</v>
       </c>
@@ -7492,27 +7491,27 @@
       <c r="S49" s="20"/>
       <c r="T49" s="20"/>
       <c r="U49" s="20"/>
-      <c r="V49" s="58"/>
+      <c r="V49" s="64"/>
       <c r="W49" s="20"/>
       <c r="X49" s="20"/>
       <c r="Y49" s="20"/>
       <c r="Z49" s="20"/>
       <c r="AA49" s="20"/>
       <c r="AB49" s="20"/>
-      <c r="AC49" s="61"/>
+      <c r="AC49" s="67"/>
       <c r="AD49" s="19"/>
       <c r="AE49" s="19"/>
       <c r="AF49" s="19"/>
       <c r="AG49" s="19"/>
       <c r="AH49" s="19"/>
       <c r="AI49" s="19"/>
-      <c r="AJ49" s="53"/>
+      <c r="AJ49" s="60"/>
       <c r="AK49" s="19"/>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A50" s="63"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="55"/>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A50" s="52"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="53"/>
       <c r="D50" s="2" t="s">
         <v>37</v>
       </c>
@@ -7535,27 +7534,27 @@
       <c r="S50" s="20"/>
       <c r="T50" s="20"/>
       <c r="U50" s="20"/>
-      <c r="V50" s="58"/>
+      <c r="V50" s="64"/>
       <c r="W50" s="20"/>
       <c r="X50" s="20"/>
       <c r="Y50" s="20"/>
       <c r="Z50" s="20"/>
       <c r="AA50" s="20"/>
       <c r="AB50" s="20"/>
-      <c r="AC50" s="61"/>
+      <c r="AC50" s="67"/>
       <c r="AD50" s="19"/>
       <c r="AE50" s="19"/>
       <c r="AF50" s="19"/>
       <c r="AG50" s="19"/>
       <c r="AH50" s="19"/>
       <c r="AI50" s="19"/>
-      <c r="AJ50" s="53"/>
+      <c r="AJ50" s="60"/>
       <c r="AK50" s="19"/>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A51" s="63"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="55"/>
+    <row r="51" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A51" s="52"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="53"/>
       <c r="D51" s="2" t="s">
         <v>38</v>
       </c>
@@ -7578,27 +7577,27 @@
       <c r="S51" s="20"/>
       <c r="T51" s="20"/>
       <c r="U51" s="20"/>
-      <c r="V51" s="58"/>
+      <c r="V51" s="64"/>
       <c r="W51" s="20"/>
       <c r="X51" s="20"/>
       <c r="Y51" s="20"/>
       <c r="Z51" s="20"/>
       <c r="AA51" s="20"/>
       <c r="AB51" s="20"/>
-      <c r="AC51" s="61"/>
+      <c r="AC51" s="67"/>
       <c r="AD51" s="19"/>
       <c r="AE51" s="19"/>
       <c r="AF51" s="19"/>
       <c r="AG51" s="19"/>
       <c r="AH51" s="19"/>
       <c r="AI51" s="19"/>
-      <c r="AJ51" s="53"/>
+      <c r="AJ51" s="60"/>
       <c r="AK51" s="19"/>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A52" s="63"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="55"/>
+    <row r="52" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A52" s="52"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="53"/>
       <c r="D52" s="2" t="s">
         <v>33</v>
       </c>
@@ -7621,35 +7620,35 @@
       <c r="S52" s="20"/>
       <c r="T52" s="20"/>
       <c r="U52" s="20"/>
-      <c r="V52" s="58"/>
+      <c r="V52" s="64"/>
       <c r="W52" s="20"/>
       <c r="X52" s="20"/>
       <c r="Y52" s="20"/>
       <c r="Z52" s="20"/>
       <c r="AA52" s="20"/>
       <c r="AB52" s="20"/>
-      <c r="AC52" s="61"/>
+      <c r="AC52" s="67"/>
       <c r="AD52" s="19"/>
       <c r="AE52" s="19"/>
       <c r="AF52" s="19"/>
       <c r="AG52" s="19"/>
       <c r="AH52" s="19"/>
       <c r="AI52" s="19"/>
-      <c r="AJ52" s="53"/>
+      <c r="AJ52" s="60"/>
       <c r="AK52" s="19"/>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A53" s="63"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="55" t="s">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A53" s="52"/>
+      <c r="B53" s="62"/>
+      <c r="C53" s="53" t="s">
         <v>128</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G53" s="20"/>
       <c r="H53" s="35">
@@ -7670,33 +7669,33 @@
       <c r="S53" s="20"/>
       <c r="T53" s="20"/>
       <c r="U53" s="20"/>
-      <c r="V53" s="58"/>
+      <c r="V53" s="64"/>
       <c r="W53" s="20"/>
       <c r="X53" s="20"/>
       <c r="Y53" s="20"/>
       <c r="Z53" s="20"/>
       <c r="AA53" s="20"/>
       <c r="AB53" s="20"/>
-      <c r="AC53" s="61"/>
+      <c r="AC53" s="67"/>
       <c r="AD53" s="19"/>
       <c r="AE53" s="19"/>
       <c r="AF53" s="19"/>
       <c r="AG53" s="19"/>
       <c r="AH53" s="19"/>
       <c r="AI53" s="19"/>
-      <c r="AJ53" s="53"/>
+      <c r="AJ53" s="60"/>
       <c r="AK53" s="19"/>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A54" s="63"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="55"/>
+    <row r="54" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A54" s="52"/>
+      <c r="B54" s="62"/>
+      <c r="C54" s="53"/>
       <c r="D54" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="35">
@@ -7717,26 +7716,26 @@
       <c r="S54" s="20"/>
       <c r="T54" s="20"/>
       <c r="U54" s="20"/>
-      <c r="V54" s="58"/>
+      <c r="V54" s="64"/>
       <c r="W54" s="20"/>
       <c r="X54" s="20"/>
       <c r="Y54" s="20"/>
       <c r="Z54" s="20"/>
       <c r="AA54" s="20"/>
       <c r="AB54" s="20"/>
-      <c r="AC54" s="61"/>
+      <c r="AC54" s="67"/>
       <c r="AD54" s="19"/>
       <c r="AE54" s="19"/>
       <c r="AF54" s="19"/>
       <c r="AG54" s="19"/>
       <c r="AH54" s="19"/>
       <c r="AI54" s="19"/>
-      <c r="AJ54" s="53"/>
+      <c r="AJ54" s="60"/>
       <c r="AK54" s="19"/>
     </row>
-    <row r="55" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="63"/>
-      <c r="B55" s="56"/>
+    <row r="55" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="52"/>
+      <c r="B55" s="62"/>
       <c r="C55" s="21" t="s">
         <v>76</v>
       </c>
@@ -7762,32 +7761,32 @@
       <c r="S55" s="21"/>
       <c r="T55" s="21"/>
       <c r="U55" s="21"/>
-      <c r="V55" s="58"/>
+      <c r="V55" s="64"/>
       <c r="W55" s="21"/>
       <c r="X55" s="21"/>
       <c r="Y55" s="21"/>
       <c r="Z55" s="21"/>
       <c r="AA55" s="21"/>
       <c r="AB55" s="21"/>
-      <c r="AC55" s="61"/>
+      <c r="AC55" s="67"/>
       <c r="AD55" s="19"/>
       <c r="AE55" s="19"/>
       <c r="AF55" s="19"/>
       <c r="AG55" s="19"/>
       <c r="AH55" s="19"/>
       <c r="AI55" s="19"/>
-      <c r="AJ55" s="53"/>
+      <c r="AJ55" s="60"/>
       <c r="AK55" s="19"/>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A56" s="63"/>
-      <c r="B56" s="65" t="s">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A56" s="52"/>
+      <c r="B56" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="55" t="s">
+      <c r="C56" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="D56" s="55" t="s">
+      <c r="D56" s="53" t="s">
         <v>29</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -7819,28 +7818,28 @@
       <c r="S56" s="20"/>
       <c r="T56" s="20"/>
       <c r="U56" s="20"/>
-      <c r="V56" s="58"/>
+      <c r="V56" s="64"/>
       <c r="W56" s="20"/>
       <c r="X56" s="20"/>
       <c r="Y56" s="20"/>
       <c r="Z56" s="20"/>
       <c r="AA56" s="20"/>
       <c r="AB56" s="20"/>
-      <c r="AC56" s="61"/>
+      <c r="AC56" s="67"/>
       <c r="AD56" s="19"/>
       <c r="AE56" s="19"/>
       <c r="AF56" s="19"/>
       <c r="AG56" s="19"/>
       <c r="AH56" s="19"/>
       <c r="AI56" s="19"/>
-      <c r="AJ56" s="53"/>
+      <c r="AJ56" s="60"/>
       <c r="AK56" s="19"/>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A57" s="63"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
+    <row r="57" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A57" s="52"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
       <c r="E57" s="2" t="s">
         <v>137</v>
       </c>
@@ -7870,30 +7869,30 @@
       <c r="S57" s="20"/>
       <c r="T57" s="20"/>
       <c r="U57" s="20"/>
-      <c r="V57" s="58"/>
+      <c r="V57" s="64"/>
       <c r="W57" s="20"/>
       <c r="X57" s="20"/>
       <c r="Y57" s="20"/>
       <c r="Z57" s="20"/>
       <c r="AA57" s="20"/>
       <c r="AB57" s="20"/>
-      <c r="AC57" s="61"/>
+      <c r="AC57" s="67"/>
       <c r="AD57" s="19"/>
       <c r="AE57" s="19"/>
       <c r="AF57" s="19"/>
       <c r="AG57" s="19"/>
       <c r="AH57" s="19"/>
       <c r="AI57" s="19"/>
-      <c r="AJ57" s="53"/>
+      <c r="AJ57" s="60"/>
       <c r="AK57" s="19"/>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A58" s="63"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="55" t="s">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A58" s="52"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="55" t="s">
+      <c r="D58" s="53" t="s">
         <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -7919,30 +7918,30 @@
       <c r="S58" s="20"/>
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
-      <c r="V58" s="58"/>
+      <c r="V58" s="64"/>
       <c r="W58" s="20"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="20"/>
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
-      <c r="AC58" s="61"/>
+      <c r="AC58" s="67"/>
       <c r="AD58" s="19"/>
       <c r="AE58" s="19"/>
       <c r="AF58" s="19"/>
       <c r="AG58" s="19"/>
       <c r="AH58" s="19"/>
       <c r="AI58" s="19"/>
-      <c r="AJ58" s="53"/>
+      <c r="AJ58" s="60"/>
       <c r="AK58" s="19"/>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A59" s="63"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="55"/>
+    <row r="59" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A59" s="52"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
       <c r="E59" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F59" s="50" t="s">
         <v>40</v>
@@ -7964,30 +7963,30 @@
       <c r="S59" s="20"/>
       <c r="T59" s="20"/>
       <c r="U59" s="20"/>
-      <c r="V59" s="58"/>
+      <c r="V59" s="64"/>
       <c r="W59" s="20"/>
       <c r="X59" s="20"/>
       <c r="Y59" s="20"/>
       <c r="Z59" s="20"/>
       <c r="AA59" s="20"/>
       <c r="AB59" s="20"/>
-      <c r="AC59" s="61"/>
+      <c r="AC59" s="67"/>
       <c r="AD59" s="19"/>
       <c r="AE59" s="19"/>
       <c r="AF59" s="19"/>
       <c r="AG59" s="19"/>
       <c r="AH59" s="19"/>
       <c r="AI59" s="19"/>
-      <c r="AJ59" s="53"/>
+      <c r="AJ59" s="60"/>
       <c r="AK59" s="19"/>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A60" s="63"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
+    <row r="60" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A60" s="52"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
       <c r="E60" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F60" s="50" t="s">
         <v>40</v>
@@ -8009,28 +8008,28 @@
       <c r="S60" s="20"/>
       <c r="T60" s="20"/>
       <c r="U60" s="20"/>
-      <c r="V60" s="58"/>
+      <c r="V60" s="64"/>
       <c r="W60" s="20"/>
       <c r="X60" s="20"/>
       <c r="Y60" s="20"/>
       <c r="Z60" s="20"/>
       <c r="AA60" s="20"/>
       <c r="AB60" s="20"/>
-      <c r="AC60" s="61"/>
+      <c r="AC60" s="67"/>
       <c r="AD60" s="19"/>
       <c r="AE60" s="19"/>
       <c r="AF60" s="19"/>
       <c r="AG60" s="19"/>
       <c r="AH60" s="19"/>
       <c r="AI60" s="19"/>
-      <c r="AJ60" s="53"/>
+      <c r="AJ60" s="60"/>
       <c r="AK60" s="19"/>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A61" s="63"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
+    <row r="61" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A61" s="52"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="53"/>
       <c r="E61" s="2" t="s">
         <v>114</v>
       </c>
@@ -8054,28 +8053,28 @@
       <c r="S61" s="20"/>
       <c r="T61" s="20"/>
       <c r="U61" s="20"/>
-      <c r="V61" s="58"/>
+      <c r="V61" s="64"/>
       <c r="W61" s="20"/>
       <c r="X61" s="20"/>
       <c r="Y61" s="20"/>
       <c r="Z61" s="20"/>
       <c r="AA61" s="20"/>
       <c r="AB61" s="20"/>
-      <c r="AC61" s="61"/>
+      <c r="AC61" s="67"/>
       <c r="AD61" s="19"/>
       <c r="AE61" s="19"/>
       <c r="AF61" s="19"/>
       <c r="AG61" s="19"/>
       <c r="AH61" s="19"/>
       <c r="AI61" s="19"/>
-      <c r="AJ61" s="53"/>
+      <c r="AJ61" s="60"/>
       <c r="AK61" s="19"/>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A62" s="63"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
+    <row r="62" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A62" s="52"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="53"/>
       <c r="E62" s="2" t="s">
         <v>115</v>
       </c>
@@ -8099,32 +8098,32 @@
       <c r="S62" s="20"/>
       <c r="T62" s="20"/>
       <c r="U62" s="20"/>
-      <c r="V62" s="58"/>
+      <c r="V62" s="64"/>
       <c r="W62" s="20"/>
       <c r="X62" s="20"/>
       <c r="Y62" s="20"/>
       <c r="Z62" s="20"/>
       <c r="AA62" s="20"/>
       <c r="AB62" s="20"/>
-      <c r="AC62" s="61"/>
+      <c r="AC62" s="67"/>
       <c r="AD62" s="19"/>
       <c r="AE62" s="19"/>
       <c r="AF62" s="19"/>
       <c r="AG62" s="19"/>
       <c r="AH62" s="19"/>
       <c r="AI62" s="19"/>
-      <c r="AJ62" s="53"/>
+      <c r="AJ62" s="60"/>
       <c r="AK62" s="19"/>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A63" s="63"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55" t="s">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A63" s="52"/>
+      <c r="B63" s="55"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53" t="s">
         <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F63" s="50" t="s">
         <v>40</v>
@@ -8146,28 +8145,28 @@
       <c r="S63" s="20"/>
       <c r="T63" s="20"/>
       <c r="U63" s="20"/>
-      <c r="V63" s="58"/>
+      <c r="V63" s="64"/>
       <c r="W63" s="20"/>
       <c r="X63" s="20"/>
       <c r="Y63" s="20"/>
       <c r="Z63" s="20"/>
       <c r="AA63" s="20"/>
       <c r="AB63" s="20"/>
-      <c r="AC63" s="61"/>
+      <c r="AC63" s="67"/>
       <c r="AD63" s="19"/>
       <c r="AE63" s="19"/>
       <c r="AF63" s="19"/>
       <c r="AG63" s="19"/>
       <c r="AH63" s="19"/>
       <c r="AI63" s="19"/>
-      <c r="AJ63" s="53"/>
+      <c r="AJ63" s="60"/>
       <c r="AK63" s="19"/>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A64" s="63"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="55"/>
+    <row r="64" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A64" s="52"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
       <c r="E64" s="2" t="s">
         <v>109</v>
       </c>
@@ -8191,40 +8190,40 @@
       <c r="S64" s="20"/>
       <c r="T64" s="20"/>
       <c r="U64" s="20"/>
-      <c r="V64" s="58"/>
+      <c r="V64" s="64"/>
       <c r="W64" s="20"/>
       <c r="X64" s="20"/>
       <c r="Y64" s="20"/>
       <c r="Z64" s="20"/>
       <c r="AA64" s="20"/>
       <c r="AB64" s="20"/>
-      <c r="AC64" s="61"/>
+      <c r="AC64" s="67"/>
       <c r="AD64" s="19"/>
       <c r="AE64" s="19"/>
       <c r="AF64" s="19"/>
       <c r="AG64" s="19"/>
       <c r="AH64" s="19"/>
       <c r="AI64" s="19"/>
-      <c r="AJ64" s="53"/>
+      <c r="AJ64" s="60"/>
       <c r="AK64" s="19"/>
     </row>
-    <row r="65" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="63"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="55" t="s">
+    <row r="65" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A65" s="52"/>
+      <c r="B65" s="55"/>
+      <c r="C65" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="55" t="s">
+      <c r="D65" s="53" t="s">
         <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H65" s="35">
         <v>44126</v>
@@ -8246,36 +8245,36 @@
       <c r="S65" s="20"/>
       <c r="T65" s="20"/>
       <c r="U65" s="20"/>
-      <c r="V65" s="58"/>
+      <c r="V65" s="64"/>
       <c r="W65" s="20"/>
       <c r="X65" s="20"/>
       <c r="Y65" s="20"/>
       <c r="Z65" s="20"/>
       <c r="AA65" s="20"/>
       <c r="AB65" s="20"/>
-      <c r="AC65" s="61"/>
+      <c r="AC65" s="67"/>
       <c r="AD65" s="19"/>
       <c r="AE65" s="19"/>
       <c r="AF65" s="19"/>
       <c r="AG65" s="19"/>
       <c r="AH65" s="19"/>
       <c r="AI65" s="19"/>
-      <c r="AJ65" s="53"/>
+      <c r="AJ65" s="60"/>
       <c r="AK65" s="19"/>
     </row>
-    <row r="66" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="63"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
+    <row r="66" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A66" s="52"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
       <c r="E66" s="2" t="s">
         <v>137</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H66" s="35">
         <v>44126</v>
@@ -8295,27 +8294,27 @@
       <c r="S66" s="20"/>
       <c r="T66" s="20"/>
       <c r="U66" s="20"/>
-      <c r="V66" s="58"/>
+      <c r="V66" s="64"/>
       <c r="W66" s="20"/>
       <c r="X66" s="20"/>
       <c r="Y66" s="20"/>
       <c r="Z66" s="20"/>
       <c r="AA66" s="20"/>
       <c r="AB66" s="20"/>
-      <c r="AC66" s="61"/>
+      <c r="AC66" s="67"/>
       <c r="AD66" s="19"/>
       <c r="AE66" s="19"/>
       <c r="AF66" s="19"/>
       <c r="AG66" s="19"/>
       <c r="AH66" s="19"/>
       <c r="AI66" s="19"/>
-      <c r="AJ66" s="53"/>
+      <c r="AJ66" s="60"/>
       <c r="AK66" s="19"/>
     </row>
-    <row r="67" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="63"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="55"/>
+    <row r="67" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A67" s="52"/>
+      <c r="B67" s="55"/>
+      <c r="C67" s="53"/>
       <c r="D67" s="2" t="s">
         <v>105</v>
       </c>
@@ -8338,26 +8337,26 @@
       <c r="S67" s="20"/>
       <c r="T67" s="20"/>
       <c r="U67" s="20"/>
-      <c r="V67" s="58"/>
+      <c r="V67" s="64"/>
       <c r="W67" s="20"/>
       <c r="X67" s="20"/>
       <c r="Y67" s="20"/>
       <c r="Z67" s="20"/>
       <c r="AA67" s="20"/>
       <c r="AB67" s="20"/>
-      <c r="AC67" s="61"/>
+      <c r="AC67" s="67"/>
       <c r="AD67" s="19"/>
       <c r="AE67" s="19"/>
       <c r="AF67" s="19"/>
       <c r="AG67" s="19"/>
       <c r="AH67" s="19"/>
       <c r="AI67" s="19"/>
-      <c r="AJ67" s="53"/>
+      <c r="AJ67" s="60"/>
       <c r="AK67" s="19"/>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A68" s="63"/>
-      <c r="B68" s="65"/>
+    <row r="68" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A68" s="52"/>
+      <c r="B68" s="55"/>
       <c r="C68" s="20" t="s">
         <v>96</v>
       </c>
@@ -8381,38 +8380,38 @@
       <c r="S68" s="20"/>
       <c r="T68" s="20"/>
       <c r="U68" s="20"/>
-      <c r="V68" s="58"/>
+      <c r="V68" s="64"/>
       <c r="W68" s="20"/>
       <c r="X68" s="20"/>
       <c r="Y68" s="20"/>
       <c r="Z68" s="20"/>
       <c r="AA68" s="20"/>
       <c r="AB68" s="20"/>
-      <c r="AC68" s="61"/>
+      <c r="AC68" s="67"/>
       <c r="AD68" s="19"/>
       <c r="AE68" s="19"/>
       <c r="AF68" s="19"/>
       <c r="AG68" s="19"/>
       <c r="AH68" s="19"/>
       <c r="AI68" s="19"/>
-      <c r="AJ68" s="53"/>
+      <c r="AJ68" s="60"/>
       <c r="AK68" s="19"/>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A69" s="63"/>
-      <c r="B69" s="65"/>
+    <row r="69" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A69" s="52"/>
+      <c r="B69" s="55"/>
       <c r="C69" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G69" s="20" t="s">
         <v>173</v>
-      </c>
-      <c r="G69" s="20" t="s">
-        <v>174</v>
       </c>
       <c r="H69" s="35">
         <v>44127</v>
@@ -8432,27 +8431,27 @@
       <c r="S69" s="20"/>
       <c r="T69" s="20"/>
       <c r="U69" s="20"/>
-      <c r="V69" s="58"/>
+      <c r="V69" s="64"/>
       <c r="W69" s="20"/>
       <c r="X69" s="20"/>
       <c r="Y69" s="20"/>
       <c r="Z69" s="20"/>
       <c r="AA69" s="20"/>
       <c r="AB69" s="20"/>
-      <c r="AC69" s="61"/>
+      <c r="AC69" s="67"/>
       <c r="AD69" s="19"/>
       <c r="AE69" s="19"/>
       <c r="AF69" s="19"/>
       <c r="AG69" s="19"/>
       <c r="AH69" s="19"/>
       <c r="AI69" s="19"/>
-      <c r="AJ69" s="53"/>
+      <c r="AJ69" s="60"/>
       <c r="AK69" s="19"/>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A70" s="63"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="55" t="s">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A70" s="52"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="53" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -8485,27 +8484,27 @@
       <c r="S70" s="20"/>
       <c r="T70" s="20"/>
       <c r="U70" s="20"/>
-      <c r="V70" s="58"/>
+      <c r="V70" s="64"/>
       <c r="W70" s="20"/>
       <c r="X70" s="20"/>
       <c r="Y70" s="20"/>
       <c r="Z70" s="20"/>
       <c r="AA70" s="20"/>
       <c r="AB70" s="20"/>
-      <c r="AC70" s="61"/>
+      <c r="AC70" s="67"/>
       <c r="AD70" s="19"/>
       <c r="AE70" s="19"/>
       <c r="AF70" s="19"/>
       <c r="AG70" s="19"/>
       <c r="AH70" s="19"/>
       <c r="AI70" s="19"/>
-      <c r="AJ70" s="53"/>
+      <c r="AJ70" s="60"/>
       <c r="AK70" s="19"/>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A71" s="63"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="55"/>
+    <row r="71" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A71" s="52"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="53"/>
       <c r="D71" s="2" t="s">
         <v>133</v>
       </c>
@@ -8536,27 +8535,27 @@
       <c r="S71" s="20"/>
       <c r="T71" s="20"/>
       <c r="U71" s="20"/>
-      <c r="V71" s="58"/>
+      <c r="V71" s="64"/>
       <c r="W71" s="20"/>
       <c r="X71" s="20"/>
       <c r="Y71" s="20"/>
       <c r="Z71" s="20"/>
       <c r="AA71" s="20"/>
       <c r="AB71" s="20"/>
-      <c r="AC71" s="61"/>
+      <c r="AC71" s="67"/>
       <c r="AD71" s="19"/>
       <c r="AE71" s="19"/>
       <c r="AF71" s="19"/>
       <c r="AG71" s="19"/>
       <c r="AH71" s="19"/>
       <c r="AI71" s="19"/>
-      <c r="AJ71" s="53"/>
+      <c r="AJ71" s="60"/>
       <c r="AK71" s="19"/>
     </row>
-    <row r="72" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="63"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="66" t="s">
+    <row r="72" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A72" s="52"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="56" t="s">
         <v>106</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -8564,10 +8563,10 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H72" s="35">
         <v>44125</v>
@@ -8589,36 +8588,36 @@
       <c r="S72" s="20"/>
       <c r="T72" s="20"/>
       <c r="U72" s="20"/>
-      <c r="V72" s="58"/>
+      <c r="V72" s="64"/>
       <c r="W72" s="20"/>
       <c r="X72" s="20"/>
       <c r="Y72" s="20"/>
       <c r="Z72" s="20"/>
       <c r="AA72" s="20"/>
       <c r="AB72" s="20"/>
-      <c r="AC72" s="61"/>
+      <c r="AC72" s="67"/>
       <c r="AD72" s="19"/>
       <c r="AE72" s="19"/>
       <c r="AF72" s="19"/>
       <c r="AG72" s="19"/>
       <c r="AH72" s="19"/>
       <c r="AI72" s="19"/>
-      <c r="AJ72" s="53"/>
+      <c r="AJ72" s="60"/>
       <c r="AK72" s="19"/>
     </row>
-    <row r="73" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="63"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="67"/>
+    <row r="73" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A73" s="52"/>
+      <c r="B73" s="55"/>
+      <c r="C73" s="57"/>
       <c r="D73" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G73" s="20" t="s">
         <v>166</v>
-      </c>
-      <c r="G73" s="20" t="s">
-        <v>167</v>
       </c>
       <c r="H73" s="35">
         <v>44126</v>
@@ -8640,36 +8639,36 @@
       <c r="S73" s="20"/>
       <c r="T73" s="20"/>
       <c r="U73" s="20"/>
-      <c r="V73" s="58"/>
+      <c r="V73" s="64"/>
       <c r="W73" s="20"/>
       <c r="X73" s="20"/>
       <c r="Y73" s="20"/>
       <c r="Z73" s="20"/>
       <c r="AA73" s="20"/>
       <c r="AB73" s="20"/>
-      <c r="AC73" s="61"/>
+      <c r="AC73" s="67"/>
       <c r="AD73" s="19"/>
       <c r="AE73" s="19"/>
       <c r="AF73" s="19"/>
       <c r="AG73" s="19"/>
       <c r="AH73" s="19"/>
       <c r="AI73" s="19"/>
-      <c r="AJ73" s="53"/>
+      <c r="AJ73" s="60"/>
       <c r="AK73" s="19"/>
     </row>
-    <row r="74" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="63"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="68"/>
+    <row r="74" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A74" s="52"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="58"/>
       <c r="D74" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="G74" s="37" t="s">
         <v>173</v>
-      </c>
-      <c r="G74" s="37" t="s">
-        <v>174</v>
       </c>
       <c r="H74" s="35">
         <v>44126</v>
@@ -8691,27 +8690,27 @@
       <c r="S74" s="37"/>
       <c r="T74" s="37"/>
       <c r="U74" s="37"/>
-      <c r="V74" s="58"/>
+      <c r="V74" s="64"/>
       <c r="W74" s="37"/>
       <c r="X74" s="37"/>
       <c r="Y74" s="37"/>
       <c r="Z74" s="37"/>
       <c r="AA74" s="37"/>
       <c r="AB74" s="37"/>
-      <c r="AC74" s="61"/>
+      <c r="AC74" s="67"/>
       <c r="AD74" s="19"/>
       <c r="AE74" s="19"/>
       <c r="AF74" s="19"/>
       <c r="AG74" s="19"/>
       <c r="AH74" s="19"/>
       <c r="AI74" s="19"/>
-      <c r="AJ74" s="53"/>
+      <c r="AJ74" s="60"/>
       <c r="AK74" s="19"/>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A75" s="63"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="55" t="s">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A75" s="52"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="53" t="s">
         <v>30</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -8719,10 +8718,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H75" s="35">
         <v>44123</v>
@@ -8744,27 +8743,27 @@
       <c r="S75" s="20"/>
       <c r="T75" s="20"/>
       <c r="U75" s="20"/>
-      <c r="V75" s="58"/>
+      <c r="V75" s="64"/>
       <c r="W75" s="20"/>
       <c r="X75" s="20"/>
       <c r="Y75" s="20"/>
       <c r="Z75" s="20"/>
       <c r="AA75" s="20"/>
       <c r="AB75" s="20"/>
-      <c r="AC75" s="61"/>
+      <c r="AC75" s="67"/>
       <c r="AD75" s="19"/>
       <c r="AE75" s="19"/>
       <c r="AF75" s="19"/>
       <c r="AG75" s="19"/>
       <c r="AH75" s="19"/>
       <c r="AI75" s="19"/>
-      <c r="AJ75" s="53"/>
+      <c r="AJ75" s="60"/>
       <c r="AK75" s="19"/>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A76" s="63"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="55"/>
+    <row r="76" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A76" s="52"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="53"/>
       <c r="D76" s="2" t="s">
         <v>32</v>
       </c>
@@ -8787,27 +8786,27 @@
       <c r="S76" s="20"/>
       <c r="T76" s="20"/>
       <c r="U76" s="20"/>
-      <c r="V76" s="58"/>
+      <c r="V76" s="64"/>
       <c r="W76" s="20"/>
       <c r="X76" s="20"/>
       <c r="Y76" s="20"/>
       <c r="Z76" s="20"/>
       <c r="AA76" s="20"/>
       <c r="AB76" s="20"/>
-      <c r="AC76" s="61"/>
+      <c r="AC76" s="67"/>
       <c r="AD76" s="19"/>
       <c r="AE76" s="19"/>
       <c r="AF76" s="19"/>
       <c r="AG76" s="19"/>
       <c r="AH76" s="19"/>
       <c r="AI76" s="19"/>
-      <c r="AJ76" s="53"/>
+      <c r="AJ76" s="60"/>
       <c r="AK76" s="19"/>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A77" s="63"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="55"/>
+    <row r="77" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A77" s="52"/>
+      <c r="B77" s="55"/>
+      <c r="C77" s="53"/>
       <c r="D77" s="2" t="s">
         <v>33</v>
       </c>
@@ -8830,25 +8829,25 @@
       <c r="S77" s="20"/>
       <c r="T77" s="20"/>
       <c r="U77" s="20"/>
-      <c r="V77" s="59"/>
+      <c r="V77" s="65"/>
       <c r="W77" s="20"/>
       <c r="X77" s="20"/>
       <c r="Y77" s="20"/>
       <c r="Z77" s="20"/>
       <c r="AA77" s="20"/>
       <c r="AB77" s="20"/>
-      <c r="AC77" s="62"/>
+      <c r="AC77" s="68"/>
       <c r="AD77" s="19"/>
       <c r="AE77" s="19"/>
       <c r="AF77" s="19"/>
       <c r="AG77" s="19"/>
       <c r="AH77" s="19"/>
       <c r="AI77" s="19"/>
-      <c r="AJ77" s="54"/>
+      <c r="AJ77" s="61"/>
       <c r="AK77" s="19"/>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.4">
-      <c r="A78" s="63"/>
+    <row r="78" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A78" s="52"/>
       <c r="B78" s="44" t="s">
         <v>21</v>
       </c>
@@ -8869,18 +8868,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A5:A78"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B56:B77"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C72:C74"/>
     <mergeCell ref="AJ5:AJ77"/>
     <mergeCell ref="C18:C42"/>
     <mergeCell ref="B11:B55"/>
@@ -8897,6 +8884,18 @@
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="D65:D66"/>
     <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A5:A78"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B56:B77"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C74"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K3:AK5 AK6:AK77 W6:AB77 AD6:AI77 K6:U77">
@@ -8969,13 +8968,13 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="11" max="11" width="32.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="53.375" customWidth="1"/>
+    <col min="11" max="11" width="32.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="53.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B3" s="69"/>
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
@@ -8985,7 +8984,7 @@
       <c r="H3" s="69"/>
       <c r="I3" s="69"/>
     </row>
-    <row r="4" spans="2:14" ht="45.75" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
       <c r="B4" s="69"/>
       <c r="C4" s="69"/>
       <c r="D4" s="69"/>
@@ -9001,7 +9000,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
       <c r="B5" s="69"/>
       <c r="C5" s="69"/>
       <c r="D5" s="69"/>
@@ -9017,7 +9016,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
       <c r="B6" s="69"/>
       <c r="C6" s="69"/>
       <c r="D6" s="69"/>
@@ -9033,7 +9032,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
       <c r="B7" s="69"/>
       <c r="C7" s="69"/>
       <c r="D7" s="69"/>
@@ -9046,10 +9045,10 @@
         <v>82</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
       <c r="B8" s="69"/>
       <c r="C8" s="69"/>
       <c r="D8" s="69"/>
@@ -9063,7 +9062,7 @@
       </c>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
       <c r="B9" s="69"/>
       <c r="C9" s="69"/>
       <c r="D9" s="69"/>
@@ -9077,7 +9076,7 @@
       </c>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
       <c r="B10" s="69"/>
       <c r="C10" s="69"/>
       <c r="D10" s="69"/>
@@ -9091,7 +9090,7 @@
       </c>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
       <c r="B11" s="69"/>
       <c r="C11" s="69"/>
       <c r="D11" s="69"/>
@@ -9106,7 +9105,7 @@
       <c r="L11" s="13"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
       <c r="B12" s="69"/>
       <c r="C12" s="69"/>
       <c r="D12" s="69"/>
@@ -9120,7 +9119,7 @@
       </c>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
       <c r="B13" s="69"/>
       <c r="C13" s="69"/>
       <c r="D13" s="69"/>
@@ -9134,7 +9133,7 @@
       </c>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
       <c r="B14" s="69"/>
       <c r="C14" s="69"/>
       <c r="D14" s="69"/>
@@ -9148,7 +9147,7 @@
       </c>
       <c r="L14" s="13"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B15" s="69"/>
       <c r="C15" s="69"/>
       <c r="D15" s="69"/>
@@ -9158,7 +9157,7 @@
       <c r="H15" s="69"/>
       <c r="I15" s="69"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B16" s="69"/>
       <c r="C16" s="69"/>
       <c r="D16" s="69"/>
@@ -9168,7 +9167,7 @@
       <c r="H16" s="69"/>
       <c r="I16" s="69"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="69"/>
       <c r="C17" s="69"/>
       <c r="D17" s="69"/>
@@ -9178,7 +9177,7 @@
       <c r="H17" s="69"/>
       <c r="I17" s="69"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" s="69"/>
       <c r="C18" s="69"/>
       <c r="D18" s="69"/>
@@ -9188,7 +9187,7 @@
       <c r="H18" s="69"/>
       <c r="I18" s="69"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" s="69"/>
       <c r="C19" s="69"/>
       <c r="D19" s="69"/>
@@ -9198,7 +9197,7 @@
       <c r="H19" s="69"/>
       <c r="I19" s="69"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" s="69"/>
       <c r="C20" s="69"/>
       <c r="D20" s="69"/>
@@ -9208,7 +9207,7 @@
       <c r="H20" s="69"/>
       <c r="I20" s="69"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B21" s="69"/>
       <c r="C21" s="69"/>
       <c r="D21" s="69"/>
@@ -9218,7 +9217,7 @@
       <c r="H21" s="69"/>
       <c r="I21" s="69"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B22" s="69"/>
       <c r="C22" s="69"/>
       <c r="D22" s="69"/>
@@ -9228,7 +9227,7 @@
       <c r="H22" s="69"/>
       <c r="I22" s="69"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B23" s="69"/>
       <c r="C23" s="69"/>
       <c r="D23" s="69"/>
@@ -9256,7 +9255,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9272,16 +9271,16 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.25" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" style="8" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="70" t="s">
         <v>47</v>
       </c>
@@ -9291,7 +9290,7 @@
       <c r="E1" s="69"/>
       <c r="F1" s="69"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="69"/>
       <c r="B2" s="69"/>
       <c r="C2" s="69"/>
@@ -9299,13 +9298,13 @@
       <c r="E2" s="69"/>
       <c r="F2" s="69"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="7"/>
       <c r="B4" s="14" t="s">
         <v>54</v>
@@ -9321,7 +9320,7 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="15" t="s">
         <v>48</v>
       </c>
@@ -9333,7 +9332,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="15" t="s">
         <v>49</v>
       </c>
@@ -9347,7 +9346,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="15" t="s">
         <v>70</v>
       </c>
@@ -9359,7 +9358,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="15" t="s">
         <v>50</v>
       </c>
@@ -9371,7 +9370,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="15" t="s">
         <v>51</v>
       </c>
@@ -9383,7 +9382,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="71" t="s">
         <v>67</v>
       </c>
@@ -9397,7 +9396,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" s="71"/>
       <c r="C11" s="2" t="s">
         <v>73</v>
@@ -9405,7 +9404,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" s="15" t="s">
         <v>52</v>
       </c>
@@ -9419,7 +9418,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" s="15" t="s">
         <v>53</v>
       </c>
@@ -9431,7 +9430,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" s="15" t="s">
         <v>64</v>
       </c>
@@ -9443,25 +9442,25 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" s="15"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B16" s="15"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="15"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="15" t="s">
         <v>56</v>
       </c>
@@ -9488,9 +9487,9 @@
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="4.8984375" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="72" t="s">
         <v>95</v>
       </c>

--- a/schedule/ガントチャートxlsx.xlsx
+++ b/schedule/ガントチャートxlsx.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gsp030\Desktop\git\okashi_222\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\okashi_222\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14928" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="180">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -1285,6 +1285,10 @@
     <rPh sb="0" eb="2">
       <t>マスザワ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガントチャート</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1831,7 +1835,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1988,24 +1992,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2017,6 +2003,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2038,6 +2027,24 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3113,6 +3120,254 @@
         <a:xfrm>
           <a:off x="11944679" y="4538870"/>
           <a:ext cx="512364" cy="231549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 52778"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>12753</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>11596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>260073</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>2950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="右矢印 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12221318" y="4293705"/>
+          <a:ext cx="512364" cy="231549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 52778"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>4470</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>19879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>251790</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>11232</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="右矢印 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11682948" y="6223553"/>
+          <a:ext cx="512364" cy="231549"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 52778"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>15982</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>37114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>10074</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>226214</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="右矢印 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12224547" y="8162353"/>
+          <a:ext cx="259136" cy="189100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 52778"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>11013</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>32144</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>5105</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>221244</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="右矢印 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12219578" y="8877970"/>
+          <a:ext cx="259136" cy="189100"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -5118,34 +5373,34 @@
   <dimension ref="A1:AS78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="22.59765625" customWidth="1"/>
-    <col min="6" max="6" width="7.09765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="7"/>
-    <col min="8" max="9" width="7.09765625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="3" customWidth="1"/>
     <col min="12" max="15" width="3.5" customWidth="1"/>
-    <col min="16" max="16" width="4.3984375" customWidth="1"/>
+    <col min="16" max="16" width="4.375" customWidth="1"/>
     <col min="17" max="17" width="3.5" customWidth="1"/>
-    <col min="18" max="18" width="3.8984375" customWidth="1"/>
+    <col min="18" max="18" width="3.875" customWidth="1"/>
     <col min="19" max="35" width="3.5" customWidth="1"/>
-    <col min="36" max="36" width="6.69921875" customWidth="1"/>
+    <col min="36" max="36" width="6.75" customWidth="1"/>
     <col min="37" max="45" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:45" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B1" s="16" t="s">
         <v>92</v>
       </c>
@@ -5177,7 +5432,7 @@
       </c>
       <c r="U1" s="25"/>
     </row>
-    <row r="3" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K3" s="17">
         <v>44116</v>
       </c>
@@ -5268,7 +5523,7 @@
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
     </row>
-    <row r="4" spans="1:45" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:45" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="32" t="s">
         <v>6</v>
       </c>
@@ -5405,11 +5660,11 @@
         <v>44142</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="52" t="s">
+    <row r="5" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="65" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -5445,7 +5700,7 @@
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
-      <c r="V5" s="63" t="s">
+      <c r="V5" s="58" t="s">
         <v>117</v>
       </c>
       <c r="W5" s="19"/>
@@ -5454,7 +5709,7 @@
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
       <c r="AB5" s="19"/>
-      <c r="AC5" s="66" t="s">
+      <c r="AC5" s="61" t="s">
         <v>118</v>
       </c>
       <c r="AD5" s="19"/>
@@ -5463,14 +5718,14 @@
       <c r="AG5" s="19"/>
       <c r="AH5" s="19"/>
       <c r="AI5" s="19"/>
-      <c r="AJ5" s="59" t="s">
+      <c r="AJ5" s="53" t="s">
         <v>94</v>
       </c>
       <c r="AK5" s="19"/>
     </row>
-    <row r="6" spans="1:45" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="52"/>
-      <c r="B6" s="54"/>
+    <row r="6" spans="1:45" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="64"/>
+      <c r="B6" s="65"/>
       <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
@@ -5485,9 +5740,11 @@
       <c r="H6" s="35">
         <v>44125</v>
       </c>
-      <c r="I6" s="35"/>
+      <c r="I6" s="35">
+        <v>44131</v>
+      </c>
       <c r="J6" s="36">
-        <v>0.05</v>
+        <v>0.9</v>
       </c>
       <c r="K6" s="30"/>
       <c r="L6" s="20"/>
@@ -5500,26 +5757,26 @@
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
-      <c r="V6" s="64"/>
+      <c r="V6" s="59"/>
       <c r="W6" s="20"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20"/>
-      <c r="AC6" s="67"/>
+      <c r="AC6" s="62"/>
       <c r="AD6" s="19"/>
       <c r="AE6" s="19"/>
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="19"/>
-      <c r="AJ6" s="60"/>
+      <c r="AJ6" s="54"/>
       <c r="AK6" s="19"/>
     </row>
-    <row r="7" spans="1:45" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="52"/>
-      <c r="B7" s="54"/>
+    <row r="7" spans="1:45" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="64"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="20" t="s">
         <v>10</v>
       </c>
@@ -5531,10 +5788,12 @@
         <v>39</v>
       </c>
       <c r="G7" s="20"/>
-      <c r="H7" s="35"/>
+      <c r="H7" s="35">
+        <v>44125</v>
+      </c>
       <c r="I7" s="35"/>
       <c r="J7" s="36">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K7" s="30"/>
       <c r="L7" s="20"/>
@@ -5547,30 +5806,32 @@
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
-      <c r="V7" s="64"/>
+      <c r="V7" s="59"/>
       <c r="W7" s="20"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20"/>
-      <c r="AC7" s="67"/>
+      <c r="AC7" s="62"/>
       <c r="AD7" s="19"/>
       <c r="AE7" s="19"/>
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
       <c r="AI7" s="19"/>
-      <c r="AJ7" s="60"/>
+      <c r="AJ7" s="54"/>
       <c r="AK7" s="19"/>
     </row>
-    <row r="8" spans="1:45" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="52"/>
-      <c r="B8" s="54"/>
+    <row r="8" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="64"/>
+      <c r="B8" s="65"/>
       <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="46"/>
+      <c r="D8" s="52" t="s">
+        <v>179</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="20" t="s">
         <v>39</v>
@@ -5594,26 +5855,26 @@
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
-      <c r="V8" s="64"/>
+      <c r="V8" s="59"/>
       <c r="W8" s="20"/>
       <c r="X8" s="20"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
-      <c r="AC8" s="67"/>
+      <c r="AC8" s="62"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
       <c r="AH8" s="19"/>
       <c r="AI8" s="19"/>
-      <c r="AJ8" s="60"/>
+      <c r="AJ8" s="54"/>
       <c r="AK8" s="19"/>
     </row>
-    <row r="9" spans="1:45" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="52"/>
-      <c r="B9" s="54"/>
+    <row r="9" spans="1:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="64"/>
+      <c r="B9" s="65"/>
       <c r="C9" s="20" t="s">
         <v>34</v>
       </c>
@@ -5641,26 +5902,26 @@
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
-      <c r="V9" s="64"/>
+      <c r="V9" s="59"/>
       <c r="W9" s="20"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20"/>
-      <c r="AC9" s="67"/>
+      <c r="AC9" s="62"/>
       <c r="AD9" s="19"/>
       <c r="AE9" s="19"/>
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
       <c r="AI9" s="19"/>
-      <c r="AJ9" s="60"/>
+      <c r="AJ9" s="54"/>
       <c r="AK9" s="19"/>
     </row>
-    <row r="10" spans="1:45" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="52"/>
-      <c r="B10" s="54"/>
+    <row r="10" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="64"/>
+      <c r="B10" s="65"/>
       <c r="C10" s="20" t="s">
         <v>35</v>
       </c>
@@ -5686,29 +5947,29 @@
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
-      <c r="V10" s="64"/>
+      <c r="V10" s="59"/>
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20"/>
-      <c r="AC10" s="67"/>
+      <c r="AC10" s="62"/>
       <c r="AD10" s="19"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="19"/>
-      <c r="AJ10" s="60"/>
+      <c r="AJ10" s="54"/>
       <c r="AK10" s="19"/>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A11" s="52"/>
-      <c r="B11" s="62" t="s">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A11" s="64"/>
+      <c r="B11" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="56" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -5733,27 +5994,27 @@
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
-      <c r="V11" s="64"/>
+      <c r="V11" s="59"/>
       <c r="W11" s="20"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20"/>
-      <c r="AC11" s="67"/>
+      <c r="AC11" s="62"/>
       <c r="AD11" s="19"/>
       <c r="AE11" s="19"/>
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
       <c r="AI11" s="19"/>
-      <c r="AJ11" s="60"/>
+      <c r="AJ11" s="54"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A12" s="52"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="53"/>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A12" s="64"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
@@ -5776,27 +6037,27 @@
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
-      <c r="V12" s="64"/>
+      <c r="V12" s="59"/>
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20"/>
-      <c r="AC12" s="67"/>
+      <c r="AC12" s="62"/>
       <c r="AD12" s="19"/>
       <c r="AE12" s="19"/>
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="19"/>
-      <c r="AJ12" s="60"/>
+      <c r="AJ12" s="54"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A13" s="52"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="53"/>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A13" s="64"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="38" t="s">
         <v>45</v>
       </c>
@@ -5819,27 +6080,27 @@
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
-      <c r="V13" s="64"/>
+      <c r="V13" s="59"/>
       <c r="W13" s="20"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20"/>
-      <c r="AC13" s="67"/>
+      <c r="AC13" s="62"/>
       <c r="AD13" s="19"/>
       <c r="AE13" s="19"/>
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
-      <c r="AJ13" s="60"/>
+      <c r="AJ13" s="54"/>
       <c r="AK13" s="19"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A14" s="52"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="53"/>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A14" s="64"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="39" t="s">
         <v>27</v>
       </c>
@@ -5862,27 +6123,27 @@
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
-      <c r="V14" s="64"/>
+      <c r="V14" s="59"/>
       <c r="W14" s="20"/>
       <c r="X14" s="20"/>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20"/>
-      <c r="AC14" s="67"/>
+      <c r="AC14" s="62"/>
       <c r="AD14" s="19"/>
       <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
       <c r="AI14" s="19"/>
-      <c r="AJ14" s="60"/>
+      <c r="AJ14" s="54"/>
       <c r="AK14" s="19"/>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A15" s="52"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="53" t="s">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A15" s="64"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="56" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -5909,27 +6170,27 @@
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
-      <c r="V15" s="64"/>
+      <c r="V15" s="59"/>
       <c r="W15" s="20"/>
       <c r="X15" s="20"/>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
-      <c r="AC15" s="67"/>
+      <c r="AC15" s="62"/>
       <c r="AD15" s="19"/>
       <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
       <c r="AI15" s="19"/>
-      <c r="AJ15" s="60"/>
+      <c r="AJ15" s="54"/>
       <c r="AK15" s="19"/>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A16" s="52"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="53"/>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A16" s="64"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="56"/>
       <c r="D16" s="40" t="s">
         <v>45</v>
       </c>
@@ -5952,27 +6213,27 @@
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
-      <c r="V16" s="64"/>
+      <c r="V16" s="59"/>
       <c r="W16" s="20"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
-      <c r="AC16" s="67"/>
+      <c r="AC16" s="62"/>
       <c r="AD16" s="19"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="19"/>
-      <c r="AJ16" s="60"/>
+      <c r="AJ16" s="54"/>
       <c r="AK16" s="19"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A17" s="52"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="53"/>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A17" s="64"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="56"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
@@ -5995,30 +6256,30 @@
       <c r="S17" s="20"/>
       <c r="T17" s="20"/>
       <c r="U17" s="20"/>
-      <c r="V17" s="64"/>
+      <c r="V17" s="59"/>
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
-      <c r="AC17" s="67"/>
+      <c r="AC17" s="62"/>
       <c r="AD17" s="19"/>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="19"/>
       <c r="AI17" s="19"/>
-      <c r="AJ17" s="60"/>
+      <c r="AJ17" s="54"/>
       <c r="AK17" s="19"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A18" s="52"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="53" t="s">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A18" s="64"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="53" t="s">
+      <c r="D18" s="56" t="s">
         <v>102</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -6050,28 +6311,28 @@
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
-      <c r="V18" s="64"/>
+      <c r="V18" s="59"/>
       <c r="W18" s="20"/>
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
-      <c r="AC18" s="67"/>
+      <c r="AC18" s="62"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="19"/>
       <c r="AI18" s="19"/>
-      <c r="AJ18" s="60"/>
+      <c r="AJ18" s="54"/>
       <c r="AK18" s="19"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A19" s="52"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A19" s="64"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
       <c r="E19" s="2" t="s">
         <v>145</v>
       </c>
@@ -6101,28 +6362,28 @@
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
-      <c r="V19" s="64"/>
+      <c r="V19" s="59"/>
       <c r="W19" s="20"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
-      <c r="AC19" s="67"/>
+      <c r="AC19" s="62"/>
       <c r="AD19" s="19"/>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
       <c r="AI19" s="19"/>
-      <c r="AJ19" s="60"/>
+      <c r="AJ19" s="54"/>
       <c r="AK19" s="19"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A20" s="52"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A20" s="64"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
       <c r="E20" s="2" t="s">
         <v>119</v>
       </c>
@@ -6152,28 +6413,28 @@
       <c r="S20" s="20"/>
       <c r="T20" s="20"/>
       <c r="U20" s="20"/>
-      <c r="V20" s="64"/>
+      <c r="V20" s="59"/>
       <c r="W20" s="20"/>
       <c r="X20" s="20"/>
       <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
-      <c r="AC20" s="67"/>
+      <c r="AC20" s="62"/>
       <c r="AD20" s="19"/>
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="19"/>
       <c r="AI20" s="19"/>
-      <c r="AJ20" s="60"/>
+      <c r="AJ20" s="54"/>
       <c r="AK20" s="19"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A21" s="52"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A21" s="64"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
       <c r="E21" s="2" t="s">
         <v>115</v>
       </c>
@@ -6199,28 +6460,28 @@
       <c r="S21" s="20"/>
       <c r="T21" s="20"/>
       <c r="U21" s="20"/>
-      <c r="V21" s="64"/>
+      <c r="V21" s="59"/>
       <c r="W21" s="20"/>
       <c r="X21" s="20"/>
       <c r="Y21" s="20"/>
       <c r="Z21" s="20"/>
       <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
-      <c r="AC21" s="67"/>
+      <c r="AC21" s="62"/>
       <c r="AD21" s="19"/>
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
       <c r="AI21" s="19"/>
-      <c r="AJ21" s="60"/>
+      <c r="AJ21" s="54"/>
       <c r="AK21" s="19"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A22" s="52"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A22" s="64"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
       <c r="E22" s="2" t="s">
         <v>142</v>
       </c>
@@ -6250,28 +6511,28 @@
       <c r="S22" s="20"/>
       <c r="T22" s="20"/>
       <c r="U22" s="20"/>
-      <c r="V22" s="64"/>
+      <c r="V22" s="59"/>
       <c r="W22" s="20"/>
       <c r="X22" s="20"/>
       <c r="Y22" s="20"/>
       <c r="Z22" s="20"/>
       <c r="AA22" s="20"/>
       <c r="AB22" s="20"/>
-      <c r="AC22" s="67"/>
+      <c r="AC22" s="62"/>
       <c r="AD22" s="19"/>
       <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="19"/>
       <c r="AI22" s="19"/>
-      <c r="AJ22" s="60"/>
+      <c r="AJ22" s="54"/>
       <c r="AK22" s="19"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A23" s="52"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A23" s="64"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="2" t="s">
         <v>125</v>
       </c>
@@ -6301,28 +6562,28 @@
       <c r="S23" s="20"/>
       <c r="T23" s="20"/>
       <c r="U23" s="20"/>
-      <c r="V23" s="64"/>
+      <c r="V23" s="59"/>
       <c r="W23" s="20"/>
       <c r="X23" s="20"/>
       <c r="Y23" s="20"/>
       <c r="Z23" s="20"/>
       <c r="AA23" s="20"/>
       <c r="AB23" s="20"/>
-      <c r="AC23" s="67"/>
+      <c r="AC23" s="62"/>
       <c r="AD23" s="19"/>
       <c r="AE23" s="19"/>
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="19"/>
       <c r="AI23" s="19"/>
-      <c r="AJ23" s="60"/>
+      <c r="AJ23" s="54"/>
       <c r="AK23" s="19"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A24" s="52"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A24" s="64"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
       <c r="E24" s="2" t="s">
         <v>116</v>
       </c>
@@ -6344,28 +6605,28 @@
       <c r="S24" s="20"/>
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
-      <c r="V24" s="64"/>
+      <c r="V24" s="59"/>
       <c r="W24" s="20"/>
       <c r="X24" s="20"/>
       <c r="Y24" s="20"/>
       <c r="Z24" s="20"/>
       <c r="AA24" s="20"/>
       <c r="AB24" s="20"/>
-      <c r="AC24" s="67"/>
+      <c r="AC24" s="62"/>
       <c r="AD24" s="19"/>
       <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="19"/>
       <c r="AI24" s="19"/>
-      <c r="AJ24" s="60"/>
+      <c r="AJ24" s="54"/>
       <c r="AK24" s="19"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A25" s="52"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A25" s="64"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
       <c r="E25" s="2" t="s">
         <v>174</v>
       </c>
@@ -6391,28 +6652,28 @@
       <c r="S25" s="50"/>
       <c r="T25" s="50"/>
       <c r="U25" s="50"/>
-      <c r="V25" s="64"/>
+      <c r="V25" s="59"/>
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="50"/>
       <c r="Z25" s="50"/>
       <c r="AA25" s="50"/>
       <c r="AB25" s="50"/>
-      <c r="AC25" s="67"/>
+      <c r="AC25" s="62"/>
       <c r="AD25" s="51"/>
       <c r="AE25" s="51"/>
       <c r="AF25" s="51"/>
       <c r="AG25" s="51"/>
       <c r="AH25" s="51"/>
       <c r="AI25" s="51"/>
-      <c r="AJ25" s="60"/>
+      <c r="AJ25" s="54"/>
       <c r="AK25" s="51"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A26" s="52"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A26" s="64"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="2" t="s">
         <v>113</v>
       </c>
@@ -6442,28 +6703,28 @@
       <c r="S26" s="20"/>
       <c r="T26" s="20"/>
       <c r="U26" s="20"/>
-      <c r="V26" s="64"/>
+      <c r="V26" s="59"/>
       <c r="W26" s="20"/>
       <c r="X26" s="20"/>
       <c r="Y26" s="20"/>
       <c r="Z26" s="20"/>
       <c r="AA26" s="20"/>
       <c r="AB26" s="20"/>
-      <c r="AC26" s="67"/>
+      <c r="AC26" s="62"/>
       <c r="AD26" s="19"/>
       <c r="AE26" s="19"/>
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
       <c r="AH26" s="19"/>
       <c r="AI26" s="19"/>
-      <c r="AJ26" s="60"/>
+      <c r="AJ26" s="54"/>
       <c r="AK26" s="19"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A27" s="52"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A27" s="64"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
       <c r="E27" s="2" t="s">
         <v>109</v>
       </c>
@@ -6485,28 +6746,28 @@
       <c r="S27" s="20"/>
       <c r="T27" s="20"/>
       <c r="U27" s="20"/>
-      <c r="V27" s="64"/>
+      <c r="V27" s="59"/>
       <c r="W27" s="20"/>
       <c r="X27" s="20"/>
       <c r="Y27" s="20"/>
       <c r="Z27" s="20"/>
       <c r="AA27" s="20"/>
       <c r="AB27" s="20"/>
-      <c r="AC27" s="67"/>
+      <c r="AC27" s="62"/>
       <c r="AD27" s="19"/>
       <c r="AE27" s="19"/>
       <c r="AF27" s="19"/>
       <c r="AG27" s="19"/>
       <c r="AH27" s="19"/>
       <c r="AI27" s="19"/>
-      <c r="AJ27" s="60"/>
+      <c r="AJ27" s="54"/>
       <c r="AK27" s="19"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A28" s="52"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53" t="s">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A28" s="64"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -6538,28 +6799,28 @@
       <c r="S28" s="20"/>
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
-      <c r="V28" s="64"/>
+      <c r="V28" s="59"/>
       <c r="W28" s="20"/>
       <c r="X28" s="20"/>
       <c r="Y28" s="20"/>
       <c r="Z28" s="20"/>
       <c r="AA28" s="20"/>
       <c r="AB28" s="20"/>
-      <c r="AC28" s="67"/>
+      <c r="AC28" s="62"/>
       <c r="AD28" s="19"/>
       <c r="AE28" s="19"/>
       <c r="AF28" s="19"/>
       <c r="AG28" s="19"/>
       <c r="AH28" s="19"/>
       <c r="AI28" s="19"/>
-      <c r="AJ28" s="60"/>
+      <c r="AJ28" s="54"/>
       <c r="AK28" s="19"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A29" s="52"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A29" s="64"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
       <c r="E29" s="2" t="s">
         <v>126</v>
       </c>
@@ -6589,28 +6850,28 @@
       <c r="S29" s="20"/>
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
-      <c r="V29" s="64"/>
+      <c r="V29" s="59"/>
       <c r="W29" s="20"/>
       <c r="X29" s="20"/>
       <c r="Y29" s="20"/>
       <c r="Z29" s="20"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="20"/>
-      <c r="AC29" s="67"/>
+      <c r="AC29" s="62"/>
       <c r="AD29" s="19"/>
       <c r="AE29" s="19"/>
       <c r="AF29" s="19"/>
       <c r="AG29" s="19"/>
       <c r="AH29" s="19"/>
       <c r="AI29" s="19"/>
-      <c r="AJ29" s="60"/>
+      <c r="AJ29" s="54"/>
       <c r="AK29" s="19"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A30" s="52"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53" t="s">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A30" s="64"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -6640,28 +6901,28 @@
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
       <c r="U30" s="20"/>
-      <c r="V30" s="64"/>
+      <c r="V30" s="59"/>
       <c r="W30" s="20"/>
       <c r="X30" s="20"/>
       <c r="Y30" s="20"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
-      <c r="AC30" s="67"/>
+      <c r="AC30" s="62"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="19"/>
       <c r="AF30" s="19"/>
       <c r="AG30" s="19"/>
       <c r="AH30" s="19"/>
       <c r="AI30" s="19"/>
-      <c r="AJ30" s="60"/>
+      <c r="AJ30" s="54"/>
       <c r="AK30" s="19"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A31" s="52"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A31" s="64"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
       <c r="E31" s="2" t="s">
         <v>150</v>
       </c>
@@ -6683,28 +6944,28 @@
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
-      <c r="V31" s="64"/>
+      <c r="V31" s="59"/>
       <c r="W31" s="20"/>
       <c r="X31" s="20"/>
       <c r="Y31" s="20"/>
       <c r="Z31" s="20"/>
       <c r="AA31" s="20"/>
       <c r="AB31" s="20"/>
-      <c r="AC31" s="67"/>
+      <c r="AC31" s="62"/>
       <c r="AD31" s="19"/>
       <c r="AE31" s="19"/>
       <c r="AF31" s="19"/>
       <c r="AG31" s="19"/>
       <c r="AH31" s="19"/>
       <c r="AI31" s="19"/>
-      <c r="AJ31" s="60"/>
+      <c r="AJ31" s="54"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A32" s="52"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A32" s="64"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
       <c r="E32" s="2" t="s">
         <v>120</v>
       </c>
@@ -6734,28 +6995,28 @@
       <c r="S32" s="20"/>
       <c r="T32" s="20"/>
       <c r="U32" s="20"/>
-      <c r="V32" s="64"/>
+      <c r="V32" s="59"/>
       <c r="W32" s="20"/>
       <c r="X32" s="20"/>
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
       <c r="AA32" s="20"/>
       <c r="AB32" s="20"/>
-      <c r="AC32" s="67"/>
+      <c r="AC32" s="62"/>
       <c r="AD32" s="19"/>
       <c r="AE32" s="19"/>
       <c r="AF32" s="19"/>
       <c r="AG32" s="19"/>
       <c r="AH32" s="19"/>
       <c r="AI32" s="19"/>
-      <c r="AJ32" s="60"/>
+      <c r="AJ32" s="54"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A33" s="52"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53" t="s">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A33" s="64"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56" t="s">
         <v>97</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -6779,28 +7040,28 @@
       <c r="S33" s="20"/>
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
-      <c r="V33" s="64"/>
+      <c r="V33" s="59"/>
       <c r="W33" s="20"/>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
       <c r="AA33" s="20"/>
       <c r="AB33" s="20"/>
-      <c r="AC33" s="67"/>
+      <c r="AC33" s="62"/>
       <c r="AD33" s="19"/>
       <c r="AE33" s="19"/>
       <c r="AF33" s="19"/>
       <c r="AG33" s="19"/>
       <c r="AH33" s="19"/>
       <c r="AI33" s="19"/>
-      <c r="AJ33" s="60"/>
+      <c r="AJ33" s="54"/>
       <c r="AK33" s="19"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A34" s="52"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A34" s="64"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
       <c r="E34" s="2" t="s">
         <v>148</v>
       </c>
@@ -6830,28 +7091,28 @@
       <c r="S34" s="20"/>
       <c r="T34" s="20"/>
       <c r="U34" s="20"/>
-      <c r="V34" s="64"/>
+      <c r="V34" s="59"/>
       <c r="W34" s="20"/>
       <c r="X34" s="20"/>
       <c r="Y34" s="20"/>
       <c r="Z34" s="20"/>
       <c r="AA34" s="20"/>
       <c r="AB34" s="20"/>
-      <c r="AC34" s="67"/>
+      <c r="AC34" s="62"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="19"/>
       <c r="AG34" s="19"/>
       <c r="AH34" s="19"/>
       <c r="AI34" s="19"/>
-      <c r="AJ34" s="60"/>
+      <c r="AJ34" s="54"/>
       <c r="AK34" s="19"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A35" s="52"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A35" s="64"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
       <c r="E35" s="2" t="s">
         <v>110</v>
       </c>
@@ -6873,27 +7134,27 @@
       <c r="S35" s="20"/>
       <c r="T35" s="20"/>
       <c r="U35" s="20"/>
-      <c r="V35" s="64"/>
+      <c r="V35" s="59"/>
       <c r="W35" s="20"/>
       <c r="X35" s="20"/>
       <c r="Y35" s="20"/>
       <c r="Z35" s="20"/>
       <c r="AA35" s="20"/>
       <c r="AB35" s="20"/>
-      <c r="AC35" s="67"/>
+      <c r="AC35" s="62"/>
       <c r="AD35" s="19"/>
       <c r="AE35" s="19"/>
       <c r="AF35" s="19"/>
       <c r="AG35" s="19"/>
       <c r="AH35" s="19"/>
       <c r="AI35" s="19"/>
-      <c r="AJ35" s="60"/>
+      <c r="AJ35" s="54"/>
       <c r="AK35" s="19"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A36" s="52"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="53"/>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A36" s="64"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="56"/>
       <c r="D36" s="2" t="s">
         <v>24</v>
       </c>
@@ -6918,27 +7179,27 @@
       <c r="S36" s="20"/>
       <c r="T36" s="20"/>
       <c r="U36" s="20"/>
-      <c r="V36" s="64"/>
+      <c r="V36" s="59"/>
       <c r="W36" s="20"/>
       <c r="X36" s="20"/>
       <c r="Y36" s="20"/>
       <c r="Z36" s="20"/>
       <c r="AA36" s="20"/>
       <c r="AB36" s="20"/>
-      <c r="AC36" s="67"/>
+      <c r="AC36" s="62"/>
       <c r="AD36" s="19"/>
       <c r="AE36" s="19"/>
       <c r="AF36" s="19"/>
       <c r="AG36" s="19"/>
       <c r="AH36" s="19"/>
       <c r="AI36" s="19"/>
-      <c r="AJ36" s="60"/>
+      <c r="AJ36" s="54"/>
       <c r="AK36" s="19"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A37" s="52"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="53"/>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A37" s="64"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="56"/>
       <c r="D37" s="2" t="s">
         <v>151</v>
       </c>
@@ -6971,27 +7232,27 @@
       <c r="S37" s="20"/>
       <c r="T37" s="20"/>
       <c r="U37" s="20"/>
-      <c r="V37" s="64"/>
+      <c r="V37" s="59"/>
       <c r="W37" s="20"/>
       <c r="X37" s="20"/>
       <c r="Y37" s="20"/>
       <c r="Z37" s="20"/>
       <c r="AA37" s="20"/>
       <c r="AB37" s="20"/>
-      <c r="AC37" s="67"/>
+      <c r="AC37" s="62"/>
       <c r="AD37" s="19"/>
       <c r="AE37" s="19"/>
       <c r="AF37" s="19"/>
       <c r="AG37" s="19"/>
       <c r="AH37" s="19"/>
       <c r="AI37" s="19"/>
-      <c r="AJ37" s="60"/>
+      <c r="AJ37" s="54"/>
       <c r="AK37" s="19"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A38" s="52"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="53"/>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A38" s="64"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="56"/>
       <c r="D38" s="2" t="s">
         <v>101</v>
       </c>
@@ -7014,27 +7275,27 @@
       <c r="S38" s="20"/>
       <c r="T38" s="20"/>
       <c r="U38" s="20"/>
-      <c r="V38" s="64"/>
+      <c r="V38" s="59"/>
       <c r="W38" s="20"/>
       <c r="X38" s="20"/>
       <c r="Y38" s="20"/>
       <c r="Z38" s="20"/>
       <c r="AA38" s="20"/>
       <c r="AB38" s="20"/>
-      <c r="AC38" s="67"/>
+      <c r="AC38" s="62"/>
       <c r="AD38" s="19"/>
       <c r="AE38" s="19"/>
       <c r="AF38" s="19"/>
       <c r="AG38" s="19"/>
       <c r="AH38" s="19"/>
       <c r="AI38" s="19"/>
-      <c r="AJ38" s="60"/>
+      <c r="AJ38" s="54"/>
       <c r="AK38" s="19"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A39" s="52"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="53"/>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A39" s="64"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="56"/>
       <c r="D39" s="2" t="s">
         <v>23</v>
       </c>
@@ -7057,27 +7318,27 @@
       <c r="S39" s="20"/>
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
-      <c r="V39" s="64"/>
+      <c r="V39" s="59"/>
       <c r="W39" s="20"/>
       <c r="X39" s="20"/>
       <c r="Y39" s="20"/>
       <c r="Z39" s="20"/>
       <c r="AA39" s="20"/>
       <c r="AB39" s="20"/>
-      <c r="AC39" s="67"/>
+      <c r="AC39" s="62"/>
       <c r="AD39" s="19"/>
       <c r="AE39" s="19"/>
       <c r="AF39" s="19"/>
       <c r="AG39" s="19"/>
       <c r="AH39" s="19"/>
       <c r="AI39" s="19"/>
-      <c r="AJ39" s="60"/>
+      <c r="AJ39" s="54"/>
       <c r="AK39" s="19"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A40" s="52"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="53"/>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A40" s="64"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="56"/>
       <c r="D40" s="39" t="s">
         <v>27</v>
       </c>
@@ -7100,27 +7361,27 @@
       <c r="S40" s="20"/>
       <c r="T40" s="20"/>
       <c r="U40" s="20"/>
-      <c r="V40" s="64"/>
+      <c r="V40" s="59"/>
       <c r="W40" s="20"/>
       <c r="X40" s="20"/>
       <c r="Y40" s="20"/>
       <c r="Z40" s="20"/>
       <c r="AA40" s="20"/>
       <c r="AB40" s="20"/>
-      <c r="AC40" s="67"/>
+      <c r="AC40" s="62"/>
       <c r="AD40" s="19"/>
       <c r="AE40" s="19"/>
       <c r="AF40" s="19"/>
       <c r="AG40" s="19"/>
       <c r="AH40" s="19"/>
       <c r="AI40" s="19"/>
-      <c r="AJ40" s="60"/>
+      <c r="AJ40" s="54"/>
       <c r="AK40" s="19"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A41" s="52"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="53"/>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A41" s="64"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="38" t="s">
         <v>45</v>
       </c>
@@ -7143,27 +7404,27 @@
       <c r="S41" s="20"/>
       <c r="T41" s="20"/>
       <c r="U41" s="20"/>
-      <c r="V41" s="64"/>
+      <c r="V41" s="59"/>
       <c r="W41" s="20"/>
       <c r="X41" s="20"/>
       <c r="Y41" s="20"/>
       <c r="Z41" s="20"/>
       <c r="AA41" s="20"/>
       <c r="AB41" s="20"/>
-      <c r="AC41" s="67"/>
+      <c r="AC41" s="62"/>
       <c r="AD41" s="19"/>
       <c r="AE41" s="19"/>
       <c r="AF41" s="19"/>
       <c r="AG41" s="19"/>
       <c r="AH41" s="19"/>
       <c r="AI41" s="19"/>
-      <c r="AJ41" s="60"/>
+      <c r="AJ41" s="54"/>
       <c r="AK41" s="19"/>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A42" s="52"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="53"/>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A42" s="64"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="56"/>
       <c r="D42" s="2" t="s">
         <v>26</v>
       </c>
@@ -7186,27 +7447,27 @@
       <c r="S42" s="20"/>
       <c r="T42" s="20"/>
       <c r="U42" s="20"/>
-      <c r="V42" s="64"/>
+      <c r="V42" s="59"/>
       <c r="W42" s="20"/>
       <c r="X42" s="20"/>
       <c r="Y42" s="20"/>
       <c r="Z42" s="20"/>
       <c r="AA42" s="20"/>
       <c r="AB42" s="20"/>
-      <c r="AC42" s="67"/>
+      <c r="AC42" s="62"/>
       <c r="AD42" s="19"/>
       <c r="AE42" s="19"/>
       <c r="AF42" s="19"/>
       <c r="AG42" s="19"/>
       <c r="AH42" s="19"/>
       <c r="AI42" s="19"/>
-      <c r="AJ42" s="60"/>
+      <c r="AJ42" s="54"/>
       <c r="AK42" s="19"/>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A43" s="52"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="53" t="s">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A43" s="64"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="56" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="40" t="s">
@@ -7231,27 +7492,27 @@
       <c r="S43" s="20"/>
       <c r="T43" s="20"/>
       <c r="U43" s="20"/>
-      <c r="V43" s="64"/>
+      <c r="V43" s="59"/>
       <c r="W43" s="20"/>
       <c r="X43" s="20"/>
       <c r="Y43" s="20"/>
       <c r="Z43" s="20"/>
       <c r="AA43" s="20"/>
       <c r="AB43" s="20"/>
-      <c r="AC43" s="67"/>
+      <c r="AC43" s="62"/>
       <c r="AD43" s="19"/>
       <c r="AE43" s="19"/>
       <c r="AF43" s="19"/>
       <c r="AG43" s="19"/>
       <c r="AH43" s="19"/>
       <c r="AI43" s="19"/>
-      <c r="AJ43" s="60"/>
+      <c r="AJ43" s="54"/>
       <c r="AK43" s="19"/>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A44" s="52"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="53"/>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A44" s="64"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="56"/>
       <c r="D44" s="2" t="s">
         <v>26</v>
       </c>
@@ -7274,27 +7535,27 @@
       <c r="S44" s="20"/>
       <c r="T44" s="20"/>
       <c r="U44" s="20"/>
-      <c r="V44" s="64"/>
+      <c r="V44" s="59"/>
       <c r="W44" s="20"/>
       <c r="X44" s="20"/>
       <c r="Y44" s="20"/>
       <c r="Z44" s="20"/>
       <c r="AA44" s="20"/>
       <c r="AB44" s="20"/>
-      <c r="AC44" s="67"/>
+      <c r="AC44" s="62"/>
       <c r="AD44" s="19"/>
       <c r="AE44" s="19"/>
       <c r="AF44" s="19"/>
       <c r="AG44" s="19"/>
       <c r="AH44" s="19"/>
       <c r="AI44" s="19"/>
-      <c r="AJ44" s="60"/>
+      <c r="AJ44" s="54"/>
       <c r="AK44" s="19"/>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A45" s="52"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="53" t="s">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A45" s="64"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="56" t="s">
         <v>43</v>
       </c>
       <c r="D45" s="38" t="s">
@@ -7319,27 +7580,27 @@
       <c r="S45" s="20"/>
       <c r="T45" s="20"/>
       <c r="U45" s="20"/>
-      <c r="V45" s="64"/>
+      <c r="V45" s="59"/>
       <c r="W45" s="20"/>
       <c r="X45" s="20"/>
       <c r="Y45" s="20"/>
       <c r="Z45" s="20"/>
       <c r="AA45" s="20"/>
       <c r="AB45" s="20"/>
-      <c r="AC45" s="67"/>
+      <c r="AC45" s="62"/>
       <c r="AD45" s="19"/>
       <c r="AE45" s="19"/>
       <c r="AF45" s="19"/>
       <c r="AG45" s="19"/>
       <c r="AH45" s="19"/>
       <c r="AI45" s="19"/>
-      <c r="AJ45" s="60"/>
+      <c r="AJ45" s="54"/>
       <c r="AK45" s="19"/>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A46" s="52"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="53"/>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A46" s="64"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="56"/>
       <c r="D46" s="2" t="s">
         <v>26</v>
       </c>
@@ -7362,27 +7623,27 @@
       <c r="S46" s="20"/>
       <c r="T46" s="20"/>
       <c r="U46" s="20"/>
-      <c r="V46" s="64"/>
+      <c r="V46" s="59"/>
       <c r="W46" s="20"/>
       <c r="X46" s="20"/>
       <c r="Y46" s="20"/>
       <c r="Z46" s="20"/>
       <c r="AA46" s="20"/>
       <c r="AB46" s="20"/>
-      <c r="AC46" s="67"/>
+      <c r="AC46" s="62"/>
       <c r="AD46" s="19"/>
       <c r="AE46" s="19"/>
       <c r="AF46" s="19"/>
       <c r="AG46" s="19"/>
       <c r="AH46" s="19"/>
       <c r="AI46" s="19"/>
-      <c r="AJ46" s="60"/>
+      <c r="AJ46" s="54"/>
       <c r="AK46" s="19"/>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A47" s="52"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="53"/>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A47" s="64"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="56"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="20"/>
@@ -7403,27 +7664,27 @@
       <c r="S47" s="20"/>
       <c r="T47" s="20"/>
       <c r="U47" s="20"/>
-      <c r="V47" s="64"/>
+      <c r="V47" s="59"/>
       <c r="W47" s="20"/>
       <c r="X47" s="20"/>
       <c r="Y47" s="20"/>
       <c r="Z47" s="20"/>
       <c r="AA47" s="20"/>
       <c r="AB47" s="20"/>
-      <c r="AC47" s="67"/>
+      <c r="AC47" s="62"/>
       <c r="AD47" s="19"/>
       <c r="AE47" s="19"/>
       <c r="AF47" s="19"/>
       <c r="AG47" s="19"/>
       <c r="AH47" s="19"/>
       <c r="AI47" s="19"/>
-      <c r="AJ47" s="60"/>
+      <c r="AJ47" s="54"/>
       <c r="AK47" s="19"/>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A48" s="52"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="53" t="s">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A48" s="64"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="56" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -7448,27 +7709,27 @@
       <c r="S48" s="20"/>
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
-      <c r="V48" s="64"/>
+      <c r="V48" s="59"/>
       <c r="W48" s="20"/>
       <c r="X48" s="20"/>
       <c r="Y48" s="20"/>
       <c r="Z48" s="20"/>
       <c r="AA48" s="20"/>
       <c r="AB48" s="20"/>
-      <c r="AC48" s="67"/>
+      <c r="AC48" s="62"/>
       <c r="AD48" s="19"/>
       <c r="AE48" s="19"/>
       <c r="AF48" s="19"/>
       <c r="AG48" s="19"/>
       <c r="AH48" s="19"/>
       <c r="AI48" s="19"/>
-      <c r="AJ48" s="60"/>
+      <c r="AJ48" s="54"/>
       <c r="AK48" s="19"/>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A49" s="52"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="53"/>
+    <row r="49" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A49" s="64"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="56"/>
       <c r="D49" s="2" t="s">
         <v>36</v>
       </c>
@@ -7491,27 +7752,27 @@
       <c r="S49" s="20"/>
       <c r="T49" s="20"/>
       <c r="U49" s="20"/>
-      <c r="V49" s="64"/>
+      <c r="V49" s="59"/>
       <c r="W49" s="20"/>
       <c r="X49" s="20"/>
       <c r="Y49" s="20"/>
       <c r="Z49" s="20"/>
       <c r="AA49" s="20"/>
       <c r="AB49" s="20"/>
-      <c r="AC49" s="67"/>
+      <c r="AC49" s="62"/>
       <c r="AD49" s="19"/>
       <c r="AE49" s="19"/>
       <c r="AF49" s="19"/>
       <c r="AG49" s="19"/>
       <c r="AH49" s="19"/>
       <c r="AI49" s="19"/>
-      <c r="AJ49" s="60"/>
+      <c r="AJ49" s="54"/>
       <c r="AK49" s="19"/>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A50" s="52"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="53"/>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A50" s="64"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="56"/>
       <c r="D50" s="2" t="s">
         <v>37</v>
       </c>
@@ -7534,27 +7795,27 @@
       <c r="S50" s="20"/>
       <c r="T50" s="20"/>
       <c r="U50" s="20"/>
-      <c r="V50" s="64"/>
+      <c r="V50" s="59"/>
       <c r="W50" s="20"/>
       <c r="X50" s="20"/>
       <c r="Y50" s="20"/>
       <c r="Z50" s="20"/>
       <c r="AA50" s="20"/>
       <c r="AB50" s="20"/>
-      <c r="AC50" s="67"/>
+      <c r="AC50" s="62"/>
       <c r="AD50" s="19"/>
       <c r="AE50" s="19"/>
       <c r="AF50" s="19"/>
       <c r="AG50" s="19"/>
       <c r="AH50" s="19"/>
       <c r="AI50" s="19"/>
-      <c r="AJ50" s="60"/>
+      <c r="AJ50" s="54"/>
       <c r="AK50" s="19"/>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A51" s="52"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="53"/>
+    <row r="51" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A51" s="64"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="56"/>
       <c r="D51" s="2" t="s">
         <v>38</v>
       </c>
@@ -7577,27 +7838,27 @@
       <c r="S51" s="20"/>
       <c r="T51" s="20"/>
       <c r="U51" s="20"/>
-      <c r="V51" s="64"/>
+      <c r="V51" s="59"/>
       <c r="W51" s="20"/>
       <c r="X51" s="20"/>
       <c r="Y51" s="20"/>
       <c r="Z51" s="20"/>
       <c r="AA51" s="20"/>
       <c r="AB51" s="20"/>
-      <c r="AC51" s="67"/>
+      <c r="AC51" s="62"/>
       <c r="AD51" s="19"/>
       <c r="AE51" s="19"/>
       <c r="AF51" s="19"/>
       <c r="AG51" s="19"/>
       <c r="AH51" s="19"/>
       <c r="AI51" s="19"/>
-      <c r="AJ51" s="60"/>
+      <c r="AJ51" s="54"/>
       <c r="AK51" s="19"/>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A52" s="52"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="53"/>
+    <row r="52" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A52" s="64"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="56"/>
       <c r="D52" s="2" t="s">
         <v>33</v>
       </c>
@@ -7620,27 +7881,27 @@
       <c r="S52" s="20"/>
       <c r="T52" s="20"/>
       <c r="U52" s="20"/>
-      <c r="V52" s="64"/>
+      <c r="V52" s="59"/>
       <c r="W52" s="20"/>
       <c r="X52" s="20"/>
       <c r="Y52" s="20"/>
       <c r="Z52" s="20"/>
       <c r="AA52" s="20"/>
       <c r="AB52" s="20"/>
-      <c r="AC52" s="67"/>
+      <c r="AC52" s="62"/>
       <c r="AD52" s="19"/>
       <c r="AE52" s="19"/>
       <c r="AF52" s="19"/>
       <c r="AG52" s="19"/>
       <c r="AH52" s="19"/>
       <c r="AI52" s="19"/>
-      <c r="AJ52" s="60"/>
+      <c r="AJ52" s="54"/>
       <c r="AK52" s="19"/>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A53" s="52"/>
-      <c r="B53" s="62"/>
-      <c r="C53" s="53" t="s">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A53" s="64"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="56" t="s">
         <v>128</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -7669,27 +7930,27 @@
       <c r="S53" s="20"/>
       <c r="T53" s="20"/>
       <c r="U53" s="20"/>
-      <c r="V53" s="64"/>
+      <c r="V53" s="59"/>
       <c r="W53" s="20"/>
       <c r="X53" s="20"/>
       <c r="Y53" s="20"/>
       <c r="Z53" s="20"/>
       <c r="AA53" s="20"/>
       <c r="AB53" s="20"/>
-      <c r="AC53" s="67"/>
+      <c r="AC53" s="62"/>
       <c r="AD53" s="19"/>
       <c r="AE53" s="19"/>
       <c r="AF53" s="19"/>
       <c r="AG53" s="19"/>
       <c r="AH53" s="19"/>
       <c r="AI53" s="19"/>
-      <c r="AJ53" s="60"/>
+      <c r="AJ53" s="54"/>
       <c r="AK53" s="19"/>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A54" s="52"/>
-      <c r="B54" s="62"/>
-      <c r="C54" s="53"/>
+    <row r="54" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A54" s="64"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="56"/>
       <c r="D54" s="2" t="s">
         <v>158</v>
       </c>
@@ -7716,26 +7977,26 @@
       <c r="S54" s="20"/>
       <c r="T54" s="20"/>
       <c r="U54" s="20"/>
-      <c r="V54" s="64"/>
+      <c r="V54" s="59"/>
       <c r="W54" s="20"/>
       <c r="X54" s="20"/>
       <c r="Y54" s="20"/>
       <c r="Z54" s="20"/>
       <c r="AA54" s="20"/>
       <c r="AB54" s="20"/>
-      <c r="AC54" s="67"/>
+      <c r="AC54" s="62"/>
       <c r="AD54" s="19"/>
       <c r="AE54" s="19"/>
       <c r="AF54" s="19"/>
       <c r="AG54" s="19"/>
       <c r="AH54" s="19"/>
       <c r="AI54" s="19"/>
-      <c r="AJ54" s="60"/>
+      <c r="AJ54" s="54"/>
       <c r="AK54" s="19"/>
     </row>
-    <row r="55" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="52"/>
-      <c r="B55" s="62"/>
+    <row r="55" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="64"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="21" t="s">
         <v>76</v>
       </c>
@@ -7761,32 +8022,32 @@
       <c r="S55" s="21"/>
       <c r="T55" s="21"/>
       <c r="U55" s="21"/>
-      <c r="V55" s="64"/>
+      <c r="V55" s="59"/>
       <c r="W55" s="21"/>
       <c r="X55" s="21"/>
       <c r="Y55" s="21"/>
       <c r="Z55" s="21"/>
       <c r="AA55" s="21"/>
       <c r="AB55" s="21"/>
-      <c r="AC55" s="67"/>
+      <c r="AC55" s="62"/>
       <c r="AD55" s="19"/>
       <c r="AE55" s="19"/>
       <c r="AF55" s="19"/>
       <c r="AG55" s="19"/>
       <c r="AH55" s="19"/>
       <c r="AI55" s="19"/>
-      <c r="AJ55" s="60"/>
+      <c r="AJ55" s="54"/>
       <c r="AK55" s="19"/>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A56" s="52"/>
-      <c r="B56" s="55" t="s">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A56" s="64"/>
+      <c r="B56" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="C56" s="53" t="s">
+      <c r="C56" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="D56" s="53" t="s">
+      <c r="D56" s="56" t="s">
         <v>29</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -7818,28 +8079,28 @@
       <c r="S56" s="20"/>
       <c r="T56" s="20"/>
       <c r="U56" s="20"/>
-      <c r="V56" s="64"/>
+      <c r="V56" s="59"/>
       <c r="W56" s="20"/>
       <c r="X56" s="20"/>
       <c r="Y56" s="20"/>
       <c r="Z56" s="20"/>
       <c r="AA56" s="20"/>
       <c r="AB56" s="20"/>
-      <c r="AC56" s="67"/>
+      <c r="AC56" s="62"/>
       <c r="AD56" s="19"/>
       <c r="AE56" s="19"/>
       <c r="AF56" s="19"/>
       <c r="AG56" s="19"/>
       <c r="AH56" s="19"/>
       <c r="AI56" s="19"/>
-      <c r="AJ56" s="60"/>
+      <c r="AJ56" s="54"/>
       <c r="AK56" s="19"/>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A57" s="52"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
+    <row r="57" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A57" s="64"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="56"/>
+      <c r="D57" s="56"/>
       <c r="E57" s="2" t="s">
         <v>137</v>
       </c>
@@ -7869,30 +8130,30 @@
       <c r="S57" s="20"/>
       <c r="T57" s="20"/>
       <c r="U57" s="20"/>
-      <c r="V57" s="64"/>
+      <c r="V57" s="59"/>
       <c r="W57" s="20"/>
       <c r="X57" s="20"/>
       <c r="Y57" s="20"/>
       <c r="Z57" s="20"/>
       <c r="AA57" s="20"/>
       <c r="AB57" s="20"/>
-      <c r="AC57" s="67"/>
+      <c r="AC57" s="62"/>
       <c r="AD57" s="19"/>
       <c r="AE57" s="19"/>
       <c r="AF57" s="19"/>
       <c r="AG57" s="19"/>
       <c r="AH57" s="19"/>
       <c r="AI57" s="19"/>
-      <c r="AJ57" s="60"/>
+      <c r="AJ57" s="54"/>
       <c r="AK57" s="19"/>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A58" s="52"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="53" t="s">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A58" s="64"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="D58" s="53" t="s">
+      <c r="D58" s="56" t="s">
         <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -7918,28 +8179,28 @@
       <c r="S58" s="20"/>
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
-      <c r="V58" s="64"/>
+      <c r="V58" s="59"/>
       <c r="W58" s="20"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="20"/>
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
-      <c r="AC58" s="67"/>
+      <c r="AC58" s="62"/>
       <c r="AD58" s="19"/>
       <c r="AE58" s="19"/>
       <c r="AF58" s="19"/>
       <c r="AG58" s="19"/>
       <c r="AH58" s="19"/>
       <c r="AI58" s="19"/>
-      <c r="AJ58" s="60"/>
+      <c r="AJ58" s="54"/>
       <c r="AK58" s="19"/>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A59" s="52"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
+    <row r="59" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A59" s="64"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
       <c r="E59" s="2" t="s">
         <v>153</v>
       </c>
@@ -7963,28 +8224,28 @@
       <c r="S59" s="20"/>
       <c r="T59" s="20"/>
       <c r="U59" s="20"/>
-      <c r="V59" s="64"/>
+      <c r="V59" s="59"/>
       <c r="W59" s="20"/>
       <c r="X59" s="20"/>
       <c r="Y59" s="20"/>
       <c r="Z59" s="20"/>
       <c r="AA59" s="20"/>
       <c r="AB59" s="20"/>
-      <c r="AC59" s="67"/>
+      <c r="AC59" s="62"/>
       <c r="AD59" s="19"/>
       <c r="AE59" s="19"/>
       <c r="AF59" s="19"/>
       <c r="AG59" s="19"/>
       <c r="AH59" s="19"/>
       <c r="AI59" s="19"/>
-      <c r="AJ59" s="60"/>
+      <c r="AJ59" s="54"/>
       <c r="AK59" s="19"/>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A60" s="52"/>
-      <c r="B60" s="55"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
+    <row r="60" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A60" s="64"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
       <c r="E60" s="2" t="s">
         <v>154</v>
       </c>
@@ -8008,28 +8269,28 @@
       <c r="S60" s="20"/>
       <c r="T60" s="20"/>
       <c r="U60" s="20"/>
-      <c r="V60" s="64"/>
+      <c r="V60" s="59"/>
       <c r="W60" s="20"/>
       <c r="X60" s="20"/>
       <c r="Y60" s="20"/>
       <c r="Z60" s="20"/>
       <c r="AA60" s="20"/>
       <c r="AB60" s="20"/>
-      <c r="AC60" s="67"/>
+      <c r="AC60" s="62"/>
       <c r="AD60" s="19"/>
       <c r="AE60" s="19"/>
       <c r="AF60" s="19"/>
       <c r="AG60" s="19"/>
       <c r="AH60" s="19"/>
       <c r="AI60" s="19"/>
-      <c r="AJ60" s="60"/>
+      <c r="AJ60" s="54"/>
       <c r="AK60" s="19"/>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A61" s="52"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
+    <row r="61" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A61" s="64"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
       <c r="E61" s="2" t="s">
         <v>114</v>
       </c>
@@ -8053,28 +8314,28 @@
       <c r="S61" s="20"/>
       <c r="T61" s="20"/>
       <c r="U61" s="20"/>
-      <c r="V61" s="64"/>
+      <c r="V61" s="59"/>
       <c r="W61" s="20"/>
       <c r="X61" s="20"/>
       <c r="Y61" s="20"/>
       <c r="Z61" s="20"/>
       <c r="AA61" s="20"/>
       <c r="AB61" s="20"/>
-      <c r="AC61" s="67"/>
+      <c r="AC61" s="62"/>
       <c r="AD61" s="19"/>
       <c r="AE61" s="19"/>
       <c r="AF61" s="19"/>
       <c r="AG61" s="19"/>
       <c r="AH61" s="19"/>
       <c r="AI61" s="19"/>
-      <c r="AJ61" s="60"/>
+      <c r="AJ61" s="54"/>
       <c r="AK61" s="19"/>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A62" s="52"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="53"/>
+    <row r="62" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A62" s="64"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56"/>
       <c r="E62" s="2" t="s">
         <v>115</v>
       </c>
@@ -8098,28 +8359,28 @@
       <c r="S62" s="20"/>
       <c r="T62" s="20"/>
       <c r="U62" s="20"/>
-      <c r="V62" s="64"/>
+      <c r="V62" s="59"/>
       <c r="W62" s="20"/>
       <c r="X62" s="20"/>
       <c r="Y62" s="20"/>
       <c r="Z62" s="20"/>
       <c r="AA62" s="20"/>
       <c r="AB62" s="20"/>
-      <c r="AC62" s="67"/>
+      <c r="AC62" s="62"/>
       <c r="AD62" s="19"/>
       <c r="AE62" s="19"/>
       <c r="AF62" s="19"/>
       <c r="AG62" s="19"/>
       <c r="AH62" s="19"/>
       <c r="AI62" s="19"/>
-      <c r="AJ62" s="60"/>
+      <c r="AJ62" s="54"/>
       <c r="AK62" s="19"/>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A63" s="52"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="53" t="s">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A63" s="64"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56" t="s">
         <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -8145,28 +8406,28 @@
       <c r="S63" s="20"/>
       <c r="T63" s="20"/>
       <c r="U63" s="20"/>
-      <c r="V63" s="64"/>
+      <c r="V63" s="59"/>
       <c r="W63" s="20"/>
       <c r="X63" s="20"/>
       <c r="Y63" s="20"/>
       <c r="Z63" s="20"/>
       <c r="AA63" s="20"/>
       <c r="AB63" s="20"/>
-      <c r="AC63" s="67"/>
+      <c r="AC63" s="62"/>
       <c r="AD63" s="19"/>
       <c r="AE63" s="19"/>
       <c r="AF63" s="19"/>
       <c r="AG63" s="19"/>
       <c r="AH63" s="19"/>
       <c r="AI63" s="19"/>
-      <c r="AJ63" s="60"/>
+      <c r="AJ63" s="54"/>
       <c r="AK63" s="19"/>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A64" s="52"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
+    <row r="64" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A64" s="64"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="56"/>
+      <c r="D64" s="56"/>
       <c r="E64" s="2" t="s">
         <v>109</v>
       </c>
@@ -8190,30 +8451,30 @@
       <c r="S64" s="20"/>
       <c r="T64" s="20"/>
       <c r="U64" s="20"/>
-      <c r="V64" s="64"/>
+      <c r="V64" s="59"/>
       <c r="W64" s="20"/>
       <c r="X64" s="20"/>
       <c r="Y64" s="20"/>
       <c r="Z64" s="20"/>
       <c r="AA64" s="20"/>
       <c r="AB64" s="20"/>
-      <c r="AC64" s="67"/>
+      <c r="AC64" s="62"/>
       <c r="AD64" s="19"/>
       <c r="AE64" s="19"/>
       <c r="AF64" s="19"/>
       <c r="AG64" s="19"/>
       <c r="AH64" s="19"/>
       <c r="AI64" s="19"/>
-      <c r="AJ64" s="60"/>
+      <c r="AJ64" s="54"/>
       <c r="AK64" s="19"/>
     </row>
-    <row r="65" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="52"/>
-      <c r="B65" s="55"/>
-      <c r="C65" s="53" t="s">
+    <row r="65" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="64"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="53" t="s">
+      <c r="D65" s="56" t="s">
         <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -8245,28 +8506,28 @@
       <c r="S65" s="20"/>
       <c r="T65" s="20"/>
       <c r="U65" s="20"/>
-      <c r="V65" s="64"/>
+      <c r="V65" s="59"/>
       <c r="W65" s="20"/>
       <c r="X65" s="20"/>
       <c r="Y65" s="20"/>
       <c r="Z65" s="20"/>
       <c r="AA65" s="20"/>
       <c r="AB65" s="20"/>
-      <c r="AC65" s="67"/>
+      <c r="AC65" s="62"/>
       <c r="AD65" s="19"/>
       <c r="AE65" s="19"/>
       <c r="AF65" s="19"/>
       <c r="AG65" s="19"/>
       <c r="AH65" s="19"/>
       <c r="AI65" s="19"/>
-      <c r="AJ65" s="60"/>
+      <c r="AJ65" s="54"/>
       <c r="AK65" s="19"/>
     </row>
-    <row r="66" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="52"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="53"/>
+    <row r="66" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="64"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="56"/>
+      <c r="D66" s="56"/>
       <c r="E66" s="2" t="s">
         <v>137</v>
       </c>
@@ -8294,27 +8555,27 @@
       <c r="S66" s="20"/>
       <c r="T66" s="20"/>
       <c r="U66" s="20"/>
-      <c r="V66" s="64"/>
+      <c r="V66" s="59"/>
       <c r="W66" s="20"/>
       <c r="X66" s="20"/>
       <c r="Y66" s="20"/>
       <c r="Z66" s="20"/>
       <c r="AA66" s="20"/>
       <c r="AB66" s="20"/>
-      <c r="AC66" s="67"/>
+      <c r="AC66" s="62"/>
       <c r="AD66" s="19"/>
       <c r="AE66" s="19"/>
       <c r="AF66" s="19"/>
       <c r="AG66" s="19"/>
       <c r="AH66" s="19"/>
       <c r="AI66" s="19"/>
-      <c r="AJ66" s="60"/>
+      <c r="AJ66" s="54"/>
       <c r="AK66" s="19"/>
     </row>
-    <row r="67" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="52"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="53"/>
+    <row r="67" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="64"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="56"/>
       <c r="D67" s="2" t="s">
         <v>105</v>
       </c>
@@ -8337,26 +8598,26 @@
       <c r="S67" s="20"/>
       <c r="T67" s="20"/>
       <c r="U67" s="20"/>
-      <c r="V67" s="64"/>
+      <c r="V67" s="59"/>
       <c r="W67" s="20"/>
       <c r="X67" s="20"/>
       <c r="Y67" s="20"/>
       <c r="Z67" s="20"/>
       <c r="AA67" s="20"/>
       <c r="AB67" s="20"/>
-      <c r="AC67" s="67"/>
+      <c r="AC67" s="62"/>
       <c r="AD67" s="19"/>
       <c r="AE67" s="19"/>
       <c r="AF67" s="19"/>
       <c r="AG67" s="19"/>
       <c r="AH67" s="19"/>
       <c r="AI67" s="19"/>
-      <c r="AJ67" s="60"/>
+      <c r="AJ67" s="54"/>
       <c r="AK67" s="19"/>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A68" s="52"/>
-      <c r="B68" s="55"/>
+    <row r="68" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A68" s="64"/>
+      <c r="B68" s="66"/>
       <c r="C68" s="20" t="s">
         <v>96</v>
       </c>
@@ -8380,26 +8641,26 @@
       <c r="S68" s="20"/>
       <c r="T68" s="20"/>
       <c r="U68" s="20"/>
-      <c r="V68" s="64"/>
+      <c r="V68" s="59"/>
       <c r="W68" s="20"/>
       <c r="X68" s="20"/>
       <c r="Y68" s="20"/>
       <c r="Z68" s="20"/>
       <c r="AA68" s="20"/>
       <c r="AB68" s="20"/>
-      <c r="AC68" s="67"/>
+      <c r="AC68" s="62"/>
       <c r="AD68" s="19"/>
       <c r="AE68" s="19"/>
       <c r="AF68" s="19"/>
       <c r="AG68" s="19"/>
       <c r="AH68" s="19"/>
       <c r="AI68" s="19"/>
-      <c r="AJ68" s="60"/>
+      <c r="AJ68" s="54"/>
       <c r="AK68" s="19"/>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A69" s="52"/>
-      <c r="B69" s="55"/>
+    <row r="69" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A69" s="64"/>
+      <c r="B69" s="66"/>
       <c r="C69" s="20" t="s">
         <v>24</v>
       </c>
@@ -8431,27 +8692,27 @@
       <c r="S69" s="20"/>
       <c r="T69" s="20"/>
       <c r="U69" s="20"/>
-      <c r="V69" s="64"/>
+      <c r="V69" s="59"/>
       <c r="W69" s="20"/>
       <c r="X69" s="20"/>
       <c r="Y69" s="20"/>
       <c r="Z69" s="20"/>
       <c r="AA69" s="20"/>
       <c r="AB69" s="20"/>
-      <c r="AC69" s="67"/>
+      <c r="AC69" s="62"/>
       <c r="AD69" s="19"/>
       <c r="AE69" s="19"/>
       <c r="AF69" s="19"/>
       <c r="AG69" s="19"/>
       <c r="AH69" s="19"/>
       <c r="AI69" s="19"/>
-      <c r="AJ69" s="60"/>
+      <c r="AJ69" s="54"/>
       <c r="AK69" s="19"/>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A70" s="52"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="53" t="s">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A70" s="64"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="56" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -8484,27 +8745,27 @@
       <c r="S70" s="20"/>
       <c r="T70" s="20"/>
       <c r="U70" s="20"/>
-      <c r="V70" s="64"/>
+      <c r="V70" s="59"/>
       <c r="W70" s="20"/>
       <c r="X70" s="20"/>
       <c r="Y70" s="20"/>
       <c r="Z70" s="20"/>
       <c r="AA70" s="20"/>
       <c r="AB70" s="20"/>
-      <c r="AC70" s="67"/>
+      <c r="AC70" s="62"/>
       <c r="AD70" s="19"/>
       <c r="AE70" s="19"/>
       <c r="AF70" s="19"/>
       <c r="AG70" s="19"/>
       <c r="AH70" s="19"/>
       <c r="AI70" s="19"/>
-      <c r="AJ70" s="60"/>
+      <c r="AJ70" s="54"/>
       <c r="AK70" s="19"/>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A71" s="52"/>
-      <c r="B71" s="55"/>
-      <c r="C71" s="53"/>
+    <row r="71" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A71" s="64"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="56"/>
       <c r="D71" s="2" t="s">
         <v>133</v>
       </c>
@@ -8535,27 +8796,27 @@
       <c r="S71" s="20"/>
       <c r="T71" s="20"/>
       <c r="U71" s="20"/>
-      <c r="V71" s="64"/>
+      <c r="V71" s="59"/>
       <c r="W71" s="20"/>
       <c r="X71" s="20"/>
       <c r="Y71" s="20"/>
       <c r="Z71" s="20"/>
       <c r="AA71" s="20"/>
       <c r="AB71" s="20"/>
-      <c r="AC71" s="67"/>
+      <c r="AC71" s="62"/>
       <c r="AD71" s="19"/>
       <c r="AE71" s="19"/>
       <c r="AF71" s="19"/>
       <c r="AG71" s="19"/>
       <c r="AH71" s="19"/>
       <c r="AI71" s="19"/>
-      <c r="AJ71" s="60"/>
+      <c r="AJ71" s="54"/>
       <c r="AK71" s="19"/>
     </row>
-    <row r="72" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="52"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="56" t="s">
+    <row r="72" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="64"/>
+      <c r="B72" s="66"/>
+      <c r="C72" s="67" t="s">
         <v>106</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -8588,27 +8849,27 @@
       <c r="S72" s="20"/>
       <c r="T72" s="20"/>
       <c r="U72" s="20"/>
-      <c r="V72" s="64"/>
+      <c r="V72" s="59"/>
       <c r="W72" s="20"/>
       <c r="X72" s="20"/>
       <c r="Y72" s="20"/>
       <c r="Z72" s="20"/>
       <c r="AA72" s="20"/>
       <c r="AB72" s="20"/>
-      <c r="AC72" s="67"/>
+      <c r="AC72" s="62"/>
       <c r="AD72" s="19"/>
       <c r="AE72" s="19"/>
       <c r="AF72" s="19"/>
       <c r="AG72" s="19"/>
       <c r="AH72" s="19"/>
       <c r="AI72" s="19"/>
-      <c r="AJ72" s="60"/>
+      <c r="AJ72" s="54"/>
       <c r="AK72" s="19"/>
     </row>
-    <row r="73" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="52"/>
-      <c r="B73" s="55"/>
-      <c r="C73" s="57"/>
+    <row r="73" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="64"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="68"/>
       <c r="D73" s="2" t="s">
         <v>163</v>
       </c>
@@ -8639,27 +8900,27 @@
       <c r="S73" s="20"/>
       <c r="T73" s="20"/>
       <c r="U73" s="20"/>
-      <c r="V73" s="64"/>
+      <c r="V73" s="59"/>
       <c r="W73" s="20"/>
       <c r="X73" s="20"/>
       <c r="Y73" s="20"/>
       <c r="Z73" s="20"/>
       <c r="AA73" s="20"/>
       <c r="AB73" s="20"/>
-      <c r="AC73" s="67"/>
+      <c r="AC73" s="62"/>
       <c r="AD73" s="19"/>
       <c r="AE73" s="19"/>
       <c r="AF73" s="19"/>
       <c r="AG73" s="19"/>
       <c r="AH73" s="19"/>
       <c r="AI73" s="19"/>
-      <c r="AJ73" s="60"/>
+      <c r="AJ73" s="54"/>
       <c r="AK73" s="19"/>
     </row>
-    <row r="74" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="52"/>
-      <c r="B74" s="55"/>
-      <c r="C74" s="58"/>
+    <row r="74" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="64"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="69"/>
       <c r="D74" s="2" t="s">
         <v>164</v>
       </c>
@@ -8690,27 +8951,27 @@
       <c r="S74" s="37"/>
       <c r="T74" s="37"/>
       <c r="U74" s="37"/>
-      <c r="V74" s="64"/>
+      <c r="V74" s="59"/>
       <c r="W74" s="37"/>
       <c r="X74" s="37"/>
       <c r="Y74" s="37"/>
       <c r="Z74" s="37"/>
       <c r="AA74" s="37"/>
       <c r="AB74" s="37"/>
-      <c r="AC74" s="67"/>
+      <c r="AC74" s="62"/>
       <c r="AD74" s="19"/>
       <c r="AE74" s="19"/>
       <c r="AF74" s="19"/>
       <c r="AG74" s="19"/>
       <c r="AH74" s="19"/>
       <c r="AI74" s="19"/>
-      <c r="AJ74" s="60"/>
+      <c r="AJ74" s="54"/>
       <c r="AK74" s="19"/>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A75" s="52"/>
-      <c r="B75" s="55"/>
-      <c r="C75" s="53" t="s">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A75" s="64"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="56" t="s">
         <v>30</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -8743,27 +9004,27 @@
       <c r="S75" s="20"/>
       <c r="T75" s="20"/>
       <c r="U75" s="20"/>
-      <c r="V75" s="64"/>
+      <c r="V75" s="59"/>
       <c r="W75" s="20"/>
       <c r="X75" s="20"/>
       <c r="Y75" s="20"/>
       <c r="Z75" s="20"/>
       <c r="AA75" s="20"/>
       <c r="AB75" s="20"/>
-      <c r="AC75" s="67"/>
+      <c r="AC75" s="62"/>
       <c r="AD75" s="19"/>
       <c r="AE75" s="19"/>
       <c r="AF75" s="19"/>
       <c r="AG75" s="19"/>
       <c r="AH75" s="19"/>
       <c r="AI75" s="19"/>
-      <c r="AJ75" s="60"/>
+      <c r="AJ75" s="54"/>
       <c r="AK75" s="19"/>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A76" s="52"/>
-      <c r="B76" s="55"/>
-      <c r="C76" s="53"/>
+    <row r="76" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A76" s="64"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="56"/>
       <c r="D76" s="2" t="s">
         <v>32</v>
       </c>
@@ -8786,27 +9047,27 @@
       <c r="S76" s="20"/>
       <c r="T76" s="20"/>
       <c r="U76" s="20"/>
-      <c r="V76" s="64"/>
+      <c r="V76" s="59"/>
       <c r="W76" s="20"/>
       <c r="X76" s="20"/>
       <c r="Y76" s="20"/>
       <c r="Z76" s="20"/>
       <c r="AA76" s="20"/>
       <c r="AB76" s="20"/>
-      <c r="AC76" s="67"/>
+      <c r="AC76" s="62"/>
       <c r="AD76" s="19"/>
       <c r="AE76" s="19"/>
       <c r="AF76" s="19"/>
       <c r="AG76" s="19"/>
       <c r="AH76" s="19"/>
       <c r="AI76" s="19"/>
-      <c r="AJ76" s="60"/>
+      <c r="AJ76" s="54"/>
       <c r="AK76" s="19"/>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A77" s="52"/>
-      <c r="B77" s="55"/>
-      <c r="C77" s="53"/>
+    <row r="77" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A77" s="64"/>
+      <c r="B77" s="66"/>
+      <c r="C77" s="56"/>
       <c r="D77" s="2" t="s">
         <v>33</v>
       </c>
@@ -8829,25 +9090,25 @@
       <c r="S77" s="20"/>
       <c r="T77" s="20"/>
       <c r="U77" s="20"/>
-      <c r="V77" s="65"/>
+      <c r="V77" s="60"/>
       <c r="W77" s="20"/>
       <c r="X77" s="20"/>
       <c r="Y77" s="20"/>
       <c r="Z77" s="20"/>
       <c r="AA77" s="20"/>
       <c r="AB77" s="20"/>
-      <c r="AC77" s="68"/>
+      <c r="AC77" s="63"/>
       <c r="AD77" s="19"/>
       <c r="AE77" s="19"/>
       <c r="AF77" s="19"/>
       <c r="AG77" s="19"/>
       <c r="AH77" s="19"/>
       <c r="AI77" s="19"/>
-      <c r="AJ77" s="61"/>
+      <c r="AJ77" s="55"/>
       <c r="AK77" s="19"/>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A78" s="52"/>
+    <row r="78" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A78" s="64"/>
       <c r="B78" s="44" t="s">
         <v>21</v>
       </c>
@@ -8868,6 +9129,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A5:A78"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B56:B77"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C74"/>
     <mergeCell ref="AJ5:AJ77"/>
     <mergeCell ref="C18:C42"/>
     <mergeCell ref="B11:B55"/>
@@ -8884,18 +9157,6 @@
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="D65:D66"/>
     <mergeCell ref="C53:C54"/>
-    <mergeCell ref="A5:A78"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B56:B77"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C72:C74"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K3:AK5 AK6:AK77 W6:AB77 AD6:AI77 K6:U77">
@@ -8968,31 +9229,31 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="11" max="11" width="32.3984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="53.3984375" customWidth="1"/>
+    <col min="11" max="11" width="32.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="53.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-    </row>
-    <row r="4" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69"/>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+    </row>
+    <row r="4" spans="2:14" ht="45.75" x14ac:dyDescent="0.4">
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
       <c r="K4" s="11" t="s">
         <v>78</v>
       </c>
@@ -9000,15 +9261,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
+    <row r="5" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
       <c r="K5" s="12" t="s">
         <v>80</v>
       </c>
@@ -9016,15 +9277,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
+    <row r="6" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
       <c r="K6" s="12" t="s">
         <v>81</v>
       </c>
@@ -9032,15 +9293,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
+    <row r="7" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
       <c r="K7" s="12" t="s">
         <v>82</v>
       </c>
@@ -9048,194 +9309,194 @@
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
+    <row r="8" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
       <c r="K8" s="12" t="s">
         <v>83</v>
       </c>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
+    <row r="9" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
       <c r="K9" s="12" t="s">
         <v>84</v>
       </c>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
+    <row r="10" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
       <c r="K10" s="12" t="s">
         <v>85</v>
       </c>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
+    <row r="11" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
       <c r="K11" s="12" t="s">
         <v>86</v>
       </c>
       <c r="L11" s="13"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B12" s="69"/>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
+    <row r="12" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
       <c r="K12" s="12" t="s">
         <v>87</v>
       </c>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B13" s="69"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
+    <row r="13" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
       <c r="K13" s="12" t="s">
         <v>88</v>
       </c>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
+    <row r="14" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
       <c r="K14" s="12" t="s">
         <v>89</v>
       </c>
       <c r="L14" s="13"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B21" s="69"/>
-      <c r="C21" s="69"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B23" s="69"/>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="70"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="70"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B22" s="70"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9255,7 +9516,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9271,40 +9532,40 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.19921875" customWidth="1"/>
-    <col min="2" max="2" width="17.19921875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.19921875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.25" customWidth="1"/>
+    <col min="2" max="2" width="17.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" style="8" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="69"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="B4" s="14" t="s">
         <v>54</v>
@@ -9320,7 +9581,7 @@
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B5" s="15" t="s">
         <v>48</v>
       </c>
@@ -9332,7 +9593,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B6" s="15" t="s">
         <v>49</v>
       </c>
@@ -9346,7 +9607,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B7" s="15" t="s">
         <v>70</v>
       </c>
@@ -9358,7 +9619,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B8" s="15" t="s">
         <v>50</v>
       </c>
@@ -9370,7 +9631,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B9" s="15" t="s">
         <v>51</v>
       </c>
@@ -9382,8 +9643,8 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B10" s="71" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B10" s="72" t="s">
         <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -9396,15 +9657,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B11" s="71"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B11" s="72"/>
       <c r="C11" s="2" t="s">
         <v>73</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B12" s="15" t="s">
         <v>52</v>
       </c>
@@ -9418,7 +9679,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B13" s="15" t="s">
         <v>53</v>
       </c>
@@ -9430,7 +9691,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B14" s="15" t="s">
         <v>64</v>
       </c>
@@ -9442,25 +9703,25 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B15" s="15"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B16" s="15"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B17" s="15"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B18" s="15" t="s">
         <v>56</v>
       </c>
@@ -9487,15 +9748,15 @@
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.8984375" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/schedule/ガントチャートxlsx.xlsx
+++ b/schedule/ガントチャートxlsx.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\okashi_222\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81909\Desktop\okashi_222\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14928" windowHeight="12180" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="185">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -356,16 +356,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>攻撃音</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>オン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
       <t>コウモク</t>
@@ -440,22 +430,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>任意のボタンで押して使った時</t>
-    <rPh sb="0" eb="2">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>任意のボタンを押して走った時</t>
     <rPh sb="0" eb="2">
       <t>ニンイ</t>
@@ -502,16 +476,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイテムを使用音</t>
-    <rPh sb="5" eb="7">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>決定音１</t>
     <rPh sb="0" eb="2">
       <t>ケッテイ</t>
@@ -559,19 +523,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>攻撃力アップ音</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>リョク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>オン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイテム取得音1</t>
     <rPh sb="4" eb="6">
       <t>シュトク</t>
@@ -582,19 +533,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>攻撃ボタンで攻撃した時</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>コントローラ追加</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1289,6 +1227,70 @@
   </si>
   <si>
     <t>ガントチャート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復音</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム取得音</t>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテムを拾ったとき</t>
+    <rPh sb="5" eb="6">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコアアップ音</t>
+    <rPh sb="6" eb="7">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パワーアップ音</t>
+    <rPh sb="6" eb="7">
+      <t>オン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃音</t>
+  </si>
+  <si>
+    <t>プレイ画面</t>
+  </si>
+  <si>
+    <t>攻撃ボタンで攻撃した時</t>
+  </si>
+  <si>
+    <t>ひっかき</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鳴き声</t>
+    <rPh sb="0" eb="1">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴエ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5372,40 +5374,40 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AS78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K5" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="10" ySplit="4" topLeftCell="K56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="22.625" customWidth="1"/>
-    <col min="6" max="6" width="7.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.59765625" customWidth="1"/>
+    <col min="6" max="6" width="7.09765625" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="7"/>
-    <col min="8" max="9" width="7.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.09765625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.09765625" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="3" customWidth="1"/>
     <col min="12" max="15" width="3.5" customWidth="1"/>
-    <col min="16" max="16" width="4.375" customWidth="1"/>
+    <col min="16" max="16" width="4.3984375" customWidth="1"/>
     <col min="17" max="17" width="3.5" customWidth="1"/>
-    <col min="18" max="18" width="3.875" customWidth="1"/>
+    <col min="18" max="18" width="3.8984375" customWidth="1"/>
     <col min="19" max="35" width="3.5" customWidth="1"/>
-    <col min="36" max="36" width="6.75" customWidth="1"/>
+    <col min="36" max="36" width="6.69921875" customWidth="1"/>
     <col min="37" max="45" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:45" ht="26.4" x14ac:dyDescent="0.45">
       <c r="B1" s="16" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K1" s="3">
         <v>2020</v>
@@ -5420,19 +5422,19 @@
         <v>15</v>
       </c>
       <c r="P1" s="26" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="Q1" s="23"/>
       <c r="R1" s="27" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="S1" s="24"/>
       <c r="T1" s="28" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="U1" s="25"/>
     </row>
-    <row r="3" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K3" s="17">
         <v>44116</v>
       </c>
@@ -5523,7 +5525,7 @@
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
     </row>
-    <row r="4" spans="1:45" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:45" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B4" s="32" t="s">
         <v>6</v>
       </c>
@@ -5534,7 +5536,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F4" s="32" t="s">
         <v>2</v>
@@ -5660,7 +5662,7 @@
         <v>44142</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:45" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="64" t="s">
         <v>21</v>
       </c>
@@ -5671,14 +5673,14 @@
         <v>8</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="20" t="s">
         <v>39</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="H5" s="35">
         <v>44118</v>
@@ -5701,7 +5703,7 @@
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
       <c r="V5" s="58" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="W5" s="19"/>
       <c r="X5" s="19"/>
@@ -5710,7 +5712,7 @@
       <c r="AA5" s="19"/>
       <c r="AB5" s="19"/>
       <c r="AC5" s="61" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="AD5" s="19"/>
       <c r="AE5" s="19"/>
@@ -5719,18 +5721,18 @@
       <c r="AH5" s="19"/>
       <c r="AI5" s="19"/>
       <c r="AJ5" s="53" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AK5" s="19"/>
     </row>
-    <row r="6" spans="1:45" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:45" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="64"/>
       <c r="B6" s="65"/>
       <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="48" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="20" t="s">
@@ -5774,14 +5776,14 @@
       <c r="AJ6" s="54"/>
       <c r="AK6" s="19"/>
     </row>
-    <row r="7" spans="1:45" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:45" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="64"/>
       <c r="B7" s="65"/>
       <c r="C7" s="20" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="47" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="20" t="s">
@@ -5823,14 +5825,14 @@
       <c r="AJ7" s="54"/>
       <c r="AK7" s="19"/>
     </row>
-    <row r="8" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:45" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A8" s="64"/>
       <c r="B8" s="65"/>
       <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="20" t="s">
@@ -5872,14 +5874,14 @@
       <c r="AJ8" s="54"/>
       <c r="AK8" s="19"/>
     </row>
-    <row r="9" spans="1:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:45" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="64"/>
       <c r="B9" s="65"/>
       <c r="C9" s="20" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="49" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="20" t="s">
@@ -5919,7 +5921,7 @@
       <c r="AJ9" s="54"/>
       <c r="AK9" s="19"/>
     </row>
-    <row r="10" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:45" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A10" s="64"/>
       <c r="B10" s="65"/>
       <c r="C10" s="20" t="s">
@@ -5964,7 +5966,7 @@
       <c r="AJ10" s="54"/>
       <c r="AK10" s="19"/>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A11" s="64"/>
       <c r="B11" s="57" t="s">
         <v>12</v>
@@ -6011,7 +6013,7 @@
       <c r="AJ11" s="54"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A12" s="64"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
@@ -6054,7 +6056,7 @@
       <c r="AJ12" s="54"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A13" s="64"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
@@ -6097,7 +6099,7 @@
       <c r="AJ13" s="54"/>
       <c r="AK13" s="19"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A14" s="64"/>
       <c r="B14" s="57"/>
       <c r="C14" s="56"/>
@@ -6140,7 +6142,7 @@
       <c r="AJ14" s="54"/>
       <c r="AK14" s="19"/>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A15" s="64"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56" t="s">
@@ -6187,7 +6189,7 @@
       <c r="AJ15" s="54"/>
       <c r="AK15" s="19"/>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A16" s="64"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
@@ -6230,7 +6232,7 @@
       <c r="AJ16" s="54"/>
       <c r="AK16" s="19"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A17" s="64"/>
       <c r="B17" s="57"/>
       <c r="C17" s="56"/>
@@ -6273,23 +6275,23 @@
       <c r="AJ17" s="54"/>
       <c r="AK17" s="19"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A18" s="64"/>
       <c r="B18" s="57"/>
       <c r="C18" s="56" t="s">
         <v>20</v>
       </c>
       <c r="D18" s="56" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H18" s="35">
         <v>44126</v>
@@ -6328,19 +6330,19 @@
       <c r="AJ18" s="54"/>
       <c r="AK18" s="19"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A19" s="64"/>
       <c r="B19" s="57"/>
       <c r="C19" s="56"/>
       <c r="D19" s="56"/>
       <c r="E19" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H19" s="35">
         <v>44125</v>
@@ -6379,19 +6381,19 @@
       <c r="AJ19" s="54"/>
       <c r="AK19" s="19"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A20" s="64"/>
       <c r="B20" s="57"/>
       <c r="C20" s="56"/>
       <c r="D20" s="56"/>
       <c r="E20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="20" t="s">
-        <v>124</v>
-      </c>
       <c r="G20" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H20" s="35">
         <v>44124</v>
@@ -6430,16 +6432,16 @@
       <c r="AJ20" s="54"/>
       <c r="AK20" s="19"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A21" s="64"/>
       <c r="B21" s="57"/>
       <c r="C21" s="56"/>
       <c r="D21" s="56"/>
       <c r="E21" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="G21" s="20"/>
       <c r="H21" s="35">
@@ -6477,19 +6479,19 @@
       <c r="AJ21" s="54"/>
       <c r="AK21" s="19"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A22" s="64"/>
       <c r="B22" s="57"/>
       <c r="C22" s="56"/>
       <c r="D22" s="56"/>
       <c r="E22" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F22" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H22" s="35">
         <v>44125</v>
@@ -6528,19 +6530,19 @@
       <c r="AJ22" s="54"/>
       <c r="AK22" s="19"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A23" s="64"/>
       <c r="B23" s="57"/>
       <c r="C23" s="56"/>
       <c r="D23" s="56"/>
       <c r="E23" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F23" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G23" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H23" s="35">
         <v>44124</v>
@@ -6579,13 +6581,13 @@
       <c r="AJ23" s="54"/>
       <c r="AK23" s="19"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A24" s="64"/>
       <c r="B24" s="57"/>
       <c r="C24" s="56"/>
       <c r="D24" s="56"/>
       <c r="E24" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
@@ -6622,19 +6624,19 @@
       <c r="AJ24" s="54"/>
       <c r="AK24" s="19"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A25" s="64"/>
       <c r="B25" s="57"/>
       <c r="C25" s="56"/>
       <c r="D25" s="56"/>
       <c r="E25" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F25" s="50" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G25" s="50" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H25" s="35">
         <v>44127</v>
@@ -6669,19 +6671,19 @@
       <c r="AJ25" s="54"/>
       <c r="AK25" s="51"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A26" s="64"/>
       <c r="B26" s="57"/>
       <c r="C26" s="56"/>
       <c r="D26" s="56"/>
       <c r="E26" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G26" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H26" s="35">
         <v>44124</v>
@@ -6720,13 +6722,13 @@
       <c r="AJ26" s="54"/>
       <c r="AK26" s="19"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A27" s="64"/>
       <c r="B27" s="57"/>
       <c r="C27" s="56"/>
       <c r="D27" s="56"/>
       <c r="E27" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
@@ -6763,7 +6765,7 @@
       <c r="AJ27" s="54"/>
       <c r="AK27" s="19"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A28" s="64"/>
       <c r="B28" s="57"/>
       <c r="C28" s="56"/>
@@ -6771,13 +6773,13 @@
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G28" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H28" s="35">
         <v>44124</v>
@@ -6816,19 +6818,19 @@
       <c r="AJ28" s="54"/>
       <c r="AK28" s="19"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A29" s="64"/>
       <c r="B29" s="57"/>
       <c r="C29" s="56"/>
       <c r="D29" s="56"/>
       <c r="E29" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G29" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H29" s="35">
         <v>44124</v>
@@ -6867,7 +6869,7 @@
       <c r="AJ29" s="54"/>
       <c r="AK29" s="19"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A30" s="64"/>
       <c r="B30" s="57"/>
       <c r="C30" s="56"/>
@@ -6875,13 +6877,13 @@
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F30" s="20" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G30" s="20" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="H30" s="35">
         <v>44130</v>
@@ -6918,13 +6920,13 @@
       <c r="AJ30" s="54"/>
       <c r="AK30" s="19"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A31" s="64"/>
       <c r="B31" s="57"/>
       <c r="C31" s="56"/>
       <c r="D31" s="56"/>
       <c r="E31" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
@@ -6961,19 +6963,19 @@
       <c r="AJ31" s="54"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A32" s="64"/>
       <c r="B32" s="57"/>
       <c r="C32" s="56"/>
       <c r="D32" s="56"/>
       <c r="E32" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G32" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H32" s="35">
         <v>44124</v>
@@ -7012,15 +7014,15 @@
       <c r="AJ32" s="54"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A33" s="64"/>
       <c r="B33" s="57"/>
       <c r="C33" s="56"/>
       <c r="D33" s="56" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
@@ -7057,19 +7059,19 @@
       <c r="AJ33" s="54"/>
       <c r="AK33" s="19"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A34" s="64"/>
       <c r="B34" s="57"/>
       <c r="C34" s="56"/>
       <c r="D34" s="56"/>
       <c r="E34" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G34" s="20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H34" s="35">
         <v>44126</v>
@@ -7108,13 +7110,13 @@
       <c r="AJ34" s="54"/>
       <c r="AK34" s="19"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A35" s="64"/>
       <c r="B35" s="57"/>
       <c r="C35" s="56"/>
       <c r="D35" s="56"/>
       <c r="E35" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
@@ -7151,7 +7153,7 @@
       <c r="AJ35" s="54"/>
       <c r="AK35" s="19"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A36" s="64"/>
       <c r="B36" s="57"/>
       <c r="C36" s="56"/>
@@ -7159,7 +7161,7 @@
         <v>24</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
@@ -7196,21 +7198,21 @@
       <c r="AJ36" s="54"/>
       <c r="AK36" s="19"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A37" s="64"/>
       <c r="B37" s="57"/>
       <c r="C37" s="56"/>
       <c r="D37" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F37" s="20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="G37" s="20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H37" s="35">
         <v>44126</v>
@@ -7249,12 +7251,12 @@
       <c r="AJ37" s="54"/>
       <c r="AK37" s="19"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A38" s="64"/>
       <c r="B38" s="57"/>
       <c r="C38" s="56"/>
       <c r="D38" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="20"/>
@@ -7292,7 +7294,7 @@
       <c r="AJ38" s="54"/>
       <c r="AK38" s="19"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A39" s="64"/>
       <c r="B39" s="57"/>
       <c r="C39" s="56"/>
@@ -7335,7 +7337,7 @@
       <c r="AJ39" s="54"/>
       <c r="AK39" s="19"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A40" s="64"/>
       <c r="B40" s="57"/>
       <c r="C40" s="56"/>
@@ -7378,7 +7380,7 @@
       <c r="AJ40" s="54"/>
       <c r="AK40" s="19"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A41" s="64"/>
       <c r="B41" s="57"/>
       <c r="C41" s="56"/>
@@ -7421,7 +7423,7 @@
       <c r="AJ41" s="54"/>
       <c r="AK41" s="19"/>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A42" s="64"/>
       <c r="B42" s="57"/>
       <c r="C42" s="56"/>
@@ -7464,7 +7466,7 @@
       <c r="AJ42" s="54"/>
       <c r="AK42" s="19"/>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A43" s="64"/>
       <c r="B43" s="57"/>
       <c r="C43" s="56" t="s">
@@ -7509,7 +7511,7 @@
       <c r="AJ43" s="54"/>
       <c r="AK43" s="19"/>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A44" s="64"/>
       <c r="B44" s="57"/>
       <c r="C44" s="56"/>
@@ -7552,7 +7554,7 @@
       <c r="AJ44" s="54"/>
       <c r="AK44" s="19"/>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A45" s="64"/>
       <c r="B45" s="57"/>
       <c r="C45" s="56" t="s">
@@ -7597,7 +7599,7 @@
       <c r="AJ45" s="54"/>
       <c r="AK45" s="19"/>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A46" s="64"/>
       <c r="B46" s="57"/>
       <c r="C46" s="56"/>
@@ -7640,7 +7642,7 @@
       <c r="AJ46" s="54"/>
       <c r="AK46" s="19"/>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A47" s="64"/>
       <c r="B47" s="57"/>
       <c r="C47" s="56"/>
@@ -7681,7 +7683,7 @@
       <c r="AJ47" s="54"/>
       <c r="AK47" s="19"/>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A48" s="64"/>
       <c r="B48" s="57"/>
       <c r="C48" s="56" t="s">
@@ -7726,7 +7728,7 @@
       <c r="AJ48" s="54"/>
       <c r="AK48" s="19"/>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A49" s="64"/>
       <c r="B49" s="57"/>
       <c r="C49" s="56"/>
@@ -7769,7 +7771,7 @@
       <c r="AJ49" s="54"/>
       <c r="AK49" s="19"/>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A50" s="64"/>
       <c r="B50" s="57"/>
       <c r="C50" s="56"/>
@@ -7812,7 +7814,7 @@
       <c r="AJ50" s="54"/>
       <c r="AK50" s="19"/>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A51" s="64"/>
       <c r="B51" s="57"/>
       <c r="C51" s="56"/>
@@ -7855,7 +7857,7 @@
       <c r="AJ51" s="54"/>
       <c r="AK51" s="19"/>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A52" s="64"/>
       <c r="B52" s="57"/>
       <c r="C52" s="56"/>
@@ -7898,18 +7900,18 @@
       <c r="AJ52" s="54"/>
       <c r="AK52" s="19"/>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A53" s="64"/>
       <c r="B53" s="57"/>
       <c r="C53" s="56" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="20" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G53" s="20"/>
       <c r="H53" s="35">
@@ -7947,16 +7949,16 @@
       <c r="AJ53" s="54"/>
       <c r="AK53" s="19"/>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A54" s="64"/>
       <c r="B54" s="57"/>
       <c r="C54" s="56"/>
       <c r="D54" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="20" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G54" s="20"/>
       <c r="H54" s="35">
@@ -7994,14 +7996,14 @@
       <c r="AJ54" s="54"/>
       <c r="AK54" s="19"/>
     </row>
-    <row r="55" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A55" s="64"/>
       <c r="B55" s="57"/>
       <c r="C55" s="21" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D55" s="41" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E55" s="41"/>
       <c r="F55" s="21"/>
@@ -8039,25 +8041,25 @@
       <c r="AJ55" s="54"/>
       <c r="AK55" s="19"/>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A56" s="64"/>
       <c r="B56" s="66" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C56" s="56" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D56" s="56" t="s">
         <v>29</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F56" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G56" s="20" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H56" s="35">
         <v>44124</v>
@@ -8096,19 +8098,19 @@
       <c r="AJ56" s="54"/>
       <c r="AK56" s="19"/>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A57" s="64"/>
       <c r="B57" s="66"/>
       <c r="C57" s="56"/>
       <c r="D57" s="56"/>
       <c r="E57" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F57" s="20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H57" s="35">
         <v>44124</v>
@@ -8147,17 +8149,17 @@
       <c r="AJ57" s="54"/>
       <c r="AK57" s="19"/>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A58" s="64"/>
       <c r="B58" s="66"/>
       <c r="C58" s="56" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D58" s="56" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F58" s="50" t="s">
         <v>40</v>
@@ -8196,13 +8198,13 @@
       <c r="AJ58" s="54"/>
       <c r="AK58" s="19"/>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A59" s="64"/>
       <c r="B59" s="66"/>
       <c r="C59" s="56"/>
       <c r="D59" s="56"/>
       <c r="E59" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F59" s="50" t="s">
         <v>40</v>
@@ -8241,13 +8243,13 @@
       <c r="AJ59" s="54"/>
       <c r="AK59" s="19"/>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A60" s="64"/>
       <c r="B60" s="66"/>
       <c r="C60" s="56"/>
       <c r="D60" s="56"/>
       <c r="E60" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F60" s="50" t="s">
         <v>40</v>
@@ -8286,13 +8288,13 @@
       <c r="AJ60" s="54"/>
       <c r="AK60" s="19"/>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A61" s="64"/>
       <c r="B61" s="66"/>
       <c r="C61" s="56"/>
       <c r="D61" s="56"/>
       <c r="E61" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F61" s="50" t="s">
         <v>40</v>
@@ -8331,13 +8333,13 @@
       <c r="AJ61" s="54"/>
       <c r="AK61" s="19"/>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A62" s="64"/>
       <c r="B62" s="66"/>
       <c r="C62" s="56"/>
       <c r="D62" s="56"/>
       <c r="E62" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F62" s="50" t="s">
         <v>40</v>
@@ -8376,15 +8378,15 @@
       <c r="AJ62" s="54"/>
       <c r="AK62" s="19"/>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A63" s="64"/>
       <c r="B63" s="66"/>
       <c r="C63" s="56"/>
       <c r="D63" s="56" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F63" s="50" t="s">
         <v>40</v>
@@ -8423,13 +8425,13 @@
       <c r="AJ63" s="54"/>
       <c r="AK63" s="19"/>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A64" s="64"/>
       <c r="B64" s="66"/>
       <c r="C64" s="56"/>
       <c r="D64" s="56"/>
       <c r="E64" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F64" s="50" t="s">
         <v>40</v>
@@ -8468,23 +8470,23 @@
       <c r="AJ64" s="54"/>
       <c r="AK64" s="19"/>
     </row>
-    <row r="65" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="64"/>
       <c r="B65" s="66"/>
       <c r="C65" s="56" t="s">
         <v>44</v>
       </c>
       <c r="D65" s="56" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H65" s="35">
         <v>44126</v>
@@ -8523,19 +8525,19 @@
       <c r="AJ65" s="54"/>
       <c r="AK65" s="19"/>
     </row>
-    <row r="66" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="64"/>
       <c r="B66" s="66"/>
       <c r="C66" s="56"/>
       <c r="D66" s="56"/>
       <c r="E66" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="G66" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H66" s="35">
         <v>44126</v>
@@ -8572,12 +8574,12 @@
       <c r="AJ66" s="54"/>
       <c r="AK66" s="19"/>
     </row>
-    <row r="67" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="64"/>
       <c r="B67" s="66"/>
       <c r="C67" s="56"/>
       <c r="D67" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="20"/>
@@ -8615,11 +8617,11 @@
       <c r="AJ67" s="54"/>
       <c r="AK67" s="19"/>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A68" s="64"/>
       <c r="B68" s="66"/>
       <c r="C68" s="20" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -8658,21 +8660,21 @@
       <c r="AJ68" s="54"/>
       <c r="AK68" s="19"/>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A69" s="64"/>
       <c r="B69" s="66"/>
       <c r="C69" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H69" s="35">
         <v>44127</v>
@@ -8709,21 +8711,21 @@
       <c r="AJ69" s="54"/>
       <c r="AK69" s="19"/>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A70" s="64"/>
       <c r="B70" s="66"/>
       <c r="C70" s="56" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G70" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H70" s="35">
         <v>44124</v>
@@ -8762,19 +8764,19 @@
       <c r="AJ70" s="54"/>
       <c r="AK70" s="19"/>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A71" s="64"/>
       <c r="B71" s="66"/>
       <c r="C71" s="56"/>
       <c r="D71" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G71" s="20" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H71" s="35">
         <v>44124</v>
@@ -8813,21 +8815,21 @@
       <c r="AJ71" s="54"/>
       <c r="AK71" s="19"/>
     </row>
-    <row r="72" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="64"/>
       <c r="B72" s="66"/>
       <c r="C72" s="67" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G72" s="20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H72" s="35">
         <v>44125</v>
@@ -8866,19 +8868,19 @@
       <c r="AJ72" s="54"/>
       <c r="AK72" s="19"/>
     </row>
-    <row r="73" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="64"/>
       <c r="B73" s="66"/>
       <c r="C73" s="68"/>
       <c r="D73" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="G73" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H73" s="35">
         <v>44126</v>
@@ -8917,19 +8919,19 @@
       <c r="AJ73" s="54"/>
       <c r="AK73" s="19"/>
     </row>
-    <row r="74" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="64"/>
       <c r="B74" s="66"/>
       <c r="C74" s="69"/>
       <c r="D74" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="37" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G74" s="37" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H74" s="35">
         <v>44126</v>
@@ -8968,7 +8970,7 @@
       <c r="AJ74" s="54"/>
       <c r="AK74" s="19"/>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A75" s="64"/>
       <c r="B75" s="66"/>
       <c r="C75" s="56" t="s">
@@ -8979,10 +8981,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="20" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G75" s="20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="H75" s="35">
         <v>44123</v>
@@ -9021,7 +9023,7 @@
       <c r="AJ75" s="54"/>
       <c r="AK75" s="19"/>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A76" s="64"/>
       <c r="B76" s="66"/>
       <c r="C76" s="56"/>
@@ -9064,7 +9066,7 @@
       <c r="AJ76" s="54"/>
       <c r="AK76" s="19"/>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A77" s="64"/>
       <c r="B77" s="66"/>
       <c r="C77" s="56"/>
@@ -9107,7 +9109,7 @@
       <c r="AJ77" s="55"/>
       <c r="AK77" s="19"/>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A78" s="64"/>
       <c r="B78" s="44" t="s">
         <v>21</v>
@@ -9229,13 +9231,13 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="11" max="11" width="32.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="53.375" customWidth="1"/>
+    <col min="11" max="11" width="32.3984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="53.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
       <c r="D3" s="70"/>
@@ -9245,7 +9247,7 @@
       <c r="H3" s="70"/>
       <c r="I3" s="70"/>
     </row>
-    <row r="4" spans="2:14" ht="45.75" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
       <c r="B4" s="70"/>
       <c r="C4" s="70"/>
       <c r="D4" s="70"/>
@@ -9255,13 +9257,13 @@
       <c r="H4" s="70"/>
       <c r="I4" s="70"/>
       <c r="K4" s="11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
       <c r="B5" s="70"/>
       <c r="C5" s="70"/>
       <c r="D5" s="70"/>
@@ -9271,13 +9273,13 @@
       <c r="H5" s="70"/>
       <c r="I5" s="70"/>
       <c r="K5" s="12" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
       <c r="B6" s="70"/>
       <c r="C6" s="70"/>
       <c r="D6" s="70"/>
@@ -9287,13 +9289,13 @@
       <c r="H6" s="70"/>
       <c r="I6" s="70"/>
       <c r="K6" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
       <c r="B7" s="70"/>
       <c r="C7" s="70"/>
       <c r="D7" s="70"/>
@@ -9303,13 +9305,13 @@
       <c r="H7" s="70"/>
       <c r="I7" s="70"/>
       <c r="K7" s="12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
       <c r="B8" s="70"/>
       <c r="C8" s="70"/>
       <c r="D8" s="70"/>
@@ -9319,11 +9321,11 @@
       <c r="H8" s="70"/>
       <c r="I8" s="70"/>
       <c r="K8" s="12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
       <c r="B9" s="70"/>
       <c r="C9" s="70"/>
       <c r="D9" s="70"/>
@@ -9333,11 +9335,11 @@
       <c r="H9" s="70"/>
       <c r="I9" s="70"/>
       <c r="K9" s="12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L9" s="13"/>
     </row>
-    <row r="10" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
       <c r="B10" s="70"/>
       <c r="C10" s="70"/>
       <c r="D10" s="70"/>
@@ -9347,11 +9349,11 @@
       <c r="H10" s="70"/>
       <c r="I10" s="70"/>
       <c r="K10" s="12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L10" s="13"/>
     </row>
-    <row r="11" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
       <c r="B11" s="70"/>
       <c r="C11" s="70"/>
       <c r="D11" s="70"/>
@@ -9361,12 +9363,12 @@
       <c r="H11" s="70"/>
       <c r="I11" s="70"/>
       <c r="K11" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L11" s="13"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
       <c r="B12" s="70"/>
       <c r="C12" s="70"/>
       <c r="D12" s="70"/>
@@ -9376,11 +9378,11 @@
       <c r="H12" s="70"/>
       <c r="I12" s="70"/>
       <c r="K12" s="12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L12" s="13"/>
     </row>
-    <row r="13" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
       <c r="B13" s="70"/>
       <c r="C13" s="70"/>
       <c r="D13" s="70"/>
@@ -9390,11 +9392,11 @@
       <c r="H13" s="70"/>
       <c r="I13" s="70"/>
       <c r="K13" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L13" s="13"/>
     </row>
-    <row r="14" spans="2:14" ht="44.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:14" ht="45.6" x14ac:dyDescent="0.45">
       <c r="B14" s="70"/>
       <c r="C14" s="70"/>
       <c r="D14" s="70"/>
@@ -9404,11 +9406,11 @@
       <c r="H14" s="70"/>
       <c r="I14" s="70"/>
       <c r="K14" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L14" s="13"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B15" s="70"/>
       <c r="C15" s="70"/>
       <c r="D15" s="70"/>
@@ -9418,7 +9420,7 @@
       <c r="H15" s="70"/>
       <c r="I15" s="70"/>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.45">
       <c r="B16" s="70"/>
       <c r="C16" s="70"/>
       <c r="D16" s="70"/>
@@ -9428,7 +9430,7 @@
       <c r="H16" s="70"/>
       <c r="I16" s="70"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B17" s="70"/>
       <c r="C17" s="70"/>
       <c r="D17" s="70"/>
@@ -9438,7 +9440,7 @@
       <c r="H17" s="70"/>
       <c r="I17" s="70"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B18" s="70"/>
       <c r="C18" s="70"/>
       <c r="D18" s="70"/>
@@ -9448,7 +9450,7 @@
       <c r="H18" s="70"/>
       <c r="I18" s="70"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B19" s="70"/>
       <c r="C19" s="70"/>
       <c r="D19" s="70"/>
@@ -9458,7 +9460,7 @@
       <c r="H19" s="70"/>
       <c r="I19" s="70"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B20" s="70"/>
       <c r="C20" s="70"/>
       <c r="D20" s="70"/>
@@ -9468,7 +9470,7 @@
       <c r="H20" s="70"/>
       <c r="I20" s="70"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B21" s="70"/>
       <c r="C21" s="70"/>
       <c r="D21" s="70"/>
@@ -9478,7 +9480,7 @@
       <c r="H21" s="70"/>
       <c r="I21" s="70"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B22" s="70"/>
       <c r="C22" s="70"/>
       <c r="D22" s="70"/>
@@ -9488,7 +9490,7 @@
       <c r="H22" s="70"/>
       <c r="I22" s="70"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
       <c r="B23" s="70"/>
       <c r="C23" s="70"/>
       <c r="D23" s="70"/>
@@ -9516,7 +9518,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9526,22 +9528,22 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.25" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.25" style="8" customWidth="1"/>
+    <col min="1" max="1" width="7.19921875" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" style="8" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="71" t="s">
         <v>47</v>
       </c>
@@ -9551,7 +9553,7 @@
       <c r="E1" s="70"/>
       <c r="F1" s="70"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="70"/>
       <c r="B2" s="70"/>
       <c r="C2" s="70"/>
@@ -9559,180 +9561,208 @@
       <c r="E2" s="70"/>
       <c r="F2" s="70"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="7"/>
       <c r="B4" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F4" s="7"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5" s="15" t="s">
         <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6" s="15" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B7" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B8" s="15" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="15" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="72" t="s">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" s="72"/>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B12" s="15" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B12" s="72"/>
+      <c r="C12" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B13" s="72"/>
+      <c r="C13" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B14" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="D14" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="15"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B15" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B16" s="15"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B17" s="15"/>
+      <c r="E16" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B17" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B18" s="15" t="s">
-        <v>56</v>
-      </c>
+      <c r="D17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B18" s="15"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B19" s="15"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B20" s="15"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B21" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F2"/>
-    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B10:B13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9748,11 +9778,11 @@
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="4.8984375" defaultRowHeight="26.25" customHeight="1" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="73" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B1" s="70"/>
       <c r="C1" s="70"/>

--- a/schedule/ガントチャートxlsx.xlsx
+++ b/schedule/ガントチャートxlsx.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="188">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -1292,6 +1292,15 @@
       <t>ゴエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ひっかき</t>
+  </si>
+  <si>
+    <t>鳴き声</t>
+  </si>
+  <si>
+    <t>相手に攻撃がヒットした時</t>
   </si>
 </sst>
 </file>
@@ -1837,7 +1846,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1997,6 +2006,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2005,9 +2035,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2030,24 +2057,6 @@
     <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2059,6 +2068,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -5663,10 +5678,10 @@
       </c>
     </row>
     <row r="5" spans="1:45" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="55" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -5702,7 +5717,7 @@
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
-      <c r="V5" s="58" t="s">
+      <c r="V5" s="64" t="s">
         <v>112</v>
       </c>
       <c r="W5" s="19"/>
@@ -5711,7 +5726,7 @@
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
       <c r="AB5" s="19"/>
-      <c r="AC5" s="61" t="s">
+      <c r="AC5" s="67" t="s">
         <v>113</v>
       </c>
       <c r="AD5" s="19"/>
@@ -5720,14 +5735,14 @@
       <c r="AG5" s="19"/>
       <c r="AH5" s="19"/>
       <c r="AI5" s="19"/>
-      <c r="AJ5" s="53" t="s">
+      <c r="AJ5" s="60" t="s">
         <v>89</v>
       </c>
       <c r="AK5" s="19"/>
     </row>
     <row r="6" spans="1:45" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="55"/>
       <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
@@ -5759,26 +5774,26 @@
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
-      <c r="V6" s="59"/>
+      <c r="V6" s="65"/>
       <c r="W6" s="20"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20"/>
-      <c r="AC6" s="62"/>
+      <c r="AC6" s="68"/>
       <c r="AD6" s="19"/>
       <c r="AE6" s="19"/>
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="19"/>
-      <c r="AJ6" s="54"/>
+      <c r="AJ6" s="61"/>
       <c r="AK6" s="19"/>
     </row>
     <row r="7" spans="1:45" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="64"/>
-      <c r="B7" s="65"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="55"/>
       <c r="C7" s="20" t="s">
         <v>10</v>
       </c>
@@ -5808,26 +5823,26 @@
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
-      <c r="V7" s="59"/>
+      <c r="V7" s="65"/>
       <c r="W7" s="20"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20"/>
-      <c r="AC7" s="62"/>
+      <c r="AC7" s="68"/>
       <c r="AD7" s="19"/>
       <c r="AE7" s="19"/>
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
       <c r="AI7" s="19"/>
-      <c r="AJ7" s="54"/>
+      <c r="AJ7" s="61"/>
       <c r="AK7" s="19"/>
     </row>
     <row r="8" spans="1:45" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="64"/>
-      <c r="B8" s="65"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="55"/>
       <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
@@ -5857,26 +5872,26 @@
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
-      <c r="V8" s="59"/>
+      <c r="V8" s="65"/>
       <c r="W8" s="20"/>
       <c r="X8" s="20"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
-      <c r="AC8" s="62"/>
+      <c r="AC8" s="68"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
       <c r="AH8" s="19"/>
       <c r="AI8" s="19"/>
-      <c r="AJ8" s="54"/>
+      <c r="AJ8" s="61"/>
       <c r="AK8" s="19"/>
     </row>
     <row r="9" spans="1:45" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="64"/>
-      <c r="B9" s="65"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="20" t="s">
         <v>34</v>
       </c>
@@ -5904,26 +5919,26 @@
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
-      <c r="V9" s="59"/>
+      <c r="V9" s="65"/>
       <c r="W9" s="20"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20"/>
-      <c r="AC9" s="62"/>
+      <c r="AC9" s="68"/>
       <c r="AD9" s="19"/>
       <c r="AE9" s="19"/>
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
       <c r="AI9" s="19"/>
-      <c r="AJ9" s="54"/>
+      <c r="AJ9" s="61"/>
       <c r="AK9" s="19"/>
     </row>
     <row r="10" spans="1:45" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="64"/>
-      <c r="B10" s="65"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="55"/>
       <c r="C10" s="20" t="s">
         <v>35</v>
       </c>
@@ -5949,29 +5964,29 @@
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
-      <c r="V10" s="59"/>
+      <c r="V10" s="65"/>
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20"/>
-      <c r="AC10" s="62"/>
+      <c r="AC10" s="68"/>
       <c r="AD10" s="19"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="19"/>
-      <c r="AJ10" s="54"/>
+      <c r="AJ10" s="61"/>
       <c r="AK10" s="19"/>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A11" s="64"/>
-      <c r="B11" s="57" t="s">
+      <c r="A11" s="53"/>
+      <c r="B11" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="54" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -5996,27 +6011,27 @@
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
-      <c r="V11" s="59"/>
+      <c r="V11" s="65"/>
       <c r="W11" s="20"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20"/>
-      <c r="AC11" s="62"/>
+      <c r="AC11" s="68"/>
       <c r="AD11" s="19"/>
       <c r="AE11" s="19"/>
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
       <c r="AI11" s="19"/>
-      <c r="AJ11" s="54"/>
+      <c r="AJ11" s="61"/>
       <c r="AK11" s="19"/>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A12" s="64"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="56"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
@@ -6039,27 +6054,27 @@
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
-      <c r="V12" s="59"/>
+      <c r="V12" s="65"/>
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20"/>
-      <c r="AC12" s="62"/>
+      <c r="AC12" s="68"/>
       <c r="AD12" s="19"/>
       <c r="AE12" s="19"/>
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="19"/>
-      <c r="AJ12" s="54"/>
+      <c r="AJ12" s="61"/>
       <c r="AK12" s="19"/>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A13" s="64"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="56"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="38" t="s">
         <v>45</v>
       </c>
@@ -6082,27 +6097,27 @@
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
-      <c r="V13" s="59"/>
+      <c r="V13" s="65"/>
       <c r="W13" s="20"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20"/>
-      <c r="AC13" s="62"/>
+      <c r="AC13" s="68"/>
       <c r="AD13" s="19"/>
       <c r="AE13" s="19"/>
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
-      <c r="AJ13" s="54"/>
+      <c r="AJ13" s="61"/>
       <c r="AK13" s="19"/>
     </row>
     <row r="14" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A14" s="64"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="56"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="54"/>
       <c r="D14" s="39" t="s">
         <v>27</v>
       </c>
@@ -6125,27 +6140,27 @@
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
-      <c r="V14" s="59"/>
+      <c r="V14" s="65"/>
       <c r="W14" s="20"/>
       <c r="X14" s="20"/>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20"/>
-      <c r="AC14" s="62"/>
+      <c r="AC14" s="68"/>
       <c r="AD14" s="19"/>
       <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
       <c r="AI14" s="19"/>
-      <c r="AJ14" s="54"/>
+      <c r="AJ14" s="61"/>
       <c r="AK14" s="19"/>
     </row>
     <row r="15" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A15" s="64"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="56" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="54" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -6172,27 +6187,27 @@
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
-      <c r="V15" s="59"/>
+      <c r="V15" s="65"/>
       <c r="W15" s="20"/>
       <c r="X15" s="20"/>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
-      <c r="AC15" s="62"/>
+      <c r="AC15" s="68"/>
       <c r="AD15" s="19"/>
       <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
       <c r="AI15" s="19"/>
-      <c r="AJ15" s="54"/>
+      <c r="AJ15" s="61"/>
       <c r="AK15" s="19"/>
     </row>
     <row r="16" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A16" s="64"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="56"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="54"/>
       <c r="D16" s="40" t="s">
         <v>45</v>
       </c>
@@ -6215,27 +6230,27 @@
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
-      <c r="V16" s="59"/>
+      <c r="V16" s="65"/>
       <c r="W16" s="20"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
-      <c r="AC16" s="62"/>
+      <c r="AC16" s="68"/>
       <c r="AD16" s="19"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="19"/>
-      <c r="AJ16" s="54"/>
+      <c r="AJ16" s="61"/>
       <c r="AK16" s="19"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A17" s="64"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="56"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="54"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
@@ -6258,30 +6273,30 @@
       <c r="S17" s="20"/>
       <c r="T17" s="20"/>
       <c r="U17" s="20"/>
-      <c r="V17" s="59"/>
+      <c r="V17" s="65"/>
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
-      <c r="AC17" s="62"/>
+      <c r="AC17" s="68"/>
       <c r="AD17" s="19"/>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="19"/>
       <c r="AI17" s="19"/>
-      <c r="AJ17" s="54"/>
+      <c r="AJ17" s="61"/>
       <c r="AK17" s="19"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A18" s="64"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="56" t="s">
+      <c r="A18" s="53"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="54" t="s">
         <v>97</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -6313,28 +6328,28 @@
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
-      <c r="V18" s="59"/>
+      <c r="V18" s="65"/>
       <c r="W18" s="20"/>
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
-      <c r="AC18" s="62"/>
+      <c r="AC18" s="68"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="19"/>
       <c r="AI18" s="19"/>
-      <c r="AJ18" s="54"/>
+      <c r="AJ18" s="61"/>
       <c r="AK18" s="19"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A19" s="64"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
       <c r="E19" s="2" t="s">
         <v>140</v>
       </c>
@@ -6364,28 +6379,28 @@
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
-      <c r="V19" s="59"/>
+      <c r="V19" s="65"/>
       <c r="W19" s="20"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
-      <c r="AC19" s="62"/>
+      <c r="AC19" s="68"/>
       <c r="AD19" s="19"/>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
       <c r="AI19" s="19"/>
-      <c r="AJ19" s="54"/>
+      <c r="AJ19" s="61"/>
       <c r="AK19" s="19"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A20" s="64"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="2" t="s">
         <v>114</v>
       </c>
@@ -6415,28 +6430,28 @@
       <c r="S20" s="20"/>
       <c r="T20" s="20"/>
       <c r="U20" s="20"/>
-      <c r="V20" s="59"/>
+      <c r="V20" s="65"/>
       <c r="W20" s="20"/>
       <c r="X20" s="20"/>
       <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
-      <c r="AC20" s="62"/>
+      <c r="AC20" s="68"/>
       <c r="AD20" s="19"/>
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="19"/>
       <c r="AI20" s="19"/>
-      <c r="AJ20" s="54"/>
+      <c r="AJ20" s="61"/>
       <c r="AK20" s="19"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A21" s="64"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
       <c r="E21" s="2" t="s">
         <v>110</v>
       </c>
@@ -6462,28 +6477,28 @@
       <c r="S21" s="20"/>
       <c r="T21" s="20"/>
       <c r="U21" s="20"/>
-      <c r="V21" s="59"/>
+      <c r="V21" s="65"/>
       <c r="W21" s="20"/>
       <c r="X21" s="20"/>
       <c r="Y21" s="20"/>
       <c r="Z21" s="20"/>
       <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
-      <c r="AC21" s="62"/>
+      <c r="AC21" s="68"/>
       <c r="AD21" s="19"/>
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
       <c r="AI21" s="19"/>
-      <c r="AJ21" s="54"/>
+      <c r="AJ21" s="61"/>
       <c r="AK21" s="19"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A22" s="64"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="2" t="s">
         <v>137</v>
       </c>
@@ -6513,28 +6528,28 @@
       <c r="S22" s="20"/>
       <c r="T22" s="20"/>
       <c r="U22" s="20"/>
-      <c r="V22" s="59"/>
+      <c r="V22" s="65"/>
       <c r="W22" s="20"/>
       <c r="X22" s="20"/>
       <c r="Y22" s="20"/>
       <c r="Z22" s="20"/>
       <c r="AA22" s="20"/>
       <c r="AB22" s="20"/>
-      <c r="AC22" s="62"/>
+      <c r="AC22" s="68"/>
       <c r="AD22" s="19"/>
       <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="19"/>
       <c r="AI22" s="19"/>
-      <c r="AJ22" s="54"/>
+      <c r="AJ22" s="61"/>
       <c r="AK22" s="19"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A23" s="64"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
       <c r="E23" s="2" t="s">
         <v>120</v>
       </c>
@@ -6564,28 +6579,28 @@
       <c r="S23" s="20"/>
       <c r="T23" s="20"/>
       <c r="U23" s="20"/>
-      <c r="V23" s="59"/>
+      <c r="V23" s="65"/>
       <c r="W23" s="20"/>
       <c r="X23" s="20"/>
       <c r="Y23" s="20"/>
       <c r="Z23" s="20"/>
       <c r="AA23" s="20"/>
       <c r="AB23" s="20"/>
-      <c r="AC23" s="62"/>
+      <c r="AC23" s="68"/>
       <c r="AD23" s="19"/>
       <c r="AE23" s="19"/>
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="19"/>
       <c r="AI23" s="19"/>
-      <c r="AJ23" s="54"/>
+      <c r="AJ23" s="61"/>
       <c r="AK23" s="19"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A24" s="64"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="2" t="s">
         <v>111</v>
       </c>
@@ -6607,28 +6622,28 @@
       <c r="S24" s="20"/>
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
-      <c r="V24" s="59"/>
+      <c r="V24" s="65"/>
       <c r="W24" s="20"/>
       <c r="X24" s="20"/>
       <c r="Y24" s="20"/>
       <c r="Z24" s="20"/>
       <c r="AA24" s="20"/>
       <c r="AB24" s="20"/>
-      <c r="AC24" s="62"/>
+      <c r="AC24" s="68"/>
       <c r="AD24" s="19"/>
       <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="19"/>
       <c r="AI24" s="19"/>
-      <c r="AJ24" s="54"/>
+      <c r="AJ24" s="61"/>
       <c r="AK24" s="19"/>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A25" s="64"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="2" t="s">
         <v>169</v>
       </c>
@@ -6654,28 +6669,28 @@
       <c r="S25" s="50"/>
       <c r="T25" s="50"/>
       <c r="U25" s="50"/>
-      <c r="V25" s="59"/>
+      <c r="V25" s="65"/>
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="50"/>
       <c r="Z25" s="50"/>
       <c r="AA25" s="50"/>
       <c r="AB25" s="50"/>
-      <c r="AC25" s="62"/>
+      <c r="AC25" s="68"/>
       <c r="AD25" s="51"/>
       <c r="AE25" s="51"/>
       <c r="AF25" s="51"/>
       <c r="AG25" s="51"/>
       <c r="AH25" s="51"/>
       <c r="AI25" s="51"/>
-      <c r="AJ25" s="54"/>
+      <c r="AJ25" s="61"/>
       <c r="AK25" s="51"/>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A26" s="64"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="2" t="s">
         <v>108</v>
       </c>
@@ -6705,28 +6720,28 @@
       <c r="S26" s="20"/>
       <c r="T26" s="20"/>
       <c r="U26" s="20"/>
-      <c r="V26" s="59"/>
+      <c r="V26" s="65"/>
       <c r="W26" s="20"/>
       <c r="X26" s="20"/>
       <c r="Y26" s="20"/>
       <c r="Z26" s="20"/>
       <c r="AA26" s="20"/>
       <c r="AB26" s="20"/>
-      <c r="AC26" s="62"/>
+      <c r="AC26" s="68"/>
       <c r="AD26" s="19"/>
       <c r="AE26" s="19"/>
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
       <c r="AH26" s="19"/>
       <c r="AI26" s="19"/>
-      <c r="AJ26" s="54"/>
+      <c r="AJ26" s="61"/>
       <c r="AK26" s="19"/>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A27" s="64"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
       <c r="E27" s="2" t="s">
         <v>104</v>
       </c>
@@ -6748,28 +6763,28 @@
       <c r="S27" s="20"/>
       <c r="T27" s="20"/>
       <c r="U27" s="20"/>
-      <c r="V27" s="59"/>
+      <c r="V27" s="65"/>
       <c r="W27" s="20"/>
       <c r="X27" s="20"/>
       <c r="Y27" s="20"/>
       <c r="Z27" s="20"/>
       <c r="AA27" s="20"/>
       <c r="AB27" s="20"/>
-      <c r="AC27" s="62"/>
+      <c r="AC27" s="68"/>
       <c r="AD27" s="19"/>
       <c r="AE27" s="19"/>
       <c r="AF27" s="19"/>
       <c r="AG27" s="19"/>
       <c r="AH27" s="19"/>
       <c r="AI27" s="19"/>
-      <c r="AJ27" s="54"/>
+      <c r="AJ27" s="61"/>
       <c r="AK27" s="19"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A28" s="64"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56" t="s">
+      <c r="A28" s="53"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -6801,28 +6816,28 @@
       <c r="S28" s="20"/>
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
-      <c r="V28" s="59"/>
+      <c r="V28" s="65"/>
       <c r="W28" s="20"/>
       <c r="X28" s="20"/>
       <c r="Y28" s="20"/>
       <c r="Z28" s="20"/>
       <c r="AA28" s="20"/>
       <c r="AB28" s="20"/>
-      <c r="AC28" s="62"/>
+      <c r="AC28" s="68"/>
       <c r="AD28" s="19"/>
       <c r="AE28" s="19"/>
       <c r="AF28" s="19"/>
       <c r="AG28" s="19"/>
       <c r="AH28" s="19"/>
       <c r="AI28" s="19"/>
-      <c r="AJ28" s="54"/>
+      <c r="AJ28" s="61"/>
       <c r="AK28" s="19"/>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A29" s="64"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
       <c r="E29" s="2" t="s">
         <v>121</v>
       </c>
@@ -6852,28 +6867,28 @@
       <c r="S29" s="20"/>
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
-      <c r="V29" s="59"/>
+      <c r="V29" s="65"/>
       <c r="W29" s="20"/>
       <c r="X29" s="20"/>
       <c r="Y29" s="20"/>
       <c r="Z29" s="20"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="20"/>
-      <c r="AC29" s="62"/>
+      <c r="AC29" s="68"/>
       <c r="AD29" s="19"/>
       <c r="AE29" s="19"/>
       <c r="AF29" s="19"/>
       <c r="AG29" s="19"/>
       <c r="AH29" s="19"/>
       <c r="AI29" s="19"/>
-      <c r="AJ29" s="54"/>
+      <c r="AJ29" s="61"/>
       <c r="AK29" s="19"/>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A30" s="64"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56" t="s">
+      <c r="A30" s="53"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -6903,28 +6918,28 @@
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
       <c r="U30" s="20"/>
-      <c r="V30" s="59"/>
+      <c r="V30" s="65"/>
       <c r="W30" s="20"/>
       <c r="X30" s="20"/>
       <c r="Y30" s="20"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
-      <c r="AC30" s="62"/>
+      <c r="AC30" s="68"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="19"/>
       <c r="AF30" s="19"/>
       <c r="AG30" s="19"/>
       <c r="AH30" s="19"/>
       <c r="AI30" s="19"/>
-      <c r="AJ30" s="54"/>
+      <c r="AJ30" s="61"/>
       <c r="AK30" s="19"/>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A31" s="64"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
       <c r="E31" s="2" t="s">
         <v>145</v>
       </c>
@@ -6946,28 +6961,28 @@
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
-      <c r="V31" s="59"/>
+      <c r="V31" s="65"/>
       <c r="W31" s="20"/>
       <c r="X31" s="20"/>
       <c r="Y31" s="20"/>
       <c r="Z31" s="20"/>
       <c r="AA31" s="20"/>
       <c r="AB31" s="20"/>
-      <c r="AC31" s="62"/>
+      <c r="AC31" s="68"/>
       <c r="AD31" s="19"/>
       <c r="AE31" s="19"/>
       <c r="AF31" s="19"/>
       <c r="AG31" s="19"/>
       <c r="AH31" s="19"/>
       <c r="AI31" s="19"/>
-      <c r="AJ31" s="54"/>
+      <c r="AJ31" s="61"/>
       <c r="AK31" s="19"/>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A32" s="64"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
       <c r="E32" s="2" t="s">
         <v>115</v>
       </c>
@@ -6997,28 +7012,28 @@
       <c r="S32" s="20"/>
       <c r="T32" s="20"/>
       <c r="U32" s="20"/>
-      <c r="V32" s="59"/>
+      <c r="V32" s="65"/>
       <c r="W32" s="20"/>
       <c r="X32" s="20"/>
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
       <c r="AA32" s="20"/>
       <c r="AB32" s="20"/>
-      <c r="AC32" s="62"/>
+      <c r="AC32" s="68"/>
       <c r="AD32" s="19"/>
       <c r="AE32" s="19"/>
       <c r="AF32" s="19"/>
       <c r="AG32" s="19"/>
       <c r="AH32" s="19"/>
       <c r="AI32" s="19"/>
-      <c r="AJ32" s="54"/>
+      <c r="AJ32" s="61"/>
       <c r="AK32" s="19"/>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A33" s="64"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56" t="s">
+      <c r="A33" s="53"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54" t="s">
         <v>92</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -7042,28 +7057,28 @@
       <c r="S33" s="20"/>
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
-      <c r="V33" s="59"/>
+      <c r="V33" s="65"/>
       <c r="W33" s="20"/>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
       <c r="AA33" s="20"/>
       <c r="AB33" s="20"/>
-      <c r="AC33" s="62"/>
+      <c r="AC33" s="68"/>
       <c r="AD33" s="19"/>
       <c r="AE33" s="19"/>
       <c r="AF33" s="19"/>
       <c r="AG33" s="19"/>
       <c r="AH33" s="19"/>
       <c r="AI33" s="19"/>
-      <c r="AJ33" s="54"/>
+      <c r="AJ33" s="61"/>
       <c r="AK33" s="19"/>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A34" s="64"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="2" t="s">
         <v>143</v>
       </c>
@@ -7093,28 +7108,28 @@
       <c r="S34" s="20"/>
       <c r="T34" s="20"/>
       <c r="U34" s="20"/>
-      <c r="V34" s="59"/>
+      <c r="V34" s="65"/>
       <c r="W34" s="20"/>
       <c r="X34" s="20"/>
       <c r="Y34" s="20"/>
       <c r="Z34" s="20"/>
       <c r="AA34" s="20"/>
       <c r="AB34" s="20"/>
-      <c r="AC34" s="62"/>
+      <c r="AC34" s="68"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="19"/>
       <c r="AG34" s="19"/>
       <c r="AH34" s="19"/>
       <c r="AI34" s="19"/>
-      <c r="AJ34" s="54"/>
+      <c r="AJ34" s="61"/>
       <c r="AK34" s="19"/>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A35" s="64"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
       <c r="E35" s="2" t="s">
         <v>105</v>
       </c>
@@ -7136,27 +7151,27 @@
       <c r="S35" s="20"/>
       <c r="T35" s="20"/>
       <c r="U35" s="20"/>
-      <c r="V35" s="59"/>
+      <c r="V35" s="65"/>
       <c r="W35" s="20"/>
       <c r="X35" s="20"/>
       <c r="Y35" s="20"/>
       <c r="Z35" s="20"/>
       <c r="AA35" s="20"/>
       <c r="AB35" s="20"/>
-      <c r="AC35" s="62"/>
+      <c r="AC35" s="68"/>
       <c r="AD35" s="19"/>
       <c r="AE35" s="19"/>
       <c r="AF35" s="19"/>
       <c r="AG35" s="19"/>
       <c r="AH35" s="19"/>
       <c r="AI35" s="19"/>
-      <c r="AJ35" s="54"/>
+      <c r="AJ35" s="61"/>
       <c r="AK35" s="19"/>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A36" s="64"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="56"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="2" t="s">
         <v>24</v>
       </c>
@@ -7181,27 +7196,27 @@
       <c r="S36" s="20"/>
       <c r="T36" s="20"/>
       <c r="U36" s="20"/>
-      <c r="V36" s="59"/>
+      <c r="V36" s="65"/>
       <c r="W36" s="20"/>
       <c r="X36" s="20"/>
       <c r="Y36" s="20"/>
       <c r="Z36" s="20"/>
       <c r="AA36" s="20"/>
       <c r="AB36" s="20"/>
-      <c r="AC36" s="62"/>
+      <c r="AC36" s="68"/>
       <c r="AD36" s="19"/>
       <c r="AE36" s="19"/>
       <c r="AF36" s="19"/>
       <c r="AG36" s="19"/>
       <c r="AH36" s="19"/>
       <c r="AI36" s="19"/>
-      <c r="AJ36" s="54"/>
+      <c r="AJ36" s="61"/>
       <c r="AK36" s="19"/>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A37" s="64"/>
-      <c r="B37" s="57"/>
-      <c r="C37" s="56"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="54"/>
       <c r="D37" s="2" t="s">
         <v>146</v>
       </c>
@@ -7234,27 +7249,27 @@
       <c r="S37" s="20"/>
       <c r="T37" s="20"/>
       <c r="U37" s="20"/>
-      <c r="V37" s="59"/>
+      <c r="V37" s="65"/>
       <c r="W37" s="20"/>
       <c r="X37" s="20"/>
       <c r="Y37" s="20"/>
       <c r="Z37" s="20"/>
       <c r="AA37" s="20"/>
       <c r="AB37" s="20"/>
-      <c r="AC37" s="62"/>
+      <c r="AC37" s="68"/>
       <c r="AD37" s="19"/>
       <c r="AE37" s="19"/>
       <c r="AF37" s="19"/>
       <c r="AG37" s="19"/>
       <c r="AH37" s="19"/>
       <c r="AI37" s="19"/>
-      <c r="AJ37" s="54"/>
+      <c r="AJ37" s="61"/>
       <c r="AK37" s="19"/>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A38" s="64"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="56"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="54"/>
       <c r="D38" s="2" t="s">
         <v>96</v>
       </c>
@@ -7277,27 +7292,27 @@
       <c r="S38" s="20"/>
       <c r="T38" s="20"/>
       <c r="U38" s="20"/>
-      <c r="V38" s="59"/>
+      <c r="V38" s="65"/>
       <c r="W38" s="20"/>
       <c r="X38" s="20"/>
       <c r="Y38" s="20"/>
       <c r="Z38" s="20"/>
       <c r="AA38" s="20"/>
       <c r="AB38" s="20"/>
-      <c r="AC38" s="62"/>
+      <c r="AC38" s="68"/>
       <c r="AD38" s="19"/>
       <c r="AE38" s="19"/>
       <c r="AF38" s="19"/>
       <c r="AG38" s="19"/>
       <c r="AH38" s="19"/>
       <c r="AI38" s="19"/>
-      <c r="AJ38" s="54"/>
+      <c r="AJ38" s="61"/>
       <c r="AK38" s="19"/>
     </row>
     <row r="39" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A39" s="64"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="56"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="54"/>
       <c r="D39" s="2" t="s">
         <v>23</v>
       </c>
@@ -7320,27 +7335,27 @@
       <c r="S39" s="20"/>
       <c r="T39" s="20"/>
       <c r="U39" s="20"/>
-      <c r="V39" s="59"/>
+      <c r="V39" s="65"/>
       <c r="W39" s="20"/>
       <c r="X39" s="20"/>
       <c r="Y39" s="20"/>
       <c r="Z39" s="20"/>
       <c r="AA39" s="20"/>
       <c r="AB39" s="20"/>
-      <c r="AC39" s="62"/>
+      <c r="AC39" s="68"/>
       <c r="AD39" s="19"/>
       <c r="AE39" s="19"/>
       <c r="AF39" s="19"/>
       <c r="AG39" s="19"/>
       <c r="AH39" s="19"/>
       <c r="AI39" s="19"/>
-      <c r="AJ39" s="54"/>
+      <c r="AJ39" s="61"/>
       <c r="AK39" s="19"/>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A40" s="64"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="56"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="54"/>
       <c r="D40" s="39" t="s">
         <v>27</v>
       </c>
@@ -7363,27 +7378,27 @@
       <c r="S40" s="20"/>
       <c r="T40" s="20"/>
       <c r="U40" s="20"/>
-      <c r="V40" s="59"/>
+      <c r="V40" s="65"/>
       <c r="W40" s="20"/>
       <c r="X40" s="20"/>
       <c r="Y40" s="20"/>
       <c r="Z40" s="20"/>
       <c r="AA40" s="20"/>
       <c r="AB40" s="20"/>
-      <c r="AC40" s="62"/>
+      <c r="AC40" s="68"/>
       <c r="AD40" s="19"/>
       <c r="AE40" s="19"/>
       <c r="AF40" s="19"/>
       <c r="AG40" s="19"/>
       <c r="AH40" s="19"/>
       <c r="AI40" s="19"/>
-      <c r="AJ40" s="54"/>
+      <c r="AJ40" s="61"/>
       <c r="AK40" s="19"/>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A41" s="64"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="56"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="54"/>
       <c r="D41" s="38" t="s">
         <v>45</v>
       </c>
@@ -7406,27 +7421,27 @@
       <c r="S41" s="20"/>
       <c r="T41" s="20"/>
       <c r="U41" s="20"/>
-      <c r="V41" s="59"/>
+      <c r="V41" s="65"/>
       <c r="W41" s="20"/>
       <c r="X41" s="20"/>
       <c r="Y41" s="20"/>
       <c r="Z41" s="20"/>
       <c r="AA41" s="20"/>
       <c r="AB41" s="20"/>
-      <c r="AC41" s="62"/>
+      <c r="AC41" s="68"/>
       <c r="AD41" s="19"/>
       <c r="AE41" s="19"/>
       <c r="AF41" s="19"/>
       <c r="AG41" s="19"/>
       <c r="AH41" s="19"/>
       <c r="AI41" s="19"/>
-      <c r="AJ41" s="54"/>
+      <c r="AJ41" s="61"/>
       <c r="AK41" s="19"/>
     </row>
     <row r="42" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A42" s="64"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="56"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="54"/>
       <c r="D42" s="2" t="s">
         <v>26</v>
       </c>
@@ -7449,27 +7464,27 @@
       <c r="S42" s="20"/>
       <c r="T42" s="20"/>
       <c r="U42" s="20"/>
-      <c r="V42" s="59"/>
+      <c r="V42" s="65"/>
       <c r="W42" s="20"/>
       <c r="X42" s="20"/>
       <c r="Y42" s="20"/>
       <c r="Z42" s="20"/>
       <c r="AA42" s="20"/>
       <c r="AB42" s="20"/>
-      <c r="AC42" s="62"/>
+      <c r="AC42" s="68"/>
       <c r="AD42" s="19"/>
       <c r="AE42" s="19"/>
       <c r="AF42" s="19"/>
       <c r="AG42" s="19"/>
       <c r="AH42" s="19"/>
       <c r="AI42" s="19"/>
-      <c r="AJ42" s="54"/>
+      <c r="AJ42" s="61"/>
       <c r="AK42" s="19"/>
     </row>
     <row r="43" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A43" s="64"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="56" t="s">
+      <c r="A43" s="53"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="54" t="s">
         <v>42</v>
       </c>
       <c r="D43" s="40" t="s">
@@ -7494,27 +7509,27 @@
       <c r="S43" s="20"/>
       <c r="T43" s="20"/>
       <c r="U43" s="20"/>
-      <c r="V43" s="59"/>
+      <c r="V43" s="65"/>
       <c r="W43" s="20"/>
       <c r="X43" s="20"/>
       <c r="Y43" s="20"/>
       <c r="Z43" s="20"/>
       <c r="AA43" s="20"/>
       <c r="AB43" s="20"/>
-      <c r="AC43" s="62"/>
+      <c r="AC43" s="68"/>
       <c r="AD43" s="19"/>
       <c r="AE43" s="19"/>
       <c r="AF43" s="19"/>
       <c r="AG43" s="19"/>
       <c r="AH43" s="19"/>
       <c r="AI43" s="19"/>
-      <c r="AJ43" s="54"/>
+      <c r="AJ43" s="61"/>
       <c r="AK43" s="19"/>
     </row>
     <row r="44" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A44" s="64"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="56"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="54"/>
       <c r="D44" s="2" t="s">
         <v>26</v>
       </c>
@@ -7537,27 +7552,27 @@
       <c r="S44" s="20"/>
       <c r="T44" s="20"/>
       <c r="U44" s="20"/>
-      <c r="V44" s="59"/>
+      <c r="V44" s="65"/>
       <c r="W44" s="20"/>
       <c r="X44" s="20"/>
       <c r="Y44" s="20"/>
       <c r="Z44" s="20"/>
       <c r="AA44" s="20"/>
       <c r="AB44" s="20"/>
-      <c r="AC44" s="62"/>
+      <c r="AC44" s="68"/>
       <c r="AD44" s="19"/>
       <c r="AE44" s="19"/>
       <c r="AF44" s="19"/>
       <c r="AG44" s="19"/>
       <c r="AH44" s="19"/>
       <c r="AI44" s="19"/>
-      <c r="AJ44" s="54"/>
+      <c r="AJ44" s="61"/>
       <c r="AK44" s="19"/>
     </row>
     <row r="45" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A45" s="64"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="56" t="s">
+      <c r="A45" s="53"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="54" t="s">
         <v>43</v>
       </c>
       <c r="D45" s="38" t="s">
@@ -7582,27 +7597,27 @@
       <c r="S45" s="20"/>
       <c r="T45" s="20"/>
       <c r="U45" s="20"/>
-      <c r="V45" s="59"/>
+      <c r="V45" s="65"/>
       <c r="W45" s="20"/>
       <c r="X45" s="20"/>
       <c r="Y45" s="20"/>
       <c r="Z45" s="20"/>
       <c r="AA45" s="20"/>
       <c r="AB45" s="20"/>
-      <c r="AC45" s="62"/>
+      <c r="AC45" s="68"/>
       <c r="AD45" s="19"/>
       <c r="AE45" s="19"/>
       <c r="AF45" s="19"/>
       <c r="AG45" s="19"/>
       <c r="AH45" s="19"/>
       <c r="AI45" s="19"/>
-      <c r="AJ45" s="54"/>
+      <c r="AJ45" s="61"/>
       <c r="AK45" s="19"/>
     </row>
     <row r="46" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A46" s="64"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="56"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="54"/>
       <c r="D46" s="2" t="s">
         <v>26</v>
       </c>
@@ -7625,27 +7640,27 @@
       <c r="S46" s="20"/>
       <c r="T46" s="20"/>
       <c r="U46" s="20"/>
-      <c r="V46" s="59"/>
+      <c r="V46" s="65"/>
       <c r="W46" s="20"/>
       <c r="X46" s="20"/>
       <c r="Y46" s="20"/>
       <c r="Z46" s="20"/>
       <c r="AA46" s="20"/>
       <c r="AB46" s="20"/>
-      <c r="AC46" s="62"/>
+      <c r="AC46" s="68"/>
       <c r="AD46" s="19"/>
       <c r="AE46" s="19"/>
       <c r="AF46" s="19"/>
       <c r="AG46" s="19"/>
       <c r="AH46" s="19"/>
       <c r="AI46" s="19"/>
-      <c r="AJ46" s="54"/>
+      <c r="AJ46" s="61"/>
       <c r="AK46" s="19"/>
     </row>
     <row r="47" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A47" s="64"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="56"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="54"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="20"/>
@@ -7666,27 +7681,27 @@
       <c r="S47" s="20"/>
       <c r="T47" s="20"/>
       <c r="U47" s="20"/>
-      <c r="V47" s="59"/>
+      <c r="V47" s="65"/>
       <c r="W47" s="20"/>
       <c r="X47" s="20"/>
       <c r="Y47" s="20"/>
       <c r="Z47" s="20"/>
       <c r="AA47" s="20"/>
       <c r="AB47" s="20"/>
-      <c r="AC47" s="62"/>
+      <c r="AC47" s="68"/>
       <c r="AD47" s="19"/>
       <c r="AE47" s="19"/>
       <c r="AF47" s="19"/>
       <c r="AG47" s="19"/>
       <c r="AH47" s="19"/>
       <c r="AI47" s="19"/>
-      <c r="AJ47" s="54"/>
+      <c r="AJ47" s="61"/>
       <c r="AK47" s="19"/>
     </row>
     <row r="48" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A48" s="64"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="56" t="s">
+      <c r="A48" s="53"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="54" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -7711,27 +7726,27 @@
       <c r="S48" s="20"/>
       <c r="T48" s="20"/>
       <c r="U48" s="20"/>
-      <c r="V48" s="59"/>
+      <c r="V48" s="65"/>
       <c r="W48" s="20"/>
       <c r="X48" s="20"/>
       <c r="Y48" s="20"/>
       <c r="Z48" s="20"/>
       <c r="AA48" s="20"/>
       <c r="AB48" s="20"/>
-      <c r="AC48" s="62"/>
+      <c r="AC48" s="68"/>
       <c r="AD48" s="19"/>
       <c r="AE48" s="19"/>
       <c r="AF48" s="19"/>
       <c r="AG48" s="19"/>
       <c r="AH48" s="19"/>
       <c r="AI48" s="19"/>
-      <c r="AJ48" s="54"/>
+      <c r="AJ48" s="61"/>
       <c r="AK48" s="19"/>
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A49" s="64"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="56"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="54"/>
       <c r="D49" s="2" t="s">
         <v>36</v>
       </c>
@@ -7754,27 +7769,27 @@
       <c r="S49" s="20"/>
       <c r="T49" s="20"/>
       <c r="U49" s="20"/>
-      <c r="V49" s="59"/>
+      <c r="V49" s="65"/>
       <c r="W49" s="20"/>
       <c r="X49" s="20"/>
       <c r="Y49" s="20"/>
       <c r="Z49" s="20"/>
       <c r="AA49" s="20"/>
       <c r="AB49" s="20"/>
-      <c r="AC49" s="62"/>
+      <c r="AC49" s="68"/>
       <c r="AD49" s="19"/>
       <c r="AE49" s="19"/>
       <c r="AF49" s="19"/>
       <c r="AG49" s="19"/>
       <c r="AH49" s="19"/>
       <c r="AI49" s="19"/>
-      <c r="AJ49" s="54"/>
+      <c r="AJ49" s="61"/>
       <c r="AK49" s="19"/>
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A50" s="64"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="56"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="2" t="s">
         <v>37</v>
       </c>
@@ -7797,27 +7812,27 @@
       <c r="S50" s="20"/>
       <c r="T50" s="20"/>
       <c r="U50" s="20"/>
-      <c r="V50" s="59"/>
+      <c r="V50" s="65"/>
       <c r="W50" s="20"/>
       <c r="X50" s="20"/>
       <c r="Y50" s="20"/>
       <c r="Z50" s="20"/>
       <c r="AA50" s="20"/>
       <c r="AB50" s="20"/>
-      <c r="AC50" s="62"/>
+      <c r="AC50" s="68"/>
       <c r="AD50" s="19"/>
       <c r="AE50" s="19"/>
       <c r="AF50" s="19"/>
       <c r="AG50" s="19"/>
       <c r="AH50" s="19"/>
       <c r="AI50" s="19"/>
-      <c r="AJ50" s="54"/>
+      <c r="AJ50" s="61"/>
       <c r="AK50" s="19"/>
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A51" s="64"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="56"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="54"/>
       <c r="D51" s="2" t="s">
         <v>38</v>
       </c>
@@ -7840,27 +7855,27 @@
       <c r="S51" s="20"/>
       <c r="T51" s="20"/>
       <c r="U51" s="20"/>
-      <c r="V51" s="59"/>
+      <c r="V51" s="65"/>
       <c r="W51" s="20"/>
       <c r="X51" s="20"/>
       <c r="Y51" s="20"/>
       <c r="Z51" s="20"/>
       <c r="AA51" s="20"/>
       <c r="AB51" s="20"/>
-      <c r="AC51" s="62"/>
+      <c r="AC51" s="68"/>
       <c r="AD51" s="19"/>
       <c r="AE51" s="19"/>
       <c r="AF51" s="19"/>
       <c r="AG51" s="19"/>
       <c r="AH51" s="19"/>
       <c r="AI51" s="19"/>
-      <c r="AJ51" s="54"/>
+      <c r="AJ51" s="61"/>
       <c r="AK51" s="19"/>
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A52" s="64"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="56"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="2" t="s">
         <v>33</v>
       </c>
@@ -7883,27 +7898,27 @@
       <c r="S52" s="20"/>
       <c r="T52" s="20"/>
       <c r="U52" s="20"/>
-      <c r="V52" s="59"/>
+      <c r="V52" s="65"/>
       <c r="W52" s="20"/>
       <c r="X52" s="20"/>
       <c r="Y52" s="20"/>
       <c r="Z52" s="20"/>
       <c r="AA52" s="20"/>
       <c r="AB52" s="20"/>
-      <c r="AC52" s="62"/>
+      <c r="AC52" s="68"/>
       <c r="AD52" s="19"/>
       <c r="AE52" s="19"/>
       <c r="AF52" s="19"/>
       <c r="AG52" s="19"/>
       <c r="AH52" s="19"/>
       <c r="AI52" s="19"/>
-      <c r="AJ52" s="54"/>
+      <c r="AJ52" s="61"/>
       <c r="AK52" s="19"/>
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A53" s="64"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="56" t="s">
+      <c r="A53" s="53"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="54" t="s">
         <v>123</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -7932,27 +7947,27 @@
       <c r="S53" s="20"/>
       <c r="T53" s="20"/>
       <c r="U53" s="20"/>
-      <c r="V53" s="59"/>
+      <c r="V53" s="65"/>
       <c r="W53" s="20"/>
       <c r="X53" s="20"/>
       <c r="Y53" s="20"/>
       <c r="Z53" s="20"/>
       <c r="AA53" s="20"/>
       <c r="AB53" s="20"/>
-      <c r="AC53" s="62"/>
+      <c r="AC53" s="68"/>
       <c r="AD53" s="19"/>
       <c r="AE53" s="19"/>
       <c r="AF53" s="19"/>
       <c r="AG53" s="19"/>
       <c r="AH53" s="19"/>
       <c r="AI53" s="19"/>
-      <c r="AJ53" s="54"/>
+      <c r="AJ53" s="61"/>
       <c r="AK53" s="19"/>
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A54" s="64"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="56"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="54"/>
       <c r="D54" s="2" t="s">
         <v>153</v>
       </c>
@@ -7979,26 +7994,26 @@
       <c r="S54" s="20"/>
       <c r="T54" s="20"/>
       <c r="U54" s="20"/>
-      <c r="V54" s="59"/>
+      <c r="V54" s="65"/>
       <c r="W54" s="20"/>
       <c r="X54" s="20"/>
       <c r="Y54" s="20"/>
       <c r="Z54" s="20"/>
       <c r="AA54" s="20"/>
       <c r="AB54" s="20"/>
-      <c r="AC54" s="62"/>
+      <c r="AC54" s="68"/>
       <c r="AD54" s="19"/>
       <c r="AE54" s="19"/>
       <c r="AF54" s="19"/>
       <c r="AG54" s="19"/>
       <c r="AH54" s="19"/>
       <c r="AI54" s="19"/>
-      <c r="AJ54" s="54"/>
+      <c r="AJ54" s="61"/>
       <c r="AK54" s="19"/>
     </row>
     <row r="55" spans="1:37" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="64"/>
-      <c r="B55" s="57"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="63"/>
       <c r="C55" s="21" t="s">
         <v>71</v>
       </c>
@@ -8024,32 +8039,32 @@
       <c r="S55" s="21"/>
       <c r="T55" s="21"/>
       <c r="U55" s="21"/>
-      <c r="V55" s="59"/>
+      <c r="V55" s="65"/>
       <c r="W55" s="21"/>
       <c r="X55" s="21"/>
       <c r="Y55" s="21"/>
       <c r="Z55" s="21"/>
       <c r="AA55" s="21"/>
       <c r="AB55" s="21"/>
-      <c r="AC55" s="62"/>
+      <c r="AC55" s="68"/>
       <c r="AD55" s="19"/>
       <c r="AE55" s="19"/>
       <c r="AF55" s="19"/>
       <c r="AG55" s="19"/>
       <c r="AH55" s="19"/>
       <c r="AI55" s="19"/>
-      <c r="AJ55" s="54"/>
+      <c r="AJ55" s="61"/>
       <c r="AK55" s="19"/>
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A56" s="64"/>
-      <c r="B56" s="66" t="s">
+      <c r="A56" s="53"/>
+      <c r="B56" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="C56" s="56" t="s">
+      <c r="C56" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="D56" s="56" t="s">
+      <c r="D56" s="54" t="s">
         <v>29</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -8081,28 +8096,28 @@
       <c r="S56" s="20"/>
       <c r="T56" s="20"/>
       <c r="U56" s="20"/>
-      <c r="V56" s="59"/>
+      <c r="V56" s="65"/>
       <c r="W56" s="20"/>
       <c r="X56" s="20"/>
       <c r="Y56" s="20"/>
       <c r="Z56" s="20"/>
       <c r="AA56" s="20"/>
       <c r="AB56" s="20"/>
-      <c r="AC56" s="62"/>
+      <c r="AC56" s="68"/>
       <c r="AD56" s="19"/>
       <c r="AE56" s="19"/>
       <c r="AF56" s="19"/>
       <c r="AG56" s="19"/>
       <c r="AH56" s="19"/>
       <c r="AI56" s="19"/>
-      <c r="AJ56" s="54"/>
+      <c r="AJ56" s="61"/>
       <c r="AK56" s="19"/>
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A57" s="64"/>
-      <c r="B57" s="66"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
+      <c r="A57" s="53"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
       <c r="E57" s="2" t="s">
         <v>132</v>
       </c>
@@ -8132,30 +8147,30 @@
       <c r="S57" s="20"/>
       <c r="T57" s="20"/>
       <c r="U57" s="20"/>
-      <c r="V57" s="59"/>
+      <c r="V57" s="65"/>
       <c r="W57" s="20"/>
       <c r="X57" s="20"/>
       <c r="Y57" s="20"/>
       <c r="Z57" s="20"/>
       <c r="AA57" s="20"/>
       <c r="AB57" s="20"/>
-      <c r="AC57" s="62"/>
+      <c r="AC57" s="68"/>
       <c r="AD57" s="19"/>
       <c r="AE57" s="19"/>
       <c r="AF57" s="19"/>
       <c r="AG57" s="19"/>
       <c r="AH57" s="19"/>
       <c r="AI57" s="19"/>
-      <c r="AJ57" s="54"/>
+      <c r="AJ57" s="61"/>
       <c r="AK57" s="19"/>
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A58" s="64"/>
-      <c r="B58" s="66"/>
-      <c r="C58" s="56" t="s">
+      <c r="A58" s="53"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D58" s="56" t="s">
+      <c r="D58" s="54" t="s">
         <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -8181,28 +8196,28 @@
       <c r="S58" s="20"/>
       <c r="T58" s="20"/>
       <c r="U58" s="20"/>
-      <c r="V58" s="59"/>
+      <c r="V58" s="65"/>
       <c r="W58" s="20"/>
       <c r="X58" s="20"/>
       <c r="Y58" s="20"/>
       <c r="Z58" s="20"/>
       <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
-      <c r="AC58" s="62"/>
+      <c r="AC58" s="68"/>
       <c r="AD58" s="19"/>
       <c r="AE58" s="19"/>
       <c r="AF58" s="19"/>
       <c r="AG58" s="19"/>
       <c r="AH58" s="19"/>
       <c r="AI58" s="19"/>
-      <c r="AJ58" s="54"/>
+      <c r="AJ58" s="61"/>
       <c r="AK58" s="19"/>
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A59" s="64"/>
-      <c r="B59" s="66"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
+      <c r="A59" s="53"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
       <c r="E59" s="2" t="s">
         <v>148</v>
       </c>
@@ -8226,28 +8241,28 @@
       <c r="S59" s="20"/>
       <c r="T59" s="20"/>
       <c r="U59" s="20"/>
-      <c r="V59" s="59"/>
+      <c r="V59" s="65"/>
       <c r="W59" s="20"/>
       <c r="X59" s="20"/>
       <c r="Y59" s="20"/>
       <c r="Z59" s="20"/>
       <c r="AA59" s="20"/>
       <c r="AB59" s="20"/>
-      <c r="AC59" s="62"/>
+      <c r="AC59" s="68"/>
       <c r="AD59" s="19"/>
       <c r="AE59" s="19"/>
       <c r="AF59" s="19"/>
       <c r="AG59" s="19"/>
       <c r="AH59" s="19"/>
       <c r="AI59" s="19"/>
-      <c r="AJ59" s="54"/>
+      <c r="AJ59" s="61"/>
       <c r="AK59" s="19"/>
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A60" s="64"/>
-      <c r="B60" s="66"/>
-      <c r="C60" s="56"/>
-      <c r="D60" s="56"/>
+      <c r="A60" s="53"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
       <c r="E60" s="2" t="s">
         <v>149</v>
       </c>
@@ -8271,28 +8286,28 @@
       <c r="S60" s="20"/>
       <c r="T60" s="20"/>
       <c r="U60" s="20"/>
-      <c r="V60" s="59"/>
+      <c r="V60" s="65"/>
       <c r="W60" s="20"/>
       <c r="X60" s="20"/>
       <c r="Y60" s="20"/>
       <c r="Z60" s="20"/>
       <c r="AA60" s="20"/>
       <c r="AB60" s="20"/>
-      <c r="AC60" s="62"/>
+      <c r="AC60" s="68"/>
       <c r="AD60" s="19"/>
       <c r="AE60" s="19"/>
       <c r="AF60" s="19"/>
       <c r="AG60" s="19"/>
       <c r="AH60" s="19"/>
       <c r="AI60" s="19"/>
-      <c r="AJ60" s="54"/>
+      <c r="AJ60" s="61"/>
       <c r="AK60" s="19"/>
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A61" s="64"/>
-      <c r="B61" s="66"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
+      <c r="A61" s="53"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
       <c r="E61" s="2" t="s">
         <v>109</v>
       </c>
@@ -8316,28 +8331,28 @@
       <c r="S61" s="20"/>
       <c r="T61" s="20"/>
       <c r="U61" s="20"/>
-      <c r="V61" s="59"/>
+      <c r="V61" s="65"/>
       <c r="W61" s="20"/>
       <c r="X61" s="20"/>
       <c r="Y61" s="20"/>
       <c r="Z61" s="20"/>
       <c r="AA61" s="20"/>
       <c r="AB61" s="20"/>
-      <c r="AC61" s="62"/>
+      <c r="AC61" s="68"/>
       <c r="AD61" s="19"/>
       <c r="AE61" s="19"/>
       <c r="AF61" s="19"/>
       <c r="AG61" s="19"/>
       <c r="AH61" s="19"/>
       <c r="AI61" s="19"/>
-      <c r="AJ61" s="54"/>
+      <c r="AJ61" s="61"/>
       <c r="AK61" s="19"/>
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A62" s="64"/>
-      <c r="B62" s="66"/>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
+      <c r="A62" s="53"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="54"/>
       <c r="E62" s="2" t="s">
         <v>110</v>
       </c>
@@ -8361,28 +8376,28 @@
       <c r="S62" s="20"/>
       <c r="T62" s="20"/>
       <c r="U62" s="20"/>
-      <c r="V62" s="59"/>
+      <c r="V62" s="65"/>
       <c r="W62" s="20"/>
       <c r="X62" s="20"/>
       <c r="Y62" s="20"/>
       <c r="Z62" s="20"/>
       <c r="AA62" s="20"/>
       <c r="AB62" s="20"/>
-      <c r="AC62" s="62"/>
+      <c r="AC62" s="68"/>
       <c r="AD62" s="19"/>
       <c r="AE62" s="19"/>
       <c r="AF62" s="19"/>
       <c r="AG62" s="19"/>
       <c r="AH62" s="19"/>
       <c r="AI62" s="19"/>
-      <c r="AJ62" s="54"/>
+      <c r="AJ62" s="61"/>
       <c r="AK62" s="19"/>
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A63" s="64"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56" t="s">
+      <c r="A63" s="53"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54" t="s">
         <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -8408,28 +8423,28 @@
       <c r="S63" s="20"/>
       <c r="T63" s="20"/>
       <c r="U63" s="20"/>
-      <c r="V63" s="59"/>
+      <c r="V63" s="65"/>
       <c r="W63" s="20"/>
       <c r="X63" s="20"/>
       <c r="Y63" s="20"/>
       <c r="Z63" s="20"/>
       <c r="AA63" s="20"/>
       <c r="AB63" s="20"/>
-      <c r="AC63" s="62"/>
+      <c r="AC63" s="68"/>
       <c r="AD63" s="19"/>
       <c r="AE63" s="19"/>
       <c r="AF63" s="19"/>
       <c r="AG63" s="19"/>
       <c r="AH63" s="19"/>
       <c r="AI63" s="19"/>
-      <c r="AJ63" s="54"/>
+      <c r="AJ63" s="61"/>
       <c r="AK63" s="19"/>
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A64" s="64"/>
-      <c r="B64" s="66"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
+      <c r="A64" s="53"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="54"/>
       <c r="E64" s="2" t="s">
         <v>104</v>
       </c>
@@ -8453,30 +8468,30 @@
       <c r="S64" s="20"/>
       <c r="T64" s="20"/>
       <c r="U64" s="20"/>
-      <c r="V64" s="59"/>
+      <c r="V64" s="65"/>
       <c r="W64" s="20"/>
       <c r="X64" s="20"/>
       <c r="Y64" s="20"/>
       <c r="Z64" s="20"/>
       <c r="AA64" s="20"/>
       <c r="AB64" s="20"/>
-      <c r="AC64" s="62"/>
+      <c r="AC64" s="68"/>
       <c r="AD64" s="19"/>
       <c r="AE64" s="19"/>
       <c r="AF64" s="19"/>
       <c r="AG64" s="19"/>
       <c r="AH64" s="19"/>
       <c r="AI64" s="19"/>
-      <c r="AJ64" s="54"/>
+      <c r="AJ64" s="61"/>
       <c r="AK64" s="19"/>
     </row>
     <row r="65" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="64"/>
-      <c r="B65" s="66"/>
-      <c r="C65" s="56" t="s">
+      <c r="A65" s="53"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="D65" s="56" t="s">
+      <c r="D65" s="54" t="s">
         <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -8508,28 +8523,28 @@
       <c r="S65" s="20"/>
       <c r="T65" s="20"/>
       <c r="U65" s="20"/>
-      <c r="V65" s="59"/>
+      <c r="V65" s="65"/>
       <c r="W65" s="20"/>
       <c r="X65" s="20"/>
       <c r="Y65" s="20"/>
       <c r="Z65" s="20"/>
       <c r="AA65" s="20"/>
       <c r="AB65" s="20"/>
-      <c r="AC65" s="62"/>
+      <c r="AC65" s="68"/>
       <c r="AD65" s="19"/>
       <c r="AE65" s="19"/>
       <c r="AF65" s="19"/>
       <c r="AG65" s="19"/>
       <c r="AH65" s="19"/>
       <c r="AI65" s="19"/>
-      <c r="AJ65" s="54"/>
+      <c r="AJ65" s="61"/>
       <c r="AK65" s="19"/>
     </row>
     <row r="66" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="64"/>
-      <c r="B66" s="66"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="56"/>
+      <c r="A66" s="53"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="54"/>
       <c r="E66" s="2" t="s">
         <v>132</v>
       </c>
@@ -8557,27 +8572,27 @@
       <c r="S66" s="20"/>
       <c r="T66" s="20"/>
       <c r="U66" s="20"/>
-      <c r="V66" s="59"/>
+      <c r="V66" s="65"/>
       <c r="W66" s="20"/>
       <c r="X66" s="20"/>
       <c r="Y66" s="20"/>
       <c r="Z66" s="20"/>
       <c r="AA66" s="20"/>
       <c r="AB66" s="20"/>
-      <c r="AC66" s="62"/>
+      <c r="AC66" s="68"/>
       <c r="AD66" s="19"/>
       <c r="AE66" s="19"/>
       <c r="AF66" s="19"/>
       <c r="AG66" s="19"/>
       <c r="AH66" s="19"/>
       <c r="AI66" s="19"/>
-      <c r="AJ66" s="54"/>
+      <c r="AJ66" s="61"/>
       <c r="AK66" s="19"/>
     </row>
     <row r="67" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="64"/>
-      <c r="B67" s="66"/>
-      <c r="C67" s="56"/>
+      <c r="A67" s="53"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="54"/>
       <c r="D67" s="2" t="s">
         <v>100</v>
       </c>
@@ -8600,26 +8615,26 @@
       <c r="S67" s="20"/>
       <c r="T67" s="20"/>
       <c r="U67" s="20"/>
-      <c r="V67" s="59"/>
+      <c r="V67" s="65"/>
       <c r="W67" s="20"/>
       <c r="X67" s="20"/>
       <c r="Y67" s="20"/>
       <c r="Z67" s="20"/>
       <c r="AA67" s="20"/>
       <c r="AB67" s="20"/>
-      <c r="AC67" s="62"/>
+      <c r="AC67" s="68"/>
       <c r="AD67" s="19"/>
       <c r="AE67" s="19"/>
       <c r="AF67" s="19"/>
       <c r="AG67" s="19"/>
       <c r="AH67" s="19"/>
       <c r="AI67" s="19"/>
-      <c r="AJ67" s="54"/>
+      <c r="AJ67" s="61"/>
       <c r="AK67" s="19"/>
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A68" s="64"/>
-      <c r="B68" s="66"/>
+      <c r="A68" s="53"/>
+      <c r="B68" s="56"/>
       <c r="C68" s="20" t="s">
         <v>91</v>
       </c>
@@ -8643,26 +8658,26 @@
       <c r="S68" s="20"/>
       <c r="T68" s="20"/>
       <c r="U68" s="20"/>
-      <c r="V68" s="59"/>
+      <c r="V68" s="65"/>
       <c r="W68" s="20"/>
       <c r="X68" s="20"/>
       <c r="Y68" s="20"/>
       <c r="Z68" s="20"/>
       <c r="AA68" s="20"/>
       <c r="AB68" s="20"/>
-      <c r="AC68" s="62"/>
+      <c r="AC68" s="68"/>
       <c r="AD68" s="19"/>
       <c r="AE68" s="19"/>
       <c r="AF68" s="19"/>
       <c r="AG68" s="19"/>
       <c r="AH68" s="19"/>
       <c r="AI68" s="19"/>
-      <c r="AJ68" s="54"/>
+      <c r="AJ68" s="61"/>
       <c r="AK68" s="19"/>
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A69" s="64"/>
-      <c r="B69" s="66"/>
+      <c r="A69" s="53"/>
+      <c r="B69" s="56"/>
       <c r="C69" s="20" t="s">
         <v>24</v>
       </c>
@@ -8694,27 +8709,27 @@
       <c r="S69" s="20"/>
       <c r="T69" s="20"/>
       <c r="U69" s="20"/>
-      <c r="V69" s="59"/>
+      <c r="V69" s="65"/>
       <c r="W69" s="20"/>
       <c r="X69" s="20"/>
       <c r="Y69" s="20"/>
       <c r="Z69" s="20"/>
       <c r="AA69" s="20"/>
       <c r="AB69" s="20"/>
-      <c r="AC69" s="62"/>
+      <c r="AC69" s="68"/>
       <c r="AD69" s="19"/>
       <c r="AE69" s="19"/>
       <c r="AF69" s="19"/>
       <c r="AG69" s="19"/>
       <c r="AH69" s="19"/>
       <c r="AI69" s="19"/>
-      <c r="AJ69" s="54"/>
+      <c r="AJ69" s="61"/>
       <c r="AK69" s="19"/>
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A70" s="64"/>
-      <c r="B70" s="66"/>
-      <c r="C70" s="56" t="s">
+      <c r="A70" s="53"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="54" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
@@ -8747,27 +8762,27 @@
       <c r="S70" s="20"/>
       <c r="T70" s="20"/>
       <c r="U70" s="20"/>
-      <c r="V70" s="59"/>
+      <c r="V70" s="65"/>
       <c r="W70" s="20"/>
       <c r="X70" s="20"/>
       <c r="Y70" s="20"/>
       <c r="Z70" s="20"/>
       <c r="AA70" s="20"/>
       <c r="AB70" s="20"/>
-      <c r="AC70" s="62"/>
+      <c r="AC70" s="68"/>
       <c r="AD70" s="19"/>
       <c r="AE70" s="19"/>
       <c r="AF70" s="19"/>
       <c r="AG70" s="19"/>
       <c r="AH70" s="19"/>
       <c r="AI70" s="19"/>
-      <c r="AJ70" s="54"/>
+      <c r="AJ70" s="61"/>
       <c r="AK70" s="19"/>
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A71" s="64"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="56"/>
+      <c r="A71" s="53"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="54"/>
       <c r="D71" s="2" t="s">
         <v>128</v>
       </c>
@@ -8798,27 +8813,27 @@
       <c r="S71" s="20"/>
       <c r="T71" s="20"/>
       <c r="U71" s="20"/>
-      <c r="V71" s="59"/>
+      <c r="V71" s="65"/>
       <c r="W71" s="20"/>
       <c r="X71" s="20"/>
       <c r="Y71" s="20"/>
       <c r="Z71" s="20"/>
       <c r="AA71" s="20"/>
       <c r="AB71" s="20"/>
-      <c r="AC71" s="62"/>
+      <c r="AC71" s="68"/>
       <c r="AD71" s="19"/>
       <c r="AE71" s="19"/>
       <c r="AF71" s="19"/>
       <c r="AG71" s="19"/>
       <c r="AH71" s="19"/>
       <c r="AI71" s="19"/>
-      <c r="AJ71" s="54"/>
+      <c r="AJ71" s="61"/>
       <c r="AK71" s="19"/>
     </row>
     <row r="72" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="64"/>
-      <c r="B72" s="66"/>
-      <c r="C72" s="67" t="s">
+      <c r="A72" s="53"/>
+      <c r="B72" s="56"/>
+      <c r="C72" s="57" t="s">
         <v>101</v>
       </c>
       <c r="D72" s="2" t="s">
@@ -8851,27 +8866,27 @@
       <c r="S72" s="20"/>
       <c r="T72" s="20"/>
       <c r="U72" s="20"/>
-      <c r="V72" s="59"/>
+      <c r="V72" s="65"/>
       <c r="W72" s="20"/>
       <c r="X72" s="20"/>
       <c r="Y72" s="20"/>
       <c r="Z72" s="20"/>
       <c r="AA72" s="20"/>
       <c r="AB72" s="20"/>
-      <c r="AC72" s="62"/>
+      <c r="AC72" s="68"/>
       <c r="AD72" s="19"/>
       <c r="AE72" s="19"/>
       <c r="AF72" s="19"/>
       <c r="AG72" s="19"/>
       <c r="AH72" s="19"/>
       <c r="AI72" s="19"/>
-      <c r="AJ72" s="54"/>
+      <c r="AJ72" s="61"/>
       <c r="AK72" s="19"/>
     </row>
     <row r="73" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="64"/>
-      <c r="B73" s="66"/>
-      <c r="C73" s="68"/>
+      <c r="A73" s="53"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="58"/>
       <c r="D73" s="2" t="s">
         <v>158</v>
       </c>
@@ -8902,27 +8917,27 @@
       <c r="S73" s="20"/>
       <c r="T73" s="20"/>
       <c r="U73" s="20"/>
-      <c r="V73" s="59"/>
+      <c r="V73" s="65"/>
       <c r="W73" s="20"/>
       <c r="X73" s="20"/>
       <c r="Y73" s="20"/>
       <c r="Z73" s="20"/>
       <c r="AA73" s="20"/>
       <c r="AB73" s="20"/>
-      <c r="AC73" s="62"/>
+      <c r="AC73" s="68"/>
       <c r="AD73" s="19"/>
       <c r="AE73" s="19"/>
       <c r="AF73" s="19"/>
       <c r="AG73" s="19"/>
       <c r="AH73" s="19"/>
       <c r="AI73" s="19"/>
-      <c r="AJ73" s="54"/>
+      <c r="AJ73" s="61"/>
       <c r="AK73" s="19"/>
     </row>
     <row r="74" spans="1:37" ht="19.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="64"/>
-      <c r="B74" s="66"/>
-      <c r="C74" s="69"/>
+      <c r="A74" s="53"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="59"/>
       <c r="D74" s="2" t="s">
         <v>159</v>
       </c>
@@ -8953,27 +8968,27 @@
       <c r="S74" s="37"/>
       <c r="T74" s="37"/>
       <c r="U74" s="37"/>
-      <c r="V74" s="59"/>
+      <c r="V74" s="65"/>
       <c r="W74" s="37"/>
       <c r="X74" s="37"/>
       <c r="Y74" s="37"/>
       <c r="Z74" s="37"/>
       <c r="AA74" s="37"/>
       <c r="AB74" s="37"/>
-      <c r="AC74" s="62"/>
+      <c r="AC74" s="68"/>
       <c r="AD74" s="19"/>
       <c r="AE74" s="19"/>
       <c r="AF74" s="19"/>
       <c r="AG74" s="19"/>
       <c r="AH74" s="19"/>
       <c r="AI74" s="19"/>
-      <c r="AJ74" s="54"/>
+      <c r="AJ74" s="61"/>
       <c r="AK74" s="19"/>
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A75" s="64"/>
-      <c r="B75" s="66"/>
-      <c r="C75" s="56" t="s">
+      <c r="A75" s="53"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="54" t="s">
         <v>30</v>
       </c>
       <c r="D75" s="2" t="s">
@@ -9006,27 +9021,27 @@
       <c r="S75" s="20"/>
       <c r="T75" s="20"/>
       <c r="U75" s="20"/>
-      <c r="V75" s="59"/>
+      <c r="V75" s="65"/>
       <c r="W75" s="20"/>
       <c r="X75" s="20"/>
       <c r="Y75" s="20"/>
       <c r="Z75" s="20"/>
       <c r="AA75" s="20"/>
       <c r="AB75" s="20"/>
-      <c r="AC75" s="62"/>
+      <c r="AC75" s="68"/>
       <c r="AD75" s="19"/>
       <c r="AE75" s="19"/>
       <c r="AF75" s="19"/>
       <c r="AG75" s="19"/>
       <c r="AH75" s="19"/>
       <c r="AI75" s="19"/>
-      <c r="AJ75" s="54"/>
+      <c r="AJ75" s="61"/>
       <c r="AK75" s="19"/>
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A76" s="64"/>
-      <c r="B76" s="66"/>
-      <c r="C76" s="56"/>
+      <c r="A76" s="53"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="54"/>
       <c r="D76" s="2" t="s">
         <v>32</v>
       </c>
@@ -9049,27 +9064,27 @@
       <c r="S76" s="20"/>
       <c r="T76" s="20"/>
       <c r="U76" s="20"/>
-      <c r="V76" s="59"/>
+      <c r="V76" s="65"/>
       <c r="W76" s="20"/>
       <c r="X76" s="20"/>
       <c r="Y76" s="20"/>
       <c r="Z76" s="20"/>
       <c r="AA76" s="20"/>
       <c r="AB76" s="20"/>
-      <c r="AC76" s="62"/>
+      <c r="AC76" s="68"/>
       <c r="AD76" s="19"/>
       <c r="AE76" s="19"/>
       <c r="AF76" s="19"/>
       <c r="AG76" s="19"/>
       <c r="AH76" s="19"/>
       <c r="AI76" s="19"/>
-      <c r="AJ76" s="54"/>
+      <c r="AJ76" s="61"/>
       <c r="AK76" s="19"/>
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A77" s="64"/>
-      <c r="B77" s="66"/>
-      <c r="C77" s="56"/>
+      <c r="A77" s="53"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="54"/>
       <c r="D77" s="2" t="s">
         <v>33</v>
       </c>
@@ -9092,25 +9107,25 @@
       <c r="S77" s="20"/>
       <c r="T77" s="20"/>
       <c r="U77" s="20"/>
-      <c r="V77" s="60"/>
+      <c r="V77" s="66"/>
       <c r="W77" s="20"/>
       <c r="X77" s="20"/>
       <c r="Y77" s="20"/>
       <c r="Z77" s="20"/>
       <c r="AA77" s="20"/>
       <c r="AB77" s="20"/>
-      <c r="AC77" s="63"/>
+      <c r="AC77" s="69"/>
       <c r="AD77" s="19"/>
       <c r="AE77" s="19"/>
       <c r="AF77" s="19"/>
       <c r="AG77" s="19"/>
       <c r="AH77" s="19"/>
       <c r="AI77" s="19"/>
-      <c r="AJ77" s="55"/>
+      <c r="AJ77" s="62"/>
       <c r="AK77" s="19"/>
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A78" s="64"/>
+      <c r="A78" s="53"/>
       <c r="B78" s="44" t="s">
         <v>21</v>
       </c>
@@ -9131,18 +9146,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A5:A78"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="C48:C52"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="B5:B10"/>
-    <mergeCell ref="B56:B77"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C72:C74"/>
     <mergeCell ref="AJ5:AJ77"/>
     <mergeCell ref="C18:C42"/>
     <mergeCell ref="B11:B55"/>
@@ -9159,6 +9162,18 @@
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="D65:D66"/>
     <mergeCell ref="C53:C54"/>
+    <mergeCell ref="A5:A78"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C48:C52"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B56:B77"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C74"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="K3:AK5 AK6:AK77 W6:AB77 AD6:AI77 K6:U77">
@@ -9531,7 +9546,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B10" sqref="B10:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -9698,7 +9713,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="74" t="s">
         <v>180</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -9712,7 +9727,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B16" s="15"/>
+      <c r="B16" s="75"/>
       <c r="C16" s="2" t="s">
         <v>184</v>
       </c>
@@ -9722,10 +9737,12 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>185</v>
+      </c>
       <c r="D17" s="2" t="s">
         <v>58</v>
       </c>
@@ -9734,10 +9751,14 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B18" s="15"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="2" t="s">
+        <v>186</v>
+      </c>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="15"/>
@@ -9766,6 +9787,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/schedule/ガントチャートxlsx.xlsx
+++ b/schedule/ガントチャートxlsx.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81909\Desktop\okashi_222\schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\okashi_222\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14928" windowHeight="12180" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14925" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="ガントチャート" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="185">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -1837,7 +1837,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1997,6 +1997,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="6" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2005,9 +2029,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2029,24 +2050,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="13" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2916,14 +2919,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>16335</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>16334</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>42790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>259782</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>259781</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>231890</xdr:rowOff>
     </xdr:to>
@@ -2934,7 +2937,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12224900" y="17577073"/>
+          <a:off x="13550117" y="17817268"/>
           <a:ext cx="243447" cy="189100"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -3370,6 +3373,68 @@
         <a:xfrm>
           <a:off x="12219578" y="8877970"/>
           <a:ext cx="259136" cy="189100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 52778"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>24848</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>3252</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>238796</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="右矢印 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13558631" y="18312848"/>
+          <a:ext cx="243447" cy="189100"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst>
@@ -5374,35 +5439,35 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AS78"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="10" ySplit="4" topLeftCell="K56" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="10" ySplit="4" topLeftCell="K41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P16" sqref="P16"/>
+      <selection pane="bottomRight" activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="22.59765625" customWidth="1"/>
-    <col min="6" max="6" width="7.09765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.625" customWidth="1"/>
+    <col min="6" max="6" width="7.125" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="7"/>
-    <col min="8" max="9" width="7.09765625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="7.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="3" customWidth="1"/>
     <col min="12" max="15" width="3.5" customWidth="1"/>
-    <col min="16" max="16" width="4.3984375" customWidth="1"/>
+    <col min="16" max="16" width="4.375" customWidth="1"/>
     <col min="17" max="17" width="3.5" customWidth="1"/>
-    <col min="18" max="18" width="3.8984375" customWidth="1"/>
+    <col min="18" max="18" width="3.875" customWidth="1"/>
     <col min="19" max="35" width="3.5" customWidth="1"/>
-    <col min="36" max="36" width="6.69921875" customWidth="1"/>
+    <col min="36" max="36" width="6.75" customWidth="1"/>
     <col min="37" max="45" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="26.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:45" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B1" s="16" t="s">
         <v>87</v>
       </c>
@@ -5434,7 +5499,7 @@
       </c>
       <c r="U1" s="25"/>
     </row>
-    <row r="3" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:45" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K3" s="17">
         <v>44116</v>
       </c>
@@ -5525,7 +5590,7 @@
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
     </row>
-    <row r="4" spans="1:45" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:45" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="32" t="s">
         <v>6</v>
       </c>
@@ -5662,11 +5727,11 @@
         <v>44142</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="64" t="s">
+    <row r="5" spans="1:45" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="56" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -5702,7 +5767,7 @@
       <c r="S5" s="19"/>
       <c r="T5" s="19"/>
       <c r="U5" s="19"/>
-      <c r="V5" s="58" t="s">
+      <c r="V5" s="65" t="s">
         <v>112</v>
       </c>
       <c r="W5" s="19"/>
@@ -5711,7 +5776,7 @@
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
       <c r="AB5" s="19"/>
-      <c r="AC5" s="61" t="s">
+      <c r="AC5" s="68" t="s">
         <v>113</v>
       </c>
       <c r="AD5" s="19"/>
@@ -5720,14 +5785,14 @@
       <c r="AG5" s="19"/>
       <c r="AH5" s="19"/>
       <c r="AI5" s="19"/>
-      <c r="AJ5" s="53" t="s">
+      <c r="AJ5" s="61" t="s">
         <v>89</v>
       </c>
       <c r="AK5" s="19"/>
     </row>
-    <row r="6" spans="1:45" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="64"/>
-      <c r="B6" s="65"/>
+    <row r="6" spans="1:45" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="54"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="20" t="s">
         <v>9</v>
       </c>
@@ -5759,26 +5824,26 @@
       <c r="S6" s="20"/>
       <c r="T6" s="20"/>
       <c r="U6" s="20"/>
-      <c r="V6" s="59"/>
+      <c r="V6" s="66"/>
       <c r="W6" s="20"/>
       <c r="X6" s="20"/>
       <c r="Y6" s="20"/>
       <c r="Z6" s="20"/>
       <c r="AA6" s="20"/>
       <c r="AB6" s="20"/>
-      <c r="AC6" s="62"/>
+      <c r="AC6" s="69"/>
       <c r="AD6" s="19"/>
       <c r="AE6" s="19"/>
       <c r="AF6" s="19"/>
       <c r="AG6" s="19"/>
       <c r="AH6" s="19"/>
       <c r="AI6" s="19"/>
-      <c r="AJ6" s="54"/>
+      <c r="AJ6" s="62"/>
       <c r="AK6" s="19"/>
     </row>
-    <row r="7" spans="1:45" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="64"/>
-      <c r="B7" s="65"/>
+    <row r="7" spans="1:45" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="54"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="20" t="s">
         <v>10</v>
       </c>
@@ -5808,26 +5873,26 @@
       <c r="S7" s="20"/>
       <c r="T7" s="20"/>
       <c r="U7" s="20"/>
-      <c r="V7" s="59"/>
+      <c r="V7" s="66"/>
       <c r="W7" s="20"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="20"/>
       <c r="Z7" s="20"/>
       <c r="AA7" s="20"/>
       <c r="AB7" s="20"/>
-      <c r="AC7" s="62"/>
+      <c r="AC7" s="69"/>
       <c r="AD7" s="19"/>
       <c r="AE7" s="19"/>
       <c r="AF7" s="19"/>
       <c r="AG7" s="19"/>
       <c r="AH7" s="19"/>
       <c r="AI7" s="19"/>
-      <c r="AJ7" s="54"/>
+      <c r="AJ7" s="62"/>
       <c r="AK7" s="19"/>
     </row>
-    <row r="8" spans="1:45" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="64"/>
-      <c r="B8" s="65"/>
+    <row r="8" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="54"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="20" t="s">
         <v>11</v>
       </c>
@@ -5857,26 +5922,26 @@
       <c r="S8" s="20"/>
       <c r="T8" s="20"/>
       <c r="U8" s="20"/>
-      <c r="V8" s="59"/>
+      <c r="V8" s="66"/>
       <c r="W8" s="20"/>
       <c r="X8" s="20"/>
       <c r="Y8" s="20"/>
       <c r="Z8" s="20"/>
       <c r="AA8" s="20"/>
       <c r="AB8" s="20"/>
-      <c r="AC8" s="62"/>
+      <c r="AC8" s="69"/>
       <c r="AD8" s="19"/>
       <c r="AE8" s="19"/>
       <c r="AF8" s="19"/>
       <c r="AG8" s="19"/>
       <c r="AH8" s="19"/>
       <c r="AI8" s="19"/>
-      <c r="AJ8" s="54"/>
+      <c r="AJ8" s="62"/>
       <c r="AK8" s="19"/>
     </row>
-    <row r="9" spans="1:45" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="64"/>
-      <c r="B9" s="65"/>
+    <row r="9" spans="1:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="54"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="20" t="s">
         <v>34</v>
       </c>
@@ -5904,26 +5969,26 @@
       <c r="S9" s="20"/>
       <c r="T9" s="20"/>
       <c r="U9" s="20"/>
-      <c r="V9" s="59"/>
+      <c r="V9" s="66"/>
       <c r="W9" s="20"/>
       <c r="X9" s="20"/>
       <c r="Y9" s="20"/>
       <c r="Z9" s="20"/>
       <c r="AA9" s="20"/>
       <c r="AB9" s="20"/>
-      <c r="AC9" s="62"/>
+      <c r="AC9" s="69"/>
       <c r="AD9" s="19"/>
       <c r="AE9" s="19"/>
       <c r="AF9" s="19"/>
       <c r="AG9" s="19"/>
       <c r="AH9" s="19"/>
       <c r="AI9" s="19"/>
-      <c r="AJ9" s="54"/>
+      <c r="AJ9" s="62"/>
       <c r="AK9" s="19"/>
     </row>
-    <row r="10" spans="1:45" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="64"/>
-      <c r="B10" s="65"/>
+    <row r="10" spans="1:45" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="54"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="20" t="s">
         <v>35</v>
       </c>
@@ -5949,29 +6014,29 @@
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
-      <c r="V10" s="59"/>
+      <c r="V10" s="66"/>
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
       <c r="Z10" s="20"/>
       <c r="AA10" s="20"/>
       <c r="AB10" s="20"/>
-      <c r="AC10" s="62"/>
+      <c r="AC10" s="69"/>
       <c r="AD10" s="19"/>
       <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
       <c r="AI10" s="19"/>
-      <c r="AJ10" s="54"/>
+      <c r="AJ10" s="62"/>
       <c r="AK10" s="19"/>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A11" s="64"/>
-      <c r="B11" s="57" t="s">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A11" s="54"/>
+      <c r="B11" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="55" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -5996,27 +6061,27 @@
       <c r="S11" s="20"/>
       <c r="T11" s="20"/>
       <c r="U11" s="20"/>
-      <c r="V11" s="59"/>
+      <c r="V11" s="66"/>
       <c r="W11" s="20"/>
       <c r="X11" s="20"/>
       <c r="Y11" s="20"/>
       <c r="Z11" s="20"/>
       <c r="AA11" s="20"/>
       <c r="AB11" s="20"/>
-      <c r="AC11" s="62"/>
+      <c r="AC11" s="69"/>
       <c r="AD11" s="19"/>
       <c r="AE11" s="19"/>
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
       <c r="AI11" s="19"/>
-      <c r="AJ11" s="54"/>
+      <c r="AJ11" s="62"/>
       <c r="AK11" s="19"/>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A12" s="64"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="56"/>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A12" s="54"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
@@ -6039,27 +6104,27 @@
       <c r="S12" s="20"/>
       <c r="T12" s="20"/>
       <c r="U12" s="20"/>
-      <c r="V12" s="59"/>
+      <c r="V12" s="66"/>
       <c r="W12" s="20"/>
       <c r="X12" s="20"/>
       <c r="Y12" s="20"/>
       <c r="Z12" s="20"/>
       <c r="AA12" s="20"/>
       <c r="AB12" s="20"/>
-      <c r="AC12" s="62"/>
+      <c r="AC12" s="69"/>
       <c r="AD12" s="19"/>
       <c r="AE12" s="19"/>
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
       <c r="AH12" s="19"/>
       <c r="AI12" s="19"/>
-      <c r="AJ12" s="54"/>
+      <c r="AJ12" s="62"/>
       <c r="AK12" s="19"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A13" s="64"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="56"/>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A13" s="54"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="38" t="s">
         <v>45</v>
       </c>
@@ -6082,27 +6147,27 @@
       <c r="S13" s="20"/>
       <c r="T13" s="20"/>
       <c r="U13" s="20"/>
-      <c r="V13" s="59"/>
+      <c r="V13" s="66"/>
       <c r="W13" s="20"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="20"/>
       <c r="Z13" s="20"/>
       <c r="AA13" s="20"/>
       <c r="AB13" s="20"/>
-      <c r="AC13" s="62"/>
+      <c r="AC13" s="69"/>
       <c r="AD13" s="19"/>
       <c r="AE13" s="19"/>
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="19"/>
       <c r="AI13" s="19"/>
-      <c r="AJ13" s="54"/>
+      <c r="AJ13" s="62"/>
       <c r="AK13" s="19"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A14" s="64"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="56"/>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A14" s="54"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="39" t="s">
         <v>27</v>
       </c>
@@ -6125,27 +6190,27 @@
       <c r="S14" s="20"/>
       <c r="T14" s="20"/>
       <c r="U14" s="20"/>
-      <c r="V14" s="59"/>
+      <c r="V14" s="66"/>
       <c r="W14" s="20"/>
       <c r="X14" s="20"/>
       <c r="Y14" s="20"/>
       <c r="Z14" s="20"/>
       <c r="AA14" s="20"/>
       <c r="AB14" s="20"/>
-      <c r="AC14" s="62"/>
+      <c r="AC14" s="69"/>
       <c r="AD14" s="19"/>
       <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
       <c r="AI14" s="19"/>
-      <c r="AJ14" s="54"/>
+      <c r="AJ14" s="62"/>
       <c r="AK14" s="19"/>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A15" s="64"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="56" t="s">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A15" s="54"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="55" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -6172,27 +6237,27 @@
       <c r="S15" s="20"/>
       <c r="T15" s="20"/>
       <c r="U15" s="20"/>
-      <c r="V15" s="59"/>
+      <c r="V15" s="66"/>
       <c r="W15" s="20"/>
       <c r="X15" s="20"/>
       <c r="Y15" s="20"/>
       <c r="Z15" s="20"/>
       <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
-      <c r="AC15" s="62"/>
+      <c r="AC15" s="69"/>
       <c r="AD15" s="19"/>
       <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
       <c r="AI15" s="19"/>
-      <c r="AJ15" s="54"/>
+      <c r="AJ15" s="62"/>
       <c r="AK15" s="19"/>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.45">
-      <c r="A16" s="64"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="56"/>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.4">
+      <c r="A16" s="54"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="40" t="s">
         <v>45</v>
       </c>
@@ -6215,27 +6280,27 @@
       <c r="S16" s="20"/>
       <c r="T16" s="20"/>
       <c r="U16" s="20"/>
-      <c r="V16" s="59"/>
+      <c r="V16" s="66"/>
       <c r="W16" s="20"/>
       <c r="X16" s="20"/>
       <c r="Y16" s="20"/>
       <c r="Z16" s="20"/>
       <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
-      <c r="AC16" s="62"/>
+      <c r="AC16" s="69"/>
       <c r="AD16" s="19"/>
       <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="19"/>
       <c r="AI16" s="19"/>
-      <c r="AJ16" s="54"/>
+      <c r="AJ16" s="62"/>
       <c r="AK16" s="19"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A17" s="64"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="56"/>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A17" s="54"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
@@ -6258,30 +6323,30 @@
       <c r="S17" s="20"/>
       <c r="T17" s="20"/>
       <c r="U17" s="20"/>
-      <c r="V17" s="59"/>
+      <c r="V17" s="66"/>
       <c r="W17" s="20"/>
       <c r="X17" s="20"/>
       <c r="Y17" s="20"/>
       <c r="Z17" s="20"/>
       <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
-      <c r="AC17" s="62"/>
+      <c r="AC17" s="69"/>
       <c r="AD17" s="19"/>
       <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="19"/>
       <c r="AI17" s="19"/>
-      <c r="AJ17" s="54"/>
+      <c r="AJ17" s="62"/>
       <c r="AK17" s="19"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A18" s="64"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="56" t="s">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A18" s="54"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="55" t="s">
         <v>97</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -6313,28 +6378,28 @@
       <c r="S18" s="20"/>
       <c r="T18" s="20"/>
       <c r="U18" s="20"/>
-      <c r="V18" s="59"/>
+      <c r="V18" s="66"/>
       <c r="W18" s="20"/>
       <c r="X18" s="20"/>
       <c r="Y18" s="20"/>
       <c r="Z18" s="20"/>
       <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
-      <c r="AC18" s="62"/>
+      <c r="AC18" s="69"/>
       <c r="AD18" s="19"/>
       <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="19"/>
       <c r="AI18" s="19"/>
-      <c r="AJ18" s="54"/>
+      <c r="AJ18" s="62"/>
       <c r="AK18" s="19"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A19" s="64"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A19" s="54"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
       <c r="E19" s="2" t="s">
         <v>140</v>
       </c>
@@ -6364,28 +6429,28 @@
       <c r="S19" s="20"/>
       <c r="T19" s="20"/>
       <c r="U19" s="20"/>
-      <c r="V19" s="59"/>
+      <c r="V19" s="66"/>
       <c r="W19" s="20"/>
       <c r="X19" s="20"/>
       <c r="Y19" s="20"/>
       <c r="Z19" s="20"/>
       <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
-      <c r="AC19" s="62"/>
+      <c r="AC19" s="69"/>
       <c r="AD19" s="19"/>
       <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
       <c r="AI19" s="19"/>
-      <c r="AJ19" s="54"/>
+      <c r="AJ19" s="62"/>
       <c r="AK19" s="19"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A20" s="64"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A20" s="54"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
       <c r="E20" s="2" t="s">
         <v>114</v>
       </c>
@@ -6415,28 +6480,28 @@
       <c r="S20" s="20"/>
       <c r="T20" s="20"/>
       <c r="U20" s="20"/>
-      <c r="V20" s="59"/>
+      <c r="V20" s="66"/>
       <c r="W20" s="20"/>
       <c r="X20" s="20"/>
       <c r="Y20" s="20"/>
       <c r="Z20" s="20"/>
       <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
-      <c r="AC20" s="62"/>
+      <c r="AC20" s="69"/>
       <c r="AD20" s="19"/>
       <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="19"/>
       <c r="AI20" s="19"/>
-      <c r="AJ20" s="54"/>
+      <c r="AJ20" s="62"/>
       <c r="AK20" s="19"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A21" s="64"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A21" s="54"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="2" t="s">
         <v>110</v>
       </c>
@@ -6462,28 +6527,28 @@
       <c r="S21" s="20"/>
       <c r="T21" s="20"/>
       <c r="U21" s="20"/>
-      <c r="V21" s="59"/>
+      <c r="V21" s="66"/>
       <c r="W21" s="20"/>
       <c r="X21" s="20"/>
       <c r="Y21" s="20"/>
       <c r="Z21" s="20"/>
       <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
-      <c r="AC21" s="62"/>
+      <c r="AC21" s="69"/>
       <c r="AD21" s="19"/>
       <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
       <c r="AI21" s="19"/>
-      <c r="AJ21" s="54"/>
+      <c r="AJ21" s="62"/>
       <c r="AK21" s="19"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A22" s="64"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A22" s="54"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
       <c r="E22" s="2" t="s">
         <v>137</v>
       </c>
@@ -6513,28 +6578,28 @@
       <c r="S22" s="20"/>
       <c r="T22" s="20"/>
       <c r="U22" s="20"/>
-      <c r="V22" s="59"/>
+      <c r="V22" s="66"/>
       <c r="W22" s="20"/>
       <c r="X22" s="20"/>
       <c r="Y22" s="20"/>
       <c r="Z22" s="20"/>
       <c r="AA22" s="20"/>
       <c r="AB22" s="20"/>
-      <c r="AC22" s="62"/>
+      <c r="AC22" s="69"/>
       <c r="AD22" s="19"/>
       <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="19"/>
       <c r="AI22" s="19"/>
-      <c r="AJ22" s="54"/>
+      <c r="AJ22" s="62"/>
       <c r="AK22" s="19"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A23" s="64"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A23" s="54"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="2" t="s">
         <v>120</v>
       </c>
@@ -6564,28 +6629,28 @@
       <c r="S23" s="20"/>
       <c r="T23" s="20"/>
       <c r="U23" s="20"/>
-      <c r="V23" s="59"/>
+      <c r="V23" s="66"/>
       <c r="W23" s="20"/>
       <c r="X23" s="20"/>
       <c r="Y23" s="20"/>
       <c r="Z23" s="20"/>
       <c r="AA23" s="20"/>
       <c r="AB23" s="20"/>
-      <c r="AC23" s="62"/>
+      <c r="AC23" s="69"/>
       <c r="AD23" s="19"/>
       <c r="AE23" s="19"/>
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="19"/>
       <c r="AI23" s="19"/>
-      <c r="AJ23" s="54"/>
+      <c r="AJ23" s="62"/>
       <c r="AK23" s="19"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A24" s="64"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A24" s="54"/>
+      <c r="B24" s="64"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="2" t="s">
         <v>111</v>
       </c>
@@ -6607,28 +6672,28 @@
       <c r="S24" s="20"/>
       <c r="T24" s="20"/>
       <c r="U24" s="20"/>
-      <c r="V24" s="59"/>
+      <c r="V24" s="66"/>
       <c r="W24" s="20"/>
       <c r="X24" s="20"/>
       <c r="Y24" s="20"/>
       <c r="Z24" s="20"/>
       <c r="AA24" s="20"/>
       <c r="AB24" s="20"/>
-      <c r="AC24" s="62"/>
+      <c r="AC24" s="69"/>
       <c r="AD24" s="19"/>
       <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="19"/>
       <c r="AI24" s="19"/>
-      <c r="AJ24" s="54"/>
+      <c r="AJ24" s="62"/>
       <c r="AK24" s="19"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A25" s="64"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A25" s="54"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="2" t="s">
         <v>169</v>
       </c>
@@ -6654,28 +6719,28 @@
       <c r="S25" s="50"/>
       <c r="T25" s="50"/>
       <c r="U25" s="50"/>
-      <c r="V25" s="59"/>
+      <c r="V25" s="66"/>
       <c r="W25" s="50"/>
       <c r="X25" s="50"/>
       <c r="Y25" s="50"/>
       <c r="Z25" s="50"/>
       <c r="AA25" s="50"/>
       <c r="AB25" s="50"/>
-      <c r="AC25" s="62"/>
+      <c r="AC25" s="69"/>
       <c r="AD25" s="51"/>
       <c r="AE25" s="51"/>
       <c r="AF25" s="51"/>
       <c r="AG25" s="51"/>
       <c r="AH25" s="51"/>
       <c r="AI25" s="51"/>
-      <c r="AJ25" s="54"/>
+      <c r="AJ25" s="62"/>
       <c r="AK25" s="51"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A26" s="64"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A26" s="54"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="2" t="s">
         <v>108</v>
       </c>
@@ -6705,28 +6770,28 @@
       <c r="S26" s="20"/>
       <c r="T26" s="20"/>
       <c r="U26" s="20"/>
-      <c r="V26" s="59"/>
+      <c r="V26" s="66"/>
       <c r="W26" s="20"/>
       <c r="X26" s="20"/>
       <c r="Y26" s="20"/>
       <c r="Z26" s="20"/>
       <c r="AA26" s="20"/>
       <c r="AB26" s="20"/>
-      <c r="AC26" s="62"/>
+      <c r="AC26" s="69"/>
       <c r="AD26" s="19"/>
       <c r="AE26" s="19"/>
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
       <c r="AH26" s="19"/>
       <c r="AI26" s="19"/>
-      <c r="AJ26" s="54"/>
+      <c r="AJ26" s="62"/>
       <c r="AK26" s="19"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A27" s="64"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A27" s="54"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="2" t="s">
         <v>104</v>
       </c>
@@ -6748,28 +6813,28 @@
       <c r="S27" s="20"/>
       <c r="T27" s="20"/>
       <c r="U27" s="20"/>
-      <c r="V27" s="59"/>
+      <c r="V27" s="66"/>
       <c r="W27" s="20"/>
       <c r="X27" s="20"/>
       <c r="Y27" s="20"/>
       <c r="Z27" s="20"/>
       <c r="AA27" s="20"/>
       <c r="AB27" s="20"/>
-      <c r="AC27" s="62"/>
+      <c r="AC27" s="69"/>
       <c r="AD27" s="19"/>
       <c r="AE27" s="19"/>
       <c r="AF27" s="19"/>
       <c r="AG27" s="19"/>
       <c r="AH27" s="19"/>
       <c r="AI27" s="19"/>
-      <c r="AJ27" s="54"/>
+      <c r="AJ27" s="62"/>
       <c r="AK27" s="19"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A28" s="64"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56" t="s">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A28" s="54"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -6801,28 +6866,28 @@
       <c r="S28" s="20"/>
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
-      <c r="V28" s="59"/>
+      <c r="V28" s="66"/>
       <c r="W28" s="20"/>
       <c r="X28" s="20"/>
       <c r="Y28" s="20"/>
       <c r="Z28" s="20"/>
       <c r="AA28" s="20"/>
       <c r="AB28" s="20"/>
-      <c r="AC28" s="62"/>
+      <c r="AC28" s="69"/>
       <c r="AD28" s="19"/>
       <c r="AE28" s="19"/>
       <c r="AF28" s="19"/>
       <c r="AG28" s="19"/>
       <c r="AH28" s="19"/>
       <c r="AI28" s="19"/>
-      <c r="AJ28" s="54"/>
+      <c r="AJ28" s="62"/>
       <c r="AK28" s="19"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A29" s="64"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="56"/>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A29" s="54"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
       <c r="E29" s="2" t="s">
         <v>121</v>
       </c>
@@ -6852,28 +6917,28 @@
       <c r="S29" s="20"/>
       <c r="T29" s="20"/>
       <c r="U29" s="20"/>
-      <c r="V29" s="59"/>
+      <c r="V29" s="66"/>
       <c r="W29" s="20"/>
       <c r="X29" s="20"/>
       <c r="Y29" s="20"/>
       <c r="Z29" s="20"/>
       <c r="AA29" s="20"/>
       <c r="AB29" s="20"/>
-      <c r="AC29" s="62"/>
+      <c r="AC29" s="69"/>
       <c r="AD29" s="19"/>
       <c r="AE29" s="19"/>
       <c r="AF29" s="19"/>
       <c r="AG29" s="19"/>
       <c r="AH29" s="19"/>
       <c r="AI29" s="19"/>
-      <c r="AJ29" s="54"/>
+      <c r="AJ29" s="62"/>
       <c r="AK29" s="19"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A30" s="64"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56" t="s">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A30" s="54"/>
+      <c r="B30" s="64"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55" t="s">
         <v>13</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -6903,28 +6968,28 @@
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
       <c r="U30" s="20"/>
-      <c r="V30" s="59"/>
+      <c r="V30" s="66"/>
       <c r="W30" s="20"/>
       <c r="X30" s="20"/>
       <c r="Y30" s="20"/>
       <c r="Z30" s="20"/>
       <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
-      <c r="AC30" s="62"/>
+      <c r="AC30" s="69"/>
       <c r="AD30" s="19"/>
       <c r="AE30" s="19"/>
       <c r="AF30" s="19"/>
       <c r="AG30" s="19"/>
       <c r="AH30" s="19"/>
       <c r="AI30" s="19"/>
-      <c r="AJ30" s="54"/>
+      <c r="AJ30" s="62"/>
       <c r="AK30" s="19"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A31" s="64"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A31" s="54"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
       <c r="E31" s="2" t="s">
         <v>145</v>
       </c>
@@ -6946,28 +7011,28 @@
       <c r="S31" s="20"/>
       <c r="T31" s="20"/>
       <c r="U31" s="20"/>
-      <c r="V31" s="59"/>
+      <c r="V31" s="66"/>
       <c r="W31" s="20"/>
       <c r="X31" s="20"/>
       <c r="Y31" s="20"/>
       <c r="Z31" s="20"/>
       <c r="AA31" s="20"/>
       <c r="AB31" s="20"/>
-      <c r="AC31" s="62"/>
+      <c r="AC31" s="69"/>
       <c r="AD31" s="19"/>
       <c r="AE31" s="19"/>
       <c r="AF31" s="19"/>
       <c r="AG31" s="19"/>
       <c r="AH31" s="19"/>
       <c r="AI31" s="19"/>
-      <c r="AJ31" s="54"/>
+      <c r="AJ31" s="62"/>
       <c r="AK31" s="19"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A32" s="64"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A32" s="54"/>
+      <c r="B32" s="64"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
       <c r="E32" s="2" t="s">
         <v>115</v>
       </c>
@@ -6997,28 +7062,28 @@
       <c r="S32" s="20"/>
       <c r="T32" s="20"/>
       <c r="U32" s="20"/>
-      <c r="V32" s="59"/>
+      <c r="V32" s="66"/>
       <c r="W32" s="20"/>
       <c r="X32" s="20"/>
       <c r="Y32" s="20"/>
       <c r="Z32" s="20"/>
       <c r="AA32" s="20"/>
       <c r="AB32" s="20"/>
-      <c r="AC32" s="62"/>
+      <c r="AC32" s="69"/>
       <c r="AD32" s="19"/>
       <c r="AE32" s="19"/>
       <c r="AF32" s="19"/>
       <c r="AG32" s="19"/>
       <c r="AH32" s="19"/>
       <c r="AI32" s="19"/>
-      <c r="AJ32" s="54"/>
+      <c r="AJ32" s="62"/>
       <c r="AK32" s="19"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A33" s="64"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="56" t="s">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A33" s="54"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55" t="s">
         <v>92</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -7042,28 +7107,28 @@
       <c r="S33" s="20"/>
       <c r="T33" s="20"/>
       <c r="U33" s="20"/>
-      <c r="V33" s="59"/>
+      <c r="V33" s="66"/>
       <c r="W33" s="20"/>
       <c r="X33" s="20"/>
       <c r="Y33" s="20"/>
       <c r="Z33" s="20"/>
       <c r="AA33" s="20"/>
       <c r="AB33" s="20"/>
-      <c r="AC33" s="62"/>
+      <c r="AC33" s="69"/>
       <c r="AD33" s="19"/>
       <c r="AE33" s="19"/>
       <c r="AF33" s="19"/>
       <c r="AG33" s="19"/>
       <c r="AH33" s="19"/>
       <c r="AI33" s="19"/>
-      <c r="AJ33" s="54"/>
+      <c r="AJ33" s="62"/>
       <c r="AK33" s="19"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A34" s="64"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A34" s="54"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
       <c r="E34" s="2" t="s">
         <v>143</v>
       </c>
@@ -7093,28 +7158,28 @@
       <c r="S34" s="20"/>
       <c r="T34" s="20"/>
       <c r="U34" s="20"/>
-      <c r="V34" s="59"/>
+      <c r="V34" s="66"/>
       <c r="W34" s="20"/>
       <c r="X34" s="20"/>
       <c r="Y34" s="20"/>
       <c r="Z34" s="20"/>
       <c r="AA34" s="20"/>
       <c r="AB34" s="20"/>
-      <c r="AC34" s="62"/>
+      <c r="AC34" s="69"/>
       <c r="AD34" s="19"/>
       <c r="AE34" s="19"/>
       <c r="AF34" s="19"/>
       <c r="AG34" s="19"/>
       <c r="AH34" s="19"/>
       <c r="AI34" s="19"/>
-      <c r="AJ34" s="54"/>
+      <c r="AJ34" s="62"/>
       <c r="AK34" s="19"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.45">
-      <c r="A35" s="64"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.4">
+      <c r="A35" s="54"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
       <c r="E35" s="2" t="s">
         <v>105</v>
       </c>
@@ -7136,27 +7201,27 @@
       <c r="S35" s="20"/>
       <c r="T35" s="20"/>
       <c r="U35" s="20"/>
-      <c r="V35" s="59"/>
+      <c r="V35" s="66"/>
